--- a/data/out/wiki/men/fifa/eu/goals_eu_fifa_men.xlsx
+++ b/data/out/wiki/men/fifa/eu/goals_eu_fifa_men.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3040" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3040" uniqueCount="184">
   <si>
     <t>year</t>
   </si>
@@ -358,7 +358,7 @@
     <t>['West Germany', 'Spain']</t>
   </si>
   <si>
-    <t>['West Germany', 'Portugal']</t>
+    <t>['Portugal', 'West Germany']</t>
   </si>
   <si>
     <t>['Portugal', 'Spain']</t>
@@ -367,7 +367,7 @@
     <t>['West Germany', 'Italy']</t>
   </si>
   <si>
-    <t>['Republic of Ireland', 'Soviet Union']</t>
+    <t>['Soviet Union', 'Republic of Ireland']</t>
   </si>
   <si>
     <t>['Soviet Union', 'Netherlands']</t>
@@ -376,7 +376,7 @@
     <t>['France', 'Sweden']</t>
   </si>
   <si>
-    <t>['England', 'Sweden']</t>
+    <t>['Sweden', 'England']</t>
   </si>
   <si>
     <t>['Denmark', 'Sweden']</t>
@@ -385,7 +385,7 @@
     <t>['Germany', 'Netherlands']</t>
   </si>
   <si>
-    <t>['France', 'Bulgaria']</t>
+    <t>['Bulgaria', 'France']</t>
   </si>
   <si>
     <t>['Bulgaria', 'Spain']</t>
@@ -397,7 +397,7 @@
     <t>['England', 'Netherlands']</t>
   </si>
   <si>
-    <t>['England', 'Scotland']</t>
+    <t>['Scotland', 'England']</t>
   </si>
   <si>
     <t>['Portugal', 'Croatia']</t>
@@ -412,7 +412,7 @@
     <t>['Italy', 'Belgium']</t>
   </si>
   <si>
-    <t>['Italy', 'Turkey']</t>
+    <t>['Turkey', 'Italy']</t>
   </si>
   <si>
     <t>['Portugal', 'England']</t>
@@ -421,10 +421,10 @@
     <t>['Portugal', 'Romania']</t>
   </si>
   <si>
-    <t>['Spain', 'FR Yugoslavia']</t>
-  </si>
-  <si>
-    <t>['Norway', 'FR Yugoslavia']</t>
+    <t>['FR Yugoslavia', 'Spain']</t>
+  </si>
+  <si>
+    <t>['FR Yugoslavia', 'Norway']</t>
   </si>
   <si>
     <t>['France', 'Netherlands']</t>
@@ -433,7 +433,7 @@
     <t>['Greece', 'Spain']</t>
   </si>
   <si>
-    <t>['Portugal', 'Greece']</t>
+    <t>['Greece', 'Portugal']</t>
   </si>
   <si>
     <t>['France', 'England']</t>
@@ -442,9 +442,6 @@
     <t>['France', 'Croatia']</t>
   </si>
   <si>
-    <t>['England', 'France']</t>
-  </si>
-  <si>
     <t>['Czech Republic', 'Netherlands']</t>
   </si>
   <si>
@@ -457,7 +454,7 @@
     <t>['Germany', 'Croatia']</t>
   </si>
   <si>
-    <t>['Netherlands', 'Romania']</t>
+    <t>['Romania', 'Netherlands']</t>
   </si>
   <si>
     <t>['Italy', 'Netherlands']</t>
@@ -466,10 +463,10 @@
     <t>['Sweden', 'Spain']</t>
   </si>
   <si>
-    <t>['Spain', 'Russia']</t>
-  </si>
-  <si>
-    <t>['Czech Republic', 'Russia']</t>
+    <t>['Russia', 'Spain']</t>
+  </si>
+  <si>
+    <t>['Russia', 'Czech Republic']</t>
   </si>
   <si>
     <t>['Greece', 'Russia']</t>
@@ -478,7 +475,7 @@
     <t>['Germany', 'Portugal']</t>
   </si>
   <si>
-    <t>['Denmark', 'Germany']</t>
+    <t>['Germany', 'Denmark']</t>
   </si>
   <si>
     <t>['Croatia', 'Spain']</t>
@@ -487,100 +484,88 @@
     <t>['Italy', 'Spain']</t>
   </si>
   <si>
-    <t>['Switzerland', 'France', 'Romania']</t>
+    <t>['Switzerland', 'Romania', 'France']</t>
   </si>
   <si>
     <t>['Switzerland', 'France', 'Albania']</t>
   </si>
   <si>
-    <t>['Wales', 'England', 'Slovakia']</t>
-  </si>
-  <si>
-    <t>['Poland', 'Germany', 'Northern Ireland']</t>
-  </si>
-  <si>
-    <t>['Croatia', 'Czech Republic', 'Spain']</t>
-  </si>
-  <si>
-    <t>['Croatia', 'Spain', 'Turkey']</t>
-  </si>
-  <si>
-    <t>['Iceland', 'Portugal', 'Hungary']</t>
-  </si>
-  <si>
-    <t>['Italy', 'Belgium', 'Sweden']</t>
+    <t>['Slovakia', 'England', 'Wales']</t>
+  </si>
+  <si>
+    <t>['Germany', 'Northern Ireland', 'Poland']</t>
+  </si>
+  <si>
+    <t>['Czech Republic', 'Croatia', 'Spain']</t>
+  </si>
+  <si>
+    <t>['Turkey', 'Croatia', 'Spain']</t>
+  </si>
+  <si>
+    <t>['Portugal', 'Hungary', 'Iceland']</t>
+  </si>
+  <si>
+    <t>['Italy', 'Sweden', 'Belgium']</t>
   </si>
   <si>
     <t>['Republic of Ireland', 'Italy', 'Belgium']</t>
   </si>
   <si>
-    <t>['Republic of Ireland', 'Belgium', 'Italy']</t>
-  </si>
-  <si>
-    <t>['Wales', 'Italy', 'Switzerland']</t>
+    <t>['Switzerland', 'Italy', 'Wales']</t>
+  </si>
+  <si>
+    <t>['Austria', 'Ukraine', 'Netherlands']</t>
   </si>
   <si>
     <t>['Ukraine', 'Austria', 'Netherlands']</t>
   </si>
   <si>
-    <t>['Russia', 'Belgium', 'Finland']</t>
-  </si>
-  <si>
-    <t>['Denmark', 'Belgium', 'Finland']</t>
-  </si>
-  <si>
-    <t>['England', 'Croatia', 'Czech Republic']</t>
-  </si>
-  <si>
-    <t>['Sweden', 'Slovakia', 'Spain']</t>
-  </si>
-  <si>
-    <t>['Sweden', 'Spain', 'Slovakia']</t>
-  </si>
-  <si>
-    <t>['Germany', 'France', 'Portugal']</t>
-  </si>
-  <si>
-    <t>['France', 'Hungary', 'Portugal']</t>
-  </si>
-  <si>
-    <t>['Portugal', 'France', 'Hungary']</t>
+    <t>['Russia', 'Finland', 'Belgium']</t>
+  </si>
+  <si>
+    <t>['Denmark', 'Finland', 'Belgium']</t>
+  </si>
+  <si>
+    <t>['Croatia', 'Czech Republic', 'England']</t>
+  </si>
+  <si>
+    <t>['Slovakia', 'Sweden', 'Spain']</t>
   </si>
   <si>
     <t>['Germany', 'Portugal', 'France']</t>
   </si>
   <si>
-    <t>['Switzerland', 'Germany', 'Scotland']</t>
-  </si>
-  <si>
-    <t>['Switzerland', 'Germany', 'Hungary']</t>
-  </si>
-  <si>
-    <t>['Albania', 'Italy', 'Spain']</t>
-  </si>
-  <si>
-    <t>['Italy', 'Spain', 'Croatia']</t>
-  </si>
-  <si>
-    <t>['Croatia', 'Spain', 'Italy']</t>
-  </si>
-  <si>
-    <t>['France', 'Austria', 'Netherlands']</t>
-  </si>
-  <si>
-    <t>['Denmark', 'England', 'Slovenia']</t>
-  </si>
-  <si>
-    <t>['Belgium', 'Slovakia', 'Romania']</t>
-  </si>
-  <si>
-    <t>['Ukraine', 'Belgium', 'Slovakia']</t>
-  </si>
-  <si>
-    <t>['Portugal', 'Czech Republic', 'Turkey']</t>
-  </si>
-  <si>
-    <t>['Portugal', 'Georgia', 'Turkey']</t>
+    <t>['Portugal', 'Hungary', 'France']</t>
+  </si>
+  <si>
+    <t>['Germany', 'Switzerland', 'Scotland']</t>
+  </si>
+  <si>
+    <t>['Germany', 'Switzerland', 'Hungary']</t>
+  </si>
+  <si>
+    <t>['Italy', 'Albania', 'Spain']</t>
+  </si>
+  <si>
+    <t>['Italy', 'Croatia', 'Spain']</t>
+  </si>
+  <si>
+    <t>['Austria', 'France', 'Netherlands']</t>
+  </si>
+  <si>
+    <t>['Slovenia', 'Denmark', 'England']</t>
+  </si>
+  <si>
+    <t>['Romania', 'Slovakia', 'Belgium']</t>
+  </si>
+  <si>
+    <t>['Ukraine', 'Slovakia', 'Belgium']</t>
+  </si>
+  <si>
+    <t>['Portugal', 'Turkey', 'Czech Republic']</t>
+  </si>
+  <si>
+    <t>['Portugal', 'Turkey', 'Georgia']</t>
   </si>
 </sst>
 </file>
@@ -7144,7 +7129,7 @@
         <v>76</v>
       </c>
       <c r="J127" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K127" t="s">
         <v>76</v>
@@ -7194,7 +7179,7 @@
         <v>76</v>
       </c>
       <c r="J128" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K128" t="s">
         <v>76</v>
@@ -7244,7 +7229,7 @@
         <v>81</v>
       </c>
       <c r="J129" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K129" t="s">
         <v>76</v>
@@ -8023,7 +8008,7 @@
         <v>92</v>
       </c>
       <c r="J145" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K145" t="s">
         <v>92</v>
@@ -8073,7 +8058,7 @@
         <v>79</v>
       </c>
       <c r="J146" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K146" t="s">
         <v>92</v>
@@ -8123,7 +8108,7 @@
         <v>92</v>
       </c>
       <c r="J147" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K147" t="s">
         <v>92</v>
@@ -8173,7 +8158,7 @@
         <v>79</v>
       </c>
       <c r="J148" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K148" t="s">
         <v>92</v>
@@ -8214,7 +8199,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K149" t="s">
         <v>73</v>
@@ -8261,7 +8246,7 @@
         <v>73</v>
       </c>
       <c r="J150" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K150" t="s">
         <v>73</v>
@@ -8311,7 +8296,7 @@
         <v>92</v>
       </c>
       <c r="J151" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K151" t="s">
         <v>73</v>
@@ -8361,7 +8346,7 @@
         <v>92</v>
       </c>
       <c r="J152" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K152" t="s">
         <v>73</v>
@@ -8411,7 +8396,7 @@
         <v>87</v>
       </c>
       <c r="J153" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K153" t="s">
         <v>73</v>
@@ -8461,7 +8446,7 @@
         <v>82</v>
       </c>
       <c r="J154" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K154" t="s">
         <v>73</v>
@@ -8511,7 +8496,7 @@
         <v>87</v>
       </c>
       <c r="J155" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K155" t="s">
         <v>73</v>
@@ -8561,7 +8546,7 @@
         <v>82</v>
       </c>
       <c r="J156" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K156" t="s">
         <v>73</v>
@@ -8611,7 +8596,7 @@
         <v>82</v>
       </c>
       <c r="J157" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K157" t="s">
         <v>73</v>
@@ -8652,7 +8637,7 @@
         <v>0</v>
       </c>
       <c r="J158" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K158" t="s">
         <v>81</v>
@@ -8699,7 +8684,7 @@
         <v>81</v>
       </c>
       <c r="J159" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K159" t="s">
         <v>81</v>
@@ -8746,7 +8731,7 @@
         <v>88</v>
       </c>
       <c r="J160" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K160" t="s">
         <v>81</v>
@@ -8796,7 +8781,7 @@
         <v>88</v>
       </c>
       <c r="J161" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K161" t="s">
         <v>81</v>
@@ -8846,7 +8831,7 @@
         <v>81</v>
       </c>
       <c r="J162" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K162" t="s">
         <v>81</v>
@@ -8887,7 +8872,7 @@
         <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K163" t="s">
         <v>79</v>
@@ -8934,7 +8919,7 @@
         <v>80</v>
       </c>
       <c r="J164" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K164" t="s">
         <v>79</v>
@@ -8981,7 +8966,7 @@
         <v>74</v>
       </c>
       <c r="J165" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K165" t="s">
         <v>79</v>
@@ -9031,7 +9016,7 @@
         <v>74</v>
       </c>
       <c r="J166" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K166" t="s">
         <v>79</v>
@@ -9081,7 +9066,7 @@
         <v>79</v>
       </c>
       <c r="J167" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K167" t="s">
         <v>79</v>
@@ -9131,7 +9116,7 @@
         <v>74</v>
       </c>
       <c r="J168" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K168" t="s">
         <v>79</v>
@@ -9181,7 +9166,7 @@
         <v>79</v>
       </c>
       <c r="J169" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K169" t="s">
         <v>79</v>
@@ -9222,7 +9207,7 @@
         <v>0</v>
       </c>
       <c r="J170" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K170" t="s">
         <v>86</v>
@@ -9269,7 +9254,7 @@
         <v>77</v>
       </c>
       <c r="J171" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K171" t="s">
         <v>86</v>
@@ -9319,7 +9304,7 @@
         <v>83</v>
       </c>
       <c r="J172" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K172" t="s">
         <v>86</v>
@@ -9369,7 +9354,7 @@
         <v>91</v>
       </c>
       <c r="J173" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K173" t="s">
         <v>86</v>
@@ -9419,7 +9404,7 @@
         <v>83</v>
       </c>
       <c r="J174" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K174" t="s">
         <v>86</v>
@@ -9469,7 +9454,7 @@
         <v>86</v>
       </c>
       <c r="J175" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K175" t="s">
         <v>86</v>
@@ -9519,7 +9504,7 @@
         <v>86</v>
       </c>
       <c r="J176" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K176" t="s">
         <v>86</v>
@@ -9560,7 +9545,7 @@
         <v>0</v>
       </c>
       <c r="J177" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K177" t="s">
         <v>83</v>
@@ -9607,7 +9592,7 @@
         <v>89</v>
       </c>
       <c r="J178" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K178" t="s">
         <v>83</v>
@@ -9654,7 +9639,7 @@
         <v>83</v>
       </c>
       <c r="J179" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K179" t="s">
         <v>83</v>
@@ -9704,7 +9689,7 @@
         <v>91</v>
       </c>
       <c r="J180" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K180" t="s">
         <v>83</v>
@@ -9754,7 +9739,7 @@
         <v>92</v>
       </c>
       <c r="J181" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K181" t="s">
         <v>92</v>
@@ -9795,7 +9780,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K182" t="s">
         <v>88</v>
@@ -9845,7 +9830,7 @@
         <v>79</v>
       </c>
       <c r="J183" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K183" t="s">
         <v>88</v>
@@ -9895,7 +9880,7 @@
         <v>88</v>
       </c>
       <c r="J184" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K184" t="s">
         <v>88</v>
@@ -9945,7 +9930,7 @@
         <v>70</v>
       </c>
       <c r="J185" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K185" t="s">
         <v>88</v>
@@ -9995,7 +9980,7 @@
         <v>73</v>
       </c>
       <c r="J186" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K186" t="s">
         <v>88</v>
@@ -10045,7 +10030,7 @@
         <v>73</v>
       </c>
       <c r="J187" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K187" t="s">
         <v>88</v>
@@ -10098,7 +10083,7 @@
         <v>88</v>
       </c>
       <c r="J188" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K188" t="s">
         <v>88</v>
@@ -10139,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="J189" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K189" t="s">
         <v>86</v>
@@ -10186,7 +10171,7 @@
         <v>86</v>
       </c>
       <c r="J190" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K190" t="s">
         <v>86</v>
@@ -10233,7 +10218,7 @@
         <v>75</v>
       </c>
       <c r="J191" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K191" t="s">
         <v>86</v>
@@ -10283,7 +10268,7 @@
         <v>74</v>
       </c>
       <c r="J192" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K192" t="s">
         <v>86</v>
@@ -10333,7 +10318,7 @@
         <v>86</v>
       </c>
       <c r="J193" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K193" t="s">
         <v>86</v>
@@ -10383,7 +10368,7 @@
         <v>74</v>
       </c>
       <c r="J194" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K194" t="s">
         <v>86</v>
@@ -10568,7 +10553,7 @@
         <v>76</v>
       </c>
       <c r="J198" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K198" t="s">
         <v>76</v>
@@ -10618,7 +10603,7 @@
         <v>77</v>
       </c>
       <c r="J199" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K199" t="s">
         <v>76</v>
@@ -10668,7 +10653,7 @@
         <v>77</v>
       </c>
       <c r="J200" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K200" t="s">
         <v>76</v>
@@ -10709,7 +10694,7 @@
         <v>0</v>
       </c>
       <c r="J201" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K201" t="s">
         <v>71</v>
@@ -10756,7 +10741,7 @@
         <v>100</v>
       </c>
       <c r="J202" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K202" t="s">
         <v>71</v>
@@ -10803,7 +10788,7 @@
         <v>71</v>
       </c>
       <c r="J203" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K203" t="s">
         <v>71</v>
@@ -10853,7 +10838,7 @@
         <v>100</v>
       </c>
       <c r="J204" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K204" t="s">
         <v>71</v>
@@ -10894,7 +10879,7 @@
         <v>0</v>
       </c>
       <c r="J205" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K205" t="s">
         <v>76</v>
@@ -10941,7 +10926,7 @@
         <v>109</v>
       </c>
       <c r="J206" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K206" t="s">
         <v>76</v>
@@ -10991,7 +10976,7 @@
         <v>76</v>
       </c>
       <c r="J207" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K207" t="s">
         <v>76</v>
@@ -11044,7 +11029,7 @@
         <v>109</v>
       </c>
       <c r="J208" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K208" t="s">
         <v>109</v>
@@ -11094,7 +11079,7 @@
         <v>109</v>
       </c>
       <c r="J209" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K209" t="s">
         <v>109</v>
@@ -11144,7 +11129,7 @@
         <v>109</v>
       </c>
       <c r="J210" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K210" t="s">
         <v>109</v>
@@ -11185,7 +11170,7 @@
         <v>0</v>
       </c>
       <c r="J211" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K211" t="s">
         <v>88</v>
@@ -11232,7 +11217,7 @@
         <v>89</v>
       </c>
       <c r="J212" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K212" t="s">
         <v>88</v>
@@ -11279,7 +11264,7 @@
         <v>88</v>
       </c>
       <c r="J213" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K213" t="s">
         <v>88</v>
@@ -11329,7 +11314,7 @@
         <v>88</v>
       </c>
       <c r="J214" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K214" t="s">
         <v>88</v>
@@ -11379,7 +11364,7 @@
         <v>89</v>
       </c>
       <c r="J215" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K215" t="s">
         <v>88</v>
@@ -11420,7 +11405,7 @@
         <v>0</v>
       </c>
       <c r="J216" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K216" t="s">
         <v>86</v>
@@ -11467,7 +11452,7 @@
         <v>82</v>
       </c>
       <c r="J217" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K217" t="s">
         <v>86</v>
@@ -11517,7 +11502,7 @@
         <v>86</v>
       </c>
       <c r="J218" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K218" t="s">
         <v>86</v>
@@ -11567,7 +11552,7 @@
         <v>82</v>
       </c>
       <c r="J219" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K219" t="s">
         <v>86</v>
@@ -11617,7 +11602,7 @@
         <v>81</v>
       </c>
       <c r="J220" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K220" t="s">
         <v>86</v>
@@ -11667,7 +11652,7 @@
         <v>82</v>
       </c>
       <c r="J221" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K221" t="s">
         <v>86</v>
@@ -11717,7 +11702,7 @@
         <v>81</v>
       </c>
       <c r="J222" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K222" t="s">
         <v>81</v>
@@ -11758,7 +11743,7 @@
         <v>0</v>
       </c>
       <c r="J223" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K223" t="s">
         <v>97</v>
@@ -11808,7 +11793,7 @@
         <v>96</v>
       </c>
       <c r="J224" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K224" t="s">
         <v>97</v>
@@ -11858,7 +11843,7 @@
         <v>97</v>
       </c>
       <c r="J225" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K225" t="s">
         <v>97</v>
@@ -11908,7 +11893,7 @@
         <v>73</v>
       </c>
       <c r="J226" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K226" t="s">
         <v>97</v>
@@ -11958,7 +11943,7 @@
         <v>97</v>
       </c>
       <c r="J227" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K227" t="s">
         <v>97</v>
@@ -12008,7 +11993,7 @@
         <v>73</v>
       </c>
       <c r="J228" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K228" t="s">
         <v>97</v>
@@ -12058,7 +12043,7 @@
         <v>97</v>
       </c>
       <c r="J229" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K229" t="s">
         <v>97</v>
@@ -12108,7 +12093,7 @@
         <v>90</v>
       </c>
       <c r="J230" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K230" t="s">
         <v>97</v>
@@ -12158,7 +12143,7 @@
         <v>73</v>
       </c>
       <c r="J231" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K231" t="s">
         <v>97</v>
@@ -12208,7 +12193,7 @@
         <v>96</v>
       </c>
       <c r="J232" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K232" t="s">
         <v>97</v>
@@ -12249,7 +12234,7 @@
         <v>0</v>
       </c>
       <c r="J233" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K233" t="s">
         <v>74</v>
@@ -12296,7 +12281,7 @@
         <v>75</v>
       </c>
       <c r="J234" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K234" t="s">
         <v>74</v>
@@ -12343,7 +12328,7 @@
         <v>102</v>
       </c>
       <c r="J235" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K235" t="s">
         <v>74</v>
@@ -12393,7 +12378,7 @@
         <v>102</v>
       </c>
       <c r="J236" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K236" t="s">
         <v>74</v>
@@ -12443,7 +12428,7 @@
         <v>75</v>
       </c>
       <c r="J237" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K237" t="s">
         <v>102</v>
@@ -12484,7 +12469,7 @@
         <v>0</v>
       </c>
       <c r="J238" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K238" t="s">
         <v>74</v>
@@ -12531,7 +12516,7 @@
         <v>109</v>
       </c>
       <c r="J239" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K239" t="s">
         <v>74</v>
@@ -12581,7 +12566,7 @@
         <v>87</v>
       </c>
       <c r="J240" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K240" t="s">
         <v>74</v>
@@ -12631,7 +12616,7 @@
         <v>87</v>
       </c>
       <c r="J241" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K241" t="s">
         <v>74</v>
@@ -12681,7 +12666,7 @@
         <v>74</v>
       </c>
       <c r="J242" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K242" t="s">
         <v>74</v>
@@ -12731,7 +12716,7 @@
         <v>82</v>
       </c>
       <c r="J243" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K243" t="s">
         <v>74</v>
@@ -12781,7 +12766,7 @@
         <v>87</v>
       </c>
       <c r="J244" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K244" t="s">
         <v>74</v>
@@ -12822,7 +12807,7 @@
         <v>0</v>
       </c>
       <c r="J245" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K245" t="s">
         <v>79</v>
@@ -12869,7 +12854,7 @@
         <v>79</v>
       </c>
       <c r="J246" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K246" t="s">
         <v>79</v>
@@ -12916,7 +12901,7 @@
         <v>90</v>
       </c>
       <c r="J247" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K247" t="s">
         <v>79</v>
@@ -12966,7 +12951,7 @@
         <v>90</v>
       </c>
       <c r="J248" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K248" t="s">
         <v>79</v>
@@ -13016,7 +13001,7 @@
         <v>79</v>
       </c>
       <c r="J249" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K249" t="s">
         <v>79</v>
@@ -13066,7 +13051,7 @@
         <v>79</v>
       </c>
       <c r="J250" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K250" t="s">
         <v>79</v>
@@ -13116,7 +13101,7 @@
         <v>79</v>
       </c>
       <c r="J251" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K251" t="s">
         <v>79</v>
@@ -13157,7 +13142,7 @@
         <v>0</v>
       </c>
       <c r="J252" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K252" t="s">
         <v>102</v>
@@ -13204,7 +13189,7 @@
         <v>102</v>
       </c>
       <c r="J253" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K253" t="s">
         <v>102</v>
@@ -13254,7 +13239,7 @@
         <v>70</v>
       </c>
       <c r="J254" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K254" t="s">
         <v>102</v>
@@ -13304,7 +13289,7 @@
         <v>70</v>
       </c>
       <c r="J255" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K255" t="s">
         <v>102</v>
@@ -13354,7 +13339,7 @@
         <v>83</v>
       </c>
       <c r="J256" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K256" t="s">
         <v>102</v>
@@ -13404,7 +13389,7 @@
         <v>102</v>
       </c>
       <c r="J257" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K257" t="s">
         <v>102</v>
@@ -13454,7 +13439,7 @@
         <v>70</v>
       </c>
       <c r="J258" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K258" t="s">
         <v>102</v>
@@ -13504,7 +13489,7 @@
         <v>102</v>
       </c>
       <c r="J259" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K259" t="s">
         <v>102</v>
@@ -13554,7 +13539,7 @@
         <v>70</v>
       </c>
       <c r="J260" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K260" t="s">
         <v>102</v>
@@ -13595,7 +13580,7 @@
         <v>0</v>
       </c>
       <c r="J261" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K261" t="s">
         <v>92</v>
@@ -13642,7 +13627,7 @@
         <v>76</v>
       </c>
       <c r="J262" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K262" t="s">
         <v>92</v>
@@ -13692,7 +13677,7 @@
         <v>76</v>
       </c>
       <c r="J263" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K263" t="s">
         <v>76</v>
@@ -13742,7 +13727,7 @@
         <v>81</v>
       </c>
       <c r="J264" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K264" t="s">
         <v>76</v>
@@ -13792,7 +13777,7 @@
         <v>78</v>
       </c>
       <c r="J265" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K265" t="s">
         <v>76</v>
@@ -13842,7 +13827,7 @@
         <v>81</v>
       </c>
       <c r="J266" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K266" t="s">
         <v>76</v>
@@ -13892,7 +13877,7 @@
         <v>81</v>
       </c>
       <c r="J267" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K267" t="s">
         <v>76</v>
@@ -13933,7 +13918,7 @@
         <v>0</v>
       </c>
       <c r="J268" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K268" t="s">
         <v>77</v>
@@ -13980,7 +13965,7 @@
         <v>86</v>
       </c>
       <c r="J269" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K269" t="s">
         <v>77</v>
@@ -14030,7 +14015,7 @@
         <v>77</v>
       </c>
       <c r="J270" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K270" t="s">
         <v>77</v>
@@ -14080,7 +14065,7 @@
         <v>86</v>
       </c>
       <c r="J271" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K271" t="s">
         <v>77</v>
@@ -14130,7 +14115,7 @@
         <v>86</v>
       </c>
       <c r="J272" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K272" t="s">
         <v>77</v>
@@ -14180,7 +14165,7 @@
         <v>86</v>
       </c>
       <c r="J273" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K273" t="s">
         <v>77</v>
@@ -14230,7 +14215,7 @@
         <v>77</v>
       </c>
       <c r="J274" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K274" t="s">
         <v>77</v>
@@ -14280,7 +14265,7 @@
         <v>89</v>
       </c>
       <c r="J275" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K275" t="s">
         <v>77</v>
@@ -14330,7 +14315,7 @@
         <v>86</v>
       </c>
       <c r="J276" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K276" t="s">
         <v>77</v>
@@ -14380,7 +14365,7 @@
         <v>86</v>
       </c>
       <c r="J277" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K277" t="s">
         <v>77</v>
@@ -14430,7 +14415,7 @@
         <v>89</v>
       </c>
       <c r="J278" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K278" t="s">
         <v>86</v>
@@ -14480,7 +14465,7 @@
         <v>77</v>
       </c>
       <c r="J279" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K279" t="s">
         <v>77</v>
@@ -14521,7 +14506,7 @@
         <v>0</v>
       </c>
       <c r="J280" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K280" t="s">
         <v>71</v>
@@ -14571,7 +14556,7 @@
         <v>97</v>
       </c>
       <c r="J281" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K281" t="s">
         <v>71</v>
@@ -14621,7 +14606,7 @@
         <v>73</v>
       </c>
       <c r="J282" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K282" t="s">
         <v>73</v>
@@ -14671,7 +14656,7 @@
         <v>71</v>
       </c>
       <c r="J283" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K283" t="s">
         <v>71</v>
@@ -14721,7 +14706,7 @@
         <v>73</v>
       </c>
       <c r="J284" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K284" t="s">
         <v>73</v>
@@ -14771,7 +14756,7 @@
         <v>88</v>
       </c>
       <c r="J285" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="K285" t="s">
         <v>73</v>
@@ -14821,7 +14806,7 @@
         <v>97</v>
       </c>
       <c r="J286" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K286" t="s">
         <v>73</v>
@@ -14871,7 +14856,7 @@
         <v>88</v>
       </c>
       <c r="J287" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="K287" t="s">
         <v>73</v>
@@ -14912,7 +14897,7 @@
         <v>0</v>
       </c>
       <c r="J288" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="K288" t="s">
         <v>88</v>
@@ -14959,7 +14944,7 @@
         <v>97</v>
       </c>
       <c r="J289" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="K289" t="s">
         <v>88</v>
@@ -15009,7 +14994,7 @@
         <v>87</v>
       </c>
       <c r="J290" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="K290" t="s">
         <v>87</v>
@@ -15059,7 +15044,7 @@
         <v>88</v>
       </c>
       <c r="J291" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="K291" t="s">
         <v>88</v>
@@ -15109,7 +15094,7 @@
         <v>97</v>
       </c>
       <c r="J292" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="K292" t="s">
         <v>88</v>
@@ -15150,7 +15135,7 @@
         <v>0</v>
       </c>
       <c r="J293" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="K293" t="s">
         <v>86</v>
@@ -15197,7 +15182,7 @@
         <v>86</v>
       </c>
       <c r="J294" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="K294" t="s">
         <v>86</v>
@@ -15247,7 +15232,7 @@
         <v>86</v>
       </c>
       <c r="J295" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="K295" t="s">
         <v>86</v>
@@ -15297,7 +15282,7 @@
         <v>81</v>
       </c>
       <c r="J296" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="K296" t="s">
         <v>86</v>
@@ -15347,7 +15332,7 @@
         <v>74</v>
       </c>
       <c r="J297" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="K297" t="s">
         <v>86</v>
@@ -15388,7 +15373,7 @@
         <v>0</v>
       </c>
       <c r="J298" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="K298" t="s">
         <v>79</v>
@@ -15438,7 +15423,7 @@
         <v>90</v>
       </c>
       <c r="J299" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="K299" t="s">
         <v>90</v>
@@ -15488,7 +15473,7 @@
         <v>79</v>
       </c>
       <c r="J300" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="K300" t="s">
         <v>79</v>
@@ -15538,7 +15523,7 @@
         <v>71</v>
       </c>
       <c r="J301" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="K301" t="s">
         <v>71</v>
@@ -15588,7 +15573,7 @@
         <v>90</v>
       </c>
       <c r="J302" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="K302" t="s">
         <v>71</v>
@@ -15638,7 +15623,7 @@
         <v>79</v>
       </c>
       <c r="J303" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="K303" t="s">
         <v>71</v>
@@ -15688,7 +15673,7 @@
         <v>89</v>
       </c>
       <c r="J304" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="K304" t="s">
         <v>79</v>
@@ -15738,7 +15723,7 @@
         <v>90</v>
       </c>
       <c r="J305" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="K305" t="s">
         <v>90</v>
@@ -15779,7 +15764,7 @@
         <v>0</v>
       </c>
       <c r="J306" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="K306" t="s">
         <v>76</v>
@@ -15826,7 +15811,7 @@
         <v>84</v>
       </c>
       <c r="J307" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="K307" t="s">
         <v>76</v>
@@ -15873,7 +15858,7 @@
         <v>110</v>
       </c>
       <c r="J308" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="K308" t="s">
         <v>76</v>
@@ -15914,7 +15899,7 @@
         <v>0</v>
       </c>
       <c r="J309" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="K309" t="s">
         <v>80</v>
@@ -15961,7 +15946,7 @@
         <v>102</v>
       </c>
       <c r="J310" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="K310" t="s">
         <v>80</v>
@@ -16011,7 +15996,7 @@
         <v>93</v>
       </c>
       <c r="J311" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="K311" t="s">
         <v>93</v>
@@ -16061,7 +16046,7 @@
         <v>80</v>
       </c>
       <c r="J312" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="K312" t="s">
         <v>80</v>
@@ -16102,7 +16087,7 @@
         <v>0</v>
       </c>
       <c r="J313" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="K313" t="s">
         <v>73</v>
@@ -16149,7 +16134,7 @@
         <v>73</v>
       </c>
       <c r="J314" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="K314" t="s">
         <v>73</v>
@@ -16199,7 +16184,7 @@
         <v>101</v>
       </c>
       <c r="J315" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="K315" t="s">
         <v>73</v>
@@ -16252,7 +16237,7 @@
         <v>82</v>
       </c>
       <c r="J316" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="K316" t="s">
         <v>73</v>
@@ -16302,7 +16287,7 @@
         <v>101</v>
       </c>
       <c r="J317" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="K317" t="s">
         <v>73</v>
@@ -16352,7 +16337,7 @@
         <v>92</v>
       </c>
       <c r="J318" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="K318" t="s">
         <v>73</v>
@@ -16405,7 +16390,7 @@
         <v>82</v>
       </c>
       <c r="J319" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="K319" t="s">
         <v>73</v>

--- a/data/out/wiki/men/fifa/eu/goals_eu_fifa_men.xlsx
+++ b/data/out/wiki/men/fifa/eu/goals_eu_fifa_men.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3040" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3040" uniqueCount="185">
   <si>
     <t>year</t>
   </si>
@@ -355,7 +355,7 @@
     <t>['France', 'Belgium']</t>
   </si>
   <si>
-    <t>['West Germany', 'Spain']</t>
+    <t>['Spain', 'West Germany']</t>
   </si>
   <si>
     <t>['Portugal', 'West Germany']</t>
@@ -364,16 +364,16 @@
     <t>['Portugal', 'Spain']</t>
   </si>
   <si>
-    <t>['West Germany', 'Italy']</t>
-  </si>
-  <si>
-    <t>['Soviet Union', 'Republic of Ireland']</t>
+    <t>['Italy', 'West Germany']</t>
+  </si>
+  <si>
+    <t>['Republic of Ireland', 'Soviet Union']</t>
   </si>
   <si>
     <t>['Soviet Union', 'Netherlands']</t>
   </si>
   <si>
-    <t>['France', 'Sweden']</t>
+    <t>['Sweden', 'France']</t>
   </si>
   <si>
     <t>['Sweden', 'England']</t>
@@ -397,34 +397,34 @@
     <t>['England', 'Netherlands']</t>
   </si>
   <si>
-    <t>['Scotland', 'England']</t>
+    <t>['England', 'Scotland']</t>
   </si>
   <si>
     <t>['Portugal', 'Croatia']</t>
   </si>
   <si>
-    <t>['Germany', 'Italy']</t>
-  </si>
-  <si>
-    <t>['Germany', 'Czech Republic']</t>
+    <t>['Italy', 'Germany']</t>
+  </si>
+  <si>
+    <t>['Czech Republic', 'Germany']</t>
   </si>
   <si>
     <t>['Italy', 'Belgium']</t>
   </si>
   <si>
-    <t>['Turkey', 'Italy']</t>
-  </si>
-  <si>
-    <t>['Portugal', 'England']</t>
-  </si>
-  <si>
-    <t>['Portugal', 'Romania']</t>
+    <t>['Italy', 'Turkey']</t>
+  </si>
+  <si>
+    <t>['England', 'Portugal']</t>
+  </si>
+  <si>
+    <t>['Romania', 'Portugal']</t>
   </si>
   <si>
     <t>['FR Yugoslavia', 'Spain']</t>
   </si>
   <si>
-    <t>['FR Yugoslavia', 'Norway']</t>
+    <t>['Norway', 'FR Yugoslavia']</t>
   </si>
   <si>
     <t>['France', 'Netherlands']</t>
@@ -445,10 +445,10 @@
     <t>['Czech Republic', 'Netherlands']</t>
   </si>
   <si>
-    <t>['Portugal', 'Czech Republic']</t>
-  </si>
-  <si>
-    <t>['Portugal', 'Turkey']</t>
+    <t>['Czech Republic', 'Portugal']</t>
+  </si>
+  <si>
+    <t>['Turkey', 'Portugal']</t>
   </si>
   <si>
     <t>['Germany', 'Croatia']</t>
@@ -466,16 +466,16 @@
     <t>['Russia', 'Spain']</t>
   </si>
   <si>
-    <t>['Russia', 'Czech Republic']</t>
-  </si>
-  <si>
-    <t>['Greece', 'Russia']</t>
+    <t>['Czech Republic', 'Russia']</t>
+  </si>
+  <si>
+    <t>['Russia', 'Greece']</t>
   </si>
   <si>
     <t>['Germany', 'Portugal']</t>
   </si>
   <si>
-    <t>['Germany', 'Denmark']</t>
+    <t>['Denmark', 'Germany']</t>
   </si>
   <si>
     <t>['Croatia', 'Spain']</t>
@@ -490,10 +490,10 @@
     <t>['Switzerland', 'France', 'Albania']</t>
   </si>
   <si>
-    <t>['Slovakia', 'England', 'Wales']</t>
-  </si>
-  <si>
-    <t>['Germany', 'Northern Ireland', 'Poland']</t>
+    <t>['Wales', 'England', 'Slovakia']</t>
+  </si>
+  <si>
+    <t>['Poland', 'Germany', 'Northern Ireland']</t>
   </si>
   <si>
     <t>['Czech Republic', 'Croatia', 'Spain']</t>
@@ -502,46 +502,46 @@
     <t>['Turkey', 'Croatia', 'Spain']</t>
   </si>
   <si>
-    <t>['Portugal', 'Hungary', 'Iceland']</t>
+    <t>['Spain', 'Turkey', 'Croatia']</t>
+  </si>
+  <si>
+    <t>['Iceland', 'Portugal', 'Hungary']</t>
   </si>
   <si>
     <t>['Italy', 'Sweden', 'Belgium']</t>
   </si>
   <si>
-    <t>['Republic of Ireland', 'Italy', 'Belgium']</t>
-  </si>
-  <si>
-    <t>['Switzerland', 'Italy', 'Wales']</t>
-  </si>
-  <si>
-    <t>['Austria', 'Ukraine', 'Netherlands']</t>
-  </si>
-  <si>
-    <t>['Ukraine', 'Austria', 'Netherlands']</t>
-  </si>
-  <si>
-    <t>['Russia', 'Finland', 'Belgium']</t>
-  </si>
-  <si>
-    <t>['Denmark', 'Finland', 'Belgium']</t>
-  </si>
-  <si>
-    <t>['Croatia', 'Czech Republic', 'England']</t>
-  </si>
-  <si>
-    <t>['Slovakia', 'Sweden', 'Spain']</t>
-  </si>
-  <si>
-    <t>['Germany', 'Portugal', 'France']</t>
-  </si>
-  <si>
-    <t>['Portugal', 'Hungary', 'France']</t>
-  </si>
-  <si>
-    <t>['Germany', 'Switzerland', 'Scotland']</t>
-  </si>
-  <si>
-    <t>['Germany', 'Switzerland', 'Hungary']</t>
+    <t>['Italy', 'Belgium', 'Republic of Ireland']</t>
+  </si>
+  <si>
+    <t>['Italy', 'Switzerland', 'Wales']</t>
+  </si>
+  <si>
+    <t>['Austria', 'Netherlands', 'Ukraine']</t>
+  </si>
+  <si>
+    <t>['Russia', 'Belgium', 'Finland']</t>
+  </si>
+  <si>
+    <t>['Denmark', 'Belgium', 'Finland']</t>
+  </si>
+  <si>
+    <t>['Czech Republic', 'England', 'Croatia']</t>
+  </si>
+  <si>
+    <t>['Sweden', 'Slovakia', 'Spain']</t>
+  </si>
+  <si>
+    <t>['France', 'Germany', 'Portugal']</t>
+  </si>
+  <si>
+    <t>['France', 'Portugal', 'Hungary']</t>
+  </si>
+  <si>
+    <t>['Switzerland', 'Germany', 'Scotland']</t>
+  </si>
+  <si>
+    <t>['Switzerland', 'Germany', 'Hungary']</t>
   </si>
   <si>
     <t>['Italy', 'Albania', 'Spain']</t>
@@ -553,19 +553,22 @@
     <t>['Austria', 'France', 'Netherlands']</t>
   </si>
   <si>
-    <t>['Slovenia', 'Denmark', 'England']</t>
-  </si>
-  <si>
-    <t>['Romania', 'Slovakia', 'Belgium']</t>
-  </si>
-  <si>
-    <t>['Ukraine', 'Slovakia', 'Belgium']</t>
-  </si>
-  <si>
-    <t>['Portugal', 'Turkey', 'Czech Republic']</t>
-  </si>
-  <si>
-    <t>['Portugal', 'Turkey', 'Georgia']</t>
+    <t>['France', 'Austria', 'Netherlands']</t>
+  </si>
+  <si>
+    <t>['Denmark', 'England', 'Slovenia']</t>
+  </si>
+  <si>
+    <t>['Romania', 'Belgium', 'Slovakia']</t>
+  </si>
+  <si>
+    <t>['Belgium', 'Slovakia', 'Ukraine']</t>
+  </si>
+  <si>
+    <t>['Czech Republic', 'Turkey', 'Portugal']</t>
+  </si>
+  <si>
+    <t>['Georgia', 'Turkey', 'Portugal']</t>
   </si>
 </sst>
 </file>
@@ -11702,7 +11705,7 @@
         <v>81</v>
       </c>
       <c r="J222" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K222" t="s">
         <v>81</v>
@@ -11743,7 +11746,7 @@
         <v>0</v>
       </c>
       <c r="J223" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K223" t="s">
         <v>97</v>
@@ -11793,7 +11796,7 @@
         <v>96</v>
       </c>
       <c r="J224" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K224" t="s">
         <v>97</v>
@@ -11843,7 +11846,7 @@
         <v>97</v>
       </c>
       <c r="J225" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K225" t="s">
         <v>97</v>
@@ -11893,7 +11896,7 @@
         <v>73</v>
       </c>
       <c r="J226" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K226" t="s">
         <v>97</v>
@@ -11943,7 +11946,7 @@
         <v>97</v>
       </c>
       <c r="J227" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K227" t="s">
         <v>97</v>
@@ -11993,7 +11996,7 @@
         <v>73</v>
       </c>
       <c r="J228" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K228" t="s">
         <v>97</v>
@@ -12043,7 +12046,7 @@
         <v>97</v>
       </c>
       <c r="J229" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K229" t="s">
         <v>97</v>
@@ -12093,7 +12096,7 @@
         <v>90</v>
       </c>
       <c r="J230" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K230" t="s">
         <v>97</v>
@@ -12143,7 +12146,7 @@
         <v>73</v>
       </c>
       <c r="J231" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K231" t="s">
         <v>97</v>
@@ -12193,7 +12196,7 @@
         <v>96</v>
       </c>
       <c r="J232" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K232" t="s">
         <v>97</v>
@@ -12234,7 +12237,7 @@
         <v>0</v>
       </c>
       <c r="J233" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K233" t="s">
         <v>74</v>
@@ -12281,7 +12284,7 @@
         <v>75</v>
       </c>
       <c r="J234" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K234" t="s">
         <v>74</v>
@@ -12328,7 +12331,7 @@
         <v>102</v>
       </c>
       <c r="J235" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K235" t="s">
         <v>74</v>
@@ -12378,7 +12381,7 @@
         <v>102</v>
       </c>
       <c r="J236" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K236" t="s">
         <v>74</v>
@@ -12428,7 +12431,7 @@
         <v>75</v>
       </c>
       <c r="J237" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K237" t="s">
         <v>102</v>
@@ -12469,7 +12472,7 @@
         <v>0</v>
       </c>
       <c r="J238" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K238" t="s">
         <v>74</v>
@@ -12516,7 +12519,7 @@
         <v>109</v>
       </c>
       <c r="J239" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K239" t="s">
         <v>74</v>
@@ -12566,7 +12569,7 @@
         <v>87</v>
       </c>
       <c r="J240" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K240" t="s">
         <v>74</v>
@@ -12616,7 +12619,7 @@
         <v>87</v>
       </c>
       <c r="J241" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K241" t="s">
         <v>74</v>
@@ -12666,7 +12669,7 @@
         <v>74</v>
       </c>
       <c r="J242" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K242" t="s">
         <v>74</v>
@@ -12716,7 +12719,7 @@
         <v>82</v>
       </c>
       <c r="J243" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K243" t="s">
         <v>74</v>
@@ -12766,7 +12769,7 @@
         <v>87</v>
       </c>
       <c r="J244" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K244" t="s">
         <v>74</v>
@@ -12807,7 +12810,7 @@
         <v>0</v>
       </c>
       <c r="J245" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K245" t="s">
         <v>79</v>
@@ -12854,7 +12857,7 @@
         <v>79</v>
       </c>
       <c r="J246" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K246" t="s">
         <v>79</v>
@@ -12901,7 +12904,7 @@
         <v>90</v>
       </c>
       <c r="J247" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K247" t="s">
         <v>79</v>
@@ -15423,7 +15426,7 @@
         <v>90</v>
       </c>
       <c r="J299" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K299" t="s">
         <v>90</v>
@@ -15723,7 +15726,7 @@
         <v>90</v>
       </c>
       <c r="J305" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K305" t="s">
         <v>90</v>
@@ -15764,7 +15767,7 @@
         <v>0</v>
       </c>
       <c r="J306" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K306" t="s">
         <v>76</v>
@@ -15811,7 +15814,7 @@
         <v>84</v>
       </c>
       <c r="J307" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K307" t="s">
         <v>76</v>
@@ -15858,7 +15861,7 @@
         <v>110</v>
       </c>
       <c r="J308" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K308" t="s">
         <v>76</v>
@@ -15899,7 +15902,7 @@
         <v>0</v>
       </c>
       <c r="J309" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K309" t="s">
         <v>80</v>
@@ -15946,7 +15949,7 @@
         <v>102</v>
       </c>
       <c r="J310" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K310" t="s">
         <v>80</v>
@@ -15996,7 +15999,7 @@
         <v>93</v>
       </c>
       <c r="J311" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K311" t="s">
         <v>93</v>
@@ -16046,7 +16049,7 @@
         <v>80</v>
       </c>
       <c r="J312" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K312" t="s">
         <v>80</v>
@@ -16087,7 +16090,7 @@
         <v>0</v>
       </c>
       <c r="J313" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K313" t="s">
         <v>73</v>
@@ -16134,7 +16137,7 @@
         <v>73</v>
       </c>
       <c r="J314" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K314" t="s">
         <v>73</v>
@@ -16184,7 +16187,7 @@
         <v>101</v>
       </c>
       <c r="J315" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K315" t="s">
         <v>73</v>
@@ -16237,7 +16240,7 @@
         <v>82</v>
       </c>
       <c r="J316" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K316" t="s">
         <v>73</v>
@@ -16287,7 +16290,7 @@
         <v>101</v>
       </c>
       <c r="J317" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K317" t="s">
         <v>73</v>
@@ -16337,7 +16340,7 @@
         <v>92</v>
       </c>
       <c r="J318" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K318" t="s">
         <v>73</v>
@@ -16390,7 +16393,7 @@
         <v>82</v>
       </c>
       <c r="J319" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K319" t="s">
         <v>73</v>

--- a/data/out/wiki/men/fifa/eu/goals_eu_fifa_men.xlsx
+++ b/data/out/wiki/men/fifa/eu/goals_eu_fifa_men.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q319"/>
+  <dimension ref="A1:Q320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -550,7 +550,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1118,7 +1118,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1260,7 +1260,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1319,7 +1319,7 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['West Germany', 'Spain']</t>
+          <t>['Spain', 'West Germany']</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1386,7 +1386,7 @@
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['West Germany', 'Spain']</t>
+          <t>['Spain', 'West Germany']</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1453,7 +1453,7 @@
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['West Germany', 'Spain']</t>
+          <t>['Spain', 'West Germany']</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1524,7 +1524,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>['West Germany', 'Portugal']</t>
+          <t>['Portugal', 'West Germany']</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -2143,7 +2143,7 @@
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2210,7 +2210,7 @@
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2285,7 +2285,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2360,7 +2360,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2435,7 +2435,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2510,7 +2510,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2999,7 +2999,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3070,7 +3070,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3756,7 +3756,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>['France', 'Bulgaria']</t>
+          <t>['Bulgaria', 'France']</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -4312,7 +4312,7 @@
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -4379,7 +4379,7 @@
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -4450,7 +4450,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -4521,7 +4521,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -4592,7 +4592,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -4663,7 +4663,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -4805,7 +4805,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -4864,7 +4864,7 @@
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -4931,7 +4931,7 @@
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -4998,7 +4998,7 @@
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -5069,7 +5069,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -5140,7 +5140,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -5211,7 +5211,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -5282,7 +5282,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -5424,7 +5424,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -5483,7 +5483,7 @@
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr">
         <is>
-          <t>['Italy', 'Germany']</t>
+          <t>['Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -5550,7 +5550,7 @@
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr">
         <is>
-          <t>['Italy', 'Germany']</t>
+          <t>['Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -5846,7 +5846,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>['Italy', 'Germany']</t>
+          <t>['Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -5917,7 +5917,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>['Italy', 'Germany']</t>
+          <t>['Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -5988,7 +5988,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>['Italy', 'Germany']</t>
+          <t>['Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -6536,7 +6536,7 @@
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -6603,7 +6603,7 @@
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -6678,7 +6678,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>['Romania', 'Portugal']</t>
+          <t>['Portugal', 'Romania']</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -6749,7 +6749,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>['Romania', 'Portugal']</t>
+          <t>['Portugal', 'Romania']</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -6820,7 +6820,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -6895,7 +6895,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -6966,7 +6966,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -7041,7 +7041,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -7116,7 +7116,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -7191,7 +7191,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>['Romania', 'Portugal']</t>
+          <t>['Portugal', 'Romania']</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -7388,7 +7388,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>['Norway', 'FR Yugoslavia']</t>
+          <t>['FR Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -7530,7 +7530,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>['Norway', 'FR Yugoslavia']</t>
+          <t>['FR Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>['Norway', 'FR Yugoslavia']</t>
+          <t>['FR Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -7814,7 +7814,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Spain']</t>
+          <t>['Spain', 'FR Yugoslavia']</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -8295,7 +8295,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -8366,7 +8366,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -8437,7 +8437,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -8496,7 +8496,7 @@
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr">
         <is>
-          <t>['Greece', 'Spain']</t>
+          <t>['Spain', 'Greece']</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -8563,7 +8563,7 @@
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr">
         <is>
-          <t>['Greece', 'Spain']</t>
+          <t>['Spain', 'Greece']</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -8634,7 +8634,7 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -8705,7 +8705,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -8847,7 +8847,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>['Greece', 'Portugal']</t>
+          <t>['Portugal', 'Greece']</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -8906,7 +8906,7 @@
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -9190,7 +9190,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -9474,7 +9474,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -9545,7 +9545,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -9616,7 +9616,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -9675,7 +9675,7 @@
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -9746,7 +9746,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -9817,7 +9817,7 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -9888,7 +9888,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -9959,7 +9959,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -10030,7 +10030,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -10101,7 +10101,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -10172,7 +10172,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -10783,7 +10783,7 @@
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -10850,7 +10850,7 @@
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -10921,7 +10921,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -10992,7 +10992,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -11063,7 +11063,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -11134,7 +11134,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -11205,7 +11205,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -11276,7 +11276,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -11347,7 +11347,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal']</t>
+          <t>['Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -11406,7 +11406,7 @@
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -11473,7 +11473,7 @@
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -11540,7 +11540,7 @@
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -11611,7 +11611,7 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -11682,7 +11682,7 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -11741,7 +11741,7 @@
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr">
         <is>
-          <t>['Romania', 'Netherlands']</t>
+          <t>['Netherlands', 'Romania']</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -11808,7 +11808,7 @@
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr">
         <is>
-          <t>['Romania', 'Netherlands']</t>
+          <t>['Netherlands', 'Romania']</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -11875,7 +11875,7 @@
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr">
         <is>
-          <t>['Romania', 'Netherlands']</t>
+          <t>['Netherlands', 'Romania']</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -12218,7 +12218,7 @@
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -12285,7 +12285,7 @@
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -12356,7 +12356,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -12427,7 +12427,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -12498,7 +12498,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -12569,7 +12569,7 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -12640,7 +12640,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -12699,7 +12699,7 @@
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr">
         <is>
-          <t>['Russia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Russia']</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -12766,7 +12766,7 @@
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr">
         <is>
-          <t>['Russia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Russia']</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -12833,7 +12833,7 @@
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr">
         <is>
-          <t>['Russia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Russia']</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>['Greece', 'Russia']</t>
+          <t>['Russia', 'Greece']</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -12975,7 +12975,7 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>['Russia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Russia']</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -13105,7 +13105,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>['Denmark', 'Germany']</t>
+          <t>['Germany', 'Denmark']</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -13247,7 +13247,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>['Denmark', 'Germany']</t>
+          <t>['Germany', 'Denmark']</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -13523,7 +13523,7 @@
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -13590,7 +13590,7 @@
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -13657,7 +13657,7 @@
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -13929,7 +13929,7 @@
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -13996,7 +13996,7 @@
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -14063,7 +14063,7 @@
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -14335,7 +14335,7 @@
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr">
         <is>
-          <t>['Romania', 'Switzerland', 'France']</t>
+          <t>['Switzerland', 'France', 'Romania']</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -14402,7 +14402,7 @@
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr">
         <is>
-          <t>['Romania', 'Switzerland', 'France']</t>
+          <t>['Switzerland', 'France', 'Romania']</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -14469,7 +14469,7 @@
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr">
         <is>
-          <t>['Romania', 'Switzerland', 'France']</t>
+          <t>['Switzerland', 'France', 'Romania']</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -14540,7 +14540,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>['Albania', 'Switzerland', 'France']</t>
+          <t>['Switzerland', 'Albania', 'France']</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -14599,7 +14599,7 @@
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Wales', 'England']</t>
+          <t>['Slovakia', 'England', 'Wales']</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -14666,7 +14666,7 @@
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Wales', 'England']</t>
+          <t>['Slovakia', 'England', 'Wales']</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -14737,7 +14737,7 @@
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Wales', 'England']</t>
+          <t>['Slovakia', 'England', 'Wales']</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -14812,7 +14812,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Wales', 'England']</t>
+          <t>['Slovakia', 'England', 'Wales']</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -14883,7 +14883,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Wales', 'England']</t>
+          <t>['Slovakia', 'England', 'Wales']</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -14954,7 +14954,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Wales', 'England']</t>
+          <t>['Slovakia', 'England', 'Wales']</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -15013,7 +15013,7 @@
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Poland', 'Germany']</t>
+          <t>['Germany', 'Northern Ireland', 'Poland']</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -15080,7 +15080,7 @@
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Poland', 'Germany']</t>
+          <t>['Germany', 'Northern Ireland', 'Poland']</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -15147,7 +15147,7 @@
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Poland', 'Germany']</t>
+          <t>['Germany', 'Northern Ireland', 'Poland']</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -15218,7 +15218,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Poland', 'Germany']</t>
+          <t>['Germany', 'Northern Ireland', 'Poland']</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -15289,7 +15289,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Poland', 'Germany']</t>
+          <t>['Germany', 'Northern Ireland', 'Poland']</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -15348,7 +15348,7 @@
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'Spain']</t>
+          <t>['Spain', 'Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -15415,7 +15415,7 @@
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'Spain']</t>
+          <t>['Spain', 'Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -15486,7 +15486,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'Spain']</t>
+          <t>['Spain', 'Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -15557,7 +15557,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>['Turkey', 'Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia', 'Turkey']</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -15628,7 +15628,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>['Turkey', 'Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia', 'Turkey']</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -15699,7 +15699,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>['Turkey', 'Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia', 'Turkey']</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -15770,7 +15770,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>['Turkey', 'Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia', 'Turkey']</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -15829,7 +15829,7 @@
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -15900,7 +15900,7 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -15971,7 +15971,7 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -16042,7 +16042,7 @@
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -16113,7 +16113,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -16184,7 +16184,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -16255,7 +16255,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -16326,7 +16326,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -16397,7 +16397,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -16468,7 +16468,7 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -16732,7 +16732,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Belgium', 'Italy']</t>
+          <t>['Belgium', 'Republic of Ireland', 'Italy']</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -16803,7 +16803,7 @@
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Belgium', 'Italy']</t>
+          <t>['Belgium', 'Republic of Ireland', 'Italy']</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -17343,7 +17343,7 @@
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands', 'Ukraine']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -17410,7 +17410,7 @@
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands', 'Ukraine']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -17477,7 +17477,7 @@
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands', 'Ukraine']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -17548,7 +17548,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands', 'Ukraine']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -17619,7 +17619,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands', 'Ukraine']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -17690,7 +17690,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands', 'Ukraine']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -17761,7 +17761,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands', 'Ukraine']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -17820,7 +17820,7 @@
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr">
         <is>
-          <t>['Finland', 'Russia', 'Belgium']</t>
+          <t>['Finland', 'Belgium', 'Russia']</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -17887,7 +17887,7 @@
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr">
         <is>
-          <t>['Finland', 'Russia', 'Belgium']</t>
+          <t>['Finland', 'Belgium', 'Russia']</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -17958,7 +17958,7 @@
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>['Finland', 'Denmark', 'Belgium']</t>
+          <t>['Finland', 'Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -18029,7 +18029,7 @@
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>['Finland', 'Denmark', 'Belgium']</t>
+          <t>['Finland', 'Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -18100,7 +18100,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>['Finland', 'Denmark', 'Belgium']</t>
+          <t>['Finland', 'Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -18171,7 +18171,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>['Denmark', 'Russia', 'Belgium']</t>
+          <t>['Belgium', 'Russia', 'Denmark']</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -18242,7 +18242,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>['Denmark', 'Finland', 'Belgium']</t>
+          <t>['Finland', 'Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -18313,7 +18313,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>['Denmark', 'Finland', 'Belgium']</t>
+          <t>['Finland', 'Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -18384,7 +18384,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>['Denmark', 'Finland', 'Belgium']</t>
+          <t>['Finland', 'Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -18443,7 +18443,7 @@
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'England']</t>
+          <t>['Czech Republic', 'Croatia', 'England']</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -18510,7 +18510,7 @@
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'England']</t>
+          <t>['Czech Republic', 'Croatia', 'England']</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -18581,7 +18581,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'England']</t>
+          <t>['Czech Republic', 'Croatia', 'England']</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -18652,7 +18652,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'England']</t>
+          <t>['Czech Republic', 'Croatia', 'England']</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -18723,7 +18723,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'England']</t>
+          <t>['Czech Republic', 'Croatia', 'England']</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -18794,7 +18794,7 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'England']</t>
+          <t>['Czech Republic', 'Croatia', 'England']</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -18865,7 +18865,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'England']</t>
+          <t>['Czech Republic', 'Croatia', 'England']</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -18924,7 +18924,7 @@
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -18991,7 +18991,7 @@
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -19062,7 +19062,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -19133,7 +19133,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -19204,7 +19204,7 @@
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -19275,7 +19275,7 @@
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -19346,7 +19346,7 @@
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -19417,7 +19417,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -19488,7 +19488,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -19559,7 +19559,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -19630,7 +19630,7 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -19701,7 +19701,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -19760,7 +19760,7 @@
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Germany']</t>
+          <t>['Portugal', 'Germany', 'France']</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
@@ -19831,7 +19831,7 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'France']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -19902,7 +19902,7 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'France']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -19973,7 +19973,7 @@
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'France']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -20025,7 +20025,7 @@
         <v>1</v>
       </c>
       <c r="F284" t="n">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="G284" t="inlineStr">
         <is>
@@ -20039,37 +20039,37 @@
       </c>
       <c r="I284" t="inlineStr">
         <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="J284" t="inlineStr">
+        <is>
+          <t>['Portugal', 'France', 'Hungary']</t>
+        </is>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>Hungary</t>
+        </is>
+      </c>
+      <c r="M284" t="inlineStr">
+        <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="J284" t="inlineStr">
-        <is>
-          <t>['Hungary', 'Portugal', 'France']</t>
-        </is>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="L284" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="M284" t="inlineStr">
-        <is>
-          <t>Hungary</t>
-        </is>
-      </c>
       <c r="N284" t="n">
         <v>0</v>
       </c>
       <c r="O284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P284" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Q284" t="inlineStr"/>
     </row>
@@ -20093,54 +20093,54 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F285" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="H285" t="inlineStr">
         <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="I285" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="J285" t="inlineStr">
+        <is>
+          <t>['Portugal', 'France', 'Hungary']</t>
+        </is>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="M285" t="inlineStr">
+        <is>
           <t>Hungary</t>
         </is>
       </c>
-      <c r="I285" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="J285" t="inlineStr">
-        <is>
-          <t>['Portugal', 'France', 'Germany']</t>
-        </is>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="L285" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="M285" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
       <c r="N285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O285" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P285" t="n">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="Q285" t="inlineStr"/>
     </row>
@@ -20164,10 +20164,10 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F286" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G286" t="inlineStr">
         <is>
@@ -20181,37 +20181,37 @@
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'France']</t>
+          <t>['Portugal', 'Germany', 'France']</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
         <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="L286" t="inlineStr">
+        <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="L286" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
       <c r="M286" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="N286" t="n">
         <v>1</v>
       </c>
       <c r="O286" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P286" t="n">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="Q286" t="inlineStr"/>
     </row>
@@ -20235,10 +20235,10 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F287" t="n">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
@@ -20252,52 +20252,52 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Germany']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
         <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="L287" t="inlineStr">
+        <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="L287" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
       <c r="M287" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="N287" t="n">
         <v>1</v>
       </c>
       <c r="O287" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P287" t="n">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="Q287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>2024-06-23</t>
+          <t>2021-06-23</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -20306,42 +20306,54 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F288" t="n">
-        <v>0</v>
-      </c>
-      <c r="G288" t="inlineStr"/>
-      <c r="H288" t="inlineStr"/>
-      <c r="I288" t="inlineStr"/>
+        <v>84</v>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>Hungary</t>
+        </is>
+      </c>
+      <c r="I288" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Scotland', 'Germany']</t>
+          <t>['Portugal', 'Germany', 'France']</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
         <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="M288" t="inlineStr">
+        <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="L288" t="inlineStr">
-        <is>
-          <t>Switzerland</t>
-        </is>
-      </c>
-      <c r="M288" t="inlineStr">
-        <is>
-          <t>Scotland</t>
-        </is>
-      </c>
       <c r="N288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P288" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q288" t="inlineStr"/>
     </row>
@@ -20370,20 +20382,12 @@
       <c r="F289" t="n">
         <v>0</v>
       </c>
-      <c r="G289" t="inlineStr">
-        <is>
-          <t>Scotland</t>
-        </is>
-      </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>Hungary</t>
-        </is>
-      </c>
+      <c r="G289" t="inlineStr"/>
+      <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Scotland', 'Germany']</t>
+          <t>['Switzerland', 'Germany', 'Scotland']</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
@@ -20405,7 +20409,7 @@
         <v>0</v>
       </c>
       <c r="O289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P289" t="n">
         <v>0</v>
@@ -20435,36 +20439,32 @@
         <v>0</v>
       </c>
       <c r="F290" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
+          <t>Scotland</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>Hungary</t>
+        </is>
+      </c>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="inlineStr">
+        <is>
+          <t>['Switzerland', 'Germany', 'Scotland']</t>
+        </is>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="L290" t="inlineStr">
+        <is>
           <t>Switzerland</t>
-        </is>
-      </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="I290" t="inlineStr">
-        <is>
-          <t>Switzerland</t>
-        </is>
-      </c>
-      <c r="J290" t="inlineStr">
-        <is>
-          <t>['Switzerland', 'Scotland', 'Germany']</t>
-        </is>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>Switzerland</t>
-        </is>
-      </c>
-      <c r="L290" t="inlineStr">
-        <is>
-          <t>Germany</t>
         </is>
       </c>
       <c r="M290" t="inlineStr">
@@ -20506,7 +20506,7 @@
         <v>0</v>
       </c>
       <c r="F291" t="n">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="G291" t="inlineStr">
         <is>
@@ -20520,22 +20520,22 @@
       </c>
       <c r="I291" t="inlineStr">
         <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="J291" t="inlineStr">
+        <is>
+          <t>['Switzerland', 'Germany', 'Scotland']</t>
+        </is>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="L291" t="inlineStr">
+        <is>
           <t>Germany</t>
-        </is>
-      </c>
-      <c r="J291" t="inlineStr">
-        <is>
-          <t>['Switzerland', 'Scotland', 'Germany']</t>
-        </is>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="L291" t="inlineStr">
-        <is>
-          <t>Switzerland</t>
         </is>
       </c>
       <c r="M291" t="inlineStr">
@@ -20574,54 +20574,54 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F292" t="n">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="I292" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="J292" t="inlineStr">
+        <is>
+          <t>['Switzerland', 'Germany', 'Scotland']</t>
+        </is>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="M292" t="inlineStr">
+        <is>
           <t>Scotland</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>Hungary</t>
-        </is>
-      </c>
-      <c r="I292" t="inlineStr">
-        <is>
-          <t>Hungary</t>
-        </is>
-      </c>
-      <c r="J292" t="inlineStr">
-        <is>
-          <t>['Switzerland', 'Hungary', 'Germany']</t>
-        </is>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="L292" t="inlineStr">
-        <is>
-          <t>Switzerland</t>
-        </is>
-      </c>
-      <c r="M292" t="inlineStr">
-        <is>
-          <t>Hungary</t>
-        </is>
-      </c>
       <c r="N292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O292" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q292" t="inlineStr"/>
     </row>
@@ -20631,12 +20631,12 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>2024-06-24</t>
+          <t>2024-06-23</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -20645,42 +20645,54 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F293" t="n">
-        <v>0</v>
-      </c>
-      <c r="G293" t="inlineStr"/>
-      <c r="H293" t="inlineStr"/>
-      <c r="I293" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>Scotland</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>Hungary</t>
+        </is>
+      </c>
+      <c r="I293" t="inlineStr">
+        <is>
+          <t>Hungary</t>
+        </is>
+      </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>['Albania', 'Spain', 'Italy']</t>
+          <t>['Switzerland', 'Germany', 'Hungary']</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="L293" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="M293" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="N293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q293" t="inlineStr"/>
     </row>
@@ -20709,20 +20721,12 @@
       <c r="F294" t="n">
         <v>0</v>
       </c>
-      <c r="G294" t="inlineStr">
-        <is>
-          <t>Albania</t>
-        </is>
-      </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
+      <c r="G294" t="inlineStr"/>
+      <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr">
         <is>
-          <t>['Albania', 'Spain', 'Italy']</t>
+          <t>['Spain', 'Albania', 'Italy']</t>
         </is>
       </c>
       <c r="K294" t="inlineStr">
@@ -20747,7 +20751,7 @@
         <v>0</v>
       </c>
       <c r="P294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q294" t="inlineStr"/>
     </row>
@@ -20771,10 +20775,10 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F295" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -20786,21 +20790,17 @@
           <t>Spain</t>
         </is>
       </c>
-      <c r="I295" t="inlineStr">
+      <c r="I295" t="inlineStr"/>
+      <c r="J295" t="inlineStr">
+        <is>
+          <t>['Spain', 'Albania', 'Italy']</t>
+        </is>
+      </c>
+      <c r="K295" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="J295" t="inlineStr">
-        <is>
-          <t>['Croatia', 'Spain', 'Italy']</t>
-        </is>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
       <c r="L295" t="inlineStr">
         <is>
           <t>Italy</t>
@@ -20808,17 +20808,17 @@
       </c>
       <c r="M295" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Albania</t>
         </is>
       </c>
       <c r="N295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P295" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Q295" t="inlineStr"/>
     </row>
@@ -20845,51 +20845,51 @@
         <v>1</v>
       </c>
       <c r="F296" t="n">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
+          <t>Albania</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="I296" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="J296" t="inlineStr">
+        <is>
+          <t>['Spain', 'Croatia', 'Italy']</t>
+        </is>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="M296" t="inlineStr">
+        <is>
           <t>Croatia</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="I296" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="J296" t="inlineStr">
-        <is>
-          <t>['Croatia', 'Spain', 'Italy']</t>
-        </is>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="L296" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="M296" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
       <c r="N296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O296" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P296" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q296" t="inlineStr"/>
     </row>
@@ -20916,7 +20916,7 @@
         <v>1</v>
       </c>
       <c r="F297" t="n">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -20930,37 +20930,37 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="J297" t="inlineStr">
+        <is>
+          <t>['Spain', 'Croatia', 'Italy']</t>
+        </is>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="M297" t="inlineStr">
+        <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="J297" t="inlineStr">
-        <is>
-          <t>['Croatia', 'Spain', 'Italy']</t>
-        </is>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="L297" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="M297" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
       <c r="N297" t="n">
         <v>0</v>
       </c>
       <c r="O297" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P297" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q297" t="inlineStr"/>
     </row>
@@ -20970,56 +20970,68 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>2024-06-25</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="E298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F298" t="n">
-        <v>0</v>
-      </c>
-      <c r="G298" t="inlineStr"/>
-      <c r="H298" t="inlineStr"/>
-      <c r="I298" t="inlineStr"/>
+        <v>98</v>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="I298" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['Spain', 'Croatia', 'Italy']</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="L298" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="M298" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="N298" t="n">
         <v>0</v>
       </c>
       <c r="O298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P298" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q298" t="inlineStr"/>
     </row>
@@ -21046,51 +21058,39 @@
         <v>0</v>
       </c>
       <c r="F299" t="n">
-        <v>6</v>
-      </c>
-      <c r="G299" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G299" t="inlineStr"/>
+      <c r="H299" t="inlineStr"/>
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="inlineStr">
+        <is>
+          <t>['Netherlands', 'France', 'Austria']</t>
+        </is>
+      </c>
+      <c r="K299" t="inlineStr">
         <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="M299" t="inlineStr">
         <is>
           <t>Austria</t>
         </is>
       </c>
-      <c r="I299" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
-      </c>
-      <c r="J299" t="inlineStr">
-        <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
-        </is>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
-      </c>
-      <c r="L299" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="M299" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
       <c r="N299" t="n">
         <v>0</v>
       </c>
       <c r="O299" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P299" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q299" t="inlineStr"/>
     </row>
@@ -21117,7 +21117,7 @@
         <v>0</v>
       </c>
       <c r="F300" t="n">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -21131,27 +21131,27 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="J300" t="inlineStr">
+        <is>
+          <t>['Netherlands', 'Austria', 'France']</t>
+        </is>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="M300" t="inlineStr">
+        <is>
           <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="J300" t="inlineStr">
-        <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
-        </is>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="L300" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="M300" t="inlineStr">
-        <is>
-          <t>Austria</t>
         </is>
       </c>
       <c r="N300" t="n">
@@ -21161,7 +21161,7 @@
         <v>3</v>
       </c>
       <c r="P300" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q300" t="inlineStr"/>
     </row>
@@ -21188,38 +21188,38 @@
         <v>0</v>
       </c>
       <c r="F301" t="n">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="I301" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="J301" t="inlineStr">
+        <is>
+          <t>['Netherlands', 'France', 'Austria']</t>
+        </is>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="L301" t="inlineStr">
+        <is>
           <t>France</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>Poland</t>
-        </is>
-      </c>
-      <c r="I301" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="J301" t="inlineStr">
-        <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
-        </is>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="L301" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
       <c r="M301" t="inlineStr">
         <is>
           <t>Austria</t>
@@ -21229,10 +21229,10 @@
         <v>0</v>
       </c>
       <c r="O301" t="n">
+        <v>3</v>
+      </c>
+      <c r="P301" t="n">
         <v>4</v>
-      </c>
-      <c r="P301" t="n">
-        <v>5</v>
       </c>
       <c r="Q301" t="inlineStr"/>
     </row>
@@ -21259,41 +21259,41 @@
         <v>0</v>
       </c>
       <c r="F302" t="n">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="I302" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="J302" t="inlineStr">
+        <is>
+          <t>['Netherlands', 'France', 'Austria']</t>
+        </is>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="L302" t="inlineStr">
+        <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
+      <c r="M302" t="inlineStr">
         <is>
           <t>Austria</t>
-        </is>
-      </c>
-      <c r="I302" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
-      </c>
-      <c r="J302" t="inlineStr">
-        <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
-        </is>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="L302" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
-      </c>
-      <c r="M302" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
         </is>
       </c>
       <c r="N302" t="n">
@@ -21303,7 +21303,7 @@
         <v>4</v>
       </c>
       <c r="P302" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q302" t="inlineStr"/>
     </row>
@@ -21330,7 +21330,7 @@
         <v>0</v>
       </c>
       <c r="F303" t="n">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -21344,27 +21344,27 @@
       </c>
       <c r="I303" t="inlineStr">
         <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="J303" t="inlineStr">
+        <is>
+          <t>['Netherlands', 'France', 'Austria']</t>
+        </is>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="M303" t="inlineStr">
+        <is>
           <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="J303" t="inlineStr">
-        <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
-        </is>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="L303" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="M303" t="inlineStr">
-        <is>
-          <t>Austria</t>
         </is>
       </c>
       <c r="N303" t="n">
@@ -21374,7 +21374,7 @@
         <v>4</v>
       </c>
       <c r="P303" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q303" t="inlineStr"/>
     </row>
@@ -21401,38 +21401,38 @@
         <v>0</v>
       </c>
       <c r="F304" t="n">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="I304" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="J304" t="inlineStr">
+        <is>
+          <t>['Netherlands', 'France', 'Austria']</t>
+        </is>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
           <t>France</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>Poland</t>
-        </is>
-      </c>
-      <c r="I304" t="inlineStr">
-        <is>
-          <t>Poland</t>
-        </is>
-      </c>
-      <c r="J304" t="inlineStr">
-        <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
-        </is>
-      </c>
-      <c r="K304" t="inlineStr">
+      <c r="L304" t="inlineStr">
         <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="L304" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
       <c r="M304" t="inlineStr">
         <is>
           <t>Austria</t>
@@ -21442,10 +21442,10 @@
         <v>0</v>
       </c>
       <c r="O304" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P304" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q304" t="inlineStr"/>
     </row>
@@ -21472,41 +21472,41 @@
         <v>0</v>
       </c>
       <c r="F305" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="I305" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="J305" t="inlineStr">
+        <is>
+          <t>['Netherlands', 'France', 'Austria']</t>
+        </is>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="M305" t="inlineStr">
         <is>
           <t>Austria</t>
-        </is>
-      </c>
-      <c r="I305" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
-      </c>
-      <c r="J305" t="inlineStr">
-        <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
-        </is>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
-      </c>
-      <c r="L305" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="M305" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
         </is>
       </c>
       <c r="N305" t="n">
@@ -21516,7 +21516,7 @@
         <v>3</v>
       </c>
       <c r="P305" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q305" t="inlineStr"/>
     </row>
@@ -21526,7 +21526,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -21536,46 +21536,58 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="E306" t="n">
         <v>0</v>
       </c>
       <c r="F306" t="n">
-        <v>0</v>
-      </c>
-      <c r="G306" t="inlineStr"/>
-      <c r="H306" t="inlineStr"/>
-      <c r="I306" t="inlineStr"/>
+        <v>80</v>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="I306" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>['Slovenia', 'Denmark', 'England']</t>
+          <t>['Netherlands', 'Austria', 'France']</t>
         </is>
       </c>
       <c r="K306" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="L306" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="M306" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="N306" t="n">
         <v>0</v>
       </c>
       <c r="O306" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P306" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q306" t="inlineStr"/>
     </row>
@@ -21604,20 +21616,12 @@
       <c r="F307" t="n">
         <v>0</v>
       </c>
-      <c r="G307" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>Slovenia</t>
-        </is>
-      </c>
+      <c r="G307" t="inlineStr"/>
+      <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr">
         <is>
-          <t>['Slovenia', 'Denmark', 'England']</t>
+          <t>['England', 'Slovenia', 'Denmark']</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -21639,10 +21643,10 @@
         <v>0</v>
       </c>
       <c r="O307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q307" t="inlineStr"/>
     </row>
@@ -21673,18 +21677,18 @@
       </c>
       <c r="G308" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>England</t>
         </is>
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr">
         <is>
-          <t>['Slovenia', 'Denmark', 'England']</t>
+          <t>['England', 'Slovenia', 'Denmark']</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -21719,17 +21723,17 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>2024-06-26</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="E309" t="n">
@@ -21738,37 +21742,45 @@
       <c r="F309" t="n">
         <v>0</v>
       </c>
-      <c r="G309" t="inlineStr"/>
-      <c r="H309" t="inlineStr"/>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr">
         <is>
-          <t>['Romania', 'Slovakia', 'Belgium']</t>
+          <t>['England', 'Slovenia', 'Denmark']</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>England</t>
         </is>
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="M309" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="N309" t="n">
         <v>0</v>
       </c>
       <c r="O309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q309" t="inlineStr"/>
     </row>
@@ -21797,20 +21809,12 @@
       <c r="F310" t="n">
         <v>0</v>
       </c>
-      <c r="G310" t="inlineStr">
-        <is>
-          <t>Ukraine</t>
-        </is>
-      </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
-      </c>
+      <c r="G310" t="inlineStr"/>
+      <c r="H310" t="inlineStr"/>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr">
         <is>
-          <t>['Romania', 'Slovakia', 'Belgium']</t>
+          <t>['Belgium', 'Slovakia', 'Romania']</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -21835,7 +21839,7 @@
         <v>0</v>
       </c>
       <c r="P310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q310" t="inlineStr"/>
     </row>
@@ -21859,54 +21863,50 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F311" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="I311" t="inlineStr"/>
+      <c r="J311" t="inlineStr">
+        <is>
+          <t>['Belgium', 'Slovakia', 'Romania']</t>
+        </is>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="M311" t="inlineStr">
+        <is>
           <t>Slovakia</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>Romania</t>
-        </is>
-      </c>
-      <c r="I311" t="inlineStr">
-        <is>
-          <t>Slovakia</t>
-        </is>
-      </c>
-      <c r="J311" t="inlineStr">
-        <is>
-          <t>['Slovakia', 'Belgium', 'Ukraine']</t>
-        </is>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>Slovakia</t>
-        </is>
-      </c>
-      <c r="L311" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
-      </c>
-      <c r="M311" t="inlineStr">
-        <is>
-          <t>Ukraine</t>
-        </is>
-      </c>
       <c r="N311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P311" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="Q311" t="inlineStr"/>
     </row>
@@ -21930,10 +21930,10 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F312" t="n">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -21947,17 +21947,17 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>['Romania', 'Slovakia', 'Belgium']</t>
+          <t>['Ukraine', 'Belgium', 'Slovakia']</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="L312" t="inlineStr">
@@ -21967,17 +21967,17 @@
       </c>
       <c r="M312" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="N312" t="n">
         <v>1</v>
       </c>
       <c r="O312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P312" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="Q312" t="inlineStr"/>
     </row>
@@ -21987,7 +21987,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -21997,46 +21997,58 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="E313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F313" t="n">
-        <v>0</v>
-      </c>
-      <c r="G313" t="inlineStr"/>
-      <c r="H313" t="inlineStr"/>
-      <c r="I313" t="inlineStr"/>
+        <v>37</v>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="I313" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>['Turkey', 'Czech Republic', 'Portugal']</t>
+          <t>['Belgium', 'Slovakia', 'Romania']</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="M313" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="N313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O313" t="n">
         <v>0</v>
       </c>
       <c r="P313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q313" t="inlineStr"/>
     </row>
@@ -22065,20 +22077,12 @@
       <c r="F314" t="n">
         <v>0</v>
       </c>
-      <c r="G314" t="inlineStr">
-        <is>
-          <t>Georgia</t>
-        </is>
-      </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
+      <c r="G314" t="inlineStr"/>
+      <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr">
         <is>
-          <t>['Turkey', 'Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Turkey', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -22103,7 +22107,7 @@
         <v>0</v>
       </c>
       <c r="P314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q314" t="inlineStr"/>
     </row>
@@ -22127,10 +22131,10 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -22142,14 +22146,10 @@
           <t>Portugal</t>
         </is>
       </c>
-      <c r="I315" t="inlineStr">
-        <is>
-          <t>Georgia</t>
-        </is>
-      </c>
+      <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr">
         <is>
-          <t>['Turkey', 'Georgia', 'Portugal']</t>
+          <t>['Portugal', 'Turkey', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -22164,23 +22164,19 @@
       </c>
       <c r="M315" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="N315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P315" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q315" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -22205,53 +22201,57 @@
         <v>1</v>
       </c>
       <c r="F316" t="n">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="I316" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="J316" t="inlineStr">
+        <is>
+          <t>['Portugal', 'Turkey', 'Georgia']</t>
+        </is>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="M316" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="N316" t="n">
+        <v>1</v>
+      </c>
+      <c r="O316" t="n">
+        <v>2</v>
+      </c>
+      <c r="P316" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q316" t="inlineStr">
+        <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
-      <c r="I316" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
-      <c r="J316" t="inlineStr">
-        <is>
-          <t>['Turkey', 'Georgia', 'Portugal']</t>
-        </is>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="L316" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
-      <c r="M316" t="inlineStr">
-        <is>
-          <t>Georgia</t>
-        </is>
-      </c>
-      <c r="N316" t="n">
-        <v>0</v>
-      </c>
-      <c r="O316" t="n">
-        <v>3</v>
-      </c>
-      <c r="P316" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -22276,26 +22276,26 @@
         <v>1</v>
       </c>
       <c r="F317" t="n">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>['Turkey', 'Georgia', 'Portugal']</t>
+          <t>['Portugal', 'Turkey', 'Georgia']</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
@@ -22320,7 +22320,7 @@
         <v>3</v>
       </c>
       <c r="P317" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q317" t="inlineStr"/>
     </row>
@@ -22347,57 +22347,53 @@
         <v>1</v>
       </c>
       <c r="F318" t="n">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="H318" t="inlineStr">
         <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="I318" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="J318" t="inlineStr">
+        <is>
+          <t>['Portugal', 'Turkey', 'Georgia']</t>
+        </is>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="L318" t="inlineStr">
+        <is>
           <t>Turkey</t>
         </is>
       </c>
-      <c r="I318" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="J318" t="inlineStr">
-        <is>
-          <t>['Turkey', 'Georgia', 'Portugal']</t>
-        </is>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="L318" t="inlineStr">
+      <c r="M318" t="inlineStr">
         <is>
           <t>Georgia</t>
         </is>
       </c>
-      <c r="M318" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
       <c r="N318" t="n">
         <v>0</v>
       </c>
       <c r="O318" t="n">
+        <v>3</v>
+      </c>
+      <c r="P318" t="n">
         <v>2</v>
       </c>
-      <c r="P318" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q318" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
+      <c r="Q318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -22422,53 +22418,128 @@
         <v>1</v>
       </c>
       <c r="F319" t="n">
+        <v>66</v>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="I319" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="J319" t="inlineStr">
+        <is>
+          <t>['Portugal', 'Turkey', 'Georgia']</t>
+        </is>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="M319" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="N319" t="n">
+        <v>0</v>
+      </c>
+      <c r="O319" t="n">
+        <v>2</v>
+      </c>
+      <c r="P319" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q319" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>2024-06-26</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="E320" t="n">
+        <v>1</v>
+      </c>
+      <c r="F320" t="n">
         <v>94</v>
       </c>
-      <c r="G319" t="inlineStr">
+      <c r="G320" t="inlineStr">
         <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
+      <c r="H320" t="inlineStr">
         <is>
           <t>Turkey</t>
         </is>
       </c>
-      <c r="I319" t="inlineStr">
+      <c r="I320" t="inlineStr">
         <is>
           <t>Turkey</t>
         </is>
       </c>
-      <c r="J319" t="inlineStr">
-        <is>
-          <t>['Turkey', 'Georgia', 'Portugal']</t>
-        </is>
-      </c>
-      <c r="K319" t="inlineStr">
+      <c r="J320" t="inlineStr">
+        <is>
+          <t>['Portugal', 'Turkey', 'Georgia']</t>
+        </is>
+      </c>
+      <c r="K320" t="inlineStr">
         <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="L319" t="inlineStr">
+      <c r="L320" t="inlineStr">
         <is>
           <t>Turkey</t>
         </is>
       </c>
-      <c r="M319" t="inlineStr">
+      <c r="M320" t="inlineStr">
         <is>
           <t>Georgia</t>
         </is>
       </c>
-      <c r="N319" t="n">
-        <v>0</v>
-      </c>
-      <c r="O319" t="n">
+      <c r="N320" t="n">
+        <v>0</v>
+      </c>
+      <c r="O320" t="n">
         <v>3</v>
       </c>
-      <c r="P319" t="n">
+      <c r="P320" t="n">
         <v>2</v>
       </c>
-      <c r="Q319" t="inlineStr"/>
+      <c r="Q320" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/out/wiki/men/fifa/eu/goals_eu_fifa_men.xlsx
+++ b/data/out/wiki/men/fifa/eu/goals_eu_fifa_men.xlsx
@@ -550,7 +550,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['France', 'Denmark', 'Belgium']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -599,7 +599,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>26</v>
@@ -621,7 +621,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Denmark', 'Belgium']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P3" t="n">
-        <v>-5</v>
+        <v>10</v>
       </c>
       <c r="Q3" t="inlineStr"/>
     </row>
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>32</v>
@@ -692,7 +692,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Denmark', 'Belgium']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -714,10 +714,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>-5</v>
+        <v>9</v>
       </c>
       <c r="Q4" t="inlineStr"/>
     </row>
@@ -741,7 +741,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>39</v>
@@ -763,7 +763,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Denmark', 'Belgium']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>-3</v>
+        <v>8</v>
       </c>
       <c r="Q5" t="inlineStr"/>
     </row>
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>41</v>
@@ -834,7 +834,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Denmark', 'Belgium']</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -856,10 +856,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>-5</v>
+        <v>9</v>
       </c>
       <c r="Q6" t="inlineStr"/>
     </row>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>59</v>
@@ -905,7 +905,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Denmark', 'Belgium']</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
-        <v>-5</v>
+        <v>10</v>
       </c>
       <c r="Q7" t="inlineStr"/>
     </row>
@@ -954,7 +954,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>60</v>
@@ -976,7 +976,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['France', 'Denmark', 'Belgium']</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -995,13 +995,13 @@
         </is>
       </c>
       <c r="N8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q8" t="inlineStr"/>
     </row>
@@ -1025,7 +1025,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>62</v>
@@ -1047,7 +1047,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['France', 'Denmark', 'Belgium']</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P9" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q9" t="inlineStr"/>
     </row>
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>77</v>
@@ -1118,7 +1118,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['France', 'Denmark', 'Belgium']</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1140,10 +1140,10 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q10" t="inlineStr"/>
     </row>
@@ -1167,7 +1167,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>84</v>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['France', 'Denmark', 'Belgium']</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1211,10 +1211,10 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q11" t="inlineStr"/>
     </row>
@@ -1238,7 +1238,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>84</v>
@@ -1260,7 +1260,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['France', 'Denmark', 'Belgium']</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1285,7 +1285,7 @@
         <v>2</v>
       </c>
       <c r="P12" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="Q12" t="inlineStr"/>
     </row>
@@ -1319,7 +1319,7 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['Spain', 'West Germany']</t>
+          <t>['Spain', 'Portugal', 'West Germany']</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1386,7 +1386,7 @@
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['Spain', 'West Germany']</t>
+          <t>['Spain', 'Portugal', 'West Germany']</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1408,10 +1408,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="inlineStr"/>
     </row>
@@ -1453,7 +1453,7 @@
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['Spain', 'West Germany']</t>
+          <t>['Spain', 'Portugal', 'West Germany']</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1475,10 +1475,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="inlineStr"/>
     </row>
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>81</v>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>['Portugal', 'West Germany']</t>
+          <t>['Spain', 'Portugal', 'West Germany']</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1543,19 +1543,15 @@
         </is>
       </c>
       <c r="N16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1577,7 +1573,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>90</v>
@@ -1599,7 +1595,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain', 'West Germany']</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1618,13 +1614,13 @@
         </is>
       </c>
       <c r="N17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q17" t="inlineStr"/>
     </row>
@@ -1658,7 +1654,7 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Spain', 'Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1725,7 +1721,7 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Spain', 'Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1747,16 +1743,12 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P19" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1796,7 +1788,7 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Spain', 'Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1818,16 +1810,12 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P20" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1871,7 +1859,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Spain', 'Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1893,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
         <v>2</v>
@@ -1942,7 +1930,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Spain', 'Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1964,10 +1952,10 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q22" t="inlineStr"/>
     </row>
@@ -2013,7 +2001,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Spain', 'Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2035,10 +2023,10 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q23" t="inlineStr"/>
     </row>
@@ -2084,7 +2072,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Spain', 'Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2106,10 +2094,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
+        <v>2</v>
+      </c>
+      <c r="P24" t="n">
         <v>3</v>
-      </c>
-      <c r="P24" t="n">
-        <v>5</v>
       </c>
       <c r="Q24" t="inlineStr"/>
     </row>
@@ -2143,7 +2131,7 @@
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Republic of Ireland']</t>
+          <t>['Soviet Union', 'Republic of Ireland', 'Netherlands']</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2210,7 +2198,7 @@
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Republic of Ireland']</t>
+          <t>['Soviet Union', 'Republic of Ireland', 'Netherlands']</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2232,16 +2220,12 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2285,7 +2269,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Republic of Ireland']</t>
+          <t>['Soviet Union', 'Republic of Ireland', 'Netherlands']</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2307,16 +2291,12 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2360,7 +2340,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Republic of Ireland']</t>
+          <t>['Soviet Union', 'Republic of Ireland', 'Netherlands']</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2382,16 +2362,12 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2435,7 +2411,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Republic of Ireland']</t>
+          <t>['Soviet Union', 'Republic of Ireland', 'Netherlands']</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2457,16 +2433,12 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2510,7 +2482,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Republic of Ireland']</t>
+          <t>['Soviet Union', 'Republic of Ireland', 'Netherlands']</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2532,16 +2504,12 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="Q30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2563,7 +2531,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>82</v>
@@ -2585,7 +2553,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Republic of Ireland', 'Netherlands']</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2604,13 +2572,13 @@
         </is>
       </c>
       <c r="N31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q31" t="inlineStr"/>
     </row>
@@ -2644,7 +2612,7 @@
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['Sweden', 'France']</t>
+          <t>['France', 'England', 'Sweden']</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2693,7 +2661,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>4</v>
@@ -2715,7 +2683,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['France', 'England', 'Sweden']</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2734,13 +2702,13 @@
         </is>
       </c>
       <c r="N33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33" t="inlineStr"/>
     </row>
@@ -2786,7 +2754,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['Denmark', 'England', 'Sweden']</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2805,13 +2773,13 @@
         </is>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34" t="inlineStr"/>
     </row>
@@ -2857,7 +2825,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['Denmark', 'England', 'Sweden']</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2879,10 +2847,10 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35" t="inlineStr"/>
     </row>
@@ -2928,7 +2896,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['Sweden', 'France']</t>
+          <t>['France', 'England', 'Sweden']</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2950,10 +2918,10 @@
         <v>1</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36" t="inlineStr"/>
     </row>
@@ -2999,7 +2967,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'England', 'Sweden']</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3021,10 +2989,10 @@
         <v>1</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37" t="inlineStr"/>
     </row>
@@ -3048,7 +3016,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F38" t="n">
         <v>82</v>
@@ -3070,7 +3038,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['France', 'Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3089,13 +3057,13 @@
         </is>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="inlineStr"/>
     </row>
@@ -3129,7 +3097,7 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['CIS', 'Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3196,7 +3164,7 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['CIS', 'Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3218,16 +3186,12 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P40" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>CIS</t>
-        </is>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3271,7 +3235,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['CIS', 'Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3293,10 +3257,10 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q41" t="inlineStr"/>
     </row>
@@ -3342,7 +3306,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['CIS', 'Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3364,10 +3328,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q42" t="inlineStr"/>
     </row>
@@ -3413,7 +3377,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['CIS', 'Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3435,7 +3399,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>1</v>
@@ -3462,7 +3426,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
         <v>16</v>
@@ -3484,7 +3448,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Scotland', 'Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3503,10 +3467,10 @@
         </is>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>1</v>
@@ -3533,7 +3497,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" t="n">
         <v>53</v>
@@ -3555,7 +3519,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Scotland', 'Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3577,10 +3541,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q45" t="inlineStr"/>
     </row>
@@ -3604,7 +3568,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" t="n">
         <v>72</v>
@@ -3626,7 +3590,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Scotland', 'Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3648,7 +3612,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>1</v>
@@ -3675,7 +3639,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" t="n">
         <v>84</v>
@@ -3697,7 +3661,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Scotland', 'Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3719,10 +3683,10 @@
         <v>0</v>
       </c>
       <c r="O47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q47" t="inlineStr"/>
     </row>
@@ -3756,7 +3720,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'France']</t>
+          <t>['France', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3827,7 +3791,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>['Spain', 'Bulgaria']</t>
+          <t>['Bulgaria', 'Spain']</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3898,7 +3862,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>['Spain', 'France']</t>
+          <t>['France', 'Spain']</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3969,7 +3933,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'France']</t>
+          <t>['France', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4040,7 +4004,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'France']</t>
+          <t>['France', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -4111,7 +4075,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'France']</t>
+          <t>['France', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -4182,7 +4146,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>['Spain', 'France']</t>
+          <t>['France', 'Spain']</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -4253,7 +4217,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>['Spain', 'France']</t>
+          <t>['France', 'Spain']</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -4312,7 +4276,7 @@
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -4379,7 +4343,7 @@
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -4450,7 +4414,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -4521,7 +4485,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -4592,7 +4556,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -4663,7 +4627,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -4734,7 +4698,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>['Scotland', 'England']</t>
+          <t>['England', 'Scotland']</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -4805,7 +4769,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -4864,7 +4828,7 @@
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -4931,7 +4895,7 @@
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -4998,7 +4962,7 @@
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -5069,7 +5033,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -5140,7 +5104,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -5211,7 +5175,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -5282,7 +5246,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -5353,7 +5317,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -5424,7 +5388,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -5483,7 +5447,7 @@
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr">
         <is>
-          <t>['Germany', 'Italy']</t>
+          <t>['Italy', 'Germany']</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -5550,7 +5514,7 @@
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr">
         <is>
-          <t>['Germany', 'Italy']</t>
+          <t>['Italy', 'Germany']</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -5846,7 +5810,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>['Germany', 'Italy']</t>
+          <t>['Italy', 'Germany']</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -5917,7 +5881,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>['Germany', 'Italy']</t>
+          <t>['Italy', 'Germany']</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -5988,7 +5952,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>['Germany', 'Italy']</t>
+          <t>['Italy', 'Germany']</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -6047,7 +6011,7 @@
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy']</t>
+          <t>['Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -6114,7 +6078,7 @@
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy']</t>
+          <t>['Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -6189,7 +6153,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy']</t>
+          <t>['Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -6536,7 +6500,7 @@
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -6603,7 +6567,7 @@
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -6678,7 +6642,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>['Portugal', 'Romania']</t>
+          <t>['Romania', 'Portugal']</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -6749,7 +6713,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>['Portugal', 'Romania']</t>
+          <t>['Romania', 'Portugal']</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -6820,7 +6784,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -6895,7 +6859,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -6966,7 +6930,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -7041,7 +7005,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -7116,7 +7080,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -7191,7 +7155,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>['Portugal', 'Romania']</t>
+          <t>['Romania', 'Portugal']</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -7250,7 +7214,7 @@
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr">
         <is>
-          <t>['Spain', 'FR Yugoslavia']</t>
+          <t>['FR Yugoslavia', 'Spain']</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -7317,7 +7281,7 @@
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr">
         <is>
-          <t>['Spain', 'FR Yugoslavia']</t>
+          <t>['FR Yugoslavia', 'Spain']</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -7388,7 +7352,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'FR Yugoslavia']</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -7459,7 +7423,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>['Spain', 'FR Yugoslavia']</t>
+          <t>['FR Yugoslavia', 'Spain']</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -7530,7 +7494,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'FR Yugoslavia']</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -7601,7 +7565,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>['Spain', 'FR Yugoslavia']</t>
+          <t>['FR Yugoslavia', 'Spain']</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -7672,7 +7636,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'FR Yugoslavia']</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -7743,7 +7707,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>['Spain', 'FR Yugoslavia']</t>
+          <t>['FR Yugoslavia', 'Spain']</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -7814,7 +7778,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>['Spain', 'FR Yugoslavia']</t>
+          <t>['FR Yugoslavia', 'Spain']</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -7873,7 +7837,7 @@
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -7940,7 +7904,7 @@
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -8011,7 +7975,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -8082,7 +8046,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -8153,7 +8117,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -8224,7 +8188,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -8295,7 +8259,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -8366,7 +8330,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -8437,7 +8401,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -8634,7 +8598,7 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -8705,7 +8669,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -8776,7 +8740,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -8977,7 +8941,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>['Croatia', 'France']</t>
+          <t>['France', 'Croatia']</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -9048,7 +9012,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>['Croatia', 'France']</t>
+          <t>['France', 'Croatia']</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -9119,7 +9083,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>['Croatia', 'France']</t>
+          <t>['France', 'Croatia']</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -9261,7 +9225,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -9332,7 +9296,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -9403,7 +9367,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -9675,7 +9639,7 @@
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -9746,7 +9710,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -9817,7 +9781,7 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -9888,7 +9852,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -9959,7 +9923,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -10030,7 +9994,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -10101,7 +10065,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -10172,7 +10136,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -10783,7 +10747,7 @@
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -10850,7 +10814,7 @@
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -10921,7 +10885,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -10992,7 +10956,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -11063,7 +11027,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -11134,7 +11098,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -11205,7 +11169,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -11276,7 +11240,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -11347,7 +11311,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey']</t>
+          <t>['Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -11406,7 +11370,7 @@
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -11473,7 +11437,7 @@
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -11540,7 +11504,7 @@
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -11611,7 +11575,7 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -11682,7 +11646,7 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -11741,7 +11705,7 @@
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Romania']</t>
+          <t>['Romania', 'Netherlands']</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -11808,7 +11772,7 @@
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Romania']</t>
+          <t>['Romania', 'Netherlands']</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -11875,7 +11839,7 @@
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Romania']</t>
+          <t>['Romania', 'Netherlands']</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -11946,7 +11910,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -12017,7 +11981,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -12088,7 +12052,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -12159,7 +12123,7 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -12356,7 +12320,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -12427,7 +12391,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -12498,7 +12462,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -12569,7 +12533,7 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -12640,7 +12604,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -12699,7 +12663,7 @@
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Russia']</t>
+          <t>['Russia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -12766,7 +12730,7 @@
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Russia']</t>
+          <t>['Russia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -12833,7 +12797,7 @@
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Russia']</t>
+          <t>['Russia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -13105,7 +13069,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>['Germany', 'Denmark']</t>
+          <t>['Denmark', 'Germany']</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -13247,7 +13211,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>['Germany', 'Denmark']</t>
+          <t>['Denmark', 'Germany']</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -13523,7 +13487,7 @@
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -13590,7 +13554,7 @@
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -13657,7 +13621,7 @@
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -13728,7 +13692,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy']</t>
+          <t>['Italy', 'Spain']</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -13799,7 +13763,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy']</t>
+          <t>['Italy', 'Spain']</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -13870,7 +13834,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy']</t>
+          <t>['Italy', 'Spain']</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -14134,7 +14098,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -14205,7 +14169,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -14276,7 +14240,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -14335,7 +14299,7 @@
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France', 'Romania']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -14402,7 +14366,7 @@
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France', 'Romania']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -14424,7 +14388,7 @@
         <v>0</v>
       </c>
       <c r="O202" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P202" t="n">
         <v>2</v>
@@ -14469,7 +14433,7 @@
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France', 'Romania']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -14491,7 +14455,7 @@
         <v>0</v>
       </c>
       <c r="O203" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P203" t="n">
         <v>2</v>
@@ -14518,7 +14482,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F204" t="n">
         <v>43</v>
@@ -14540,7 +14504,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Albania', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -14559,13 +14523,13 @@
         </is>
       </c>
       <c r="N204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O204" t="n">
         <v>2</v>
       </c>
       <c r="P204" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q204" t="inlineStr"/>
     </row>
@@ -14599,7 +14563,7 @@
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr">
         <is>
-          <t>['Slovakia', 'England', 'Wales']</t>
+          <t>['England', 'Wales']</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -14666,7 +14630,7 @@
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr">
         <is>
-          <t>['Slovakia', 'England', 'Wales']</t>
+          <t>['England', 'Wales']</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -14688,16 +14652,12 @@
         <v>0</v>
       </c>
       <c r="O206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P206" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q206" t="inlineStr">
-        <is>
-          <t>Slovakia</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -14737,7 +14697,7 @@
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr">
         <is>
-          <t>['Slovakia', 'England', 'Wales']</t>
+          <t>['England', 'Wales']</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -14759,16 +14719,12 @@
         <v>0</v>
       </c>
       <c r="O207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P207" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q207" t="inlineStr">
-        <is>
-          <t>Slovakia</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -14812,7 +14768,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>['Slovakia', 'England', 'Wales']</t>
+          <t>['England', 'Wales']</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -14834,10 +14790,10 @@
         <v>0</v>
       </c>
       <c r="O208" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P208" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q208" t="inlineStr"/>
     </row>
@@ -14883,7 +14839,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>['Slovakia', 'England', 'Wales']</t>
+          <t>['England', 'Wales']</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -14905,10 +14861,10 @@
         <v>0</v>
       </c>
       <c r="O209" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P209" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q209" t="inlineStr"/>
     </row>
@@ -14954,7 +14910,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>['Slovakia', 'England', 'Wales']</t>
+          <t>['England', 'Wales']</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -14976,10 +14932,10 @@
         <v>0</v>
       </c>
       <c r="O210" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P210" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q210" t="inlineStr"/>
     </row>
@@ -15013,7 +14969,7 @@
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr">
         <is>
-          <t>['Germany', 'Northern Ireland', 'Poland']</t>
+          <t>['Poland', 'Germany']</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -15080,7 +15036,7 @@
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr">
         <is>
-          <t>['Germany', 'Northern Ireland', 'Poland']</t>
+          <t>['Poland', 'Germany']</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -15102,10 +15058,10 @@
         <v>0</v>
       </c>
       <c r="O212" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P212" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q212" t="inlineStr"/>
     </row>
@@ -15147,7 +15103,7 @@
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr">
         <is>
-          <t>['Germany', 'Northern Ireland', 'Poland']</t>
+          <t>['Poland', 'Germany']</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -15169,10 +15125,10 @@
         <v>0</v>
       </c>
       <c r="O213" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P213" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q213" t="inlineStr"/>
     </row>
@@ -15218,7 +15174,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>['Germany', 'Northern Ireland', 'Poland']</t>
+          <t>['Poland', 'Germany']</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -15243,7 +15199,7 @@
         <v>2</v>
       </c>
       <c r="P214" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q214" t="inlineStr"/>
     </row>
@@ -15289,7 +15245,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>['Germany', 'Northern Ireland', 'Poland']</t>
+          <t>['Poland', 'Germany']</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -15311,10 +15267,10 @@
         <v>0</v>
       </c>
       <c r="O215" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P215" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q215" t="inlineStr"/>
     </row>
@@ -15348,7 +15304,7 @@
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Czech Republic']</t>
+          <t>['Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -15415,7 +15371,7 @@
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Czech Republic']</t>
+          <t>['Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -15437,10 +15393,10 @@
         <v>0</v>
       </c>
       <c r="O217" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P217" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q217" t="inlineStr"/>
     </row>
@@ -15486,7 +15442,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Czech Republic']</t>
+          <t>['Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -15508,12 +15464,16 @@
         <v>0</v>
       </c>
       <c r="O218" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P218" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="Q218" t="inlineStr">
+        <is>
+          <t>tie</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -15535,7 +15495,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F219" t="n">
         <v>10</v>
@@ -15557,7 +15517,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Turkey']</t>
+          <t>['Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -15576,13 +15536,13 @@
         </is>
       </c>
       <c r="N219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O219" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P219" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Q219" t="inlineStr"/>
     </row>
@@ -15606,7 +15566,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F220" t="n">
         <v>45</v>
@@ -15628,7 +15588,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Turkey']</t>
+          <t>['Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -15653,7 +15613,7 @@
         <v>2</v>
       </c>
       <c r="P220" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Q220" t="inlineStr"/>
     </row>
@@ -15677,7 +15637,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F221" t="n">
         <v>65</v>
@@ -15699,7 +15659,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Turkey']</t>
+          <t>['Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -15724,7 +15684,7 @@
         <v>2</v>
       </c>
       <c r="P221" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q221" t="inlineStr"/>
     </row>
@@ -15748,7 +15708,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F222" t="n">
         <v>87</v>
@@ -15770,7 +15730,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Turkey']</t>
+          <t>['Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -15792,10 +15752,10 @@
         <v>0</v>
       </c>
       <c r="O222" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P222" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q222" t="inlineStr"/>
     </row>
@@ -15829,7 +15789,7 @@
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -15900,7 +15860,7 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -15925,9 +15885,13 @@
         <v>2</v>
       </c>
       <c r="P224" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="Q224" t="inlineStr">
+        <is>
+          <t>Iceland</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -15971,7 +15935,7 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -15993,7 +15957,7 @@
         <v>0</v>
       </c>
       <c r="O225" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P225" t="n">
         <v>2</v>
@@ -16042,7 +16006,7 @@
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -16067,9 +16031,13 @@
         <v>2</v>
       </c>
       <c r="P226" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="Q226" t="inlineStr">
+        <is>
+          <t>tie</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -16113,7 +16081,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -16135,7 +16103,7 @@
         <v>0</v>
       </c>
       <c r="O227" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P227" t="n">
         <v>2</v>
@@ -16184,7 +16152,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -16209,9 +16177,13 @@
         <v>2</v>
       </c>
       <c r="P228" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="Q228" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -16255,7 +16227,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -16277,7 +16249,7 @@
         <v>0</v>
       </c>
       <c r="O229" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P229" t="n">
         <v>2</v>
@@ -16326,7 +16298,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -16348,7 +16320,7 @@
         <v>0</v>
       </c>
       <c r="O230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P230" t="n">
         <v>1</v>
@@ -16375,7 +16347,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F231" t="n">
         <v>62</v>
@@ -16397,7 +16369,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -16416,13 +16388,13 @@
         </is>
       </c>
       <c r="N231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q231" t="inlineStr"/>
     </row>
@@ -16446,7 +16418,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F232" t="n">
         <v>94</v>
@@ -16468,7 +16440,7 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -16487,15 +16459,19 @@
         </is>
       </c>
       <c r="N232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O232" t="n">
         <v>2</v>
       </c>
       <c r="P232" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="Q232" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -16527,7 +16503,7 @@
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr">
         <is>
-          <t>['Sweden', 'Belgium', 'Italy']</t>
+          <t>['Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -16594,7 +16570,7 @@
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr">
         <is>
-          <t>['Sweden', 'Belgium', 'Italy']</t>
+          <t>['Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -16616,7 +16592,7 @@
         <v>0</v>
       </c>
       <c r="O234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P234" t="n">
         <v>2</v>
@@ -16661,7 +16637,7 @@
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr">
         <is>
-          <t>['Sweden', 'Belgium', 'Italy']</t>
+          <t>['Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -16683,7 +16659,7 @@
         <v>0</v>
       </c>
       <c r="O235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P235" t="n">
         <v>2</v>
@@ -16710,7 +16686,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F236" t="n">
         <v>84</v>
@@ -16732,7 +16708,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>['Belgium', 'Republic of Ireland', 'Italy']</t>
+          <t>['Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -16751,13 +16727,13 @@
         </is>
       </c>
       <c r="N236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O236" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P236" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Q236" t="inlineStr"/>
     </row>
@@ -16781,7 +16757,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F237" t="n">
         <v>85</v>
@@ -16803,7 +16779,7 @@
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>['Belgium', 'Republic of Ireland', 'Italy']</t>
+          <t>['Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -16825,10 +16801,10 @@
         <v>0</v>
       </c>
       <c r="O237" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P237" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q237" t="inlineStr"/>
     </row>
@@ -16862,7 +16838,7 @@
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Wales', 'Italy']</t>
+          <t>['Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -16929,7 +16905,7 @@
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Wales', 'Italy']</t>
+          <t>['Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -16951,10 +16927,10 @@
         <v>0</v>
       </c>
       <c r="O239" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P239" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q239" t="inlineStr"/>
     </row>
@@ -17000,7 +16976,7 @@
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Wales', 'Italy']</t>
+          <t>['Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -17022,7 +16998,7 @@
         <v>0</v>
       </c>
       <c r="O240" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P240" t="n">
         <v>4</v>
@@ -17071,7 +17047,7 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Wales', 'Italy']</t>
+          <t>['Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -17093,10 +17069,10 @@
         <v>0</v>
       </c>
       <c r="O241" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P241" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q241" t="inlineStr"/>
     </row>
@@ -17142,7 +17118,7 @@
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Wales', 'Italy']</t>
+          <t>['Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -17164,10 +17140,10 @@
         <v>0</v>
       </c>
       <c r="O242" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P242" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Q242" t="inlineStr"/>
     </row>
@@ -17213,7 +17189,7 @@
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Wales', 'Italy']</t>
+          <t>['Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -17235,10 +17211,10 @@
         <v>0</v>
       </c>
       <c r="O243" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P243" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q243" t="inlineStr"/>
     </row>
@@ -17284,7 +17260,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Wales', 'Italy']</t>
+          <t>['Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -17306,10 +17282,10 @@
         <v>0</v>
       </c>
       <c r="O244" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P244" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Q244" t="inlineStr"/>
     </row>
@@ -17343,7 +17319,7 @@
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -17410,7 +17386,7 @@
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -17432,10 +17408,10 @@
         <v>0</v>
       </c>
       <c r="O246" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P246" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q246" t="inlineStr"/>
     </row>
@@ -17477,7 +17453,7 @@
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -17499,10 +17475,10 @@
         <v>0</v>
       </c>
       <c r="O247" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P247" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q247" t="inlineStr"/>
     </row>
@@ -17526,7 +17502,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F248" t="n">
         <v>21</v>
@@ -17548,7 +17524,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -17567,10 +17543,10 @@
         </is>
       </c>
       <c r="N248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O248" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P248" t="n">
         <v>2</v>
@@ -17597,7 +17573,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F249" t="n">
         <v>24</v>
@@ -17619,7 +17595,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -17644,7 +17620,7 @@
         <v>3</v>
       </c>
       <c r="P249" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q249" t="inlineStr"/>
     </row>
@@ -17668,7 +17644,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F250" t="n">
         <v>50</v>
@@ -17690,7 +17666,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -17715,7 +17691,7 @@
         <v>3</v>
       </c>
       <c r="P250" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q250" t="inlineStr"/>
     </row>
@@ -17739,7 +17715,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F251" t="n">
         <v>58</v>
@@ -17761,7 +17737,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -17786,7 +17762,7 @@
         <v>3</v>
       </c>
       <c r="P251" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q251" t="inlineStr"/>
     </row>
@@ -17820,7 +17796,7 @@
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Russia']</t>
+          <t>['Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -17887,7 +17863,7 @@
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Russia']</t>
+          <t>['Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -17909,10 +17885,10 @@
         <v>0</v>
       </c>
       <c r="O253" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q253" t="inlineStr"/>
     </row>
@@ -17936,7 +17912,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F254" t="n">
         <v>38</v>
@@ -17958,7 +17934,7 @@
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Denmark']</t>
+          <t>['Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -17977,13 +17953,13 @@
         </is>
       </c>
       <c r="N254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P254" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q254" t="inlineStr"/>
     </row>
@@ -18007,7 +17983,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F255" t="n">
         <v>59</v>
@@ -18029,7 +18005,7 @@
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Denmark']</t>
+          <t>['Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -18051,10 +18027,10 @@
         <v>0</v>
       </c>
       <c r="O255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P255" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q255" t="inlineStr"/>
     </row>
@@ -18078,7 +18054,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F256" t="n">
         <v>70</v>
@@ -18100,7 +18076,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Denmark']</t>
+          <t>['Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -18122,10 +18098,10 @@
         <v>0</v>
       </c>
       <c r="O256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P256" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q256" t="inlineStr"/>
     </row>
@@ -18149,7 +18125,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F257" t="n">
         <v>74</v>
@@ -18171,7 +18147,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>['Belgium', 'Russia', 'Denmark']</t>
+          <t>['Denmark', 'Belgium']</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -18196,7 +18172,7 @@
         <v>0</v>
       </c>
       <c r="P257" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="Q257" t="inlineStr"/>
     </row>
@@ -18220,7 +18196,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F258" t="n">
         <v>79</v>
@@ -18242,7 +18218,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Denmark']</t>
+          <t>['Denmark', 'Belgium']</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -18261,13 +18237,13 @@
         </is>
       </c>
       <c r="N258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O258" t="n">
         <v>0</v>
       </c>
       <c r="P258" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q258" t="inlineStr"/>
     </row>
@@ -18291,7 +18267,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F259" t="n">
         <v>81</v>
@@ -18313,7 +18289,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Denmark']</t>
+          <t>['Denmark', 'Belgium']</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -18362,7 +18338,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F260" t="n">
         <v>82</v>
@@ -18384,7 +18360,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Denmark']</t>
+          <t>['Denmark', 'Belgium']</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -18443,7 +18419,7 @@
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'England']</t>
+          <t>['Czech Republic', 'England']</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -18510,7 +18486,7 @@
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'England']</t>
+          <t>['Czech Republic', 'England']</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -18532,10 +18508,10 @@
         <v>0</v>
       </c>
       <c r="O262" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P262" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q262" t="inlineStr"/>
     </row>
@@ -18581,7 +18557,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'England']</t>
+          <t>['Czech Republic', 'England']</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -18603,10 +18579,10 @@
         <v>0</v>
       </c>
       <c r="O263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P263" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q263" t="inlineStr"/>
     </row>
@@ -18652,7 +18628,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'England']</t>
+          <t>['Czech Republic', 'England']</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -18674,10 +18650,10 @@
         <v>0</v>
       </c>
       <c r="O264" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P264" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q264" t="inlineStr"/>
     </row>
@@ -18723,7 +18699,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'England']</t>
+          <t>['Czech Republic', 'England']</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -18745,10 +18721,10 @@
         <v>0</v>
       </c>
       <c r="O265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P265" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q265" t="inlineStr"/>
     </row>
@@ -18794,7 +18770,7 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'England']</t>
+          <t>['Czech Republic', 'England']</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -18816,10 +18792,10 @@
         <v>0</v>
       </c>
       <c r="O266" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P266" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q266" t="inlineStr"/>
     </row>
@@ -18843,7 +18819,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F267" t="n">
         <v>77</v>
@@ -18865,7 +18841,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'England']</t>
+          <t>['Croatia', 'England']</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -18884,13 +18860,13 @@
         </is>
       </c>
       <c r="N267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O267" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P267" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q267" t="inlineStr"/>
     </row>
@@ -18924,7 +18900,7 @@
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -18991,7 +18967,7 @@
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -19016,7 +18992,7 @@
         <v>1</v>
       </c>
       <c r="P269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q269" t="inlineStr"/>
     </row>
@@ -19062,7 +19038,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -19084,10 +19060,10 @@
         <v>0</v>
       </c>
       <c r="O270" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q270" t="inlineStr"/>
     </row>
@@ -19111,7 +19087,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F271" t="n">
         <v>30</v>
@@ -19133,7 +19109,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -19152,13 +19128,13 @@
         </is>
       </c>
       <c r="N271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O271" t="n">
         <v>2</v>
       </c>
       <c r="P271" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q271" t="inlineStr"/>
     </row>
@@ -19182,7 +19158,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F272" t="n">
         <v>48</v>
@@ -19204,7 +19180,7 @@
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -19229,7 +19205,7 @@
         <v>2</v>
       </c>
       <c r="P272" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q272" t="inlineStr"/>
     </row>
@@ -19253,7 +19229,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F273" t="n">
         <v>56</v>
@@ -19275,7 +19251,7 @@
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -19300,7 +19276,7 @@
         <v>2</v>
       </c>
       <c r="P273" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q273" t="inlineStr"/>
     </row>
@@ -19324,7 +19300,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F274" t="n">
         <v>59</v>
@@ -19346,7 +19322,7 @@
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -19371,7 +19347,7 @@
         <v>2</v>
       </c>
       <c r="P274" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q274" t="inlineStr"/>
     </row>
@@ -19395,7 +19371,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F275" t="n">
         <v>61</v>
@@ -19417,7 +19393,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -19442,7 +19418,7 @@
         <v>2</v>
       </c>
       <c r="P275" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q275" t="inlineStr"/>
     </row>
@@ -19466,7 +19442,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F276" t="n">
         <v>67</v>
@@ -19488,7 +19464,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -19513,7 +19489,7 @@
         <v>2</v>
       </c>
       <c r="P276" t="n">
-        <v>-2</v>
+        <v>8</v>
       </c>
       <c r="Q276" t="inlineStr"/>
     </row>
@@ -19537,7 +19513,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F277" t="n">
         <v>71</v>
@@ -19559,7 +19535,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -19584,7 +19560,7 @@
         <v>2</v>
       </c>
       <c r="P277" t="n">
-        <v>-3</v>
+        <v>10</v>
       </c>
       <c r="Q277" t="inlineStr"/>
     </row>
@@ -19608,7 +19584,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F278" t="n">
         <v>84</v>
@@ -19630,7 +19606,7 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -19652,10 +19628,10 @@
         <v>0</v>
       </c>
       <c r="O278" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P278" t="n">
-        <v>-4</v>
+        <v>6</v>
       </c>
       <c r="Q278" t="inlineStr"/>
     </row>
@@ -19679,7 +19655,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F279" t="n">
         <v>94</v>
@@ -19701,7 +19677,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -19726,7 +19702,7 @@
         <v>2</v>
       </c>
       <c r="P279" t="n">
-        <v>-3</v>
+        <v>10</v>
       </c>
       <c r="Q279" t="inlineStr"/>
     </row>
@@ -19760,7 +19736,7 @@
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany', 'France']</t>
+          <t>['France', 'Portugal']</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
@@ -19809,7 +19785,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F281" t="n">
         <v>11</v>
@@ -19831,7 +19807,7 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['France', 'Portugal']</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -19850,13 +19826,13 @@
         </is>
       </c>
       <c r="N281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P281" t="n">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="Q281" t="inlineStr"/>
     </row>
@@ -19880,7 +19856,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F282" t="n">
         <v>31</v>
@@ -19902,7 +19878,7 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['France', 'Portugal']</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -19924,10 +19900,10 @@
         <v>0</v>
       </c>
       <c r="O282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P282" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="Q282" t="inlineStr"/>
     </row>
@@ -19951,7 +19927,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F283" t="n">
         <v>47</v>
@@ -19973,7 +19949,7 @@
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['France', 'Portugal']</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -19995,10 +19971,10 @@
         <v>0</v>
       </c>
       <c r="O283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P283" t="n">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="Q283" t="inlineStr"/>
     </row>
@@ -20044,7 +20020,7 @@
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['France', 'Hungary']</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
@@ -20063,13 +20039,13 @@
         </is>
       </c>
       <c r="N284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P284" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Q284" t="inlineStr"/>
     </row>
@@ -20093,7 +20069,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F285" t="n">
         <v>60</v>
@@ -20115,7 +20091,7 @@
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['France', 'Portugal']</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -20134,13 +20110,13 @@
         </is>
       </c>
       <c r="N285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P285" t="n">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="Q285" t="inlineStr"/>
     </row>
@@ -20186,7 +20162,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany', 'France']</t>
+          <t>['France', 'Portugal']</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -20205,13 +20181,13 @@
         </is>
       </c>
       <c r="N286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P286" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q286" t="inlineStr"/>
     </row>
@@ -20235,7 +20211,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F287" t="n">
         <v>68</v>
@@ -20257,7 +20233,7 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['France', 'Portugal']</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -20276,13 +20252,13 @@
         </is>
       </c>
       <c r="N287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P287" t="n">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="Q287" t="inlineStr"/>
     </row>
@@ -20306,7 +20282,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F288" t="n">
         <v>84</v>
@@ -20328,7 +20304,7 @@
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany', 'France']</t>
+          <t>['France', 'Portugal']</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
@@ -20347,13 +20323,13 @@
         </is>
       </c>
       <c r="N288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P288" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q288" t="inlineStr"/>
     </row>
@@ -20387,7 +20363,7 @@
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Scotland']</t>
+          <t>['Switzerland', 'Germany']</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
@@ -20454,7 +20430,7 @@
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Scotland']</t>
+          <t>['Switzerland', 'Germany']</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
@@ -20476,10 +20452,10 @@
         <v>0</v>
       </c>
       <c r="O290" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P290" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q290" t="inlineStr"/>
     </row>
@@ -20525,7 +20501,7 @@
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Scotland']</t>
+          <t>['Switzerland', 'Germany']</t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
@@ -20547,10 +20523,10 @@
         <v>0</v>
       </c>
       <c r="O291" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P291" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q291" t="inlineStr"/>
     </row>
@@ -20596,7 +20572,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Scotland']</t>
+          <t>['Switzerland', 'Germany']</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -20618,10 +20594,10 @@
         <v>0</v>
       </c>
       <c r="O292" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P292" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q292" t="inlineStr"/>
     </row>
@@ -20645,7 +20621,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F293" t="n">
         <v>100</v>
@@ -20667,7 +20643,7 @@
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Hungary']</t>
+          <t>['Switzerland', 'Germany']</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -20686,13 +20662,13 @@
         </is>
       </c>
       <c r="N293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O293" t="n">
         <v>2</v>
       </c>
       <c r="P293" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q293" t="inlineStr"/>
     </row>
@@ -20726,7 +20702,7 @@
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr">
         <is>
-          <t>['Spain', 'Albania', 'Italy']</t>
+          <t>['Italy', 'Spain']</t>
         </is>
       </c>
       <c r="K294" t="inlineStr">
@@ -20793,7 +20769,7 @@
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr">
         <is>
-          <t>['Spain', 'Albania', 'Italy']</t>
+          <t>['Italy', 'Spain']</t>
         </is>
       </c>
       <c r="K295" t="inlineStr">
@@ -20815,12 +20791,16 @@
         <v>0</v>
       </c>
       <c r="O295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P295" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="Q295" t="inlineStr">
+        <is>
+          <t>Albania</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -20842,7 +20822,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F296" t="n">
         <v>13</v>
@@ -20864,7 +20844,7 @@
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Italy']</t>
+          <t>['Italy', 'Spain']</t>
         </is>
       </c>
       <c r="K296" t="inlineStr">
@@ -20883,13 +20863,13 @@
         </is>
       </c>
       <c r="N296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O296" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P296" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Q296" t="inlineStr"/>
     </row>
@@ -20935,7 +20915,7 @@
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Italy']</t>
+          <t>['Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -20954,13 +20934,13 @@
         </is>
       </c>
       <c r="N297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O297" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P297" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q297" t="inlineStr"/>
     </row>
@@ -20984,7 +20964,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F298" t="n">
         <v>98</v>
@@ -21006,7 +20986,7 @@
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Italy']</t>
+          <t>['Italy', 'Spain']</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -21025,13 +21005,13 @@
         </is>
       </c>
       <c r="N298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O298" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P298" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Q298" t="inlineStr"/>
     </row>
@@ -21065,7 +21045,7 @@
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France', 'Austria']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -21114,7 +21094,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F300" t="n">
         <v>6</v>
@@ -21136,7 +21116,7 @@
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
+          <t>['France', 'Austria']</t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
@@ -21155,13 +21135,13 @@
         </is>
       </c>
       <c r="N300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O300" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P300" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q300" t="inlineStr"/>
     </row>
@@ -21185,7 +21165,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F301" t="n">
         <v>47</v>
@@ -21207,7 +21187,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France', 'Austria']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -21226,13 +21206,13 @@
         </is>
       </c>
       <c r="N301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O301" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P301" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q301" t="inlineStr"/>
     </row>
@@ -21256,7 +21236,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F302" t="n">
         <v>56</v>
@@ -21278,7 +21258,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France', 'Austria']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -21300,10 +21280,10 @@
         <v>0</v>
       </c>
       <c r="O302" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P302" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q302" t="inlineStr"/>
     </row>
@@ -21327,7 +21307,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F303" t="n">
         <v>59</v>
@@ -21349,7 +21329,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France', 'Austria']</t>
+          <t>['France', 'Austria']</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -21368,13 +21348,13 @@
         </is>
       </c>
       <c r="N303" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O303" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P303" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q303" t="inlineStr"/>
     </row>
@@ -21398,7 +21378,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F304" t="n">
         <v>75</v>
@@ -21420,7 +21400,7 @@
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France', 'Austria']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K304" t="inlineStr">
@@ -21439,13 +21419,13 @@
         </is>
       </c>
       <c r="N304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O304" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P304" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q304" t="inlineStr"/>
     </row>
@@ -21469,7 +21449,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F305" t="n">
         <v>79</v>
@@ -21491,7 +21471,7 @@
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France', 'Austria']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -21513,10 +21493,10 @@
         <v>0</v>
       </c>
       <c r="O305" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P305" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q305" t="inlineStr"/>
     </row>
@@ -21540,7 +21520,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F306" t="n">
         <v>80</v>
@@ -21562,7 +21542,7 @@
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
+          <t>['France', 'Austria']</t>
         </is>
       </c>
       <c r="K306" t="inlineStr">
@@ -21581,13 +21561,13 @@
         </is>
       </c>
       <c r="N306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O306" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P306" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q306" t="inlineStr"/>
     </row>
@@ -21621,7 +21601,7 @@
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr">
         <is>
-          <t>['England', 'Slovenia', 'Denmark']</t>
+          <t>['Slovenia', 'England']</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -21631,12 +21611,12 @@
       </c>
       <c r="L307" t="inlineStr">
         <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="M307" t="inlineStr">
+        <is>
           <t>Slovenia</t>
-        </is>
-      </c>
-      <c r="M307" t="inlineStr">
-        <is>
-          <t>Denmark</t>
         </is>
       </c>
       <c r="N307" t="n">
@@ -21688,7 +21668,7 @@
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr">
         <is>
-          <t>['England', 'Slovenia', 'Denmark']</t>
+          <t>['Slovenia', 'England']</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -21698,22 +21678,22 @@
       </c>
       <c r="L308" t="inlineStr">
         <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="M308" t="inlineStr">
+        <is>
           <t>Slovenia</t>
         </is>
       </c>
-      <c r="M308" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
       <c r="N308" t="n">
         <v>0</v>
       </c>
       <c r="O308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q308" t="inlineStr"/>
     </row>
@@ -21755,7 +21735,7 @@
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr">
         <is>
-          <t>['England', 'Slovenia', 'Denmark']</t>
+          <t>['Slovenia', 'England']</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -21765,22 +21745,22 @@
       </c>
       <c r="L309" t="inlineStr">
         <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="M309" t="inlineStr">
+        <is>
           <t>Slovenia</t>
         </is>
       </c>
-      <c r="M309" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
       <c r="N309" t="n">
         <v>0</v>
       </c>
       <c r="O309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q309" t="inlineStr"/>
     </row>
@@ -21814,7 +21794,7 @@
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr">
         <is>
-          <t>['Belgium', 'Slovakia', 'Romania']</t>
+          <t>['Romania', 'Belgium']</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -21881,7 +21861,7 @@
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr">
         <is>
-          <t>['Belgium', 'Slovakia', 'Romania']</t>
+          <t>['Romania', 'Belgium']</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -21906,7 +21886,7 @@
         <v>0</v>
       </c>
       <c r="P311" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q311" t="inlineStr"/>
     </row>
@@ -21952,7 +21932,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Belgium', 'Slovakia']</t>
+          <t>['Slovakia', 'Belgium']</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -21974,10 +21954,10 @@
         <v>1</v>
       </c>
       <c r="O312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P312" t="n">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="Q312" t="inlineStr"/>
     </row>
@@ -22023,7 +22003,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>['Belgium', 'Slovakia', 'Romania']</t>
+          <t>['Romania', 'Belgium']</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -22048,7 +22028,7 @@
         <v>0</v>
       </c>
       <c r="P313" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q313" t="inlineStr"/>
     </row>
@@ -22082,7 +22062,7 @@
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Czech Republic']</t>
+          <t>['Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -22149,7 +22129,7 @@
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Czech Republic']</t>
+          <t>['Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -22171,12 +22151,16 @@
         <v>0</v>
       </c>
       <c r="O315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P315" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q315" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="Q315" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -22198,7 +22182,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F316" t="n">
         <v>2</v>
@@ -22220,7 +22204,7 @@
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="K316" t="inlineStr">
@@ -22239,19 +22223,15 @@
         </is>
       </c>
       <c r="N316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P316" t="n">
         <v>0</v>
       </c>
-      <c r="Q316" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
+      <c r="Q316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -22273,7 +22253,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F317" t="n">
         <v>51</v>
@@ -22295,7 +22275,7 @@
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
@@ -22317,7 +22297,7 @@
         <v>0</v>
       </c>
       <c r="O317" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P317" t="n">
         <v>1</v>
@@ -22344,7 +22324,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F318" t="n">
         <v>57</v>
@@ -22366,7 +22346,7 @@
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -22388,10 +22368,10 @@
         <v>0</v>
       </c>
       <c r="O318" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q318" t="inlineStr"/>
     </row>
@@ -22437,7 +22417,7 @@
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Portugal', 'Georgia']</t>
         </is>
       </c>
       <c r="K319" t="inlineStr">
@@ -22456,19 +22436,15 @@
         </is>
       </c>
       <c r="N319" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P319" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q319" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -22490,7 +22466,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F320" t="n">
         <v>94</v>
@@ -22512,7 +22488,7 @@
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="K320" t="inlineStr">
@@ -22531,13 +22507,13 @@
         </is>
       </c>
       <c r="N320" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O320" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q320" t="inlineStr"/>
     </row>

--- a/data/out/wiki/men/fifa/eu/goals_eu_fifa_men.xlsx
+++ b/data/out/wiki/men/fifa/eu/goals_eu_fifa_men.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -461,7 +461,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>goal_time</t>
+          <t>goal_minute</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -556,7 +556,7 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>['Belgium', 'France', 'Denmark']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -605,7 +605,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>26</v>
@@ -630,7 +630,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>['Belgium', 'France', 'Denmark']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q3" t="n">
-        <v>10</v>
+        <v>-5</v>
       </c>
       <c r="R3" t="inlineStr"/>
     </row>
@@ -679,7 +679,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
         <v>32</v>
@@ -704,7 +704,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>['Belgium', 'France', 'Denmark']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -726,10 +726,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q4" t="n">
-        <v>9</v>
+        <v>-5</v>
       </c>
       <c r="R4" t="inlineStr"/>
     </row>
@@ -753,7 +753,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>39</v>
@@ -778,7 +778,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>['Belgium', 'France', 'Denmark']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -800,10 +800,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q5" t="n">
-        <v>8</v>
+        <v>-3</v>
       </c>
       <c r="R5" t="inlineStr"/>
     </row>
@@ -827,7 +827,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>41</v>
@@ -852,7 +852,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>['Belgium', 'France', 'Denmark']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q6" t="n">
-        <v>9</v>
+        <v>-5</v>
       </c>
       <c r="R6" t="inlineStr"/>
     </row>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
         <v>59</v>
@@ -926,7 +926,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>['Belgium', 'France', 'Denmark']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -948,10 +948,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q7" t="n">
-        <v>10</v>
+        <v>-5</v>
       </c>
       <c r="R7" t="inlineStr"/>
     </row>
@@ -975,7 +975,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
         <v>60</v>
@@ -1000,7 +1000,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>['Belgium', 'France', 'Denmark']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1019,13 +1019,13 @@
         </is>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R8" t="inlineStr"/>
     </row>
@@ -1049,7 +1049,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9" t="n">
         <v>62</v>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>['Belgium', 'France', 'Denmark']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R9" t="inlineStr"/>
     </row>
@@ -1123,7 +1123,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
         <v>77</v>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>['Belgium', 'France', 'Denmark']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1170,10 +1170,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R10" t="inlineStr"/>
     </row>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F11" t="n">
         <v>84</v>
@@ -1222,7 +1222,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>['Belgium', 'France', 'Denmark']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R11" t="inlineStr"/>
     </row>
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F12" t="n">
         <v>84</v>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>['Belgium', 'France', 'Denmark']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1321,7 +1321,7 @@
         <v>2</v>
       </c>
       <c r="Q12" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="R12" t="inlineStr"/>
     </row>
@@ -1356,7 +1356,7 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
-          <t>['Spain', 'West Germany', 'Portugal']</t>
+          <t>['Spain', 'West Germany']</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1426,7 +1426,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>['Spain', 'West Germany', 'Portugal']</t>
+          <t>['Spain', 'West Germany']</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1448,10 +1448,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" t="inlineStr"/>
     </row>
@@ -1496,7 +1496,7 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>['Spain', 'West Germany', 'Portugal']</t>
+          <t>['Spain', 'West Germany']</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1518,10 +1518,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" t="inlineStr"/>
     </row>
@@ -1545,7 +1545,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
         <v>81</v>
@@ -1570,7 +1570,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>['Spain', 'West Germany', 'Portugal']</t>
+          <t>['Portugal', 'West Germany']</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1589,15 +1589,19 @@
         </is>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>2</v>
-      </c>
-      <c r="R16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1619,7 +1623,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F17" t="n">
         <v>90</v>
@@ -1644,7 +1648,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>['Spain', 'West Germany', 'Portugal']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1663,13 +1667,13 @@
         </is>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R17" t="inlineStr"/>
     </row>
@@ -1704,7 +1708,7 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>['Spain', 'West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1774,7 +1778,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>['Spain', 'West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1796,12 +1800,16 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q19" t="n">
-        <v>3</v>
-      </c>
-      <c r="R19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1844,7 +1852,7 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>['Spain', 'West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1866,12 +1874,16 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q20" t="n">
-        <v>3</v>
-      </c>
-      <c r="R20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1918,7 +1930,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>['Spain', 'West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1940,7 +1952,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q21" t="n">
         <v>2</v>
@@ -1992,7 +2004,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>['Spain', 'West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2014,10 +2026,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R22" t="inlineStr"/>
     </row>
@@ -2066,7 +2078,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>['Spain', 'West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2088,10 +2100,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R23" t="inlineStr"/>
     </row>
@@ -2140,7 +2152,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>['Spain', 'West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2162,10 +2174,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R24" t="inlineStr"/>
     </row>
@@ -2200,7 +2212,7 @@
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Republic of Ireland', 'Netherlands']</t>
+          <t>['Soviet Union', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2270,7 +2282,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Republic of Ireland', 'Netherlands']</t>
+          <t>['Soviet Union', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2292,12 +2304,16 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q26" t="n">
-        <v>4</v>
-      </c>
-      <c r="R26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2344,7 +2360,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Republic of Ireland', 'Netherlands']</t>
+          <t>['Soviet Union', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2366,12 +2382,16 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q27" t="n">
-        <v>5</v>
-      </c>
-      <c r="R27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2418,7 +2438,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Republic of Ireland', 'Netherlands']</t>
+          <t>['Soviet Union', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2440,12 +2460,16 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q28" t="n">
-        <v>4</v>
-      </c>
-      <c r="R28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2492,7 +2516,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Republic of Ireland', 'Netherlands']</t>
+          <t>['Soviet Union', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2514,12 +2538,16 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q29" t="n">
-        <v>5</v>
-      </c>
-      <c r="R29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2566,7 +2594,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Republic of Ireland', 'Netherlands']</t>
+          <t>['Soviet Union', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2588,12 +2616,16 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q30" t="n">
-        <v>6</v>
-      </c>
-      <c r="R30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2615,7 +2647,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
         <v>82</v>
@@ -2640,7 +2672,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Republic of Ireland', 'Netherlands']</t>
+          <t>['Soviet Union', 'Netherlands']</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2659,13 +2691,13 @@
         </is>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R31" t="inlineStr"/>
     </row>
@@ -2700,7 +2732,7 @@
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
-          <t>['Sweden', 'France', 'England']</t>
+          <t>['France', 'Sweden']</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2749,7 +2781,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
         <v>4</v>
@@ -2774,7 +2806,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>['Sweden', 'France', 'England']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2793,13 +2825,13 @@
         </is>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R33" t="inlineStr"/>
     </row>
@@ -2848,7 +2880,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>['Sweden', 'England', 'Denmark']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2867,13 +2899,13 @@
         </is>
       </c>
       <c r="O34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R34" t="inlineStr"/>
     </row>
@@ -2922,7 +2954,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>['Sweden', 'England', 'Denmark']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -2944,10 +2976,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R35" t="inlineStr"/>
     </row>
@@ -2996,7 +3028,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>['Sweden', 'France', 'England']</t>
+          <t>['France', 'Sweden']</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -3018,10 +3050,10 @@
         <v>1</v>
       </c>
       <c r="P36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R36" t="inlineStr"/>
     </row>
@@ -3070,7 +3102,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>['Sweden', 'England', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -3092,10 +3124,10 @@
         <v>1</v>
       </c>
       <c r="P37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R37" t="inlineStr"/>
     </row>
@@ -3119,7 +3151,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F38" t="n">
         <v>82</v>
@@ -3144,7 +3176,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>['Sweden', 'France', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -3163,13 +3195,13 @@
         </is>
       </c>
       <c r="O38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38" t="inlineStr"/>
     </row>
@@ -3204,7 +3236,7 @@
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany', 'CIS']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -3274,7 +3306,7 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany', 'CIS']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -3296,12 +3328,16 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q40" t="n">
-        <v>3</v>
-      </c>
-      <c r="R40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>CIS</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3348,7 +3384,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany', 'CIS']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3370,10 +3406,10 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R41" t="inlineStr"/>
     </row>
@@ -3422,7 +3458,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany', 'CIS']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3444,10 +3480,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R42" t="inlineStr"/>
     </row>
@@ -3496,7 +3532,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany', 'CIS']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3518,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43" t="n">
         <v>1</v>
@@ -3545,7 +3581,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>16</v>
@@ -3570,7 +3606,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>['Scotland', 'Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -3589,10 +3625,10 @@
         </is>
       </c>
       <c r="O44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44" t="n">
         <v>1</v>
@@ -3619,7 +3655,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>53</v>
@@ -3644,7 +3680,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>['Scotland', 'Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3666,10 +3702,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R45" t="inlineStr"/>
     </row>
@@ -3693,7 +3729,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>72</v>
@@ -3718,7 +3754,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>['Scotland', 'Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3740,7 +3776,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46" t="n">
         <v>1</v>
@@ -3767,7 +3803,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
         <v>84</v>
@@ -3792,7 +3828,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>['Scotland', 'Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -3814,10 +3850,10 @@
         <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R47" t="inlineStr"/>
     </row>
@@ -3852,7 +3888,7 @@
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
-          <t>['France', 'Bulgaria']</t>
+          <t>['Bulgaria', 'France']</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -5648,7 +5684,7 @@
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
-          <t>['Germany', 'Italy']</t>
+          <t>['Italy', 'Germany']</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -5718,7 +5754,7 @@
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
-          <t>['Germany', 'Italy']</t>
+          <t>['Italy', 'Germany']</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -5792,7 +5828,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -5870,7 +5906,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -5948,7 +5984,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -6026,7 +6062,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>['Germany', 'Italy']</t>
+          <t>['Italy', 'Germany']</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -6100,7 +6136,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>['Germany', 'Italy']</t>
+          <t>['Italy', 'Germany']</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -6174,7 +6210,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>['Germany', 'Italy']</t>
+          <t>['Italy', 'Germany']</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -6234,7 +6270,7 @@
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy']</t>
+          <t>['Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -6304,7 +6340,7 @@
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy']</t>
+          <t>['Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -6382,7 +6418,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy']</t>
+          <t>['Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -6460,7 +6496,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -6534,7 +6570,7 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -6608,7 +6644,7 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
@@ -6682,7 +6718,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
@@ -7484,7 +7520,7 @@
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
-          <t>['Spain', 'FR Yugoslavia']</t>
+          <t>['FR Yugoslavia', 'Spain']</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
@@ -7554,7 +7590,7 @@
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
-          <t>['Spain', 'FR Yugoslavia']</t>
+          <t>['FR Yugoslavia', 'Spain']</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
@@ -7628,7 +7664,7 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>['Norway', 'FR Yugoslavia']</t>
+          <t>['FR Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
@@ -7702,7 +7738,7 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>['Spain', 'FR Yugoslavia']</t>
+          <t>['FR Yugoslavia', 'Spain']</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
@@ -7776,7 +7812,7 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>['Norway', 'FR Yugoslavia']</t>
+          <t>['FR Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
@@ -7850,7 +7886,7 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>['Spain', 'FR Yugoslavia']</t>
+          <t>['FR Yugoslavia', 'Spain']</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
@@ -7924,7 +7960,7 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>['Norway', 'FR Yugoslavia']</t>
+          <t>['FR Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
@@ -7998,7 +8034,7 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>['Spain', 'FR Yugoslavia']</t>
+          <t>['FR Yugoslavia', 'Spain']</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
@@ -8072,7 +8108,7 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>['Spain', 'FR Yugoslavia']</t>
+          <t>['FR Yugoslavia', 'Spain']</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
@@ -8132,7 +8168,7 @@
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
@@ -8202,7 +8238,7 @@
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
@@ -8276,7 +8312,7 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
@@ -8350,7 +8386,7 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
@@ -8424,7 +8460,7 @@
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
@@ -8498,7 +8534,7 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
@@ -8572,7 +8608,7 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
@@ -8646,7 +8682,7 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
@@ -8720,7 +8756,7 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
@@ -8780,7 +8816,7 @@
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
-          <t>['Greece', 'Spain']</t>
+          <t>['Spain', 'Greece']</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
@@ -8850,7 +8886,7 @@
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
-          <t>['Greece', 'Spain']</t>
+          <t>['Spain', 'Greece']</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
@@ -9146,7 +9182,7 @@
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>['Greece', 'Portugal']</t>
+          <t>['Portugal', 'Greece']</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
@@ -10006,7 +10042,7 @@
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
@@ -10228,7 +10264,7 @@
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
@@ -10302,7 +10338,7 @@
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
@@ -10450,7 +10486,7 @@
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
@@ -10524,7 +10560,7 @@
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="L140" t="inlineStr">
@@ -10584,7 +10620,7 @@
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="L141" t="inlineStr">
@@ -10654,7 +10690,7 @@
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
@@ -10728,7 +10764,7 @@
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
@@ -10802,7 +10838,7 @@
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
@@ -10876,7 +10912,7 @@
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
@@ -10950,7 +10986,7 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
@@ -11024,7 +11060,7 @@
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
@@ -11098,7 +11134,7 @@
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
@@ -11158,7 +11194,7 @@
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
@@ -11228,7 +11264,7 @@
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
@@ -11302,7 +11338,7 @@
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
@@ -11376,7 +11412,7 @@
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
@@ -11450,7 +11486,7 @@
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
@@ -11524,7 +11560,7 @@
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
@@ -11598,7 +11634,7 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
@@ -11672,7 +11708,7 @@
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
@@ -11746,7 +11782,7 @@
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal']</t>
+          <t>['Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
@@ -12154,7 +12190,7 @@
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Romania']</t>
+          <t>['Romania', 'Netherlands']</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
@@ -12224,7 +12260,7 @@
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Romania']</t>
+          <t>['Romania', 'Netherlands']</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
@@ -12294,7 +12330,7 @@
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Romania']</t>
+          <t>['Romania', 'Netherlands']</t>
         </is>
       </c>
       <c r="L165" t="inlineStr">
@@ -12368,7 +12404,7 @@
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="L166" t="inlineStr">
@@ -12442,7 +12478,7 @@
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="L167" t="inlineStr">
@@ -12516,7 +12552,7 @@
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
@@ -12590,7 +12626,7 @@
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="L169" t="inlineStr">
@@ -12650,7 +12686,7 @@
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="L170" t="inlineStr">
@@ -12720,7 +12756,7 @@
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="L171" t="inlineStr">
@@ -12794,7 +12830,7 @@
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="L172" t="inlineStr">
@@ -12868,7 +12904,7 @@
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
@@ -12942,7 +12978,7 @@
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
@@ -13016,7 +13052,7 @@
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
@@ -13090,7 +13126,7 @@
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="L176" t="inlineStr">
@@ -13438,7 +13474,7 @@
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>['Russia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Russia']</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
@@ -13498,7 +13534,7 @@
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal']</t>
+          <t>['Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="L182" t="inlineStr">
@@ -13646,7 +13682,7 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal']</t>
+          <t>['Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
@@ -13794,7 +13830,7 @@
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal']</t>
+          <t>['Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
@@ -13868,7 +13904,7 @@
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal']</t>
+          <t>['Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
@@ -13946,7 +13982,7 @@
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal']</t>
+          <t>['Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
@@ -14006,7 +14042,7 @@
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="L189" t="inlineStr">
@@ -14076,7 +14112,7 @@
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
@@ -14146,7 +14182,7 @@
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
@@ -14220,7 +14256,7 @@
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy']</t>
+          <t>['Italy', 'Spain']</t>
         </is>
       </c>
       <c r="L192" t="inlineStr">
@@ -14850,7 +14886,7 @@
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['Romania', 'Switzerland', 'France']</t>
         </is>
       </c>
       <c r="L201" t="inlineStr">
@@ -14920,7 +14956,7 @@
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['Romania', 'Switzerland', 'France']</t>
         </is>
       </c>
       <c r="L202" t="inlineStr">
@@ -14942,7 +14978,7 @@
         <v>0</v>
       </c>
       <c r="P202" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q202" t="n">
         <v>2</v>
@@ -14990,7 +15026,7 @@
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['Romania', 'Switzerland', 'France']</t>
         </is>
       </c>
       <c r="L203" t="inlineStr">
@@ -15012,7 +15048,7 @@
         <v>0</v>
       </c>
       <c r="P203" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q203" t="n">
         <v>2</v>
@@ -15039,7 +15075,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F204" t="n">
         <v>43</v>
@@ -15064,7 +15100,7 @@
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['Switzerland', 'France', 'Albania']</t>
         </is>
       </c>
       <c r="L204" t="inlineStr">
@@ -15083,13 +15119,13 @@
         </is>
       </c>
       <c r="O204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P204" t="n">
         <v>2</v>
       </c>
       <c r="Q204" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R204" t="inlineStr"/>
     </row>
@@ -15124,7 +15160,7 @@
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
-          <t>['Wales', 'England']</t>
+          <t>['Wales', 'Slovakia', 'England']</t>
         </is>
       </c>
       <c r="L205" t="inlineStr">
@@ -15194,7 +15230,7 @@
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
-          <t>['Wales', 'England']</t>
+          <t>['Wales', 'Slovakia', 'England']</t>
         </is>
       </c>
       <c r="L206" t="inlineStr">
@@ -15216,12 +15252,16 @@
         <v>0</v>
       </c>
       <c r="P206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q206" t="n">
-        <v>0</v>
-      </c>
-      <c r="R206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="R206" t="inlineStr">
+        <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -15264,7 +15304,7 @@
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
-          <t>['Wales', 'England']</t>
+          <t>['Wales', 'Slovakia', 'England']</t>
         </is>
       </c>
       <c r="L207" t="inlineStr">
@@ -15286,12 +15326,16 @@
         <v>0</v>
       </c>
       <c r="P207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q207" t="n">
-        <v>0</v>
-      </c>
-      <c r="R207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="R207" t="inlineStr">
+        <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -15338,7 +15382,7 @@
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>['Wales', 'England']</t>
+          <t>['Wales', 'Slovakia', 'England']</t>
         </is>
       </c>
       <c r="L208" t="inlineStr">
@@ -15360,10 +15404,10 @@
         <v>0</v>
       </c>
       <c r="P208" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q208" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R208" t="inlineStr"/>
     </row>
@@ -15412,7 +15456,7 @@
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>['Wales', 'England']</t>
+          <t>['Wales', 'Slovakia', 'England']</t>
         </is>
       </c>
       <c r="L209" t="inlineStr">
@@ -15434,10 +15478,10 @@
         <v>0</v>
       </c>
       <c r="P209" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q209" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R209" t="inlineStr"/>
     </row>
@@ -15486,7 +15530,7 @@
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>['Wales', 'England']</t>
+          <t>['Wales', 'Slovakia', 'England']</t>
         </is>
       </c>
       <c r="L210" t="inlineStr">
@@ -15508,10 +15552,10 @@
         <v>0</v>
       </c>
       <c r="P210" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q210" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R210" t="inlineStr"/>
     </row>
@@ -15546,7 +15590,7 @@
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
-          <t>['Germany', 'Poland']</t>
+          <t>['Northern Ireland', 'Poland', 'Germany']</t>
         </is>
       </c>
       <c r="L211" t="inlineStr">
@@ -15616,7 +15660,7 @@
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
-          <t>['Germany', 'Poland']</t>
+          <t>['Northern Ireland', 'Poland', 'Germany']</t>
         </is>
       </c>
       <c r="L212" t="inlineStr">
@@ -15638,10 +15682,10 @@
         <v>0</v>
       </c>
       <c r="P212" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q212" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R212" t="inlineStr"/>
     </row>
@@ -15686,7 +15730,7 @@
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
-          <t>['Germany', 'Poland']</t>
+          <t>['Northern Ireland', 'Poland', 'Germany']</t>
         </is>
       </c>
       <c r="L213" t="inlineStr">
@@ -15708,10 +15752,10 @@
         <v>0</v>
       </c>
       <c r="P213" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q213" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R213" t="inlineStr"/>
     </row>
@@ -15760,7 +15804,7 @@
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>['Germany', 'Poland']</t>
+          <t>['Northern Ireland', 'Poland', 'Germany']</t>
         </is>
       </c>
       <c r="L214" t="inlineStr">
@@ -15785,7 +15829,7 @@
         <v>2</v>
       </c>
       <c r="Q214" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R214" t="inlineStr"/>
     </row>
@@ -15834,7 +15878,7 @@
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>['Germany', 'Poland']</t>
+          <t>['Northern Ireland', 'Poland', 'Germany']</t>
         </is>
       </c>
       <c r="L215" t="inlineStr">
@@ -15856,10 +15900,10 @@
         <v>0</v>
       </c>
       <c r="P215" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q215" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R215" t="inlineStr"/>
     </row>
@@ -15894,7 +15938,7 @@
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain']</t>
+          <t>['Spain', 'Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="L216" t="inlineStr">
@@ -15964,7 +16008,7 @@
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain']</t>
+          <t>['Spain', 'Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="L217" t="inlineStr">
@@ -15986,10 +16030,10 @@
         <v>0</v>
       </c>
       <c r="P217" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q217" t="n">
         <v>3</v>
-      </c>
-      <c r="Q217" t="n">
-        <v>2</v>
       </c>
       <c r="R217" t="inlineStr"/>
     </row>
@@ -16038,7 +16082,7 @@
       </c>
       <c r="K218" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain']</t>
+          <t>['Spain', 'Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="L218" t="inlineStr">
@@ -16060,16 +16104,12 @@
         <v>0</v>
       </c>
       <c r="P218" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q218" t="n">
-        <v>1</v>
-      </c>
-      <c r="R218" t="inlineStr">
-        <is>
-          <t>tie</t>
-        </is>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -16091,7 +16131,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F219" t="n">
         <v>10</v>
@@ -16116,7 +16156,7 @@
       </c>
       <c r="K219" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain']</t>
+          <t>['Spain', 'Turkey', 'Croatia']</t>
         </is>
       </c>
       <c r="L219" t="inlineStr">
@@ -16135,13 +16175,13 @@
         </is>
       </c>
       <c r="O219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P219" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q219" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="R219" t="inlineStr"/>
     </row>
@@ -16165,7 +16205,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F220" t="n">
         <v>45</v>
@@ -16190,7 +16230,7 @@
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain']</t>
+          <t>['Spain', 'Turkey', 'Croatia']</t>
         </is>
       </c>
       <c r="L220" t="inlineStr">
@@ -16215,7 +16255,7 @@
         <v>2</v>
       </c>
       <c r="Q220" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="R220" t="inlineStr"/>
     </row>
@@ -16239,7 +16279,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F221" t="n">
         <v>65</v>
@@ -16264,7 +16304,7 @@
       </c>
       <c r="K221" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain']</t>
+          <t>['Spain', 'Turkey', 'Croatia']</t>
         </is>
       </c>
       <c r="L221" t="inlineStr">
@@ -16289,7 +16329,7 @@
         <v>2</v>
       </c>
       <c r="Q221" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R221" t="inlineStr"/>
     </row>
@@ -16313,7 +16353,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F222" t="n">
         <v>87</v>
@@ -16338,7 +16378,7 @@
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain']</t>
+          <t>['Croatia', 'Spain', 'Turkey']</t>
         </is>
       </c>
       <c r="L222" t="inlineStr">
@@ -16360,10 +16400,10 @@
         <v>0</v>
       </c>
       <c r="P222" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q222" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R222" t="inlineStr"/>
     </row>
@@ -16398,7 +16438,7 @@
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
-          <t>['Iceland', 'Hungary']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="L223" t="inlineStr">
@@ -16472,7 +16512,7 @@
       </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t>['Iceland', 'Hungary']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="L224" t="inlineStr">
@@ -16497,13 +16537,9 @@
         <v>2</v>
       </c>
       <c r="Q224" t="n">
-        <v>1</v>
-      </c>
-      <c r="R224" t="inlineStr">
-        <is>
-          <t>Iceland</t>
-        </is>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -16550,7 +16586,7 @@
       </c>
       <c r="K225" t="inlineStr">
         <is>
-          <t>['Iceland', 'Hungary']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="L225" t="inlineStr">
@@ -16572,7 +16608,7 @@
         <v>0</v>
       </c>
       <c r="P225" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q225" t="n">
         <v>2</v>
@@ -16624,7 +16660,7 @@
       </c>
       <c r="K226" t="inlineStr">
         <is>
-          <t>['Iceland', 'Hungary']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="L226" t="inlineStr">
@@ -16649,13 +16685,9 @@
         <v>2</v>
       </c>
       <c r="Q226" t="n">
-        <v>1</v>
-      </c>
-      <c r="R226" t="inlineStr">
-        <is>
-          <t>tie</t>
-        </is>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -16702,7 +16734,7 @@
       </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t>['Iceland', 'Hungary']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="L227" t="inlineStr">
@@ -16724,7 +16756,7 @@
         <v>0</v>
       </c>
       <c r="P227" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q227" t="n">
         <v>2</v>
@@ -16776,7 +16808,7 @@
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>['Iceland', 'Hungary']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="L228" t="inlineStr">
@@ -16801,13 +16833,9 @@
         <v>2</v>
       </c>
       <c r="Q228" t="n">
-        <v>1</v>
-      </c>
-      <c r="R228" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -16854,7 +16882,7 @@
       </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>['Iceland', 'Hungary']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="L229" t="inlineStr">
@@ -16876,7 +16904,7 @@
         <v>0</v>
       </c>
       <c r="P229" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q229" t="n">
         <v>2</v>
@@ -16928,7 +16956,7 @@
       </c>
       <c r="K230" t="inlineStr">
         <is>
-          <t>['Iceland', 'Hungary']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="L230" t="inlineStr">
@@ -16950,7 +16978,7 @@
         <v>0</v>
       </c>
       <c r="P230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q230" t="n">
         <v>1</v>
@@ -16977,7 +17005,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F231" t="n">
         <v>62</v>
@@ -17002,7 +17030,7 @@
       </c>
       <c r="K231" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="L231" t="inlineStr">
@@ -17021,13 +17049,13 @@
         </is>
       </c>
       <c r="O231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R231" t="inlineStr"/>
     </row>
@@ -17051,7 +17079,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F232" t="n">
         <v>94</v>
@@ -17076,7 +17104,7 @@
       </c>
       <c r="K232" t="inlineStr">
         <is>
-          <t>['Iceland', 'Hungary']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="L232" t="inlineStr">
@@ -17095,19 +17123,15 @@
         </is>
       </c>
       <c r="O232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P232" t="n">
         <v>2</v>
       </c>
       <c r="Q232" t="n">
-        <v>1</v>
-      </c>
-      <c r="R232" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -17140,7 +17164,7 @@
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy']</t>
+          <t>['Italy', 'Belgium', 'Sweden']</t>
         </is>
       </c>
       <c r="L233" t="inlineStr">
@@ -17210,7 +17234,7 @@
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy']</t>
+          <t>['Italy', 'Belgium', 'Sweden']</t>
         </is>
       </c>
       <c r="L234" t="inlineStr">
@@ -17232,7 +17256,7 @@
         <v>0</v>
       </c>
       <c r="P234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q234" t="n">
         <v>2</v>
@@ -17280,7 +17304,7 @@
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy']</t>
+          <t>['Italy', 'Belgium', 'Sweden']</t>
         </is>
       </c>
       <c r="L235" t="inlineStr">
@@ -17302,7 +17326,7 @@
         <v>0</v>
       </c>
       <c r="P235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q235" t="n">
         <v>2</v>
@@ -17329,7 +17353,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F236" t="n">
         <v>84</v>
@@ -17354,7 +17378,7 @@
       </c>
       <c r="K236" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy']</t>
+          <t>['Italy', 'Belgium', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="L236" t="inlineStr">
@@ -17373,13 +17397,13 @@
         </is>
       </c>
       <c r="O236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P236" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q236" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="R236" t="inlineStr"/>
     </row>
@@ -17403,7 +17427,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F237" t="n">
         <v>85</v>
@@ -17428,7 +17452,7 @@
       </c>
       <c r="K237" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy']</t>
+          <t>['Italy', 'Belgium', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="L237" t="inlineStr">
@@ -17450,10 +17474,10 @@
         <v>0</v>
       </c>
       <c r="P237" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q237" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R237" t="inlineStr"/>
     </row>
@@ -17488,7 +17512,7 @@
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="L238" t="inlineStr">
@@ -17558,7 +17582,7 @@
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="L239" t="inlineStr">
@@ -17580,10 +17604,10 @@
         <v>0</v>
       </c>
       <c r="P239" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q239" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R239" t="inlineStr"/>
     </row>
@@ -17632,7 +17656,7 @@
       </c>
       <c r="K240" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="L240" t="inlineStr">
@@ -17654,7 +17678,7 @@
         <v>0</v>
       </c>
       <c r="P240" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q240" t="n">
         <v>4</v>
@@ -17706,7 +17730,7 @@
       </c>
       <c r="K241" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="L241" t="inlineStr">
@@ -17728,10 +17752,10 @@
         <v>0</v>
       </c>
       <c r="P241" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q241" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R241" t="inlineStr"/>
     </row>
@@ -17780,7 +17804,7 @@
       </c>
       <c r="K242" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="L242" t="inlineStr">
@@ -17802,10 +17826,10 @@
         <v>0</v>
       </c>
       <c r="P242" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q242" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R242" t="inlineStr"/>
     </row>
@@ -17854,7 +17878,7 @@
       </c>
       <c r="K243" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="L243" t="inlineStr">
@@ -17876,10 +17900,10 @@
         <v>0</v>
       </c>
       <c r="P243" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q243" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R243" t="inlineStr"/>
     </row>
@@ -17928,7 +17952,7 @@
       </c>
       <c r="K244" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="L244" t="inlineStr">
@@ -17950,10 +17974,10 @@
         <v>0</v>
       </c>
       <c r="P244" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q244" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R244" t="inlineStr"/>
     </row>
@@ -17988,7 +18012,7 @@
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="L245" t="inlineStr">
@@ -18058,7 +18082,7 @@
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="L246" t="inlineStr">
@@ -18080,10 +18104,10 @@
         <v>0</v>
       </c>
       <c r="P246" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q246" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R246" t="inlineStr"/>
     </row>
@@ -18128,7 +18152,7 @@
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="L247" t="inlineStr">
@@ -18150,10 +18174,10 @@
         <v>0</v>
       </c>
       <c r="P247" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q247" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R247" t="inlineStr"/>
     </row>
@@ -18177,7 +18201,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F248" t="n">
         <v>21</v>
@@ -18202,7 +18226,7 @@
       </c>
       <c r="K248" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="L248" t="inlineStr">
@@ -18221,10 +18245,10 @@
         </is>
       </c>
       <c r="O248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P248" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q248" t="n">
         <v>2</v>
@@ -18251,7 +18275,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F249" t="n">
         <v>24</v>
@@ -18276,7 +18300,7 @@
       </c>
       <c r="K249" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="L249" t="inlineStr">
@@ -18301,7 +18325,7 @@
         <v>3</v>
       </c>
       <c r="Q249" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R249" t="inlineStr"/>
     </row>
@@ -18325,7 +18349,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F250" t="n">
         <v>50</v>
@@ -18350,7 +18374,7 @@
       </c>
       <c r="K250" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="L250" t="inlineStr">
@@ -18375,7 +18399,7 @@
         <v>3</v>
       </c>
       <c r="Q250" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R250" t="inlineStr"/>
     </row>
@@ -18399,7 +18423,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F251" t="n">
         <v>58</v>
@@ -18424,7 +18448,7 @@
       </c>
       <c r="K251" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="L251" t="inlineStr">
@@ -18449,7 +18473,7 @@
         <v>3</v>
       </c>
       <c r="Q251" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R251" t="inlineStr"/>
     </row>
@@ -18484,7 +18508,7 @@
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium']</t>
+          <t>['Finland', 'Belgium', 'Russia']</t>
         </is>
       </c>
       <c r="L252" t="inlineStr">
@@ -18554,7 +18578,7 @@
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium']</t>
+          <t>['Finland', 'Belgium', 'Russia']</t>
         </is>
       </c>
       <c r="L253" t="inlineStr">
@@ -18576,10 +18600,10 @@
         <v>0</v>
       </c>
       <c r="P253" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R253" t="inlineStr"/>
     </row>
@@ -18603,7 +18627,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F254" t="n">
         <v>38</v>
@@ -18628,7 +18652,7 @@
       </c>
       <c r="K254" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium']</t>
+          <t>['Finland', 'Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="L254" t="inlineStr">
@@ -18647,13 +18671,13 @@
         </is>
       </c>
       <c r="O254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q254" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R254" t="inlineStr"/>
     </row>
@@ -18677,7 +18701,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F255" t="n">
         <v>59</v>
@@ -18702,7 +18726,7 @@
       </c>
       <c r="K255" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium']</t>
+          <t>['Finland', 'Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="L255" t="inlineStr">
@@ -18724,10 +18748,10 @@
         <v>0</v>
       </c>
       <c r="P255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q255" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R255" t="inlineStr"/>
     </row>
@@ -18751,7 +18775,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F256" t="n">
         <v>70</v>
@@ -18776,7 +18800,7 @@
       </c>
       <c r="K256" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium']</t>
+          <t>['Finland', 'Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="L256" t="inlineStr">
@@ -18798,10 +18822,10 @@
         <v>0</v>
       </c>
       <c r="P256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q256" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R256" t="inlineStr"/>
     </row>
@@ -18825,7 +18849,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F257" t="n">
         <v>74</v>
@@ -18850,7 +18874,7 @@
       </c>
       <c r="K257" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark']</t>
+          <t>['Russia', 'Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="L257" t="inlineStr">
@@ -18875,7 +18899,7 @@
         <v>0</v>
       </c>
       <c r="Q257" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="R257" t="inlineStr"/>
     </row>
@@ -18899,7 +18923,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F258" t="n">
         <v>79</v>
@@ -18924,7 +18948,7 @@
       </c>
       <c r="K258" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark']</t>
+          <t>['Finland', 'Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="L258" t="inlineStr">
@@ -18943,13 +18967,13 @@
         </is>
       </c>
       <c r="O258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P258" t="n">
         <v>0</v>
       </c>
       <c r="Q258" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R258" t="inlineStr"/>
     </row>
@@ -18973,7 +18997,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F259" t="n">
         <v>81</v>
@@ -18998,7 +19022,7 @@
       </c>
       <c r="K259" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark']</t>
+          <t>['Finland', 'Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="L259" t="inlineStr">
@@ -19047,7 +19071,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F260" t="n">
         <v>82</v>
@@ -19072,7 +19096,7 @@
       </c>
       <c r="K260" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark']</t>
+          <t>['Finland', 'Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="L260" t="inlineStr">
@@ -19132,7 +19156,7 @@
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'England']</t>
+          <t>['Croatia', 'Czech Republic', 'England']</t>
         </is>
       </c>
       <c r="L261" t="inlineStr">
@@ -19202,7 +19226,7 @@
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'England']</t>
+          <t>['Croatia', 'Czech Republic', 'England']</t>
         </is>
       </c>
       <c r="L262" t="inlineStr">
@@ -19224,10 +19248,10 @@
         <v>0</v>
       </c>
       <c r="P262" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q262" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R262" t="inlineStr"/>
     </row>
@@ -19276,7 +19300,7 @@
       </c>
       <c r="K263" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'England']</t>
+          <t>['Croatia', 'Czech Republic', 'England']</t>
         </is>
       </c>
       <c r="L263" t="inlineStr">
@@ -19298,10 +19322,10 @@
         <v>0</v>
       </c>
       <c r="P263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q263" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R263" t="inlineStr"/>
     </row>
@@ -19350,7 +19374,7 @@
       </c>
       <c r="K264" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'England']</t>
+          <t>['Croatia', 'Czech Republic', 'England']</t>
         </is>
       </c>
       <c r="L264" t="inlineStr">
@@ -19372,10 +19396,10 @@
         <v>0</v>
       </c>
       <c r="P264" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q264" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R264" t="inlineStr"/>
     </row>
@@ -19424,7 +19448,7 @@
       </c>
       <c r="K265" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'England']</t>
+          <t>['Croatia', 'Czech Republic', 'England']</t>
         </is>
       </c>
       <c r="L265" t="inlineStr">
@@ -19446,10 +19470,10 @@
         <v>0</v>
       </c>
       <c r="P265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q265" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R265" t="inlineStr"/>
     </row>
@@ -19498,7 +19522,7 @@
       </c>
       <c r="K266" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'England']</t>
+          <t>['Croatia', 'Czech Republic', 'England']</t>
         </is>
       </c>
       <c r="L266" t="inlineStr">
@@ -19520,10 +19544,10 @@
         <v>0</v>
       </c>
       <c r="P266" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q266" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R266" t="inlineStr"/>
     </row>
@@ -19547,7 +19571,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F267" t="n">
         <v>77</v>
@@ -19572,7 +19596,7 @@
       </c>
       <c r="K267" t="inlineStr">
         <is>
-          <t>['Croatia', 'England']</t>
+          <t>['Croatia', 'Czech Republic', 'England']</t>
         </is>
       </c>
       <c r="L267" t="inlineStr">
@@ -19591,13 +19615,13 @@
         </is>
       </c>
       <c r="O267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P267" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q267" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R267" t="inlineStr"/>
     </row>
@@ -19632,7 +19656,7 @@
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="L268" t="inlineStr">
@@ -19702,7 +19726,7 @@
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="L269" t="inlineStr">
@@ -19727,7 +19751,7 @@
         <v>1</v>
       </c>
       <c r="Q269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R269" t="inlineStr"/>
     </row>
@@ -19776,7 +19800,7 @@
       </c>
       <c r="K270" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="L270" t="inlineStr">
@@ -19798,10 +19822,10 @@
         <v>0</v>
       </c>
       <c r="P270" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R270" t="inlineStr"/>
     </row>
@@ -19825,7 +19849,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F271" t="n">
         <v>30</v>
@@ -19850,7 +19874,7 @@
       </c>
       <c r="K271" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="L271" t="inlineStr">
@@ -19869,13 +19893,13 @@
         </is>
       </c>
       <c r="O271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P271" t="n">
         <v>2</v>
       </c>
       <c r="Q271" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R271" t="inlineStr"/>
     </row>
@@ -19899,7 +19923,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F272" t="n">
         <v>48</v>
@@ -19924,7 +19948,7 @@
       </c>
       <c r="K272" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="L272" t="inlineStr">
@@ -19949,7 +19973,7 @@
         <v>2</v>
       </c>
       <c r="Q272" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R272" t="inlineStr"/>
     </row>
@@ -19973,7 +19997,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F273" t="n">
         <v>56</v>
@@ -19998,7 +20022,7 @@
       </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="L273" t="inlineStr">
@@ -20023,7 +20047,7 @@
         <v>2</v>
       </c>
       <c r="Q273" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="R273" t="inlineStr"/>
     </row>
@@ -20047,7 +20071,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F274" t="n">
         <v>59</v>
@@ -20072,7 +20096,7 @@
       </c>
       <c r="K274" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="L274" t="inlineStr">
@@ -20097,7 +20121,7 @@
         <v>2</v>
       </c>
       <c r="Q274" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R274" t="inlineStr"/>
     </row>
@@ -20121,7 +20145,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F275" t="n">
         <v>61</v>
@@ -20146,7 +20170,7 @@
       </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="L275" t="inlineStr">
@@ -20171,7 +20195,7 @@
         <v>2</v>
       </c>
       <c r="Q275" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="R275" t="inlineStr"/>
     </row>
@@ -20195,7 +20219,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F276" t="n">
         <v>67</v>
@@ -20220,7 +20244,7 @@
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="L276" t="inlineStr">
@@ -20245,7 +20269,7 @@
         <v>2</v>
       </c>
       <c r="Q276" t="n">
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="R276" t="inlineStr"/>
     </row>
@@ -20269,7 +20293,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F277" t="n">
         <v>71</v>
@@ -20294,7 +20318,7 @@
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="L277" t="inlineStr">
@@ -20319,7 +20343,7 @@
         <v>2</v>
       </c>
       <c r="Q277" t="n">
-        <v>10</v>
+        <v>-3</v>
       </c>
       <c r="R277" t="inlineStr"/>
     </row>
@@ -20343,7 +20367,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F278" t="n">
         <v>84</v>
@@ -20368,7 +20392,7 @@
       </c>
       <c r="K278" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="L278" t="inlineStr">
@@ -20390,10 +20414,10 @@
         <v>0</v>
       </c>
       <c r="P278" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q278" t="n">
-        <v>6</v>
+        <v>-4</v>
       </c>
       <c r="R278" t="inlineStr"/>
     </row>
@@ -20417,7 +20441,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F279" t="n">
         <v>94</v>
@@ -20442,7 +20466,7 @@
       </c>
       <c r="K279" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="L279" t="inlineStr">
@@ -20467,7 +20491,7 @@
         <v>2</v>
       </c>
       <c r="Q279" t="n">
-        <v>10</v>
+        <v>-3</v>
       </c>
       <c r="R279" t="inlineStr"/>
     </row>
@@ -20502,7 +20526,7 @@
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
-          <t>['Portugal', 'France']</t>
+          <t>['Portugal', 'France', 'Germany']</t>
         </is>
       </c>
       <c r="L280" t="inlineStr">
@@ -20551,7 +20575,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F281" t="n">
         <v>11</v>
@@ -20576,7 +20600,7 @@
       </c>
       <c r="K281" t="inlineStr">
         <is>
-          <t>['Portugal', 'France']</t>
+          <t>['Hungary', 'Portugal', 'France']</t>
         </is>
       </c>
       <c r="L281" t="inlineStr">
@@ -20595,13 +20619,13 @@
         </is>
       </c>
       <c r="O281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q281" t="n">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="R281" t="inlineStr"/>
     </row>
@@ -20625,7 +20649,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F282" t="n">
         <v>31</v>
@@ -20650,7 +20674,7 @@
       </c>
       <c r="K282" t="inlineStr">
         <is>
-          <t>['France', 'Portugal']</t>
+          <t>['Hungary', 'Portugal', 'France']</t>
         </is>
       </c>
       <c r="L282" t="inlineStr">
@@ -20672,10 +20696,10 @@
         <v>0</v>
       </c>
       <c r="P282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q282" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="R282" t="inlineStr"/>
     </row>
@@ -20699,7 +20723,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F283" t="n">
         <v>47</v>
@@ -20724,7 +20748,7 @@
       </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t>['Portugal', 'France']</t>
+          <t>['Hungary', 'Portugal', 'France']</t>
         </is>
       </c>
       <c r="L283" t="inlineStr">
@@ -20746,10 +20770,10 @@
         <v>0</v>
       </c>
       <c r="P283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q283" t="n">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="R283" t="inlineStr"/>
     </row>
@@ -20798,7 +20822,7 @@
       </c>
       <c r="K284" t="inlineStr">
         <is>
-          <t>['France', 'Hungary']</t>
+          <t>['Hungary', 'Portugal', 'France']</t>
         </is>
       </c>
       <c r="L284" t="inlineStr">
@@ -20817,13 +20841,13 @@
         </is>
       </c>
       <c r="O284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q284" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R284" t="inlineStr"/>
     </row>
@@ -20847,7 +20871,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F285" t="n">
         <v>60</v>
@@ -20872,7 +20896,7 @@
       </c>
       <c r="K285" t="inlineStr">
         <is>
-          <t>['Portugal', 'France']</t>
+          <t>['Hungary', 'Portugal', 'France']</t>
         </is>
       </c>
       <c r="L285" t="inlineStr">
@@ -20891,13 +20915,13 @@
         </is>
       </c>
       <c r="O285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q285" t="n">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="R285" t="inlineStr"/>
     </row>
@@ -20946,7 +20970,7 @@
       </c>
       <c r="K286" t="inlineStr">
         <is>
-          <t>['Portugal', 'France']</t>
+          <t>['Portugal', 'France', 'Germany']</t>
         </is>
       </c>
       <c r="L286" t="inlineStr">
@@ -20965,13 +20989,13 @@
         </is>
       </c>
       <c r="O286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q286" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R286" t="inlineStr"/>
     </row>
@@ -20995,7 +21019,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F287" t="n">
         <v>68</v>
@@ -21020,7 +21044,7 @@
       </c>
       <c r="K287" t="inlineStr">
         <is>
-          <t>['Portugal', 'France']</t>
+          <t>['Hungary', 'Portugal', 'France']</t>
         </is>
       </c>
       <c r="L287" t="inlineStr">
@@ -21039,13 +21063,13 @@
         </is>
       </c>
       <c r="O287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q287" t="n">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="R287" t="inlineStr"/>
     </row>
@@ -21069,7 +21093,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F288" t="n">
         <v>84</v>
@@ -21094,7 +21118,7 @@
       </c>
       <c r="K288" t="inlineStr">
         <is>
-          <t>['Portugal', 'France']</t>
+          <t>['Portugal', 'France', 'Germany']</t>
         </is>
       </c>
       <c r="L288" t="inlineStr">
@@ -21113,13 +21137,13 @@
         </is>
       </c>
       <c r="O288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q288" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R288" t="inlineStr"/>
     </row>
@@ -21154,7 +21178,7 @@
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland']</t>
+          <t>['Scotland', 'Switzerland', 'Germany']</t>
         </is>
       </c>
       <c r="L289" t="inlineStr">
@@ -21224,7 +21248,7 @@
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland']</t>
+          <t>['Scotland', 'Switzerland', 'Germany']</t>
         </is>
       </c>
       <c r="L290" t="inlineStr">
@@ -21246,10 +21270,10 @@
         <v>0</v>
       </c>
       <c r="P290" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q290" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R290" t="inlineStr"/>
     </row>
@@ -21298,7 +21322,7 @@
       </c>
       <c r="K291" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany']</t>
+          <t>['Scotland', 'Switzerland', 'Germany']</t>
         </is>
       </c>
       <c r="L291" t="inlineStr">
@@ -21320,10 +21344,10 @@
         <v>0</v>
       </c>
       <c r="P291" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q291" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="R291" t="inlineStr"/>
     </row>
@@ -21372,7 +21396,7 @@
       </c>
       <c r="K292" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland']</t>
+          <t>['Scotland', 'Switzerland', 'Germany']</t>
         </is>
       </c>
       <c r="L292" t="inlineStr">
@@ -21394,10 +21418,10 @@
         <v>0</v>
       </c>
       <c r="P292" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q292" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R292" t="inlineStr"/>
     </row>
@@ -21421,7 +21445,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F293" t="n">
         <v>100</v>
@@ -21446,7 +21470,7 @@
       </c>
       <c r="K293" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland']</t>
+          <t>['Hungary', 'Switzerland', 'Germany']</t>
         </is>
       </c>
       <c r="L293" t="inlineStr">
@@ -21465,13 +21489,13 @@
         </is>
       </c>
       <c r="O293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P293" t="n">
         <v>2</v>
       </c>
       <c r="Q293" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R293" t="inlineStr"/>
     </row>
@@ -21506,7 +21530,7 @@
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy']</t>
+          <t>['Albania', 'Spain', 'Italy']</t>
         </is>
       </c>
       <c r="L294" t="inlineStr">
@@ -21576,7 +21600,7 @@
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy']</t>
+          <t>['Albania', 'Spain', 'Italy']</t>
         </is>
       </c>
       <c r="L295" t="inlineStr">
@@ -21598,16 +21622,12 @@
         <v>0</v>
       </c>
       <c r="P295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q295" t="n">
-        <v>1</v>
-      </c>
-      <c r="R295" t="inlineStr">
-        <is>
-          <t>Albania</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="R295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -21629,7 +21649,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F296" t="n">
         <v>13</v>
@@ -21654,7 +21674,7 @@
       </c>
       <c r="K296" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy']</t>
+          <t>['Spain', 'Croatia', 'Italy']</t>
         </is>
       </c>
       <c r="L296" t="inlineStr">
@@ -21673,13 +21693,13 @@
         </is>
       </c>
       <c r="O296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P296" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q296" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="R296" t="inlineStr"/>
     </row>
@@ -21728,7 +21748,7 @@
       </c>
       <c r="K297" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia', 'Italy']</t>
         </is>
       </c>
       <c r="L297" t="inlineStr">
@@ -21747,13 +21767,13 @@
         </is>
       </c>
       <c r="O297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P297" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q297" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R297" t="inlineStr"/>
     </row>
@@ -21777,7 +21797,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F298" t="n">
         <v>98</v>
@@ -21802,7 +21822,7 @@
       </c>
       <c r="K298" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy']</t>
+          <t>['Spain', 'Croatia', 'Italy']</t>
         </is>
       </c>
       <c r="L298" t="inlineStr">
@@ -21821,13 +21841,13 @@
         </is>
       </c>
       <c r="O298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P298" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q298" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="R298" t="inlineStr"/>
     </row>
@@ -21862,7 +21882,7 @@
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="L299" t="inlineStr">
@@ -21911,7 +21931,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F300" t="n">
         <v>6</v>
@@ -21936,7 +21956,7 @@
       </c>
       <c r="K300" t="inlineStr">
         <is>
-          <t>['Austria', 'France']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="L300" t="inlineStr">
@@ -21955,13 +21975,13 @@
         </is>
       </c>
       <c r="O300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P300" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q300" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R300" t="inlineStr"/>
     </row>
@@ -21985,7 +22005,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F301" t="n">
         <v>47</v>
@@ -22010,7 +22030,7 @@
       </c>
       <c r="K301" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="L301" t="inlineStr">
@@ -22029,13 +22049,13 @@
         </is>
       </c>
       <c r="O301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P301" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q301" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R301" t="inlineStr"/>
     </row>
@@ -22059,7 +22079,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F302" t="n">
         <v>56</v>
@@ -22084,7 +22104,7 @@
       </c>
       <c r="K302" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="L302" t="inlineStr">
@@ -22106,10 +22126,10 @@
         <v>0</v>
       </c>
       <c r="P302" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q302" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R302" t="inlineStr"/>
     </row>
@@ -22133,7 +22153,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F303" t="n">
         <v>59</v>
@@ -22158,7 +22178,7 @@
       </c>
       <c r="K303" t="inlineStr">
         <is>
-          <t>['Austria', 'France']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="L303" t="inlineStr">
@@ -22177,13 +22197,13 @@
         </is>
       </c>
       <c r="O303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P303" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q303" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R303" t="inlineStr"/>
     </row>
@@ -22207,7 +22227,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F304" t="n">
         <v>75</v>
@@ -22232,7 +22252,7 @@
       </c>
       <c r="K304" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="L304" t="inlineStr">
@@ -22251,13 +22271,13 @@
         </is>
       </c>
       <c r="O304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P304" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q304" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R304" t="inlineStr"/>
     </row>
@@ -22281,7 +22301,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F305" t="n">
         <v>79</v>
@@ -22306,7 +22326,7 @@
       </c>
       <c r="K305" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="L305" t="inlineStr">
@@ -22328,10 +22348,10 @@
         <v>0</v>
       </c>
       <c r="P305" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q305" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R305" t="inlineStr"/>
     </row>
@@ -22355,7 +22375,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F306" t="n">
         <v>80</v>
@@ -22380,7 +22400,7 @@
       </c>
       <c r="K306" t="inlineStr">
         <is>
-          <t>['Austria', 'France']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="L306" t="inlineStr">
@@ -22399,13 +22419,13 @@
         </is>
       </c>
       <c r="O306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P306" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q306" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R306" t="inlineStr"/>
     </row>
@@ -22440,7 +22460,7 @@
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
-          <t>['Slovenia', 'England']</t>
+          <t>['Slovenia', 'Denmark', 'England']</t>
         </is>
       </c>
       <c r="L307" t="inlineStr">
@@ -22510,7 +22530,7 @@
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
-          <t>['Slovenia', 'England']</t>
+          <t>['Slovenia', 'Denmark', 'England']</t>
         </is>
       </c>
       <c r="L308" t="inlineStr">
@@ -22532,10 +22552,10 @@
         <v>0</v>
       </c>
       <c r="P308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R308" t="inlineStr"/>
     </row>
@@ -22580,7 +22600,7 @@
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
-          <t>['Slovenia', 'England']</t>
+          <t>['Slovenia', 'Denmark', 'England']</t>
         </is>
       </c>
       <c r="L309" t="inlineStr">
@@ -22602,10 +22622,10 @@
         <v>0</v>
       </c>
       <c r="P309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R309" t="inlineStr"/>
     </row>
@@ -22640,7 +22660,7 @@
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
-          <t>['Belgium', 'Romania']</t>
+          <t>['Romania', 'Belgium', 'Slovakia']</t>
         </is>
       </c>
       <c r="L310" t="inlineStr">
@@ -22710,7 +22730,7 @@
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
-          <t>['Belgium', 'Romania']</t>
+          <t>['Romania', 'Belgium', 'Slovakia']</t>
         </is>
       </c>
       <c r="L311" t="inlineStr">
@@ -22735,7 +22755,7 @@
         <v>0</v>
       </c>
       <c r="Q311" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R311" t="inlineStr"/>
     </row>
@@ -22784,7 +22804,7 @@
       </c>
       <c r="K312" t="inlineStr">
         <is>
-          <t>['Belgium', 'Slovakia']</t>
+          <t>['Ukraine', 'Belgium', 'Slovakia']</t>
         </is>
       </c>
       <c r="L312" t="inlineStr">
@@ -22806,10 +22826,10 @@
         <v>1</v>
       </c>
       <c r="P312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q312" t="n">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="R312" t="inlineStr"/>
     </row>
@@ -22858,7 +22878,7 @@
       </c>
       <c r="K313" t="inlineStr">
         <is>
-          <t>['Belgium', 'Romania']</t>
+          <t>['Romania', 'Belgium', 'Slovakia']</t>
         </is>
       </c>
       <c r="L313" t="inlineStr">
@@ -22883,7 +22903,7 @@
         <v>0</v>
       </c>
       <c r="Q313" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R313" t="inlineStr"/>
     </row>
@@ -22918,7 +22938,7 @@
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic', 'Turkey']</t>
         </is>
       </c>
       <c r="L314" t="inlineStr">
@@ -22988,7 +23008,7 @@
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic', 'Turkey']</t>
         </is>
       </c>
       <c r="L315" t="inlineStr">
@@ -23010,16 +23030,12 @@
         <v>0</v>
       </c>
       <c r="P315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q315" t="n">
-        <v>0</v>
-      </c>
-      <c r="R315" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -23041,7 +23057,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F316" t="n">
         <v>2</v>
@@ -23066,7 +23082,7 @@
       </c>
       <c r="K316" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal']</t>
+          <t>['Portugal', 'Turkey', 'Georgia']</t>
         </is>
       </c>
       <c r="L316" t="inlineStr">
@@ -23085,15 +23101,19 @@
         </is>
       </c>
       <c r="O316" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q316" t="n">
         <v>0</v>
       </c>
-      <c r="R316" t="inlineStr"/>
+      <c r="R316" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -23115,7 +23135,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F317" t="n">
         <v>51</v>
@@ -23140,7 +23160,7 @@
       </c>
       <c r="K317" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal']</t>
+          <t>['Portugal', 'Turkey', 'Georgia']</t>
         </is>
       </c>
       <c r="L317" t="inlineStr">
@@ -23162,7 +23182,7 @@
         <v>0</v>
       </c>
       <c r="P317" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q317" t="n">
         <v>1</v>
@@ -23189,7 +23209,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F318" t="n">
         <v>57</v>
@@ -23214,7 +23234,7 @@
       </c>
       <c r="K318" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal']</t>
+          <t>['Portugal', 'Turkey', 'Georgia']</t>
         </is>
       </c>
       <c r="L318" t="inlineStr">
@@ -23236,10 +23256,10 @@
         <v>0</v>
       </c>
       <c r="P318" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R318" t="inlineStr"/>
     </row>
@@ -23288,7 +23308,7 @@
       </c>
       <c r="K319" t="inlineStr">
         <is>
-          <t>['Portugal', 'Georgia']</t>
+          <t>['Portugal', 'Turkey', 'Georgia']</t>
         </is>
       </c>
       <c r="L319" t="inlineStr">
@@ -23307,15 +23327,19 @@
         </is>
       </c>
       <c r="O319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q319" t="n">
-        <v>1</v>
-      </c>
-      <c r="R319" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="R319" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -23337,7 +23361,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F320" t="n">
         <v>94</v>
@@ -23362,7 +23386,7 @@
       </c>
       <c r="K320" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal']</t>
+          <t>['Portugal', 'Turkey', 'Georgia']</t>
         </is>
       </c>
       <c r="L320" t="inlineStr">
@@ -23381,13 +23405,13 @@
         </is>
       </c>
       <c r="O320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P320" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R320" t="inlineStr"/>
     </row>

--- a/data/out/wiki/men/fifa/eu/goals_eu_fifa_men.xlsx
+++ b/data/out/wiki/men/fifa/eu/goals_eu_fifa_men.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -556,7 +556,7 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -630,7 +630,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -704,7 +704,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -852,7 +852,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1222,7 +1222,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1296,7 +1296,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1356,7 +1356,7 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
-          <t>['Spain', 'West Germany']</t>
+          <t>['West Germany', 'Spain']</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1426,7 +1426,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>['Spain', 'West Germany']</t>
+          <t>['West Germany', 'Spain']</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1496,7 +1496,7 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>['Spain', 'West Germany']</t>
+          <t>['West Germany', 'Spain']</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1648,7 +1648,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -2672,7 +2672,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Netherlands']</t>
+          <t>['Netherlands', 'Soviet Union']</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2954,7 +2954,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -3962,7 +3962,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>['Spain', 'Bulgaria']</t>
+          <t>['Bulgaria', 'Spain']</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -4036,7 +4036,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>['Spain', 'France']</t>
+          <t>['France', 'Spain']</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -4332,7 +4332,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>['Spain', 'France']</t>
+          <t>['France', 'Spain']</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -4406,7 +4406,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>['Spain', 'France']</t>
+          <t>['France', 'Spain']</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -5684,7 +5684,7 @@
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
-          <t>['Italy', 'Germany']</t>
+          <t>['Germany', 'Italy']</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -5754,7 +5754,7 @@
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
-          <t>['Italy', 'Germany']</t>
+          <t>['Germany', 'Italy']</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -5828,7 +5828,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -5906,7 +5906,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -5984,7 +5984,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -6062,7 +6062,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>['Italy', 'Germany']</t>
+          <t>['Germany', 'Italy']</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>['Italy', 'Germany']</t>
+          <t>['Germany', 'Italy']</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -6210,7 +6210,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>['Italy', 'Germany']</t>
+          <t>['Germany', 'Italy']</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -6926,7 +6926,7 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>['Romania', 'Portugal']</t>
+          <t>['Portugal', 'Romania']</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>['Romania', 'Portugal']</t>
+          <t>['Portugal', 'Romania']</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
@@ -7460,7 +7460,7 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>['Romania', 'Portugal']</t>
+          <t>['Portugal', 'Romania']</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
@@ -8168,7 +8168,7 @@
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
@@ -8238,7 +8238,7 @@
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
@@ -8312,7 +8312,7 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
@@ -8386,7 +8386,7 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
@@ -8460,7 +8460,7 @@
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
@@ -8534,7 +8534,7 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
@@ -8608,7 +8608,7 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
@@ -8682,7 +8682,7 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
@@ -8756,7 +8756,7 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
@@ -8816,7 +8816,7 @@
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
-          <t>['Spain', 'Greece']</t>
+          <t>['Greece', 'Spain']</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
@@ -8886,7 +8886,7 @@
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
-          <t>['Spain', 'Greece']</t>
+          <t>['Greece', 'Spain']</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
@@ -8960,7 +8960,7 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
@@ -9034,7 +9034,7 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
@@ -9108,7 +9108,7 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
@@ -10116,7 +10116,7 @@
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
@@ -10190,7 +10190,7 @@
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
@@ -10412,7 +10412,7 @@
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="L138" t="inlineStr">
@@ -10620,7 +10620,7 @@
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="L141" t="inlineStr">
@@ -10690,7 +10690,7 @@
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
@@ -10764,7 +10764,7 @@
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
@@ -10838,7 +10838,7 @@
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
@@ -10912,7 +10912,7 @@
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Netherlands']</t>
+          <t>['Netherlands', 'Czech Republic']</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
@@ -10986,7 +10986,7 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Netherlands']</t>
+          <t>['Netherlands', 'Czech Republic']</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
@@ -11060,7 +11060,7 @@
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Netherlands']</t>
+          <t>['Netherlands', 'Czech Republic']</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
@@ -11134,7 +11134,7 @@
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Netherlands']</t>
+          <t>['Netherlands', 'Czech Republic']</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
@@ -11782,7 +11782,7 @@
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey']</t>
+          <t>['Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
@@ -11842,7 +11842,7 @@
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="L158" t="inlineStr">
@@ -11912,7 +11912,7 @@
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
@@ -11982,7 +11982,7 @@
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
@@ -12056,7 +12056,7 @@
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
@@ -12130,7 +12130,7 @@
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="L162" t="inlineStr">
@@ -12190,7 +12190,7 @@
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
-          <t>['Romania', 'Netherlands']</t>
+          <t>['Netherlands', 'Romania']</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
@@ -12260,7 +12260,7 @@
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
-          <t>['Romania', 'Netherlands']</t>
+          <t>['Netherlands', 'Romania']</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
@@ -12330,7 +12330,7 @@
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
-          <t>['Romania', 'Netherlands']</t>
+          <t>['Netherlands', 'Romania']</t>
         </is>
       </c>
       <c r="L165" t="inlineStr">
@@ -12686,7 +12686,7 @@
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden']</t>
+          <t>['Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="L170" t="inlineStr">
@@ -12756,7 +12756,7 @@
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden']</t>
+          <t>['Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="L171" t="inlineStr">
@@ -12830,7 +12830,7 @@
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="L172" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
@@ -12978,7 +12978,7 @@
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
@@ -13052,7 +13052,7 @@
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
@@ -13126,7 +13126,7 @@
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="L176" t="inlineStr">
@@ -13474,7 +13474,7 @@
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Russia']</t>
+          <t>['Russia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
@@ -13534,7 +13534,7 @@
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany']</t>
+          <t>['Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="L182" t="inlineStr">
@@ -13608,7 +13608,7 @@
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>['Germany', 'Denmark']</t>
+          <t>['Denmark', 'Germany']</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
@@ -13682,7 +13682,7 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany']</t>
+          <t>['Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
@@ -13756,7 +13756,7 @@
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>['Germany', 'Denmark']</t>
+          <t>['Denmark', 'Germany']</t>
         </is>
       </c>
       <c r="L185" t="inlineStr">
@@ -13830,7 +13830,7 @@
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany']</t>
+          <t>['Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
@@ -13904,7 +13904,7 @@
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany']</t>
+          <t>['Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
@@ -13982,7 +13982,7 @@
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany']</t>
+          <t>['Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
@@ -14042,7 +14042,7 @@
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="L189" t="inlineStr">
@@ -14112,7 +14112,7 @@
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
@@ -14182,7 +14182,7 @@
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
@@ -14330,7 +14330,7 @@
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy']</t>
+          <t>['Italy', 'Spain']</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
@@ -14404,7 +14404,7 @@
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy']</t>
+          <t>['Italy', 'Spain']</t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
@@ -14886,7 +14886,7 @@
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
-          <t>['Romania', 'Switzerland', 'France']</t>
+          <t>['Romania', 'France', 'Switzerland']</t>
         </is>
       </c>
       <c r="L201" t="inlineStr">
@@ -14956,7 +14956,7 @@
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
-          <t>['Romania', 'Switzerland', 'France']</t>
+          <t>['Romania', 'France', 'Switzerland']</t>
         </is>
       </c>
       <c r="L202" t="inlineStr">
@@ -15026,7 +15026,7 @@
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
-          <t>['Romania', 'Switzerland', 'France']</t>
+          <t>['Romania', 'France', 'Switzerland']</t>
         </is>
       </c>
       <c r="L203" t="inlineStr">
@@ -15100,7 +15100,7 @@
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France', 'Albania']</t>
+          <t>['Albania', 'France', 'Switzerland']</t>
         </is>
       </c>
       <c r="L204" t="inlineStr">
@@ -15160,7 +15160,7 @@
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
-          <t>['Wales', 'Slovakia', 'England']</t>
+          <t>['Slovakia', 'Wales', 'England']</t>
         </is>
       </c>
       <c r="L205" t="inlineStr">
@@ -15230,7 +15230,7 @@
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
-          <t>['Wales', 'Slovakia', 'England']</t>
+          <t>['Slovakia', 'Wales', 'England']</t>
         </is>
       </c>
       <c r="L206" t="inlineStr">
@@ -15304,7 +15304,7 @@
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
-          <t>['Wales', 'Slovakia', 'England']</t>
+          <t>['Slovakia', 'Wales', 'England']</t>
         </is>
       </c>
       <c r="L207" t="inlineStr">
@@ -15382,7 +15382,7 @@
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>['Wales', 'Slovakia', 'England']</t>
+          <t>['Slovakia', 'Wales', 'England']</t>
         </is>
       </c>
       <c r="L208" t="inlineStr">
@@ -15456,7 +15456,7 @@
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>['Wales', 'Slovakia', 'England']</t>
+          <t>['Slovakia', 'Wales', 'England']</t>
         </is>
       </c>
       <c r="L209" t="inlineStr">
@@ -15530,7 +15530,7 @@
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>['Wales', 'Slovakia', 'England']</t>
+          <t>['Slovakia', 'Wales', 'England']</t>
         </is>
       </c>
       <c r="L210" t="inlineStr">
@@ -15590,7 +15590,7 @@
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Poland', 'Germany']</t>
+          <t>['Germany', 'Northern Ireland', 'Poland']</t>
         </is>
       </c>
       <c r="L211" t="inlineStr">
@@ -15660,7 +15660,7 @@
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Poland', 'Germany']</t>
+          <t>['Germany', 'Northern Ireland', 'Poland']</t>
         </is>
       </c>
       <c r="L212" t="inlineStr">
@@ -15730,7 +15730,7 @@
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Poland', 'Germany']</t>
+          <t>['Germany', 'Northern Ireland', 'Poland']</t>
         </is>
       </c>
       <c r="L213" t="inlineStr">
@@ -15804,7 +15804,7 @@
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Poland', 'Germany']</t>
+          <t>['Germany', 'Northern Ireland', 'Poland']</t>
         </is>
       </c>
       <c r="L214" t="inlineStr">
@@ -15878,7 +15878,7 @@
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Poland', 'Germany']</t>
+          <t>['Germany', 'Northern Ireland', 'Poland']</t>
         </is>
       </c>
       <c r="L215" t="inlineStr">
@@ -15938,7 +15938,7 @@
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
-          <t>['Spain', 'Czech Republic', 'Croatia']</t>
+          <t>['Croatia', 'Czech Republic', 'Spain']</t>
         </is>
       </c>
       <c r="L216" t="inlineStr">
@@ -16008,7 +16008,7 @@
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
-          <t>['Spain', 'Czech Republic', 'Croatia']</t>
+          <t>['Croatia', 'Czech Republic', 'Spain']</t>
         </is>
       </c>
       <c r="L217" t="inlineStr">
@@ -16082,7 +16082,7 @@
       </c>
       <c r="K218" t="inlineStr">
         <is>
-          <t>['Spain', 'Czech Republic', 'Croatia']</t>
+          <t>['Croatia', 'Czech Republic', 'Spain']</t>
         </is>
       </c>
       <c r="L218" t="inlineStr">
@@ -16156,7 +16156,7 @@
       </c>
       <c r="K219" t="inlineStr">
         <is>
-          <t>['Spain', 'Turkey', 'Croatia']</t>
+          <t>['Croatia', 'Turkey', 'Spain']</t>
         </is>
       </c>
       <c r="L219" t="inlineStr">
@@ -16230,7 +16230,7 @@
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>['Spain', 'Turkey', 'Croatia']</t>
+          <t>['Croatia', 'Turkey', 'Spain']</t>
         </is>
       </c>
       <c r="L220" t="inlineStr">
@@ -16304,7 +16304,7 @@
       </c>
       <c r="K221" t="inlineStr">
         <is>
-          <t>['Spain', 'Turkey', 'Croatia']</t>
+          <t>['Croatia', 'Turkey', 'Spain']</t>
         </is>
       </c>
       <c r="L221" t="inlineStr">
@@ -16378,7 +16378,7 @@
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain', 'Turkey']</t>
+          <t>['Croatia', 'Turkey', 'Spain']</t>
         </is>
       </c>
       <c r="L222" t="inlineStr">
@@ -16438,7 +16438,7 @@
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="L223" t="inlineStr">
@@ -16512,7 +16512,7 @@
       </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="L224" t="inlineStr">
@@ -16586,7 +16586,7 @@
       </c>
       <c r="K225" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="L225" t="inlineStr">
@@ -16660,7 +16660,7 @@
       </c>
       <c r="K226" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="L226" t="inlineStr">
@@ -16734,7 +16734,7 @@
       </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="L227" t="inlineStr">
@@ -16808,7 +16808,7 @@
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="L228" t="inlineStr">
@@ -16882,7 +16882,7 @@
       </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="L229" t="inlineStr">
@@ -16956,7 +16956,7 @@
       </c>
       <c r="K230" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="L230" t="inlineStr">
@@ -17030,7 +17030,7 @@
       </c>
       <c r="K231" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="L231" t="inlineStr">
@@ -17104,7 +17104,7 @@
       </c>
       <c r="K232" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="L232" t="inlineStr">
@@ -18012,7 +18012,7 @@
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Austria', 'Netherlands']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="L245" t="inlineStr">
@@ -18082,7 +18082,7 @@
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Austria', 'Netherlands']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="L246" t="inlineStr">
@@ -18152,7 +18152,7 @@
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Austria', 'Netherlands']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="L247" t="inlineStr">
@@ -18226,7 +18226,7 @@
       </c>
       <c r="K248" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Austria', 'Netherlands']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="L248" t="inlineStr">
@@ -18300,7 +18300,7 @@
       </c>
       <c r="K249" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Austria', 'Netherlands']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="L249" t="inlineStr">
@@ -18374,7 +18374,7 @@
       </c>
       <c r="K250" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Austria', 'Netherlands']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="L250" t="inlineStr">
@@ -18448,7 +18448,7 @@
       </c>
       <c r="K251" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Austria', 'Netherlands']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="L251" t="inlineStr">
@@ -18508,7 +18508,7 @@
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Russia']</t>
+          <t>['Finland', 'Russia', 'Belgium']</t>
         </is>
       </c>
       <c r="L252" t="inlineStr">
@@ -18578,7 +18578,7 @@
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Russia']</t>
+          <t>['Finland', 'Russia', 'Belgium']</t>
         </is>
       </c>
       <c r="L253" t="inlineStr">
@@ -18874,7 +18874,7 @@
       </c>
       <c r="K257" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium', 'Denmark']</t>
+          <t>['Denmark', 'Russia', 'Belgium']</t>
         </is>
       </c>
       <c r="L257" t="inlineStr">
@@ -18948,7 +18948,7 @@
       </c>
       <c r="K258" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Denmark']</t>
+          <t>['Denmark', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="L258" t="inlineStr">
@@ -19022,7 +19022,7 @@
       </c>
       <c r="K259" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Denmark']</t>
+          <t>['Denmark', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="L259" t="inlineStr">
@@ -19096,7 +19096,7 @@
       </c>
       <c r="K260" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Denmark']</t>
+          <t>['Denmark', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="L260" t="inlineStr">
@@ -19656,7 +19656,7 @@
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="L268" t="inlineStr">
@@ -19726,7 +19726,7 @@
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="L269" t="inlineStr">
@@ -19800,7 +19800,7 @@
       </c>
       <c r="K270" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="L270" t="inlineStr">
@@ -19874,7 +19874,7 @@
       </c>
       <c r="K271" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="L271" t="inlineStr">
@@ -19948,7 +19948,7 @@
       </c>
       <c r="K272" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="L272" t="inlineStr">
@@ -20022,7 +20022,7 @@
       </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="L273" t="inlineStr">
@@ -20096,7 +20096,7 @@
       </c>
       <c r="K274" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="L274" t="inlineStr">
@@ -20170,7 +20170,7 @@
       </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="L275" t="inlineStr">
@@ -20244,7 +20244,7 @@
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="L276" t="inlineStr">
@@ -20318,7 +20318,7 @@
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="L277" t="inlineStr">
@@ -20392,7 +20392,7 @@
       </c>
       <c r="K278" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="L278" t="inlineStr">
@@ -20466,7 +20466,7 @@
       </c>
       <c r="K279" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="L279" t="inlineStr">
@@ -20526,7 +20526,7 @@
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Germany']</t>
+          <t>['Germany', 'Portugal', 'France']</t>
         </is>
       </c>
       <c r="L280" t="inlineStr">
@@ -20600,7 +20600,7 @@
       </c>
       <c r="K281" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'France']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="L281" t="inlineStr">
@@ -20674,7 +20674,7 @@
       </c>
       <c r="K282" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'France']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="L282" t="inlineStr">
@@ -20748,7 +20748,7 @@
       </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'France']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="L283" t="inlineStr">
@@ -20822,7 +20822,7 @@
       </c>
       <c r="K284" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'France']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="L284" t="inlineStr">
@@ -20896,7 +20896,7 @@
       </c>
       <c r="K285" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'France']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="L285" t="inlineStr">
@@ -20970,7 +20970,7 @@
       </c>
       <c r="K286" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Germany']</t>
+          <t>['Germany', 'Portugal', 'France']</t>
         </is>
       </c>
       <c r="L286" t="inlineStr">
@@ -21044,7 +21044,7 @@
       </c>
       <c r="K287" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'France']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="L287" t="inlineStr">
@@ -21118,7 +21118,7 @@
       </c>
       <c r="K288" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Germany']</t>
+          <t>['Germany', 'Portugal', 'France']</t>
         </is>
       </c>
       <c r="L288" t="inlineStr">
@@ -21178,7 +21178,7 @@
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
-          <t>['Scotland', 'Switzerland', 'Germany']</t>
+          <t>['Germany', 'Scotland', 'Switzerland']</t>
         </is>
       </c>
       <c r="L289" t="inlineStr">
@@ -21248,7 +21248,7 @@
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
-          <t>['Scotland', 'Switzerland', 'Germany']</t>
+          <t>['Germany', 'Scotland', 'Switzerland']</t>
         </is>
       </c>
       <c r="L290" t="inlineStr">
@@ -21322,7 +21322,7 @@
       </c>
       <c r="K291" t="inlineStr">
         <is>
-          <t>['Scotland', 'Switzerland', 'Germany']</t>
+          <t>['Germany', 'Scotland', 'Switzerland']</t>
         </is>
       </c>
       <c r="L291" t="inlineStr">
@@ -21396,7 +21396,7 @@
       </c>
       <c r="K292" t="inlineStr">
         <is>
-          <t>['Scotland', 'Switzerland', 'Germany']</t>
+          <t>['Germany', 'Scotland', 'Switzerland']</t>
         </is>
       </c>
       <c r="L292" t="inlineStr">
@@ -21470,7 +21470,7 @@
       </c>
       <c r="K293" t="inlineStr">
         <is>
-          <t>['Hungary', 'Switzerland', 'Germany']</t>
+          <t>['Germany', 'Hungary', 'Switzerland']</t>
         </is>
       </c>
       <c r="L293" t="inlineStr">
@@ -21530,7 +21530,7 @@
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
-          <t>['Albania', 'Spain', 'Italy']</t>
+          <t>['Albania', 'Italy', 'Spain']</t>
         </is>
       </c>
       <c r="L294" t="inlineStr">
@@ -21600,7 +21600,7 @@
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
-          <t>['Albania', 'Spain', 'Italy']</t>
+          <t>['Albania', 'Italy', 'Spain']</t>
         </is>
       </c>
       <c r="L295" t="inlineStr">
@@ -21674,7 +21674,7 @@
       </c>
       <c r="K296" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Italy']</t>
+          <t>['Italy', 'Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="L296" t="inlineStr">
@@ -21748,7 +21748,7 @@
       </c>
       <c r="K297" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Italy']</t>
+          <t>['Croatia', 'Italy', 'Spain']</t>
         </is>
       </c>
       <c r="L297" t="inlineStr">
@@ -21822,7 +21822,7 @@
       </c>
       <c r="K298" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Italy']</t>
+          <t>['Italy', 'Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="L298" t="inlineStr">
@@ -21882,7 +21882,7 @@
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['Austria', 'Netherlands', 'France']</t>
         </is>
       </c>
       <c r="L299" t="inlineStr">
@@ -21956,7 +21956,7 @@
       </c>
       <c r="K300" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['Austria', 'Netherlands', 'France']</t>
         </is>
       </c>
       <c r="L300" t="inlineStr">
@@ -22030,7 +22030,7 @@
       </c>
       <c r="K301" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['Austria', 'Netherlands', 'France']</t>
         </is>
       </c>
       <c r="L301" t="inlineStr">
@@ -22104,7 +22104,7 @@
       </c>
       <c r="K302" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['Austria', 'Netherlands', 'France']</t>
         </is>
       </c>
       <c r="L302" t="inlineStr">
@@ -22178,7 +22178,7 @@
       </c>
       <c r="K303" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['Austria', 'Netherlands', 'France']</t>
         </is>
       </c>
       <c r="L303" t="inlineStr">
@@ -22252,7 +22252,7 @@
       </c>
       <c r="K304" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['Austria', 'Netherlands', 'France']</t>
         </is>
       </c>
       <c r="L304" t="inlineStr">
@@ -22326,7 +22326,7 @@
       </c>
       <c r="K305" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['Austria', 'Netherlands', 'France']</t>
         </is>
       </c>
       <c r="L305" t="inlineStr">
@@ -22400,7 +22400,7 @@
       </c>
       <c r="K306" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['Austria', 'Netherlands', 'France']</t>
         </is>
       </c>
       <c r="L306" t="inlineStr">
@@ -22460,7 +22460,7 @@
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
-          <t>['Slovenia', 'Denmark', 'England']</t>
+          <t>['Denmark', 'Slovenia', 'England']</t>
         </is>
       </c>
       <c r="L307" t="inlineStr">
@@ -22530,7 +22530,7 @@
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
-          <t>['Slovenia', 'Denmark', 'England']</t>
+          <t>['Denmark', 'Slovenia', 'England']</t>
         </is>
       </c>
       <c r="L308" t="inlineStr">
@@ -22600,7 +22600,7 @@
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
-          <t>['Slovenia', 'Denmark', 'England']</t>
+          <t>['Denmark', 'Slovenia', 'England']</t>
         </is>
       </c>
       <c r="L309" t="inlineStr">
@@ -22660,7 +22660,7 @@
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
-          <t>['Romania', 'Belgium', 'Slovakia']</t>
+          <t>['Slovakia', 'Romania', 'Belgium']</t>
         </is>
       </c>
       <c r="L310" t="inlineStr">
@@ -22730,7 +22730,7 @@
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
-          <t>['Romania', 'Belgium', 'Slovakia']</t>
+          <t>['Slovakia', 'Romania', 'Belgium']</t>
         </is>
       </c>
       <c r="L311" t="inlineStr">
@@ -22878,7 +22878,7 @@
       </c>
       <c r="K313" t="inlineStr">
         <is>
-          <t>['Romania', 'Belgium', 'Slovakia']</t>
+          <t>['Slovakia', 'Romania', 'Belgium']</t>
         </is>
       </c>
       <c r="L313" t="inlineStr">
@@ -22938,7 +22938,7 @@
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic', 'Turkey']</t>
+          <t>['Turkey', 'Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="L314" t="inlineStr">
@@ -23008,7 +23008,7 @@
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic', 'Turkey']</t>
+          <t>['Turkey', 'Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="L315" t="inlineStr">
@@ -23082,7 +23082,7 @@
       </c>
       <c r="K316" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Turkey', 'Portugal', 'Georgia']</t>
         </is>
       </c>
       <c r="L316" t="inlineStr">
@@ -23160,7 +23160,7 @@
       </c>
       <c r="K317" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Turkey', 'Portugal', 'Georgia']</t>
         </is>
       </c>
       <c r="L317" t="inlineStr">
@@ -23234,7 +23234,7 @@
       </c>
       <c r="K318" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Turkey', 'Portugal', 'Georgia']</t>
         </is>
       </c>
       <c r="L318" t="inlineStr">
@@ -23308,7 +23308,7 @@
       </c>
       <c r="K319" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Georgia', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="L319" t="inlineStr">
@@ -23386,7 +23386,7 @@
       </c>
       <c r="K320" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Turkey', 'Portugal', 'Georgia']</t>
         </is>
       </c>
       <c r="L320" t="inlineStr">

--- a/data/out/wiki/men/fifa/eu/goals_eu_fifa_men.xlsx
+++ b/data/out/wiki/men/fifa/eu/goals_eu_fifa_men.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>['West Germany', 'Portugal']</t>
+          <t>['Portugal', 'West Germany']</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -2539,12 +2539,12 @@
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Soviet Union']</t>
+          <t>['Ireland', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Soviet Union']</t>
+          <t>['Ireland', 'Soviet Union']</t>
         </is>
       </c>
       <c r="S25" t="n">
@@ -2608,7 +2608,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -2619,12 +2619,12 @@
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Soviet Union']</t>
+          <t>['Ireland', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2653,7 +2653,7 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Soviet Union']</t>
+          <t>['Ireland', 'Soviet Union']</t>
         </is>
       </c>
       <c r="S26" t="n">
@@ -2662,7 +2662,9 @@
       <c r="T26" t="n">
         <v>0</v>
       </c>
-      <c r="U26" t="inlineStr"/>
+      <c r="U26" t="n">
+        <v>1833</v>
+      </c>
       <c r="V26" t="n">
         <v>1935</v>
       </c>
@@ -2709,7 +2711,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Soviet Union']</t>
+          <t>['Ireland', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2719,7 +2721,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -2743,7 +2745,7 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Republic of Ireland']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="S27" t="n">
@@ -2801,7 +2803,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Soviet Union']</t>
+          <t>['Ireland', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2811,7 +2813,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -2835,7 +2837,7 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Republic of Ireland']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="S28" t="n">
@@ -2893,7 +2895,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Soviet Union']</t>
+          <t>['Ireland', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2903,7 +2905,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -2927,7 +2929,7 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Republic of Ireland']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="S29" t="n">
@@ -2985,7 +2987,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Soviet Union']</t>
+          <t>['Ireland', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2995,7 +2997,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -3019,7 +3021,7 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Republic of Ireland']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="S30" t="n">
@@ -3062,7 +3064,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -3077,7 +3079,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Netherlands']</t>
+          <t>['Netherlands', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -3092,7 +3094,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="N31" t="n">
@@ -3116,7 +3118,9 @@
       <c r="T31" t="n">
         <v>1</v>
       </c>
-      <c r="U31" t="inlineStr"/>
+      <c r="U31" t="n">
+        <v>1833</v>
+      </c>
       <c r="V31" t="n">
         <v>1935</v>
       </c>
@@ -3149,7 +3153,7 @@
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['France', 'Sweden']</t>
+          <t>['Sweden', 'France']</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -3409,7 +3413,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -3497,7 +3501,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['France', 'Sweden']</t>
+          <t>['Sweden', 'France']</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3747,7 +3751,7 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3762,7 +3766,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>CIS</t>
+          <t>Commonwealth of Independent States</t>
         </is>
       </c>
       <c r="N39" t="n">
@@ -3821,13 +3825,13 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>CIS</t>
+          <t>Commonwealth of Independent States</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3842,7 +3846,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>CIS</t>
+          <t>Commonwealth of Independent States</t>
         </is>
       </c>
       <c r="N40" t="n">
@@ -3853,7 +3857,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>CIS</t>
+          <t>Commonwealth of Independent States</t>
         </is>
       </c>
       <c r="Q40" t="n">
@@ -3873,7 +3877,9 @@
       <c r="U40" t="n">
         <v>1777</v>
       </c>
-      <c r="V40" t="inlineStr"/>
+      <c r="V40" t="n">
+        <v>1924</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3917,7 +3923,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3932,7 +3938,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>CIS</t>
+          <t>Commonwealth of Independent States</t>
         </is>
       </c>
       <c r="N41" t="n">
@@ -3995,7 +4001,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>CIS</t>
+          <t>Commonwealth of Independent States</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -4005,7 +4011,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -4020,7 +4026,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>CIS</t>
+          <t>Commonwealth of Independent States</t>
         </is>
       </c>
       <c r="N42" t="n">
@@ -4047,7 +4053,9 @@
       <c r="U42" t="n">
         <v>1777</v>
       </c>
-      <c r="V42" t="inlineStr"/>
+      <c r="V42" t="n">
+        <v>1924</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4091,7 +4099,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -4106,7 +4114,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>CIS</t>
+          <t>Commonwealth of Independent States</t>
         </is>
       </c>
       <c r="N43" t="n">
@@ -4169,7 +4177,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>CIS</t>
+          <t>Commonwealth of Independent States</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -4179,7 +4187,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -4221,7 +4229,9 @@
       <c r="U44" t="n">
         <v>1777</v>
       </c>
-      <c r="V44" t="inlineStr"/>
+      <c r="V44" t="n">
+        <v>1924</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4265,7 +4275,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -4353,7 +4363,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -4431,7 +4441,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>CIS</t>
+          <t>Commonwealth of Independent States</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -4441,7 +4451,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -4483,7 +4493,9 @@
       <c r="U47" t="n">
         <v>1777</v>
       </c>
-      <c r="V47" t="inlineStr"/>
+      <c r="V47" t="n">
+        <v>1924</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -7513,7 +7525,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>['Romania', 'Portugal']</t>
+          <t>['Portugal', 'Romania']</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -7601,7 +7613,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>['Romania', 'Portugal']</t>
+          <t>['Portugal', 'Romania']</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -8145,7 +8157,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>['Romania', 'Portugal']</t>
+          <t>['Portugal', 'Romania']</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -8483,7 +8495,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -8571,7 +8583,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -8659,7 +8671,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -8747,7 +8759,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -8821,12 +8833,12 @@
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Spain']</t>
+          <t>['Yugoslavia', 'Spain']</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>FR Yugoslavia</t>
+          <t>Yugoslavia</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
@@ -8851,7 +8863,7 @@
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Spain']</t>
+          <t>['Yugoslavia', 'Spain']</t>
         </is>
       </c>
       <c r="S98" t="n">
@@ -8901,12 +8913,12 @@
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Spain']</t>
+          <t>['Yugoslavia', 'Spain']</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>FR Yugoslavia</t>
+          <t>Yugoslavia</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
@@ -8931,7 +8943,7 @@
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Spain']</t>
+          <t>['Yugoslavia', 'Spain']</t>
         </is>
       </c>
       <c r="S99" t="n">
@@ -8974,7 +8986,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>FR Yugoslavia</t>
+          <t>Yugoslavia</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -8984,17 +8996,17 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>FR Yugoslavia</t>
+          <t>Yugoslavia</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Norway']</t>
+          <t>['Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>FR Yugoslavia</t>
+          <t>Yugoslavia</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
@@ -9019,7 +9031,7 @@
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Norway']</t>
+          <t>['Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="S100" t="n">
@@ -9028,7 +9040,9 @@
       <c r="T100" t="n">
         <v>1</v>
       </c>
-      <c r="U100" t="inlineStr"/>
+      <c r="U100" t="n">
+        <v>1944</v>
+      </c>
       <c r="V100" t="n">
         <v>2019</v>
       </c>
@@ -9060,7 +9074,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>FR Yugoslavia</t>
+          <t>Yugoslavia</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -9075,12 +9089,12 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Spain']</t>
+          <t>['Yugoslavia', 'Spain']</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>FR Yugoslavia</t>
+          <t>Yugoslavia</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
@@ -9105,7 +9119,7 @@
       </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Spain']</t>
+          <t>['Yugoslavia', 'Spain']</t>
         </is>
       </c>
       <c r="S101" t="n">
@@ -9114,7 +9128,9 @@
       <c r="T101" t="n">
         <v>2</v>
       </c>
-      <c r="U101" t="inlineStr"/>
+      <c r="U101" t="n">
+        <v>1944</v>
+      </c>
       <c r="V101" t="n">
         <v>2019</v>
       </c>
@@ -9146,7 +9162,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>FR Yugoslavia</t>
+          <t>Yugoslavia</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -9156,17 +9172,17 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>FR Yugoslavia</t>
+          <t>Yugoslavia</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Norway']</t>
+          <t>['Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>FR Yugoslavia</t>
+          <t>Yugoslavia</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
@@ -9191,7 +9207,7 @@
       </c>
       <c r="R102" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Norway']</t>
+          <t>['Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="S102" t="n">
@@ -9200,7 +9216,9 @@
       <c r="T102" t="n">
         <v>3</v>
       </c>
-      <c r="U102" t="inlineStr"/>
+      <c r="U102" t="n">
+        <v>1944</v>
+      </c>
       <c r="V102" t="n">
         <v>2019</v>
       </c>
@@ -9232,7 +9250,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>FR Yugoslavia</t>
+          <t>Yugoslavia</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -9247,12 +9265,12 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Spain']</t>
+          <t>['Yugoslavia', 'Spain']</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>FR Yugoslavia</t>
+          <t>Yugoslavia</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
@@ -9277,7 +9295,7 @@
       </c>
       <c r="R103" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Spain']</t>
+          <t>['Yugoslavia', 'Spain']</t>
         </is>
       </c>
       <c r="S103" t="n">
@@ -9286,7 +9304,9 @@
       <c r="T103" t="n">
         <v>4</v>
       </c>
-      <c r="U103" t="inlineStr"/>
+      <c r="U103" t="n">
+        <v>1944</v>
+      </c>
       <c r="V103" t="n">
         <v>2019</v>
       </c>
@@ -9318,7 +9338,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>FR Yugoslavia</t>
+          <t>Yugoslavia</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -9328,17 +9348,17 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>FR Yugoslavia</t>
+          <t>Yugoslavia</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Norway']</t>
+          <t>['Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>FR Yugoslavia</t>
+          <t>Yugoslavia</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
@@ -9363,7 +9383,7 @@
       </c>
       <c r="R104" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Norway']</t>
+          <t>['Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="S104" t="n">
@@ -9372,7 +9392,9 @@
       <c r="T104" t="n">
         <v>5</v>
       </c>
-      <c r="U104" t="inlineStr"/>
+      <c r="U104" t="n">
+        <v>1944</v>
+      </c>
       <c r="V104" t="n">
         <v>2019</v>
       </c>
@@ -9404,7 +9426,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>FR Yugoslavia</t>
+          <t>Yugoslavia</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -9419,12 +9441,12 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Spain']</t>
+          <t>['Yugoslavia', 'Spain']</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>FR Yugoslavia</t>
+          <t>Yugoslavia</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
@@ -9449,7 +9471,7 @@
       </c>
       <c r="R105" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Spain']</t>
+          <t>['Yugoslavia', 'Spain']</t>
         </is>
       </c>
       <c r="S105" t="n">
@@ -9458,7 +9480,9 @@
       <c r="T105" t="n">
         <v>6</v>
       </c>
-      <c r="U105" t="inlineStr"/>
+      <c r="U105" t="n">
+        <v>1944</v>
+      </c>
       <c r="V105" t="n">
         <v>2019</v>
       </c>
@@ -9490,7 +9514,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>FR Yugoslavia</t>
+          <t>Yugoslavia</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -9505,7 +9529,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>['Spain', 'FR Yugoslavia']</t>
+          <t>['Yugoslavia', 'Spain']</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -9515,7 +9539,7 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>FR Yugoslavia</t>
+          <t>Yugoslavia</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
@@ -9535,7 +9559,7 @@
       </c>
       <c r="R106" t="inlineStr">
         <is>
-          <t>['Spain', 'FR Yugoslavia']</t>
+          <t>['Spain', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="S106" t="n">
@@ -9544,7 +9568,9 @@
       <c r="T106" t="n">
         <v>6</v>
       </c>
-      <c r="U106" t="inlineStr"/>
+      <c r="U106" t="n">
+        <v>1944</v>
+      </c>
       <c r="V106" t="n">
         <v>2019</v>
       </c>
@@ -10097,7 +10123,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -10185,7 +10211,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -10273,7 +10299,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -10347,7 +10373,7 @@
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr">
         <is>
-          <t>['Greece', 'Spain']</t>
+          <t>['Spain', 'Greece']</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -10427,7 +10453,7 @@
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr">
         <is>
-          <t>['Greece', 'Spain']</t>
+          <t>['Spain', 'Greece']</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -13867,7 +13893,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal']</t>
+          <t>['Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -14355,7 +14381,7 @@
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr">
         <is>
-          <t>['Romania', 'Netherlands']</t>
+          <t>['Netherlands', 'Romania']</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -14435,7 +14461,7 @@
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr">
         <is>
-          <t>['Romania', 'Netherlands']</t>
+          <t>['Netherlands', 'Romania']</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -14519,7 +14545,7 @@
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr">
         <is>
-          <t>['Romania', 'Netherlands']</t>
+          <t>['Netherlands', 'Romania']</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -14607,7 +14633,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -14695,7 +14721,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -14783,7 +14809,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -14871,7 +14897,7 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -15953,7 +15979,7 @@
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal']</t>
+          <t>['Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -16125,7 +16151,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal']</t>
+          <t>['Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -16301,7 +16327,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal']</t>
+          <t>['Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -16389,7 +16415,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal']</t>
+          <t>['Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -16481,7 +16507,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal']</t>
+          <t>['Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -16713,7 +16739,7 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="I191" t="inlineStr"/>
@@ -16761,7 +16787,9 @@
       <c r="U191" t="n">
         <v>1851</v>
       </c>
-      <c r="V191" t="inlineStr"/>
+      <c r="V191" t="n">
+        <v>1805</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -16795,7 +16823,7 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
@@ -16847,7 +16875,9 @@
       <c r="U192" t="n">
         <v>1851</v>
       </c>
-      <c r="V192" t="inlineStr"/>
+      <c r="V192" t="n">
+        <v>1805</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -16969,7 +16999,7 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
@@ -17021,7 +17051,9 @@
       <c r="U194" t="n">
         <v>1851</v>
       </c>
-      <c r="V194" t="inlineStr"/>
+      <c r="V194" t="n">
+        <v>1805</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -17805,7 +17837,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>['Albania', 'Switzerland', 'France']</t>
+          <t>['Switzerland', 'Albania', 'France']</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -17879,7 +17911,7 @@
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr">
         <is>
-          <t>['England', 'Wales', 'Slovakia']</t>
+          <t>['England', 'Slovakia', 'Wales']</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -17959,7 +17991,7 @@
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr">
         <is>
-          <t>['England', 'Wales', 'Slovakia']</t>
+          <t>['England', 'Slovakia', 'Wales']</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -18047,7 +18079,7 @@
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr">
         <is>
-          <t>['England', 'Wales', 'Slovakia']</t>
+          <t>['England', 'Slovakia', 'Wales']</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -18139,7 +18171,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>['England', 'Wales', 'Slovakia']</t>
+          <t>['England', 'Slovakia', 'Wales']</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -18227,7 +18259,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>['England', 'Wales', 'Slovakia']</t>
+          <t>['England', 'Slovakia', 'Wales']</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -18315,7 +18347,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>['England', 'Wales', 'Slovakia']</t>
+          <t>['England', 'Slovakia', 'Wales']</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -18389,7 +18421,7 @@
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr">
         <is>
-          <t>['Poland', 'Northern Ireland', 'Germany']</t>
+          <t>['Northern Ireland', 'Poland', 'Germany']</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -18469,7 +18501,7 @@
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr">
         <is>
-          <t>['Poland', 'Northern Ireland', 'Germany']</t>
+          <t>['Northern Ireland', 'Poland', 'Germany']</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -18553,7 +18585,7 @@
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr">
         <is>
-          <t>['Poland', 'Northern Ireland', 'Germany']</t>
+          <t>['Northern Ireland', 'Poland', 'Germany']</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -18641,7 +18673,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>['Poland', 'Northern Ireland', 'Germany']</t>
+          <t>['Northern Ireland', 'Poland', 'Germany']</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -18729,7 +18761,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>['Poland', 'Northern Ireland', 'Germany']</t>
+          <t>['Northern Ireland', 'Poland', 'Germany']</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -19059,7 +19091,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>['Spain', 'Turkey', 'Croatia']</t>
+          <t>['Spain', 'Croatia', 'Turkey']</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -19147,7 +19179,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>['Spain', 'Turkey', 'Croatia']</t>
+          <t>['Spain', 'Croatia', 'Turkey']</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -19235,7 +19267,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>['Spain', 'Turkey', 'Croatia']</t>
+          <t>['Spain', 'Croatia', 'Turkey']</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -19323,7 +19355,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>['Spain', 'Turkey', 'Croatia']</t>
+          <t>['Spain', 'Croatia', 'Turkey']</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -19397,7 +19429,7 @@
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr">
         <is>
-          <t>['Italy', 'Sweden', 'Belgium']</t>
+          <t>['Sweden', 'Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -19471,13 +19503,13 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr">
         <is>
-          <t>['Italy', 'Sweden', 'Belgium']</t>
+          <t>['Sweden', 'Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -19519,7 +19551,9 @@
       <c r="U224" t="n">
         <v>1875</v>
       </c>
-      <c r="V224" t="inlineStr"/>
+      <c r="V224" t="n">
+        <v>1758</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -19559,7 +19593,7 @@
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr">
         <is>
-          <t>['Italy', 'Sweden', 'Belgium']</t>
+          <t>['Sweden', 'Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -19647,7 +19681,7 @@
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>['Italy', 'Republic of Ireland', 'Belgium']</t>
+          <t>['Italy', 'Belgium', 'Ireland']</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -19662,7 +19696,7 @@
       </c>
       <c r="M226" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="N226" t="n">
@@ -19725,17 +19759,17 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>['Italy', 'Republic of Ireland', 'Belgium']</t>
+          <t>['Italy', 'Belgium', 'Ireland']</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -19750,7 +19784,7 @@
       </c>
       <c r="M227" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="N227" t="n">
@@ -19765,7 +19799,7 @@
       </c>
       <c r="R227" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy', 'Republic of Ireland']</t>
+          <t>['Belgium', 'Italy', 'Ireland']</t>
         </is>
       </c>
       <c r="S227" t="n">
@@ -19777,7 +19811,9 @@
       <c r="U227" t="n">
         <v>1875</v>
       </c>
-      <c r="V227" t="inlineStr"/>
+      <c r="V227" t="n">
+        <v>1758</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -19807,7 +19843,7 @@
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -19891,7 +19927,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -19979,7 +20015,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -20067,7 +20103,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -20155,7 +20191,7 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -20243,7 +20279,7 @@
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -20331,7 +20367,7 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -20419,7 +20455,7 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -20507,7 +20543,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -20595,7 +20631,7 @@
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -20669,7 +20705,7 @@
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr">
         <is>
-          <t>['Italy', 'Switzerland', 'Wales']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -20749,7 +20785,7 @@
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr">
         <is>
-          <t>['Italy', 'Switzerland', 'Wales']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -20837,7 +20873,7 @@
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>['Italy', 'Switzerland', 'Wales']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -20925,7 +20961,7 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>['Italy', 'Switzerland', 'Wales']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -21013,7 +21049,7 @@
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>['Italy', 'Switzerland', 'Wales']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -21101,7 +21137,7 @@
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>['Italy', 'Switzerland', 'Wales']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -21189,7 +21225,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>['Italy', 'Switzerland', 'Wales']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -21263,7 +21299,7 @@
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr">
         <is>
-          <t>['Russia', 'Finland', 'Belgium']</t>
+          <t>['Finland', 'Russia', 'Belgium']</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -21343,7 +21379,7 @@
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr">
         <is>
-          <t>['Russia', 'Finland', 'Belgium']</t>
+          <t>['Finland', 'Russia', 'Belgium']</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -21695,7 +21731,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>['Russia', 'Denmark', 'Belgium']</t>
+          <t>['Denmark', 'Russia', 'Belgium']</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -21783,7 +21819,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>['Finland', 'Denmark', 'Belgium']</t>
+          <t>['Denmark', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -21871,7 +21907,7 @@
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>['Finland', 'Denmark', 'Belgium']</t>
+          <t>['Denmark', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -21959,7 +21995,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>['Finland', 'Denmark', 'Belgium']</t>
+          <t>['Denmark', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -22033,7 +22069,7 @@
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -22113,7 +22149,7 @@
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -22197,7 +22233,7 @@
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -22285,7 +22321,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -22373,7 +22409,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -22461,7 +22497,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -22549,7 +22585,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -22623,7 +22659,7 @@
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'England']</t>
+          <t>['Czech Republic', 'England', 'Croatia']</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -22703,7 +22739,7 @@
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'England']</t>
+          <t>['Czech Republic', 'England', 'Croatia']</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -22791,7 +22827,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>['England', 'Czech Republic', 'Croatia']</t>
+          <t>['Czech Republic', 'England', 'Croatia']</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -22879,7 +22915,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>['England', 'Czech Republic', 'Croatia']</t>
+          <t>['Czech Republic', 'England', 'Croatia']</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -22967,7 +23003,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>['England', 'Czech Republic', 'Croatia']</t>
+          <t>['Czech Republic', 'England', 'Croatia']</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -23055,7 +23091,7 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>['England', 'Czech Republic', 'Croatia']</t>
+          <t>['Czech Republic', 'England', 'Croatia']</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -23143,7 +23179,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>['England', 'Czech Republic', 'Croatia']</t>
+          <t>['Czech Republic', 'England', 'Croatia']</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -23217,7 +23253,7 @@
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -23297,7 +23333,7 @@
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -23385,7 +23421,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -23473,7 +23509,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -23561,7 +23597,7 @@
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -23649,7 +23685,7 @@
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -23737,7 +23773,7 @@
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -23825,7 +23861,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -23913,7 +23949,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -24001,7 +24037,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -24089,7 +24125,7 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -24177,7 +24213,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -24251,7 +24287,7 @@
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany', 'France']</t>
+          <t>['Germany', 'Portugal', 'France']</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
@@ -24335,7 +24371,7 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'France']</t>
+          <t>['Hungary', 'Portugal', 'France']</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -24423,7 +24459,7 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Portugal']</t>
+          <t>['Hungary', 'Portugal', 'France']</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -24511,7 +24547,7 @@
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'France']</t>
+          <t>['Hungary', 'Portugal', 'France']</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -24687,7 +24723,7 @@
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'France']</t>
+          <t>['Hungary', 'Portugal', 'France']</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -24775,7 +24811,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany', 'France']</t>
+          <t>['Germany', 'Portugal', 'France']</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -24863,7 +24899,7 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'France']</t>
+          <t>['Hungary', 'Portugal', 'France']</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -24951,7 +24987,7 @@
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany', 'France']</t>
+          <t>['Germany', 'Portugal', 'France']</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
@@ -25369,7 +25405,7 @@
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>['Hungary', 'Switzerland', 'Germany']</t>
+          <t>['Switzerland', 'Hungary', 'Germany']</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -25611,7 +25647,7 @@
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy', 'Croatia']</t>
+          <t>['Spain', 'Croatia', 'Italy']</t>
         </is>
       </c>
       <c r="K296" t="inlineStr">
@@ -25699,7 +25735,7 @@
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy', 'Croatia']</t>
+          <t>['Spain', 'Croatia', 'Italy']</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -25787,7 +25823,7 @@
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy', 'Croatia']</t>
+          <t>['Spain', 'Croatia', 'Italy']</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -25861,7 +25897,7 @@
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr">
         <is>
-          <t>['England', 'Denmark', 'Slovenia']</t>
+          <t>['Denmark', 'England', 'Slovenia']</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -25941,7 +25977,7 @@
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr">
         <is>
-          <t>['England', 'Denmark', 'Slovenia']</t>
+          <t>['Denmark', 'England', 'Slovenia']</t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
@@ -26025,7 +26061,7 @@
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr">
         <is>
-          <t>['England', 'Denmark', 'Slovenia']</t>
+          <t>['Denmark', 'England', 'Slovenia']</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -26099,7 +26135,7 @@
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'France']</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -26183,7 +26219,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands', 'France']</t>
+          <t>['Netherlands', 'Austria', 'France']</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -26271,7 +26307,7 @@
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'France']</t>
         </is>
       </c>
       <c r="K304" t="inlineStr">
@@ -26447,7 +26483,7 @@
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands', 'France']</t>
+          <t>['Netherlands', 'Austria', 'France']</t>
         </is>
       </c>
       <c r="K306" t="inlineStr">
@@ -26623,7 +26659,7 @@
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'France']</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -26711,7 +26747,7 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands', 'France']</t>
+          <t>['Netherlands', 'Austria', 'France']</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -26785,7 +26821,7 @@
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Belgium', 'Romania']</t>
+          <t>['Belgium', 'Slovakia', 'Romania']</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -26865,7 +26901,7 @@
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Belgium', 'Romania']</t>
+          <t>['Belgium', 'Slovakia', 'Romania']</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -26953,7 +26989,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>['Belgium', 'Ukraine', 'Slovakia']</t>
+          <t>['Slovakia', 'Belgium', 'Ukraine']</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -27041,7 +27077,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Belgium', 'Romania']</t>
+          <t>['Belgium', 'Slovakia', 'Romania']</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -27115,7 +27151,7 @@
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Turkey', 'Portugal']</t>
+          <t>['Czech Republic', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -27195,7 +27231,7 @@
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Turkey', 'Portugal']</t>
+          <t>['Czech Republic', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -27283,7 +27319,7 @@
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>['Turkey', 'Georgia', 'Portugal']</t>
+          <t>['Georgia', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="K316" t="inlineStr">
@@ -27375,7 +27411,7 @@
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>['Turkey', 'Georgia', 'Portugal']</t>
+          <t>['Georgia', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
@@ -27463,7 +27499,7 @@
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>['Turkey', 'Georgia', 'Portugal']</t>
+          <t>['Georgia', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -27551,7 +27587,7 @@
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>['Turkey', 'Georgia', 'Portugal']</t>
+          <t>['Georgia', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="K319" t="inlineStr">
@@ -27643,7 +27679,7 @@
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>['Turkey', 'Georgia', 'Portugal']</t>
+          <t>['Georgia', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="K320" t="inlineStr">

--- a/data/out/wiki/men/fifa/eu/goals_eu_fifa_men.xlsx
+++ b/data/out/wiki/men/fifa/eu/goals_eu_fifa_men.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -727,7 +727,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -815,7 +815,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1079,7 +1079,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1431,7 +1431,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -3147,7 +3147,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -3235,7 +3235,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -4505,7 +4505,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -4585,7 +4585,7 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -4663,7 +4663,7 @@
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -4743,7 +4743,7 @@
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4835,7 +4835,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -4927,7 +4927,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -5019,7 +5019,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -5111,7 +5111,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -5203,7 +5203,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -5295,7 +5295,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -5387,7 +5387,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -5479,7 +5479,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -5733,7 +5733,7 @@
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>['Sweden', 'France']</t>
+          <t>['France', 'Sweden']</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -5803,7 +5803,7 @@
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>['Sweden', 'France']</t>
+          <t>['France', 'Sweden']</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -5887,7 +5887,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -5975,7 +5975,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -6063,7 +6063,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -6151,7 +6151,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -6239,7 +6239,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -6327,7 +6327,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -6415,7 +6415,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>['Sweden', 'France']</t>
+          <t>['France', 'Sweden']</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -6503,7 +6503,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>['Sweden', 'France']</t>
+          <t>['France', 'Sweden']</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -9503,7 +9503,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>['Scotland', 'England']</t>
+          <t>['England', 'Scotland']</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -9591,7 +9591,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>['Scotland', 'England']</t>
+          <t>['England', 'Scotland']</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -10171,7 +10171,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>['Spain', 'France']</t>
+          <t>['France', 'Spain']</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -10259,7 +10259,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>['Spain', 'France']</t>
+          <t>['France', 'Spain']</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -10875,7 +10875,7 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>['Spain', 'France']</t>
+          <t>['France', 'Spain']</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -10963,7 +10963,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>['Spain', 'France']</t>
+          <t>['France', 'Spain']</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -11051,7 +11051,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>['Spain', 'France']</t>
+          <t>['France', 'Spain']</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -11139,7 +11139,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>['Spain', 'France']</t>
+          <t>['France', 'Spain']</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -14463,7 +14463,7 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>['Romania', 'Portugal']</t>
+          <t>['Portugal', 'Romania']</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -14551,7 +14551,7 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>['Romania', 'Portugal']</t>
+          <t>['Portugal', 'Romania']</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -14639,7 +14639,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>['Romania', 'Portugal']</t>
+          <t>['Portugal', 'Romania']</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -14727,7 +14727,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>['Romania', 'Portugal']</t>
+          <t>['Portugal', 'Romania']</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -15727,7 +15727,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>['Romania', 'Portugal']</t>
+          <t>['Portugal', 'Romania']</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -15815,7 +15815,7 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>['Romania', 'Portugal']</t>
+          <t>['Portugal', 'Romania']</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -15889,7 +15889,7 @@
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium']</t>
+          <t>['Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -15969,7 +15969,7 @@
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium']</t>
+          <t>['Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -16047,7 +16047,7 @@
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium']</t>
+          <t>['Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -16127,7 +16127,7 @@
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium']</t>
+          <t>['Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -16219,7 +16219,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium']</t>
+          <t>['Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -16311,7 +16311,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium']</t>
+          <t>['Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -18471,7 +18471,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>['Spain', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Spain']</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -18559,7 +18559,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>['Spain', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Spain']</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -20173,7 +20173,7 @@
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr">
         <is>
-          <t>['Spain', 'Greece']</t>
+          <t>['Greece', 'Spain']</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -20253,7 +20253,7 @@
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr">
         <is>
-          <t>['Spain', 'Greece']</t>
+          <t>['Greece', 'Spain']</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -20327,7 +20327,7 @@
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr">
         <is>
-          <t>['Spain', 'Greece']</t>
+          <t>['Greece', 'Spain']</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -20407,7 +20407,7 @@
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr">
         <is>
-          <t>['Spain', 'Greece']</t>
+          <t>['Greece', 'Spain']</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -20495,7 +20495,7 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -20583,7 +20583,7 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -20671,7 +20671,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -20759,7 +20759,7 @@
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -20847,7 +20847,7 @@
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -20935,7 +20935,7 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -21185,7 +21185,7 @@
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -21255,7 +21255,7 @@
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -21867,7 +21867,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -21955,7 +21955,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -22043,7 +22043,7 @@
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -22131,7 +22131,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -22219,7 +22219,7 @@
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -22307,7 +22307,7 @@
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -22395,7 +22395,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -22483,7 +22483,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -22571,7 +22571,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -22659,7 +22659,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -22747,7 +22747,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -22835,7 +22835,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -22923,7 +22923,7 @@
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -23011,7 +23011,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -25131,7 +25131,7 @@
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Netherlands']</t>
+          <t>['Netherlands', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
@@ -25219,7 +25219,7 @@
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Netherlands']</t>
+          <t>['Netherlands', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
@@ -25307,7 +25307,7 @@
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Netherlands']</t>
+          <t>['Netherlands', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
@@ -25395,7 +25395,7 @@
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Netherlands']</t>
+          <t>['Netherlands', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
@@ -25483,7 +25483,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Netherlands']</t>
+          <t>['Netherlands', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -25571,7 +25571,7 @@
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Netherlands']</t>
+          <t>['Netherlands', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -25659,7 +25659,7 @@
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Netherlands']</t>
+          <t>['Netherlands', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K294" t="inlineStr">
@@ -25747,7 +25747,7 @@
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Netherlands']</t>
+          <t>['Netherlands', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K295" t="inlineStr">
@@ -27199,7 +27199,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal']</t>
+          <t>['Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -27287,7 +27287,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal']</t>
+          <t>['Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -30557,7 +30557,7 @@
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr">
         <is>
-          <t>['Russia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Russia']</t>
         </is>
       </c>
       <c r="K352" t="inlineStr">
@@ -30637,7 +30637,7 @@
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr">
         <is>
-          <t>['Russia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Russia']</t>
         </is>
       </c>
       <c r="K353" t="inlineStr">
@@ -30721,7 +30721,7 @@
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr">
         <is>
-          <t>['Russia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Russia']</t>
         </is>
       </c>
       <c r="K354" t="inlineStr">
@@ -30795,7 +30795,7 @@
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr">
         <is>
-          <t>['Russia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Russia']</t>
         </is>
       </c>
       <c r="K355" t="inlineStr">
@@ -30875,7 +30875,7 @@
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr">
         <is>
-          <t>['Russia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Russia']</t>
         </is>
       </c>
       <c r="K356" t="inlineStr">
@@ -30959,7 +30959,7 @@
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr">
         <is>
-          <t>['Russia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Russia']</t>
         </is>
       </c>
       <c r="K357" t="inlineStr">
@@ -31047,7 +31047,7 @@
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>['Russia', 'Greece']</t>
+          <t>['Greece', 'Russia']</t>
         </is>
       </c>
       <c r="K358" t="inlineStr">
@@ -31135,7 +31135,7 @@
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>['Russia', 'Greece']</t>
+          <t>['Greece', 'Russia']</t>
         </is>
       </c>
       <c r="K359" t="inlineStr">
@@ -31223,7 +31223,7 @@
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>['Russia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Russia']</t>
         </is>
       </c>
       <c r="K360" t="inlineStr">
@@ -31311,7 +31311,7 @@
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>['Russia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Russia']</t>
         </is>
       </c>
       <c r="K361" t="inlineStr">
@@ -31385,7 +31385,7 @@
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal']</t>
+          <t>['Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="K362" t="inlineStr">
@@ -31455,7 +31455,7 @@
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal']</t>
+          <t>['Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="K363" t="inlineStr">
@@ -31715,7 +31715,7 @@
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal']</t>
+          <t>['Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="K366" t="inlineStr">
@@ -31803,7 +31803,7 @@
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal']</t>
+          <t>['Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="K367" t="inlineStr">
@@ -32067,7 +32067,7 @@
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal']</t>
+          <t>['Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="K370" t="inlineStr">
@@ -32155,7 +32155,7 @@
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal']</t>
+          <t>['Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="K371" t="inlineStr">
@@ -32243,7 +32243,7 @@
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal']</t>
+          <t>['Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="K372" t="inlineStr">
@@ -32335,7 +32335,7 @@
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal']</t>
+          <t>['Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="K373" t="inlineStr">
@@ -32427,7 +32427,7 @@
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal']</t>
+          <t>['Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="K374" t="inlineStr">
@@ -32515,7 +32515,7 @@
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal']</t>
+          <t>['Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="K375" t="inlineStr">
@@ -32589,7 +32589,7 @@
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K376" t="inlineStr">
@@ -32669,7 +32669,7 @@
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K377" t="inlineStr">
@@ -32753,7 +32753,7 @@
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K378" t="inlineStr">
@@ -32827,7 +32827,7 @@
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K379" t="inlineStr">
@@ -32907,7 +32907,7 @@
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K380" t="inlineStr">
@@ -32991,7 +32991,7 @@
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K381" t="inlineStr">
@@ -33079,7 +33079,7 @@
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy']</t>
+          <t>['Italy', 'Spain']</t>
         </is>
       </c>
       <c r="K382" t="inlineStr">
@@ -33167,7 +33167,7 @@
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy']</t>
+          <t>['Italy', 'Spain']</t>
         </is>
       </c>
       <c r="K383" t="inlineStr">
@@ -33255,7 +33255,7 @@
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy']</t>
+          <t>['Italy', 'Spain']</t>
         </is>
       </c>
       <c r="K384" t="inlineStr">
@@ -33343,7 +33343,7 @@
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy']</t>
+          <t>['Italy', 'Spain']</t>
         </is>
       </c>
       <c r="K385" t="inlineStr">
@@ -33431,7 +33431,7 @@
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy']</t>
+          <t>['Italy', 'Spain']</t>
         </is>
       </c>
       <c r="K386" t="inlineStr">
@@ -33519,7 +33519,7 @@
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy']</t>
+          <t>['Italy', 'Spain']</t>
         </is>
       </c>
       <c r="K387" t="inlineStr">
@@ -33593,7 +33593,7 @@
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K388" t="inlineStr">
@@ -33673,7 +33673,7 @@
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K389" t="inlineStr">
@@ -33757,7 +33757,7 @@
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K390" t="inlineStr">
@@ -33831,7 +33831,7 @@
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K391" t="inlineStr">
@@ -33911,7 +33911,7 @@
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K392" t="inlineStr">
@@ -33995,7 +33995,7 @@
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K393" t="inlineStr">
@@ -34083,7 +34083,7 @@
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K394" t="inlineStr">
@@ -34171,7 +34171,7 @@
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K395" t="inlineStr">
@@ -34259,7 +34259,7 @@
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K396" t="inlineStr">
@@ -34347,7 +34347,7 @@
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K397" t="inlineStr">
@@ -34435,7 +34435,7 @@
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K398" t="inlineStr">
@@ -34523,7 +34523,7 @@
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K399" t="inlineStr">
@@ -34597,7 +34597,7 @@
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr">
         <is>
-          <t>['Romania', 'France', 'Switzerland']</t>
+          <t>['Switzerland', 'Romania', 'France']</t>
         </is>
       </c>
       <c r="K400" t="inlineStr">
@@ -34677,7 +34677,7 @@
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr">
         <is>
-          <t>['Romania', 'France', 'Switzerland']</t>
+          <t>['Switzerland', 'Romania', 'France']</t>
         </is>
       </c>
       <c r="K401" t="inlineStr">
@@ -34761,7 +34761,7 @@
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr">
         <is>
-          <t>['Romania', 'France', 'Switzerland']</t>
+          <t>['Switzerland', 'Romania', 'France']</t>
         </is>
       </c>
       <c r="K402" t="inlineStr">
@@ -34849,7 +34849,7 @@
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>['Albania', 'France', 'Switzerland']</t>
+          <t>['Switzerland', 'France', 'Albania']</t>
         </is>
       </c>
       <c r="K403" t="inlineStr">
@@ -34923,7 +34923,7 @@
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr">
         <is>
-          <t>['Wales', 'Slovakia', 'England']</t>
+          <t>['Wales', 'England', 'Slovakia']</t>
         </is>
       </c>
       <c r="K404" t="inlineStr">
@@ -35003,7 +35003,7 @@
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr">
         <is>
-          <t>['Wales', 'Slovakia', 'England']</t>
+          <t>['Wales', 'England', 'Slovakia']</t>
         </is>
       </c>
       <c r="K405" t="inlineStr">
@@ -35091,7 +35091,7 @@
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr">
         <is>
-          <t>['Wales', 'Slovakia', 'England']</t>
+          <t>['Wales', 'England', 'Slovakia']</t>
         </is>
       </c>
       <c r="K406" t="inlineStr">
@@ -35169,7 +35169,7 @@
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr">
         <is>
-          <t>['Wales', 'Slovakia', 'England']</t>
+          <t>['Wales', 'England', 'Slovakia']</t>
         </is>
       </c>
       <c r="K407" t="inlineStr">
@@ -35249,7 +35249,7 @@
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr">
         <is>
-          <t>['Wales', 'Slovakia', 'England']</t>
+          <t>['Wales', 'England', 'Slovakia']</t>
         </is>
       </c>
       <c r="K408" t="inlineStr">
@@ -35337,7 +35337,7 @@
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr">
         <is>
-          <t>['Wales', 'Slovakia', 'England']</t>
+          <t>['Wales', 'England', 'Slovakia']</t>
         </is>
       </c>
       <c r="K409" t="inlineStr">
@@ -35429,7 +35429,7 @@
       </c>
       <c r="J410" t="inlineStr">
         <is>
-          <t>['Wales', 'Slovakia', 'England']</t>
+          <t>['Wales', 'England', 'Slovakia']</t>
         </is>
       </c>
       <c r="K410" t="inlineStr">
@@ -35517,7 +35517,7 @@
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>['Wales', 'Slovakia', 'England']</t>
+          <t>['Wales', 'England', 'Slovakia']</t>
         </is>
       </c>
       <c r="K411" t="inlineStr">
@@ -35605,7 +35605,7 @@
       </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>['Wales', 'Slovakia', 'England']</t>
+          <t>['Wales', 'England', 'Slovakia']</t>
         </is>
       </c>
       <c r="K412" t="inlineStr">
@@ -35693,7 +35693,7 @@
       </c>
       <c r="J413" t="inlineStr">
         <is>
-          <t>['Wales', 'Slovakia', 'England']</t>
+          <t>['Wales', 'England', 'Slovakia']</t>
         </is>
       </c>
       <c r="K413" t="inlineStr">
@@ -35781,7 +35781,7 @@
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>['Wales', 'Slovakia', 'England']</t>
+          <t>['Wales', 'England', 'Slovakia']</t>
         </is>
       </c>
       <c r="K414" t="inlineStr">
@@ -35869,7 +35869,7 @@
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>['Wales', 'Slovakia', 'England']</t>
+          <t>['Wales', 'England', 'Slovakia']</t>
         </is>
       </c>
       <c r="K415" t="inlineStr">
@@ -35943,7 +35943,7 @@
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr">
         <is>
-          <t>['Germany', 'Poland', 'Northern Ireland']</t>
+          <t>['Germany', 'Northern Ireland', 'Poland']</t>
         </is>
       </c>
       <c r="K416" t="inlineStr">
@@ -36023,7 +36023,7 @@
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr">
         <is>
-          <t>['Germany', 'Poland', 'Northern Ireland']</t>
+          <t>['Germany', 'Northern Ireland', 'Poland']</t>
         </is>
       </c>
       <c r="K417" t="inlineStr">
@@ -36107,7 +36107,7 @@
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr">
         <is>
-          <t>['Germany', 'Poland', 'Northern Ireland']</t>
+          <t>['Germany', 'Northern Ireland', 'Poland']</t>
         </is>
       </c>
       <c r="K418" t="inlineStr">
@@ -36181,7 +36181,7 @@
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr">
         <is>
-          <t>['Germany', 'Poland', 'Northern Ireland']</t>
+          <t>['Germany', 'Northern Ireland', 'Poland']</t>
         </is>
       </c>
       <c r="K419" t="inlineStr">
@@ -36261,7 +36261,7 @@
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr">
         <is>
-          <t>['Germany', 'Poland', 'Northern Ireland']</t>
+          <t>['Germany', 'Northern Ireland', 'Poland']</t>
         </is>
       </c>
       <c r="K420" t="inlineStr">
@@ -36345,7 +36345,7 @@
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr">
         <is>
-          <t>['Germany', 'Poland', 'Northern Ireland']</t>
+          <t>['Germany', 'Northern Ireland', 'Poland']</t>
         </is>
       </c>
       <c r="K421" t="inlineStr">
@@ -36433,7 +36433,7 @@
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>['Germany', 'Poland', 'Northern Ireland']</t>
+          <t>['Germany', 'Northern Ireland', 'Poland']</t>
         </is>
       </c>
       <c r="K422" t="inlineStr">
@@ -36521,7 +36521,7 @@
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>['Germany', 'Poland', 'Northern Ireland']</t>
+          <t>['Germany', 'Northern Ireland', 'Poland']</t>
         </is>
       </c>
       <c r="K423" t="inlineStr">
@@ -36609,7 +36609,7 @@
       </c>
       <c r="J424" t="inlineStr">
         <is>
-          <t>['Germany', 'Poland', 'Northern Ireland']</t>
+          <t>['Germany', 'Northern Ireland', 'Poland']</t>
         </is>
       </c>
       <c r="K424" t="inlineStr">
@@ -36697,7 +36697,7 @@
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>['Germany', 'Poland', 'Northern Ireland']</t>
+          <t>['Germany', 'Northern Ireland', 'Poland']</t>
         </is>
       </c>
       <c r="K425" t="inlineStr">
@@ -36771,7 +36771,7 @@
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr">
         <is>
-          <t>['Spain', 'Czech Republic', 'Croatia']</t>
+          <t>['Croatia', 'Spain', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K426" t="inlineStr">
@@ -36851,7 +36851,7 @@
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr">
         <is>
-          <t>['Spain', 'Czech Republic', 'Croatia']</t>
+          <t>['Croatia', 'Spain', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K427" t="inlineStr">
@@ -36925,7 +36925,7 @@
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr">
         <is>
-          <t>['Spain', 'Czech Republic', 'Croatia']</t>
+          <t>['Croatia', 'Spain', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K428" t="inlineStr">
@@ -37005,7 +37005,7 @@
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr">
         <is>
-          <t>['Spain', 'Czech Republic', 'Croatia']</t>
+          <t>['Croatia', 'Spain', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K429" t="inlineStr">
@@ -37093,7 +37093,7 @@
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>['Spain', 'Czech Republic', 'Croatia']</t>
+          <t>['Croatia', 'Spain', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K430" t="inlineStr">
@@ -37181,7 +37181,7 @@
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>['Spain', 'Czech Republic', 'Croatia']</t>
+          <t>['Croatia', 'Spain', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K431" t="inlineStr">
@@ -37269,7 +37269,7 @@
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>['Spain', 'Turkey', 'Croatia']</t>
+          <t>['Turkey', 'Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K432" t="inlineStr">
@@ -37357,7 +37357,7 @@
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>['Spain', 'Turkey', 'Croatia']</t>
+          <t>['Turkey', 'Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K433" t="inlineStr">
@@ -37445,7 +37445,7 @@
       </c>
       <c r="J434" t="inlineStr">
         <is>
-          <t>['Spain', 'Turkey', 'Croatia']</t>
+          <t>['Turkey', 'Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K434" t="inlineStr">
@@ -37533,7 +37533,7 @@
       </c>
       <c r="J435" t="inlineStr">
         <is>
-          <t>['Spain', 'Turkey', 'Croatia']</t>
+          <t>['Turkey', 'Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K435" t="inlineStr">
@@ -37621,7 +37621,7 @@
       </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>['Spain', 'Turkey', 'Croatia']</t>
+          <t>['Turkey', 'Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K436" t="inlineStr">
@@ -37709,7 +37709,7 @@
       </c>
       <c r="J437" t="inlineStr">
         <is>
-          <t>['Spain', 'Turkey', 'Croatia']</t>
+          <t>['Turkey', 'Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K437" t="inlineStr">
@@ -37797,7 +37797,7 @@
       </c>
       <c r="J438" t="inlineStr">
         <is>
-          <t>['Spain', 'Turkey', 'Croatia']</t>
+          <t>['Turkey', 'Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K438" t="inlineStr">
@@ -37885,7 +37885,7 @@
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>['Spain', 'Turkey', 'Croatia']</t>
+          <t>['Turkey', 'Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K439" t="inlineStr">
@@ -37959,7 +37959,7 @@
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr">
         <is>
-          <t>['Sweden', 'Italy', 'Belgium']</t>
+          <t>['Belgium', 'Italy', 'Sweden']</t>
         </is>
       </c>
       <c r="K440" t="inlineStr">
@@ -38039,7 +38039,7 @@
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr">
         <is>
-          <t>['Sweden', 'Italy', 'Belgium']</t>
+          <t>['Belgium', 'Italy', 'Sweden']</t>
         </is>
       </c>
       <c r="K441" t="inlineStr">
@@ -38123,7 +38123,7 @@
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr">
         <is>
-          <t>['Sweden', 'Italy', 'Belgium']</t>
+          <t>['Belgium', 'Italy', 'Sweden']</t>
         </is>
       </c>
       <c r="K442" t="inlineStr">
@@ -38197,7 +38197,7 @@
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr">
         <is>
-          <t>['Sweden', 'Italy', 'Belgium']</t>
+          <t>['Belgium', 'Italy', 'Sweden']</t>
         </is>
       </c>
       <c r="K443" t="inlineStr">
@@ -38277,7 +38277,7 @@
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr">
         <is>
-          <t>['Sweden', 'Italy', 'Belgium']</t>
+          <t>['Belgium', 'Italy', 'Sweden']</t>
         </is>
       </c>
       <c r="K444" t="inlineStr">
@@ -38361,7 +38361,7 @@
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr">
         <is>
-          <t>['Sweden', 'Italy', 'Belgium']</t>
+          <t>['Belgium', 'Italy', 'Sweden']</t>
         </is>
       </c>
       <c r="K445" t="inlineStr">
@@ -38449,7 +38449,7 @@
       </c>
       <c r="J446" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium', 'Ireland']</t>
+          <t>['Belgium', 'Ireland', 'Italy']</t>
         </is>
       </c>
       <c r="K446" t="inlineStr">
@@ -38537,7 +38537,7 @@
       </c>
       <c r="J447" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium', 'Ireland']</t>
+          <t>['Belgium', 'Ireland', 'Italy']</t>
         </is>
       </c>
       <c r="K447" t="inlineStr">
@@ -38625,7 +38625,7 @@
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium', 'Ireland']</t>
+          <t>['Belgium', 'Ireland', 'Italy']</t>
         </is>
       </c>
       <c r="K448" t="inlineStr">
@@ -38713,7 +38713,7 @@
       </c>
       <c r="J449" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium', 'Ireland']</t>
+          <t>['Belgium', 'Ireland', 'Italy']</t>
         </is>
       </c>
       <c r="K449" t="inlineStr">
@@ -38787,7 +38787,7 @@
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K450" t="inlineStr">
@@ -38857,7 +38857,7 @@
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K451" t="inlineStr">
@@ -38941,7 +38941,7 @@
       </c>
       <c r="J452" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K452" t="inlineStr">
@@ -39029,7 +39029,7 @@
       </c>
       <c r="J453" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K453" t="inlineStr">
@@ -39117,7 +39117,7 @@
       </c>
       <c r="J454" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K454" t="inlineStr">
@@ -39205,7 +39205,7 @@
       </c>
       <c r="J455" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K455" t="inlineStr">
@@ -39293,7 +39293,7 @@
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K456" t="inlineStr">
@@ -39381,7 +39381,7 @@
       </c>
       <c r="J457" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K457" t="inlineStr">
@@ -39469,7 +39469,7 @@
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K458" t="inlineStr">
@@ -39557,7 +39557,7 @@
       </c>
       <c r="J459" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K459" t="inlineStr">
@@ -39645,7 +39645,7 @@
       </c>
       <c r="J460" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K460" t="inlineStr">
@@ -39733,7 +39733,7 @@
       </c>
       <c r="J461" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K461" t="inlineStr">
@@ -39821,7 +39821,7 @@
       </c>
       <c r="J462" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K462" t="inlineStr">
@@ -39909,7 +39909,7 @@
       </c>
       <c r="J463" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K463" t="inlineStr">
@@ -39997,7 +39997,7 @@
       </c>
       <c r="J464" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K464" t="inlineStr">
@@ -40085,7 +40085,7 @@
       </c>
       <c r="J465" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K465" t="inlineStr">
@@ -40173,7 +40173,7 @@
       </c>
       <c r="J466" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K466" t="inlineStr">
@@ -40261,7 +40261,7 @@
       </c>
       <c r="J467" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K467" t="inlineStr">
@@ -40349,7 +40349,7 @@
       </c>
       <c r="J468" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K468" t="inlineStr">
@@ -40437,7 +40437,7 @@
       </c>
       <c r="J469" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K469" t="inlineStr">
@@ -40511,7 +40511,7 @@
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales', 'Switzerland']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K470" t="inlineStr">
@@ -40591,7 +40591,7 @@
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales', 'Switzerland']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K471" t="inlineStr">
@@ -40665,7 +40665,7 @@
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales', 'Switzerland']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K472" t="inlineStr">
@@ -40745,7 +40745,7 @@
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales', 'Switzerland']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K473" t="inlineStr">
@@ -40819,7 +40819,7 @@
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales', 'Switzerland']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K474" t="inlineStr">
@@ -40899,7 +40899,7 @@
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales', 'Switzerland']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K475" t="inlineStr">
@@ -40987,7 +40987,7 @@
       </c>
       <c r="J476" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales', 'Switzerland']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K476" t="inlineStr">
@@ -41075,7 +41075,7 @@
       </c>
       <c r="J477" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales', 'Switzerland']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K477" t="inlineStr">
@@ -41163,7 +41163,7 @@
       </c>
       <c r="J478" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales', 'Switzerland']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K478" t="inlineStr">
@@ -41251,7 +41251,7 @@
       </c>
       <c r="J479" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales', 'Switzerland']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K479" t="inlineStr">
@@ -41339,7 +41339,7 @@
       </c>
       <c r="J480" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales', 'Switzerland']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K480" t="inlineStr">
@@ -41427,7 +41427,7 @@
       </c>
       <c r="J481" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales', 'Switzerland']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K481" t="inlineStr">
@@ -41515,7 +41515,7 @@
       </c>
       <c r="J482" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales', 'Switzerland']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K482" t="inlineStr">
@@ -41603,7 +41603,7 @@
       </c>
       <c r="J483" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales', 'Switzerland']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K483" t="inlineStr">
@@ -41691,7 +41691,7 @@
       </c>
       <c r="J484" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales', 'Switzerland']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K484" t="inlineStr">
@@ -41779,7 +41779,7 @@
       </c>
       <c r="J485" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales', 'Switzerland']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K485" t="inlineStr">
@@ -41867,7 +41867,7 @@
       </c>
       <c r="J486" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales', 'Switzerland']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K486" t="inlineStr">
@@ -41955,7 +41955,7 @@
       </c>
       <c r="J487" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales', 'Switzerland']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K487" t="inlineStr">
@@ -42043,7 +42043,7 @@
       </c>
       <c r="J488" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales', 'Switzerland']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K488" t="inlineStr">
@@ -42131,7 +42131,7 @@
       </c>
       <c r="J489" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales', 'Switzerland']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K489" t="inlineStr">
@@ -42219,7 +42219,7 @@
       </c>
       <c r="J490" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales', 'Switzerland']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K490" t="inlineStr">
@@ -42293,7 +42293,7 @@
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr">
         <is>
-          <t>['Russia', 'Finland', 'Belgium']</t>
+          <t>['Belgium', 'Russia', 'Finland']</t>
         </is>
       </c>
       <c r="K491" t="inlineStr">
@@ -42373,7 +42373,7 @@
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr">
         <is>
-          <t>['Russia', 'Finland', 'Belgium']</t>
+          <t>['Belgium', 'Russia', 'Finland']</t>
         </is>
       </c>
       <c r="K492" t="inlineStr">
@@ -42447,7 +42447,7 @@
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr">
         <is>
-          <t>['Russia', 'Finland', 'Belgium']</t>
+          <t>['Belgium', 'Russia', 'Finland']</t>
         </is>
       </c>
       <c r="K493" t="inlineStr">
@@ -42527,7 +42527,7 @@
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr">
         <is>
-          <t>['Russia', 'Finland', 'Belgium']</t>
+          <t>['Belgium', 'Russia', 'Finland']</t>
         </is>
       </c>
       <c r="K494" t="inlineStr">
@@ -42601,7 +42601,7 @@
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr">
         <is>
-          <t>['Russia', 'Finland', 'Belgium']</t>
+          <t>['Belgium', 'Russia', 'Finland']</t>
         </is>
       </c>
       <c r="K495" t="inlineStr">
@@ -42681,7 +42681,7 @@
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr">
         <is>
-          <t>['Russia', 'Finland', 'Belgium']</t>
+          <t>['Belgium', 'Russia', 'Finland']</t>
         </is>
       </c>
       <c r="K496" t="inlineStr">
@@ -42755,7 +42755,7 @@
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr">
         <is>
-          <t>['Russia', 'Finland', 'Belgium']</t>
+          <t>['Belgium', 'Russia', 'Finland']</t>
         </is>
       </c>
       <c r="K497" t="inlineStr">
@@ -42835,7 +42835,7 @@
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr">
         <is>
-          <t>['Russia', 'Finland', 'Belgium']</t>
+          <t>['Belgium', 'Russia', 'Finland']</t>
         </is>
       </c>
       <c r="K498" t="inlineStr">
@@ -42923,7 +42923,7 @@
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Denmark']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="K499" t="inlineStr">
@@ -43011,7 +43011,7 @@
       </c>
       <c r="J500" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Denmark']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="K500" t="inlineStr">
@@ -43099,7 +43099,7 @@
       </c>
       <c r="J501" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Denmark']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="K501" t="inlineStr">
@@ -43187,7 +43187,7 @@
       </c>
       <c r="J502" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Denmark']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="K502" t="inlineStr">
@@ -43275,7 +43275,7 @@
       </c>
       <c r="J503" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Denmark']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="K503" t="inlineStr">
@@ -43363,7 +43363,7 @@
       </c>
       <c r="J504" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Denmark']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="K504" t="inlineStr">
@@ -43451,7 +43451,7 @@
       </c>
       <c r="J505" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Denmark']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="K505" t="inlineStr">
@@ -43539,7 +43539,7 @@
       </c>
       <c r="J506" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Denmark']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="K506" t="inlineStr">
@@ -43627,7 +43627,7 @@
       </c>
       <c r="J507" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Denmark']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="K507" t="inlineStr">
@@ -43715,7 +43715,7 @@
       </c>
       <c r="J508" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Denmark']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="K508" t="inlineStr">
@@ -43803,7 +43803,7 @@
       </c>
       <c r="J509" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Denmark']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="K509" t="inlineStr">
@@ -43891,7 +43891,7 @@
       </c>
       <c r="J510" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Denmark']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="K510" t="inlineStr">
@@ -43979,7 +43979,7 @@
       </c>
       <c r="J511" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium', 'Denmark']</t>
+          <t>['Belgium', 'Denmark', 'Russia']</t>
         </is>
       </c>
       <c r="K511" t="inlineStr">
@@ -44067,7 +44067,7 @@
       </c>
       <c r="J512" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium', 'Denmark']</t>
+          <t>['Belgium', 'Denmark', 'Russia']</t>
         </is>
       </c>
       <c r="K512" t="inlineStr">
@@ -44155,7 +44155,7 @@
       </c>
       <c r="J513" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium', 'Denmark']</t>
+          <t>['Belgium', 'Denmark', 'Russia']</t>
         </is>
       </c>
       <c r="K513" t="inlineStr">
@@ -44243,7 +44243,7 @@
       </c>
       <c r="J514" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium', 'Denmark']</t>
+          <t>['Belgium', 'Denmark', 'Russia']</t>
         </is>
       </c>
       <c r="K514" t="inlineStr">
@@ -44331,7 +44331,7 @@
       </c>
       <c r="J515" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Denmark']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="K515" t="inlineStr">
@@ -44419,7 +44419,7 @@
       </c>
       <c r="J516" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Denmark']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="K516" t="inlineStr">
@@ -44507,7 +44507,7 @@
       </c>
       <c r="J517" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Denmark']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="K517" t="inlineStr">
@@ -44595,7 +44595,7 @@
       </c>
       <c r="J518" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Denmark']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="K518" t="inlineStr">
@@ -44683,7 +44683,7 @@
       </c>
       <c r="J519" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Denmark']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="K519" t="inlineStr">
@@ -44771,7 +44771,7 @@
       </c>
       <c r="J520" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Denmark']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="K520" t="inlineStr">
@@ -44859,7 +44859,7 @@
       </c>
       <c r="J521" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Denmark']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="K521" t="inlineStr">
@@ -44947,7 +44947,7 @@
       </c>
       <c r="J522" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Denmark']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="K522" t="inlineStr">
@@ -45035,7 +45035,7 @@
       </c>
       <c r="J523" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Denmark']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="K523" t="inlineStr">
@@ -45123,7 +45123,7 @@
       </c>
       <c r="J524" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Denmark']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="K524" t="inlineStr">
@@ -45211,7 +45211,7 @@
       </c>
       <c r="J525" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Denmark']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="K525" t="inlineStr">
@@ -45299,7 +45299,7 @@
       </c>
       <c r="J526" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Denmark']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="K526" t="inlineStr">
@@ -45373,7 +45373,7 @@
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Austria', 'Netherlands']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K527" t="inlineStr">
@@ -45453,7 +45453,7 @@
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Austria', 'Netherlands']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K528" t="inlineStr">
@@ -45527,7 +45527,7 @@
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Austria', 'Netherlands']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K529" t="inlineStr">
@@ -45607,7 +45607,7 @@
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Austria', 'Netherlands']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K530" t="inlineStr">
@@ -45681,7 +45681,7 @@
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Austria', 'Netherlands']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K531" t="inlineStr">
@@ -45761,7 +45761,7 @@
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Austria', 'Netherlands']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K532" t="inlineStr">
@@ -45845,7 +45845,7 @@
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Austria', 'Netherlands']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K533" t="inlineStr">
@@ -45929,7 +45929,7 @@
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Austria', 'Netherlands']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K534" t="inlineStr">
@@ -46013,7 +46013,7 @@
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Austria', 'Netherlands']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K535" t="inlineStr">
@@ -46101,7 +46101,7 @@
       </c>
       <c r="J536" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Austria', 'Netherlands']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K536" t="inlineStr">
@@ -46189,7 +46189,7 @@
       </c>
       <c r="J537" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Austria', 'Netherlands']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K537" t="inlineStr">
@@ -46277,7 +46277,7 @@
       </c>
       <c r="J538" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Austria', 'Netherlands']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K538" t="inlineStr">
@@ -46365,7 +46365,7 @@
       </c>
       <c r="J539" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Austria', 'Netherlands']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K539" t="inlineStr">
@@ -46453,7 +46453,7 @@
       </c>
       <c r="J540" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Austria', 'Netherlands']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K540" t="inlineStr">
@@ -46541,7 +46541,7 @@
       </c>
       <c r="J541" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Austria', 'Netherlands']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K541" t="inlineStr">
@@ -46629,7 +46629,7 @@
       </c>
       <c r="J542" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Austria', 'Netherlands']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K542" t="inlineStr">
@@ -46717,7 +46717,7 @@
       </c>
       <c r="J543" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Austria', 'Netherlands']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K543" t="inlineStr">
@@ -46805,7 +46805,7 @@
       </c>
       <c r="J544" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Austria', 'Netherlands']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K544" t="inlineStr">
@@ -46893,7 +46893,7 @@
       </c>
       <c r="J545" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Austria', 'Netherlands']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K545" t="inlineStr">
@@ -46981,7 +46981,7 @@
       </c>
       <c r="J546" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Austria', 'Netherlands']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K546" t="inlineStr">
@@ -47069,7 +47069,7 @@
       </c>
       <c r="J547" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Austria', 'Netherlands']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K547" t="inlineStr">
@@ -47143,7 +47143,7 @@
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'England']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K548" t="inlineStr">
@@ -47223,7 +47223,7 @@
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'England']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K549" t="inlineStr">
@@ -47297,7 +47297,7 @@
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'England']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K550" t="inlineStr">
@@ -47377,7 +47377,7 @@
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'England']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K551" t="inlineStr">
@@ -47465,7 +47465,7 @@
       </c>
       <c r="J552" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'England']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K552" t="inlineStr">
@@ -47553,7 +47553,7 @@
       </c>
       <c r="J553" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'England']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K553" t="inlineStr">
@@ -47641,7 +47641,7 @@
       </c>
       <c r="J554" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'England']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K554" t="inlineStr">
@@ -47729,7 +47729,7 @@
       </c>
       <c r="J555" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'England']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K555" t="inlineStr">
@@ -47817,7 +47817,7 @@
       </c>
       <c r="J556" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'England']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K556" t="inlineStr">
@@ -47905,7 +47905,7 @@
       </c>
       <c r="J557" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'England']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K557" t="inlineStr">
@@ -47993,7 +47993,7 @@
       </c>
       <c r="J558" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'England']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K558" t="inlineStr">
@@ -48081,7 +48081,7 @@
       </c>
       <c r="J559" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'England']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K559" t="inlineStr">
@@ -48169,7 +48169,7 @@
       </c>
       <c r="J560" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'England']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K560" t="inlineStr">
@@ -48257,7 +48257,7 @@
       </c>
       <c r="J561" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'England']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K561" t="inlineStr">
@@ -48331,7 +48331,7 @@
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K562" t="inlineStr">
@@ -48411,7 +48411,7 @@
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K563" t="inlineStr">
@@ -48485,7 +48485,7 @@
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K564" t="inlineStr">
@@ -48565,7 +48565,7 @@
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K565" t="inlineStr">
@@ -48639,7 +48639,7 @@
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K566" t="inlineStr">
@@ -48719,7 +48719,7 @@
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K567" t="inlineStr">
@@ -48793,7 +48793,7 @@
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K568" t="inlineStr">
@@ -48873,7 +48873,7 @@
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K569" t="inlineStr">
@@ -48961,7 +48961,7 @@
       </c>
       <c r="J570" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K570" t="inlineStr">
@@ -49049,7 +49049,7 @@
       </c>
       <c r="J571" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K571" t="inlineStr">
@@ -49137,7 +49137,7 @@
       </c>
       <c r="J572" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K572" t="inlineStr">
@@ -49225,7 +49225,7 @@
       </c>
       <c r="J573" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K573" t="inlineStr">
@@ -49313,7 +49313,7 @@
       </c>
       <c r="J574" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K574" t="inlineStr">
@@ -49401,7 +49401,7 @@
       </c>
       <c r="J575" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K575" t="inlineStr">
@@ -49489,7 +49489,7 @@
       </c>
       <c r="J576" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K576" t="inlineStr">
@@ -49577,7 +49577,7 @@
       </c>
       <c r="J577" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K577" t="inlineStr">
@@ -49665,7 +49665,7 @@
       </c>
       <c r="J578" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K578" t="inlineStr">
@@ -49753,7 +49753,7 @@
       </c>
       <c r="J579" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K579" t="inlineStr">
@@ -49841,7 +49841,7 @@
       </c>
       <c r="J580" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K580" t="inlineStr">
@@ -49929,7 +49929,7 @@
       </c>
       <c r="J581" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K581" t="inlineStr">
@@ -50017,7 +50017,7 @@
       </c>
       <c r="J582" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K582" t="inlineStr">
@@ -50105,7 +50105,7 @@
       </c>
       <c r="J583" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K583" t="inlineStr">
@@ -50193,7 +50193,7 @@
       </c>
       <c r="J584" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K584" t="inlineStr">
@@ -50281,7 +50281,7 @@
       </c>
       <c r="J585" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K585" t="inlineStr">
@@ -50369,7 +50369,7 @@
       </c>
       <c r="J586" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K586" t="inlineStr">
@@ -50457,7 +50457,7 @@
       </c>
       <c r="J587" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K587" t="inlineStr">
@@ -50545,7 +50545,7 @@
       </c>
       <c r="J588" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K588" t="inlineStr">
@@ -50633,7 +50633,7 @@
       </c>
       <c r="J589" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K589" t="inlineStr">
@@ -50721,7 +50721,7 @@
       </c>
       <c r="J590" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K590" t="inlineStr">
@@ -50809,7 +50809,7 @@
       </c>
       <c r="J591" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K591" t="inlineStr">
@@ -50897,7 +50897,7 @@
       </c>
       <c r="J592" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K592" t="inlineStr">
@@ -50985,7 +50985,7 @@
       </c>
       <c r="J593" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K593" t="inlineStr">
@@ -51073,7 +51073,7 @@
       </c>
       <c r="J594" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K594" t="inlineStr">
@@ -51161,7 +51161,7 @@
       </c>
       <c r="J595" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K595" t="inlineStr">
@@ -51249,7 +51249,7 @@
       </c>
       <c r="J596" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K596" t="inlineStr">
@@ -51337,7 +51337,7 @@
       </c>
       <c r="J597" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K597" t="inlineStr">
@@ -51425,7 +51425,7 @@
       </c>
       <c r="J598" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K598" t="inlineStr">
@@ -51513,7 +51513,7 @@
       </c>
       <c r="J599" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K599" t="inlineStr">
@@ -51601,7 +51601,7 @@
       </c>
       <c r="J600" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K600" t="inlineStr">
@@ -51689,7 +51689,7 @@
       </c>
       <c r="J601" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K601" t="inlineStr">
@@ -51777,7 +51777,7 @@
       </c>
       <c r="J602" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K602" t="inlineStr">
@@ -51865,7 +51865,7 @@
       </c>
       <c r="J603" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K603" t="inlineStr">
@@ -51953,7 +51953,7 @@
       </c>
       <c r="J604" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K604" t="inlineStr">
@@ -52041,7 +52041,7 @@
       </c>
       <c r="J605" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K605" t="inlineStr">
@@ -52129,7 +52129,7 @@
       </c>
       <c r="J606" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K606" t="inlineStr">
@@ -52217,7 +52217,7 @@
       </c>
       <c r="J607" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K607" t="inlineStr">
@@ -52305,7 +52305,7 @@
       </c>
       <c r="J608" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K608" t="inlineStr">
@@ -52393,7 +52393,7 @@
       </c>
       <c r="J609" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K609" t="inlineStr">
@@ -52467,7 +52467,7 @@
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal', 'France']</t>
+          <t>['Portugal', 'Germany', 'France']</t>
         </is>
       </c>
       <c r="K610" t="inlineStr">
@@ -52537,7 +52537,7 @@
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal', 'France']</t>
+          <t>['Portugal', 'Germany', 'France']</t>
         </is>
       </c>
       <c r="K611" t="inlineStr">
@@ -52621,7 +52621,7 @@
       </c>
       <c r="J612" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'France']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K612" t="inlineStr">
@@ -52709,7 +52709,7 @@
       </c>
       <c r="J613" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'France']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K613" t="inlineStr">
@@ -52797,7 +52797,7 @@
       </c>
       <c r="J614" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'France']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K614" t="inlineStr">
@@ -52885,7 +52885,7 @@
       </c>
       <c r="J615" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'France']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K615" t="inlineStr">
@@ -52973,7 +52973,7 @@
       </c>
       <c r="J616" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'France']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K616" t="inlineStr">
@@ -53061,7 +53061,7 @@
       </c>
       <c r="J617" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'France']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K617" t="inlineStr">
@@ -53149,7 +53149,7 @@
       </c>
       <c r="J618" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'France']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K618" t="inlineStr">
@@ -53237,7 +53237,7 @@
       </c>
       <c r="J619" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'France']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K619" t="inlineStr">
@@ -53325,7 +53325,7 @@
       </c>
       <c r="J620" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'France']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K620" t="inlineStr">
@@ -53413,7 +53413,7 @@
       </c>
       <c r="J621" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'France']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K621" t="inlineStr">
@@ -53501,7 +53501,7 @@
       </c>
       <c r="J622" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal', 'France']</t>
+          <t>['Portugal', 'Germany', 'France']</t>
         </is>
       </c>
       <c r="K622" t="inlineStr">
@@ -53589,7 +53589,7 @@
       </c>
       <c r="J623" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal', 'France']</t>
+          <t>['Portugal', 'Germany', 'France']</t>
         </is>
       </c>
       <c r="K623" t="inlineStr">
@@ -53677,7 +53677,7 @@
       </c>
       <c r="J624" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'France']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K624" t="inlineStr">
@@ -53765,7 +53765,7 @@
       </c>
       <c r="J625" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'France']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K625" t="inlineStr">
@@ -53853,7 +53853,7 @@
       </c>
       <c r="J626" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal', 'France']</t>
+          <t>['Portugal', 'Germany', 'France']</t>
         </is>
       </c>
       <c r="K626" t="inlineStr">
@@ -53941,7 +53941,7 @@
       </c>
       <c r="J627" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal', 'France']</t>
+          <t>['Portugal', 'Germany', 'France']</t>
         </is>
       </c>
       <c r="K627" t="inlineStr">
@@ -54015,7 +54015,7 @@
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr">
         <is>
-          <t>['Germany', 'Scotland', 'Switzerland']</t>
+          <t>['Switzerland', 'Germany', 'Scotland']</t>
         </is>
       </c>
       <c r="K628" t="inlineStr">
@@ -54095,7 +54095,7 @@
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr">
         <is>
-          <t>['Germany', 'Scotland', 'Switzerland']</t>
+          <t>['Switzerland', 'Germany', 'Scotland']</t>
         </is>
       </c>
       <c r="K629" t="inlineStr">
@@ -54169,7 +54169,7 @@
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr">
         <is>
-          <t>['Germany', 'Scotland', 'Switzerland']</t>
+          <t>['Switzerland', 'Germany', 'Scotland']</t>
         </is>
       </c>
       <c r="K630" t="inlineStr">
@@ -54249,7 +54249,7 @@
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr">
         <is>
-          <t>['Germany', 'Scotland', 'Switzerland']</t>
+          <t>['Switzerland', 'Germany', 'Scotland']</t>
         </is>
       </c>
       <c r="K631" t="inlineStr">
@@ -54337,7 +54337,7 @@
       </c>
       <c r="J632" t="inlineStr">
         <is>
-          <t>['Germany', 'Scotland', 'Switzerland']</t>
+          <t>['Switzerland', 'Germany', 'Scotland']</t>
         </is>
       </c>
       <c r="K632" t="inlineStr">
@@ -54425,7 +54425,7 @@
       </c>
       <c r="J633" t="inlineStr">
         <is>
-          <t>['Germany', 'Scotland', 'Switzerland']</t>
+          <t>['Switzerland', 'Germany', 'Scotland']</t>
         </is>
       </c>
       <c r="K633" t="inlineStr">
@@ -54513,7 +54513,7 @@
       </c>
       <c r="J634" t="inlineStr">
         <is>
-          <t>['Germany', 'Scotland', 'Switzerland']</t>
+          <t>['Switzerland', 'Germany', 'Scotland']</t>
         </is>
       </c>
       <c r="K634" t="inlineStr">
@@ -54601,7 +54601,7 @@
       </c>
       <c r="J635" t="inlineStr">
         <is>
-          <t>['Germany', 'Scotland', 'Switzerland']</t>
+          <t>['Switzerland', 'Germany', 'Scotland']</t>
         </is>
       </c>
       <c r="K635" t="inlineStr">
@@ -54689,7 +54689,7 @@
       </c>
       <c r="J636" t="inlineStr">
         <is>
-          <t>['Germany', 'Hungary', 'Switzerland']</t>
+          <t>['Switzerland', 'Germany', 'Hungary']</t>
         </is>
       </c>
       <c r="K636" t="inlineStr">
@@ -54777,7 +54777,7 @@
       </c>
       <c r="J637" t="inlineStr">
         <is>
-          <t>['Germany', 'Hungary', 'Switzerland']</t>
+          <t>['Switzerland', 'Germany', 'Hungary']</t>
         </is>
       </c>
       <c r="K637" t="inlineStr">
@@ -54851,7 +54851,7 @@
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy', 'Albania']</t>
+          <t>['Italy', 'Spain', 'Albania']</t>
         </is>
       </c>
       <c r="K638" t="inlineStr">
@@ -54931,7 +54931,7 @@
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy', 'Albania']</t>
+          <t>['Italy', 'Spain', 'Albania']</t>
         </is>
       </c>
       <c r="K639" t="inlineStr">
@@ -55005,7 +55005,7 @@
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy', 'Albania']</t>
+          <t>['Italy', 'Spain', 'Albania']</t>
         </is>
       </c>
       <c r="K640" t="inlineStr">
@@ -55085,7 +55085,7 @@
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy', 'Albania']</t>
+          <t>['Italy', 'Spain', 'Albania']</t>
         </is>
       </c>
       <c r="K641" t="inlineStr">
@@ -55173,7 +55173,7 @@
       </c>
       <c r="J642" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy', 'Croatia']</t>
+          <t>['Croatia', 'Italy', 'Spain']</t>
         </is>
       </c>
       <c r="K642" t="inlineStr">
@@ -55261,7 +55261,7 @@
       </c>
       <c r="J643" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy', 'Croatia']</t>
+          <t>['Croatia', 'Italy', 'Spain']</t>
         </is>
       </c>
       <c r="K643" t="inlineStr">
@@ -55349,7 +55349,7 @@
       </c>
       <c r="J644" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy', 'Croatia']</t>
+          <t>['Croatia', 'Italy', 'Spain']</t>
         </is>
       </c>
       <c r="K644" t="inlineStr">
@@ -55437,7 +55437,7 @@
       </c>
       <c r="J645" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy', 'Croatia']</t>
+          <t>['Croatia', 'Italy', 'Spain']</t>
         </is>
       </c>
       <c r="K645" t="inlineStr">
@@ -55525,7 +55525,7 @@
       </c>
       <c r="J646" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy', 'Croatia']</t>
+          <t>['Croatia', 'Italy', 'Spain']</t>
         </is>
       </c>
       <c r="K646" t="inlineStr">
@@ -55613,7 +55613,7 @@
       </c>
       <c r="J647" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy', 'Croatia']</t>
+          <t>['Croatia', 'Italy', 'Spain']</t>
         </is>
       </c>
       <c r="K647" t="inlineStr">
@@ -55687,7 +55687,7 @@
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr">
         <is>
-          <t>['Denmark', 'Slovenia', 'England']</t>
+          <t>['Slovenia', 'England', 'Denmark']</t>
         </is>
       </c>
       <c r="K648" t="inlineStr">
@@ -55767,7 +55767,7 @@
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr">
         <is>
-          <t>['Denmark', 'Slovenia', 'England']</t>
+          <t>['Slovenia', 'England', 'Denmark']</t>
         </is>
       </c>
       <c r="K649" t="inlineStr">
@@ -55851,7 +55851,7 @@
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr">
         <is>
-          <t>['Denmark', 'Slovenia', 'England']</t>
+          <t>['Slovenia', 'England', 'Denmark']</t>
         </is>
       </c>
       <c r="K650" t="inlineStr">
@@ -55925,7 +55925,7 @@
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['France', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K651" t="inlineStr">
@@ -55995,7 +55995,7 @@
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['France', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K652" t="inlineStr">
@@ -56079,7 +56079,7 @@
       </c>
       <c r="J653" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France', 'Austria']</t>
+          <t>['France', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K653" t="inlineStr">
@@ -56167,7 +56167,7 @@
       </c>
       <c r="J654" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France', 'Austria']</t>
+          <t>['France', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K654" t="inlineStr">
@@ -56255,7 +56255,7 @@
       </c>
       <c r="J655" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['France', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K655" t="inlineStr">
@@ -56343,7 +56343,7 @@
       </c>
       <c r="J656" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['France', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K656" t="inlineStr">
@@ -56431,7 +56431,7 @@
       </c>
       <c r="J657" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['France', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K657" t="inlineStr">
@@ -56519,7 +56519,7 @@
       </c>
       <c r="J658" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['France', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K658" t="inlineStr">
@@ -56607,7 +56607,7 @@
       </c>
       <c r="J659" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France', 'Austria']</t>
+          <t>['France', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K659" t="inlineStr">
@@ -56695,7 +56695,7 @@
       </c>
       <c r="J660" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France', 'Austria']</t>
+          <t>['France', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K660" t="inlineStr">
@@ -56783,7 +56783,7 @@
       </c>
       <c r="J661" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['France', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K661" t="inlineStr">
@@ -56871,7 +56871,7 @@
       </c>
       <c r="J662" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['France', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K662" t="inlineStr">
@@ -56959,7 +56959,7 @@
       </c>
       <c r="J663" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['France', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K663" t="inlineStr">
@@ -57047,7 +57047,7 @@
       </c>
       <c r="J664" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['France', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K664" t="inlineStr">
@@ -57135,7 +57135,7 @@
       </c>
       <c r="J665" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France', 'Austria']</t>
+          <t>['France', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K665" t="inlineStr">
@@ -57223,7 +57223,7 @@
       </c>
       <c r="J666" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France', 'Austria']</t>
+          <t>['France', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K666" t="inlineStr">
@@ -57297,7 +57297,7 @@
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr">
         <is>
-          <t>['Romania', 'Belgium', 'Slovakia']</t>
+          <t>['Belgium', 'Romania', 'Slovakia']</t>
         </is>
       </c>
       <c r="K667" t="inlineStr">
@@ -57377,7 +57377,7 @@
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr">
         <is>
-          <t>['Romania', 'Belgium', 'Slovakia']</t>
+          <t>['Belgium', 'Romania', 'Slovakia']</t>
         </is>
       </c>
       <c r="K668" t="inlineStr">
@@ -57465,7 +57465,7 @@
       </c>
       <c r="J669" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Slovakia', 'Belgium']</t>
+          <t>['Ukraine', 'Belgium', 'Slovakia']</t>
         </is>
       </c>
       <c r="K669" t="inlineStr">
@@ -57553,7 +57553,7 @@
       </c>
       <c r="J670" t="inlineStr">
         <is>
-          <t>['Romania', 'Belgium', 'Slovakia']</t>
+          <t>['Belgium', 'Romania', 'Slovakia']</t>
         </is>
       </c>
       <c r="K670" t="inlineStr">
@@ -57627,7 +57627,7 @@
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal', 'Czech Republic']</t>
+          <t>['Portugal', 'Turkey', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K671" t="inlineStr">
@@ -57707,7 +57707,7 @@
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal', 'Czech Republic']</t>
+          <t>['Portugal', 'Turkey', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K672" t="inlineStr">
@@ -57781,7 +57781,7 @@
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal', 'Czech Republic']</t>
+          <t>['Portugal', 'Turkey', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K673" t="inlineStr">
@@ -57861,7 +57861,7 @@
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal', 'Czech Republic']</t>
+          <t>['Portugal', 'Turkey', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K674" t="inlineStr">
@@ -57949,7 +57949,7 @@
       </c>
       <c r="J675" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal', 'Georgia']</t>
+          <t>['Portugal', 'Turkey', 'Georgia']</t>
         </is>
       </c>
       <c r="K675" t="inlineStr">
@@ -58041,7 +58041,7 @@
       </c>
       <c r="J676" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal', 'Georgia']</t>
+          <t>['Portugal', 'Turkey', 'Georgia']</t>
         </is>
       </c>
       <c r="K676" t="inlineStr">
@@ -58133,7 +58133,7 @@
       </c>
       <c r="J677" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal', 'Georgia']</t>
+          <t>['Portugal', 'Turkey', 'Georgia']</t>
         </is>
       </c>
       <c r="K677" t="inlineStr">
@@ -58221,7 +58221,7 @@
       </c>
       <c r="J678" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal', 'Georgia']</t>
+          <t>['Portugal', 'Turkey', 'Georgia']</t>
         </is>
       </c>
       <c r="K678" t="inlineStr">
@@ -58309,7 +58309,7 @@
       </c>
       <c r="J679" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal', 'Georgia']</t>
+          <t>['Portugal', 'Turkey', 'Georgia']</t>
         </is>
       </c>
       <c r="K679" t="inlineStr">
@@ -58397,7 +58397,7 @@
       </c>
       <c r="J680" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal', 'Georgia']</t>
+          <t>['Portugal', 'Turkey', 'Georgia']</t>
         </is>
       </c>
       <c r="K680" t="inlineStr">
@@ -58485,7 +58485,7 @@
       </c>
       <c r="J681" t="inlineStr">
         <is>
-          <t>['Georgia', 'Portugal', 'Turkey']</t>
+          <t>['Portugal', 'Turkey', 'Georgia']</t>
         </is>
       </c>
       <c r="K681" t="inlineStr">
@@ -58577,7 +58577,7 @@
       </c>
       <c r="J682" t="inlineStr">
         <is>
-          <t>['Georgia', 'Portugal', 'Turkey']</t>
+          <t>['Portugal', 'Turkey', 'Georgia']</t>
         </is>
       </c>
       <c r="K682" t="inlineStr">
@@ -58669,7 +58669,7 @@
       </c>
       <c r="J683" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal', 'Georgia']</t>
+          <t>['Portugal', 'Turkey', 'Georgia']</t>
         </is>
       </c>
       <c r="K683" t="inlineStr">
@@ -58757,7 +58757,7 @@
       </c>
       <c r="J684" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal', 'Georgia']</t>
+          <t>['Portugal', 'Turkey', 'Georgia']</t>
         </is>
       </c>
       <c r="K684" t="inlineStr">

--- a/data/out/wiki/men/fifa/eu/goals_eu_fifa_men.xlsx
+++ b/data/out/wiki/men/fifa/eu/goals_eu_fifa_men.xlsx
@@ -573,7 +573,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -643,7 +643,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -815,7 +815,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1079,7 +1079,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1431,7 +1431,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1607,7 +1607,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1871,7 +1871,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1959,7 +1959,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -2047,7 +2047,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -2135,7 +2135,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2223,7 +2223,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2399,7 +2399,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2473,7 +2473,7 @@
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['Spain', 'West Germany']</t>
+          <t>['West Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2553,7 +2553,7 @@
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['Spain', 'West Germany']</t>
+          <t>['West Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2637,7 +2637,7 @@
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>['Spain', 'West Germany']</t>
+          <t>['West Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2711,7 +2711,7 @@
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['Spain', 'West Germany']</t>
+          <t>['West Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2791,7 +2791,7 @@
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>['Spain', 'West Germany']</t>
+          <t>['West Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2875,7 +2875,7 @@
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['Spain', 'West Germany']</t>
+          <t>['West Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>['Portugal', 'West Germany']</t>
+          <t>['West Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -3055,7 +3055,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['Portugal', 'West Germany']</t>
+          <t>['West Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -4505,7 +4505,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Ireland']</t>
+          <t>['Ireland', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -4585,7 +4585,7 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Ireland']</t>
+          <t>['Ireland', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -4663,7 +4663,7 @@
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Ireland']</t>
+          <t>['Ireland', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -4743,7 +4743,7 @@
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Ireland']</t>
+          <t>['Ireland', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4835,7 +4835,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Ireland']</t>
+          <t>['Ireland', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -4927,7 +4927,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Ireland']</t>
+          <t>['Ireland', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -5019,7 +5019,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Ireland']</t>
+          <t>['Ireland', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -5111,7 +5111,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Ireland']</t>
+          <t>['Ireland', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -5203,7 +5203,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Ireland']</t>
+          <t>['Ireland', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -5295,7 +5295,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Ireland']</t>
+          <t>['Ireland', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -5387,7 +5387,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Ireland']</t>
+          <t>['Ireland', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -5479,7 +5479,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Ireland']</t>
+          <t>['Ireland', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -5571,7 +5571,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Netherlands']</t>
+          <t>['Netherlands', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -5659,7 +5659,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Netherlands']</t>
+          <t>['Netherlands', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -5887,7 +5887,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -5975,7 +5975,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -6063,7 +6063,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -6151,7 +6151,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -6239,7 +6239,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -6327,7 +6327,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -6591,7 +6591,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -6679,7 +6679,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -6767,7 +6767,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -6855,7 +6855,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -6929,7 +6929,7 @@
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -7009,7 +7009,7 @@
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -7087,7 +7087,7 @@
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -7167,7 +7167,7 @@
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -7259,7 +7259,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -7347,7 +7347,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -7435,7 +7435,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -7523,7 +7523,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -7611,7 +7611,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -7699,7 +7699,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -7787,7 +7787,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -7875,7 +7875,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -7963,7 +7963,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -8051,7 +8051,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -8139,7 +8139,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -8227,7 +8227,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -8315,7 +8315,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -8403,7 +8403,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -8477,7 +8477,7 @@
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -8557,7 +8557,7 @@
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -8631,7 +8631,7 @@
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -8711,7 +8711,7 @@
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -8799,7 +8799,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -8887,7 +8887,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -8975,7 +8975,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -9063,7 +9063,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -9151,7 +9151,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -9239,7 +9239,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -9327,7 +9327,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -9415,7 +9415,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -9503,7 +9503,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>['England', 'Scotland']</t>
+          <t>['Scotland', 'England']</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -9591,7 +9591,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>['England', 'Scotland']</t>
+          <t>['Scotland', 'England']</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -9679,7 +9679,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -9767,7 +9767,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -9995,7 +9995,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>['Spain', 'Bulgaria']</t>
+          <t>['Bulgaria', 'Spain']</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -10083,7 +10083,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>['Spain', 'Bulgaria']</t>
+          <t>['Bulgaria', 'Spain']</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -11213,7 +11213,7 @@
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr">
         <is>
-          <t>['Germany', 'Italy']</t>
+          <t>['Italy', 'Germany']</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -11293,7 +11293,7 @@
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr">
         <is>
-          <t>['Germany', 'Italy']</t>
+          <t>['Italy', 'Germany']</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -11367,7 +11367,7 @@
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr">
         <is>
-          <t>['Germany', 'Italy']</t>
+          <t>['Italy', 'Germany']</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -11447,7 +11447,7 @@
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr">
         <is>
-          <t>['Germany', 'Italy']</t>
+          <t>['Italy', 'Germany']</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -11535,7 +11535,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -11627,7 +11627,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -11719,7 +11719,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -11811,7 +11811,7 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -11903,7 +11903,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -11995,7 +11995,7 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -12087,7 +12087,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>['Germany', 'Italy']</t>
+          <t>['Italy', 'Germany']</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -12175,7 +12175,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>['Germany', 'Italy']</t>
+          <t>['Italy', 'Germany']</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -12263,7 +12263,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>['Germany', 'Italy']</t>
+          <t>['Italy', 'Germany']</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -12351,7 +12351,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>['Germany', 'Italy']</t>
+          <t>['Italy', 'Germany']</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -12439,7 +12439,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>['Germany', 'Italy']</t>
+          <t>['Italy', 'Germany']</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -12527,7 +12527,7 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>['Germany', 'Italy']</t>
+          <t>['Italy', 'Germany']</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -12601,7 +12601,7 @@
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -12681,7 +12681,7 @@
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -12765,7 +12765,7 @@
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -12839,7 +12839,7 @@
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -12919,7 +12919,7 @@
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -13003,7 +13003,7 @@
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -13091,7 +13091,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -13179,7 +13179,7 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -13267,7 +13267,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -13355,7 +13355,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -13443,7 +13443,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -13531,7 +13531,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -13619,7 +13619,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -13707,7 +13707,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -13795,7 +13795,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -13883,7 +13883,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -13971,7 +13971,7 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -14059,7 +14059,7 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -14133,7 +14133,7 @@
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -14213,7 +14213,7 @@
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -14291,7 +14291,7 @@
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -14371,7 +14371,7 @@
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -14463,7 +14463,7 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>['Portugal', 'Romania']</t>
+          <t>['Romania', 'Portugal']</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -14551,7 +14551,7 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>['Portugal', 'Romania']</t>
+          <t>['Romania', 'Portugal']</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -14639,7 +14639,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>['Portugal', 'Romania']</t>
+          <t>['Romania', 'Portugal']</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -14727,7 +14727,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>['Portugal', 'Romania']</t>
+          <t>['Romania', 'Portugal']</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -14815,7 +14815,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -14907,7 +14907,7 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -14999,7 +14999,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -15087,7 +15087,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -15175,7 +15175,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -15267,7 +15267,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -15359,7 +15359,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -15451,7 +15451,7 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -15543,7 +15543,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -15635,7 +15635,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -15727,7 +15727,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>['Portugal', 'Romania']</t>
+          <t>['Romania', 'Portugal']</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -15815,7 +15815,7 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>['Portugal', 'Romania']</t>
+          <t>['Romania', 'Portugal']</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -15889,7 +15889,7 @@
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy']</t>
+          <t>['Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -15969,7 +15969,7 @@
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy']</t>
+          <t>['Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -16047,7 +16047,7 @@
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy']</t>
+          <t>['Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -16127,7 +16127,7 @@
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy']</t>
+          <t>['Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -16219,7 +16219,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy']</t>
+          <t>['Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -16311,7 +16311,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy']</t>
+          <t>['Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -16403,7 +16403,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -16491,7 +16491,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -16579,7 +16579,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -16667,7 +16667,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -16755,7 +16755,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -16843,7 +16843,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -16931,7 +16931,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -17019,7 +17019,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -18633,7 +18633,7 @@
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -18713,7 +18713,7 @@
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -18787,7 +18787,7 @@
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -18867,7 +18867,7 @@
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -18955,7 +18955,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -19043,7 +19043,7 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -19131,7 +19131,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -19219,7 +19219,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -19307,7 +19307,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -19395,7 +19395,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -19483,7 +19483,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -19571,7 +19571,7 @@
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -19659,7 +19659,7 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -19747,7 +19747,7 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -19835,7 +19835,7 @@
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -19923,7 +19923,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -20011,7 +20011,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -20099,7 +20099,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -20173,7 +20173,7 @@
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr">
         <is>
-          <t>['Greece', 'Spain']</t>
+          <t>['Spain', 'Greece']</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -20253,7 +20253,7 @@
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr">
         <is>
-          <t>['Greece', 'Spain']</t>
+          <t>['Spain', 'Greece']</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -20327,7 +20327,7 @@
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr">
         <is>
-          <t>['Greece', 'Spain']</t>
+          <t>['Spain', 'Greece']</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -20407,7 +20407,7 @@
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr">
         <is>
-          <t>['Greece', 'Spain']</t>
+          <t>['Spain', 'Greece']</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -21185,7 +21185,7 @@
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -21255,7 +21255,7 @@
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -21867,7 +21867,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -21955,7 +21955,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -22043,7 +22043,7 @@
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -22131,7 +22131,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -22219,7 +22219,7 @@
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -22307,7 +22307,7 @@
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -22395,7 +22395,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -22483,7 +22483,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -22571,7 +22571,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -22659,7 +22659,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -22747,7 +22747,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -22835,7 +22835,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -22923,7 +22923,7 @@
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -23011,7 +23011,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -23085,7 +23085,7 @@
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -23155,7 +23155,7 @@
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -23239,7 +23239,7 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -23327,7 +23327,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -23415,7 +23415,7 @@
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -23503,7 +23503,7 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -23591,7 +23591,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -23679,7 +23679,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -23767,7 +23767,7 @@
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -23855,7 +23855,7 @@
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -23943,7 +23943,7 @@
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -24031,7 +24031,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -24119,7 +24119,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -24207,7 +24207,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -24295,7 +24295,7 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -24383,7 +24383,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -24457,7 +24457,7 @@
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
@@ -24537,7 +24537,7 @@
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -24611,7 +24611,7 @@
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -24691,7 +24691,7 @@
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -24779,7 +24779,7 @@
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
@@ -24867,7 +24867,7 @@
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -24955,7 +24955,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -25043,7 +25043,7 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -25821,7 +25821,7 @@
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K296" t="inlineStr">
@@ -25901,7 +25901,7 @@
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -25975,7 +25975,7 @@
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -26055,7 +26055,7 @@
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -26143,7 +26143,7 @@
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
@@ -26231,7 +26231,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -26319,7 +26319,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -26407,7 +26407,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -26495,7 +26495,7 @@
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K304" t="inlineStr">
@@ -26583,7 +26583,7 @@
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -26671,7 +26671,7 @@
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K306" t="inlineStr">
@@ -26759,7 +26759,7 @@
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -26847,7 +26847,7 @@
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -26935,7 +26935,7 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -27023,7 +27023,7 @@
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -27111,7 +27111,7 @@
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -27199,7 +27199,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey']</t>
+          <t>['Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -27287,7 +27287,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey']</t>
+          <t>['Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -27361,7 +27361,7 @@
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -27441,7 +27441,7 @@
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -27525,7 +27525,7 @@
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="K316" t="inlineStr">
@@ -27599,7 +27599,7 @@
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
@@ -27679,7 +27679,7 @@
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -27763,7 +27763,7 @@
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="K319" t="inlineStr">
@@ -27851,7 +27851,7 @@
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="K320" t="inlineStr">
@@ -27939,7 +27939,7 @@
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="K321" t="inlineStr">
@@ -28027,7 +28027,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
@@ -28115,7 +28115,7 @@
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
@@ -28189,7 +28189,7 @@
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr">
         <is>
-          <t>['Romania', 'Netherlands']</t>
+          <t>['Netherlands', 'Romania']</t>
         </is>
       </c>
       <c r="K324" t="inlineStr">
@@ -28269,7 +28269,7 @@
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr">
         <is>
-          <t>['Romania', 'Netherlands']</t>
+          <t>['Netherlands', 'Romania']</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
@@ -28353,7 +28353,7 @@
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr">
         <is>
-          <t>['Romania', 'Netherlands']</t>
+          <t>['Netherlands', 'Romania']</t>
         </is>
       </c>
       <c r="K326" t="inlineStr">
@@ -28427,7 +28427,7 @@
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr">
         <is>
-          <t>['Romania', 'Netherlands']</t>
+          <t>['Netherlands', 'Romania']</t>
         </is>
       </c>
       <c r="K327" t="inlineStr">
@@ -28507,7 +28507,7 @@
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr">
         <is>
-          <t>['Romania', 'Netherlands']</t>
+          <t>['Netherlands', 'Romania']</t>
         </is>
       </c>
       <c r="K328" t="inlineStr">
@@ -28591,7 +28591,7 @@
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr">
         <is>
-          <t>['Romania', 'Netherlands']</t>
+          <t>['Netherlands', 'Romania']</t>
         </is>
       </c>
       <c r="K329" t="inlineStr">
@@ -28679,7 +28679,7 @@
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="K330" t="inlineStr">
@@ -28767,7 +28767,7 @@
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="K331" t="inlineStr">
@@ -28855,7 +28855,7 @@
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="K332" t="inlineStr">
@@ -28943,7 +28943,7 @@
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="K333" t="inlineStr">
@@ -29031,7 +29031,7 @@
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="K334" t="inlineStr">
@@ -29119,7 +29119,7 @@
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="K335" t="inlineStr">
@@ -29207,7 +29207,7 @@
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="K336" t="inlineStr">
@@ -29295,7 +29295,7 @@
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="K337" t="inlineStr">
@@ -29369,7 +29369,7 @@
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden']</t>
+          <t>['Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K338" t="inlineStr">
@@ -29449,7 +29449,7 @@
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden']</t>
+          <t>['Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K339" t="inlineStr">
@@ -29523,7 +29523,7 @@
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden']</t>
+          <t>['Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K340" t="inlineStr">
@@ -29603,7 +29603,7 @@
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden']</t>
+          <t>['Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K341" t="inlineStr">
@@ -31047,7 +31047,7 @@
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>['Greece', 'Russia']</t>
+          <t>['Russia', 'Greece']</t>
         </is>
       </c>
       <c r="K358" t="inlineStr">
@@ -31135,7 +31135,7 @@
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>['Greece', 'Russia']</t>
+          <t>['Russia', 'Greece']</t>
         </is>
       </c>
       <c r="K359" t="inlineStr">
@@ -31539,7 +31539,7 @@
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>['Germany', 'Denmark']</t>
+          <t>['Denmark', 'Germany']</t>
         </is>
       </c>
       <c r="K364" t="inlineStr">
@@ -31627,7 +31627,7 @@
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>['Germany', 'Denmark']</t>
+          <t>['Denmark', 'Germany']</t>
         </is>
       </c>
       <c r="K365" t="inlineStr">
@@ -31891,7 +31891,7 @@
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>['Germany', 'Denmark']</t>
+          <t>['Denmark', 'Germany']</t>
         </is>
       </c>
       <c r="K368" t="inlineStr">
@@ -31979,7 +31979,7 @@
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>['Germany', 'Denmark']</t>
+          <t>['Denmark', 'Germany']</t>
         </is>
       </c>
       <c r="K369" t="inlineStr">
@@ -33593,7 +33593,7 @@
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K388" t="inlineStr">
@@ -33673,7 +33673,7 @@
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K389" t="inlineStr">
@@ -33757,7 +33757,7 @@
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K390" t="inlineStr">
@@ -33831,7 +33831,7 @@
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K391" t="inlineStr">
@@ -33911,7 +33911,7 @@
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K392" t="inlineStr">
@@ -33995,7 +33995,7 @@
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K393" t="inlineStr">
@@ -34083,7 +34083,7 @@
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K394" t="inlineStr">
@@ -34171,7 +34171,7 @@
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K395" t="inlineStr">
@@ -34259,7 +34259,7 @@
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K396" t="inlineStr">
@@ -34347,7 +34347,7 @@
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K397" t="inlineStr">
@@ -34435,7 +34435,7 @@
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K398" t="inlineStr">
@@ -34523,7 +34523,7 @@
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K399" t="inlineStr">
@@ -34597,7 +34597,7 @@
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Romania', 'France']</t>
+          <t>['Switzerland', 'France', 'Romania']</t>
         </is>
       </c>
       <c r="K400" t="inlineStr">
@@ -34677,7 +34677,7 @@
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Romania', 'France']</t>
+          <t>['Switzerland', 'France', 'Romania']</t>
         </is>
       </c>
       <c r="K401" t="inlineStr">
@@ -34761,7 +34761,7 @@
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Romania', 'France']</t>
+          <t>['Switzerland', 'France', 'Romania']</t>
         </is>
       </c>
       <c r="K402" t="inlineStr">
@@ -34875,18 +34875,18 @@
       </c>
       <c r="P403" t="inlineStr"/>
       <c r="Q403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R403" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland', 'Albania']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="S403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U403" t="n">
         <v>1759</v>
@@ -35455,18 +35455,18 @@
       </c>
       <c r="P410" t="inlineStr"/>
       <c r="Q410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R410" t="inlineStr">
         <is>
-          <t>['Wales', 'England', 'Slovakia']</t>
+          <t>['Wales', 'England']</t>
         </is>
       </c>
       <c r="S410" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T410" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U410" t="n">
         <v>1760</v>
@@ -35543,18 +35543,18 @@
       </c>
       <c r="P411" t="inlineStr"/>
       <c r="Q411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R411" t="inlineStr">
         <is>
-          <t>['Wales', 'England', 'Slovakia']</t>
+          <t>['Wales', 'England']</t>
         </is>
       </c>
       <c r="S411" t="n">
         <v>0</v>
       </c>
       <c r="T411" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U411" t="n">
         <v>1760</v>
@@ -35631,18 +35631,18 @@
       </c>
       <c r="P412" t="inlineStr"/>
       <c r="Q412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R412" t="inlineStr">
         <is>
-          <t>['Wales', 'England', 'Slovakia']</t>
+          <t>['Wales', 'England']</t>
         </is>
       </c>
       <c r="S412" t="n">
         <v>0</v>
       </c>
       <c r="T412" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U412" t="n">
         <v>1760</v>
@@ -35719,18 +35719,18 @@
       </c>
       <c r="P413" t="inlineStr"/>
       <c r="Q413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R413" t="inlineStr">
         <is>
-          <t>['Wales', 'England', 'Slovakia']</t>
+          <t>['Wales', 'England']</t>
         </is>
       </c>
       <c r="S413" t="n">
         <v>0</v>
       </c>
       <c r="T413" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U413" t="n">
         <v>1760</v>
@@ -35807,18 +35807,18 @@
       </c>
       <c r="P414" t="inlineStr"/>
       <c r="Q414" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R414" t="inlineStr">
         <is>
-          <t>['Wales', 'England', 'Slovakia']</t>
+          <t>['Wales', 'England']</t>
         </is>
       </c>
       <c r="S414" t="n">
         <v>0</v>
       </c>
       <c r="T414" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U414" t="n">
         <v>1760</v>
@@ -35895,18 +35895,18 @@
       </c>
       <c r="P415" t="inlineStr"/>
       <c r="Q415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R415" t="inlineStr">
         <is>
-          <t>['Wales', 'England', 'Slovakia']</t>
+          <t>['Wales', 'England']</t>
         </is>
       </c>
       <c r="S415" t="n">
         <v>0</v>
       </c>
       <c r="T415" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U415" t="n">
         <v>1760</v>
@@ -35943,7 +35943,7 @@
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr">
         <is>
-          <t>['Germany', 'Northern Ireland', 'Poland']</t>
+          <t>['Northern Ireland', 'Poland', 'Germany']</t>
         </is>
       </c>
       <c r="K416" t="inlineStr">
@@ -36023,7 +36023,7 @@
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr">
         <is>
-          <t>['Germany', 'Northern Ireland', 'Poland']</t>
+          <t>['Northern Ireland', 'Poland', 'Germany']</t>
         </is>
       </c>
       <c r="K417" t="inlineStr">
@@ -36107,7 +36107,7 @@
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr">
         <is>
-          <t>['Germany', 'Northern Ireland', 'Poland']</t>
+          <t>['Northern Ireland', 'Poland', 'Germany']</t>
         </is>
       </c>
       <c r="K418" t="inlineStr">
@@ -36181,7 +36181,7 @@
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr">
         <is>
-          <t>['Germany', 'Northern Ireland', 'Poland']</t>
+          <t>['Northern Ireland', 'Poland', 'Germany']</t>
         </is>
       </c>
       <c r="K419" t="inlineStr">
@@ -36261,7 +36261,7 @@
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr">
         <is>
-          <t>['Germany', 'Northern Ireland', 'Poland']</t>
+          <t>['Northern Ireland', 'Poland', 'Germany']</t>
         </is>
       </c>
       <c r="K420" t="inlineStr">
@@ -36345,7 +36345,7 @@
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr">
         <is>
-          <t>['Germany', 'Northern Ireland', 'Poland']</t>
+          <t>['Northern Ireland', 'Poland', 'Germany']</t>
         </is>
       </c>
       <c r="K421" t="inlineStr">
@@ -36433,7 +36433,7 @@
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>['Germany', 'Northern Ireland', 'Poland']</t>
+          <t>['Northern Ireland', 'Poland', 'Germany']</t>
         </is>
       </c>
       <c r="K422" t="inlineStr">
@@ -36459,18 +36459,18 @@
       </c>
       <c r="P422" t="inlineStr"/>
       <c r="Q422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R422" t="inlineStr">
         <is>
-          <t>['Germany', 'Poland', 'Northern Ireland']</t>
+          <t>['Germany', 'Poland']</t>
         </is>
       </c>
       <c r="S422" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T422" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U422" t="n">
         <v>1624</v>
@@ -36521,7 +36521,7 @@
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>['Germany', 'Northern Ireland', 'Poland']</t>
+          <t>['Northern Ireland', 'Poland', 'Germany']</t>
         </is>
       </c>
       <c r="K423" t="inlineStr">
@@ -36547,18 +36547,18 @@
       </c>
       <c r="P423" t="inlineStr"/>
       <c r="Q423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R423" t="inlineStr">
         <is>
-          <t>['Germany', 'Poland', 'Northern Ireland']</t>
+          <t>['Germany', 'Poland']</t>
         </is>
       </c>
       <c r="S423" t="n">
         <v>0</v>
       </c>
       <c r="T423" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U423" t="n">
         <v>1624</v>
@@ -36609,7 +36609,7 @@
       </c>
       <c r="J424" t="inlineStr">
         <is>
-          <t>['Germany', 'Northern Ireland', 'Poland']</t>
+          <t>['Northern Ireland', 'Poland', 'Germany']</t>
         </is>
       </c>
       <c r="K424" t="inlineStr">
@@ -36635,18 +36635,18 @@
       </c>
       <c r="P424" t="inlineStr"/>
       <c r="Q424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R424" t="inlineStr">
         <is>
-          <t>['Germany', 'Poland', 'Northern Ireland']</t>
+          <t>['Germany', 'Poland']</t>
         </is>
       </c>
       <c r="S424" t="n">
         <v>0</v>
       </c>
       <c r="T424" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U424" t="n">
         <v>1837</v>
@@ -36697,7 +36697,7 @@
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>['Germany', 'Northern Ireland', 'Poland']</t>
+          <t>['Northern Ireland', 'Poland', 'Germany']</t>
         </is>
       </c>
       <c r="K425" t="inlineStr">
@@ -36723,18 +36723,18 @@
       </c>
       <c r="P425" t="inlineStr"/>
       <c r="Q425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R425" t="inlineStr">
         <is>
-          <t>['Germany', 'Poland', 'Northern Ireland']</t>
+          <t>['Germany', 'Poland']</t>
         </is>
       </c>
       <c r="S425" t="n">
         <v>0</v>
       </c>
       <c r="T425" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U425" t="n">
         <v>1837</v>
@@ -36771,7 +36771,7 @@
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain', 'Czech Republic']</t>
+          <t>['Croatia', 'Czech Republic', 'Spain']</t>
         </is>
       </c>
       <c r="K426" t="inlineStr">
@@ -36851,7 +36851,7 @@
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain', 'Czech Republic']</t>
+          <t>['Croatia', 'Czech Republic', 'Spain']</t>
         </is>
       </c>
       <c r="K427" t="inlineStr">
@@ -36925,7 +36925,7 @@
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain', 'Czech Republic']</t>
+          <t>['Croatia', 'Czech Republic', 'Spain']</t>
         </is>
       </c>
       <c r="K428" t="inlineStr">
@@ -37005,7 +37005,7 @@
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain', 'Czech Republic']</t>
+          <t>['Croatia', 'Czech Republic', 'Spain']</t>
         </is>
       </c>
       <c r="K429" t="inlineStr">
@@ -37093,7 +37093,7 @@
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain', 'Czech Republic']</t>
+          <t>['Croatia', 'Czech Republic', 'Spain']</t>
         </is>
       </c>
       <c r="K430" t="inlineStr">
@@ -37181,7 +37181,7 @@
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain', 'Czech Republic']</t>
+          <t>['Croatia', 'Czech Republic', 'Spain']</t>
         </is>
       </c>
       <c r="K431" t="inlineStr">
@@ -37269,7 +37269,7 @@
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>['Turkey', 'Croatia', 'Spain']</t>
+          <t>['Croatia', 'Turkey', 'Spain']</t>
         </is>
       </c>
       <c r="K432" t="inlineStr">
@@ -37295,18 +37295,18 @@
       </c>
       <c r="P432" t="inlineStr"/>
       <c r="Q432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R432" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Turkey']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="S432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T432" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U432" t="n">
         <v>1755</v>
@@ -37357,7 +37357,7 @@
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>['Turkey', 'Croatia', 'Spain']</t>
+          <t>['Croatia', 'Turkey', 'Spain']</t>
         </is>
       </c>
       <c r="K433" t="inlineStr">
@@ -37383,18 +37383,18 @@
       </c>
       <c r="P433" t="inlineStr"/>
       <c r="Q433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R433" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Turkey']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="S433" t="n">
         <v>0</v>
       </c>
       <c r="T433" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U433" t="n">
         <v>1755</v>
@@ -37445,7 +37445,7 @@
       </c>
       <c r="J434" t="inlineStr">
         <is>
-          <t>['Turkey', 'Croatia', 'Spain']</t>
+          <t>['Croatia', 'Turkey', 'Spain']</t>
         </is>
       </c>
       <c r="K434" t="inlineStr">
@@ -37471,18 +37471,18 @@
       </c>
       <c r="P434" t="inlineStr"/>
       <c r="Q434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R434" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Turkey']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="S434" t="n">
         <v>0</v>
       </c>
       <c r="T434" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U434" t="n">
         <v>1818</v>
@@ -37533,7 +37533,7 @@
       </c>
       <c r="J435" t="inlineStr">
         <is>
-          <t>['Turkey', 'Croatia', 'Spain']</t>
+          <t>['Croatia', 'Turkey', 'Spain']</t>
         </is>
       </c>
       <c r="K435" t="inlineStr">
@@ -37559,18 +37559,18 @@
       </c>
       <c r="P435" t="inlineStr"/>
       <c r="Q435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R435" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Turkey']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="S435" t="n">
         <v>0</v>
       </c>
       <c r="T435" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U435" t="n">
         <v>1818</v>
@@ -37621,7 +37621,7 @@
       </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>['Turkey', 'Croatia', 'Spain']</t>
+          <t>['Croatia', 'Turkey', 'Spain']</t>
         </is>
       </c>
       <c r="K436" t="inlineStr">
@@ -37647,18 +37647,18 @@
       </c>
       <c r="P436" t="inlineStr"/>
       <c r="Q436" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R436" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Turkey']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="S436" t="n">
         <v>0</v>
       </c>
       <c r="T436" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U436" t="n">
         <v>1755</v>
@@ -37709,7 +37709,7 @@
       </c>
       <c r="J437" t="inlineStr">
         <is>
-          <t>['Turkey', 'Croatia', 'Spain']</t>
+          <t>['Croatia', 'Turkey', 'Spain']</t>
         </is>
       </c>
       <c r="K437" t="inlineStr">
@@ -37735,18 +37735,18 @@
       </c>
       <c r="P437" t="inlineStr"/>
       <c r="Q437" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R437" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Turkey']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="S437" t="n">
         <v>0</v>
       </c>
       <c r="T437" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U437" t="n">
         <v>1755</v>
@@ -37797,7 +37797,7 @@
       </c>
       <c r="J438" t="inlineStr">
         <is>
-          <t>['Turkey', 'Croatia', 'Spain']</t>
+          <t>['Croatia', 'Turkey', 'Spain']</t>
         </is>
       </c>
       <c r="K438" t="inlineStr">
@@ -37823,18 +37823,18 @@
       </c>
       <c r="P438" t="inlineStr"/>
       <c r="Q438" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R438" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain', 'Turkey']</t>
+          <t>['Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="S438" t="n">
         <v>0</v>
       </c>
       <c r="T438" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U438" t="n">
         <v>1818</v>
@@ -37885,7 +37885,7 @@
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>['Turkey', 'Croatia', 'Spain']</t>
+          <t>['Croatia', 'Turkey', 'Spain']</t>
         </is>
       </c>
       <c r="K439" t="inlineStr">
@@ -37911,18 +37911,18 @@
       </c>
       <c r="P439" t="inlineStr"/>
       <c r="Q439" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R439" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain', 'Turkey']</t>
+          <t>['Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="S439" t="n">
         <v>0</v>
       </c>
       <c r="T439" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U439" t="n">
         <v>1818</v>
@@ -37959,7 +37959,7 @@
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy', 'Sweden']</t>
+          <t>['Italy', 'Sweden', 'Belgium']</t>
         </is>
       </c>
       <c r="K440" t="inlineStr">
@@ -38039,7 +38039,7 @@
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy', 'Sweden']</t>
+          <t>['Italy', 'Sweden', 'Belgium']</t>
         </is>
       </c>
       <c r="K441" t="inlineStr">
@@ -38123,7 +38123,7 @@
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy', 'Sweden']</t>
+          <t>['Italy', 'Sweden', 'Belgium']</t>
         </is>
       </c>
       <c r="K442" t="inlineStr">
@@ -38197,7 +38197,7 @@
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy', 'Sweden']</t>
+          <t>['Italy', 'Sweden', 'Belgium']</t>
         </is>
       </c>
       <c r="K443" t="inlineStr">
@@ -38277,7 +38277,7 @@
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy', 'Sweden']</t>
+          <t>['Italy', 'Sweden', 'Belgium']</t>
         </is>
       </c>
       <c r="K444" t="inlineStr">
@@ -38361,7 +38361,7 @@
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy', 'Sweden']</t>
+          <t>['Italy', 'Sweden', 'Belgium']</t>
         </is>
       </c>
       <c r="K445" t="inlineStr">
@@ -38449,7 +38449,7 @@
       </c>
       <c r="J446" t="inlineStr">
         <is>
-          <t>['Belgium', 'Ireland', 'Italy']</t>
+          <t>['Italy', 'Ireland', 'Belgium']</t>
         </is>
       </c>
       <c r="K446" t="inlineStr">
@@ -38537,7 +38537,7 @@
       </c>
       <c r="J447" t="inlineStr">
         <is>
-          <t>['Belgium', 'Ireland', 'Italy']</t>
+          <t>['Italy', 'Ireland', 'Belgium']</t>
         </is>
       </c>
       <c r="K447" t="inlineStr">
@@ -38625,7 +38625,7 @@
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>['Belgium', 'Ireland', 'Italy']</t>
+          <t>['Italy', 'Ireland', 'Belgium']</t>
         </is>
       </c>
       <c r="K448" t="inlineStr">
@@ -38651,18 +38651,18 @@
       </c>
       <c r="P448" t="inlineStr"/>
       <c r="Q448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R448" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy', 'Ireland']</t>
+          <t>['Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="S448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U448" t="n">
         <v>1875</v>
@@ -38713,7 +38713,7 @@
       </c>
       <c r="J449" t="inlineStr">
         <is>
-          <t>['Belgium', 'Ireland', 'Italy']</t>
+          <t>['Italy', 'Ireland', 'Belgium']</t>
         </is>
       </c>
       <c r="K449" t="inlineStr">
@@ -38739,18 +38739,18 @@
       </c>
       <c r="P449" t="inlineStr"/>
       <c r="Q449" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R449" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy', 'Ireland']</t>
+          <t>['Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="S449" t="n">
         <v>0</v>
       </c>
       <c r="T449" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U449" t="n">
         <v>1875</v>
@@ -38787,7 +38787,7 @@
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Iceland', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K450" t="inlineStr">
@@ -38857,7 +38857,7 @@
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Iceland', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K451" t="inlineStr">
@@ -38941,7 +38941,7 @@
       </c>
       <c r="J452" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Iceland', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K452" t="inlineStr">
@@ -38967,18 +38967,18 @@
       </c>
       <c r="P452" t="inlineStr"/>
       <c r="Q452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R452" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="S452" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T452" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U452" t="n">
         <v>1666</v>
@@ -39029,7 +39029,7 @@
       </c>
       <c r="J453" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Iceland', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K453" t="inlineStr">
@@ -39055,18 +39055,18 @@
       </c>
       <c r="P453" t="inlineStr"/>
       <c r="Q453" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R453" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="S453" t="n">
         <v>0</v>
       </c>
       <c r="T453" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U453" t="n">
         <v>1666</v>
@@ -39117,7 +39117,7 @@
       </c>
       <c r="J454" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Iceland', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K454" t="inlineStr">
@@ -39151,7 +39151,7 @@
         </is>
       </c>
       <c r="S454" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T454" t="n">
         <v>1</v>
@@ -39205,7 +39205,7 @@
       </c>
       <c r="J455" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Iceland', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K455" t="inlineStr">
@@ -39293,7 +39293,7 @@
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Iceland', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K456" t="inlineStr">
@@ -39319,18 +39319,18 @@
       </c>
       <c r="P456" t="inlineStr"/>
       <c r="Q456" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R456" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="S456" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T456" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U456" t="n">
         <v>1697</v>
@@ -39381,7 +39381,7 @@
       </c>
       <c r="J457" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Iceland', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K457" t="inlineStr">
@@ -39407,18 +39407,18 @@
       </c>
       <c r="P457" t="inlineStr"/>
       <c r="Q457" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R457" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="S457" t="n">
         <v>0</v>
       </c>
       <c r="T457" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U457" t="n">
         <v>1697</v>
@@ -39469,7 +39469,7 @@
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Iceland', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K458" t="inlineStr">
@@ -39503,10 +39503,10 @@
         </is>
       </c>
       <c r="S458" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T458" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U458" t="n">
         <v>1697</v>
@@ -39557,7 +39557,7 @@
       </c>
       <c r="J459" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Iceland', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K459" t="inlineStr">
@@ -39594,7 +39594,7 @@
         <v>0</v>
       </c>
       <c r="T459" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U459" t="n">
         <v>1697</v>
@@ -39645,7 +39645,7 @@
       </c>
       <c r="J460" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Iceland', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K460" t="inlineStr">
@@ -39671,18 +39671,18 @@
       </c>
       <c r="P460" t="inlineStr"/>
       <c r="Q460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R460" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="S460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T460" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U460" t="n">
         <v>1697</v>
@@ -39733,7 +39733,7 @@
       </c>
       <c r="J461" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Iceland', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K461" t="inlineStr">
@@ -39759,18 +39759,18 @@
       </c>
       <c r="P461" t="inlineStr"/>
       <c r="Q461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R461" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="S461" t="n">
         <v>0</v>
       </c>
       <c r="T461" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U461" t="n">
         <v>1697</v>
@@ -39821,7 +39821,7 @@
       </c>
       <c r="J462" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Iceland', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K462" t="inlineStr">
@@ -39855,10 +39855,10 @@
         </is>
       </c>
       <c r="S462" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T462" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U462" t="n">
         <v>1697</v>
@@ -39909,7 +39909,7 @@
       </c>
       <c r="J463" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Iceland', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K463" t="inlineStr">
@@ -39946,7 +39946,7 @@
         <v>0</v>
       </c>
       <c r="T463" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U463" t="n">
         <v>1697</v>
@@ -39997,7 +39997,7 @@
       </c>
       <c r="J464" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Iceland', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K464" t="inlineStr">
@@ -40034,7 +40034,7 @@
         <v>0</v>
       </c>
       <c r="T464" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U464" t="n">
         <v>1666</v>
@@ -40085,7 +40085,7 @@
       </c>
       <c r="J465" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Iceland', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K465" t="inlineStr">
@@ -40122,7 +40122,7 @@
         <v>0</v>
       </c>
       <c r="T465" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U465" t="n">
         <v>1666</v>
@@ -40173,7 +40173,7 @@
       </c>
       <c r="J466" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Iceland', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K466" t="inlineStr">
@@ -40199,18 +40199,18 @@
       </c>
       <c r="P466" t="inlineStr"/>
       <c r="Q466" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R466" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="S466" t="n">
         <v>1</v>
       </c>
       <c r="T466" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="U466" t="n">
         <v>1697</v>
@@ -40261,7 +40261,7 @@
       </c>
       <c r="J467" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Iceland', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K467" t="inlineStr">
@@ -40287,18 +40287,18 @@
       </c>
       <c r="P467" t="inlineStr"/>
       <c r="Q467" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R467" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="S467" t="n">
         <v>0</v>
       </c>
       <c r="T467" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="U467" t="n">
         <v>1697</v>
@@ -40349,7 +40349,7 @@
       </c>
       <c r="J468" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Iceland', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K468" t="inlineStr">
@@ -40375,18 +40375,18 @@
       </c>
       <c r="P468" t="inlineStr"/>
       <c r="Q468" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R468" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="S468" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T468" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="U468" t="n">
         <v>1666</v>
@@ -40437,7 +40437,7 @@
       </c>
       <c r="J469" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Iceland', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K469" t="inlineStr">
@@ -40463,18 +40463,18 @@
       </c>
       <c r="P469" t="inlineStr"/>
       <c r="Q469" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R469" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="S469" t="n">
         <v>0</v>
       </c>
       <c r="T469" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="U469" t="n">
         <v>1666</v>
@@ -40511,7 +40511,7 @@
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K470" t="inlineStr">
@@ -40591,7 +40591,7 @@
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K471" t="inlineStr">
@@ -40665,7 +40665,7 @@
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K472" t="inlineStr">
@@ -40745,7 +40745,7 @@
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K473" t="inlineStr">
@@ -40819,7 +40819,7 @@
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K474" t="inlineStr">
@@ -40899,7 +40899,7 @@
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K475" t="inlineStr">
@@ -40987,7 +40987,7 @@
       </c>
       <c r="J476" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K476" t="inlineStr">
@@ -41013,18 +41013,18 @@
       </c>
       <c r="P476" t="inlineStr"/>
       <c r="Q476" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R476" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales', 'Switzerland']</t>
+          <t>['Italy', 'Wales']</t>
         </is>
       </c>
       <c r="S476" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T476" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U476" t="n">
         <v>1890</v>
@@ -41075,7 +41075,7 @@
       </c>
       <c r="J477" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K477" t="inlineStr">
@@ -41101,18 +41101,18 @@
       </c>
       <c r="P477" t="inlineStr"/>
       <c r="Q477" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R477" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales', 'Switzerland']</t>
+          <t>['Italy', 'Wales']</t>
         </is>
       </c>
       <c r="S477" t="n">
         <v>0</v>
       </c>
       <c r="T477" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U477" t="n">
         <v>1890</v>
@@ -41163,7 +41163,7 @@
       </c>
       <c r="J478" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K478" t="inlineStr">
@@ -41189,18 +41189,18 @@
       </c>
       <c r="P478" t="inlineStr"/>
       <c r="Q478" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R478" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales', 'Switzerland']</t>
+          <t>['Italy', 'Wales']</t>
         </is>
       </c>
       <c r="S478" t="n">
         <v>0</v>
       </c>
       <c r="T478" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U478" t="n">
         <v>1890</v>
@@ -41251,7 +41251,7 @@
       </c>
       <c r="J479" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K479" t="inlineStr">
@@ -41277,18 +41277,18 @@
       </c>
       <c r="P479" t="inlineStr"/>
       <c r="Q479" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R479" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales', 'Switzerland']</t>
+          <t>['Italy', 'Wales']</t>
         </is>
       </c>
       <c r="S479" t="n">
         <v>0</v>
       </c>
       <c r="T479" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U479" t="n">
         <v>1890</v>
@@ -41339,7 +41339,7 @@
       </c>
       <c r="J480" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K480" t="inlineStr">
@@ -41365,18 +41365,18 @@
       </c>
       <c r="P480" t="inlineStr"/>
       <c r="Q480" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R480" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales', 'Switzerland']</t>
+          <t>['Italy', 'Wales']</t>
         </is>
       </c>
       <c r="S480" t="n">
         <v>0</v>
       </c>
       <c r="T480" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U480" t="n">
         <v>1890</v>
@@ -41427,7 +41427,7 @@
       </c>
       <c r="J481" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K481" t="inlineStr">
@@ -41453,18 +41453,18 @@
       </c>
       <c r="P481" t="inlineStr"/>
       <c r="Q481" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R481" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales', 'Switzerland']</t>
+          <t>['Italy', 'Wales']</t>
         </is>
       </c>
       <c r="S481" t="n">
         <v>0</v>
       </c>
       <c r="T481" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U481" t="n">
         <v>1890</v>
@@ -41515,7 +41515,7 @@
       </c>
       <c r="J482" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K482" t="inlineStr">
@@ -41541,18 +41541,18 @@
       </c>
       <c r="P482" t="inlineStr"/>
       <c r="Q482" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R482" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales', 'Switzerland']</t>
+          <t>['Italy', 'Wales']</t>
         </is>
       </c>
       <c r="S482" t="n">
         <v>0</v>
       </c>
       <c r="T482" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U482" t="n">
         <v>2014</v>
@@ -41603,7 +41603,7 @@
       </c>
       <c r="J483" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K483" t="inlineStr">
@@ -41629,18 +41629,18 @@
       </c>
       <c r="P483" t="inlineStr"/>
       <c r="Q483" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R483" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales', 'Switzerland']</t>
+          <t>['Italy', 'Wales']</t>
         </is>
       </c>
       <c r="S483" t="n">
         <v>0</v>
       </c>
       <c r="T483" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U483" t="n">
         <v>2014</v>
@@ -41691,7 +41691,7 @@
       </c>
       <c r="J484" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K484" t="inlineStr">
@@ -41717,18 +41717,18 @@
       </c>
       <c r="P484" t="inlineStr"/>
       <c r="Q484" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R484" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales', 'Switzerland']</t>
+          <t>['Italy', 'Wales']</t>
         </is>
       </c>
       <c r="S484" t="n">
         <v>0</v>
       </c>
       <c r="T484" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U484" t="n">
         <v>2014</v>
@@ -41779,7 +41779,7 @@
       </c>
       <c r="J485" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K485" t="inlineStr">
@@ -41805,18 +41805,18 @@
       </c>
       <c r="P485" t="inlineStr"/>
       <c r="Q485" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R485" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales', 'Switzerland']</t>
+          <t>['Italy', 'Wales']</t>
         </is>
       </c>
       <c r="S485" t="n">
         <v>0</v>
       </c>
       <c r="T485" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U485" t="n">
         <v>1890</v>
@@ -41867,7 +41867,7 @@
       </c>
       <c r="J486" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K486" t="inlineStr">
@@ -41893,18 +41893,18 @@
       </c>
       <c r="P486" t="inlineStr"/>
       <c r="Q486" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R486" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales', 'Switzerland']</t>
+          <t>['Italy', 'Wales']</t>
         </is>
       </c>
       <c r="S486" t="n">
         <v>0</v>
       </c>
       <c r="T486" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U486" t="n">
         <v>1890</v>
@@ -41955,7 +41955,7 @@
       </c>
       <c r="J487" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K487" t="inlineStr">
@@ -41981,18 +41981,18 @@
       </c>
       <c r="P487" t="inlineStr"/>
       <c r="Q487" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R487" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales', 'Switzerland']</t>
+          <t>['Italy', 'Wales']</t>
         </is>
       </c>
       <c r="S487" t="n">
         <v>0</v>
       </c>
       <c r="T487" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U487" t="n">
         <v>1890</v>
@@ -42043,7 +42043,7 @@
       </c>
       <c r="J488" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K488" t="inlineStr">
@@ -42069,18 +42069,18 @@
       </c>
       <c r="P488" t="inlineStr"/>
       <c r="Q488" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R488" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales', 'Switzerland']</t>
+          <t>['Italy', 'Wales']</t>
         </is>
       </c>
       <c r="S488" t="n">
         <v>0</v>
       </c>
       <c r="T488" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U488" t="n">
         <v>1890</v>
@@ -42131,7 +42131,7 @@
       </c>
       <c r="J489" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K489" t="inlineStr">
@@ -42157,18 +42157,18 @@
       </c>
       <c r="P489" t="inlineStr"/>
       <c r="Q489" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R489" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales', 'Switzerland']</t>
+          <t>['Italy', 'Wales']</t>
         </is>
       </c>
       <c r="S489" t="n">
         <v>0</v>
       </c>
       <c r="T489" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U489" t="n">
         <v>1890</v>
@@ -42219,7 +42219,7 @@
       </c>
       <c r="J490" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K490" t="inlineStr">
@@ -42245,18 +42245,18 @@
       </c>
       <c r="P490" t="inlineStr"/>
       <c r="Q490" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R490" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales', 'Switzerland']</t>
+          <t>['Italy', 'Wales']</t>
         </is>
       </c>
       <c r="S490" t="n">
         <v>0</v>
       </c>
       <c r="T490" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U490" t="n">
         <v>1890</v>
@@ -42293,7 +42293,7 @@
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr">
         <is>
-          <t>['Belgium', 'Russia', 'Finland']</t>
+          <t>['Finland', 'Belgium', 'Russia']</t>
         </is>
       </c>
       <c r="K491" t="inlineStr">
@@ -42373,7 +42373,7 @@
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr">
         <is>
-          <t>['Belgium', 'Russia', 'Finland']</t>
+          <t>['Finland', 'Belgium', 'Russia']</t>
         </is>
       </c>
       <c r="K492" t="inlineStr">
@@ -42447,7 +42447,7 @@
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr">
         <is>
-          <t>['Belgium', 'Russia', 'Finland']</t>
+          <t>['Finland', 'Belgium', 'Russia']</t>
         </is>
       </c>
       <c r="K493" t="inlineStr">
@@ -42527,7 +42527,7 @@
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr">
         <is>
-          <t>['Belgium', 'Russia', 'Finland']</t>
+          <t>['Finland', 'Belgium', 'Russia']</t>
         </is>
       </c>
       <c r="K494" t="inlineStr">
@@ -42601,7 +42601,7 @@
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr">
         <is>
-          <t>['Belgium', 'Russia', 'Finland']</t>
+          <t>['Finland', 'Belgium', 'Russia']</t>
         </is>
       </c>
       <c r="K495" t="inlineStr">
@@ -42681,7 +42681,7 @@
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr">
         <is>
-          <t>['Belgium', 'Russia', 'Finland']</t>
+          <t>['Finland', 'Belgium', 'Russia']</t>
         </is>
       </c>
       <c r="K496" t="inlineStr">
@@ -42755,7 +42755,7 @@
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr">
         <is>
-          <t>['Belgium', 'Russia', 'Finland']</t>
+          <t>['Finland', 'Belgium', 'Russia']</t>
         </is>
       </c>
       <c r="K497" t="inlineStr">
@@ -42835,7 +42835,7 @@
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr">
         <is>
-          <t>['Belgium', 'Russia', 'Finland']</t>
+          <t>['Finland', 'Belgium', 'Russia']</t>
         </is>
       </c>
       <c r="K498" t="inlineStr">
@@ -42923,7 +42923,7 @@
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Denmark', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="K499" t="inlineStr">
@@ -43011,7 +43011,7 @@
       </c>
       <c r="J500" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Denmark', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="K500" t="inlineStr">
@@ -43099,7 +43099,7 @@
       </c>
       <c r="J501" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Denmark', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="K501" t="inlineStr">
@@ -43187,7 +43187,7 @@
       </c>
       <c r="J502" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Denmark', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="K502" t="inlineStr">
@@ -43275,7 +43275,7 @@
       </c>
       <c r="J503" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Denmark', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="K503" t="inlineStr">
@@ -43301,18 +43301,18 @@
       </c>
       <c r="P503" t="inlineStr"/>
       <c r="Q503" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R503" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Denmark']</t>
+          <t>['Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="S503" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T503" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U503" t="n">
         <v>1744</v>
@@ -43363,7 +43363,7 @@
       </c>
       <c r="J504" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Denmark', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="K504" t="inlineStr">
@@ -43389,18 +43389,18 @@
       </c>
       <c r="P504" t="inlineStr"/>
       <c r="Q504" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R504" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Denmark']</t>
+          <t>['Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="S504" t="n">
         <v>0</v>
       </c>
       <c r="T504" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U504" t="n">
         <v>1744</v>
@@ -43451,7 +43451,7 @@
       </c>
       <c r="J505" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Denmark', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="K505" t="inlineStr">
@@ -43477,18 +43477,18 @@
       </c>
       <c r="P505" t="inlineStr"/>
       <c r="Q505" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R505" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Denmark']</t>
+          <t>['Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="S505" t="n">
         <v>0</v>
       </c>
       <c r="T505" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U505" t="n">
         <v>1744</v>
@@ -43539,7 +43539,7 @@
       </c>
       <c r="J506" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Denmark', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="K506" t="inlineStr">
@@ -43565,18 +43565,18 @@
       </c>
       <c r="P506" t="inlineStr"/>
       <c r="Q506" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R506" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Denmark']</t>
+          <t>['Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="S506" t="n">
         <v>0</v>
       </c>
       <c r="T506" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U506" t="n">
         <v>1744</v>
@@ -43627,7 +43627,7 @@
       </c>
       <c r="J507" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Denmark', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="K507" t="inlineStr">
@@ -43661,10 +43661,10 @@
         </is>
       </c>
       <c r="S507" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T507" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U507" t="n">
         <v>1744</v>
@@ -43715,7 +43715,7 @@
       </c>
       <c r="J508" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Denmark', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="K508" t="inlineStr">
@@ -43752,7 +43752,7 @@
         <v>0</v>
       </c>
       <c r="T508" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U508" t="n">
         <v>1744</v>
@@ -43803,7 +43803,7 @@
       </c>
       <c r="J509" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Denmark', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="K509" t="inlineStr">
@@ -43840,7 +43840,7 @@
         <v>0</v>
       </c>
       <c r="T509" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U509" t="n">
         <v>1744</v>
@@ -43891,7 +43891,7 @@
       </c>
       <c r="J510" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Denmark', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="K510" t="inlineStr">
@@ -43928,7 +43928,7 @@
         <v>0</v>
       </c>
       <c r="T510" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U510" t="n">
         <v>1744</v>
@@ -43979,7 +43979,7 @@
       </c>
       <c r="J511" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Russia']</t>
+          <t>['Denmark', 'Belgium', 'Russia']</t>
         </is>
       </c>
       <c r="K511" t="inlineStr">
@@ -44016,7 +44016,7 @@
         <v>1</v>
       </c>
       <c r="T511" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U511" t="n">
         <v>1684</v>
@@ -44067,7 +44067,7 @@
       </c>
       <c r="J512" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Russia']</t>
+          <t>['Denmark', 'Belgium', 'Russia']</t>
         </is>
       </c>
       <c r="K512" t="inlineStr">
@@ -44104,7 +44104,7 @@
         <v>0</v>
       </c>
       <c r="T512" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U512" t="n">
         <v>1684</v>
@@ -44155,7 +44155,7 @@
       </c>
       <c r="J513" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Russia']</t>
+          <t>['Denmark', 'Belgium', 'Russia']</t>
         </is>
       </c>
       <c r="K513" t="inlineStr">
@@ -44192,7 +44192,7 @@
         <v>0</v>
       </c>
       <c r="T513" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U513" t="n">
         <v>1684</v>
@@ -44243,7 +44243,7 @@
       </c>
       <c r="J514" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Russia']</t>
+          <t>['Denmark', 'Belgium', 'Russia']</t>
         </is>
       </c>
       <c r="K514" t="inlineStr">
@@ -44280,7 +44280,7 @@
         <v>0</v>
       </c>
       <c r="T514" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U514" t="n">
         <v>1684</v>
@@ -44331,7 +44331,7 @@
       </c>
       <c r="J515" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Denmark', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="K515" t="inlineStr">
@@ -44368,7 +44368,7 @@
         <v>0</v>
       </c>
       <c r="T515" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U515" t="n">
         <v>1744</v>
@@ -44419,7 +44419,7 @@
       </c>
       <c r="J516" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Denmark', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="K516" t="inlineStr">
@@ -44456,7 +44456,7 @@
         <v>0</v>
       </c>
       <c r="T516" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U516" t="n">
         <v>1744</v>
@@ -44507,7 +44507,7 @@
       </c>
       <c r="J517" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Denmark', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="K517" t="inlineStr">
@@ -44544,7 +44544,7 @@
         <v>0</v>
       </c>
       <c r="T517" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U517" t="n">
         <v>1744</v>
@@ -44595,7 +44595,7 @@
       </c>
       <c r="J518" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Denmark', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="K518" t="inlineStr">
@@ -44632,7 +44632,7 @@
         <v>0</v>
       </c>
       <c r="T518" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U518" t="n">
         <v>1744</v>
@@ -44683,7 +44683,7 @@
       </c>
       <c r="J519" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Denmark', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="K519" t="inlineStr">
@@ -44720,7 +44720,7 @@
         <v>0</v>
       </c>
       <c r="T519" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U519" t="n">
         <v>1684</v>
@@ -44771,7 +44771,7 @@
       </c>
       <c r="J520" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Denmark', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="K520" t="inlineStr">
@@ -44808,7 +44808,7 @@
         <v>0</v>
       </c>
       <c r="T520" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U520" t="n">
         <v>1684</v>
@@ -44859,7 +44859,7 @@
       </c>
       <c r="J521" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Denmark', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="K521" t="inlineStr">
@@ -44896,7 +44896,7 @@
         <v>0</v>
       </c>
       <c r="T521" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U521" t="n">
         <v>1684</v>
@@ -44947,7 +44947,7 @@
       </c>
       <c r="J522" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Denmark', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="K522" t="inlineStr">
@@ -44984,7 +44984,7 @@
         <v>0</v>
       </c>
       <c r="T522" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U522" t="n">
         <v>1684</v>
@@ -45035,7 +45035,7 @@
       </c>
       <c r="J523" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Denmark', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="K523" t="inlineStr">
@@ -45072,7 +45072,7 @@
         <v>0</v>
       </c>
       <c r="T523" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U523" t="n">
         <v>1744</v>
@@ -45123,7 +45123,7 @@
       </c>
       <c r="J524" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Denmark', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="K524" t="inlineStr">
@@ -45160,7 +45160,7 @@
         <v>0</v>
       </c>
       <c r="T524" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U524" t="n">
         <v>1744</v>
@@ -45211,7 +45211,7 @@
       </c>
       <c r="J525" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Denmark', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="K525" t="inlineStr">
@@ -45248,7 +45248,7 @@
         <v>0</v>
       </c>
       <c r="T525" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U525" t="n">
         <v>1744</v>
@@ -45299,7 +45299,7 @@
       </c>
       <c r="J526" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Denmark', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="K526" t="inlineStr">
@@ -45336,7 +45336,7 @@
         <v>0</v>
       </c>
       <c r="T526" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U526" t="n">
         <v>1744</v>
@@ -45373,7 +45373,7 @@
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="K527" t="inlineStr">
@@ -45453,7 +45453,7 @@
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="K528" t="inlineStr">
@@ -45527,7 +45527,7 @@
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="K529" t="inlineStr">
@@ -45607,7 +45607,7 @@
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="K530" t="inlineStr">
@@ -45681,7 +45681,7 @@
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="K531" t="inlineStr">
@@ -45761,7 +45761,7 @@
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="K532" t="inlineStr">
@@ -45845,7 +45845,7 @@
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="K533" t="inlineStr">
@@ -45929,7 +45929,7 @@
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="K534" t="inlineStr">
@@ -46013,7 +46013,7 @@
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="K535" t="inlineStr">
@@ -46101,7 +46101,7 @@
       </c>
       <c r="J536" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="K536" t="inlineStr">
@@ -46189,7 +46189,7 @@
       </c>
       <c r="J537" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="K537" t="inlineStr">
@@ -46277,7 +46277,7 @@
       </c>
       <c r="J538" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="K538" t="inlineStr">
@@ -46365,7 +46365,7 @@
       </c>
       <c r="J539" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="K539" t="inlineStr">
@@ -46453,7 +46453,7 @@
       </c>
       <c r="J540" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="K540" t="inlineStr">
@@ -46541,7 +46541,7 @@
       </c>
       <c r="J541" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="K541" t="inlineStr">
@@ -46629,7 +46629,7 @@
       </c>
       <c r="J542" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="K542" t="inlineStr">
@@ -46717,7 +46717,7 @@
       </c>
       <c r="J543" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="K543" t="inlineStr">
@@ -46805,7 +46805,7 @@
       </c>
       <c r="J544" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="K544" t="inlineStr">
@@ -46893,7 +46893,7 @@
       </c>
       <c r="J545" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="K545" t="inlineStr">
@@ -46981,7 +46981,7 @@
       </c>
       <c r="J546" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="K546" t="inlineStr">
@@ -47069,7 +47069,7 @@
       </c>
       <c r="J547" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="K547" t="inlineStr">
@@ -47143,7 +47143,7 @@
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['England', 'Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K548" t="inlineStr">
@@ -47223,7 +47223,7 @@
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['England', 'Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K549" t="inlineStr">
@@ -47297,7 +47297,7 @@
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['England', 'Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K550" t="inlineStr">
@@ -47377,7 +47377,7 @@
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['England', 'Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K551" t="inlineStr">
@@ -47465,7 +47465,7 @@
       </c>
       <c r="J552" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Croatia', 'England']</t>
         </is>
       </c>
       <c r="K552" t="inlineStr">
@@ -47553,7 +47553,7 @@
       </c>
       <c r="J553" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Croatia', 'England']</t>
         </is>
       </c>
       <c r="K553" t="inlineStr">
@@ -47641,7 +47641,7 @@
       </c>
       <c r="J554" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Croatia', 'England']</t>
         </is>
       </c>
       <c r="K554" t="inlineStr">
@@ -47667,18 +47667,18 @@
       </c>
       <c r="P554" t="inlineStr"/>
       <c r="Q554" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R554" t="inlineStr">
         <is>
-          <t>['England', 'Czech Republic', 'Croatia']</t>
+          <t>['England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="S554" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T554" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U554" t="n">
         <v>1825</v>
@@ -47729,7 +47729,7 @@
       </c>
       <c r="J555" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Croatia', 'England']</t>
         </is>
       </c>
       <c r="K555" t="inlineStr">
@@ -47755,18 +47755,18 @@
       </c>
       <c r="P555" t="inlineStr"/>
       <c r="Q555" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R555" t="inlineStr">
         <is>
-          <t>['England', 'Czech Republic', 'Croatia']</t>
+          <t>['England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="S555" t="n">
         <v>0</v>
       </c>
       <c r="T555" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U555" t="n">
         <v>1825</v>
@@ -47817,7 +47817,7 @@
       </c>
       <c r="J556" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Croatia', 'England']</t>
         </is>
       </c>
       <c r="K556" t="inlineStr">
@@ -47851,10 +47851,10 @@
         </is>
       </c>
       <c r="S556" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U556" t="n">
         <v>1825</v>
@@ -47905,7 +47905,7 @@
       </c>
       <c r="J557" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Croatia', 'England']</t>
         </is>
       </c>
       <c r="K557" t="inlineStr">
@@ -47942,7 +47942,7 @@
         <v>0</v>
       </c>
       <c r="T557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U557" t="n">
         <v>1825</v>
@@ -47993,7 +47993,7 @@
       </c>
       <c r="J558" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Croatia', 'England']</t>
         </is>
       </c>
       <c r="K558" t="inlineStr">
@@ -48019,18 +48019,18 @@
       </c>
       <c r="P558" t="inlineStr"/>
       <c r="Q558" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R558" t="inlineStr">
         <is>
-          <t>['England', 'Czech Republic', 'Croatia']</t>
+          <t>['England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="S558" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T558" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U558" t="n">
         <v>1825</v>
@@ -48081,7 +48081,7 @@
       </c>
       <c r="J559" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Croatia', 'England']</t>
         </is>
       </c>
       <c r="K559" t="inlineStr">
@@ -48107,18 +48107,18 @@
       </c>
       <c r="P559" t="inlineStr"/>
       <c r="Q559" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R559" t="inlineStr">
         <is>
-          <t>['England', 'Czech Republic', 'Croatia']</t>
+          <t>['England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="S559" t="n">
         <v>0</v>
       </c>
       <c r="T559" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U559" t="n">
         <v>1825</v>
@@ -48169,7 +48169,7 @@
       </c>
       <c r="J560" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['Croatia', 'Czech Republic', 'England']</t>
         </is>
       </c>
       <c r="K560" t="inlineStr">
@@ -48195,18 +48195,18 @@
       </c>
       <c r="P560" t="inlineStr"/>
       <c r="Q560" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R560" t="inlineStr">
         <is>
-          <t>['England', 'Croatia', 'Czech Republic']</t>
+          <t>['England', 'Croatia']</t>
         </is>
       </c>
       <c r="S560" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T560" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U560" t="n">
         <v>1825</v>
@@ -48257,7 +48257,7 @@
       </c>
       <c r="J561" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['Croatia', 'Czech Republic', 'England']</t>
         </is>
       </c>
       <c r="K561" t="inlineStr">
@@ -48283,18 +48283,18 @@
       </c>
       <c r="P561" t="inlineStr"/>
       <c r="Q561" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R561" t="inlineStr">
         <is>
-          <t>['England', 'Croatia', 'Czech Republic']</t>
+          <t>['England', 'Croatia']</t>
         </is>
       </c>
       <c r="S561" t="n">
         <v>0</v>
       </c>
       <c r="T561" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U561" t="n">
         <v>1825</v>
@@ -48331,7 +48331,7 @@
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K562" t="inlineStr">
@@ -48411,7 +48411,7 @@
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K563" t="inlineStr">
@@ -48485,7 +48485,7 @@
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K564" t="inlineStr">
@@ -48565,7 +48565,7 @@
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K565" t="inlineStr">
@@ -48639,7 +48639,7 @@
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K566" t="inlineStr">
@@ -48719,7 +48719,7 @@
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K567" t="inlineStr">
@@ -48793,7 +48793,7 @@
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K568" t="inlineStr">
@@ -48873,7 +48873,7 @@
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K569" t="inlineStr">
@@ -48961,7 +48961,7 @@
       </c>
       <c r="J570" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K570" t="inlineStr">
@@ -48987,18 +48987,18 @@
       </c>
       <c r="P570" t="inlineStr"/>
       <c r="Q570" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R570" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="S570" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T570" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U570" t="n">
         <v>1850</v>
@@ -49049,7 +49049,7 @@
       </c>
       <c r="J571" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K571" t="inlineStr">
@@ -49075,18 +49075,18 @@
       </c>
       <c r="P571" t="inlineStr"/>
       <c r="Q571" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R571" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="S571" t="n">
         <v>0</v>
       </c>
       <c r="T571" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U571" t="n">
         <v>1850</v>
@@ -49137,7 +49137,7 @@
       </c>
       <c r="J572" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K572" t="inlineStr">
@@ -49163,18 +49163,18 @@
       </c>
       <c r="P572" t="inlineStr"/>
       <c r="Q572" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R572" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="S572" t="n">
         <v>0</v>
       </c>
       <c r="T572" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U572" t="n">
         <v>1850</v>
@@ -49225,7 +49225,7 @@
       </c>
       <c r="J573" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K573" t="inlineStr">
@@ -49251,18 +49251,18 @@
       </c>
       <c r="P573" t="inlineStr"/>
       <c r="Q573" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R573" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="S573" t="n">
         <v>0</v>
       </c>
       <c r="T573" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U573" t="n">
         <v>1850</v>
@@ -49350,7 +49350,7 @@
         <v>1</v>
       </c>
       <c r="T574" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U574" t="n">
         <v>1656</v>
@@ -49438,7 +49438,7 @@
         <v>0</v>
       </c>
       <c r="T575" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U575" t="n">
         <v>1656</v>
@@ -49526,7 +49526,7 @@
         <v>0</v>
       </c>
       <c r="T576" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U576" t="n">
         <v>1656</v>
@@ -49614,7 +49614,7 @@
         <v>0</v>
       </c>
       <c r="T577" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U577" t="n">
         <v>1656</v>
@@ -49702,7 +49702,7 @@
         <v>0</v>
       </c>
       <c r="T578" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U578" t="n">
         <v>1656</v>
@@ -49790,7 +49790,7 @@
         <v>0</v>
       </c>
       <c r="T579" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U579" t="n">
         <v>1656</v>
@@ -49878,7 +49878,7 @@
         <v>0</v>
       </c>
       <c r="T580" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U580" t="n">
         <v>1656</v>
@@ -49966,7 +49966,7 @@
         <v>0</v>
       </c>
       <c r="T581" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U581" t="n">
         <v>1656</v>
@@ -50054,7 +50054,7 @@
         <v>0</v>
       </c>
       <c r="T582" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U582" t="n">
         <v>1656</v>
@@ -50142,7 +50142,7 @@
         <v>0</v>
       </c>
       <c r="T583" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U583" t="n">
         <v>1656</v>
@@ -50230,7 +50230,7 @@
         <v>0</v>
       </c>
       <c r="T584" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U584" t="n">
         <v>1656</v>
@@ -50318,7 +50318,7 @@
         <v>0</v>
       </c>
       <c r="T585" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U585" t="n">
         <v>1656</v>
@@ -50406,7 +50406,7 @@
         <v>0</v>
       </c>
       <c r="T586" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U586" t="n">
         <v>1850</v>
@@ -50494,7 +50494,7 @@
         <v>0</v>
       </c>
       <c r="T587" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U587" t="n">
         <v>1850</v>
@@ -50582,7 +50582,7 @@
         <v>0</v>
       </c>
       <c r="T588" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U588" t="n">
         <v>1850</v>
@@ -50670,7 +50670,7 @@
         <v>0</v>
       </c>
       <c r="T589" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U589" t="n">
         <v>1850</v>
@@ -50758,7 +50758,7 @@
         <v>0</v>
       </c>
       <c r="T590" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U590" t="n">
         <v>1850</v>
@@ -50846,7 +50846,7 @@
         <v>0</v>
       </c>
       <c r="T591" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U591" t="n">
         <v>1850</v>
@@ -50934,7 +50934,7 @@
         <v>0</v>
       </c>
       <c r="T592" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U592" t="n">
         <v>1850</v>
@@ -51022,7 +51022,7 @@
         <v>0</v>
       </c>
       <c r="T593" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U593" t="n">
         <v>1850</v>
@@ -51110,7 +51110,7 @@
         <v>0</v>
       </c>
       <c r="T594" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U594" t="n">
         <v>1656</v>
@@ -51198,7 +51198,7 @@
         <v>0</v>
       </c>
       <c r="T595" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U595" t="n">
         <v>1656</v>
@@ -51286,7 +51286,7 @@
         <v>0</v>
       </c>
       <c r="T596" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U596" t="n">
         <v>1656</v>
@@ -51374,7 +51374,7 @@
         <v>0</v>
       </c>
       <c r="T597" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U597" t="n">
         <v>1656</v>
@@ -51462,7 +51462,7 @@
         <v>0</v>
       </c>
       <c r="T598" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U598" t="n">
         <v>1656</v>
@@ -51550,7 +51550,7 @@
         <v>0</v>
       </c>
       <c r="T599" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U599" t="n">
         <v>1656</v>
@@ -51638,7 +51638,7 @@
         <v>0</v>
       </c>
       <c r="T600" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U600" t="n">
         <v>1656</v>
@@ -51726,7 +51726,7 @@
         <v>0</v>
       </c>
       <c r="T601" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U601" t="n">
         <v>1656</v>
@@ -51777,7 +51777,7 @@
       </c>
       <c r="J602" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K602" t="inlineStr">
@@ -51814,7 +51814,7 @@
         <v>0</v>
       </c>
       <c r="T602" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U602" t="n">
         <v>1850</v>
@@ -51865,7 +51865,7 @@
       </c>
       <c r="J603" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K603" t="inlineStr">
@@ -51902,7 +51902,7 @@
         <v>0</v>
       </c>
       <c r="T603" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U603" t="n">
         <v>1850</v>
@@ -51953,7 +51953,7 @@
       </c>
       <c r="J604" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K604" t="inlineStr">
@@ -51990,7 +51990,7 @@
         <v>0</v>
       </c>
       <c r="T604" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U604" t="n">
         <v>1850</v>
@@ -52041,7 +52041,7 @@
       </c>
       <c r="J605" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K605" t="inlineStr">
@@ -52078,7 +52078,7 @@
         <v>0</v>
       </c>
       <c r="T605" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U605" t="n">
         <v>1850</v>
@@ -52166,7 +52166,7 @@
         <v>0</v>
       </c>
       <c r="T606" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U606" t="n">
         <v>1850</v>
@@ -52254,7 +52254,7 @@
         <v>0</v>
       </c>
       <c r="T607" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U607" t="n">
         <v>1850</v>
@@ -52342,7 +52342,7 @@
         <v>0</v>
       </c>
       <c r="T608" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U608" t="n">
         <v>1850</v>
@@ -52430,7 +52430,7 @@
         <v>0</v>
       </c>
       <c r="T609" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U609" t="n">
         <v>1850</v>
@@ -52467,7 +52467,7 @@
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany', 'France']</t>
+          <t>['France', 'Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="K610" t="inlineStr">
@@ -52537,7 +52537,7 @@
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany', 'France']</t>
+          <t>['France', 'Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="K611" t="inlineStr">
@@ -52621,7 +52621,7 @@
       </c>
       <c r="J612" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['France', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K612" t="inlineStr">
@@ -52647,11 +52647,11 @@
       </c>
       <c r="P612" t="inlineStr"/>
       <c r="Q612" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R612" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Hungary']</t>
+          <t>['France', 'Portugal']</t>
         </is>
       </c>
       <c r="S612" t="n">
@@ -52709,7 +52709,7 @@
       </c>
       <c r="J613" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['France', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K613" t="inlineStr">
@@ -52735,11 +52735,11 @@
       </c>
       <c r="P613" t="inlineStr"/>
       <c r="Q613" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R613" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Hungary']</t>
+          <t>['France', 'Portugal']</t>
         </is>
       </c>
       <c r="S613" t="n">
@@ -52797,7 +52797,7 @@
       </c>
       <c r="J614" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['France', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K614" t="inlineStr">
@@ -52823,11 +52823,11 @@
       </c>
       <c r="P614" t="inlineStr"/>
       <c r="Q614" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R614" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['Portugal', 'France']</t>
         </is>
       </c>
       <c r="S614" t="n">
@@ -52885,7 +52885,7 @@
       </c>
       <c r="J615" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['France', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K615" t="inlineStr">
@@ -52911,11 +52911,11 @@
       </c>
       <c r="P615" t="inlineStr"/>
       <c r="Q615" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R615" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['Portugal', 'France']</t>
         </is>
       </c>
       <c r="S615" t="n">
@@ -52973,7 +52973,7 @@
       </c>
       <c r="J616" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['France', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K616" t="inlineStr">
@@ -53007,10 +53007,10 @@
         </is>
       </c>
       <c r="S616" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T616" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U616" t="n">
         <v>2040</v>
@@ -53061,7 +53061,7 @@
       </c>
       <c r="J617" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['France', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K617" t="inlineStr">
@@ -53087,18 +53087,18 @@
       </c>
       <c r="P617" t="inlineStr"/>
       <c r="Q617" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R617" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Portugal']</t>
+          <t>['France', 'Hungary']</t>
         </is>
       </c>
       <c r="S617" t="n">
         <v>1</v>
       </c>
       <c r="T617" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U617" t="n">
         <v>2040</v>
@@ -53149,7 +53149,7 @@
       </c>
       <c r="J618" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['France', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K618" t="inlineStr">
@@ -53186,7 +53186,7 @@
         <v>1</v>
       </c>
       <c r="T618" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U618" t="n">
         <v>2040</v>
@@ -53237,7 +53237,7 @@
       </c>
       <c r="J619" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['France', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K619" t="inlineStr">
@@ -53263,18 +53263,18 @@
       </c>
       <c r="P619" t="inlineStr"/>
       <c r="Q619" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R619" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Portugal']</t>
+          <t>['France', 'Hungary']</t>
         </is>
       </c>
       <c r="S619" t="n">
         <v>1</v>
       </c>
       <c r="T619" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U619" t="n">
         <v>2040</v>
@@ -53325,7 +53325,7 @@
       </c>
       <c r="J620" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['France', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K620" t="inlineStr">
@@ -53351,15 +53351,15 @@
       </c>
       <c r="P620" t="inlineStr"/>
       <c r="Q620" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R620" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Hungary']</t>
+          <t>['France', 'Portugal']</t>
         </is>
       </c>
       <c r="S620" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T620" t="n">
         <v>5</v>
@@ -53413,7 +53413,7 @@
       </c>
       <c r="J621" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['France', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K621" t="inlineStr">
@@ -53439,11 +53439,11 @@
       </c>
       <c r="P621" t="inlineStr"/>
       <c r="Q621" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R621" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Hungary']</t>
+          <t>['France', 'Portugal']</t>
         </is>
       </c>
       <c r="S621" t="n">
@@ -53501,7 +53501,7 @@
       </c>
       <c r="J622" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany', 'France']</t>
+          <t>['France', 'Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="K622" t="inlineStr">
@@ -53527,18 +53527,18 @@
       </c>
       <c r="P622" t="inlineStr"/>
       <c r="Q622" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R622" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Germany']</t>
+          <t>['France', 'Portugal']</t>
         </is>
       </c>
       <c r="S622" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T622" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U622" t="n">
         <v>1936</v>
@@ -53589,7 +53589,7 @@
       </c>
       <c r="J623" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany', 'France']</t>
+          <t>['France', 'Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="K623" t="inlineStr">
@@ -53615,18 +53615,18 @@
       </c>
       <c r="P623" t="inlineStr"/>
       <c r="Q623" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R623" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Germany']</t>
+          <t>['France', 'Portugal']</t>
         </is>
       </c>
       <c r="S623" t="n">
         <v>0</v>
       </c>
       <c r="T623" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U623" t="n">
         <v>1936</v>
@@ -53677,7 +53677,7 @@
       </c>
       <c r="J624" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['France', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K624" t="inlineStr">
@@ -53703,18 +53703,18 @@
       </c>
       <c r="P624" t="inlineStr"/>
       <c r="Q624" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R624" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Hungary']</t>
+          <t>['France', 'Portugal']</t>
         </is>
       </c>
       <c r="S624" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T624" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U624" t="n">
         <v>1936</v>
@@ -53765,7 +53765,7 @@
       </c>
       <c r="J625" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['France', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K625" t="inlineStr">
@@ -53791,18 +53791,18 @@
       </c>
       <c r="P625" t="inlineStr"/>
       <c r="Q625" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R625" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Hungary']</t>
+          <t>['France', 'Portugal']</t>
         </is>
       </c>
       <c r="S625" t="n">
         <v>0</v>
       </c>
       <c r="T625" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U625" t="n">
         <v>1936</v>
@@ -53853,7 +53853,7 @@
       </c>
       <c r="J626" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany', 'France']</t>
+          <t>['France', 'Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="K626" t="inlineStr">
@@ -53879,18 +53879,18 @@
       </c>
       <c r="P626" t="inlineStr"/>
       <c r="Q626" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R626" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Germany']</t>
+          <t>['France', 'Portugal']</t>
         </is>
       </c>
       <c r="S626" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T626" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="U626" t="n">
         <v>1936</v>
@@ -53941,7 +53941,7 @@
       </c>
       <c r="J627" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany', 'France']</t>
+          <t>['France', 'Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="K627" t="inlineStr">
@@ -53967,18 +53967,18 @@
       </c>
       <c r="P627" t="inlineStr"/>
       <c r="Q627" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R627" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Germany']</t>
+          <t>['France', 'Portugal']</t>
         </is>
       </c>
       <c r="S627" t="n">
         <v>0</v>
       </c>
       <c r="T627" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="U627" t="n">
         <v>1936</v>
@@ -54015,7 +54015,7 @@
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Scotland']</t>
+          <t>['Switzerland', 'Scotland', 'Germany']</t>
         </is>
       </c>
       <c r="K628" t="inlineStr">
@@ -54095,7 +54095,7 @@
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Scotland']</t>
+          <t>['Switzerland', 'Scotland', 'Germany']</t>
         </is>
       </c>
       <c r="K629" t="inlineStr">
@@ -54169,7 +54169,7 @@
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Scotland']</t>
+          <t>['Switzerland', 'Scotland', 'Germany']</t>
         </is>
       </c>
       <c r="K630" t="inlineStr">
@@ -54249,7 +54249,7 @@
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Scotland']</t>
+          <t>['Switzerland', 'Scotland', 'Germany']</t>
         </is>
       </c>
       <c r="K631" t="inlineStr">
@@ -54337,7 +54337,7 @@
       </c>
       <c r="J632" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Scotland']</t>
+          <t>['Switzerland', 'Scotland', 'Germany']</t>
         </is>
       </c>
       <c r="K632" t="inlineStr">
@@ -54425,7 +54425,7 @@
       </c>
       <c r="J633" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Scotland']</t>
+          <t>['Switzerland', 'Scotland', 'Germany']</t>
         </is>
       </c>
       <c r="K633" t="inlineStr">
@@ -54513,7 +54513,7 @@
       </c>
       <c r="J634" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Scotland']</t>
+          <t>['Switzerland', 'Scotland', 'Germany']</t>
         </is>
       </c>
       <c r="K634" t="inlineStr">
@@ -54601,7 +54601,7 @@
       </c>
       <c r="J635" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Scotland']</t>
+          <t>['Switzerland', 'Scotland', 'Germany']</t>
         </is>
       </c>
       <c r="K635" t="inlineStr">
@@ -54851,7 +54851,7 @@
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain', 'Albania']</t>
+          <t>['Italy', 'Albania', 'Spain']</t>
         </is>
       </c>
       <c r="K638" t="inlineStr">
@@ -54931,7 +54931,7 @@
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain', 'Albania']</t>
+          <t>['Italy', 'Albania', 'Spain']</t>
         </is>
       </c>
       <c r="K639" t="inlineStr">
@@ -55005,7 +55005,7 @@
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain', 'Albania']</t>
+          <t>['Italy', 'Albania', 'Spain']</t>
         </is>
       </c>
       <c r="K640" t="inlineStr">
@@ -55085,7 +55085,7 @@
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain', 'Albania']</t>
+          <t>['Italy', 'Albania', 'Spain']</t>
         </is>
       </c>
       <c r="K641" t="inlineStr">
@@ -55925,7 +55925,7 @@
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Austria', 'France']</t>
         </is>
       </c>
       <c r="K651" t="inlineStr">
@@ -55995,7 +55995,7 @@
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Austria', 'France']</t>
         </is>
       </c>
       <c r="K652" t="inlineStr">
@@ -56079,7 +56079,7 @@
       </c>
       <c r="J653" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Austria', 'France']</t>
         </is>
       </c>
       <c r="K653" t="inlineStr">
@@ -56167,7 +56167,7 @@
       </c>
       <c r="J654" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Austria', 'France']</t>
         </is>
       </c>
       <c r="K654" t="inlineStr">
@@ -56255,7 +56255,7 @@
       </c>
       <c r="J655" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Austria', 'France']</t>
         </is>
       </c>
       <c r="K655" t="inlineStr">
@@ -56343,7 +56343,7 @@
       </c>
       <c r="J656" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Austria', 'France']</t>
         </is>
       </c>
       <c r="K656" t="inlineStr">
@@ -56431,7 +56431,7 @@
       </c>
       <c r="J657" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Austria', 'France']</t>
         </is>
       </c>
       <c r="K657" t="inlineStr">
@@ -56519,7 +56519,7 @@
       </c>
       <c r="J658" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Austria', 'France']</t>
         </is>
       </c>
       <c r="K658" t="inlineStr">
@@ -56607,7 +56607,7 @@
       </c>
       <c r="J659" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Austria', 'France']</t>
         </is>
       </c>
       <c r="K659" t="inlineStr">
@@ -56695,7 +56695,7 @@
       </c>
       <c r="J660" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Austria', 'France']</t>
         </is>
       </c>
       <c r="K660" t="inlineStr">
@@ -56783,7 +56783,7 @@
       </c>
       <c r="J661" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Austria', 'France']</t>
         </is>
       </c>
       <c r="K661" t="inlineStr">
@@ -56871,7 +56871,7 @@
       </c>
       <c r="J662" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Austria', 'France']</t>
         </is>
       </c>
       <c r="K662" t="inlineStr">
@@ -56959,7 +56959,7 @@
       </c>
       <c r="J663" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Austria', 'France']</t>
         </is>
       </c>
       <c r="K663" t="inlineStr">
@@ -57047,7 +57047,7 @@
       </c>
       <c r="J664" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Austria', 'France']</t>
         </is>
       </c>
       <c r="K664" t="inlineStr">
@@ -57135,7 +57135,7 @@
       </c>
       <c r="J665" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Austria', 'France']</t>
         </is>
       </c>
       <c r="K665" t="inlineStr">
@@ -57223,7 +57223,7 @@
       </c>
       <c r="J666" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Austria', 'France']</t>
         </is>
       </c>
       <c r="K666" t="inlineStr">
@@ -57297,7 +57297,7 @@
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr">
         <is>
-          <t>['Belgium', 'Romania', 'Slovakia']</t>
+          <t>['Slovakia', 'Romania', 'Belgium']</t>
         </is>
       </c>
       <c r="K667" t="inlineStr">
@@ -57377,7 +57377,7 @@
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr">
         <is>
-          <t>['Belgium', 'Romania', 'Slovakia']</t>
+          <t>['Slovakia', 'Romania', 'Belgium']</t>
         </is>
       </c>
       <c r="K668" t="inlineStr">
@@ -57465,7 +57465,7 @@
       </c>
       <c r="J669" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Belgium', 'Slovakia']</t>
+          <t>['Belgium', 'Slovakia', 'Ukraine']</t>
         </is>
       </c>
       <c r="K669" t="inlineStr">
@@ -57553,7 +57553,7 @@
       </c>
       <c r="J670" t="inlineStr">
         <is>
-          <t>['Belgium', 'Romania', 'Slovakia']</t>
+          <t>['Slovakia', 'Romania', 'Belgium']</t>
         </is>
       </c>
       <c r="K670" t="inlineStr">
@@ -57627,7 +57627,7 @@
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Czech Republic']</t>
+          <t>['Turkey', 'Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K671" t="inlineStr">
@@ -57707,7 +57707,7 @@
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Czech Republic']</t>
+          <t>['Turkey', 'Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K672" t="inlineStr">
@@ -57781,7 +57781,7 @@
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Czech Republic']</t>
+          <t>['Turkey', 'Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K673" t="inlineStr">
@@ -57861,7 +57861,7 @@
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Czech Republic']</t>
+          <t>['Turkey', 'Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K674" t="inlineStr">
@@ -57949,7 +57949,7 @@
       </c>
       <c r="J675" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Turkey', 'Georgia', 'Portugal']</t>
         </is>
       </c>
       <c r="K675" t="inlineStr">
@@ -58041,7 +58041,7 @@
       </c>
       <c r="J676" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Turkey', 'Georgia', 'Portugal']</t>
         </is>
       </c>
       <c r="K676" t="inlineStr">
@@ -58133,7 +58133,7 @@
       </c>
       <c r="J677" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Turkey', 'Georgia', 'Portugal']</t>
         </is>
       </c>
       <c r="K677" t="inlineStr">
@@ -58221,7 +58221,7 @@
       </c>
       <c r="J678" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Turkey', 'Georgia', 'Portugal']</t>
         </is>
       </c>
       <c r="K678" t="inlineStr">
@@ -58309,7 +58309,7 @@
       </c>
       <c r="J679" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Turkey', 'Georgia', 'Portugal']</t>
         </is>
       </c>
       <c r="K679" t="inlineStr">
@@ -58397,7 +58397,7 @@
       </c>
       <c r="J680" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Turkey', 'Georgia', 'Portugal']</t>
         </is>
       </c>
       <c r="K680" t="inlineStr">
@@ -58485,7 +58485,7 @@
       </c>
       <c r="J681" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Turkey', 'Georgia', 'Portugal']</t>
         </is>
       </c>
       <c r="K681" t="inlineStr">
@@ -58577,7 +58577,7 @@
       </c>
       <c r="J682" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Turkey', 'Georgia', 'Portugal']</t>
         </is>
       </c>
       <c r="K682" t="inlineStr">
@@ -58669,7 +58669,7 @@
       </c>
       <c r="J683" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Turkey', 'Georgia', 'Portugal']</t>
         </is>
       </c>
       <c r="K683" t="inlineStr">
@@ -58757,7 +58757,7 @@
       </c>
       <c r="J684" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Turkey', 'Georgia', 'Portugal']</t>
         </is>
       </c>
       <c r="K684" t="inlineStr">

--- a/data/out/wiki/men/fifa/eu/goals_eu_fifa_men.xlsx
+++ b/data/out/wiki/men/fifa/eu/goals_eu_fifa_men.xlsx
@@ -727,7 +727,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -815,7 +815,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1079,7 +1079,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1431,7 +1431,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -2473,7 +2473,7 @@
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['West Germany', 'Spain']</t>
+          <t>['Spain', 'West Germany']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2553,7 +2553,7 @@
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['West Germany', 'Spain']</t>
+          <t>['Spain', 'West Germany']</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2637,7 +2637,7 @@
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>['West Germany', 'Spain']</t>
+          <t>['Spain', 'West Germany']</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2711,7 +2711,7 @@
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['West Germany', 'Spain']</t>
+          <t>['Spain', 'West Germany']</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2791,7 +2791,7 @@
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>['West Germany', 'Spain']</t>
+          <t>['Spain', 'West Germany']</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2875,7 +2875,7 @@
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['West Germany', 'Spain']</t>
+          <t>['Spain', 'West Germany']</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>['West Germany', 'Portugal']</t>
+          <t>['Portugal', 'West Germany']</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -3055,7 +3055,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['West Germany', 'Portugal']</t>
+          <t>['Portugal', 'West Germany']</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -3309,7 +3309,7 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -3389,7 +3389,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -3477,7 +3477,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3555,7 +3555,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3635,7 +3635,7 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3723,7 +3723,7 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3815,7 +3815,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3903,7 +3903,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -4079,7 +4079,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -4167,7 +4167,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -4255,7 +4255,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -4343,7 +4343,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -4431,7 +4431,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -4835,7 +4835,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -4927,7 +4927,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -5019,7 +5019,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -5111,7 +5111,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -5203,7 +5203,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -5295,7 +5295,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -5387,7 +5387,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -5479,7 +5479,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -5571,7 +5571,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Netherlands']</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -5659,7 +5659,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Netherlands']</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -5733,7 +5733,7 @@
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>['France', 'Sweden']</t>
+          <t>['Sweden', 'France']</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -5803,7 +5803,7 @@
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>['France', 'Sweden']</t>
+          <t>['Sweden', 'France']</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -6415,7 +6415,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>['France', 'Sweden']</t>
+          <t>['Sweden', 'France']</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -6503,7 +6503,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>['France', 'Sweden']</t>
+          <t>['Sweden', 'France']</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -6929,7 +6929,7 @@
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -7009,7 +7009,7 @@
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -7087,7 +7087,7 @@
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -7167,7 +7167,7 @@
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -7259,7 +7259,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -7347,7 +7347,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -7435,7 +7435,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -7523,7 +7523,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -7611,7 +7611,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -7699,7 +7699,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -7787,7 +7787,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -7875,7 +7875,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -7963,7 +7963,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -8051,7 +8051,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -8139,7 +8139,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -8227,7 +8227,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -8315,7 +8315,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -8403,7 +8403,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -8477,7 +8477,7 @@
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -8557,7 +8557,7 @@
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -8631,7 +8631,7 @@
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -8711,7 +8711,7 @@
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -8799,7 +8799,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -8887,7 +8887,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -8975,7 +8975,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -9063,7 +9063,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -9151,7 +9151,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -9239,7 +9239,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -9327,7 +9327,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -9415,7 +9415,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -9679,7 +9679,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -9767,7 +9767,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -9841,7 +9841,7 @@
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr">
         <is>
-          <t>['France', 'Bulgaria']</t>
+          <t>['Bulgaria', 'France']</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -9911,7 +9911,7 @@
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr">
         <is>
-          <t>['France', 'Bulgaria']</t>
+          <t>['Bulgaria', 'France']</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -9995,7 +9995,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Spain']</t>
+          <t>['Spain', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -10083,7 +10083,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Spain']</t>
+          <t>['Spain', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -10171,7 +10171,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>['France', 'Spain']</t>
+          <t>['Spain', 'France']</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -10259,7 +10259,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>['France', 'Spain']</t>
+          <t>['Spain', 'France']</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -10347,7 +10347,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>['France', 'Bulgaria']</t>
+          <t>['Bulgaria', 'France']</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -10435,7 +10435,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>['France', 'Bulgaria']</t>
+          <t>['Bulgaria', 'France']</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -10523,7 +10523,7 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>['France', 'Bulgaria']</t>
+          <t>['Bulgaria', 'France']</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -10611,7 +10611,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>['France', 'Bulgaria']</t>
+          <t>['Bulgaria', 'France']</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -10699,7 +10699,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>['France', 'Bulgaria']</t>
+          <t>['Bulgaria', 'France']</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -10787,7 +10787,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>['France', 'Bulgaria']</t>
+          <t>['Bulgaria', 'France']</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -10875,7 +10875,7 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>['France', 'Spain']</t>
+          <t>['Spain', 'France']</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -10963,7 +10963,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>['France', 'Spain']</t>
+          <t>['Spain', 'France']</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -11051,7 +11051,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>['France', 'Spain']</t>
+          <t>['Spain', 'France']</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -11139,7 +11139,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>['France', 'Spain']</t>
+          <t>['Spain', 'France']</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -12601,7 +12601,7 @@
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -12681,7 +12681,7 @@
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -12765,7 +12765,7 @@
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -12839,7 +12839,7 @@
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -12919,7 +12919,7 @@
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -13003,7 +13003,7 @@
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -13091,7 +13091,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -13179,7 +13179,7 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -13267,7 +13267,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -13355,7 +13355,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -13443,7 +13443,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -13531,7 +13531,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -13619,7 +13619,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -13707,7 +13707,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -13795,7 +13795,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -13883,7 +13883,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -13971,7 +13971,7 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -14059,7 +14059,7 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -14133,7 +14133,7 @@
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -14213,7 +14213,7 @@
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -14291,7 +14291,7 @@
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -14371,7 +14371,7 @@
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -14463,7 +14463,7 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>['Romania', 'Portugal']</t>
+          <t>['Portugal', 'Romania']</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -14551,7 +14551,7 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>['Romania', 'Portugal']</t>
+          <t>['Portugal', 'Romania']</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -14639,7 +14639,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>['Romania', 'Portugal']</t>
+          <t>['Portugal', 'Romania']</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -14727,7 +14727,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>['Romania', 'Portugal']</t>
+          <t>['Portugal', 'Romania']</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -14815,7 +14815,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -14907,7 +14907,7 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -14999,7 +14999,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -15087,7 +15087,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -15175,7 +15175,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -15267,7 +15267,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -15359,7 +15359,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -15451,7 +15451,7 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -15543,7 +15543,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -15635,7 +15635,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -15727,7 +15727,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>['Romania', 'Portugal']</t>
+          <t>['Portugal', 'Romania']</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -15815,7 +15815,7 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>['Romania', 'Portugal']</t>
+          <t>['Portugal', 'Romania']</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -15889,7 +15889,7 @@
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium']</t>
+          <t>['Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -15969,7 +15969,7 @@
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium']</t>
+          <t>['Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -16047,7 +16047,7 @@
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium']</t>
+          <t>['Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -16127,7 +16127,7 @@
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium']</t>
+          <t>['Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -16219,7 +16219,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium']</t>
+          <t>['Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -16311,7 +16311,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium']</t>
+          <t>['Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -17093,7 +17093,7 @@
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Spain']</t>
+          <t>['Spain', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -17173,7 +17173,7 @@
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Spain']</t>
+          <t>['Spain', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -17247,7 +17247,7 @@
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Spain']</t>
+          <t>['Spain', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -17327,7 +17327,7 @@
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Spain']</t>
+          <t>['Spain', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -17415,7 +17415,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -17503,7 +17503,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -17591,7 +17591,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Spain']</t>
+          <t>['Spain', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -17679,7 +17679,7 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Spain']</t>
+          <t>['Spain', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -17767,7 +17767,7 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -17855,7 +17855,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -17943,7 +17943,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Spain']</t>
+          <t>['Spain', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -18031,7 +18031,7 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Spain']</t>
+          <t>['Spain', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -18119,7 +18119,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -18207,7 +18207,7 @@
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -18295,7 +18295,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Spain']</t>
+          <t>['Spain', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -18383,7 +18383,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Spain']</t>
+          <t>['Spain', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -18471,7 +18471,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Spain']</t>
+          <t>['Spain', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -18559,7 +18559,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Spain']</t>
+          <t>['Spain', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -18633,7 +18633,7 @@
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -18713,7 +18713,7 @@
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -18787,7 +18787,7 @@
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -18867,7 +18867,7 @@
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -18955,7 +18955,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -19043,7 +19043,7 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -19131,7 +19131,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -19219,7 +19219,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -19307,7 +19307,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -19395,7 +19395,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -19483,7 +19483,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -19571,7 +19571,7 @@
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -19659,7 +19659,7 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -19747,7 +19747,7 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -19835,7 +19835,7 @@
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -19923,7 +19923,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -20011,7 +20011,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -20099,7 +20099,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -25131,7 +25131,7 @@
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
@@ -25219,7 +25219,7 @@
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
@@ -25307,7 +25307,7 @@
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
@@ -25395,7 +25395,7 @@
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
@@ -25483,7 +25483,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -25571,7 +25571,7 @@
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -25659,7 +25659,7 @@
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="K294" t="inlineStr">
@@ -25747,7 +25747,7 @@
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="K295" t="inlineStr">
@@ -25821,7 +25821,7 @@
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K296" t="inlineStr">
@@ -25901,7 +25901,7 @@
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -25975,7 +25975,7 @@
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -26055,7 +26055,7 @@
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -26143,7 +26143,7 @@
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
@@ -26231,7 +26231,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -26319,7 +26319,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -26407,7 +26407,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -26495,7 +26495,7 @@
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K304" t="inlineStr">
@@ -26583,7 +26583,7 @@
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -26671,7 +26671,7 @@
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K306" t="inlineStr">
@@ -26759,7 +26759,7 @@
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -26847,7 +26847,7 @@
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -26935,7 +26935,7 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -27023,7 +27023,7 @@
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -27111,7 +27111,7 @@
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -27199,7 +27199,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal']</t>
+          <t>['Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -27287,7 +27287,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal']</t>
+          <t>['Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -28189,7 +28189,7 @@
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Romania']</t>
+          <t>['Romania', 'Netherlands']</t>
         </is>
       </c>
       <c r="K324" t="inlineStr">
@@ -28269,7 +28269,7 @@
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Romania']</t>
+          <t>['Romania', 'Netherlands']</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
@@ -28353,7 +28353,7 @@
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Romania']</t>
+          <t>['Romania', 'Netherlands']</t>
         </is>
       </c>
       <c r="K326" t="inlineStr">
@@ -28427,7 +28427,7 @@
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Romania']</t>
+          <t>['Romania', 'Netherlands']</t>
         </is>
       </c>
       <c r="K327" t="inlineStr">
@@ -28507,7 +28507,7 @@
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Romania']</t>
+          <t>['Romania', 'Netherlands']</t>
         </is>
       </c>
       <c r="K328" t="inlineStr">
@@ -28591,7 +28591,7 @@
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Romania']</t>
+          <t>['Romania', 'Netherlands']</t>
         </is>
       </c>
       <c r="K329" t="inlineStr">
@@ -28679,7 +28679,7 @@
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="K330" t="inlineStr">
@@ -28767,7 +28767,7 @@
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="K331" t="inlineStr">
@@ -28855,7 +28855,7 @@
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="K332" t="inlineStr">
@@ -28943,7 +28943,7 @@
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="K333" t="inlineStr">
@@ -29031,7 +29031,7 @@
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="K334" t="inlineStr">
@@ -29119,7 +29119,7 @@
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="K335" t="inlineStr">
@@ -29207,7 +29207,7 @@
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="K336" t="inlineStr">
@@ -29295,7 +29295,7 @@
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="K337" t="inlineStr">
@@ -29369,7 +29369,7 @@
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K338" t="inlineStr">
@@ -29449,7 +29449,7 @@
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K339" t="inlineStr">
@@ -29523,7 +29523,7 @@
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K340" t="inlineStr">
@@ -29603,7 +29603,7 @@
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K341" t="inlineStr">
@@ -32589,7 +32589,7 @@
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K376" t="inlineStr">
@@ -32669,7 +32669,7 @@
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K377" t="inlineStr">
@@ -32753,7 +32753,7 @@
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K378" t="inlineStr">
@@ -32827,7 +32827,7 @@
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K379" t="inlineStr">
@@ -32907,7 +32907,7 @@
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K380" t="inlineStr">
@@ -32991,7 +32991,7 @@
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K381" t="inlineStr">
@@ -33079,7 +33079,7 @@
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain']</t>
+          <t>['Spain', 'Italy']</t>
         </is>
       </c>
       <c r="K382" t="inlineStr">
@@ -33167,7 +33167,7 @@
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain']</t>
+          <t>['Spain', 'Italy']</t>
         </is>
       </c>
       <c r="K383" t="inlineStr">
@@ -33255,7 +33255,7 @@
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain']</t>
+          <t>['Spain', 'Italy']</t>
         </is>
       </c>
       <c r="K384" t="inlineStr">
@@ -33343,7 +33343,7 @@
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain']</t>
+          <t>['Spain', 'Italy']</t>
         </is>
       </c>
       <c r="K385" t="inlineStr">
@@ -33431,7 +33431,7 @@
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain']</t>
+          <t>['Spain', 'Italy']</t>
         </is>
       </c>
       <c r="K386" t="inlineStr">
@@ -33519,7 +33519,7 @@
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain']</t>
+          <t>['Spain', 'Italy']</t>
         </is>
       </c>
       <c r="K387" t="inlineStr">
@@ -34597,7 +34597,7 @@
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France', 'Romania']</t>
+          <t>['Romania', 'France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K400" t="inlineStr">
@@ -34677,7 +34677,7 @@
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France', 'Romania']</t>
+          <t>['Romania', 'France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K401" t="inlineStr">
@@ -34761,7 +34761,7 @@
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France', 'Romania']</t>
+          <t>['Romania', 'France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K402" t="inlineStr">
@@ -34849,7 +34849,7 @@
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France', 'Albania']</t>
+          <t>['France', 'Albania', 'Switzerland']</t>
         </is>
       </c>
       <c r="K403" t="inlineStr">
@@ -34875,18 +34875,18 @@
       </c>
       <c r="P403" t="inlineStr"/>
       <c r="Q403" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R403" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['France', 'Switzerland', 'Albania']</t>
         </is>
       </c>
       <c r="S403" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T403" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U403" t="n">
         <v>1759</v>
@@ -34923,7 +34923,7 @@
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr">
         <is>
-          <t>['Wales', 'England', 'Slovakia']</t>
+          <t>['Wales', 'Slovakia', 'England']</t>
         </is>
       </c>
       <c r="K404" t="inlineStr">
@@ -35003,7 +35003,7 @@
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr">
         <is>
-          <t>['Wales', 'England', 'Slovakia']</t>
+          <t>['Wales', 'Slovakia', 'England']</t>
         </is>
       </c>
       <c r="K405" t="inlineStr">
@@ -35091,7 +35091,7 @@
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr">
         <is>
-          <t>['Wales', 'England', 'Slovakia']</t>
+          <t>['Wales', 'Slovakia', 'England']</t>
         </is>
       </c>
       <c r="K406" t="inlineStr">
@@ -35169,7 +35169,7 @@
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr">
         <is>
-          <t>['Wales', 'England', 'Slovakia']</t>
+          <t>['Wales', 'Slovakia', 'England']</t>
         </is>
       </c>
       <c r="K407" t="inlineStr">
@@ -35249,7 +35249,7 @@
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr">
         <is>
-          <t>['Wales', 'England', 'Slovakia']</t>
+          <t>['Wales', 'Slovakia', 'England']</t>
         </is>
       </c>
       <c r="K408" t="inlineStr">
@@ -35337,7 +35337,7 @@
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr">
         <is>
-          <t>['Wales', 'England', 'Slovakia']</t>
+          <t>['Wales', 'Slovakia', 'England']</t>
         </is>
       </c>
       <c r="K409" t="inlineStr">
@@ -35429,7 +35429,7 @@
       </c>
       <c r="J410" t="inlineStr">
         <is>
-          <t>['Wales', 'England', 'Slovakia']</t>
+          <t>['Wales', 'Slovakia', 'England']</t>
         </is>
       </c>
       <c r="K410" t="inlineStr">
@@ -35455,18 +35455,18 @@
       </c>
       <c r="P410" t="inlineStr"/>
       <c r="Q410" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R410" t="inlineStr">
         <is>
-          <t>['Wales', 'England']</t>
+          <t>['Wales', 'England', 'Slovakia']</t>
         </is>
       </c>
       <c r="S410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U410" t="n">
         <v>1760</v>
@@ -35517,7 +35517,7 @@
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>['Wales', 'England', 'Slovakia']</t>
+          <t>['Wales', 'Slovakia', 'England']</t>
         </is>
       </c>
       <c r="K411" t="inlineStr">
@@ -35543,18 +35543,18 @@
       </c>
       <c r="P411" t="inlineStr"/>
       <c r="Q411" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R411" t="inlineStr">
         <is>
-          <t>['Wales', 'England']</t>
+          <t>['Wales', 'England', 'Slovakia']</t>
         </is>
       </c>
       <c r="S411" t="n">
         <v>0</v>
       </c>
       <c r="T411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U411" t="n">
         <v>1760</v>
@@ -35605,7 +35605,7 @@
       </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>['Wales', 'England', 'Slovakia']</t>
+          <t>['Wales', 'Slovakia', 'England']</t>
         </is>
       </c>
       <c r="K412" t="inlineStr">
@@ -35631,18 +35631,18 @@
       </c>
       <c r="P412" t="inlineStr"/>
       <c r="Q412" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R412" t="inlineStr">
         <is>
-          <t>['Wales', 'England']</t>
+          <t>['Wales', 'England', 'Slovakia']</t>
         </is>
       </c>
       <c r="S412" t="n">
         <v>0</v>
       </c>
       <c r="T412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U412" t="n">
         <v>1760</v>
@@ -35693,7 +35693,7 @@
       </c>
       <c r="J413" t="inlineStr">
         <is>
-          <t>['Wales', 'England', 'Slovakia']</t>
+          <t>['Wales', 'Slovakia', 'England']</t>
         </is>
       </c>
       <c r="K413" t="inlineStr">
@@ -35719,18 +35719,18 @@
       </c>
       <c r="P413" t="inlineStr"/>
       <c r="Q413" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R413" t="inlineStr">
         <is>
-          <t>['Wales', 'England']</t>
+          <t>['Wales', 'England', 'Slovakia']</t>
         </is>
       </c>
       <c r="S413" t="n">
         <v>0</v>
       </c>
       <c r="T413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U413" t="n">
         <v>1760</v>
@@ -35781,7 +35781,7 @@
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>['Wales', 'England', 'Slovakia']</t>
+          <t>['Wales', 'Slovakia', 'England']</t>
         </is>
       </c>
       <c r="K414" t="inlineStr">
@@ -35807,18 +35807,18 @@
       </c>
       <c r="P414" t="inlineStr"/>
       <c r="Q414" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R414" t="inlineStr">
         <is>
-          <t>['Wales', 'England']</t>
+          <t>['Wales', 'England', 'Slovakia']</t>
         </is>
       </c>
       <c r="S414" t="n">
         <v>0</v>
       </c>
       <c r="T414" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U414" t="n">
         <v>1760</v>
@@ -35869,7 +35869,7 @@
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>['Wales', 'England', 'Slovakia']</t>
+          <t>['Wales', 'Slovakia', 'England']</t>
         </is>
       </c>
       <c r="K415" t="inlineStr">
@@ -35895,18 +35895,18 @@
       </c>
       <c r="P415" t="inlineStr"/>
       <c r="Q415" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R415" t="inlineStr">
         <is>
-          <t>['Wales', 'England']</t>
+          <t>['Wales', 'England', 'Slovakia']</t>
         </is>
       </c>
       <c r="S415" t="n">
         <v>0</v>
       </c>
       <c r="T415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U415" t="n">
         <v>1760</v>
@@ -36459,18 +36459,18 @@
       </c>
       <c r="P422" t="inlineStr"/>
       <c r="Q422" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R422" t="inlineStr">
         <is>
-          <t>['Germany', 'Poland']</t>
+          <t>['Germany', 'Poland', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="S422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U422" t="n">
         <v>1624</v>
@@ -36547,18 +36547,18 @@
       </c>
       <c r="P423" t="inlineStr"/>
       <c r="Q423" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R423" t="inlineStr">
         <is>
-          <t>['Germany', 'Poland']</t>
+          <t>['Germany', 'Poland', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="S423" t="n">
         <v>0</v>
       </c>
       <c r="T423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U423" t="n">
         <v>1624</v>
@@ -36635,18 +36635,18 @@
       </c>
       <c r="P424" t="inlineStr"/>
       <c r="Q424" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R424" t="inlineStr">
         <is>
-          <t>['Germany', 'Poland']</t>
+          <t>['Germany', 'Poland', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="S424" t="n">
         <v>0</v>
       </c>
       <c r="T424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U424" t="n">
         <v>1837</v>
@@ -36723,18 +36723,18 @@
       </c>
       <c r="P425" t="inlineStr"/>
       <c r="Q425" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R425" t="inlineStr">
         <is>
-          <t>['Germany', 'Poland']</t>
+          <t>['Germany', 'Poland', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="S425" t="n">
         <v>0</v>
       </c>
       <c r="T425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U425" t="n">
         <v>1837</v>
@@ -36771,7 +36771,7 @@
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'Spain']</t>
+          <t>['Czech Republic', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K426" t="inlineStr">
@@ -36851,7 +36851,7 @@
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'Spain']</t>
+          <t>['Czech Republic', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K427" t="inlineStr">
@@ -36925,7 +36925,7 @@
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'Spain']</t>
+          <t>['Czech Republic', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K428" t="inlineStr">
@@ -37005,7 +37005,7 @@
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'Spain']</t>
+          <t>['Czech Republic', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K429" t="inlineStr">
@@ -37093,7 +37093,7 @@
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'Spain']</t>
+          <t>['Czech Republic', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K430" t="inlineStr">
@@ -37181,7 +37181,7 @@
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'Spain']</t>
+          <t>['Czech Republic', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K431" t="inlineStr">
@@ -37269,7 +37269,7 @@
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>['Croatia', 'Turkey', 'Spain']</t>
+          <t>['Spain', 'Croatia', 'Turkey']</t>
         </is>
       </c>
       <c r="K432" t="inlineStr">
@@ -37357,7 +37357,7 @@
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>['Croatia', 'Turkey', 'Spain']</t>
+          <t>['Spain', 'Croatia', 'Turkey']</t>
         </is>
       </c>
       <c r="K433" t="inlineStr">
@@ -37445,7 +37445,7 @@
       </c>
       <c r="J434" t="inlineStr">
         <is>
-          <t>['Croatia', 'Turkey', 'Spain']</t>
+          <t>['Spain', 'Croatia', 'Turkey']</t>
         </is>
       </c>
       <c r="K434" t="inlineStr">
@@ -37533,7 +37533,7 @@
       </c>
       <c r="J435" t="inlineStr">
         <is>
-          <t>['Croatia', 'Turkey', 'Spain']</t>
+          <t>['Spain', 'Croatia', 'Turkey']</t>
         </is>
       </c>
       <c r="K435" t="inlineStr">
@@ -37621,7 +37621,7 @@
       </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>['Croatia', 'Turkey', 'Spain']</t>
+          <t>['Spain', 'Croatia', 'Turkey']</t>
         </is>
       </c>
       <c r="K436" t="inlineStr">
@@ -37647,18 +37647,18 @@
       </c>
       <c r="P436" t="inlineStr"/>
       <c r="Q436" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R436" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Spain', 'Croatia', 'Turkey']</t>
         </is>
       </c>
       <c r="S436" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T436" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U436" t="n">
         <v>1755</v>
@@ -37709,7 +37709,7 @@
       </c>
       <c r="J437" t="inlineStr">
         <is>
-          <t>['Croatia', 'Turkey', 'Spain']</t>
+          <t>['Spain', 'Croatia', 'Turkey']</t>
         </is>
       </c>
       <c r="K437" t="inlineStr">
@@ -37735,18 +37735,18 @@
       </c>
       <c r="P437" t="inlineStr"/>
       <c r="Q437" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R437" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Spain', 'Croatia', 'Turkey']</t>
         </is>
       </c>
       <c r="S437" t="n">
         <v>0</v>
       </c>
       <c r="T437" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U437" t="n">
         <v>1755</v>
@@ -37797,7 +37797,7 @@
       </c>
       <c r="J438" t="inlineStr">
         <is>
-          <t>['Croatia', 'Turkey', 'Spain']</t>
+          <t>['Spain', 'Croatia', 'Turkey']</t>
         </is>
       </c>
       <c r="K438" t="inlineStr">
@@ -37823,18 +37823,18 @@
       </c>
       <c r="P438" t="inlineStr"/>
       <c r="Q438" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R438" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain']</t>
+          <t>['Croatia', 'Spain', 'Turkey']</t>
         </is>
       </c>
       <c r="S438" t="n">
         <v>0</v>
       </c>
       <c r="T438" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U438" t="n">
         <v>1818</v>
@@ -37885,7 +37885,7 @@
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>['Croatia', 'Turkey', 'Spain']</t>
+          <t>['Spain', 'Croatia', 'Turkey']</t>
         </is>
       </c>
       <c r="K439" t="inlineStr">
@@ -37911,18 +37911,18 @@
       </c>
       <c r="P439" t="inlineStr"/>
       <c r="Q439" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R439" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain']</t>
+          <t>['Croatia', 'Spain', 'Turkey']</t>
         </is>
       </c>
       <c r="S439" t="n">
         <v>0</v>
       </c>
       <c r="T439" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U439" t="n">
         <v>1818</v>
@@ -37959,7 +37959,7 @@
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr">
         <is>
-          <t>['Italy', 'Sweden', 'Belgium']</t>
+          <t>['Belgium', 'Sweden', 'Italy']</t>
         </is>
       </c>
       <c r="K440" t="inlineStr">
@@ -38039,7 +38039,7 @@
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr">
         <is>
-          <t>['Italy', 'Sweden', 'Belgium']</t>
+          <t>['Belgium', 'Sweden', 'Italy']</t>
         </is>
       </c>
       <c r="K441" t="inlineStr">
@@ -38123,7 +38123,7 @@
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr">
         <is>
-          <t>['Italy', 'Sweden', 'Belgium']</t>
+          <t>['Belgium', 'Sweden', 'Italy']</t>
         </is>
       </c>
       <c r="K442" t="inlineStr">
@@ -38197,7 +38197,7 @@
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr">
         <is>
-          <t>['Italy', 'Sweden', 'Belgium']</t>
+          <t>['Belgium', 'Sweden', 'Italy']</t>
         </is>
       </c>
       <c r="K443" t="inlineStr">
@@ -38277,7 +38277,7 @@
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr">
         <is>
-          <t>['Italy', 'Sweden', 'Belgium']</t>
+          <t>['Belgium', 'Sweden', 'Italy']</t>
         </is>
       </c>
       <c r="K444" t="inlineStr">
@@ -38361,7 +38361,7 @@
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr">
         <is>
-          <t>['Italy', 'Sweden', 'Belgium']</t>
+          <t>['Belgium', 'Sweden', 'Italy']</t>
         </is>
       </c>
       <c r="K445" t="inlineStr">
@@ -38449,7 +38449,7 @@
       </c>
       <c r="J446" t="inlineStr">
         <is>
-          <t>['Italy', 'Ireland', 'Belgium']</t>
+          <t>['Belgium', 'Italy', 'Ireland']</t>
         </is>
       </c>
       <c r="K446" t="inlineStr">
@@ -38537,7 +38537,7 @@
       </c>
       <c r="J447" t="inlineStr">
         <is>
-          <t>['Italy', 'Ireland', 'Belgium']</t>
+          <t>['Belgium', 'Italy', 'Ireland']</t>
         </is>
       </c>
       <c r="K447" t="inlineStr">
@@ -38625,7 +38625,7 @@
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>['Italy', 'Ireland', 'Belgium']</t>
+          <t>['Belgium', 'Italy', 'Ireland']</t>
         </is>
       </c>
       <c r="K448" t="inlineStr">
@@ -38651,18 +38651,18 @@
       </c>
       <c r="P448" t="inlineStr"/>
       <c r="Q448" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R448" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy']</t>
+          <t>['Belgium', 'Italy', 'Ireland']</t>
         </is>
       </c>
       <c r="S448" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T448" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U448" t="n">
         <v>1875</v>
@@ -38713,7 +38713,7 @@
       </c>
       <c r="J449" t="inlineStr">
         <is>
-          <t>['Italy', 'Ireland', 'Belgium']</t>
+          <t>['Belgium', 'Italy', 'Ireland']</t>
         </is>
       </c>
       <c r="K449" t="inlineStr">
@@ -38739,18 +38739,18 @@
       </c>
       <c r="P449" t="inlineStr"/>
       <c r="Q449" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R449" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy']</t>
+          <t>['Belgium', 'Italy', 'Ireland']</t>
         </is>
       </c>
       <c r="S449" t="n">
         <v>0</v>
       </c>
       <c r="T449" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U449" t="n">
         <v>1875</v>
@@ -38787,7 +38787,7 @@
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="K450" t="inlineStr">
@@ -38857,7 +38857,7 @@
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="K451" t="inlineStr">
@@ -38941,7 +38941,7 @@
       </c>
       <c r="J452" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="K452" t="inlineStr">
@@ -38967,18 +38967,18 @@
       </c>
       <c r="P452" t="inlineStr"/>
       <c r="Q452" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R452" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="S452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U452" t="n">
         <v>1666</v>
@@ -39029,7 +39029,7 @@
       </c>
       <c r="J453" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="K453" t="inlineStr">
@@ -39055,18 +39055,18 @@
       </c>
       <c r="P453" t="inlineStr"/>
       <c r="Q453" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R453" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="S453" t="n">
         <v>0</v>
       </c>
       <c r="T453" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U453" t="n">
         <v>1666</v>
@@ -39117,7 +39117,7 @@
       </c>
       <c r="J454" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="K454" t="inlineStr">
@@ -39151,7 +39151,7 @@
         </is>
       </c>
       <c r="S454" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T454" t="n">
         <v>1</v>
@@ -39205,7 +39205,7 @@
       </c>
       <c r="J455" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="K455" t="inlineStr">
@@ -39293,7 +39293,7 @@
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="K456" t="inlineStr">
@@ -39319,18 +39319,18 @@
       </c>
       <c r="P456" t="inlineStr"/>
       <c r="Q456" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R456" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="S456" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T456" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U456" t="n">
         <v>1697</v>
@@ -39381,7 +39381,7 @@
       </c>
       <c r="J457" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="K457" t="inlineStr">
@@ -39407,18 +39407,18 @@
       </c>
       <c r="P457" t="inlineStr"/>
       <c r="Q457" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R457" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="S457" t="n">
         <v>0</v>
       </c>
       <c r="T457" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U457" t="n">
         <v>1697</v>
@@ -39469,7 +39469,7 @@
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="K458" t="inlineStr">
@@ -39503,10 +39503,10 @@
         </is>
       </c>
       <c r="S458" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T458" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U458" t="n">
         <v>1697</v>
@@ -39557,7 +39557,7 @@
       </c>
       <c r="J459" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="K459" t="inlineStr">
@@ -39594,7 +39594,7 @@
         <v>0</v>
       </c>
       <c r="T459" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U459" t="n">
         <v>1697</v>
@@ -39645,7 +39645,7 @@
       </c>
       <c r="J460" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="K460" t="inlineStr">
@@ -39671,18 +39671,18 @@
       </c>
       <c r="P460" t="inlineStr"/>
       <c r="Q460" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R460" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="S460" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T460" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U460" t="n">
         <v>1697</v>
@@ -39733,7 +39733,7 @@
       </c>
       <c r="J461" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="K461" t="inlineStr">
@@ -39759,18 +39759,18 @@
       </c>
       <c r="P461" t="inlineStr"/>
       <c r="Q461" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R461" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="S461" t="n">
         <v>0</v>
       </c>
       <c r="T461" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U461" t="n">
         <v>1697</v>
@@ -39821,7 +39821,7 @@
       </c>
       <c r="J462" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="K462" t="inlineStr">
@@ -39855,10 +39855,10 @@
         </is>
       </c>
       <c r="S462" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T462" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U462" t="n">
         <v>1697</v>
@@ -39909,7 +39909,7 @@
       </c>
       <c r="J463" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="K463" t="inlineStr">
@@ -39946,7 +39946,7 @@
         <v>0</v>
       </c>
       <c r="T463" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U463" t="n">
         <v>1697</v>
@@ -39997,7 +39997,7 @@
       </c>
       <c r="J464" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="K464" t="inlineStr">
@@ -40034,7 +40034,7 @@
         <v>0</v>
       </c>
       <c r="T464" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U464" t="n">
         <v>1666</v>
@@ -40085,7 +40085,7 @@
       </c>
       <c r="J465" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="K465" t="inlineStr">
@@ -40122,7 +40122,7 @@
         <v>0</v>
       </c>
       <c r="T465" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U465" t="n">
         <v>1666</v>
@@ -40173,7 +40173,7 @@
       </c>
       <c r="J466" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="K466" t="inlineStr">
@@ -40199,18 +40199,18 @@
       </c>
       <c r="P466" t="inlineStr"/>
       <c r="Q466" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R466" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="S466" t="n">
         <v>1</v>
       </c>
       <c r="T466" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="U466" t="n">
         <v>1697</v>
@@ -40261,7 +40261,7 @@
       </c>
       <c r="J467" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="K467" t="inlineStr">
@@ -40287,18 +40287,18 @@
       </c>
       <c r="P467" t="inlineStr"/>
       <c r="Q467" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R467" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="S467" t="n">
         <v>0</v>
       </c>
       <c r="T467" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="U467" t="n">
         <v>1697</v>
@@ -40349,7 +40349,7 @@
       </c>
       <c r="J468" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="K468" t="inlineStr">
@@ -40375,18 +40375,18 @@
       </c>
       <c r="P468" t="inlineStr"/>
       <c r="Q468" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R468" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="S468" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T468" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="U468" t="n">
         <v>1666</v>
@@ -40437,7 +40437,7 @@
       </c>
       <c r="J469" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="K469" t="inlineStr">
@@ -40463,18 +40463,18 @@
       </c>
       <c r="P469" t="inlineStr"/>
       <c r="Q469" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R469" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="S469" t="n">
         <v>0</v>
       </c>
       <c r="T469" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="U469" t="n">
         <v>1666</v>
@@ -40511,7 +40511,7 @@
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K470" t="inlineStr">
@@ -40591,7 +40591,7 @@
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K471" t="inlineStr">
@@ -40665,7 +40665,7 @@
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K472" t="inlineStr">
@@ -40745,7 +40745,7 @@
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K473" t="inlineStr">
@@ -40819,7 +40819,7 @@
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K474" t="inlineStr">
@@ -40899,7 +40899,7 @@
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K475" t="inlineStr">
@@ -40987,7 +40987,7 @@
       </c>
       <c r="J476" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K476" t="inlineStr">
@@ -41013,18 +41013,18 @@
       </c>
       <c r="P476" t="inlineStr"/>
       <c r="Q476" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R476" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="S476" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T476" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U476" t="n">
         <v>1890</v>
@@ -41075,7 +41075,7 @@
       </c>
       <c r="J477" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K477" t="inlineStr">
@@ -41101,18 +41101,18 @@
       </c>
       <c r="P477" t="inlineStr"/>
       <c r="Q477" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R477" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="S477" t="n">
         <v>0</v>
       </c>
       <c r="T477" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U477" t="n">
         <v>1890</v>
@@ -41163,7 +41163,7 @@
       </c>
       <c r="J478" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K478" t="inlineStr">
@@ -41189,18 +41189,18 @@
       </c>
       <c r="P478" t="inlineStr"/>
       <c r="Q478" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R478" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="S478" t="n">
         <v>0</v>
       </c>
       <c r="T478" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U478" t="n">
         <v>1890</v>
@@ -41251,7 +41251,7 @@
       </c>
       <c r="J479" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K479" t="inlineStr">
@@ -41277,18 +41277,18 @@
       </c>
       <c r="P479" t="inlineStr"/>
       <c r="Q479" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R479" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="S479" t="n">
         <v>0</v>
       </c>
       <c r="T479" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U479" t="n">
         <v>1890</v>
@@ -41339,7 +41339,7 @@
       </c>
       <c r="J480" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K480" t="inlineStr">
@@ -41365,18 +41365,18 @@
       </c>
       <c r="P480" t="inlineStr"/>
       <c r="Q480" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R480" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="S480" t="n">
         <v>0</v>
       </c>
       <c r="T480" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U480" t="n">
         <v>1890</v>
@@ -41427,7 +41427,7 @@
       </c>
       <c r="J481" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K481" t="inlineStr">
@@ -41453,18 +41453,18 @@
       </c>
       <c r="P481" t="inlineStr"/>
       <c r="Q481" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R481" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="S481" t="n">
         <v>0</v>
       </c>
       <c r="T481" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U481" t="n">
         <v>1890</v>
@@ -41515,7 +41515,7 @@
       </c>
       <c r="J482" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K482" t="inlineStr">
@@ -41541,18 +41541,18 @@
       </c>
       <c r="P482" t="inlineStr"/>
       <c r="Q482" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R482" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="S482" t="n">
         <v>0</v>
       </c>
       <c r="T482" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U482" t="n">
         <v>2014</v>
@@ -41603,7 +41603,7 @@
       </c>
       <c r="J483" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K483" t="inlineStr">
@@ -41629,18 +41629,18 @@
       </c>
       <c r="P483" t="inlineStr"/>
       <c r="Q483" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R483" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="S483" t="n">
         <v>0</v>
       </c>
       <c r="T483" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U483" t="n">
         <v>2014</v>
@@ -41691,7 +41691,7 @@
       </c>
       <c r="J484" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K484" t="inlineStr">
@@ -41717,18 +41717,18 @@
       </c>
       <c r="P484" t="inlineStr"/>
       <c r="Q484" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R484" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="S484" t="n">
         <v>0</v>
       </c>
       <c r="T484" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U484" t="n">
         <v>2014</v>
@@ -41779,7 +41779,7 @@
       </c>
       <c r="J485" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K485" t="inlineStr">
@@ -41805,18 +41805,18 @@
       </c>
       <c r="P485" t="inlineStr"/>
       <c r="Q485" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R485" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="S485" t="n">
         <v>0</v>
       </c>
       <c r="T485" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U485" t="n">
         <v>1890</v>
@@ -41867,7 +41867,7 @@
       </c>
       <c r="J486" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K486" t="inlineStr">
@@ -41893,18 +41893,18 @@
       </c>
       <c r="P486" t="inlineStr"/>
       <c r="Q486" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R486" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="S486" t="n">
         <v>0</v>
       </c>
       <c r="T486" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U486" t="n">
         <v>1890</v>
@@ -41955,7 +41955,7 @@
       </c>
       <c r="J487" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K487" t="inlineStr">
@@ -41981,18 +41981,18 @@
       </c>
       <c r="P487" t="inlineStr"/>
       <c r="Q487" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R487" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="S487" t="n">
         <v>0</v>
       </c>
       <c r="T487" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U487" t="n">
         <v>1890</v>
@@ -42043,7 +42043,7 @@
       </c>
       <c r="J488" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K488" t="inlineStr">
@@ -42069,18 +42069,18 @@
       </c>
       <c r="P488" t="inlineStr"/>
       <c r="Q488" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R488" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="S488" t="n">
         <v>0</v>
       </c>
       <c r="T488" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U488" t="n">
         <v>1890</v>
@@ -42131,7 +42131,7 @@
       </c>
       <c r="J489" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K489" t="inlineStr">
@@ -42157,18 +42157,18 @@
       </c>
       <c r="P489" t="inlineStr"/>
       <c r="Q489" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R489" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="S489" t="n">
         <v>0</v>
       </c>
       <c r="T489" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U489" t="n">
         <v>1890</v>
@@ -42219,7 +42219,7 @@
       </c>
       <c r="J490" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K490" t="inlineStr">
@@ -42245,18 +42245,18 @@
       </c>
       <c r="P490" t="inlineStr"/>
       <c r="Q490" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R490" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="S490" t="n">
         <v>0</v>
       </c>
       <c r="T490" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U490" t="n">
         <v>1890</v>
@@ -42293,7 +42293,7 @@
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Russia']</t>
+          <t>['Belgium', 'Finland', 'Russia']</t>
         </is>
       </c>
       <c r="K491" t="inlineStr">
@@ -42373,7 +42373,7 @@
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Russia']</t>
+          <t>['Belgium', 'Finland', 'Russia']</t>
         </is>
       </c>
       <c r="K492" t="inlineStr">
@@ -42447,7 +42447,7 @@
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Russia']</t>
+          <t>['Belgium', 'Finland', 'Russia']</t>
         </is>
       </c>
       <c r="K493" t="inlineStr">
@@ -42527,7 +42527,7 @@
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Russia']</t>
+          <t>['Belgium', 'Finland', 'Russia']</t>
         </is>
       </c>
       <c r="K494" t="inlineStr">
@@ -42601,7 +42601,7 @@
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Russia']</t>
+          <t>['Belgium', 'Finland', 'Russia']</t>
         </is>
       </c>
       <c r="K495" t="inlineStr">
@@ -42681,7 +42681,7 @@
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Russia']</t>
+          <t>['Belgium', 'Finland', 'Russia']</t>
         </is>
       </c>
       <c r="K496" t="inlineStr">
@@ -42755,7 +42755,7 @@
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Russia']</t>
+          <t>['Belgium', 'Finland', 'Russia']</t>
         </is>
       </c>
       <c r="K497" t="inlineStr">
@@ -42835,7 +42835,7 @@
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Russia']</t>
+          <t>['Belgium', 'Finland', 'Russia']</t>
         </is>
       </c>
       <c r="K498" t="inlineStr">
@@ -42923,7 +42923,7 @@
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>['Denmark', 'Finland', 'Belgium']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="K499" t="inlineStr">
@@ -43011,7 +43011,7 @@
       </c>
       <c r="J500" t="inlineStr">
         <is>
-          <t>['Denmark', 'Finland', 'Belgium']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="K500" t="inlineStr">
@@ -43099,7 +43099,7 @@
       </c>
       <c r="J501" t="inlineStr">
         <is>
-          <t>['Denmark', 'Finland', 'Belgium']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="K501" t="inlineStr">
@@ -43187,7 +43187,7 @@
       </c>
       <c r="J502" t="inlineStr">
         <is>
-          <t>['Denmark', 'Finland', 'Belgium']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="K502" t="inlineStr">
@@ -43275,7 +43275,7 @@
       </c>
       <c r="J503" t="inlineStr">
         <is>
-          <t>['Denmark', 'Finland', 'Belgium']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="K503" t="inlineStr">
@@ -43301,18 +43301,18 @@
       </c>
       <c r="P503" t="inlineStr"/>
       <c r="Q503" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R503" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="S503" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T503" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U503" t="n">
         <v>1744</v>
@@ -43363,7 +43363,7 @@
       </c>
       <c r="J504" t="inlineStr">
         <is>
-          <t>['Denmark', 'Finland', 'Belgium']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="K504" t="inlineStr">
@@ -43389,18 +43389,18 @@
       </c>
       <c r="P504" t="inlineStr"/>
       <c r="Q504" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R504" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="S504" t="n">
         <v>0</v>
       </c>
       <c r="T504" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U504" t="n">
         <v>1744</v>
@@ -43451,7 +43451,7 @@
       </c>
       <c r="J505" t="inlineStr">
         <is>
-          <t>['Denmark', 'Finland', 'Belgium']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="K505" t="inlineStr">
@@ -43477,18 +43477,18 @@
       </c>
       <c r="P505" t="inlineStr"/>
       <c r="Q505" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R505" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="S505" t="n">
         <v>0</v>
       </c>
       <c r="T505" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U505" t="n">
         <v>1744</v>
@@ -43539,7 +43539,7 @@
       </c>
       <c r="J506" t="inlineStr">
         <is>
-          <t>['Denmark', 'Finland', 'Belgium']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="K506" t="inlineStr">
@@ -43565,18 +43565,18 @@
       </c>
       <c r="P506" t="inlineStr"/>
       <c r="Q506" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R506" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="S506" t="n">
         <v>0</v>
       </c>
       <c r="T506" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U506" t="n">
         <v>1744</v>
@@ -43627,7 +43627,7 @@
       </c>
       <c r="J507" t="inlineStr">
         <is>
-          <t>['Denmark', 'Finland', 'Belgium']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="K507" t="inlineStr">
@@ -43661,10 +43661,10 @@
         </is>
       </c>
       <c r="S507" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T507" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U507" t="n">
         <v>1744</v>
@@ -43715,7 +43715,7 @@
       </c>
       <c r="J508" t="inlineStr">
         <is>
-          <t>['Denmark', 'Finland', 'Belgium']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="K508" t="inlineStr">
@@ -43752,7 +43752,7 @@
         <v>0</v>
       </c>
       <c r="T508" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U508" t="n">
         <v>1744</v>
@@ -43803,7 +43803,7 @@
       </c>
       <c r="J509" t="inlineStr">
         <is>
-          <t>['Denmark', 'Finland', 'Belgium']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="K509" t="inlineStr">
@@ -43840,7 +43840,7 @@
         <v>0</v>
       </c>
       <c r="T509" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U509" t="n">
         <v>1744</v>
@@ -43891,7 +43891,7 @@
       </c>
       <c r="J510" t="inlineStr">
         <is>
-          <t>['Denmark', 'Finland', 'Belgium']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="K510" t="inlineStr">
@@ -43928,7 +43928,7 @@
         <v>0</v>
       </c>
       <c r="T510" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U510" t="n">
         <v>1744</v>
@@ -43979,7 +43979,7 @@
       </c>
       <c r="J511" t="inlineStr">
         <is>
-          <t>['Denmark', 'Belgium', 'Russia']</t>
+          <t>['Belgium', 'Denmark', 'Russia']</t>
         </is>
       </c>
       <c r="K511" t="inlineStr">
@@ -44016,7 +44016,7 @@
         <v>1</v>
       </c>
       <c r="T511" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U511" t="n">
         <v>1684</v>
@@ -44067,7 +44067,7 @@
       </c>
       <c r="J512" t="inlineStr">
         <is>
-          <t>['Denmark', 'Belgium', 'Russia']</t>
+          <t>['Belgium', 'Denmark', 'Russia']</t>
         </is>
       </c>
       <c r="K512" t="inlineStr">
@@ -44104,7 +44104,7 @@
         <v>0</v>
       </c>
       <c r="T512" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U512" t="n">
         <v>1684</v>
@@ -44155,7 +44155,7 @@
       </c>
       <c r="J513" t="inlineStr">
         <is>
-          <t>['Denmark', 'Belgium', 'Russia']</t>
+          <t>['Belgium', 'Denmark', 'Russia']</t>
         </is>
       </c>
       <c r="K513" t="inlineStr">
@@ -44192,7 +44192,7 @@
         <v>0</v>
       </c>
       <c r="T513" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U513" t="n">
         <v>1684</v>
@@ -44243,7 +44243,7 @@
       </c>
       <c r="J514" t="inlineStr">
         <is>
-          <t>['Denmark', 'Belgium', 'Russia']</t>
+          <t>['Belgium', 'Denmark', 'Russia']</t>
         </is>
       </c>
       <c r="K514" t="inlineStr">
@@ -44280,7 +44280,7 @@
         <v>0</v>
       </c>
       <c r="T514" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U514" t="n">
         <v>1684</v>
@@ -44331,7 +44331,7 @@
       </c>
       <c r="J515" t="inlineStr">
         <is>
-          <t>['Denmark', 'Finland', 'Belgium']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="K515" t="inlineStr">
@@ -44368,7 +44368,7 @@
         <v>0</v>
       </c>
       <c r="T515" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U515" t="n">
         <v>1744</v>
@@ -44419,7 +44419,7 @@
       </c>
       <c r="J516" t="inlineStr">
         <is>
-          <t>['Denmark', 'Finland', 'Belgium']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="K516" t="inlineStr">
@@ -44456,7 +44456,7 @@
         <v>0</v>
       </c>
       <c r="T516" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U516" t="n">
         <v>1744</v>
@@ -44507,7 +44507,7 @@
       </c>
       <c r="J517" t="inlineStr">
         <is>
-          <t>['Denmark', 'Finland', 'Belgium']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="K517" t="inlineStr">
@@ -44544,7 +44544,7 @@
         <v>0</v>
       </c>
       <c r="T517" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U517" t="n">
         <v>1744</v>
@@ -44595,7 +44595,7 @@
       </c>
       <c r="J518" t="inlineStr">
         <is>
-          <t>['Denmark', 'Finland', 'Belgium']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="K518" t="inlineStr">
@@ -44632,7 +44632,7 @@
         <v>0</v>
       </c>
       <c r="T518" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U518" t="n">
         <v>1744</v>
@@ -44683,7 +44683,7 @@
       </c>
       <c r="J519" t="inlineStr">
         <is>
-          <t>['Denmark', 'Finland', 'Belgium']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="K519" t="inlineStr">
@@ -44720,7 +44720,7 @@
         <v>0</v>
       </c>
       <c r="T519" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U519" t="n">
         <v>1684</v>
@@ -44771,7 +44771,7 @@
       </c>
       <c r="J520" t="inlineStr">
         <is>
-          <t>['Denmark', 'Finland', 'Belgium']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="K520" t="inlineStr">
@@ -44808,7 +44808,7 @@
         <v>0</v>
       </c>
       <c r="T520" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U520" t="n">
         <v>1684</v>
@@ -44859,7 +44859,7 @@
       </c>
       <c r="J521" t="inlineStr">
         <is>
-          <t>['Denmark', 'Finland', 'Belgium']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="K521" t="inlineStr">
@@ -44896,7 +44896,7 @@
         <v>0</v>
       </c>
       <c r="T521" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U521" t="n">
         <v>1684</v>
@@ -44947,7 +44947,7 @@
       </c>
       <c r="J522" t="inlineStr">
         <is>
-          <t>['Denmark', 'Finland', 'Belgium']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="K522" t="inlineStr">
@@ -44984,7 +44984,7 @@
         <v>0</v>
       </c>
       <c r="T522" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U522" t="n">
         <v>1684</v>
@@ -45035,7 +45035,7 @@
       </c>
       <c r="J523" t="inlineStr">
         <is>
-          <t>['Denmark', 'Finland', 'Belgium']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="K523" t="inlineStr">
@@ -45072,7 +45072,7 @@
         <v>0</v>
       </c>
       <c r="T523" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U523" t="n">
         <v>1744</v>
@@ -45123,7 +45123,7 @@
       </c>
       <c r="J524" t="inlineStr">
         <is>
-          <t>['Denmark', 'Finland', 'Belgium']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="K524" t="inlineStr">
@@ -45160,7 +45160,7 @@
         <v>0</v>
       </c>
       <c r="T524" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U524" t="n">
         <v>1744</v>
@@ -45211,7 +45211,7 @@
       </c>
       <c r="J525" t="inlineStr">
         <is>
-          <t>['Denmark', 'Finland', 'Belgium']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="K525" t="inlineStr">
@@ -45248,7 +45248,7 @@
         <v>0</v>
       </c>
       <c r="T525" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U525" t="n">
         <v>1744</v>
@@ -45299,7 +45299,7 @@
       </c>
       <c r="J526" t="inlineStr">
         <is>
-          <t>['Denmark', 'Finland', 'Belgium']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="K526" t="inlineStr">
@@ -45336,7 +45336,7 @@
         <v>0</v>
       </c>
       <c r="T526" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U526" t="n">
         <v>1744</v>
@@ -45373,7 +45373,7 @@
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="K527" t="inlineStr">
@@ -45453,7 +45453,7 @@
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="K528" t="inlineStr">
@@ -45527,7 +45527,7 @@
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="K529" t="inlineStr">
@@ -45607,7 +45607,7 @@
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="K530" t="inlineStr">
@@ -45681,7 +45681,7 @@
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="K531" t="inlineStr">
@@ -45761,7 +45761,7 @@
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="K532" t="inlineStr">
@@ -45845,7 +45845,7 @@
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="K533" t="inlineStr">
@@ -45929,7 +45929,7 @@
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="K534" t="inlineStr">
@@ -46013,7 +46013,7 @@
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="K535" t="inlineStr">
@@ -46101,7 +46101,7 @@
       </c>
       <c r="J536" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="K536" t="inlineStr">
@@ -46189,7 +46189,7 @@
       </c>
       <c r="J537" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="K537" t="inlineStr">
@@ -46277,7 +46277,7 @@
       </c>
       <c r="J538" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="K538" t="inlineStr">
@@ -46365,7 +46365,7 @@
       </c>
       <c r="J539" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="K539" t="inlineStr">
@@ -46453,7 +46453,7 @@
       </c>
       <c r="J540" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="K540" t="inlineStr">
@@ -46541,7 +46541,7 @@
       </c>
       <c r="J541" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="K541" t="inlineStr">
@@ -46629,7 +46629,7 @@
       </c>
       <c r="J542" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="K542" t="inlineStr">
@@ -46717,7 +46717,7 @@
       </c>
       <c r="J543" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="K543" t="inlineStr">
@@ -46805,7 +46805,7 @@
       </c>
       <c r="J544" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="K544" t="inlineStr">
@@ -46893,7 +46893,7 @@
       </c>
       <c r="J545" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="K545" t="inlineStr">
@@ -46981,7 +46981,7 @@
       </c>
       <c r="J546" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="K546" t="inlineStr">
@@ -47069,7 +47069,7 @@
       </c>
       <c r="J547" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="K547" t="inlineStr">
@@ -47143,7 +47143,7 @@
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr">
         <is>
-          <t>['England', 'Croatia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Croatia', 'England']</t>
         </is>
       </c>
       <c r="K548" t="inlineStr">
@@ -47223,7 +47223,7 @@
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr">
         <is>
-          <t>['England', 'Croatia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Croatia', 'England']</t>
         </is>
       </c>
       <c r="K549" t="inlineStr">
@@ -47297,7 +47297,7 @@
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr">
         <is>
-          <t>['England', 'Croatia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Croatia', 'England']</t>
         </is>
       </c>
       <c r="K550" t="inlineStr">
@@ -47377,7 +47377,7 @@
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr">
         <is>
-          <t>['England', 'Croatia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Croatia', 'England']</t>
         </is>
       </c>
       <c r="K551" t="inlineStr">
@@ -47667,18 +47667,18 @@
       </c>
       <c r="P554" t="inlineStr"/>
       <c r="Q554" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R554" t="inlineStr">
         <is>
-          <t>['England', 'Czech Republic']</t>
+          <t>['England', 'Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="S554" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T554" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U554" t="n">
         <v>1825</v>
@@ -47755,18 +47755,18 @@
       </c>
       <c r="P555" t="inlineStr"/>
       <c r="Q555" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R555" t="inlineStr">
         <is>
-          <t>['England', 'Czech Republic']</t>
+          <t>['England', 'Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="S555" t="n">
         <v>0</v>
       </c>
       <c r="T555" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U555" t="n">
         <v>1825</v>
@@ -47851,10 +47851,10 @@
         </is>
       </c>
       <c r="S556" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U556" t="n">
         <v>1825</v>
@@ -47942,7 +47942,7 @@
         <v>0</v>
       </c>
       <c r="T557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U557" t="n">
         <v>1825</v>
@@ -48030,7 +48030,7 @@
         <v>0</v>
       </c>
       <c r="T558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U558" t="n">
         <v>1825</v>
@@ -48118,7 +48118,7 @@
         <v>0</v>
       </c>
       <c r="T559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U559" t="n">
         <v>1825</v>
@@ -48169,7 +48169,7 @@
       </c>
       <c r="J560" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'England']</t>
+          <t>['Czech Republic', 'Croatia', 'England']</t>
         </is>
       </c>
       <c r="K560" t="inlineStr">
@@ -48195,18 +48195,18 @@
       </c>
       <c r="P560" t="inlineStr"/>
       <c r="Q560" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R560" t="inlineStr">
         <is>
-          <t>['England', 'Croatia']</t>
+          <t>['England', 'Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="S560" t="n">
         <v>1</v>
       </c>
       <c r="T560" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U560" t="n">
         <v>1825</v>
@@ -48257,7 +48257,7 @@
       </c>
       <c r="J561" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'England']</t>
+          <t>['Czech Republic', 'Croatia', 'England']</t>
         </is>
       </c>
       <c r="K561" t="inlineStr">
@@ -48283,18 +48283,18 @@
       </c>
       <c r="P561" t="inlineStr"/>
       <c r="Q561" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R561" t="inlineStr">
         <is>
-          <t>['England', 'Croatia']</t>
+          <t>['England', 'Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="S561" t="n">
         <v>0</v>
       </c>
       <c r="T561" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U561" t="n">
         <v>1825</v>
@@ -48987,18 +48987,18 @@
       </c>
       <c r="P570" t="inlineStr"/>
       <c r="Q570" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R570" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="S570" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T570" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U570" t="n">
         <v>1850</v>
@@ -49075,18 +49075,18 @@
       </c>
       <c r="P571" t="inlineStr"/>
       <c r="Q571" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R571" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="S571" t="n">
         <v>0</v>
       </c>
       <c r="T571" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U571" t="n">
         <v>1850</v>
@@ -49163,18 +49163,18 @@
       </c>
       <c r="P572" t="inlineStr"/>
       <c r="Q572" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R572" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="S572" t="n">
         <v>0</v>
       </c>
       <c r="T572" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U572" t="n">
         <v>1850</v>
@@ -49251,18 +49251,18 @@
       </c>
       <c r="P573" t="inlineStr"/>
       <c r="Q573" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R573" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="S573" t="n">
         <v>0</v>
       </c>
       <c r="T573" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U573" t="n">
         <v>1850</v>
@@ -49313,7 +49313,7 @@
       </c>
       <c r="J574" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K574" t="inlineStr">
@@ -49350,7 +49350,7 @@
         <v>1</v>
       </c>
       <c r="T574" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U574" t="n">
         <v>1656</v>
@@ -49401,7 +49401,7 @@
       </c>
       <c r="J575" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K575" t="inlineStr">
@@ -49438,7 +49438,7 @@
         <v>0</v>
       </c>
       <c r="T575" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U575" t="n">
         <v>1656</v>
@@ -49489,7 +49489,7 @@
       </c>
       <c r="J576" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K576" t="inlineStr">
@@ -49526,7 +49526,7 @@
         <v>0</v>
       </c>
       <c r="T576" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U576" t="n">
         <v>1656</v>
@@ -49577,7 +49577,7 @@
       </c>
       <c r="J577" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K577" t="inlineStr">
@@ -49614,7 +49614,7 @@
         <v>0</v>
       </c>
       <c r="T577" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U577" t="n">
         <v>1656</v>
@@ -49665,7 +49665,7 @@
       </c>
       <c r="J578" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K578" t="inlineStr">
@@ -49702,7 +49702,7 @@
         <v>0</v>
       </c>
       <c r="T578" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U578" t="n">
         <v>1656</v>
@@ -49753,7 +49753,7 @@
       </c>
       <c r="J579" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K579" t="inlineStr">
@@ -49790,7 +49790,7 @@
         <v>0</v>
       </c>
       <c r="T579" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U579" t="n">
         <v>1656</v>
@@ -49841,7 +49841,7 @@
       </c>
       <c r="J580" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K580" t="inlineStr">
@@ -49878,7 +49878,7 @@
         <v>0</v>
       </c>
       <c r="T580" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U580" t="n">
         <v>1656</v>
@@ -49929,7 +49929,7 @@
       </c>
       <c r="J581" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K581" t="inlineStr">
@@ -49966,7 +49966,7 @@
         <v>0</v>
       </c>
       <c r="T581" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U581" t="n">
         <v>1656</v>
@@ -50017,7 +50017,7 @@
       </c>
       <c r="J582" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K582" t="inlineStr">
@@ -50054,7 +50054,7 @@
         <v>0</v>
       </c>
       <c r="T582" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U582" t="n">
         <v>1656</v>
@@ -50105,7 +50105,7 @@
       </c>
       <c r="J583" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K583" t="inlineStr">
@@ -50142,7 +50142,7 @@
         <v>0</v>
       </c>
       <c r="T583" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U583" t="n">
         <v>1656</v>
@@ -50193,7 +50193,7 @@
       </c>
       <c r="J584" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K584" t="inlineStr">
@@ -50230,7 +50230,7 @@
         <v>0</v>
       </c>
       <c r="T584" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U584" t="n">
         <v>1656</v>
@@ -50281,7 +50281,7 @@
       </c>
       <c r="J585" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K585" t="inlineStr">
@@ -50318,7 +50318,7 @@
         <v>0</v>
       </c>
       <c r="T585" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U585" t="n">
         <v>1656</v>
@@ -50369,7 +50369,7 @@
       </c>
       <c r="J586" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K586" t="inlineStr">
@@ -50406,7 +50406,7 @@
         <v>0</v>
       </c>
       <c r="T586" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U586" t="n">
         <v>1850</v>
@@ -50457,7 +50457,7 @@
       </c>
       <c r="J587" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K587" t="inlineStr">
@@ -50494,7 +50494,7 @@
         <v>0</v>
       </c>
       <c r="T587" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U587" t="n">
         <v>1850</v>
@@ -50545,7 +50545,7 @@
       </c>
       <c r="J588" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K588" t="inlineStr">
@@ -50582,7 +50582,7 @@
         <v>0</v>
       </c>
       <c r="T588" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U588" t="n">
         <v>1850</v>
@@ -50633,7 +50633,7 @@
       </c>
       <c r="J589" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K589" t="inlineStr">
@@ -50670,7 +50670,7 @@
         <v>0</v>
       </c>
       <c r="T589" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U589" t="n">
         <v>1850</v>
@@ -50721,7 +50721,7 @@
       </c>
       <c r="J590" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K590" t="inlineStr">
@@ -50758,7 +50758,7 @@
         <v>0</v>
       </c>
       <c r="T590" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U590" t="n">
         <v>1850</v>
@@ -50809,7 +50809,7 @@
       </c>
       <c r="J591" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K591" t="inlineStr">
@@ -50846,7 +50846,7 @@
         <v>0</v>
       </c>
       <c r="T591" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U591" t="n">
         <v>1850</v>
@@ -50897,7 +50897,7 @@
       </c>
       <c r="J592" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K592" t="inlineStr">
@@ -50934,7 +50934,7 @@
         <v>0</v>
       </c>
       <c r="T592" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U592" t="n">
         <v>1850</v>
@@ -50985,7 +50985,7 @@
       </c>
       <c r="J593" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K593" t="inlineStr">
@@ -51022,7 +51022,7 @@
         <v>0</v>
       </c>
       <c r="T593" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U593" t="n">
         <v>1850</v>
@@ -51073,7 +51073,7 @@
       </c>
       <c r="J594" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K594" t="inlineStr">
@@ -51110,7 +51110,7 @@
         <v>0</v>
       </c>
       <c r="T594" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U594" t="n">
         <v>1656</v>
@@ -51161,7 +51161,7 @@
       </c>
       <c r="J595" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K595" t="inlineStr">
@@ -51198,7 +51198,7 @@
         <v>0</v>
       </c>
       <c r="T595" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U595" t="n">
         <v>1656</v>
@@ -51249,7 +51249,7 @@
       </c>
       <c r="J596" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K596" t="inlineStr">
@@ -51286,7 +51286,7 @@
         <v>0</v>
       </c>
       <c r="T596" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U596" t="n">
         <v>1656</v>
@@ -51337,7 +51337,7 @@
       </c>
       <c r="J597" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K597" t="inlineStr">
@@ -51374,7 +51374,7 @@
         <v>0</v>
       </c>
       <c r="T597" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U597" t="n">
         <v>1656</v>
@@ -51425,7 +51425,7 @@
       </c>
       <c r="J598" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K598" t="inlineStr">
@@ -51462,7 +51462,7 @@
         <v>0</v>
       </c>
       <c r="T598" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U598" t="n">
         <v>1656</v>
@@ -51513,7 +51513,7 @@
       </c>
       <c r="J599" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K599" t="inlineStr">
@@ -51550,7 +51550,7 @@
         <v>0</v>
       </c>
       <c r="T599" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U599" t="n">
         <v>1656</v>
@@ -51601,7 +51601,7 @@
       </c>
       <c r="J600" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K600" t="inlineStr">
@@ -51638,7 +51638,7 @@
         <v>0</v>
       </c>
       <c r="T600" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U600" t="n">
         <v>1656</v>
@@ -51689,7 +51689,7 @@
       </c>
       <c r="J601" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K601" t="inlineStr">
@@ -51726,7 +51726,7 @@
         <v>0</v>
       </c>
       <c r="T601" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U601" t="n">
         <v>1656</v>
@@ -51777,7 +51777,7 @@
       </c>
       <c r="J602" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K602" t="inlineStr">
@@ -51814,7 +51814,7 @@
         <v>0</v>
       </c>
       <c r="T602" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U602" t="n">
         <v>1850</v>
@@ -51865,7 +51865,7 @@
       </c>
       <c r="J603" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K603" t="inlineStr">
@@ -51902,7 +51902,7 @@
         <v>0</v>
       </c>
       <c r="T603" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U603" t="n">
         <v>1850</v>
@@ -51953,7 +51953,7 @@
       </c>
       <c r="J604" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K604" t="inlineStr">
@@ -51990,7 +51990,7 @@
         <v>0</v>
       </c>
       <c r="T604" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U604" t="n">
         <v>1850</v>
@@ -52041,7 +52041,7 @@
       </c>
       <c r="J605" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K605" t="inlineStr">
@@ -52078,7 +52078,7 @@
         <v>0</v>
       </c>
       <c r="T605" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U605" t="n">
         <v>1850</v>
@@ -52129,7 +52129,7 @@
       </c>
       <c r="J606" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K606" t="inlineStr">
@@ -52166,7 +52166,7 @@
         <v>0</v>
       </c>
       <c r="T606" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U606" t="n">
         <v>1850</v>
@@ -52217,7 +52217,7 @@
       </c>
       <c r="J607" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K607" t="inlineStr">
@@ -52254,7 +52254,7 @@
         <v>0</v>
       </c>
       <c r="T607" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U607" t="n">
         <v>1850</v>
@@ -52305,7 +52305,7 @@
       </c>
       <c r="J608" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K608" t="inlineStr">
@@ -52342,7 +52342,7 @@
         <v>0</v>
       </c>
       <c r="T608" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U608" t="n">
         <v>1850</v>
@@ -52393,7 +52393,7 @@
       </c>
       <c r="J609" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K609" t="inlineStr">
@@ -52430,7 +52430,7 @@
         <v>0</v>
       </c>
       <c r="T609" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U609" t="n">
         <v>1850</v>
@@ -52467,7 +52467,7 @@
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Germany']</t>
+          <t>['Portugal', 'France', 'Germany']</t>
         </is>
       </c>
       <c r="K610" t="inlineStr">
@@ -52537,7 +52537,7 @@
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Germany']</t>
+          <t>['Portugal', 'France', 'Germany']</t>
         </is>
       </c>
       <c r="K611" t="inlineStr">
@@ -52621,7 +52621,7 @@
       </c>
       <c r="J612" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K612" t="inlineStr">
@@ -52647,11 +52647,11 @@
       </c>
       <c r="P612" t="inlineStr"/>
       <c r="Q612" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R612" t="inlineStr">
         <is>
-          <t>['France', 'Portugal']</t>
+          <t>['France', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="S612" t="n">
@@ -52709,7 +52709,7 @@
       </c>
       <c r="J613" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K613" t="inlineStr">
@@ -52735,11 +52735,11 @@
       </c>
       <c r="P613" t="inlineStr"/>
       <c r="Q613" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R613" t="inlineStr">
         <is>
-          <t>['France', 'Portugal']</t>
+          <t>['France', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="S613" t="n">
@@ -52797,7 +52797,7 @@
       </c>
       <c r="J614" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K614" t="inlineStr">
@@ -52823,11 +52823,11 @@
       </c>
       <c r="P614" t="inlineStr"/>
       <c r="Q614" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R614" t="inlineStr">
         <is>
-          <t>['Portugal', 'France']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="S614" t="n">
@@ -52885,7 +52885,7 @@
       </c>
       <c r="J615" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K615" t="inlineStr">
@@ -52911,11 +52911,11 @@
       </c>
       <c r="P615" t="inlineStr"/>
       <c r="Q615" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R615" t="inlineStr">
         <is>
-          <t>['Portugal', 'France']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="S615" t="n">
@@ -52973,7 +52973,7 @@
       </c>
       <c r="J616" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K616" t="inlineStr">
@@ -53007,10 +53007,10 @@
         </is>
       </c>
       <c r="S616" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T616" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U616" t="n">
         <v>2040</v>
@@ -53061,7 +53061,7 @@
       </c>
       <c r="J617" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K617" t="inlineStr">
@@ -53087,18 +53087,18 @@
       </c>
       <c r="P617" t="inlineStr"/>
       <c r="Q617" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R617" t="inlineStr">
         <is>
-          <t>['France', 'Hungary']</t>
+          <t>['France', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="S617" t="n">
         <v>1</v>
       </c>
       <c r="T617" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U617" t="n">
         <v>2040</v>
@@ -53149,7 +53149,7 @@
       </c>
       <c r="J618" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K618" t="inlineStr">
@@ -53186,7 +53186,7 @@
         <v>1</v>
       </c>
       <c r="T618" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U618" t="n">
         <v>2040</v>
@@ -53237,7 +53237,7 @@
       </c>
       <c r="J619" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K619" t="inlineStr">
@@ -53263,18 +53263,18 @@
       </c>
       <c r="P619" t="inlineStr"/>
       <c r="Q619" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R619" t="inlineStr">
         <is>
-          <t>['France', 'Hungary']</t>
+          <t>['France', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="S619" t="n">
         <v>1</v>
       </c>
       <c r="T619" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U619" t="n">
         <v>2040</v>
@@ -53325,7 +53325,7 @@
       </c>
       <c r="J620" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K620" t="inlineStr">
@@ -53351,15 +53351,15 @@
       </c>
       <c r="P620" t="inlineStr"/>
       <c r="Q620" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R620" t="inlineStr">
         <is>
-          <t>['France', 'Portugal']</t>
+          <t>['France', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="S620" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T620" t="n">
         <v>5</v>
@@ -53413,7 +53413,7 @@
       </c>
       <c r="J621" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K621" t="inlineStr">
@@ -53439,11 +53439,11 @@
       </c>
       <c r="P621" t="inlineStr"/>
       <c r="Q621" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R621" t="inlineStr">
         <is>
-          <t>['France', 'Portugal']</t>
+          <t>['France', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="S621" t="n">
@@ -53501,7 +53501,7 @@
       </c>
       <c r="J622" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Germany']</t>
+          <t>['Portugal', 'France', 'Germany']</t>
         </is>
       </c>
       <c r="K622" t="inlineStr">
@@ -53527,18 +53527,18 @@
       </c>
       <c r="P622" t="inlineStr"/>
       <c r="Q622" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R622" t="inlineStr">
         <is>
-          <t>['France', 'Portugal']</t>
+          <t>['France', 'Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="S622" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T622" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U622" t="n">
         <v>1936</v>
@@ -53589,7 +53589,7 @@
       </c>
       <c r="J623" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Germany']</t>
+          <t>['Portugal', 'France', 'Germany']</t>
         </is>
       </c>
       <c r="K623" t="inlineStr">
@@ -53615,18 +53615,18 @@
       </c>
       <c r="P623" t="inlineStr"/>
       <c r="Q623" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R623" t="inlineStr">
         <is>
-          <t>['France', 'Portugal']</t>
+          <t>['France', 'Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="S623" t="n">
         <v>0</v>
       </c>
       <c r="T623" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U623" t="n">
         <v>1936</v>
@@ -53677,7 +53677,7 @@
       </c>
       <c r="J624" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K624" t="inlineStr">
@@ -53711,10 +53711,10 @@
         </is>
       </c>
       <c r="S624" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T624" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U624" t="n">
         <v>1936</v>
@@ -53765,7 +53765,7 @@
       </c>
       <c r="J625" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K625" t="inlineStr">
@@ -53802,7 +53802,7 @@
         <v>0</v>
       </c>
       <c r="T625" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U625" t="n">
         <v>1936</v>
@@ -53853,7 +53853,7 @@
       </c>
       <c r="J626" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Germany']</t>
+          <t>['Portugal', 'France', 'Germany']</t>
         </is>
       </c>
       <c r="K626" t="inlineStr">
@@ -53879,18 +53879,18 @@
       </c>
       <c r="P626" t="inlineStr"/>
       <c r="Q626" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R626" t="inlineStr">
         <is>
-          <t>['France', 'Portugal']</t>
+          <t>['France', 'Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="S626" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T626" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="U626" t="n">
         <v>1936</v>
@@ -53941,7 +53941,7 @@
       </c>
       <c r="J627" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Germany']</t>
+          <t>['Portugal', 'France', 'Germany']</t>
         </is>
       </c>
       <c r="K627" t="inlineStr">
@@ -53967,18 +53967,18 @@
       </c>
       <c r="P627" t="inlineStr"/>
       <c r="Q627" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R627" t="inlineStr">
         <is>
-          <t>['France', 'Portugal']</t>
+          <t>['France', 'Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="S627" t="n">
         <v>0</v>
       </c>
       <c r="T627" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="U627" t="n">
         <v>1936</v>
@@ -54015,7 +54015,7 @@
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Scotland', 'Germany']</t>
+          <t>['Scotland', 'Germany', 'Switzerland']</t>
         </is>
       </c>
       <c r="K628" t="inlineStr">
@@ -54095,7 +54095,7 @@
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Scotland', 'Germany']</t>
+          <t>['Scotland', 'Germany', 'Switzerland']</t>
         </is>
       </c>
       <c r="K629" t="inlineStr">
@@ -54169,7 +54169,7 @@
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Scotland', 'Germany']</t>
+          <t>['Scotland', 'Germany', 'Switzerland']</t>
         </is>
       </c>
       <c r="K630" t="inlineStr">
@@ -54249,7 +54249,7 @@
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Scotland', 'Germany']</t>
+          <t>['Scotland', 'Germany', 'Switzerland']</t>
         </is>
       </c>
       <c r="K631" t="inlineStr">
@@ -54337,7 +54337,7 @@
       </c>
       <c r="J632" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Scotland', 'Germany']</t>
+          <t>['Scotland', 'Germany', 'Switzerland']</t>
         </is>
       </c>
       <c r="K632" t="inlineStr">
@@ -54425,7 +54425,7 @@
       </c>
       <c r="J633" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Scotland', 'Germany']</t>
+          <t>['Scotland', 'Germany', 'Switzerland']</t>
         </is>
       </c>
       <c r="K633" t="inlineStr">
@@ -54513,7 +54513,7 @@
       </c>
       <c r="J634" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Scotland', 'Germany']</t>
+          <t>['Scotland', 'Germany', 'Switzerland']</t>
         </is>
       </c>
       <c r="K634" t="inlineStr">
@@ -54601,7 +54601,7 @@
       </c>
       <c r="J635" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Scotland', 'Germany']</t>
+          <t>['Scotland', 'Germany', 'Switzerland']</t>
         </is>
       </c>
       <c r="K635" t="inlineStr">
@@ -54689,7 +54689,7 @@
       </c>
       <c r="J636" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Hungary']</t>
+          <t>['Germany', 'Hungary', 'Switzerland']</t>
         </is>
       </c>
       <c r="K636" t="inlineStr">
@@ -54777,7 +54777,7 @@
       </c>
       <c r="J637" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Hungary']</t>
+          <t>['Germany', 'Hungary', 'Switzerland']</t>
         </is>
       </c>
       <c r="K637" t="inlineStr">
@@ -54851,7 +54851,7 @@
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr">
         <is>
-          <t>['Italy', 'Albania', 'Spain']</t>
+          <t>['Spain', 'Italy', 'Albania']</t>
         </is>
       </c>
       <c r="K638" t="inlineStr">
@@ -54931,7 +54931,7 @@
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr">
         <is>
-          <t>['Italy', 'Albania', 'Spain']</t>
+          <t>['Spain', 'Italy', 'Albania']</t>
         </is>
       </c>
       <c r="K639" t="inlineStr">
@@ -55005,7 +55005,7 @@
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr">
         <is>
-          <t>['Italy', 'Albania', 'Spain']</t>
+          <t>['Spain', 'Italy', 'Albania']</t>
         </is>
       </c>
       <c r="K640" t="inlineStr">
@@ -55085,7 +55085,7 @@
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr">
         <is>
-          <t>['Italy', 'Albania', 'Spain']</t>
+          <t>['Spain', 'Italy', 'Albania']</t>
         </is>
       </c>
       <c r="K641" t="inlineStr">
@@ -55173,7 +55173,7 @@
       </c>
       <c r="J642" t="inlineStr">
         <is>
-          <t>['Croatia', 'Italy', 'Spain']</t>
+          <t>['Spain', 'Croatia', 'Italy']</t>
         </is>
       </c>
       <c r="K642" t="inlineStr">
@@ -55261,7 +55261,7 @@
       </c>
       <c r="J643" t="inlineStr">
         <is>
-          <t>['Croatia', 'Italy', 'Spain']</t>
+          <t>['Spain', 'Croatia', 'Italy']</t>
         </is>
       </c>
       <c r="K643" t="inlineStr">
@@ -55349,7 +55349,7 @@
       </c>
       <c r="J644" t="inlineStr">
         <is>
-          <t>['Croatia', 'Italy', 'Spain']</t>
+          <t>['Spain', 'Croatia', 'Italy']</t>
         </is>
       </c>
       <c r="K644" t="inlineStr">
@@ -55437,7 +55437,7 @@
       </c>
       <c r="J645" t="inlineStr">
         <is>
-          <t>['Croatia', 'Italy', 'Spain']</t>
+          <t>['Spain', 'Croatia', 'Italy']</t>
         </is>
       </c>
       <c r="K645" t="inlineStr">
@@ -55525,7 +55525,7 @@
       </c>
       <c r="J646" t="inlineStr">
         <is>
-          <t>['Croatia', 'Italy', 'Spain']</t>
+          <t>['Spain', 'Croatia', 'Italy']</t>
         </is>
       </c>
       <c r="K646" t="inlineStr">
@@ -55613,7 +55613,7 @@
       </c>
       <c r="J647" t="inlineStr">
         <is>
-          <t>['Croatia', 'Italy', 'Spain']</t>
+          <t>['Spain', 'Croatia', 'Italy']</t>
         </is>
       </c>
       <c r="K647" t="inlineStr">
@@ -55687,7 +55687,7 @@
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr">
         <is>
-          <t>['Slovenia', 'England', 'Denmark']</t>
+          <t>['Denmark', 'England', 'Slovenia']</t>
         </is>
       </c>
       <c r="K648" t="inlineStr">
@@ -55767,7 +55767,7 @@
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr">
         <is>
-          <t>['Slovenia', 'England', 'Denmark']</t>
+          <t>['Denmark', 'England', 'Slovenia']</t>
         </is>
       </c>
       <c r="K649" t="inlineStr">
@@ -55851,7 +55851,7 @@
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr">
         <is>
-          <t>['Slovenia', 'England', 'Denmark']</t>
+          <t>['Denmark', 'England', 'Slovenia']</t>
         </is>
       </c>
       <c r="K650" t="inlineStr">
@@ -55925,7 +55925,7 @@
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K651" t="inlineStr">
@@ -55995,7 +55995,7 @@
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K652" t="inlineStr">
@@ -56079,7 +56079,7 @@
       </c>
       <c r="J653" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K653" t="inlineStr">
@@ -56167,7 +56167,7 @@
       </c>
       <c r="J654" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K654" t="inlineStr">
@@ -56255,7 +56255,7 @@
       </c>
       <c r="J655" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K655" t="inlineStr">
@@ -56343,7 +56343,7 @@
       </c>
       <c r="J656" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K656" t="inlineStr">
@@ -56431,7 +56431,7 @@
       </c>
       <c r="J657" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K657" t="inlineStr">
@@ -56519,7 +56519,7 @@
       </c>
       <c r="J658" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K658" t="inlineStr">
@@ -56607,7 +56607,7 @@
       </c>
       <c r="J659" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K659" t="inlineStr">
@@ -56695,7 +56695,7 @@
       </c>
       <c r="J660" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K660" t="inlineStr">
@@ -56783,7 +56783,7 @@
       </c>
       <c r="J661" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K661" t="inlineStr">
@@ -56871,7 +56871,7 @@
       </c>
       <c r="J662" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K662" t="inlineStr">
@@ -56959,7 +56959,7 @@
       </c>
       <c r="J663" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K663" t="inlineStr">
@@ -57047,7 +57047,7 @@
       </c>
       <c r="J664" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K664" t="inlineStr">
@@ -57135,7 +57135,7 @@
       </c>
       <c r="J665" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K665" t="inlineStr">
@@ -57223,7 +57223,7 @@
       </c>
       <c r="J666" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K666" t="inlineStr">
@@ -57297,7 +57297,7 @@
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Romania', 'Belgium']</t>
+          <t>['Belgium', 'Romania', 'Slovakia']</t>
         </is>
       </c>
       <c r="K667" t="inlineStr">
@@ -57377,7 +57377,7 @@
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Romania', 'Belgium']</t>
+          <t>['Belgium', 'Romania', 'Slovakia']</t>
         </is>
       </c>
       <c r="K668" t="inlineStr">
@@ -57553,7 +57553,7 @@
       </c>
       <c r="J670" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Romania', 'Belgium']</t>
+          <t>['Belgium', 'Romania', 'Slovakia']</t>
         </is>
       </c>
       <c r="K670" t="inlineStr">
@@ -57627,7 +57627,7 @@
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr">
         <is>
-          <t>['Turkey', 'Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic', 'Turkey']</t>
         </is>
       </c>
       <c r="K671" t="inlineStr">
@@ -57707,7 +57707,7 @@
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr">
         <is>
-          <t>['Turkey', 'Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic', 'Turkey']</t>
         </is>
       </c>
       <c r="K672" t="inlineStr">
@@ -57781,7 +57781,7 @@
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr">
         <is>
-          <t>['Turkey', 'Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic', 'Turkey']</t>
         </is>
       </c>
       <c r="K673" t="inlineStr">
@@ -57861,7 +57861,7 @@
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr">
         <is>
-          <t>['Turkey', 'Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic', 'Turkey']</t>
         </is>
       </c>
       <c r="K674" t="inlineStr">
@@ -57949,7 +57949,7 @@
       </c>
       <c r="J675" t="inlineStr">
         <is>
-          <t>['Turkey', 'Georgia', 'Portugal']</t>
+          <t>['Portugal', 'Georgia', 'Turkey']</t>
         </is>
       </c>
       <c r="K675" t="inlineStr">
@@ -58041,7 +58041,7 @@
       </c>
       <c r="J676" t="inlineStr">
         <is>
-          <t>['Turkey', 'Georgia', 'Portugal']</t>
+          <t>['Portugal', 'Georgia', 'Turkey']</t>
         </is>
       </c>
       <c r="K676" t="inlineStr">
@@ -58133,7 +58133,7 @@
       </c>
       <c r="J677" t="inlineStr">
         <is>
-          <t>['Turkey', 'Georgia', 'Portugal']</t>
+          <t>['Portugal', 'Georgia', 'Turkey']</t>
         </is>
       </c>
       <c r="K677" t="inlineStr">
@@ -58221,7 +58221,7 @@
       </c>
       <c r="J678" t="inlineStr">
         <is>
-          <t>['Turkey', 'Georgia', 'Portugal']</t>
+          <t>['Portugal', 'Georgia', 'Turkey']</t>
         </is>
       </c>
       <c r="K678" t="inlineStr">
@@ -58309,7 +58309,7 @@
       </c>
       <c r="J679" t="inlineStr">
         <is>
-          <t>['Turkey', 'Georgia', 'Portugal']</t>
+          <t>['Portugal', 'Georgia', 'Turkey']</t>
         </is>
       </c>
       <c r="K679" t="inlineStr">
@@ -58397,7 +58397,7 @@
       </c>
       <c r="J680" t="inlineStr">
         <is>
-          <t>['Turkey', 'Georgia', 'Portugal']</t>
+          <t>['Portugal', 'Georgia', 'Turkey']</t>
         </is>
       </c>
       <c r="K680" t="inlineStr">
@@ -58485,7 +58485,7 @@
       </c>
       <c r="J681" t="inlineStr">
         <is>
-          <t>['Turkey', 'Georgia', 'Portugal']</t>
+          <t>['Portugal', 'Georgia', 'Turkey']</t>
         </is>
       </c>
       <c r="K681" t="inlineStr">
@@ -58577,7 +58577,7 @@
       </c>
       <c r="J682" t="inlineStr">
         <is>
-          <t>['Turkey', 'Georgia', 'Portugal']</t>
+          <t>['Portugal', 'Georgia', 'Turkey']</t>
         </is>
       </c>
       <c r="K682" t="inlineStr">
@@ -58669,7 +58669,7 @@
       </c>
       <c r="J683" t="inlineStr">
         <is>
-          <t>['Turkey', 'Georgia', 'Portugal']</t>
+          <t>['Portugal', 'Georgia', 'Turkey']</t>
         </is>
       </c>
       <c r="K683" t="inlineStr">
@@ -58757,7 +58757,7 @@
       </c>
       <c r="J684" t="inlineStr">
         <is>
-          <t>['Turkey', 'Georgia', 'Portugal']</t>
+          <t>['Portugal', 'Georgia', 'Turkey']</t>
         </is>
       </c>
       <c r="K684" t="inlineStr">

--- a/data/out/wiki/men/fifa/eu/goals_eu_fifa_men.xlsx
+++ b/data/out/wiki/men/fifa/eu/goals_eu_fifa_men.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2473,7 +2473,7 @@
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['Spain', 'West Germany']</t>
+          <t>['West Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2553,7 +2553,7 @@
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['Spain', 'West Germany']</t>
+          <t>['West Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2637,7 +2637,7 @@
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>['Spain', 'West Germany']</t>
+          <t>['West Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2711,7 +2711,7 @@
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['Spain', 'West Germany']</t>
+          <t>['West Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2791,7 +2791,7 @@
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>['Spain', 'West Germany']</t>
+          <t>['West Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2875,7 +2875,7 @@
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['Spain', 'West Germany']</t>
+          <t>['West Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>['Portugal', 'West Germany']</t>
+          <t>['West Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -3055,7 +3055,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['Portugal', 'West Germany']</t>
+          <t>['West Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -3147,7 +3147,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -3235,7 +3235,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -4505,7 +4505,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -4585,7 +4585,7 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -4663,7 +4663,7 @@
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -4743,7 +4743,7 @@
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -5571,7 +5571,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Netherlands']</t>
+          <t>['Netherlands', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -5659,7 +5659,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Netherlands']</t>
+          <t>['Netherlands', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -5733,7 +5733,7 @@
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>['Sweden', 'France']</t>
+          <t>['France', 'Sweden']</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -5803,7 +5803,7 @@
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>['Sweden', 'France']</t>
+          <t>['France', 'Sweden']</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -5887,7 +5887,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -5975,7 +5975,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -6063,7 +6063,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -6151,7 +6151,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -6239,7 +6239,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -6327,7 +6327,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -6415,7 +6415,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>['Sweden', 'France']</t>
+          <t>['France', 'Sweden']</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -6503,7 +6503,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>['Sweden', 'France']</t>
+          <t>['France', 'Sweden']</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -6929,7 +6929,7 @@
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -7009,7 +7009,7 @@
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -7087,7 +7087,7 @@
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -7167,7 +7167,7 @@
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -7259,7 +7259,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -7347,7 +7347,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -7435,7 +7435,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -7523,7 +7523,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -7611,7 +7611,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -7699,7 +7699,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -7787,7 +7787,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -7875,7 +7875,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -7963,7 +7963,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -8051,7 +8051,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -8139,7 +8139,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -8227,7 +8227,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -8315,7 +8315,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -8403,7 +8403,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -8477,7 +8477,7 @@
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -8557,7 +8557,7 @@
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -8631,7 +8631,7 @@
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -8711,7 +8711,7 @@
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -8799,7 +8799,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -8887,7 +8887,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -8975,7 +8975,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -9063,7 +9063,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -9151,7 +9151,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -9239,7 +9239,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -9327,7 +9327,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -9415,7 +9415,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -9503,7 +9503,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>['Scotland', 'England']</t>
+          <t>['England', 'Scotland']</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -9591,7 +9591,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>['Scotland', 'England']</t>
+          <t>['England', 'Scotland']</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -9679,7 +9679,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -9767,7 +9767,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -9995,7 +9995,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>['Spain', 'Bulgaria']</t>
+          <t>['Bulgaria', 'Spain']</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -10083,7 +10083,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>['Spain', 'Bulgaria']</t>
+          <t>['Bulgaria', 'Spain']</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -10171,7 +10171,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>['Spain', 'France']</t>
+          <t>['France', 'Spain']</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -10259,7 +10259,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>['Spain', 'France']</t>
+          <t>['France', 'Spain']</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -10875,7 +10875,7 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>['Spain', 'France']</t>
+          <t>['France', 'Spain']</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -10963,7 +10963,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>['Spain', 'France']</t>
+          <t>['France', 'Spain']</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -11051,7 +11051,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>['Spain', 'France']</t>
+          <t>['France', 'Spain']</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -11139,7 +11139,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>['Spain', 'France']</t>
+          <t>['France', 'Spain']</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -11213,7 +11213,7 @@
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr">
         <is>
-          <t>['Italy', 'Germany']</t>
+          <t>['Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -11293,7 +11293,7 @@
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr">
         <is>
-          <t>['Italy', 'Germany']</t>
+          <t>['Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -11367,7 +11367,7 @@
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr">
         <is>
-          <t>['Italy', 'Germany']</t>
+          <t>['Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -11447,7 +11447,7 @@
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr">
         <is>
-          <t>['Italy', 'Germany']</t>
+          <t>['Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -11535,7 +11535,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -11627,7 +11627,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -11719,7 +11719,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -11811,7 +11811,7 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -11903,7 +11903,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -11995,7 +11995,7 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -12087,7 +12087,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>['Italy', 'Germany']</t>
+          <t>['Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -12175,7 +12175,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>['Italy', 'Germany']</t>
+          <t>['Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -12263,7 +12263,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>['Italy', 'Germany']</t>
+          <t>['Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -12351,7 +12351,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>['Italy', 'Germany']</t>
+          <t>['Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -12439,7 +12439,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>['Italy', 'Germany']</t>
+          <t>['Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -12527,7 +12527,7 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>['Italy', 'Germany']</t>
+          <t>['Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -12601,7 +12601,7 @@
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -12681,7 +12681,7 @@
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -12765,7 +12765,7 @@
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -12839,7 +12839,7 @@
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -12919,7 +12919,7 @@
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -13003,7 +13003,7 @@
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -13091,7 +13091,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -13179,7 +13179,7 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -13267,7 +13267,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -13355,7 +13355,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -13443,7 +13443,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -13531,7 +13531,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -13619,7 +13619,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -13707,7 +13707,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -13795,7 +13795,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -13883,7 +13883,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -13971,7 +13971,7 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -14059,7 +14059,7 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -14133,7 +14133,7 @@
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -14213,7 +14213,7 @@
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -14291,7 +14291,7 @@
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -14371,7 +14371,7 @@
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -14463,7 +14463,7 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>['Portugal', 'Romania']</t>
+          <t>['Romania', 'Portugal']</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -14551,7 +14551,7 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>['Portugal', 'Romania']</t>
+          <t>['Romania', 'Portugal']</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -14639,7 +14639,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>['Portugal', 'Romania']</t>
+          <t>['Romania', 'Portugal']</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -14727,7 +14727,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>['Portugal', 'Romania']</t>
+          <t>['Romania', 'Portugal']</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -14815,7 +14815,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -14907,7 +14907,7 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -14999,7 +14999,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -15087,7 +15087,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -15175,7 +15175,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -15267,7 +15267,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -15359,7 +15359,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -15451,7 +15451,7 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -15543,7 +15543,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -15635,7 +15635,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -15727,7 +15727,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>['Portugal', 'Romania']</t>
+          <t>['Romania', 'Portugal']</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -15815,7 +15815,7 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>['Portugal', 'Romania']</t>
+          <t>['Romania', 'Portugal']</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -15889,7 +15889,7 @@
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy']</t>
+          <t>['Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -15969,7 +15969,7 @@
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy']</t>
+          <t>['Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -16047,7 +16047,7 @@
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy']</t>
+          <t>['Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -16127,7 +16127,7 @@
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy']</t>
+          <t>['Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -16219,7 +16219,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy']</t>
+          <t>['Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -16311,7 +16311,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy']</t>
+          <t>['Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -17093,7 +17093,7 @@
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr">
         <is>
-          <t>['Spain', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Spain']</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -17173,7 +17173,7 @@
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr">
         <is>
-          <t>['Spain', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Spain']</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -17247,7 +17247,7 @@
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr">
         <is>
-          <t>['Spain', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Spain']</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -17327,7 +17327,7 @@
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr">
         <is>
-          <t>['Spain', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Spain']</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -17415,7 +17415,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>['Norway', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -17503,7 +17503,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>['Norway', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -17591,7 +17591,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>['Spain', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Spain']</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -17679,7 +17679,7 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>['Spain', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Spain']</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -17767,7 +17767,7 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>['Norway', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -17855,7 +17855,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>['Norway', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -17943,7 +17943,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>['Spain', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Spain']</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -18031,7 +18031,7 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>['Spain', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Spain']</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -18119,7 +18119,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>['Norway', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -18207,7 +18207,7 @@
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>['Norway', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -18295,7 +18295,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>['Spain', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Spain']</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -18383,7 +18383,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>['Spain', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Spain']</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -18471,7 +18471,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>['Spain', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Spain']</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -18559,7 +18559,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>['Spain', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Spain']</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -18633,7 +18633,7 @@
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -18713,7 +18713,7 @@
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -18787,7 +18787,7 @@
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -18867,7 +18867,7 @@
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -18955,7 +18955,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -19043,7 +19043,7 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -19131,7 +19131,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -19219,7 +19219,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -19307,7 +19307,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -19395,7 +19395,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -19483,7 +19483,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -19571,7 +19571,7 @@
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -19659,7 +19659,7 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -19747,7 +19747,7 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -19835,7 +19835,7 @@
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -19923,7 +19923,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -20011,7 +20011,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -20099,7 +20099,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -20173,7 +20173,7 @@
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr">
         <is>
-          <t>['Spain', 'Greece']</t>
+          <t>['Greece', 'Spain']</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -20253,7 +20253,7 @@
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr">
         <is>
-          <t>['Spain', 'Greece']</t>
+          <t>['Greece', 'Spain']</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -20327,7 +20327,7 @@
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr">
         <is>
-          <t>['Spain', 'Greece']</t>
+          <t>['Greece', 'Spain']</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -20407,7 +20407,7 @@
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr">
         <is>
-          <t>['Spain', 'Greece']</t>
+          <t>['Greece', 'Spain']</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -20495,7 +20495,7 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -20583,7 +20583,7 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -20671,7 +20671,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -20759,7 +20759,7 @@
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -20847,7 +20847,7 @@
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -20935,7 +20935,7 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -21023,7 +21023,7 @@
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>['Portugal', 'Greece']</t>
+          <t>['Greece', 'Portugal']</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -21111,7 +21111,7 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>['Portugal', 'Greece']</t>
+          <t>['Greece', 'Portugal']</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -21185,7 +21185,7 @@
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -21255,7 +21255,7 @@
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -21339,7 +21339,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>['Croatia', 'France']</t>
+          <t>['France', 'Croatia']</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -21427,7 +21427,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>['Croatia', 'France']</t>
+          <t>['France', 'Croatia']</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -21515,7 +21515,7 @@
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>['Croatia', 'France']</t>
+          <t>['France', 'Croatia']</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -21603,7 +21603,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>['Croatia', 'France']</t>
+          <t>['France', 'Croatia']</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -21691,7 +21691,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>['Croatia', 'France']</t>
+          <t>['France', 'Croatia']</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -21779,7 +21779,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>['Croatia', 'France']</t>
+          <t>['France', 'Croatia']</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -21867,7 +21867,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -21955,7 +21955,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -22043,7 +22043,7 @@
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -22131,7 +22131,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -22219,7 +22219,7 @@
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -22307,7 +22307,7 @@
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -22395,7 +22395,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -22483,7 +22483,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -22571,7 +22571,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -22659,7 +22659,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -22747,7 +22747,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -22835,7 +22835,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -22923,7 +22923,7 @@
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -23011,7 +23011,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -24457,7 +24457,7 @@
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
@@ -24537,7 +24537,7 @@
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -24611,7 +24611,7 @@
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -24691,7 +24691,7 @@
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -24779,7 +24779,7 @@
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
@@ -24867,7 +24867,7 @@
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -24955,7 +24955,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -25043,7 +25043,7 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -25131,7 +25131,7 @@
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Netherlands']</t>
+          <t>['Netherlands', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
@@ -25219,7 +25219,7 @@
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Netherlands']</t>
+          <t>['Netherlands', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
@@ -25307,7 +25307,7 @@
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Netherlands']</t>
+          <t>['Netherlands', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
@@ -25395,7 +25395,7 @@
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Netherlands']</t>
+          <t>['Netherlands', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
@@ -25483,7 +25483,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Netherlands']</t>
+          <t>['Netherlands', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -25571,7 +25571,7 @@
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Netherlands']</t>
+          <t>['Netherlands', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -25659,7 +25659,7 @@
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Netherlands']</t>
+          <t>['Netherlands', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K294" t="inlineStr">
@@ -25747,7 +25747,7 @@
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Netherlands']</t>
+          <t>['Netherlands', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K295" t="inlineStr">
@@ -25821,7 +25821,7 @@
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K296" t="inlineStr">
@@ -25901,7 +25901,7 @@
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -25975,7 +25975,7 @@
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -26055,7 +26055,7 @@
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -26143,7 +26143,7 @@
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
@@ -26231,7 +26231,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -26319,7 +26319,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -26407,7 +26407,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -26495,7 +26495,7 @@
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K304" t="inlineStr">
@@ -26583,7 +26583,7 @@
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -26671,7 +26671,7 @@
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K306" t="inlineStr">
@@ -26759,7 +26759,7 @@
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -26847,7 +26847,7 @@
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -26935,7 +26935,7 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -27023,7 +27023,7 @@
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -27111,7 +27111,7 @@
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -27199,7 +27199,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey']</t>
+          <t>['Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -27287,7 +27287,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey']</t>
+          <t>['Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -27361,7 +27361,7 @@
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -27441,7 +27441,7 @@
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -27525,7 +27525,7 @@
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="K316" t="inlineStr">
@@ -27599,7 +27599,7 @@
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
@@ -27679,7 +27679,7 @@
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -27763,7 +27763,7 @@
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="K319" t="inlineStr">
@@ -27851,7 +27851,7 @@
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="K320" t="inlineStr">
@@ -27939,7 +27939,7 @@
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="K321" t="inlineStr">
@@ -28027,7 +28027,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
@@ -28115,7 +28115,7 @@
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
@@ -28189,7 +28189,7 @@
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr">
         <is>
-          <t>['Romania', 'Netherlands']</t>
+          <t>['Netherlands', 'Romania']</t>
         </is>
       </c>
       <c r="K324" t="inlineStr">
@@ -28269,7 +28269,7 @@
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr">
         <is>
-          <t>['Romania', 'Netherlands']</t>
+          <t>['Netherlands', 'Romania']</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
@@ -28353,7 +28353,7 @@
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr">
         <is>
-          <t>['Romania', 'Netherlands']</t>
+          <t>['Netherlands', 'Romania']</t>
         </is>
       </c>
       <c r="K326" t="inlineStr">
@@ -28427,7 +28427,7 @@
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr">
         <is>
-          <t>['Romania', 'Netherlands']</t>
+          <t>['Netherlands', 'Romania']</t>
         </is>
       </c>
       <c r="K327" t="inlineStr">
@@ -28507,7 +28507,7 @@
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr">
         <is>
-          <t>['Romania', 'Netherlands']</t>
+          <t>['Netherlands', 'Romania']</t>
         </is>
       </c>
       <c r="K328" t="inlineStr">
@@ -28591,7 +28591,7 @@
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr">
         <is>
-          <t>['Romania', 'Netherlands']</t>
+          <t>['Netherlands', 'Romania']</t>
         </is>
       </c>
       <c r="K329" t="inlineStr">
@@ -28679,7 +28679,7 @@
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="K330" t="inlineStr">
@@ -28767,7 +28767,7 @@
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="K331" t="inlineStr">
@@ -28855,7 +28855,7 @@
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="K332" t="inlineStr">
@@ -28943,7 +28943,7 @@
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="K333" t="inlineStr">
@@ -29031,7 +29031,7 @@
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="K334" t="inlineStr">
@@ -29119,7 +29119,7 @@
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="K335" t="inlineStr">
@@ -29207,7 +29207,7 @@
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="K336" t="inlineStr">
@@ -29295,7 +29295,7 @@
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="K337" t="inlineStr">
@@ -29369,7 +29369,7 @@
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden']</t>
+          <t>['Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K338" t="inlineStr">
@@ -29449,7 +29449,7 @@
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden']</t>
+          <t>['Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K339" t="inlineStr">
@@ -29523,7 +29523,7 @@
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden']</t>
+          <t>['Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K340" t="inlineStr">
@@ -29603,7 +29603,7 @@
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden']</t>
+          <t>['Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K341" t="inlineStr">
@@ -29691,7 +29691,7 @@
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="K342" t="inlineStr">
@@ -29779,7 +29779,7 @@
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="K343" t="inlineStr">
@@ -29867,7 +29867,7 @@
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="K344" t="inlineStr">
@@ -29955,7 +29955,7 @@
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="K345" t="inlineStr">
@@ -30043,7 +30043,7 @@
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="K346" t="inlineStr">
@@ -30131,7 +30131,7 @@
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="K347" t="inlineStr">
@@ -30219,7 +30219,7 @@
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
@@ -30307,7 +30307,7 @@
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="K349" t="inlineStr">
@@ -30395,7 +30395,7 @@
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="K350" t="inlineStr">
@@ -30483,7 +30483,7 @@
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="K351" t="inlineStr">
@@ -30557,7 +30557,7 @@
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Russia']</t>
+          <t>['Russia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K352" t="inlineStr">
@@ -30637,7 +30637,7 @@
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Russia']</t>
+          <t>['Russia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K353" t="inlineStr">
@@ -30721,7 +30721,7 @@
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Russia']</t>
+          <t>['Russia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K354" t="inlineStr">
@@ -30795,7 +30795,7 @@
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Russia']</t>
+          <t>['Russia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K355" t="inlineStr">
@@ -30875,7 +30875,7 @@
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Russia']</t>
+          <t>['Russia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K356" t="inlineStr">
@@ -30959,7 +30959,7 @@
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Russia']</t>
+          <t>['Russia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K357" t="inlineStr">
@@ -31223,7 +31223,7 @@
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Russia']</t>
+          <t>['Russia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K360" t="inlineStr">
@@ -31311,7 +31311,7 @@
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Russia']</t>
+          <t>['Russia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K361" t="inlineStr">
@@ -31385,7 +31385,7 @@
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany']</t>
+          <t>['Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K362" t="inlineStr">
@@ -31455,7 +31455,7 @@
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany']</t>
+          <t>['Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K363" t="inlineStr">
@@ -31539,7 +31539,7 @@
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>['Denmark', 'Germany']</t>
+          <t>['Germany', 'Denmark']</t>
         </is>
       </c>
       <c r="K364" t="inlineStr">
@@ -31627,7 +31627,7 @@
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>['Denmark', 'Germany']</t>
+          <t>['Germany', 'Denmark']</t>
         </is>
       </c>
       <c r="K365" t="inlineStr">
@@ -31715,7 +31715,7 @@
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany']</t>
+          <t>['Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K366" t="inlineStr">
@@ -31803,7 +31803,7 @@
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany']</t>
+          <t>['Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K367" t="inlineStr">
@@ -31891,7 +31891,7 @@
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>['Denmark', 'Germany']</t>
+          <t>['Germany', 'Denmark']</t>
         </is>
       </c>
       <c r="K368" t="inlineStr">
@@ -31979,7 +31979,7 @@
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>['Denmark', 'Germany']</t>
+          <t>['Germany', 'Denmark']</t>
         </is>
       </c>
       <c r="K369" t="inlineStr">
@@ -32067,7 +32067,7 @@
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany']</t>
+          <t>['Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K370" t="inlineStr">
@@ -32155,7 +32155,7 @@
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany']</t>
+          <t>['Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K371" t="inlineStr">
@@ -32243,7 +32243,7 @@
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany']</t>
+          <t>['Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K372" t="inlineStr">
@@ -32335,7 +32335,7 @@
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany']</t>
+          <t>['Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K373" t="inlineStr">
@@ -32427,7 +32427,7 @@
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany']</t>
+          <t>['Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K374" t="inlineStr">
@@ -32515,7 +32515,7 @@
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany']</t>
+          <t>['Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K375" t="inlineStr">
@@ -32589,7 +32589,7 @@
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K376" t="inlineStr">
@@ -32669,7 +32669,7 @@
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K377" t="inlineStr">
@@ -32753,7 +32753,7 @@
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K378" t="inlineStr">
@@ -32827,7 +32827,7 @@
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K379" t="inlineStr">
@@ -32907,7 +32907,7 @@
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K380" t="inlineStr">
@@ -32991,7 +32991,7 @@
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K381" t="inlineStr">
@@ -33079,7 +33079,7 @@
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy']</t>
+          <t>['Italy', 'Spain']</t>
         </is>
       </c>
       <c r="K382" t="inlineStr">
@@ -33167,7 +33167,7 @@
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy']</t>
+          <t>['Italy', 'Spain']</t>
         </is>
       </c>
       <c r="K383" t="inlineStr">
@@ -33255,7 +33255,7 @@
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy']</t>
+          <t>['Italy', 'Spain']</t>
         </is>
       </c>
       <c r="K384" t="inlineStr">
@@ -33343,7 +33343,7 @@
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy']</t>
+          <t>['Italy', 'Spain']</t>
         </is>
       </c>
       <c r="K385" t="inlineStr">
@@ -33431,7 +33431,7 @@
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy']</t>
+          <t>['Italy', 'Spain']</t>
         </is>
       </c>
       <c r="K386" t="inlineStr">
@@ -33519,7 +33519,7 @@
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy']</t>
+          <t>['Italy', 'Spain']</t>
         </is>
       </c>
       <c r="K387" t="inlineStr">
@@ -33593,7 +33593,7 @@
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K388" t="inlineStr">
@@ -33673,7 +33673,7 @@
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K389" t="inlineStr">
@@ -33757,7 +33757,7 @@
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K390" t="inlineStr">
@@ -33831,7 +33831,7 @@
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K391" t="inlineStr">
@@ -33911,7 +33911,7 @@
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K392" t="inlineStr">
@@ -33995,7 +33995,7 @@
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K393" t="inlineStr">
@@ -34083,7 +34083,7 @@
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K394" t="inlineStr">
@@ -34171,7 +34171,7 @@
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K395" t="inlineStr">
@@ -34259,7 +34259,7 @@
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K396" t="inlineStr">
@@ -34347,7 +34347,7 @@
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K397" t="inlineStr">
@@ -34435,7 +34435,7 @@
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K398" t="inlineStr">
@@ -34523,7 +34523,7 @@
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K399" t="inlineStr">
@@ -34597,7 +34597,7 @@
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr">
         <is>
-          <t>['Romania', 'France', 'Switzerland']</t>
+          <t>['Romania', 'Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K400" t="inlineStr">
@@ -34623,11 +34623,11 @@
       </c>
       <c r="P400" t="inlineStr"/>
       <c r="Q400" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R400" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['France', 'Switzerland', 'Romania']</t>
         </is>
       </c>
       <c r="S400" t="n">
@@ -34677,7 +34677,7 @@
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr">
         <is>
-          <t>['Romania', 'France', 'Switzerland']</t>
+          <t>['Romania', 'Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K401" t="inlineStr">
@@ -34703,11 +34703,11 @@
       </c>
       <c r="P401" t="inlineStr"/>
       <c r="Q401" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R401" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['France', 'Switzerland', 'Romania']</t>
         </is>
       </c>
       <c r="S401" t="n">
@@ -34761,7 +34761,7 @@
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr">
         <is>
-          <t>['Romania', 'France', 'Switzerland']</t>
+          <t>['Romania', 'Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K402" t="inlineStr">
@@ -34787,11 +34787,11 @@
       </c>
       <c r="P402" t="inlineStr"/>
       <c r="Q402" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R402" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['France', 'Switzerland', 'Romania']</t>
         </is>
       </c>
       <c r="S402" t="n">
@@ -34849,7 +34849,7 @@
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>['France', 'Albania', 'Switzerland']</t>
+          <t>['Switzerland', 'France', 'Albania']</t>
         </is>
       </c>
       <c r="K403" t="inlineStr">
@@ -34923,7 +34923,7 @@
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr">
         <is>
-          <t>['Wales', 'Slovakia', 'England']</t>
+          <t>['England', 'Slovakia', 'Wales']</t>
         </is>
       </c>
       <c r="K404" t="inlineStr">
@@ -35003,7 +35003,7 @@
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr">
         <is>
-          <t>['Wales', 'Slovakia', 'England']</t>
+          <t>['England', 'Slovakia', 'Wales']</t>
         </is>
       </c>
       <c r="K405" t="inlineStr">
@@ -35091,7 +35091,7 @@
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr">
         <is>
-          <t>['Wales', 'Slovakia', 'England']</t>
+          <t>['England', 'Slovakia', 'Wales']</t>
         </is>
       </c>
       <c r="K406" t="inlineStr">
@@ -35169,7 +35169,7 @@
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr">
         <is>
-          <t>['Wales', 'Slovakia', 'England']</t>
+          <t>['England', 'Slovakia', 'Wales']</t>
         </is>
       </c>
       <c r="K407" t="inlineStr">
@@ -35249,7 +35249,7 @@
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr">
         <is>
-          <t>['Wales', 'Slovakia', 'England']</t>
+          <t>['England', 'Slovakia', 'Wales']</t>
         </is>
       </c>
       <c r="K408" t="inlineStr">
@@ -35337,7 +35337,7 @@
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr">
         <is>
-          <t>['Wales', 'Slovakia', 'England']</t>
+          <t>['England', 'Slovakia', 'Wales']</t>
         </is>
       </c>
       <c r="K409" t="inlineStr">
@@ -35429,7 +35429,7 @@
       </c>
       <c r="J410" t="inlineStr">
         <is>
-          <t>['Wales', 'Slovakia', 'England']</t>
+          <t>['England', 'Slovakia', 'Wales']</t>
         </is>
       </c>
       <c r="K410" t="inlineStr">
@@ -35517,7 +35517,7 @@
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>['Wales', 'Slovakia', 'England']</t>
+          <t>['England', 'Slovakia', 'Wales']</t>
         </is>
       </c>
       <c r="K411" t="inlineStr">
@@ -35605,7 +35605,7 @@
       </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>['Wales', 'Slovakia', 'England']</t>
+          <t>['England', 'Slovakia', 'Wales']</t>
         </is>
       </c>
       <c r="K412" t="inlineStr">
@@ -35693,7 +35693,7 @@
       </c>
       <c r="J413" t="inlineStr">
         <is>
-          <t>['Wales', 'Slovakia', 'England']</t>
+          <t>['England', 'Slovakia', 'Wales']</t>
         </is>
       </c>
       <c r="K413" t="inlineStr">
@@ -35781,7 +35781,7 @@
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>['Wales', 'Slovakia', 'England']</t>
+          <t>['England', 'Slovakia', 'Wales']</t>
         </is>
       </c>
       <c r="K414" t="inlineStr">
@@ -35869,7 +35869,7 @@
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>['Wales', 'Slovakia', 'England']</t>
+          <t>['England', 'Slovakia', 'Wales']</t>
         </is>
       </c>
       <c r="K415" t="inlineStr">
@@ -35943,7 +35943,7 @@
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Poland', 'Germany']</t>
+          <t>['Germany', 'Northern Ireland', 'Poland']</t>
         </is>
       </c>
       <c r="K416" t="inlineStr">
@@ -36023,7 +36023,7 @@
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Poland', 'Germany']</t>
+          <t>['Germany', 'Northern Ireland', 'Poland']</t>
         </is>
       </c>
       <c r="K417" t="inlineStr">
@@ -36107,7 +36107,7 @@
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Poland', 'Germany']</t>
+          <t>['Germany', 'Northern Ireland', 'Poland']</t>
         </is>
       </c>
       <c r="K418" t="inlineStr">
@@ -36181,7 +36181,7 @@
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Poland', 'Germany']</t>
+          <t>['Germany', 'Northern Ireland', 'Poland']</t>
         </is>
       </c>
       <c r="K419" t="inlineStr">
@@ -36261,7 +36261,7 @@
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Poland', 'Germany']</t>
+          <t>['Germany', 'Northern Ireland', 'Poland']</t>
         </is>
       </c>
       <c r="K420" t="inlineStr">
@@ -36345,7 +36345,7 @@
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Poland', 'Germany']</t>
+          <t>['Germany', 'Northern Ireland', 'Poland']</t>
         </is>
       </c>
       <c r="K421" t="inlineStr">
@@ -36433,7 +36433,7 @@
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Poland', 'Germany']</t>
+          <t>['Germany', 'Northern Ireland', 'Poland']</t>
         </is>
       </c>
       <c r="K422" t="inlineStr">
@@ -36521,7 +36521,7 @@
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Poland', 'Germany']</t>
+          <t>['Germany', 'Northern Ireland', 'Poland']</t>
         </is>
       </c>
       <c r="K423" t="inlineStr">
@@ -36609,7 +36609,7 @@
       </c>
       <c r="J424" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Poland', 'Germany']</t>
+          <t>['Germany', 'Northern Ireland', 'Poland']</t>
         </is>
       </c>
       <c r="K424" t="inlineStr">
@@ -36697,7 +36697,7 @@
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Poland', 'Germany']</t>
+          <t>['Germany', 'Northern Ireland', 'Poland']</t>
         </is>
       </c>
       <c r="K425" t="inlineStr">
@@ -36771,7 +36771,7 @@
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Spain', 'Croatia']</t>
+          <t>['Czech Republic', 'Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K426" t="inlineStr">
@@ -36797,11 +36797,11 @@
       </c>
       <c r="P426" t="inlineStr"/>
       <c r="Q426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R426" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Czech Republic']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="S426" t="n">
@@ -36851,7 +36851,7 @@
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Spain', 'Croatia']</t>
+          <t>['Czech Republic', 'Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K427" t="inlineStr">
@@ -36877,11 +36877,11 @@
       </c>
       <c r="P427" t="inlineStr"/>
       <c r="Q427" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R427" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Czech Republic']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="S427" t="n">
@@ -36925,7 +36925,7 @@
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Spain', 'Croatia']</t>
+          <t>['Czech Republic', 'Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K428" t="inlineStr">
@@ -36951,11 +36951,11 @@
       </c>
       <c r="P428" t="inlineStr"/>
       <c r="Q428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R428" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Czech Republic']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="S428" t="n">
@@ -37005,7 +37005,7 @@
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Spain', 'Croatia']</t>
+          <t>['Czech Republic', 'Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K429" t="inlineStr">
@@ -37031,11 +37031,11 @@
       </c>
       <c r="P429" t="inlineStr"/>
       <c r="Q429" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R429" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Czech Republic']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="S429" t="n">
@@ -37093,7 +37093,7 @@
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Spain', 'Croatia']</t>
+          <t>['Czech Republic', 'Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K430" t="inlineStr">
@@ -37127,10 +37127,10 @@
         </is>
       </c>
       <c r="S430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U430" t="n">
         <v>1818</v>
@@ -37181,7 +37181,7 @@
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Spain', 'Croatia']</t>
+          <t>['Czech Republic', 'Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K431" t="inlineStr">
@@ -37218,7 +37218,7 @@
         <v>0</v>
       </c>
       <c r="T431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U431" t="n">
         <v>1818</v>
@@ -37269,7 +37269,7 @@
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Turkey']</t>
+          <t>['Turkey', 'Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K432" t="inlineStr">
@@ -37295,15 +37295,15 @@
       </c>
       <c r="P432" t="inlineStr"/>
       <c r="Q432" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R432" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Spain', 'Croatia', 'Turkey']</t>
         </is>
       </c>
       <c r="S432" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T432" t="n">
         <v>1</v>
@@ -37357,7 +37357,7 @@
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Turkey']</t>
+          <t>['Turkey', 'Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K433" t="inlineStr">
@@ -37383,11 +37383,11 @@
       </c>
       <c r="P433" t="inlineStr"/>
       <c r="Q433" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R433" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Spain', 'Croatia', 'Turkey']</t>
         </is>
       </c>
       <c r="S433" t="n">
@@ -37445,7 +37445,7 @@
       </c>
       <c r="J434" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Turkey']</t>
+          <t>['Turkey', 'Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K434" t="inlineStr">
@@ -37471,11 +37471,11 @@
       </c>
       <c r="P434" t="inlineStr"/>
       <c r="Q434" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R434" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Spain', 'Croatia', 'Turkey']</t>
         </is>
       </c>
       <c r="S434" t="n">
@@ -37533,7 +37533,7 @@
       </c>
       <c r="J435" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Turkey']</t>
+          <t>['Turkey', 'Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K435" t="inlineStr">
@@ -37559,11 +37559,11 @@
       </c>
       <c r="P435" t="inlineStr"/>
       <c r="Q435" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R435" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Spain', 'Croatia', 'Turkey']</t>
         </is>
       </c>
       <c r="S435" t="n">
@@ -37621,7 +37621,7 @@
       </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Turkey']</t>
+          <t>['Turkey', 'Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K436" t="inlineStr">
@@ -37655,10 +37655,10 @@
         </is>
       </c>
       <c r="S436" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T436" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U436" t="n">
         <v>1755</v>
@@ -37709,7 +37709,7 @@
       </c>
       <c r="J437" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Turkey']</t>
+          <t>['Turkey', 'Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K437" t="inlineStr">
@@ -37746,7 +37746,7 @@
         <v>0</v>
       </c>
       <c r="T437" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U437" t="n">
         <v>1755</v>
@@ -37797,7 +37797,7 @@
       </c>
       <c r="J438" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Turkey']</t>
+          <t>['Turkey', 'Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K438" t="inlineStr">
@@ -37834,7 +37834,7 @@
         <v>0</v>
       </c>
       <c r="T438" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U438" t="n">
         <v>1818</v>
@@ -37885,7 +37885,7 @@
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Turkey']</t>
+          <t>['Turkey', 'Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K439" t="inlineStr">
@@ -37922,7 +37922,7 @@
         <v>0</v>
       </c>
       <c r="T439" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U439" t="n">
         <v>1818</v>
@@ -37959,7 +37959,7 @@
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr">
         <is>
-          <t>['Belgium', 'Sweden', 'Italy']</t>
+          <t>['Italy', 'Belgium', 'Sweden']</t>
         </is>
       </c>
       <c r="K440" t="inlineStr">
@@ -38039,7 +38039,7 @@
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr">
         <is>
-          <t>['Belgium', 'Sweden', 'Italy']</t>
+          <t>['Italy', 'Belgium', 'Sweden']</t>
         </is>
       </c>
       <c r="K441" t="inlineStr">
@@ -38123,7 +38123,7 @@
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr">
         <is>
-          <t>['Belgium', 'Sweden', 'Italy']</t>
+          <t>['Italy', 'Belgium', 'Sweden']</t>
         </is>
       </c>
       <c r="K442" t="inlineStr">
@@ -38197,7 +38197,7 @@
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr">
         <is>
-          <t>['Belgium', 'Sweden', 'Italy']</t>
+          <t>['Italy', 'Belgium', 'Sweden']</t>
         </is>
       </c>
       <c r="K443" t="inlineStr">
@@ -38277,7 +38277,7 @@
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr">
         <is>
-          <t>['Belgium', 'Sweden', 'Italy']</t>
+          <t>['Italy', 'Belgium', 'Sweden']</t>
         </is>
       </c>
       <c r="K444" t="inlineStr">
@@ -38361,7 +38361,7 @@
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr">
         <is>
-          <t>['Belgium', 'Sweden', 'Italy']</t>
+          <t>['Italy', 'Belgium', 'Sweden']</t>
         </is>
       </c>
       <c r="K445" t="inlineStr">
@@ -38449,7 +38449,7 @@
       </c>
       <c r="J446" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy', 'Ireland']</t>
+          <t>['Italy', 'Belgium', 'Ireland']</t>
         </is>
       </c>
       <c r="K446" t="inlineStr">
@@ -38537,7 +38537,7 @@
       </c>
       <c r="J447" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy', 'Ireland']</t>
+          <t>['Italy', 'Belgium', 'Ireland']</t>
         </is>
       </c>
       <c r="K447" t="inlineStr">
@@ -38625,7 +38625,7 @@
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy', 'Ireland']</t>
+          <t>['Italy', 'Belgium', 'Ireland']</t>
         </is>
       </c>
       <c r="K448" t="inlineStr">
@@ -38713,7 +38713,7 @@
       </c>
       <c r="J449" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy', 'Ireland']</t>
+          <t>['Italy', 'Belgium', 'Ireland']</t>
         </is>
       </c>
       <c r="K449" t="inlineStr">
@@ -38787,7 +38787,7 @@
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K450" t="inlineStr">
@@ -38857,7 +38857,7 @@
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K451" t="inlineStr">
@@ -38941,7 +38941,7 @@
       </c>
       <c r="J452" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K452" t="inlineStr">
@@ -39029,7 +39029,7 @@
       </c>
       <c r="J453" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K453" t="inlineStr">
@@ -39117,7 +39117,7 @@
       </c>
       <c r="J454" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K454" t="inlineStr">
@@ -39205,7 +39205,7 @@
       </c>
       <c r="J455" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K455" t="inlineStr">
@@ -39293,7 +39293,7 @@
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K456" t="inlineStr">
@@ -39381,7 +39381,7 @@
       </c>
       <c r="J457" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K457" t="inlineStr">
@@ -39469,7 +39469,7 @@
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K458" t="inlineStr">
@@ -39495,18 +39495,18 @@
       </c>
       <c r="P458" t="inlineStr"/>
       <c r="Q458" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R458" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="S458" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T458" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U458" t="n">
         <v>1697</v>
@@ -39557,7 +39557,7 @@
       </c>
       <c r="J459" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K459" t="inlineStr">
@@ -39583,18 +39583,18 @@
       </c>
       <c r="P459" t="inlineStr"/>
       <c r="Q459" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R459" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="S459" t="n">
         <v>0</v>
       </c>
       <c r="T459" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U459" t="n">
         <v>1697</v>
@@ -39645,7 +39645,7 @@
       </c>
       <c r="J460" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K460" t="inlineStr">
@@ -39679,10 +39679,10 @@
         </is>
       </c>
       <c r="S460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T460" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U460" t="n">
         <v>1697</v>
@@ -39733,7 +39733,7 @@
       </c>
       <c r="J461" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K461" t="inlineStr">
@@ -39770,7 +39770,7 @@
         <v>0</v>
       </c>
       <c r="T461" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U461" t="n">
         <v>1697</v>
@@ -39821,7 +39821,7 @@
       </c>
       <c r="J462" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K462" t="inlineStr">
@@ -39847,18 +39847,18 @@
       </c>
       <c r="P462" t="inlineStr"/>
       <c r="Q462" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R462" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="S462" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T462" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U462" t="n">
         <v>1697</v>
@@ -39909,7 +39909,7 @@
       </c>
       <c r="J463" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K463" t="inlineStr">
@@ -39935,18 +39935,18 @@
       </c>
       <c r="P463" t="inlineStr"/>
       <c r="Q463" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R463" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="S463" t="n">
         <v>0</v>
       </c>
       <c r="T463" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U463" t="n">
         <v>1697</v>
@@ -39997,7 +39997,7 @@
       </c>
       <c r="J464" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K464" t="inlineStr">
@@ -40023,18 +40023,18 @@
       </c>
       <c r="P464" t="inlineStr"/>
       <c r="Q464" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R464" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="S464" t="n">
         <v>0</v>
       </c>
       <c r="T464" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U464" t="n">
         <v>1666</v>
@@ -40085,7 +40085,7 @@
       </c>
       <c r="J465" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K465" t="inlineStr">
@@ -40111,18 +40111,18 @@
       </c>
       <c r="P465" t="inlineStr"/>
       <c r="Q465" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R465" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="S465" t="n">
         <v>0</v>
       </c>
       <c r="T465" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U465" t="n">
         <v>1666</v>
@@ -40173,7 +40173,7 @@
       </c>
       <c r="J466" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K466" t="inlineStr">
@@ -40207,10 +40207,10 @@
         </is>
       </c>
       <c r="S466" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T466" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="U466" t="n">
         <v>1697</v>
@@ -40261,7 +40261,7 @@
       </c>
       <c r="J467" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K467" t="inlineStr">
@@ -40298,7 +40298,7 @@
         <v>0</v>
       </c>
       <c r="T467" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="U467" t="n">
         <v>1697</v>
@@ -40349,7 +40349,7 @@
       </c>
       <c r="J468" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K468" t="inlineStr">
@@ -40386,7 +40386,7 @@
         <v>0</v>
       </c>
       <c r="T468" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="U468" t="n">
         <v>1666</v>
@@ -40437,7 +40437,7 @@
       </c>
       <c r="J469" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K469" t="inlineStr">
@@ -40474,7 +40474,7 @@
         <v>0</v>
       </c>
       <c r="T469" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="U469" t="n">
         <v>1666</v>
@@ -40511,7 +40511,7 @@
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Italy', 'Switzerland', 'Wales']</t>
         </is>
       </c>
       <c r="K470" t="inlineStr">
@@ -40591,7 +40591,7 @@
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Italy', 'Switzerland', 'Wales']</t>
         </is>
       </c>
       <c r="K471" t="inlineStr">
@@ -40665,7 +40665,7 @@
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Italy', 'Switzerland', 'Wales']</t>
         </is>
       </c>
       <c r="K472" t="inlineStr">
@@ -40745,7 +40745,7 @@
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Italy', 'Switzerland', 'Wales']</t>
         </is>
       </c>
       <c r="K473" t="inlineStr">
@@ -40819,7 +40819,7 @@
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Italy', 'Switzerland', 'Wales']</t>
         </is>
       </c>
       <c r="K474" t="inlineStr">
@@ -40899,7 +40899,7 @@
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Italy', 'Switzerland', 'Wales']</t>
         </is>
       </c>
       <c r="K475" t="inlineStr">
@@ -40987,7 +40987,7 @@
       </c>
       <c r="J476" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Italy', 'Switzerland', 'Wales']</t>
         </is>
       </c>
       <c r="K476" t="inlineStr">
@@ -41075,7 +41075,7 @@
       </c>
       <c r="J477" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Italy', 'Switzerland', 'Wales']</t>
         </is>
       </c>
       <c r="K477" t="inlineStr">
@@ -41163,7 +41163,7 @@
       </c>
       <c r="J478" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Italy', 'Switzerland', 'Wales']</t>
         </is>
       </c>
       <c r="K478" t="inlineStr">
@@ -41251,7 +41251,7 @@
       </c>
       <c r="J479" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Italy', 'Switzerland', 'Wales']</t>
         </is>
       </c>
       <c r="K479" t="inlineStr">
@@ -41339,7 +41339,7 @@
       </c>
       <c r="J480" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Italy', 'Switzerland', 'Wales']</t>
         </is>
       </c>
       <c r="K480" t="inlineStr">
@@ -41427,7 +41427,7 @@
       </c>
       <c r="J481" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Italy', 'Switzerland', 'Wales']</t>
         </is>
       </c>
       <c r="K481" t="inlineStr">
@@ -41515,7 +41515,7 @@
       </c>
       <c r="J482" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Italy', 'Switzerland', 'Wales']</t>
         </is>
       </c>
       <c r="K482" t="inlineStr">
@@ -41603,7 +41603,7 @@
       </c>
       <c r="J483" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Italy', 'Switzerland', 'Wales']</t>
         </is>
       </c>
       <c r="K483" t="inlineStr">
@@ -41691,7 +41691,7 @@
       </c>
       <c r="J484" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Italy', 'Switzerland', 'Wales']</t>
         </is>
       </c>
       <c r="K484" t="inlineStr">
@@ -41779,7 +41779,7 @@
       </c>
       <c r="J485" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Italy', 'Switzerland', 'Wales']</t>
         </is>
       </c>
       <c r="K485" t="inlineStr">
@@ -41867,7 +41867,7 @@
       </c>
       <c r="J486" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Italy', 'Switzerland', 'Wales']</t>
         </is>
       </c>
       <c r="K486" t="inlineStr">
@@ -41955,7 +41955,7 @@
       </c>
       <c r="J487" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Italy', 'Switzerland', 'Wales']</t>
         </is>
       </c>
       <c r="K487" t="inlineStr">
@@ -42043,7 +42043,7 @@
       </c>
       <c r="J488" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Italy', 'Switzerland', 'Wales']</t>
         </is>
       </c>
       <c r="K488" t="inlineStr">
@@ -42131,7 +42131,7 @@
       </c>
       <c r="J489" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Italy', 'Switzerland', 'Wales']</t>
         </is>
       </c>
       <c r="K489" t="inlineStr">
@@ -42219,7 +42219,7 @@
       </c>
       <c r="J490" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Italy', 'Switzerland', 'Wales']</t>
         </is>
       </c>
       <c r="K490" t="inlineStr">
@@ -42293,7 +42293,7 @@
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Russia']</t>
+          <t>['Russia', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K491" t="inlineStr">
@@ -42373,7 +42373,7 @@
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Russia']</t>
+          <t>['Russia', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K492" t="inlineStr">
@@ -42447,7 +42447,7 @@
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Russia']</t>
+          <t>['Russia', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K493" t="inlineStr">
@@ -42527,7 +42527,7 @@
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Russia']</t>
+          <t>['Russia', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K494" t="inlineStr">
@@ -42601,7 +42601,7 @@
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Russia']</t>
+          <t>['Russia', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K495" t="inlineStr">
@@ -42681,7 +42681,7 @@
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Russia']</t>
+          <t>['Russia', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K496" t="inlineStr">
@@ -42755,7 +42755,7 @@
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Russia']</t>
+          <t>['Russia', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K497" t="inlineStr">
@@ -42835,7 +42835,7 @@
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Russia']</t>
+          <t>['Russia', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K498" t="inlineStr">
@@ -42923,7 +42923,7 @@
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Denmark']</t>
+          <t>['Denmark', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K499" t="inlineStr">
@@ -42949,11 +42949,11 @@
       </c>
       <c r="P499" t="inlineStr"/>
       <c r="Q499" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R499" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="S499" t="n">
@@ -43011,7 +43011,7 @@
       </c>
       <c r="J500" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Denmark']</t>
+          <t>['Denmark', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K500" t="inlineStr">
@@ -43037,11 +43037,11 @@
       </c>
       <c r="P500" t="inlineStr"/>
       <c r="Q500" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R500" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="S500" t="n">
@@ -43099,7 +43099,7 @@
       </c>
       <c r="J501" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Denmark']</t>
+          <t>['Denmark', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K501" t="inlineStr">
@@ -43125,11 +43125,11 @@
       </c>
       <c r="P501" t="inlineStr"/>
       <c r="Q501" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R501" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="S501" t="n">
@@ -43187,7 +43187,7 @@
       </c>
       <c r="J502" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Denmark']</t>
+          <t>['Denmark', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K502" t="inlineStr">
@@ -43213,11 +43213,11 @@
       </c>
       <c r="P502" t="inlineStr"/>
       <c r="Q502" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R502" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="S502" t="n">
@@ -43275,7 +43275,7 @@
       </c>
       <c r="J503" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Denmark']</t>
+          <t>['Denmark', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K503" t="inlineStr">
@@ -43309,10 +43309,10 @@
         </is>
       </c>
       <c r="S503" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T503" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U503" t="n">
         <v>1744</v>
@@ -43363,7 +43363,7 @@
       </c>
       <c r="J504" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Denmark']</t>
+          <t>['Denmark', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K504" t="inlineStr">
@@ -43400,7 +43400,7 @@
         <v>0</v>
       </c>
       <c r="T504" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U504" t="n">
         <v>1744</v>
@@ -43451,7 +43451,7 @@
       </c>
       <c r="J505" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Denmark']</t>
+          <t>['Denmark', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K505" t="inlineStr">
@@ -43488,7 +43488,7 @@
         <v>0</v>
       </c>
       <c r="T505" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U505" t="n">
         <v>1744</v>
@@ -43539,7 +43539,7 @@
       </c>
       <c r="J506" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Denmark']</t>
+          <t>['Denmark', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K506" t="inlineStr">
@@ -43576,7 +43576,7 @@
         <v>0</v>
       </c>
       <c r="T506" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U506" t="n">
         <v>1744</v>
@@ -43627,7 +43627,7 @@
       </c>
       <c r="J507" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Denmark']</t>
+          <t>['Denmark', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K507" t="inlineStr">
@@ -43653,18 +43653,18 @@
       </c>
       <c r="P507" t="inlineStr"/>
       <c r="Q507" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R507" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="S507" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T507" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U507" t="n">
         <v>1744</v>
@@ -43715,7 +43715,7 @@
       </c>
       <c r="J508" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Denmark']</t>
+          <t>['Denmark', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K508" t="inlineStr">
@@ -43741,18 +43741,18 @@
       </c>
       <c r="P508" t="inlineStr"/>
       <c r="Q508" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R508" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="S508" t="n">
         <v>0</v>
       </c>
       <c r="T508" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U508" t="n">
         <v>1744</v>
@@ -43803,7 +43803,7 @@
       </c>
       <c r="J509" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Denmark']</t>
+          <t>['Denmark', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K509" t="inlineStr">
@@ -43829,18 +43829,18 @@
       </c>
       <c r="P509" t="inlineStr"/>
       <c r="Q509" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R509" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="S509" t="n">
         <v>0</v>
       </c>
       <c r="T509" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U509" t="n">
         <v>1744</v>
@@ -43891,7 +43891,7 @@
       </c>
       <c r="J510" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Denmark']</t>
+          <t>['Denmark', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K510" t="inlineStr">
@@ -43917,18 +43917,18 @@
       </c>
       <c r="P510" t="inlineStr"/>
       <c r="Q510" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R510" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="S510" t="n">
         <v>0</v>
       </c>
       <c r="T510" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U510" t="n">
         <v>1744</v>
@@ -43979,7 +43979,7 @@
       </c>
       <c r="J511" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Russia']</t>
+          <t>['Denmark', 'Belgium', 'Russia']</t>
         </is>
       </c>
       <c r="K511" t="inlineStr">
@@ -44005,18 +44005,18 @@
       </c>
       <c r="P511" t="inlineStr"/>
       <c r="Q511" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R511" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark']</t>
+          <t>['Belgium', 'Denmark', 'Russia']</t>
         </is>
       </c>
       <c r="S511" t="n">
         <v>1</v>
       </c>
       <c r="T511" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U511" t="n">
         <v>1684</v>
@@ -44067,7 +44067,7 @@
       </c>
       <c r="J512" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Russia']</t>
+          <t>['Denmark', 'Belgium', 'Russia']</t>
         </is>
       </c>
       <c r="K512" t="inlineStr">
@@ -44093,18 +44093,18 @@
       </c>
       <c r="P512" t="inlineStr"/>
       <c r="Q512" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R512" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark']</t>
+          <t>['Belgium', 'Denmark', 'Russia']</t>
         </is>
       </c>
       <c r="S512" t="n">
         <v>0</v>
       </c>
       <c r="T512" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U512" t="n">
         <v>1684</v>
@@ -44155,7 +44155,7 @@
       </c>
       <c r="J513" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Russia']</t>
+          <t>['Denmark', 'Belgium', 'Russia']</t>
         </is>
       </c>
       <c r="K513" t="inlineStr">
@@ -44181,18 +44181,18 @@
       </c>
       <c r="P513" t="inlineStr"/>
       <c r="Q513" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R513" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark']</t>
+          <t>['Belgium', 'Denmark', 'Russia']</t>
         </is>
       </c>
       <c r="S513" t="n">
         <v>0</v>
       </c>
       <c r="T513" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U513" t="n">
         <v>1684</v>
@@ -44243,7 +44243,7 @@
       </c>
       <c r="J514" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Russia']</t>
+          <t>['Denmark', 'Belgium', 'Russia']</t>
         </is>
       </c>
       <c r="K514" t="inlineStr">
@@ -44269,18 +44269,18 @@
       </c>
       <c r="P514" t="inlineStr"/>
       <c r="Q514" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R514" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark']</t>
+          <t>['Belgium', 'Denmark', 'Russia']</t>
         </is>
       </c>
       <c r="S514" t="n">
         <v>0</v>
       </c>
       <c r="T514" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U514" t="n">
         <v>1684</v>
@@ -44331,7 +44331,7 @@
       </c>
       <c r="J515" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Denmark', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K515" t="inlineStr">
@@ -44357,18 +44357,18 @@
       </c>
       <c r="P515" t="inlineStr"/>
       <c r="Q515" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R515" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="S515" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T515" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U515" t="n">
         <v>1744</v>
@@ -44419,7 +44419,7 @@
       </c>
       <c r="J516" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Denmark', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K516" t="inlineStr">
@@ -44445,18 +44445,18 @@
       </c>
       <c r="P516" t="inlineStr"/>
       <c r="Q516" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R516" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="S516" t="n">
         <v>0</v>
       </c>
       <c r="T516" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U516" t="n">
         <v>1744</v>
@@ -44507,7 +44507,7 @@
       </c>
       <c r="J517" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Denmark', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K517" t="inlineStr">
@@ -44533,18 +44533,18 @@
       </c>
       <c r="P517" t="inlineStr"/>
       <c r="Q517" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R517" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="S517" t="n">
         <v>0</v>
       </c>
       <c r="T517" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U517" t="n">
         <v>1744</v>
@@ -44595,7 +44595,7 @@
       </c>
       <c r="J518" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Denmark', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K518" t="inlineStr">
@@ -44621,18 +44621,18 @@
       </c>
       <c r="P518" t="inlineStr"/>
       <c r="Q518" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R518" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="S518" t="n">
         <v>0</v>
       </c>
       <c r="T518" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U518" t="n">
         <v>1744</v>
@@ -44683,7 +44683,7 @@
       </c>
       <c r="J519" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Denmark', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K519" t="inlineStr">
@@ -44709,18 +44709,18 @@
       </c>
       <c r="P519" t="inlineStr"/>
       <c r="Q519" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R519" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="S519" t="n">
         <v>0</v>
       </c>
       <c r="T519" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U519" t="n">
         <v>1684</v>
@@ -44771,7 +44771,7 @@
       </c>
       <c r="J520" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Denmark', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K520" t="inlineStr">
@@ -44797,18 +44797,18 @@
       </c>
       <c r="P520" t="inlineStr"/>
       <c r="Q520" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R520" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="S520" t="n">
         <v>0</v>
       </c>
       <c r="T520" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U520" t="n">
         <v>1684</v>
@@ -44859,7 +44859,7 @@
       </c>
       <c r="J521" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Denmark', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K521" t="inlineStr">
@@ -44885,18 +44885,18 @@
       </c>
       <c r="P521" t="inlineStr"/>
       <c r="Q521" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R521" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="S521" t="n">
         <v>0</v>
       </c>
       <c r="T521" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U521" t="n">
         <v>1684</v>
@@ -44947,7 +44947,7 @@
       </c>
       <c r="J522" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Denmark', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K522" t="inlineStr">
@@ -44973,18 +44973,18 @@
       </c>
       <c r="P522" t="inlineStr"/>
       <c r="Q522" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R522" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="S522" t="n">
         <v>0</v>
       </c>
       <c r="T522" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U522" t="n">
         <v>1684</v>
@@ -45035,7 +45035,7 @@
       </c>
       <c r="J523" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Denmark', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K523" t="inlineStr">
@@ -45061,18 +45061,18 @@
       </c>
       <c r="P523" t="inlineStr"/>
       <c r="Q523" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R523" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="S523" t="n">
         <v>0</v>
       </c>
       <c r="T523" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U523" t="n">
         <v>1744</v>
@@ -45123,7 +45123,7 @@
       </c>
       <c r="J524" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Denmark', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K524" t="inlineStr">
@@ -45149,18 +45149,18 @@
       </c>
       <c r="P524" t="inlineStr"/>
       <c r="Q524" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R524" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="S524" t="n">
         <v>0</v>
       </c>
       <c r="T524" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U524" t="n">
         <v>1744</v>
@@ -45211,7 +45211,7 @@
       </c>
       <c r="J525" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Denmark', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K525" t="inlineStr">
@@ -45237,18 +45237,18 @@
       </c>
       <c r="P525" t="inlineStr"/>
       <c r="Q525" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R525" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="S525" t="n">
         <v>0</v>
       </c>
       <c r="T525" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U525" t="n">
         <v>1744</v>
@@ -45299,7 +45299,7 @@
       </c>
       <c r="J526" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Denmark', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K526" t="inlineStr">
@@ -45325,18 +45325,18 @@
       </c>
       <c r="P526" t="inlineStr"/>
       <c r="Q526" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R526" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="S526" t="n">
         <v>0</v>
       </c>
       <c r="T526" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U526" t="n">
         <v>1744</v>
@@ -45373,7 +45373,7 @@
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="K527" t="inlineStr">
@@ -45453,7 +45453,7 @@
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="K528" t="inlineStr">
@@ -45527,7 +45527,7 @@
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="K529" t="inlineStr">
@@ -45607,7 +45607,7 @@
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="K530" t="inlineStr">
@@ -45681,7 +45681,7 @@
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="K531" t="inlineStr">
@@ -45761,7 +45761,7 @@
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="K532" t="inlineStr">
@@ -45845,7 +45845,7 @@
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="K533" t="inlineStr">
@@ -45929,7 +45929,7 @@
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="K534" t="inlineStr">
@@ -46013,7 +46013,7 @@
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="K535" t="inlineStr">
@@ -46101,7 +46101,7 @@
       </c>
       <c r="J536" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="K536" t="inlineStr">
@@ -46127,18 +46127,18 @@
       </c>
       <c r="P536" t="inlineStr"/>
       <c r="Q536" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R536" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="S536" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T536" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U536" t="n">
         <v>1814</v>
@@ -46189,7 +46189,7 @@
       </c>
       <c r="J537" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="K537" t="inlineStr">
@@ -46215,18 +46215,18 @@
       </c>
       <c r="P537" t="inlineStr"/>
       <c r="Q537" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R537" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="S537" t="n">
         <v>0</v>
       </c>
       <c r="T537" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U537" t="n">
         <v>1814</v>
@@ -46277,7 +46277,7 @@
       </c>
       <c r="J538" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="K538" t="inlineStr">
@@ -46303,18 +46303,18 @@
       </c>
       <c r="P538" t="inlineStr"/>
       <c r="Q538" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R538" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="S538" t="n">
         <v>0</v>
       </c>
       <c r="T538" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U538" t="n">
         <v>1814</v>
@@ -46365,7 +46365,7 @@
       </c>
       <c r="J539" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="K539" t="inlineStr">
@@ -46391,18 +46391,18 @@
       </c>
       <c r="P539" t="inlineStr"/>
       <c r="Q539" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R539" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="S539" t="n">
         <v>0</v>
       </c>
       <c r="T539" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U539" t="n">
         <v>1603</v>
@@ -46453,7 +46453,7 @@
       </c>
       <c r="J540" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="K540" t="inlineStr">
@@ -46479,18 +46479,18 @@
       </c>
       <c r="P540" t="inlineStr"/>
       <c r="Q540" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R540" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="S540" t="n">
         <v>0</v>
       </c>
       <c r="T540" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U540" t="n">
         <v>1603</v>
@@ -46541,7 +46541,7 @@
       </c>
       <c r="J541" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="K541" t="inlineStr">
@@ -46567,18 +46567,18 @@
       </c>
       <c r="P541" t="inlineStr"/>
       <c r="Q541" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R541" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="S541" t="n">
         <v>0</v>
       </c>
       <c r="T541" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U541" t="n">
         <v>1603</v>
@@ -46629,7 +46629,7 @@
       </c>
       <c r="J542" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="K542" t="inlineStr">
@@ -46655,18 +46655,18 @@
       </c>
       <c r="P542" t="inlineStr"/>
       <c r="Q542" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R542" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="S542" t="n">
         <v>0</v>
       </c>
       <c r="T542" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U542" t="n">
         <v>1603</v>
@@ -46717,7 +46717,7 @@
       </c>
       <c r="J543" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="K543" t="inlineStr">
@@ -46743,18 +46743,18 @@
       </c>
       <c r="P543" t="inlineStr"/>
       <c r="Q543" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R543" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="S543" t="n">
         <v>0</v>
       </c>
       <c r="T543" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U543" t="n">
         <v>1603</v>
@@ -46805,7 +46805,7 @@
       </c>
       <c r="J544" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="K544" t="inlineStr">
@@ -46831,18 +46831,18 @@
       </c>
       <c r="P544" t="inlineStr"/>
       <c r="Q544" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R544" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="S544" t="n">
         <v>0</v>
       </c>
       <c r="T544" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U544" t="n">
         <v>1603</v>
@@ -46893,7 +46893,7 @@
       </c>
       <c r="J545" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="K545" t="inlineStr">
@@ -46919,18 +46919,18 @@
       </c>
       <c r="P545" t="inlineStr"/>
       <c r="Q545" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R545" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="S545" t="n">
         <v>0</v>
       </c>
       <c r="T545" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U545" t="n">
         <v>1603</v>
@@ -46981,7 +46981,7 @@
       </c>
       <c r="J546" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="K546" t="inlineStr">
@@ -47007,18 +47007,18 @@
       </c>
       <c r="P546" t="inlineStr"/>
       <c r="Q546" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R546" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="S546" t="n">
         <v>0</v>
       </c>
       <c r="T546" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U546" t="n">
         <v>1603</v>
@@ -47069,7 +47069,7 @@
       </c>
       <c r="J547" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="K547" t="inlineStr">
@@ -47095,18 +47095,18 @@
       </c>
       <c r="P547" t="inlineStr"/>
       <c r="Q547" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R547" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="S547" t="n">
         <v>0</v>
       </c>
       <c r="T547" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U547" t="n">
         <v>1603</v>
@@ -47143,7 +47143,7 @@
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'England']</t>
+          <t>['England', 'Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="K548" t="inlineStr">
@@ -47223,7 +47223,7 @@
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'England']</t>
+          <t>['England', 'Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="K549" t="inlineStr">
@@ -47297,7 +47297,7 @@
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'England']</t>
+          <t>['England', 'Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="K550" t="inlineStr">
@@ -47377,7 +47377,7 @@
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'England']</t>
+          <t>['England', 'Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="K551" t="inlineStr">
@@ -47465,7 +47465,7 @@
       </c>
       <c r="J552" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'England']</t>
+          <t>['England', 'Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="K552" t="inlineStr">
@@ -47553,7 +47553,7 @@
       </c>
       <c r="J553" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'England']</t>
+          <t>['England', 'Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="K553" t="inlineStr">
@@ -47641,7 +47641,7 @@
       </c>
       <c r="J554" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'England']</t>
+          <t>['England', 'Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="K554" t="inlineStr">
@@ -47729,7 +47729,7 @@
       </c>
       <c r="J555" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'England']</t>
+          <t>['England', 'Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="K555" t="inlineStr">
@@ -47817,7 +47817,7 @@
       </c>
       <c r="J556" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'England']</t>
+          <t>['England', 'Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="K556" t="inlineStr">
@@ -47905,7 +47905,7 @@
       </c>
       <c r="J557" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'England']</t>
+          <t>['England', 'Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="K557" t="inlineStr">
@@ -47993,7 +47993,7 @@
       </c>
       <c r="J558" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'England']</t>
+          <t>['England', 'Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="K558" t="inlineStr">
@@ -48081,7 +48081,7 @@
       </c>
       <c r="J559" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'England']</t>
+          <t>['England', 'Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="K559" t="inlineStr">
@@ -48169,7 +48169,7 @@
       </c>
       <c r="J560" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'England']</t>
+          <t>['England', 'Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="K560" t="inlineStr">
@@ -48257,7 +48257,7 @@
       </c>
       <c r="J561" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'England']</t>
+          <t>['England', 'Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="K561" t="inlineStr">
@@ -48331,7 +48331,7 @@
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K562" t="inlineStr">
@@ -48411,7 +48411,7 @@
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K563" t="inlineStr">
@@ -48485,7 +48485,7 @@
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K564" t="inlineStr">
@@ -48565,7 +48565,7 @@
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K565" t="inlineStr">
@@ -48639,7 +48639,7 @@
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K566" t="inlineStr">
@@ -48719,7 +48719,7 @@
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K567" t="inlineStr">
@@ -48793,7 +48793,7 @@
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K568" t="inlineStr">
@@ -48873,7 +48873,7 @@
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K569" t="inlineStr">
@@ -48961,7 +48961,7 @@
       </c>
       <c r="J570" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K570" t="inlineStr">
@@ -49049,7 +49049,7 @@
       </c>
       <c r="J571" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K571" t="inlineStr">
@@ -49137,7 +49137,7 @@
       </c>
       <c r="J572" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K572" t="inlineStr">
@@ -49225,7 +49225,7 @@
       </c>
       <c r="J573" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K573" t="inlineStr">
@@ -49313,7 +49313,7 @@
       </c>
       <c r="J574" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K574" t="inlineStr">
@@ -49339,18 +49339,18 @@
       </c>
       <c r="P574" t="inlineStr"/>
       <c r="Q574" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R574" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="S574" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T574" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U574" t="n">
         <v>1656</v>
@@ -49401,7 +49401,7 @@
       </c>
       <c r="J575" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K575" t="inlineStr">
@@ -49427,18 +49427,18 @@
       </c>
       <c r="P575" t="inlineStr"/>
       <c r="Q575" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R575" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="S575" t="n">
         <v>0</v>
       </c>
       <c r="T575" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U575" t="n">
         <v>1656</v>
@@ -49489,7 +49489,7 @@
       </c>
       <c r="J576" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K576" t="inlineStr">
@@ -49515,18 +49515,18 @@
       </c>
       <c r="P576" t="inlineStr"/>
       <c r="Q576" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R576" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="S576" t="n">
         <v>0</v>
       </c>
       <c r="T576" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U576" t="n">
         <v>1656</v>
@@ -49577,7 +49577,7 @@
       </c>
       <c r="J577" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K577" t="inlineStr">
@@ -49603,18 +49603,18 @@
       </c>
       <c r="P577" t="inlineStr"/>
       <c r="Q577" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R577" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="S577" t="n">
         <v>0</v>
       </c>
       <c r="T577" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U577" t="n">
         <v>1656</v>
@@ -49665,7 +49665,7 @@
       </c>
       <c r="J578" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K578" t="inlineStr">
@@ -49691,18 +49691,18 @@
       </c>
       <c r="P578" t="inlineStr"/>
       <c r="Q578" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R578" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="S578" t="n">
         <v>0</v>
       </c>
       <c r="T578" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U578" t="n">
         <v>1656</v>
@@ -49753,7 +49753,7 @@
       </c>
       <c r="J579" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K579" t="inlineStr">
@@ -49779,18 +49779,18 @@
       </c>
       <c r="P579" t="inlineStr"/>
       <c r="Q579" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R579" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="S579" t="n">
         <v>0</v>
       </c>
       <c r="T579" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U579" t="n">
         <v>1656</v>
@@ -49841,7 +49841,7 @@
       </c>
       <c r="J580" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K580" t="inlineStr">
@@ -49867,18 +49867,18 @@
       </c>
       <c r="P580" t="inlineStr"/>
       <c r="Q580" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R580" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="S580" t="n">
         <v>0</v>
       </c>
       <c r="T580" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U580" t="n">
         <v>1656</v>
@@ -49929,7 +49929,7 @@
       </c>
       <c r="J581" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K581" t="inlineStr">
@@ -49955,18 +49955,18 @@
       </c>
       <c r="P581" t="inlineStr"/>
       <c r="Q581" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R581" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="S581" t="n">
         <v>0</v>
       </c>
       <c r="T581" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U581" t="n">
         <v>1656</v>
@@ -50017,7 +50017,7 @@
       </c>
       <c r="J582" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K582" t="inlineStr">
@@ -50043,18 +50043,18 @@
       </c>
       <c r="P582" t="inlineStr"/>
       <c r="Q582" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R582" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="S582" t="n">
         <v>0</v>
       </c>
       <c r="T582" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U582" t="n">
         <v>1656</v>
@@ -50105,7 +50105,7 @@
       </c>
       <c r="J583" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K583" t="inlineStr">
@@ -50131,18 +50131,18 @@
       </c>
       <c r="P583" t="inlineStr"/>
       <c r="Q583" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R583" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="S583" t="n">
         <v>0</v>
       </c>
       <c r="T583" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U583" t="n">
         <v>1656</v>
@@ -50193,7 +50193,7 @@
       </c>
       <c r="J584" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K584" t="inlineStr">
@@ -50219,18 +50219,18 @@
       </c>
       <c r="P584" t="inlineStr"/>
       <c r="Q584" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R584" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="S584" t="n">
         <v>0</v>
       </c>
       <c r="T584" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U584" t="n">
         <v>1656</v>
@@ -50281,7 +50281,7 @@
       </c>
       <c r="J585" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K585" t="inlineStr">
@@ -50307,18 +50307,18 @@
       </c>
       <c r="P585" t="inlineStr"/>
       <c r="Q585" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R585" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="S585" t="n">
         <v>0</v>
       </c>
       <c r="T585" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U585" t="n">
         <v>1656</v>
@@ -50369,7 +50369,7 @@
       </c>
       <c r="J586" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K586" t="inlineStr">
@@ -50403,7 +50403,7 @@
         </is>
       </c>
       <c r="S586" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T586" t="n">
         <v>1</v>
@@ -50457,7 +50457,7 @@
       </c>
       <c r="J587" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K587" t="inlineStr">
@@ -50545,7 +50545,7 @@
       </c>
       <c r="J588" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K588" t="inlineStr">
@@ -50633,7 +50633,7 @@
       </c>
       <c r="J589" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K589" t="inlineStr">
@@ -50721,7 +50721,7 @@
       </c>
       <c r="J590" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K590" t="inlineStr">
@@ -50747,18 +50747,18 @@
       </c>
       <c r="P590" t="inlineStr"/>
       <c r="Q590" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R590" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="S590" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T590" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U590" t="n">
         <v>1850</v>
@@ -50809,7 +50809,7 @@
       </c>
       <c r="J591" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K591" t="inlineStr">
@@ -50835,18 +50835,18 @@
       </c>
       <c r="P591" t="inlineStr"/>
       <c r="Q591" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R591" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="S591" t="n">
         <v>0</v>
       </c>
       <c r="T591" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U591" t="n">
         <v>1850</v>
@@ -50897,7 +50897,7 @@
       </c>
       <c r="J592" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K592" t="inlineStr">
@@ -50923,18 +50923,18 @@
       </c>
       <c r="P592" t="inlineStr"/>
       <c r="Q592" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R592" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="S592" t="n">
         <v>0</v>
       </c>
       <c r="T592" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U592" t="n">
         <v>1850</v>
@@ -50985,7 +50985,7 @@
       </c>
       <c r="J593" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K593" t="inlineStr">
@@ -51011,18 +51011,18 @@
       </c>
       <c r="P593" t="inlineStr"/>
       <c r="Q593" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R593" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="S593" t="n">
         <v>0</v>
       </c>
       <c r="T593" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U593" t="n">
         <v>1850</v>
@@ -51073,7 +51073,7 @@
       </c>
       <c r="J594" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K594" t="inlineStr">
@@ -51099,18 +51099,18 @@
       </c>
       <c r="P594" t="inlineStr"/>
       <c r="Q594" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R594" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="S594" t="n">
         <v>0</v>
       </c>
       <c r="T594" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U594" t="n">
         <v>1656</v>
@@ -51161,7 +51161,7 @@
       </c>
       <c r="J595" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K595" t="inlineStr">
@@ -51187,18 +51187,18 @@
       </c>
       <c r="P595" t="inlineStr"/>
       <c r="Q595" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R595" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="S595" t="n">
         <v>0</v>
       </c>
       <c r="T595" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U595" t="n">
         <v>1656</v>
@@ -51249,7 +51249,7 @@
       </c>
       <c r="J596" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K596" t="inlineStr">
@@ -51275,18 +51275,18 @@
       </c>
       <c r="P596" t="inlineStr"/>
       <c r="Q596" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R596" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="S596" t="n">
         <v>0</v>
       </c>
       <c r="T596" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U596" t="n">
         <v>1656</v>
@@ -51337,7 +51337,7 @@
       </c>
       <c r="J597" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K597" t="inlineStr">
@@ -51363,18 +51363,18 @@
       </c>
       <c r="P597" t="inlineStr"/>
       <c r="Q597" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R597" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="S597" t="n">
         <v>0</v>
       </c>
       <c r="T597" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U597" t="n">
         <v>1656</v>
@@ -51425,7 +51425,7 @@
       </c>
       <c r="J598" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K598" t="inlineStr">
@@ -51451,18 +51451,18 @@
       </c>
       <c r="P598" t="inlineStr"/>
       <c r="Q598" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R598" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="S598" t="n">
         <v>0</v>
       </c>
       <c r="T598" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U598" t="n">
         <v>1656</v>
@@ -51513,7 +51513,7 @@
       </c>
       <c r="J599" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K599" t="inlineStr">
@@ -51539,18 +51539,18 @@
       </c>
       <c r="P599" t="inlineStr"/>
       <c r="Q599" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R599" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="S599" t="n">
         <v>0</v>
       </c>
       <c r="T599" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U599" t="n">
         <v>1656</v>
@@ -51601,7 +51601,7 @@
       </c>
       <c r="J600" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K600" t="inlineStr">
@@ -51627,18 +51627,18 @@
       </c>
       <c r="P600" t="inlineStr"/>
       <c r="Q600" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R600" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="S600" t="n">
         <v>0</v>
       </c>
       <c r="T600" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U600" t="n">
         <v>1656</v>
@@ -51689,7 +51689,7 @@
       </c>
       <c r="J601" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K601" t="inlineStr">
@@ -51715,18 +51715,18 @@
       </c>
       <c r="P601" t="inlineStr"/>
       <c r="Q601" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R601" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="S601" t="n">
         <v>0</v>
       </c>
       <c r="T601" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U601" t="n">
         <v>1656</v>
@@ -51777,7 +51777,7 @@
       </c>
       <c r="J602" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K602" t="inlineStr">
@@ -51803,18 +51803,18 @@
       </c>
       <c r="P602" t="inlineStr"/>
       <c r="Q602" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R602" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="S602" t="n">
         <v>0</v>
       </c>
       <c r="T602" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U602" t="n">
         <v>1850</v>
@@ -51865,7 +51865,7 @@
       </c>
       <c r="J603" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K603" t="inlineStr">
@@ -51891,18 +51891,18 @@
       </c>
       <c r="P603" t="inlineStr"/>
       <c r="Q603" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R603" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="S603" t="n">
         <v>0</v>
       </c>
       <c r="T603" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U603" t="n">
         <v>1850</v>
@@ -51953,7 +51953,7 @@
       </c>
       <c r="J604" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K604" t="inlineStr">
@@ -51979,18 +51979,18 @@
       </c>
       <c r="P604" t="inlineStr"/>
       <c r="Q604" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R604" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="S604" t="n">
         <v>0</v>
       </c>
       <c r="T604" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U604" t="n">
         <v>1850</v>
@@ -52041,7 +52041,7 @@
       </c>
       <c r="J605" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K605" t="inlineStr">
@@ -52067,18 +52067,18 @@
       </c>
       <c r="P605" t="inlineStr"/>
       <c r="Q605" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R605" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="S605" t="n">
         <v>0</v>
       </c>
       <c r="T605" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U605" t="n">
         <v>1850</v>
@@ -52129,7 +52129,7 @@
       </c>
       <c r="J606" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K606" t="inlineStr">
@@ -52155,18 +52155,18 @@
       </c>
       <c r="P606" t="inlineStr"/>
       <c r="Q606" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R606" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="S606" t="n">
         <v>0</v>
       </c>
       <c r="T606" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U606" t="n">
         <v>1850</v>
@@ -52217,7 +52217,7 @@
       </c>
       <c r="J607" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K607" t="inlineStr">
@@ -52243,18 +52243,18 @@
       </c>
       <c r="P607" t="inlineStr"/>
       <c r="Q607" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R607" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="S607" t="n">
         <v>0</v>
       </c>
       <c r="T607" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U607" t="n">
         <v>1850</v>
@@ -52305,7 +52305,7 @@
       </c>
       <c r="J608" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K608" t="inlineStr">
@@ -52331,18 +52331,18 @@
       </c>
       <c r="P608" t="inlineStr"/>
       <c r="Q608" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R608" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="S608" t="n">
         <v>0</v>
       </c>
       <c r="T608" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U608" t="n">
         <v>1850</v>
@@ -52393,7 +52393,7 @@
       </c>
       <c r="J609" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K609" t="inlineStr">
@@ -52419,18 +52419,18 @@
       </c>
       <c r="P609" t="inlineStr"/>
       <c r="Q609" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R609" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="S609" t="n">
         <v>0</v>
       </c>
       <c r="T609" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U609" t="n">
         <v>1850</v>
@@ -52467,7 +52467,7 @@
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Germany']</t>
+          <t>['Germany', 'France', 'Portugal']</t>
         </is>
       </c>
       <c r="K610" t="inlineStr">
@@ -52537,7 +52537,7 @@
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Germany']</t>
+          <t>['Germany', 'France', 'Portugal']</t>
         </is>
       </c>
       <c r="K611" t="inlineStr">
@@ -52621,7 +52621,7 @@
       </c>
       <c r="J612" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['France', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K612" t="inlineStr">
@@ -52709,7 +52709,7 @@
       </c>
       <c r="J613" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['France', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K613" t="inlineStr">
@@ -52797,7 +52797,7 @@
       </c>
       <c r="J614" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['France', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K614" t="inlineStr">
@@ -52885,7 +52885,7 @@
       </c>
       <c r="J615" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['France', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K615" t="inlineStr">
@@ -52973,7 +52973,7 @@
       </c>
       <c r="J616" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['France', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K616" t="inlineStr">
@@ -52999,18 +52999,18 @@
       </c>
       <c r="P616" t="inlineStr"/>
       <c r="Q616" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R616" t="inlineStr">
         <is>
-          <t>['France', 'Portugal']</t>
+          <t>['France', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="S616" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T616" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U616" t="n">
         <v>2040</v>
@@ -53061,7 +53061,7 @@
       </c>
       <c r="J617" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['France', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K617" t="inlineStr">
@@ -53087,18 +53087,18 @@
       </c>
       <c r="P617" t="inlineStr"/>
       <c r="Q617" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R617" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Portugal']</t>
+          <t>['France', 'Hungary']</t>
         </is>
       </c>
       <c r="S617" t="n">
         <v>1</v>
       </c>
       <c r="T617" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U617" t="n">
         <v>2040</v>
@@ -53149,7 +53149,7 @@
       </c>
       <c r="J618" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['France', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K618" t="inlineStr">
@@ -53175,18 +53175,18 @@
       </c>
       <c r="P618" t="inlineStr"/>
       <c r="Q618" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R618" t="inlineStr">
         <is>
-          <t>['France', 'Portugal']</t>
+          <t>['France', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="S618" t="n">
         <v>1</v>
       </c>
       <c r="T618" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U618" t="n">
         <v>2040</v>
@@ -53237,7 +53237,7 @@
       </c>
       <c r="J619" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['France', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K619" t="inlineStr">
@@ -53263,18 +53263,18 @@
       </c>
       <c r="P619" t="inlineStr"/>
       <c r="Q619" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R619" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Portugal']</t>
+          <t>['France', 'Hungary']</t>
         </is>
       </c>
       <c r="S619" t="n">
         <v>1</v>
       </c>
       <c r="T619" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U619" t="n">
         <v>2040</v>
@@ -53325,7 +53325,7 @@
       </c>
       <c r="J620" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['France', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K620" t="inlineStr">
@@ -53359,7 +53359,7 @@
         </is>
       </c>
       <c r="S620" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T620" t="n">
         <v>5</v>
@@ -53413,7 +53413,7 @@
       </c>
       <c r="J621" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['France', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K621" t="inlineStr">
@@ -53501,7 +53501,7 @@
       </c>
       <c r="J622" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Germany']</t>
+          <t>['Germany', 'France', 'Portugal']</t>
         </is>
       </c>
       <c r="K622" t="inlineStr">
@@ -53589,7 +53589,7 @@
       </c>
       <c r="J623" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Germany']</t>
+          <t>['Germany', 'France', 'Portugal']</t>
         </is>
       </c>
       <c r="K623" t="inlineStr">
@@ -53677,7 +53677,7 @@
       </c>
       <c r="J624" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['France', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K624" t="inlineStr">
@@ -53765,7 +53765,7 @@
       </c>
       <c r="J625" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['France', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K625" t="inlineStr">
@@ -53853,7 +53853,7 @@
       </c>
       <c r="J626" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Germany']</t>
+          <t>['Germany', 'France', 'Portugal']</t>
         </is>
       </c>
       <c r="K626" t="inlineStr">
@@ -53941,7 +53941,7 @@
       </c>
       <c r="J627" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Germany']</t>
+          <t>['Germany', 'France', 'Portugal']</t>
         </is>
       </c>
       <c r="K627" t="inlineStr">
@@ -54015,7 +54015,7 @@
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr">
         <is>
-          <t>['Scotland', 'Germany', 'Switzerland']</t>
+          <t>['Germany', 'Switzerland', 'Scotland']</t>
         </is>
       </c>
       <c r="K628" t="inlineStr">
@@ -54095,7 +54095,7 @@
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr">
         <is>
-          <t>['Scotland', 'Germany', 'Switzerland']</t>
+          <t>['Germany', 'Switzerland', 'Scotland']</t>
         </is>
       </c>
       <c r="K629" t="inlineStr">
@@ -54169,7 +54169,7 @@
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr">
         <is>
-          <t>['Scotland', 'Germany', 'Switzerland']</t>
+          <t>['Germany', 'Switzerland', 'Scotland']</t>
         </is>
       </c>
       <c r="K630" t="inlineStr">
@@ -54249,7 +54249,7 @@
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr">
         <is>
-          <t>['Scotland', 'Germany', 'Switzerland']</t>
+          <t>['Germany', 'Switzerland', 'Scotland']</t>
         </is>
       </c>
       <c r="K631" t="inlineStr">
@@ -54337,7 +54337,7 @@
       </c>
       <c r="J632" t="inlineStr">
         <is>
-          <t>['Scotland', 'Germany', 'Switzerland']</t>
+          <t>['Germany', 'Switzerland', 'Scotland']</t>
         </is>
       </c>
       <c r="K632" t="inlineStr">
@@ -54425,7 +54425,7 @@
       </c>
       <c r="J633" t="inlineStr">
         <is>
-          <t>['Scotland', 'Germany', 'Switzerland']</t>
+          <t>['Germany', 'Switzerland', 'Scotland']</t>
         </is>
       </c>
       <c r="K633" t="inlineStr">
@@ -54513,7 +54513,7 @@
       </c>
       <c r="J634" t="inlineStr">
         <is>
-          <t>['Scotland', 'Germany', 'Switzerland']</t>
+          <t>['Germany', 'Switzerland', 'Scotland']</t>
         </is>
       </c>
       <c r="K634" t="inlineStr">
@@ -54601,7 +54601,7 @@
       </c>
       <c r="J635" t="inlineStr">
         <is>
-          <t>['Scotland', 'Germany', 'Switzerland']</t>
+          <t>['Germany', 'Switzerland', 'Scotland']</t>
         </is>
       </c>
       <c r="K635" t="inlineStr">
@@ -54689,7 +54689,7 @@
       </c>
       <c r="J636" t="inlineStr">
         <is>
-          <t>['Germany', 'Hungary', 'Switzerland']</t>
+          <t>['Germany', 'Switzerland', 'Hungary']</t>
         </is>
       </c>
       <c r="K636" t="inlineStr">
@@ -54777,7 +54777,7 @@
       </c>
       <c r="J637" t="inlineStr">
         <is>
-          <t>['Germany', 'Hungary', 'Switzerland']</t>
+          <t>['Germany', 'Switzerland', 'Hungary']</t>
         </is>
       </c>
       <c r="K637" t="inlineStr">
@@ -54851,7 +54851,7 @@
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy', 'Albania']</t>
+          <t>['Italy', 'Albania', 'Spain']</t>
         </is>
       </c>
       <c r="K638" t="inlineStr">
@@ -54931,7 +54931,7 @@
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy', 'Albania']</t>
+          <t>['Italy', 'Albania', 'Spain']</t>
         </is>
       </c>
       <c r="K639" t="inlineStr">
@@ -55005,7 +55005,7 @@
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy', 'Albania']</t>
+          <t>['Italy', 'Albania', 'Spain']</t>
         </is>
       </c>
       <c r="K640" t="inlineStr">
@@ -55085,7 +55085,7 @@
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy', 'Albania']</t>
+          <t>['Italy', 'Albania', 'Spain']</t>
         </is>
       </c>
       <c r="K641" t="inlineStr">
@@ -55173,7 +55173,7 @@
       </c>
       <c r="J642" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Italy']</t>
+          <t>['Italy', 'Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K642" t="inlineStr">
@@ -55261,7 +55261,7 @@
       </c>
       <c r="J643" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Italy']</t>
+          <t>['Italy', 'Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K643" t="inlineStr">
@@ -55349,7 +55349,7 @@
       </c>
       <c r="J644" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Italy']</t>
+          <t>['Italy', 'Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K644" t="inlineStr">
@@ -55437,7 +55437,7 @@
       </c>
       <c r="J645" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Italy']</t>
+          <t>['Italy', 'Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K645" t="inlineStr">
@@ -55525,7 +55525,7 @@
       </c>
       <c r="J646" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Italy']</t>
+          <t>['Italy', 'Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K646" t="inlineStr">
@@ -55613,7 +55613,7 @@
       </c>
       <c r="J647" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Italy']</t>
+          <t>['Italy', 'Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K647" t="inlineStr">
@@ -55687,7 +55687,7 @@
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr">
         <is>
-          <t>['Denmark', 'England', 'Slovenia']</t>
+          <t>['England', 'Denmark', 'Slovenia']</t>
         </is>
       </c>
       <c r="K648" t="inlineStr">
@@ -55767,7 +55767,7 @@
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr">
         <is>
-          <t>['Denmark', 'England', 'Slovenia']</t>
+          <t>['England', 'Denmark', 'Slovenia']</t>
         </is>
       </c>
       <c r="K649" t="inlineStr">
@@ -55851,7 +55851,7 @@
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr">
         <is>
-          <t>['Denmark', 'England', 'Slovenia']</t>
+          <t>['England', 'Denmark', 'Slovenia']</t>
         </is>
       </c>
       <c r="K650" t="inlineStr">
@@ -55925,7 +55925,7 @@
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'France']</t>
         </is>
       </c>
       <c r="K651" t="inlineStr">
@@ -55995,7 +55995,7 @@
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'France']</t>
         </is>
       </c>
       <c r="K652" t="inlineStr">
@@ -56079,7 +56079,7 @@
       </c>
       <c r="J653" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'France']</t>
         </is>
       </c>
       <c r="K653" t="inlineStr">
@@ -56167,7 +56167,7 @@
       </c>
       <c r="J654" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'France']</t>
         </is>
       </c>
       <c r="K654" t="inlineStr">
@@ -56255,7 +56255,7 @@
       </c>
       <c r="J655" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'France']</t>
         </is>
       </c>
       <c r="K655" t="inlineStr">
@@ -56343,7 +56343,7 @@
       </c>
       <c r="J656" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'France']</t>
         </is>
       </c>
       <c r="K656" t="inlineStr">
@@ -56431,7 +56431,7 @@
       </c>
       <c r="J657" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'France']</t>
         </is>
       </c>
       <c r="K657" t="inlineStr">
@@ -56519,7 +56519,7 @@
       </c>
       <c r="J658" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'France']</t>
         </is>
       </c>
       <c r="K658" t="inlineStr">
@@ -56607,7 +56607,7 @@
       </c>
       <c r="J659" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'France']</t>
         </is>
       </c>
       <c r="K659" t="inlineStr">
@@ -56695,7 +56695,7 @@
       </c>
       <c r="J660" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'France']</t>
         </is>
       </c>
       <c r="K660" t="inlineStr">
@@ -56783,7 +56783,7 @@
       </c>
       <c r="J661" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'France']</t>
         </is>
       </c>
       <c r="K661" t="inlineStr">
@@ -56871,7 +56871,7 @@
       </c>
       <c r="J662" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'France']</t>
         </is>
       </c>
       <c r="K662" t="inlineStr">
@@ -56959,7 +56959,7 @@
       </c>
       <c r="J663" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'France']</t>
         </is>
       </c>
       <c r="K663" t="inlineStr">
@@ -57047,7 +57047,7 @@
       </c>
       <c r="J664" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'France']</t>
         </is>
       </c>
       <c r="K664" t="inlineStr">
@@ -57135,7 +57135,7 @@
       </c>
       <c r="J665" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'France']</t>
         </is>
       </c>
       <c r="K665" t="inlineStr">
@@ -57223,7 +57223,7 @@
       </c>
       <c r="J666" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'France']</t>
         </is>
       </c>
       <c r="K666" t="inlineStr">
@@ -57297,7 +57297,7 @@
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr">
         <is>
-          <t>['Belgium', 'Romania', 'Slovakia']</t>
+          <t>['Romania', 'Belgium', 'Slovakia']</t>
         </is>
       </c>
       <c r="K667" t="inlineStr">
@@ -57377,7 +57377,7 @@
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr">
         <is>
-          <t>['Belgium', 'Romania', 'Slovakia']</t>
+          <t>['Romania', 'Belgium', 'Slovakia']</t>
         </is>
       </c>
       <c r="K668" t="inlineStr">
@@ -57465,7 +57465,7 @@
       </c>
       <c r="J669" t="inlineStr">
         <is>
-          <t>['Belgium', 'Slovakia', 'Ukraine']</t>
+          <t>['Ukraine', 'Slovakia', 'Belgium']</t>
         </is>
       </c>
       <c r="K669" t="inlineStr">
@@ -57553,7 +57553,7 @@
       </c>
       <c r="J670" t="inlineStr">
         <is>
-          <t>['Belgium', 'Romania', 'Slovakia']</t>
+          <t>['Romania', 'Belgium', 'Slovakia']</t>
         </is>
       </c>
       <c r="K670" t="inlineStr">
@@ -57627,7 +57627,7 @@
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic', 'Turkey']</t>
+          <t>['Czech Republic', 'Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="K671" t="inlineStr">
@@ -57707,7 +57707,7 @@
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic', 'Turkey']</t>
+          <t>['Czech Republic', 'Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="K672" t="inlineStr">
@@ -57781,7 +57781,7 @@
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic', 'Turkey']</t>
+          <t>['Czech Republic', 'Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="K673" t="inlineStr">
@@ -57861,7 +57861,7 @@
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic', 'Turkey']</t>
+          <t>['Czech Republic', 'Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="K674" t="inlineStr">
@@ -57949,7 +57949,7 @@
       </c>
       <c r="J675" t="inlineStr">
         <is>
-          <t>['Portugal', 'Georgia', 'Turkey']</t>
+          <t>['Georgia', 'Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="K675" t="inlineStr">
@@ -58041,7 +58041,7 @@
       </c>
       <c r="J676" t="inlineStr">
         <is>
-          <t>['Portugal', 'Georgia', 'Turkey']</t>
+          <t>['Georgia', 'Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="K676" t="inlineStr">
@@ -58133,7 +58133,7 @@
       </c>
       <c r="J677" t="inlineStr">
         <is>
-          <t>['Portugal', 'Georgia', 'Turkey']</t>
+          <t>['Georgia', 'Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="K677" t="inlineStr">
@@ -58221,7 +58221,7 @@
       </c>
       <c r="J678" t="inlineStr">
         <is>
-          <t>['Portugal', 'Georgia', 'Turkey']</t>
+          <t>['Georgia', 'Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="K678" t="inlineStr">
@@ -58309,7 +58309,7 @@
       </c>
       <c r="J679" t="inlineStr">
         <is>
-          <t>['Portugal', 'Georgia', 'Turkey']</t>
+          <t>['Georgia', 'Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="K679" t="inlineStr">
@@ -58397,7 +58397,7 @@
       </c>
       <c r="J680" t="inlineStr">
         <is>
-          <t>['Portugal', 'Georgia', 'Turkey']</t>
+          <t>['Georgia', 'Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="K680" t="inlineStr">
@@ -58485,7 +58485,7 @@
       </c>
       <c r="J681" t="inlineStr">
         <is>
-          <t>['Portugal', 'Georgia', 'Turkey']</t>
+          <t>['Georgia', 'Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="K681" t="inlineStr">
@@ -58577,7 +58577,7 @@
       </c>
       <c r="J682" t="inlineStr">
         <is>
-          <t>['Portugal', 'Georgia', 'Turkey']</t>
+          <t>['Georgia', 'Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="K682" t="inlineStr">
@@ -58669,7 +58669,7 @@
       </c>
       <c r="J683" t="inlineStr">
         <is>
-          <t>['Portugal', 'Georgia', 'Turkey']</t>
+          <t>['Georgia', 'Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="K683" t="inlineStr">
@@ -58757,7 +58757,7 @@
       </c>
       <c r="J684" t="inlineStr">
         <is>
-          <t>['Portugal', 'Georgia', 'Turkey']</t>
+          <t>['Georgia', 'Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="K684" t="inlineStr">

--- a/data/out/wiki/men/fifa/eu/goals_eu_fifa_men.xlsx
+++ b/data/out/wiki/men/fifa/eu/goals_eu_fifa_men.xlsx
@@ -573,7 +573,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -643,7 +643,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -815,7 +815,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1079,7 +1079,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1431,7 +1431,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1607,7 +1607,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1871,7 +1871,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1959,7 +1959,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -2047,7 +2047,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -2135,7 +2135,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2223,7 +2223,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2399,7 +2399,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2473,7 +2473,7 @@
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['West Germany', 'Spain']</t>
+          <t>['Spain', 'West Germany']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2553,7 +2553,7 @@
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['West Germany', 'Spain']</t>
+          <t>['Spain', 'West Germany']</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2637,7 +2637,7 @@
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>['West Germany', 'Spain']</t>
+          <t>['Spain', 'West Germany']</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2711,7 +2711,7 @@
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['West Germany', 'Spain']</t>
+          <t>['Spain', 'West Germany']</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2791,7 +2791,7 @@
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>['West Germany', 'Spain']</t>
+          <t>['Spain', 'West Germany']</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2875,7 +2875,7 @@
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['West Germany', 'Spain']</t>
+          <t>['Spain', 'West Germany']</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>['West Germany', 'Portugal']</t>
+          <t>['Portugal', 'West Germany']</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -3055,7 +3055,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['West Germany', 'Portugal']</t>
+          <t>['Portugal', 'West Germany']</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -3309,7 +3309,7 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -3389,7 +3389,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -3477,7 +3477,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3555,7 +3555,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3635,7 +3635,7 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3723,7 +3723,7 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3815,7 +3815,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3903,7 +3903,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -4079,7 +4079,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -4167,7 +4167,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -4255,7 +4255,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -4343,7 +4343,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -4431,7 +4431,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -5571,7 +5571,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Netherlands']</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -5659,7 +5659,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Netherlands']</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -6929,7 +6929,7 @@
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -7009,7 +7009,7 @@
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -7087,7 +7087,7 @@
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -7167,7 +7167,7 @@
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -7259,7 +7259,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -7347,7 +7347,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -7435,7 +7435,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -7523,7 +7523,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -7611,7 +7611,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -7699,7 +7699,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -7787,7 +7787,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -7875,7 +7875,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -7963,7 +7963,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -8051,7 +8051,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -8139,7 +8139,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -8227,7 +8227,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -8315,7 +8315,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -8403,7 +8403,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -8477,7 +8477,7 @@
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -8557,7 +8557,7 @@
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -8631,7 +8631,7 @@
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -8711,7 +8711,7 @@
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -8799,7 +8799,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -8887,7 +8887,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -8975,7 +8975,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -9063,7 +9063,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -9151,7 +9151,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -9239,7 +9239,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -9327,7 +9327,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -9415,7 +9415,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -9503,7 +9503,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>['England', 'Scotland']</t>
+          <t>['Scotland', 'England']</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -9591,7 +9591,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>['England', 'Scotland']</t>
+          <t>['Scotland', 'England']</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -9679,7 +9679,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -9767,7 +9767,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -9841,7 +9841,7 @@
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'France']</t>
+          <t>['France', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -9911,7 +9911,7 @@
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'France']</t>
+          <t>['France', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -9995,7 +9995,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Spain']</t>
+          <t>['Spain', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -10083,7 +10083,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Spain']</t>
+          <t>['Spain', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -10347,7 +10347,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'France']</t>
+          <t>['France', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -10435,7 +10435,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'France']</t>
+          <t>['France', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -10523,7 +10523,7 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'France']</t>
+          <t>['France', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -10611,7 +10611,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'France']</t>
+          <t>['France', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -10699,7 +10699,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'France']</t>
+          <t>['France', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -10787,7 +10787,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'France']</t>
+          <t>['France', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -15889,7 +15889,7 @@
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium']</t>
+          <t>['Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -15969,7 +15969,7 @@
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium']</t>
+          <t>['Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -16047,7 +16047,7 @@
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium']</t>
+          <t>['Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -16127,7 +16127,7 @@
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium']</t>
+          <t>['Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -16219,7 +16219,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium']</t>
+          <t>['Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -16311,7 +16311,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium']</t>
+          <t>['Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -16403,7 +16403,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>['Italy', 'Turkey']</t>
+          <t>['Turkey', 'Italy']</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -16491,7 +16491,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>['Italy', 'Turkey']</t>
+          <t>['Turkey', 'Italy']</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -16579,7 +16579,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>['Italy', 'Turkey']</t>
+          <t>['Turkey', 'Italy']</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -16667,7 +16667,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>['Italy', 'Turkey']</t>
+          <t>['Turkey', 'Italy']</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -16755,7 +16755,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>['Italy', 'Turkey']</t>
+          <t>['Turkey', 'Italy']</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -16843,7 +16843,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>['Italy', 'Turkey']</t>
+          <t>['Turkey', 'Italy']</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -16931,7 +16931,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>['Italy', 'Turkey']</t>
+          <t>['Turkey', 'Italy']</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -17019,7 +17019,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>['Italy', 'Turkey']</t>
+          <t>['Turkey', 'Italy']</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -17093,7 +17093,7 @@
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Spain']</t>
+          <t>['Spain', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -17173,7 +17173,7 @@
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Spain']</t>
+          <t>['Spain', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -17247,7 +17247,7 @@
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Spain']</t>
+          <t>['Spain', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -17327,7 +17327,7 @@
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Spain']</t>
+          <t>['Spain', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -17415,7 +17415,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -17503,7 +17503,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -17591,7 +17591,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Spain']</t>
+          <t>['Spain', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -17679,7 +17679,7 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Spain']</t>
+          <t>['Spain', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -17767,7 +17767,7 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -17855,7 +17855,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -17943,7 +17943,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Spain']</t>
+          <t>['Spain', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -18031,7 +18031,7 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Spain']</t>
+          <t>['Spain', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -18119,7 +18119,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -18207,7 +18207,7 @@
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -18295,7 +18295,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Spain']</t>
+          <t>['Spain', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -18383,7 +18383,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Spain']</t>
+          <t>['Spain', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -18471,7 +18471,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Spain']</t>
+          <t>['Spain', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -18559,7 +18559,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Spain']</t>
+          <t>['Spain', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -18633,7 +18633,7 @@
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -18713,7 +18713,7 @@
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -18787,7 +18787,7 @@
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -18867,7 +18867,7 @@
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -18955,7 +18955,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -19043,7 +19043,7 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -19131,7 +19131,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -19219,7 +19219,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -19307,7 +19307,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -19395,7 +19395,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -19483,7 +19483,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -19571,7 +19571,7 @@
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -19659,7 +19659,7 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -19747,7 +19747,7 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -19835,7 +19835,7 @@
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -19923,7 +19923,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -20011,7 +20011,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -20099,7 +20099,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -20173,7 +20173,7 @@
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr">
         <is>
-          <t>['Greece', 'Spain']</t>
+          <t>['Spain', 'Greece']</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -20253,7 +20253,7 @@
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr">
         <is>
-          <t>['Greece', 'Spain']</t>
+          <t>['Spain', 'Greece']</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -20327,7 +20327,7 @@
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr">
         <is>
-          <t>['Greece', 'Spain']</t>
+          <t>['Spain', 'Greece']</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -20407,7 +20407,7 @@
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr">
         <is>
-          <t>['Greece', 'Spain']</t>
+          <t>['Spain', 'Greece']</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -21185,7 +21185,7 @@
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -21255,7 +21255,7 @@
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -21867,7 +21867,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -21955,7 +21955,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -22043,7 +22043,7 @@
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -22131,7 +22131,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -22219,7 +22219,7 @@
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -22307,7 +22307,7 @@
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -22395,7 +22395,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -22483,7 +22483,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -22571,7 +22571,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -22659,7 +22659,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -22747,7 +22747,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -22835,7 +22835,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -22923,7 +22923,7 @@
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -23011,7 +23011,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -27361,7 +27361,7 @@
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -27441,7 +27441,7 @@
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -27525,7 +27525,7 @@
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="K316" t="inlineStr">
@@ -27599,7 +27599,7 @@
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
@@ -27679,7 +27679,7 @@
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -27763,7 +27763,7 @@
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="K319" t="inlineStr">
@@ -27851,7 +27851,7 @@
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="K320" t="inlineStr">
@@ -27939,7 +27939,7 @@
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="K321" t="inlineStr">
@@ -28027,7 +28027,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
@@ -28115,7 +28115,7 @@
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
@@ -28189,7 +28189,7 @@
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Romania']</t>
+          <t>['Romania', 'Netherlands']</t>
         </is>
       </c>
       <c r="K324" t="inlineStr">
@@ -28269,7 +28269,7 @@
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Romania']</t>
+          <t>['Romania', 'Netherlands']</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
@@ -28353,7 +28353,7 @@
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Romania']</t>
+          <t>['Romania', 'Netherlands']</t>
         </is>
       </c>
       <c r="K326" t="inlineStr">
@@ -28427,7 +28427,7 @@
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Romania']</t>
+          <t>['Romania', 'Netherlands']</t>
         </is>
       </c>
       <c r="K327" t="inlineStr">
@@ -28507,7 +28507,7 @@
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Romania']</t>
+          <t>['Romania', 'Netherlands']</t>
         </is>
       </c>
       <c r="K328" t="inlineStr">
@@ -28591,7 +28591,7 @@
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Romania']</t>
+          <t>['Romania', 'Netherlands']</t>
         </is>
       </c>
       <c r="K329" t="inlineStr">
@@ -28679,7 +28679,7 @@
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="K330" t="inlineStr">
@@ -28767,7 +28767,7 @@
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="K331" t="inlineStr">
@@ -28855,7 +28855,7 @@
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="K332" t="inlineStr">
@@ -28943,7 +28943,7 @@
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="K333" t="inlineStr">
@@ -29031,7 +29031,7 @@
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="K334" t="inlineStr">
@@ -29119,7 +29119,7 @@
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="K335" t="inlineStr">
@@ -29207,7 +29207,7 @@
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="K336" t="inlineStr">
@@ -29295,7 +29295,7 @@
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="K337" t="inlineStr">
@@ -29369,7 +29369,7 @@
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K338" t="inlineStr">
@@ -29449,7 +29449,7 @@
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K339" t="inlineStr">
@@ -29523,7 +29523,7 @@
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K340" t="inlineStr">
@@ -29603,7 +29603,7 @@
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K341" t="inlineStr">
@@ -29691,7 +29691,7 @@
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="K342" t="inlineStr">
@@ -29779,7 +29779,7 @@
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="K343" t="inlineStr">
@@ -29867,7 +29867,7 @@
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="K344" t="inlineStr">
@@ -29955,7 +29955,7 @@
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="K345" t="inlineStr">
@@ -30043,7 +30043,7 @@
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="K346" t="inlineStr">
@@ -30131,7 +30131,7 @@
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="K347" t="inlineStr">
@@ -30219,7 +30219,7 @@
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
@@ -30307,7 +30307,7 @@
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="K349" t="inlineStr">
@@ -30395,7 +30395,7 @@
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="K350" t="inlineStr">
@@ -30483,7 +30483,7 @@
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="K351" t="inlineStr">
@@ -30557,7 +30557,7 @@
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr">
         <is>
-          <t>['Russia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Russia']</t>
         </is>
       </c>
       <c r="K352" t="inlineStr">
@@ -30637,7 +30637,7 @@
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr">
         <is>
-          <t>['Russia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Russia']</t>
         </is>
       </c>
       <c r="K353" t="inlineStr">
@@ -30721,7 +30721,7 @@
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr">
         <is>
-          <t>['Russia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Russia']</t>
         </is>
       </c>
       <c r="K354" t="inlineStr">
@@ -30795,7 +30795,7 @@
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr">
         <is>
-          <t>['Russia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Russia']</t>
         </is>
       </c>
       <c r="K355" t="inlineStr">
@@ -30875,7 +30875,7 @@
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr">
         <is>
-          <t>['Russia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Russia']</t>
         </is>
       </c>
       <c r="K356" t="inlineStr">
@@ -30959,7 +30959,7 @@
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr">
         <is>
-          <t>['Russia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Russia']</t>
         </is>
       </c>
       <c r="K357" t="inlineStr">
@@ -31047,7 +31047,7 @@
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>['Russia', 'Greece']</t>
+          <t>['Greece', 'Russia']</t>
         </is>
       </c>
       <c r="K358" t="inlineStr">
@@ -31135,7 +31135,7 @@
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>['Russia', 'Greece']</t>
+          <t>['Greece', 'Russia']</t>
         </is>
       </c>
       <c r="K359" t="inlineStr">
@@ -32589,7 +32589,7 @@
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K376" t="inlineStr">
@@ -32669,7 +32669,7 @@
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K377" t="inlineStr">
@@ -32753,7 +32753,7 @@
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K378" t="inlineStr">
@@ -32827,7 +32827,7 @@
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K379" t="inlineStr">
@@ -32907,7 +32907,7 @@
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K380" t="inlineStr">
@@ -32991,7 +32991,7 @@
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K381" t="inlineStr">
@@ -33079,7 +33079,7 @@
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain']</t>
+          <t>['Spain', 'Italy']</t>
         </is>
       </c>
       <c r="K382" t="inlineStr">
@@ -33167,7 +33167,7 @@
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain']</t>
+          <t>['Spain', 'Italy']</t>
         </is>
       </c>
       <c r="K383" t="inlineStr">
@@ -33255,7 +33255,7 @@
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain']</t>
+          <t>['Spain', 'Italy']</t>
         </is>
       </c>
       <c r="K384" t="inlineStr">
@@ -33343,7 +33343,7 @@
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain']</t>
+          <t>['Spain', 'Italy']</t>
         </is>
       </c>
       <c r="K385" t="inlineStr">
@@ -33431,7 +33431,7 @@
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain']</t>
+          <t>['Spain', 'Italy']</t>
         </is>
       </c>
       <c r="K386" t="inlineStr">
@@ -33519,7 +33519,7 @@
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain']</t>
+          <t>['Spain', 'Italy']</t>
         </is>
       </c>
       <c r="K387" t="inlineStr">
@@ -33593,7 +33593,7 @@
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K388" t="inlineStr">
@@ -33673,7 +33673,7 @@
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K389" t="inlineStr">
@@ -33757,7 +33757,7 @@
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K390" t="inlineStr">
@@ -33831,7 +33831,7 @@
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K391" t="inlineStr">
@@ -33911,7 +33911,7 @@
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K392" t="inlineStr">
@@ -33995,7 +33995,7 @@
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K393" t="inlineStr">
@@ -34083,7 +34083,7 @@
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K394" t="inlineStr">
@@ -34171,7 +34171,7 @@
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K395" t="inlineStr">
@@ -34259,7 +34259,7 @@
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K396" t="inlineStr">
@@ -34347,7 +34347,7 @@
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K397" t="inlineStr">
@@ -34435,7 +34435,7 @@
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K398" t="inlineStr">
@@ -34523,7 +34523,7 @@
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K399" t="inlineStr">
@@ -34597,7 +34597,7 @@
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr">
         <is>
-          <t>['Romania', 'Switzerland', 'France']</t>
+          <t>['France', 'Switzerland', 'Romania']</t>
         </is>
       </c>
       <c r="K400" t="inlineStr">
@@ -34677,7 +34677,7 @@
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr">
         <is>
-          <t>['Romania', 'Switzerland', 'France']</t>
+          <t>['France', 'Switzerland', 'Romania']</t>
         </is>
       </c>
       <c r="K401" t="inlineStr">
@@ -34761,7 +34761,7 @@
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr">
         <is>
-          <t>['Romania', 'Switzerland', 'France']</t>
+          <t>['France', 'Switzerland', 'Romania']</t>
         </is>
       </c>
       <c r="K402" t="inlineStr">
@@ -34849,7 +34849,7 @@
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France', 'Albania']</t>
+          <t>['France', 'Albania', 'Switzerland']</t>
         </is>
       </c>
       <c r="K403" t="inlineStr">
@@ -34923,7 +34923,7 @@
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr">
         <is>
-          <t>['England', 'Slovakia', 'Wales']</t>
+          <t>['Wales', 'England', 'Slovakia']</t>
         </is>
       </c>
       <c r="K404" t="inlineStr">
@@ -35003,7 +35003,7 @@
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr">
         <is>
-          <t>['England', 'Slovakia', 'Wales']</t>
+          <t>['Wales', 'England', 'Slovakia']</t>
         </is>
       </c>
       <c r="K405" t="inlineStr">
@@ -35091,7 +35091,7 @@
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr">
         <is>
-          <t>['England', 'Slovakia', 'Wales']</t>
+          <t>['Wales', 'England', 'Slovakia']</t>
         </is>
       </c>
       <c r="K406" t="inlineStr">
@@ -35169,7 +35169,7 @@
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr">
         <is>
-          <t>['England', 'Slovakia', 'Wales']</t>
+          <t>['Wales', 'England', 'Slovakia']</t>
         </is>
       </c>
       <c r="K407" t="inlineStr">
@@ -35249,7 +35249,7 @@
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr">
         <is>
-          <t>['England', 'Slovakia', 'Wales']</t>
+          <t>['Wales', 'England', 'Slovakia']</t>
         </is>
       </c>
       <c r="K408" t="inlineStr">
@@ -35337,7 +35337,7 @@
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr">
         <is>
-          <t>['England', 'Slovakia', 'Wales']</t>
+          <t>['Wales', 'England', 'Slovakia']</t>
         </is>
       </c>
       <c r="K409" t="inlineStr">
@@ -35429,7 +35429,7 @@
       </c>
       <c r="J410" t="inlineStr">
         <is>
-          <t>['England', 'Slovakia', 'Wales']</t>
+          <t>['Wales', 'England', 'Slovakia']</t>
         </is>
       </c>
       <c r="K410" t="inlineStr">
@@ -35517,7 +35517,7 @@
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>['England', 'Slovakia', 'Wales']</t>
+          <t>['Wales', 'England', 'Slovakia']</t>
         </is>
       </c>
       <c r="K411" t="inlineStr">
@@ -35605,7 +35605,7 @@
       </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>['England', 'Slovakia', 'Wales']</t>
+          <t>['Wales', 'England', 'Slovakia']</t>
         </is>
       </c>
       <c r="K412" t="inlineStr">
@@ -35693,7 +35693,7 @@
       </c>
       <c r="J413" t="inlineStr">
         <is>
-          <t>['England', 'Slovakia', 'Wales']</t>
+          <t>['Wales', 'England', 'Slovakia']</t>
         </is>
       </c>
       <c r="K413" t="inlineStr">
@@ -35781,7 +35781,7 @@
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>['England', 'Slovakia', 'Wales']</t>
+          <t>['Wales', 'England', 'Slovakia']</t>
         </is>
       </c>
       <c r="K414" t="inlineStr">
@@ -35869,7 +35869,7 @@
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>['England', 'Slovakia', 'Wales']</t>
+          <t>['Wales', 'England', 'Slovakia']</t>
         </is>
       </c>
       <c r="K415" t="inlineStr">
@@ -35943,7 +35943,7 @@
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr">
         <is>
-          <t>['Germany', 'Northern Ireland', 'Poland']</t>
+          <t>['Germany', 'Poland', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K416" t="inlineStr">
@@ -36023,7 +36023,7 @@
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr">
         <is>
-          <t>['Germany', 'Northern Ireland', 'Poland']</t>
+          <t>['Germany', 'Poland', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K417" t="inlineStr">
@@ -36107,7 +36107,7 @@
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr">
         <is>
-          <t>['Germany', 'Northern Ireland', 'Poland']</t>
+          <t>['Germany', 'Poland', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K418" t="inlineStr">
@@ -36181,7 +36181,7 @@
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr">
         <is>
-          <t>['Germany', 'Northern Ireland', 'Poland']</t>
+          <t>['Germany', 'Poland', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K419" t="inlineStr">
@@ -36261,7 +36261,7 @@
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr">
         <is>
-          <t>['Germany', 'Northern Ireland', 'Poland']</t>
+          <t>['Germany', 'Poland', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K420" t="inlineStr">
@@ -36345,7 +36345,7 @@
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr">
         <is>
-          <t>['Germany', 'Northern Ireland', 'Poland']</t>
+          <t>['Germany', 'Poland', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K421" t="inlineStr">
@@ -36433,7 +36433,7 @@
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>['Germany', 'Northern Ireland', 'Poland']</t>
+          <t>['Germany', 'Poland', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K422" t="inlineStr">
@@ -36521,7 +36521,7 @@
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>['Germany', 'Northern Ireland', 'Poland']</t>
+          <t>['Germany', 'Poland', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K423" t="inlineStr">
@@ -36609,7 +36609,7 @@
       </c>
       <c r="J424" t="inlineStr">
         <is>
-          <t>['Germany', 'Northern Ireland', 'Poland']</t>
+          <t>['Germany', 'Poland', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K424" t="inlineStr">
@@ -36697,7 +36697,7 @@
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>['Germany', 'Northern Ireland', 'Poland']</t>
+          <t>['Germany', 'Poland', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K425" t="inlineStr">
@@ -36771,7 +36771,7 @@
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K426" t="inlineStr">
@@ -36851,7 +36851,7 @@
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K427" t="inlineStr">
@@ -36925,7 +36925,7 @@
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K428" t="inlineStr">
@@ -37005,7 +37005,7 @@
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K429" t="inlineStr">
@@ -37093,7 +37093,7 @@
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K430" t="inlineStr">
@@ -37181,7 +37181,7 @@
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K431" t="inlineStr">
@@ -37269,7 +37269,7 @@
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>['Turkey', 'Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia', 'Turkey']</t>
         </is>
       </c>
       <c r="K432" t="inlineStr">
@@ -37295,18 +37295,18 @@
       </c>
       <c r="P432" t="inlineStr"/>
       <c r="Q432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R432" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Turkey']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="S432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U432" t="n">
         <v>1755</v>
@@ -37357,7 +37357,7 @@
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>['Turkey', 'Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia', 'Turkey']</t>
         </is>
       </c>
       <c r="K433" t="inlineStr">
@@ -37383,18 +37383,18 @@
       </c>
       <c r="P433" t="inlineStr"/>
       <c r="Q433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R433" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Turkey']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="S433" t="n">
         <v>0</v>
       </c>
       <c r="T433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U433" t="n">
         <v>1755</v>
@@ -37445,7 +37445,7 @@
       </c>
       <c r="J434" t="inlineStr">
         <is>
-          <t>['Turkey', 'Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia', 'Turkey']</t>
         </is>
       </c>
       <c r="K434" t="inlineStr">
@@ -37471,18 +37471,18 @@
       </c>
       <c r="P434" t="inlineStr"/>
       <c r="Q434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R434" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Turkey']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="S434" t="n">
         <v>0</v>
       </c>
       <c r="T434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U434" t="n">
         <v>1818</v>
@@ -37533,7 +37533,7 @@
       </c>
       <c r="J435" t="inlineStr">
         <is>
-          <t>['Turkey', 'Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia', 'Turkey']</t>
         </is>
       </c>
       <c r="K435" t="inlineStr">
@@ -37559,18 +37559,18 @@
       </c>
       <c r="P435" t="inlineStr"/>
       <c r="Q435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R435" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Turkey']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="S435" t="n">
         <v>0</v>
       </c>
       <c r="T435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U435" t="n">
         <v>1818</v>
@@ -37621,7 +37621,7 @@
       </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>['Turkey', 'Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia', 'Turkey']</t>
         </is>
       </c>
       <c r="K436" t="inlineStr">
@@ -37655,7 +37655,7 @@
         </is>
       </c>
       <c r="S436" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T436" t="n">
         <v>1</v>
@@ -37709,7 +37709,7 @@
       </c>
       <c r="J437" t="inlineStr">
         <is>
-          <t>['Turkey', 'Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia', 'Turkey']</t>
         </is>
       </c>
       <c r="K437" t="inlineStr">
@@ -37797,7 +37797,7 @@
       </c>
       <c r="J438" t="inlineStr">
         <is>
-          <t>['Turkey', 'Croatia', 'Spain']</t>
+          <t>['Croatia', 'Spain', 'Turkey']</t>
         </is>
       </c>
       <c r="K438" t="inlineStr">
@@ -37885,7 +37885,7 @@
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>['Turkey', 'Croatia', 'Spain']</t>
+          <t>['Croatia', 'Spain', 'Turkey']</t>
         </is>
       </c>
       <c r="K439" t="inlineStr">
@@ -37959,7 +37959,7 @@
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium', 'Sweden']</t>
+          <t>['Belgium', 'Italy', 'Sweden']</t>
         </is>
       </c>
       <c r="K440" t="inlineStr">
@@ -38039,7 +38039,7 @@
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium', 'Sweden']</t>
+          <t>['Belgium', 'Italy', 'Sweden']</t>
         </is>
       </c>
       <c r="K441" t="inlineStr">
@@ -38123,7 +38123,7 @@
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium', 'Sweden']</t>
+          <t>['Belgium', 'Italy', 'Sweden']</t>
         </is>
       </c>
       <c r="K442" t="inlineStr">
@@ -38197,7 +38197,7 @@
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium', 'Sweden']</t>
+          <t>['Belgium', 'Italy', 'Sweden']</t>
         </is>
       </c>
       <c r="K443" t="inlineStr">
@@ -38277,7 +38277,7 @@
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium', 'Sweden']</t>
+          <t>['Belgium', 'Italy', 'Sweden']</t>
         </is>
       </c>
       <c r="K444" t="inlineStr">
@@ -38361,7 +38361,7 @@
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium', 'Sweden']</t>
+          <t>['Belgium', 'Italy', 'Sweden']</t>
         </is>
       </c>
       <c r="K445" t="inlineStr">
@@ -38449,7 +38449,7 @@
       </c>
       <c r="J446" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium', 'Ireland']</t>
+          <t>['Belgium', 'Italy', 'Ireland']</t>
         </is>
       </c>
       <c r="K446" t="inlineStr">
@@ -38537,7 +38537,7 @@
       </c>
       <c r="J447" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium', 'Ireland']</t>
+          <t>['Belgium', 'Italy', 'Ireland']</t>
         </is>
       </c>
       <c r="K447" t="inlineStr">
@@ -38625,7 +38625,7 @@
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium', 'Ireland']</t>
+          <t>['Belgium', 'Italy', 'Ireland']</t>
         </is>
       </c>
       <c r="K448" t="inlineStr">
@@ -38713,7 +38713,7 @@
       </c>
       <c r="J449" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium', 'Ireland']</t>
+          <t>['Belgium', 'Italy', 'Ireland']</t>
         </is>
       </c>
       <c r="K449" t="inlineStr">
@@ -39495,18 +39495,18 @@
       </c>
       <c r="P458" t="inlineStr"/>
       <c r="Q458" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R458" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="S458" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T458" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U458" t="n">
         <v>1697</v>
@@ -39583,18 +39583,18 @@
       </c>
       <c r="P459" t="inlineStr"/>
       <c r="Q459" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R459" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="S459" t="n">
         <v>0</v>
       </c>
       <c r="T459" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U459" t="n">
         <v>1697</v>
@@ -39679,10 +39679,10 @@
         </is>
       </c>
       <c r="S460" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T460" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U460" t="n">
         <v>1697</v>
@@ -39770,7 +39770,7 @@
         <v>0</v>
       </c>
       <c r="T461" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U461" t="n">
         <v>1697</v>
@@ -39847,18 +39847,18 @@
       </c>
       <c r="P462" t="inlineStr"/>
       <c r="Q462" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R462" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="S462" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T462" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U462" t="n">
         <v>1697</v>
@@ -39935,18 +39935,18 @@
       </c>
       <c r="P463" t="inlineStr"/>
       <c r="Q463" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R463" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="S463" t="n">
         <v>0</v>
       </c>
       <c r="T463" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U463" t="n">
         <v>1697</v>
@@ -40023,18 +40023,18 @@
       </c>
       <c r="P464" t="inlineStr"/>
       <c r="Q464" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R464" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="S464" t="n">
         <v>0</v>
       </c>
       <c r="T464" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U464" t="n">
         <v>1666</v>
@@ -40111,18 +40111,18 @@
       </c>
       <c r="P465" t="inlineStr"/>
       <c r="Q465" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R465" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="S465" t="n">
         <v>0</v>
       </c>
       <c r="T465" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U465" t="n">
         <v>1666</v>
@@ -40207,10 +40207,10 @@
         </is>
       </c>
       <c r="S466" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T466" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="U466" t="n">
         <v>1697</v>
@@ -40298,7 +40298,7 @@
         <v>0</v>
       </c>
       <c r="T467" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="U467" t="n">
         <v>1697</v>
@@ -40386,7 +40386,7 @@
         <v>0</v>
       </c>
       <c r="T468" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="U468" t="n">
         <v>1666</v>
@@ -40474,7 +40474,7 @@
         <v>0</v>
       </c>
       <c r="T469" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="U469" t="n">
         <v>1666</v>
@@ -40511,7 +40511,7 @@
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr">
         <is>
-          <t>['Italy', 'Switzerland', 'Wales']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K470" t="inlineStr">
@@ -40591,7 +40591,7 @@
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr">
         <is>
-          <t>['Italy', 'Switzerland', 'Wales']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K471" t="inlineStr">
@@ -40665,7 +40665,7 @@
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr">
         <is>
-          <t>['Italy', 'Switzerland', 'Wales']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K472" t="inlineStr">
@@ -40745,7 +40745,7 @@
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr">
         <is>
-          <t>['Italy', 'Switzerland', 'Wales']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K473" t="inlineStr">
@@ -40819,7 +40819,7 @@
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr">
         <is>
-          <t>['Italy', 'Switzerland', 'Wales']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K474" t="inlineStr">
@@ -40899,7 +40899,7 @@
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr">
         <is>
-          <t>['Italy', 'Switzerland', 'Wales']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K475" t="inlineStr">
@@ -40987,7 +40987,7 @@
       </c>
       <c r="J476" t="inlineStr">
         <is>
-          <t>['Italy', 'Switzerland', 'Wales']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K476" t="inlineStr">
@@ -41075,7 +41075,7 @@
       </c>
       <c r="J477" t="inlineStr">
         <is>
-          <t>['Italy', 'Switzerland', 'Wales']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K477" t="inlineStr">
@@ -41163,7 +41163,7 @@
       </c>
       <c r="J478" t="inlineStr">
         <is>
-          <t>['Italy', 'Switzerland', 'Wales']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K478" t="inlineStr">
@@ -41251,7 +41251,7 @@
       </c>
       <c r="J479" t="inlineStr">
         <is>
-          <t>['Italy', 'Switzerland', 'Wales']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K479" t="inlineStr">
@@ -41339,7 +41339,7 @@
       </c>
       <c r="J480" t="inlineStr">
         <is>
-          <t>['Italy', 'Switzerland', 'Wales']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K480" t="inlineStr">
@@ -41427,7 +41427,7 @@
       </c>
       <c r="J481" t="inlineStr">
         <is>
-          <t>['Italy', 'Switzerland', 'Wales']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K481" t="inlineStr">
@@ -41515,7 +41515,7 @@
       </c>
       <c r="J482" t="inlineStr">
         <is>
-          <t>['Italy', 'Switzerland', 'Wales']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K482" t="inlineStr">
@@ -41603,7 +41603,7 @@
       </c>
       <c r="J483" t="inlineStr">
         <is>
-          <t>['Italy', 'Switzerland', 'Wales']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K483" t="inlineStr">
@@ -41691,7 +41691,7 @@
       </c>
       <c r="J484" t="inlineStr">
         <is>
-          <t>['Italy', 'Switzerland', 'Wales']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K484" t="inlineStr">
@@ -41779,7 +41779,7 @@
       </c>
       <c r="J485" t="inlineStr">
         <is>
-          <t>['Italy', 'Switzerland', 'Wales']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K485" t="inlineStr">
@@ -41867,7 +41867,7 @@
       </c>
       <c r="J486" t="inlineStr">
         <is>
-          <t>['Italy', 'Switzerland', 'Wales']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K486" t="inlineStr">
@@ -41955,7 +41955,7 @@
       </c>
       <c r="J487" t="inlineStr">
         <is>
-          <t>['Italy', 'Switzerland', 'Wales']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K487" t="inlineStr">
@@ -42043,7 +42043,7 @@
       </c>
       <c r="J488" t="inlineStr">
         <is>
-          <t>['Italy', 'Switzerland', 'Wales']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K488" t="inlineStr">
@@ -42131,7 +42131,7 @@
       </c>
       <c r="J489" t="inlineStr">
         <is>
-          <t>['Italy', 'Switzerland', 'Wales']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K489" t="inlineStr">
@@ -42219,7 +42219,7 @@
       </c>
       <c r="J490" t="inlineStr">
         <is>
-          <t>['Italy', 'Switzerland', 'Wales']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K490" t="inlineStr">
@@ -42293,7 +42293,7 @@
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium', 'Finland']</t>
+          <t>['Belgium', 'Russia', 'Finland']</t>
         </is>
       </c>
       <c r="K491" t="inlineStr">
@@ -42319,11 +42319,11 @@
       </c>
       <c r="P491" t="inlineStr"/>
       <c r="Q491" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R491" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Russia']</t>
+          <t>['Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="S491" t="n">
@@ -42373,7 +42373,7 @@
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium', 'Finland']</t>
+          <t>['Belgium', 'Russia', 'Finland']</t>
         </is>
       </c>
       <c r="K492" t="inlineStr">
@@ -42399,11 +42399,11 @@
       </c>
       <c r="P492" t="inlineStr"/>
       <c r="Q492" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R492" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Russia']</t>
+          <t>['Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="S492" t="n">
@@ -42447,7 +42447,7 @@
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium', 'Finland']</t>
+          <t>['Belgium', 'Russia', 'Finland']</t>
         </is>
       </c>
       <c r="K493" t="inlineStr">
@@ -42473,11 +42473,11 @@
       </c>
       <c r="P493" t="inlineStr"/>
       <c r="Q493" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R493" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Russia']</t>
+          <t>['Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="S493" t="n">
@@ -42527,7 +42527,7 @@
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium', 'Finland']</t>
+          <t>['Belgium', 'Russia', 'Finland']</t>
         </is>
       </c>
       <c r="K494" t="inlineStr">
@@ -42553,11 +42553,11 @@
       </c>
       <c r="P494" t="inlineStr"/>
       <c r="Q494" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R494" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Russia']</t>
+          <t>['Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="S494" t="n">
@@ -42601,7 +42601,7 @@
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium', 'Finland']</t>
+          <t>['Belgium', 'Russia', 'Finland']</t>
         </is>
       </c>
       <c r="K495" t="inlineStr">
@@ -42627,11 +42627,11 @@
       </c>
       <c r="P495" t="inlineStr"/>
       <c r="Q495" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R495" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Russia']</t>
+          <t>['Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="S495" t="n">
@@ -42681,7 +42681,7 @@
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium', 'Finland']</t>
+          <t>['Belgium', 'Russia', 'Finland']</t>
         </is>
       </c>
       <c r="K496" t="inlineStr">
@@ -42707,11 +42707,11 @@
       </c>
       <c r="P496" t="inlineStr"/>
       <c r="Q496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R496" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Russia']</t>
+          <t>['Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="S496" t="n">
@@ -42755,7 +42755,7 @@
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium', 'Finland']</t>
+          <t>['Belgium', 'Russia', 'Finland']</t>
         </is>
       </c>
       <c r="K497" t="inlineStr">
@@ -42781,11 +42781,11 @@
       </c>
       <c r="P497" t="inlineStr"/>
       <c r="Q497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R497" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Russia']</t>
+          <t>['Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="S497" t="n">
@@ -42835,7 +42835,7 @@
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium', 'Finland']</t>
+          <t>['Belgium', 'Russia', 'Finland']</t>
         </is>
       </c>
       <c r="K498" t="inlineStr">
@@ -42861,11 +42861,11 @@
       </c>
       <c r="P498" t="inlineStr"/>
       <c r="Q498" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R498" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Russia']</t>
+          <t>['Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="S498" t="n">
@@ -42923,7 +42923,7 @@
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>['Denmark', 'Belgium', 'Finland']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="K499" t="inlineStr">
@@ -42949,18 +42949,18 @@
       </c>
       <c r="P499" t="inlineStr"/>
       <c r="Q499" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R499" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Denmark']</t>
+          <t>['Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="S499" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T499" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U499" t="n">
         <v>1744</v>
@@ -43011,7 +43011,7 @@
       </c>
       <c r="J500" t="inlineStr">
         <is>
-          <t>['Denmark', 'Belgium', 'Finland']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="K500" t="inlineStr">
@@ -43037,18 +43037,18 @@
       </c>
       <c r="P500" t="inlineStr"/>
       <c r="Q500" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R500" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Denmark']</t>
+          <t>['Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="S500" t="n">
         <v>0</v>
       </c>
       <c r="T500" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U500" t="n">
         <v>1744</v>
@@ -43099,7 +43099,7 @@
       </c>
       <c r="J501" t="inlineStr">
         <is>
-          <t>['Denmark', 'Belgium', 'Finland']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="K501" t="inlineStr">
@@ -43125,18 +43125,18 @@
       </c>
       <c r="P501" t="inlineStr"/>
       <c r="Q501" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R501" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Denmark']</t>
+          <t>['Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="S501" t="n">
         <v>0</v>
       </c>
       <c r="T501" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U501" t="n">
         <v>1744</v>
@@ -43187,7 +43187,7 @@
       </c>
       <c r="J502" t="inlineStr">
         <is>
-          <t>['Denmark', 'Belgium', 'Finland']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="K502" t="inlineStr">
@@ -43213,18 +43213,18 @@
       </c>
       <c r="P502" t="inlineStr"/>
       <c r="Q502" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R502" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Denmark']</t>
+          <t>['Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="S502" t="n">
         <v>0</v>
       </c>
       <c r="T502" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U502" t="n">
         <v>1744</v>
@@ -43275,7 +43275,7 @@
       </c>
       <c r="J503" t="inlineStr">
         <is>
-          <t>['Denmark', 'Belgium', 'Finland']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="K503" t="inlineStr">
@@ -43309,7 +43309,7 @@
         </is>
       </c>
       <c r="S503" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T503" t="n">
         <v>1</v>
@@ -43363,7 +43363,7 @@
       </c>
       <c r="J504" t="inlineStr">
         <is>
-          <t>['Denmark', 'Belgium', 'Finland']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="K504" t="inlineStr">
@@ -43451,7 +43451,7 @@
       </c>
       <c r="J505" t="inlineStr">
         <is>
-          <t>['Denmark', 'Belgium', 'Finland']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="K505" t="inlineStr">
@@ -43539,7 +43539,7 @@
       </c>
       <c r="J506" t="inlineStr">
         <is>
-          <t>['Denmark', 'Belgium', 'Finland']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="K506" t="inlineStr">
@@ -43627,7 +43627,7 @@
       </c>
       <c r="J507" t="inlineStr">
         <is>
-          <t>['Denmark', 'Belgium', 'Finland']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="K507" t="inlineStr">
@@ -43653,18 +43653,18 @@
       </c>
       <c r="P507" t="inlineStr"/>
       <c r="Q507" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R507" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Denmark']</t>
+          <t>['Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="S507" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T507" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U507" t="n">
         <v>1744</v>
@@ -43715,7 +43715,7 @@
       </c>
       <c r="J508" t="inlineStr">
         <is>
-          <t>['Denmark', 'Belgium', 'Finland']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="K508" t="inlineStr">
@@ -43741,18 +43741,18 @@
       </c>
       <c r="P508" t="inlineStr"/>
       <c r="Q508" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R508" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Denmark']</t>
+          <t>['Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="S508" t="n">
         <v>0</v>
       </c>
       <c r="T508" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U508" t="n">
         <v>1744</v>
@@ -43803,7 +43803,7 @@
       </c>
       <c r="J509" t="inlineStr">
         <is>
-          <t>['Denmark', 'Belgium', 'Finland']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="K509" t="inlineStr">
@@ -43829,18 +43829,18 @@
       </c>
       <c r="P509" t="inlineStr"/>
       <c r="Q509" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R509" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Denmark']</t>
+          <t>['Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="S509" t="n">
         <v>0</v>
       </c>
       <c r="T509" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U509" t="n">
         <v>1744</v>
@@ -43891,7 +43891,7 @@
       </c>
       <c r="J510" t="inlineStr">
         <is>
-          <t>['Denmark', 'Belgium', 'Finland']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="K510" t="inlineStr">
@@ -43917,18 +43917,18 @@
       </c>
       <c r="P510" t="inlineStr"/>
       <c r="Q510" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R510" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Denmark']</t>
+          <t>['Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="S510" t="n">
         <v>0</v>
       </c>
       <c r="T510" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U510" t="n">
         <v>1744</v>
@@ -43979,7 +43979,7 @@
       </c>
       <c r="J511" t="inlineStr">
         <is>
-          <t>['Denmark', 'Belgium', 'Russia']</t>
+          <t>['Belgium', 'Denmark', 'Russia']</t>
         </is>
       </c>
       <c r="K511" t="inlineStr">
@@ -44005,18 +44005,18 @@
       </c>
       <c r="P511" t="inlineStr"/>
       <c r="Q511" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R511" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Russia']</t>
+          <t>['Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="S511" t="n">
         <v>1</v>
       </c>
       <c r="T511" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U511" t="n">
         <v>1684</v>
@@ -44067,7 +44067,7 @@
       </c>
       <c r="J512" t="inlineStr">
         <is>
-          <t>['Denmark', 'Belgium', 'Russia']</t>
+          <t>['Belgium', 'Denmark', 'Russia']</t>
         </is>
       </c>
       <c r="K512" t="inlineStr">
@@ -44093,18 +44093,18 @@
       </c>
       <c r="P512" t="inlineStr"/>
       <c r="Q512" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R512" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Russia']</t>
+          <t>['Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="S512" t="n">
         <v>0</v>
       </c>
       <c r="T512" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U512" t="n">
         <v>1684</v>
@@ -44155,7 +44155,7 @@
       </c>
       <c r="J513" t="inlineStr">
         <is>
-          <t>['Denmark', 'Belgium', 'Russia']</t>
+          <t>['Belgium', 'Denmark', 'Russia']</t>
         </is>
       </c>
       <c r="K513" t="inlineStr">
@@ -44181,18 +44181,18 @@
       </c>
       <c r="P513" t="inlineStr"/>
       <c r="Q513" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R513" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Russia']</t>
+          <t>['Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="S513" t="n">
         <v>0</v>
       </c>
       <c r="T513" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U513" t="n">
         <v>1684</v>
@@ -44243,7 +44243,7 @@
       </c>
       <c r="J514" t="inlineStr">
         <is>
-          <t>['Denmark', 'Belgium', 'Russia']</t>
+          <t>['Belgium', 'Denmark', 'Russia']</t>
         </is>
       </c>
       <c r="K514" t="inlineStr">
@@ -44269,18 +44269,18 @@
       </c>
       <c r="P514" t="inlineStr"/>
       <c r="Q514" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R514" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Russia']</t>
+          <t>['Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="S514" t="n">
         <v>0</v>
       </c>
       <c r="T514" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U514" t="n">
         <v>1684</v>
@@ -44331,7 +44331,7 @@
       </c>
       <c r="J515" t="inlineStr">
         <is>
-          <t>['Denmark', 'Belgium', 'Finland']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="K515" t="inlineStr">
@@ -44357,15 +44357,15 @@
       </c>
       <c r="P515" t="inlineStr"/>
       <c r="Q515" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R515" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="S515" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T515" t="n">
         <v>3</v>
@@ -44419,7 +44419,7 @@
       </c>
       <c r="J516" t="inlineStr">
         <is>
-          <t>['Denmark', 'Belgium', 'Finland']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="K516" t="inlineStr">
@@ -44445,11 +44445,11 @@
       </c>
       <c r="P516" t="inlineStr"/>
       <c r="Q516" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R516" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="S516" t="n">
@@ -44507,7 +44507,7 @@
       </c>
       <c r="J517" t="inlineStr">
         <is>
-          <t>['Denmark', 'Belgium', 'Finland']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="K517" t="inlineStr">
@@ -44533,11 +44533,11 @@
       </c>
       <c r="P517" t="inlineStr"/>
       <c r="Q517" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R517" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="S517" t="n">
@@ -44595,7 +44595,7 @@
       </c>
       <c r="J518" t="inlineStr">
         <is>
-          <t>['Denmark', 'Belgium', 'Finland']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="K518" t="inlineStr">
@@ -44621,11 +44621,11 @@
       </c>
       <c r="P518" t="inlineStr"/>
       <c r="Q518" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R518" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="S518" t="n">
@@ -44683,7 +44683,7 @@
       </c>
       <c r="J519" t="inlineStr">
         <is>
-          <t>['Denmark', 'Belgium', 'Finland']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="K519" t="inlineStr">
@@ -44709,11 +44709,11 @@
       </c>
       <c r="P519" t="inlineStr"/>
       <c r="Q519" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R519" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="S519" t="n">
@@ -44771,7 +44771,7 @@
       </c>
       <c r="J520" t="inlineStr">
         <is>
-          <t>['Denmark', 'Belgium', 'Finland']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="K520" t="inlineStr">
@@ -44797,11 +44797,11 @@
       </c>
       <c r="P520" t="inlineStr"/>
       <c r="Q520" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R520" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="S520" t="n">
@@ -44859,7 +44859,7 @@
       </c>
       <c r="J521" t="inlineStr">
         <is>
-          <t>['Denmark', 'Belgium', 'Finland']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="K521" t="inlineStr">
@@ -44885,11 +44885,11 @@
       </c>
       <c r="P521" t="inlineStr"/>
       <c r="Q521" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R521" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="S521" t="n">
@@ -44947,7 +44947,7 @@
       </c>
       <c r="J522" t="inlineStr">
         <is>
-          <t>['Denmark', 'Belgium', 'Finland']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="K522" t="inlineStr">
@@ -44973,11 +44973,11 @@
       </c>
       <c r="P522" t="inlineStr"/>
       <c r="Q522" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R522" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="S522" t="n">
@@ -45035,7 +45035,7 @@
       </c>
       <c r="J523" t="inlineStr">
         <is>
-          <t>['Denmark', 'Belgium', 'Finland']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="K523" t="inlineStr">
@@ -45061,11 +45061,11 @@
       </c>
       <c r="P523" t="inlineStr"/>
       <c r="Q523" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R523" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="S523" t="n">
@@ -45123,7 +45123,7 @@
       </c>
       <c r="J524" t="inlineStr">
         <is>
-          <t>['Denmark', 'Belgium', 'Finland']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="K524" t="inlineStr">
@@ -45149,11 +45149,11 @@
       </c>
       <c r="P524" t="inlineStr"/>
       <c r="Q524" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R524" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="S524" t="n">
@@ -45211,7 +45211,7 @@
       </c>
       <c r="J525" t="inlineStr">
         <is>
-          <t>['Denmark', 'Belgium', 'Finland']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="K525" t="inlineStr">
@@ -45237,11 +45237,11 @@
       </c>
       <c r="P525" t="inlineStr"/>
       <c r="Q525" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R525" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="S525" t="n">
@@ -45299,7 +45299,7 @@
       </c>
       <c r="J526" t="inlineStr">
         <is>
-          <t>['Denmark', 'Belgium', 'Finland']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="K526" t="inlineStr">
@@ -45325,11 +45325,11 @@
       </c>
       <c r="P526" t="inlineStr"/>
       <c r="Q526" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R526" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="S526" t="n">
@@ -45373,7 +45373,7 @@
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="K527" t="inlineStr">
@@ -45399,11 +45399,11 @@
       </c>
       <c r="P527" t="inlineStr"/>
       <c r="Q527" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R527" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Netherlands', 'Ukraine']</t>
         </is>
       </c>
       <c r="S527" t="n">
@@ -45453,7 +45453,7 @@
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="K528" t="inlineStr">
@@ -45479,11 +45479,11 @@
       </c>
       <c r="P528" t="inlineStr"/>
       <c r="Q528" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R528" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Netherlands', 'Ukraine']</t>
         </is>
       </c>
       <c r="S528" t="n">
@@ -45527,7 +45527,7 @@
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="K529" t="inlineStr">
@@ -45553,11 +45553,11 @@
       </c>
       <c r="P529" t="inlineStr"/>
       <c r="Q529" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R529" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Netherlands', 'Ukraine']</t>
         </is>
       </c>
       <c r="S529" t="n">
@@ -45607,7 +45607,7 @@
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="K530" t="inlineStr">
@@ -45633,11 +45633,11 @@
       </c>
       <c r="P530" t="inlineStr"/>
       <c r="Q530" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R530" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Netherlands', 'Ukraine']</t>
         </is>
       </c>
       <c r="S530" t="n">
@@ -45681,7 +45681,7 @@
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="K531" t="inlineStr">
@@ -45707,11 +45707,11 @@
       </c>
       <c r="P531" t="inlineStr"/>
       <c r="Q531" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R531" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Netherlands', 'Ukraine']</t>
         </is>
       </c>
       <c r="S531" t="n">
@@ -45761,7 +45761,7 @@
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="K532" t="inlineStr">
@@ -45787,11 +45787,11 @@
       </c>
       <c r="P532" t="inlineStr"/>
       <c r="Q532" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R532" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Netherlands', 'Ukraine']</t>
         </is>
       </c>
       <c r="S532" t="n">
@@ -45845,7 +45845,7 @@
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="K533" t="inlineStr">
@@ -45871,11 +45871,11 @@
       </c>
       <c r="P533" t="inlineStr"/>
       <c r="Q533" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R533" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Netherlands', 'Ukraine']</t>
         </is>
       </c>
       <c r="S533" t="n">
@@ -45929,7 +45929,7 @@
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="K534" t="inlineStr">
@@ -45955,11 +45955,11 @@
       </c>
       <c r="P534" t="inlineStr"/>
       <c r="Q534" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R534" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Netherlands', 'Ukraine']</t>
         </is>
       </c>
       <c r="S534" t="n">
@@ -46013,7 +46013,7 @@
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="K535" t="inlineStr">
@@ -46039,11 +46039,11 @@
       </c>
       <c r="P535" t="inlineStr"/>
       <c r="Q535" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R535" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Netherlands', 'Ukraine']</t>
         </is>
       </c>
       <c r="S535" t="n">
@@ -46101,7 +46101,7 @@
       </c>
       <c r="J536" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K536" t="inlineStr">
@@ -46127,18 +46127,18 @@
       </c>
       <c r="P536" t="inlineStr"/>
       <c r="Q536" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R536" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="S536" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T536" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U536" t="n">
         <v>1814</v>
@@ -46189,7 +46189,7 @@
       </c>
       <c r="J537" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K537" t="inlineStr">
@@ -46215,18 +46215,18 @@
       </c>
       <c r="P537" t="inlineStr"/>
       <c r="Q537" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R537" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="S537" t="n">
         <v>0</v>
       </c>
       <c r="T537" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U537" t="n">
         <v>1814</v>
@@ -46277,7 +46277,7 @@
       </c>
       <c r="J538" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K538" t="inlineStr">
@@ -46303,18 +46303,18 @@
       </c>
       <c r="P538" t="inlineStr"/>
       <c r="Q538" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R538" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="S538" t="n">
         <v>0</v>
       </c>
       <c r="T538" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U538" t="n">
         <v>1814</v>
@@ -46365,7 +46365,7 @@
       </c>
       <c r="J539" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K539" t="inlineStr">
@@ -46391,18 +46391,18 @@
       </c>
       <c r="P539" t="inlineStr"/>
       <c r="Q539" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R539" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="S539" t="n">
         <v>0</v>
       </c>
       <c r="T539" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U539" t="n">
         <v>1603</v>
@@ -46453,7 +46453,7 @@
       </c>
       <c r="J540" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K540" t="inlineStr">
@@ -46479,18 +46479,18 @@
       </c>
       <c r="P540" t="inlineStr"/>
       <c r="Q540" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R540" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="S540" t="n">
         <v>0</v>
       </c>
       <c r="T540" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U540" t="n">
         <v>1603</v>
@@ -46541,7 +46541,7 @@
       </c>
       <c r="J541" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K541" t="inlineStr">
@@ -46567,18 +46567,18 @@
       </c>
       <c r="P541" t="inlineStr"/>
       <c r="Q541" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R541" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="S541" t="n">
         <v>0</v>
       </c>
       <c r="T541" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U541" t="n">
         <v>1603</v>
@@ -46629,7 +46629,7 @@
       </c>
       <c r="J542" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K542" t="inlineStr">
@@ -46655,18 +46655,18 @@
       </c>
       <c r="P542" t="inlineStr"/>
       <c r="Q542" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R542" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="S542" t="n">
         <v>0</v>
       </c>
       <c r="T542" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U542" t="n">
         <v>1603</v>
@@ -46717,7 +46717,7 @@
       </c>
       <c r="J543" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K543" t="inlineStr">
@@ -46743,18 +46743,18 @@
       </c>
       <c r="P543" t="inlineStr"/>
       <c r="Q543" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R543" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="S543" t="n">
         <v>0</v>
       </c>
       <c r="T543" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U543" t="n">
         <v>1603</v>
@@ -46805,7 +46805,7 @@
       </c>
       <c r="J544" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K544" t="inlineStr">
@@ -46831,18 +46831,18 @@
       </c>
       <c r="P544" t="inlineStr"/>
       <c r="Q544" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R544" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="S544" t="n">
         <v>0</v>
       </c>
       <c r="T544" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U544" t="n">
         <v>1603</v>
@@ -46893,7 +46893,7 @@
       </c>
       <c r="J545" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K545" t="inlineStr">
@@ -46919,18 +46919,18 @@
       </c>
       <c r="P545" t="inlineStr"/>
       <c r="Q545" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R545" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="S545" t="n">
         <v>0</v>
       </c>
       <c r="T545" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U545" t="n">
         <v>1603</v>
@@ -46981,7 +46981,7 @@
       </c>
       <c r="J546" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K546" t="inlineStr">
@@ -47007,18 +47007,18 @@
       </c>
       <c r="P546" t="inlineStr"/>
       <c r="Q546" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R546" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="S546" t="n">
         <v>0</v>
       </c>
       <c r="T546" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U546" t="n">
         <v>1603</v>
@@ -47069,7 +47069,7 @@
       </c>
       <c r="J547" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K547" t="inlineStr">
@@ -47095,18 +47095,18 @@
       </c>
       <c r="P547" t="inlineStr"/>
       <c r="Q547" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R547" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="S547" t="n">
         <v>0</v>
       </c>
       <c r="T547" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U547" t="n">
         <v>1603</v>
@@ -47143,7 +47143,7 @@
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr">
         <is>
-          <t>['England', 'Czech Republic', 'Croatia']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K548" t="inlineStr">
@@ -47223,7 +47223,7 @@
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr">
         <is>
-          <t>['England', 'Czech Republic', 'Croatia']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K549" t="inlineStr">
@@ -47297,7 +47297,7 @@
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr">
         <is>
-          <t>['England', 'Czech Republic', 'Croatia']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K550" t="inlineStr">
@@ -47377,7 +47377,7 @@
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr">
         <is>
-          <t>['England', 'Czech Republic', 'Croatia']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K551" t="inlineStr">
@@ -47465,7 +47465,7 @@
       </c>
       <c r="J552" t="inlineStr">
         <is>
-          <t>['England', 'Czech Republic', 'Croatia']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K552" t="inlineStr">
@@ -47553,7 +47553,7 @@
       </c>
       <c r="J553" t="inlineStr">
         <is>
-          <t>['England', 'Czech Republic', 'Croatia']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K553" t="inlineStr">
@@ -47641,7 +47641,7 @@
       </c>
       <c r="J554" t="inlineStr">
         <is>
-          <t>['England', 'Czech Republic', 'Croatia']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K554" t="inlineStr">
@@ -47729,7 +47729,7 @@
       </c>
       <c r="J555" t="inlineStr">
         <is>
-          <t>['England', 'Czech Republic', 'Croatia']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K555" t="inlineStr">
@@ -47817,7 +47817,7 @@
       </c>
       <c r="J556" t="inlineStr">
         <is>
-          <t>['England', 'Czech Republic', 'Croatia']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K556" t="inlineStr">
@@ -47905,7 +47905,7 @@
       </c>
       <c r="J557" t="inlineStr">
         <is>
-          <t>['England', 'Czech Republic', 'Croatia']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K557" t="inlineStr">
@@ -47993,7 +47993,7 @@
       </c>
       <c r="J558" t="inlineStr">
         <is>
-          <t>['England', 'Czech Republic', 'Croatia']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K558" t="inlineStr">
@@ -48081,7 +48081,7 @@
       </c>
       <c r="J559" t="inlineStr">
         <is>
-          <t>['England', 'Czech Republic', 'Croatia']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K559" t="inlineStr">
@@ -48169,7 +48169,7 @@
       </c>
       <c r="J560" t="inlineStr">
         <is>
-          <t>['England', 'Czech Republic', 'Croatia']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K560" t="inlineStr">
@@ -48257,7 +48257,7 @@
       </c>
       <c r="J561" t="inlineStr">
         <is>
-          <t>['England', 'Czech Republic', 'Croatia']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K561" t="inlineStr">
@@ -48331,7 +48331,7 @@
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K562" t="inlineStr">
@@ -48357,11 +48357,11 @@
       </c>
       <c r="P562" t="inlineStr"/>
       <c r="Q562" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R562" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="S562" t="n">
@@ -48411,7 +48411,7 @@
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K563" t="inlineStr">
@@ -48437,11 +48437,11 @@
       </c>
       <c r="P563" t="inlineStr"/>
       <c r="Q563" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R563" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="S563" t="n">
@@ -48485,7 +48485,7 @@
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K564" t="inlineStr">
@@ -48511,11 +48511,11 @@
       </c>
       <c r="P564" t="inlineStr"/>
       <c r="Q564" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R564" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="S564" t="n">
@@ -48565,7 +48565,7 @@
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K565" t="inlineStr">
@@ -48591,11 +48591,11 @@
       </c>
       <c r="P565" t="inlineStr"/>
       <c r="Q565" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R565" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="S565" t="n">
@@ -48639,7 +48639,7 @@
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K566" t="inlineStr">
@@ -48665,11 +48665,11 @@
       </c>
       <c r="P566" t="inlineStr"/>
       <c r="Q566" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R566" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="S566" t="n">
@@ -48719,7 +48719,7 @@
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K567" t="inlineStr">
@@ -48745,11 +48745,11 @@
       </c>
       <c r="P567" t="inlineStr"/>
       <c r="Q567" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R567" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="S567" t="n">
@@ -48793,7 +48793,7 @@
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K568" t="inlineStr">
@@ -48819,11 +48819,11 @@
       </c>
       <c r="P568" t="inlineStr"/>
       <c r="Q568" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R568" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="S568" t="n">
@@ -48873,7 +48873,7 @@
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K569" t="inlineStr">
@@ -48899,11 +48899,11 @@
       </c>
       <c r="P569" t="inlineStr"/>
       <c r="Q569" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R569" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="S569" t="n">
@@ -48961,7 +48961,7 @@
       </c>
       <c r="J570" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K570" t="inlineStr">
@@ -48995,10 +48995,10 @@
         </is>
       </c>
       <c r="S570" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T570" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U570" t="n">
         <v>1850</v>
@@ -49049,7 +49049,7 @@
       </c>
       <c r="J571" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K571" t="inlineStr">
@@ -49086,7 +49086,7 @@
         <v>0</v>
       </c>
       <c r="T571" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U571" t="n">
         <v>1850</v>
@@ -49137,7 +49137,7 @@
       </c>
       <c r="J572" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K572" t="inlineStr">
@@ -49174,7 +49174,7 @@
         <v>0</v>
       </c>
       <c r="T572" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U572" t="n">
         <v>1850</v>
@@ -49225,7 +49225,7 @@
       </c>
       <c r="J573" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K573" t="inlineStr">
@@ -49262,7 +49262,7 @@
         <v>0</v>
       </c>
       <c r="T573" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U573" t="n">
         <v>1850</v>
@@ -49313,7 +49313,7 @@
       </c>
       <c r="J574" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K574" t="inlineStr">
@@ -49339,18 +49339,18 @@
       </c>
       <c r="P574" t="inlineStr"/>
       <c r="Q574" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R574" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="S574" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U574" t="n">
         <v>1656</v>
@@ -49401,7 +49401,7 @@
       </c>
       <c r="J575" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K575" t="inlineStr">
@@ -49427,18 +49427,18 @@
       </c>
       <c r="P575" t="inlineStr"/>
       <c r="Q575" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R575" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="S575" t="n">
         <v>0</v>
       </c>
       <c r="T575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U575" t="n">
         <v>1656</v>
@@ -49489,7 +49489,7 @@
       </c>
       <c r="J576" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K576" t="inlineStr">
@@ -49515,18 +49515,18 @@
       </c>
       <c r="P576" t="inlineStr"/>
       <c r="Q576" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R576" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="S576" t="n">
         <v>0</v>
       </c>
       <c r="T576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U576" t="n">
         <v>1656</v>
@@ -49577,7 +49577,7 @@
       </c>
       <c r="J577" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K577" t="inlineStr">
@@ -49603,18 +49603,18 @@
       </c>
       <c r="P577" t="inlineStr"/>
       <c r="Q577" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R577" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="S577" t="n">
         <v>0</v>
       </c>
       <c r="T577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U577" t="n">
         <v>1656</v>
@@ -49665,7 +49665,7 @@
       </c>
       <c r="J578" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K578" t="inlineStr">
@@ -49691,18 +49691,18 @@
       </c>
       <c r="P578" t="inlineStr"/>
       <c r="Q578" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R578" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="S578" t="n">
         <v>0</v>
       </c>
       <c r="T578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U578" t="n">
         <v>1656</v>
@@ -49753,7 +49753,7 @@
       </c>
       <c r="J579" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K579" t="inlineStr">
@@ -49779,18 +49779,18 @@
       </c>
       <c r="P579" t="inlineStr"/>
       <c r="Q579" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R579" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="S579" t="n">
         <v>0</v>
       </c>
       <c r="T579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U579" t="n">
         <v>1656</v>
@@ -49841,7 +49841,7 @@
       </c>
       <c r="J580" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K580" t="inlineStr">
@@ -49867,18 +49867,18 @@
       </c>
       <c r="P580" t="inlineStr"/>
       <c r="Q580" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R580" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="S580" t="n">
         <v>0</v>
       </c>
       <c r="T580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U580" t="n">
         <v>1656</v>
@@ -49929,7 +49929,7 @@
       </c>
       <c r="J581" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K581" t="inlineStr">
@@ -49955,18 +49955,18 @@
       </c>
       <c r="P581" t="inlineStr"/>
       <c r="Q581" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R581" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="S581" t="n">
         <v>0</v>
       </c>
       <c r="T581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U581" t="n">
         <v>1656</v>
@@ -50017,7 +50017,7 @@
       </c>
       <c r="J582" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K582" t="inlineStr">
@@ -50043,18 +50043,18 @@
       </c>
       <c r="P582" t="inlineStr"/>
       <c r="Q582" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R582" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="S582" t="n">
         <v>0</v>
       </c>
       <c r="T582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U582" t="n">
         <v>1656</v>
@@ -50105,7 +50105,7 @@
       </c>
       <c r="J583" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K583" t="inlineStr">
@@ -50131,18 +50131,18 @@
       </c>
       <c r="P583" t="inlineStr"/>
       <c r="Q583" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R583" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="S583" t="n">
         <v>0</v>
       </c>
       <c r="T583" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U583" t="n">
         <v>1656</v>
@@ -50193,7 +50193,7 @@
       </c>
       <c r="J584" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K584" t="inlineStr">
@@ -50219,18 +50219,18 @@
       </c>
       <c r="P584" t="inlineStr"/>
       <c r="Q584" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R584" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="S584" t="n">
         <v>0</v>
       </c>
       <c r="T584" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U584" t="n">
         <v>1656</v>
@@ -50281,7 +50281,7 @@
       </c>
       <c r="J585" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K585" t="inlineStr">
@@ -50307,18 +50307,18 @@
       </c>
       <c r="P585" t="inlineStr"/>
       <c r="Q585" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R585" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="S585" t="n">
         <v>0</v>
       </c>
       <c r="T585" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U585" t="n">
         <v>1656</v>
@@ -50369,7 +50369,7 @@
       </c>
       <c r="J586" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K586" t="inlineStr">
@@ -50403,10 +50403,10 @@
         </is>
       </c>
       <c r="S586" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T586" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U586" t="n">
         <v>1850</v>
@@ -50457,7 +50457,7 @@
       </c>
       <c r="J587" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K587" t="inlineStr">
@@ -50494,7 +50494,7 @@
         <v>0</v>
       </c>
       <c r="T587" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U587" t="n">
         <v>1850</v>
@@ -50545,7 +50545,7 @@
       </c>
       <c r="J588" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K588" t="inlineStr">
@@ -50582,7 +50582,7 @@
         <v>0</v>
       </c>
       <c r="T588" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U588" t="n">
         <v>1850</v>
@@ -50633,7 +50633,7 @@
       </c>
       <c r="J589" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K589" t="inlineStr">
@@ -50670,7 +50670,7 @@
         <v>0</v>
       </c>
       <c r="T589" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U589" t="n">
         <v>1850</v>
@@ -50721,7 +50721,7 @@
       </c>
       <c r="J590" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K590" t="inlineStr">
@@ -50747,15 +50747,15 @@
       </c>
       <c r="P590" t="inlineStr"/>
       <c r="Q590" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R590" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="S590" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T590" t="n">
         <v>2</v>
@@ -50809,7 +50809,7 @@
       </c>
       <c r="J591" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K591" t="inlineStr">
@@ -50835,11 +50835,11 @@
       </c>
       <c r="P591" t="inlineStr"/>
       <c r="Q591" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R591" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="S591" t="n">
@@ -50897,7 +50897,7 @@
       </c>
       <c r="J592" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K592" t="inlineStr">
@@ -50923,11 +50923,11 @@
       </c>
       <c r="P592" t="inlineStr"/>
       <c r="Q592" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R592" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="S592" t="n">
@@ -50985,7 +50985,7 @@
       </c>
       <c r="J593" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K593" t="inlineStr">
@@ -51011,11 +51011,11 @@
       </c>
       <c r="P593" t="inlineStr"/>
       <c r="Q593" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R593" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="S593" t="n">
@@ -51073,7 +51073,7 @@
       </c>
       <c r="J594" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K594" t="inlineStr">
@@ -51099,11 +51099,11 @@
       </c>
       <c r="P594" t="inlineStr"/>
       <c r="Q594" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R594" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="S594" t="n">
@@ -51161,7 +51161,7 @@
       </c>
       <c r="J595" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K595" t="inlineStr">
@@ -51187,11 +51187,11 @@
       </c>
       <c r="P595" t="inlineStr"/>
       <c r="Q595" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R595" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="S595" t="n">
@@ -51249,7 +51249,7 @@
       </c>
       <c r="J596" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K596" t="inlineStr">
@@ -51275,11 +51275,11 @@
       </c>
       <c r="P596" t="inlineStr"/>
       <c r="Q596" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R596" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="S596" t="n">
@@ -51337,7 +51337,7 @@
       </c>
       <c r="J597" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K597" t="inlineStr">
@@ -51363,11 +51363,11 @@
       </c>
       <c r="P597" t="inlineStr"/>
       <c r="Q597" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R597" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="S597" t="n">
@@ -51425,7 +51425,7 @@
       </c>
       <c r="J598" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K598" t="inlineStr">
@@ -51451,11 +51451,11 @@
       </c>
       <c r="P598" t="inlineStr"/>
       <c r="Q598" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R598" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="S598" t="n">
@@ -51513,7 +51513,7 @@
       </c>
       <c r="J599" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K599" t="inlineStr">
@@ -51539,11 +51539,11 @@
       </c>
       <c r="P599" t="inlineStr"/>
       <c r="Q599" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R599" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="S599" t="n">
@@ -51601,7 +51601,7 @@
       </c>
       <c r="J600" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K600" t="inlineStr">
@@ -51627,11 +51627,11 @@
       </c>
       <c r="P600" t="inlineStr"/>
       <c r="Q600" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R600" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="S600" t="n">
@@ -51689,7 +51689,7 @@
       </c>
       <c r="J601" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K601" t="inlineStr">
@@ -51715,11 +51715,11 @@
       </c>
       <c r="P601" t="inlineStr"/>
       <c r="Q601" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R601" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="S601" t="n">
@@ -51777,7 +51777,7 @@
       </c>
       <c r="J602" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K602" t="inlineStr">
@@ -51803,11 +51803,11 @@
       </c>
       <c r="P602" t="inlineStr"/>
       <c r="Q602" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R602" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="S602" t="n">
@@ -51865,7 +51865,7 @@
       </c>
       <c r="J603" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K603" t="inlineStr">
@@ -51891,11 +51891,11 @@
       </c>
       <c r="P603" t="inlineStr"/>
       <c r="Q603" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R603" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="S603" t="n">
@@ -51953,7 +51953,7 @@
       </c>
       <c r="J604" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K604" t="inlineStr">
@@ -51979,11 +51979,11 @@
       </c>
       <c r="P604" t="inlineStr"/>
       <c r="Q604" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R604" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="S604" t="n">
@@ -52041,7 +52041,7 @@
       </c>
       <c r="J605" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K605" t="inlineStr">
@@ -52067,11 +52067,11 @@
       </c>
       <c r="P605" t="inlineStr"/>
       <c r="Q605" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R605" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="S605" t="n">
@@ -52129,7 +52129,7 @@
       </c>
       <c r="J606" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K606" t="inlineStr">
@@ -52155,11 +52155,11 @@
       </c>
       <c r="P606" t="inlineStr"/>
       <c r="Q606" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R606" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="S606" t="n">
@@ -52217,7 +52217,7 @@
       </c>
       <c r="J607" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K607" t="inlineStr">
@@ -52243,11 +52243,11 @@
       </c>
       <c r="P607" t="inlineStr"/>
       <c r="Q607" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R607" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="S607" t="n">
@@ -52305,7 +52305,7 @@
       </c>
       <c r="J608" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K608" t="inlineStr">
@@ -52331,11 +52331,11 @@
       </c>
       <c r="P608" t="inlineStr"/>
       <c r="Q608" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R608" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="S608" t="n">
@@ -52393,7 +52393,7 @@
       </c>
       <c r="J609" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K609" t="inlineStr">
@@ -52419,11 +52419,11 @@
       </c>
       <c r="P609" t="inlineStr"/>
       <c r="Q609" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R609" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="S609" t="n">
@@ -52467,7 +52467,7 @@
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr">
         <is>
-          <t>['Germany', 'France', 'Portugal']</t>
+          <t>['France', 'Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K610" t="inlineStr">
@@ -52493,11 +52493,11 @@
       </c>
       <c r="P610" t="inlineStr"/>
       <c r="Q610" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R610" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Germany']</t>
+          <t>['France', 'Portugal']</t>
         </is>
       </c>
       <c r="S610" t="n">
@@ -52537,7 +52537,7 @@
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr">
         <is>
-          <t>['Germany', 'France', 'Portugal']</t>
+          <t>['France', 'Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K611" t="inlineStr">
@@ -52563,11 +52563,11 @@
       </c>
       <c r="P611" t="inlineStr"/>
       <c r="Q611" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R611" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Germany']</t>
+          <t>['France', 'Portugal']</t>
         </is>
       </c>
       <c r="S611" t="n">
@@ -53501,7 +53501,7 @@
       </c>
       <c r="J622" t="inlineStr">
         <is>
-          <t>['Germany', 'France', 'Portugal']</t>
+          <t>['France', 'Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K622" t="inlineStr">
@@ -53589,7 +53589,7 @@
       </c>
       <c r="J623" t="inlineStr">
         <is>
-          <t>['Germany', 'France', 'Portugal']</t>
+          <t>['France', 'Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K623" t="inlineStr">
@@ -53853,7 +53853,7 @@
       </c>
       <c r="J626" t="inlineStr">
         <is>
-          <t>['Germany', 'France', 'Portugal']</t>
+          <t>['France', 'Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K626" t="inlineStr">
@@ -53879,18 +53879,18 @@
       </c>
       <c r="P626" t="inlineStr"/>
       <c r="Q626" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R626" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Germany']</t>
+          <t>['France', 'Portugal']</t>
         </is>
       </c>
       <c r="S626" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T626" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U626" t="n">
         <v>1936</v>
@@ -53941,7 +53941,7 @@
       </c>
       <c r="J627" t="inlineStr">
         <is>
-          <t>['Germany', 'France', 'Portugal']</t>
+          <t>['France', 'Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K627" t="inlineStr">
@@ -53967,18 +53967,18 @@
       </c>
       <c r="P627" t="inlineStr"/>
       <c r="Q627" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R627" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Germany']</t>
+          <t>['France', 'Portugal']</t>
         </is>
       </c>
       <c r="S627" t="n">
         <v>0</v>
       </c>
       <c r="T627" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U627" t="n">
         <v>1936</v>
@@ -54015,7 +54015,7 @@
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland', 'Scotland']</t>
+          <t>['Germany', 'Scotland', 'Switzerland']</t>
         </is>
       </c>
       <c r="K628" t="inlineStr">
@@ -54095,7 +54095,7 @@
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland', 'Scotland']</t>
+          <t>['Germany', 'Scotland', 'Switzerland']</t>
         </is>
       </c>
       <c r="K629" t="inlineStr">
@@ -54169,7 +54169,7 @@
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland', 'Scotland']</t>
+          <t>['Germany', 'Scotland', 'Switzerland']</t>
         </is>
       </c>
       <c r="K630" t="inlineStr">
@@ -54249,7 +54249,7 @@
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland', 'Scotland']</t>
+          <t>['Germany', 'Scotland', 'Switzerland']</t>
         </is>
       </c>
       <c r="K631" t="inlineStr">
@@ -54337,7 +54337,7 @@
       </c>
       <c r="J632" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland', 'Scotland']</t>
+          <t>['Germany', 'Scotland', 'Switzerland']</t>
         </is>
       </c>
       <c r="K632" t="inlineStr">
@@ -54425,7 +54425,7 @@
       </c>
       <c r="J633" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland', 'Scotland']</t>
+          <t>['Germany', 'Scotland', 'Switzerland']</t>
         </is>
       </c>
       <c r="K633" t="inlineStr">
@@ -54513,7 +54513,7 @@
       </c>
       <c r="J634" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland', 'Scotland']</t>
+          <t>['Germany', 'Scotland', 'Switzerland']</t>
         </is>
       </c>
       <c r="K634" t="inlineStr">
@@ -54601,7 +54601,7 @@
       </c>
       <c r="J635" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland', 'Scotland']</t>
+          <t>['Germany', 'Scotland', 'Switzerland']</t>
         </is>
       </c>
       <c r="K635" t="inlineStr">
@@ -54715,18 +54715,18 @@
       </c>
       <c r="P636" t="inlineStr"/>
       <c r="Q636" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R636" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland', 'Hungary']</t>
+          <t>['Germany', 'Switzerland']</t>
         </is>
       </c>
       <c r="S636" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T636" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U636" t="n">
         <v>1770</v>
@@ -54803,18 +54803,18 @@
       </c>
       <c r="P637" t="inlineStr"/>
       <c r="Q637" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R637" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland', 'Hungary']</t>
+          <t>['Germany', 'Switzerland']</t>
         </is>
       </c>
       <c r="S637" t="n">
         <v>0</v>
       </c>
       <c r="T637" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U637" t="n">
         <v>1770</v>
@@ -54851,7 +54851,7 @@
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr">
         <is>
-          <t>['Italy', 'Albania', 'Spain']</t>
+          <t>['Spain', 'Albania', 'Italy']</t>
         </is>
       </c>
       <c r="K638" t="inlineStr">
@@ -54877,11 +54877,11 @@
       </c>
       <c r="P638" t="inlineStr"/>
       <c r="Q638" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R638" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy', 'Albania']</t>
+          <t>['Spain', 'Italy']</t>
         </is>
       </c>
       <c r="S638" t="n">
@@ -54931,7 +54931,7 @@
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr">
         <is>
-          <t>['Italy', 'Albania', 'Spain']</t>
+          <t>['Spain', 'Albania', 'Italy']</t>
         </is>
       </c>
       <c r="K639" t="inlineStr">
@@ -54957,11 +54957,11 @@
       </c>
       <c r="P639" t="inlineStr"/>
       <c r="Q639" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R639" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy', 'Albania']</t>
+          <t>['Spain', 'Italy']</t>
         </is>
       </c>
       <c r="S639" t="n">
@@ -55005,7 +55005,7 @@
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr">
         <is>
-          <t>['Italy', 'Albania', 'Spain']</t>
+          <t>['Spain', 'Albania', 'Italy']</t>
         </is>
       </c>
       <c r="K640" t="inlineStr">
@@ -55031,11 +55031,11 @@
       </c>
       <c r="P640" t="inlineStr"/>
       <c r="Q640" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R640" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy', 'Albania']</t>
+          <t>['Spain', 'Italy']</t>
         </is>
       </c>
       <c r="S640" t="n">
@@ -55085,7 +55085,7 @@
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr">
         <is>
-          <t>['Italy', 'Albania', 'Spain']</t>
+          <t>['Spain', 'Albania', 'Italy']</t>
         </is>
       </c>
       <c r="K641" t="inlineStr">
@@ -55111,11 +55111,11 @@
       </c>
       <c r="P641" t="inlineStr"/>
       <c r="Q641" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R641" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy', 'Albania']</t>
+          <t>['Spain', 'Italy']</t>
         </is>
       </c>
       <c r="S641" t="n">
@@ -55173,7 +55173,7 @@
       </c>
       <c r="J642" t="inlineStr">
         <is>
-          <t>['Italy', 'Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia', 'Italy']</t>
         </is>
       </c>
       <c r="K642" t="inlineStr">
@@ -55207,10 +55207,10 @@
         </is>
       </c>
       <c r="S642" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T642" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U642" t="n">
         <v>1623</v>
@@ -55261,7 +55261,7 @@
       </c>
       <c r="J643" t="inlineStr">
         <is>
-          <t>['Italy', 'Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia', 'Italy']</t>
         </is>
       </c>
       <c r="K643" t="inlineStr">
@@ -55298,7 +55298,7 @@
         <v>0</v>
       </c>
       <c r="T643" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U643" t="n">
         <v>1623</v>
@@ -55349,7 +55349,7 @@
       </c>
       <c r="J644" t="inlineStr">
         <is>
-          <t>['Italy', 'Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia', 'Italy']</t>
         </is>
       </c>
       <c r="K644" t="inlineStr">
@@ -55386,7 +55386,7 @@
         <v>1</v>
       </c>
       <c r="T644" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U644" t="n">
         <v>1969</v>
@@ -55437,7 +55437,7 @@
       </c>
       <c r="J645" t="inlineStr">
         <is>
-          <t>['Italy', 'Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia', 'Italy']</t>
         </is>
       </c>
       <c r="K645" t="inlineStr">
@@ -55474,7 +55474,7 @@
         <v>0</v>
       </c>
       <c r="T645" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U645" t="n">
         <v>1969</v>
@@ -55525,7 +55525,7 @@
       </c>
       <c r="J646" t="inlineStr">
         <is>
-          <t>['Italy', 'Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia', 'Italy']</t>
         </is>
       </c>
       <c r="K646" t="inlineStr">
@@ -55562,7 +55562,7 @@
         <v>1</v>
       </c>
       <c r="T646" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U646" t="n">
         <v>1969</v>
@@ -55613,7 +55613,7 @@
       </c>
       <c r="J647" t="inlineStr">
         <is>
-          <t>['Italy', 'Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia', 'Italy']</t>
         </is>
       </c>
       <c r="K647" t="inlineStr">
@@ -55650,7 +55650,7 @@
         <v>0</v>
       </c>
       <c r="T647" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U647" t="n">
         <v>1969</v>
@@ -55687,7 +55687,7 @@
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr">
         <is>
-          <t>['England', 'Denmark', 'Slovenia']</t>
+          <t>['Denmark', 'England', 'Slovenia']</t>
         </is>
       </c>
       <c r="K648" t="inlineStr">
@@ -55767,7 +55767,7 @@
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr">
         <is>
-          <t>['England', 'Denmark', 'Slovenia']</t>
+          <t>['Denmark', 'England', 'Slovenia']</t>
         </is>
       </c>
       <c r="K649" t="inlineStr">
@@ -55851,7 +55851,7 @@
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr">
         <is>
-          <t>['England', 'Denmark', 'Slovenia']</t>
+          <t>['Denmark', 'England', 'Slovenia']</t>
         </is>
       </c>
       <c r="K650" t="inlineStr">
@@ -55925,7 +55925,7 @@
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K651" t="inlineStr">
@@ -55951,11 +55951,11 @@
       </c>
       <c r="P651" t="inlineStr"/>
       <c r="Q651" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R651" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France', 'Austria']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="S651" t="n">
@@ -55995,7 +55995,7 @@
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K652" t="inlineStr">
@@ -56021,11 +56021,11 @@
       </c>
       <c r="P652" t="inlineStr"/>
       <c r="Q652" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R652" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France', 'Austria']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="S652" t="n">
@@ -56079,7 +56079,7 @@
       </c>
       <c r="J653" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K653" t="inlineStr">
@@ -56113,10 +56113,10 @@
         </is>
       </c>
       <c r="S653" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T653" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U653" t="n">
         <v>1975</v>
@@ -56167,7 +56167,7 @@
       </c>
       <c r="J654" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K654" t="inlineStr">
@@ -56204,7 +56204,7 @@
         <v>0</v>
       </c>
       <c r="T654" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U654" t="n">
         <v>1975</v>
@@ -56255,7 +56255,7 @@
       </c>
       <c r="J655" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K655" t="inlineStr">
@@ -56292,7 +56292,7 @@
         <v>0</v>
       </c>
       <c r="T655" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U655" t="n">
         <v>1975</v>
@@ -56343,7 +56343,7 @@
       </c>
       <c r="J656" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K656" t="inlineStr">
@@ -56380,7 +56380,7 @@
         <v>0</v>
       </c>
       <c r="T656" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U656" t="n">
         <v>1975</v>
@@ -56431,7 +56431,7 @@
       </c>
       <c r="J657" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K657" t="inlineStr">
@@ -56468,7 +56468,7 @@
         <v>0</v>
       </c>
       <c r="T657" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U657" t="n">
         <v>2077</v>
@@ -56519,7 +56519,7 @@
       </c>
       <c r="J658" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K658" t="inlineStr">
@@ -56556,7 +56556,7 @@
         <v>0</v>
       </c>
       <c r="T658" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U658" t="n">
         <v>2077</v>
@@ -56607,7 +56607,7 @@
       </c>
       <c r="J659" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K659" t="inlineStr">
@@ -56644,7 +56644,7 @@
         <v>0</v>
       </c>
       <c r="T659" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U659" t="n">
         <v>1975</v>
@@ -56695,7 +56695,7 @@
       </c>
       <c r="J660" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K660" t="inlineStr">
@@ -56732,7 +56732,7 @@
         <v>0</v>
       </c>
       <c r="T660" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U660" t="n">
         <v>1975</v>
@@ -56783,7 +56783,7 @@
       </c>
       <c r="J661" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K661" t="inlineStr">
@@ -56820,7 +56820,7 @@
         <v>0</v>
       </c>
       <c r="T661" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U661" t="n">
         <v>1975</v>
@@ -56871,7 +56871,7 @@
       </c>
       <c r="J662" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K662" t="inlineStr">
@@ -56908,7 +56908,7 @@
         <v>0</v>
       </c>
       <c r="T662" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U662" t="n">
         <v>1975</v>
@@ -56959,7 +56959,7 @@
       </c>
       <c r="J663" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K663" t="inlineStr">
@@ -56996,7 +56996,7 @@
         <v>0</v>
       </c>
       <c r="T663" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U663" t="n">
         <v>2077</v>
@@ -57047,7 +57047,7 @@
       </c>
       <c r="J664" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K664" t="inlineStr">
@@ -57084,7 +57084,7 @@
         <v>0</v>
       </c>
       <c r="T664" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U664" t="n">
         <v>2077</v>
@@ -57135,7 +57135,7 @@
       </c>
       <c r="J665" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K665" t="inlineStr">
@@ -57172,7 +57172,7 @@
         <v>0</v>
       </c>
       <c r="T665" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U665" t="n">
         <v>1975</v>
@@ -57223,7 +57223,7 @@
       </c>
       <c r="J666" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K666" t="inlineStr">
@@ -57260,7 +57260,7 @@
         <v>0</v>
       </c>
       <c r="T666" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U666" t="n">
         <v>1975</v>
@@ -57297,7 +57297,7 @@
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr">
         <is>
-          <t>['Romania', 'Belgium', 'Slovakia']</t>
+          <t>['Belgium', 'Slovakia', 'Romania']</t>
         </is>
       </c>
       <c r="K667" t="inlineStr">
@@ -57323,11 +57323,11 @@
       </c>
       <c r="P667" t="inlineStr"/>
       <c r="Q667" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R667" t="inlineStr">
         <is>
-          <t>['Romania', 'Belgium', 'Slovakia']</t>
+          <t>['Romania', 'Belgium']</t>
         </is>
       </c>
       <c r="S667" t="n">
@@ -57377,7 +57377,7 @@
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr">
         <is>
-          <t>['Romania', 'Belgium', 'Slovakia']</t>
+          <t>['Belgium', 'Slovakia', 'Romania']</t>
         </is>
       </c>
       <c r="K668" t="inlineStr">
@@ -57403,11 +57403,11 @@
       </c>
       <c r="P668" t="inlineStr"/>
       <c r="Q668" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R668" t="inlineStr">
         <is>
-          <t>['Romania', 'Belgium', 'Slovakia']</t>
+          <t>['Romania', 'Belgium']</t>
         </is>
       </c>
       <c r="S668" t="n">
@@ -57465,7 +57465,7 @@
       </c>
       <c r="J669" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Slovakia', 'Belgium']</t>
+          <t>['Belgium', 'Slovakia', 'Ukraine']</t>
         </is>
       </c>
       <c r="K669" t="inlineStr">
@@ -57553,7 +57553,7 @@
       </c>
       <c r="J670" t="inlineStr">
         <is>
-          <t>['Romania', 'Belgium', 'Slovakia']</t>
+          <t>['Belgium', 'Slovakia', 'Romania']</t>
         </is>
       </c>
       <c r="K670" t="inlineStr">
@@ -57653,11 +57653,11 @@
       </c>
       <c r="P671" t="inlineStr"/>
       <c r="Q671" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R671" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey']</t>
+          <t>['Portugal', 'Turkey', 'Czech Republic']</t>
         </is>
       </c>
       <c r="S671" t="n">
@@ -57733,11 +57733,11 @@
       </c>
       <c r="P672" t="inlineStr"/>
       <c r="Q672" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R672" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey']</t>
+          <t>['Portugal', 'Turkey', 'Czech Republic']</t>
         </is>
       </c>
       <c r="S672" t="n">
@@ -57807,11 +57807,11 @@
       </c>
       <c r="P673" t="inlineStr"/>
       <c r="Q673" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R673" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey']</t>
+          <t>['Portugal', 'Turkey', 'Czech Republic']</t>
         </is>
       </c>
       <c r="S673" t="n">
@@ -57887,11 +57887,11 @@
       </c>
       <c r="P674" t="inlineStr"/>
       <c r="Q674" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R674" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey']</t>
+          <t>['Portugal', 'Turkey', 'Czech Republic']</t>
         </is>
       </c>
       <c r="S674" t="n">
@@ -57949,7 +57949,7 @@
       </c>
       <c r="J675" t="inlineStr">
         <is>
-          <t>['Georgia', 'Turkey', 'Portugal']</t>
+          <t>['Turkey', 'Georgia', 'Portugal']</t>
         </is>
       </c>
       <c r="K675" t="inlineStr">
@@ -58041,7 +58041,7 @@
       </c>
       <c r="J676" t="inlineStr">
         <is>
-          <t>['Georgia', 'Turkey', 'Portugal']</t>
+          <t>['Turkey', 'Georgia', 'Portugal']</t>
         </is>
       </c>
       <c r="K676" t="inlineStr">
@@ -58133,7 +58133,7 @@
       </c>
       <c r="J677" t="inlineStr">
         <is>
-          <t>['Georgia', 'Turkey', 'Portugal']</t>
+          <t>['Turkey', 'Georgia', 'Portugal']</t>
         </is>
       </c>
       <c r="K677" t="inlineStr">
@@ -58221,7 +58221,7 @@
       </c>
       <c r="J678" t="inlineStr">
         <is>
-          <t>['Georgia', 'Turkey', 'Portugal']</t>
+          <t>['Turkey', 'Georgia', 'Portugal']</t>
         </is>
       </c>
       <c r="K678" t="inlineStr">
@@ -58309,7 +58309,7 @@
       </c>
       <c r="J679" t="inlineStr">
         <is>
-          <t>['Georgia', 'Turkey', 'Portugal']</t>
+          <t>['Turkey', 'Georgia', 'Portugal']</t>
         </is>
       </c>
       <c r="K679" t="inlineStr">
@@ -58397,7 +58397,7 @@
       </c>
       <c r="J680" t="inlineStr">
         <is>
-          <t>['Georgia', 'Turkey', 'Portugal']</t>
+          <t>['Turkey', 'Georgia', 'Portugal']</t>
         </is>
       </c>
       <c r="K680" t="inlineStr">
@@ -58485,7 +58485,7 @@
       </c>
       <c r="J681" t="inlineStr">
         <is>
-          <t>['Georgia', 'Turkey', 'Portugal']</t>
+          <t>['Turkey', 'Georgia', 'Portugal']</t>
         </is>
       </c>
       <c r="K681" t="inlineStr">
@@ -58577,7 +58577,7 @@
       </c>
       <c r="J682" t="inlineStr">
         <is>
-          <t>['Georgia', 'Turkey', 'Portugal']</t>
+          <t>['Turkey', 'Georgia', 'Portugal']</t>
         </is>
       </c>
       <c r="K682" t="inlineStr">
@@ -58669,7 +58669,7 @@
       </c>
       <c r="J683" t="inlineStr">
         <is>
-          <t>['Georgia', 'Turkey', 'Portugal']</t>
+          <t>['Turkey', 'Georgia', 'Portugal']</t>
         </is>
       </c>
       <c r="K683" t="inlineStr">
@@ -58757,7 +58757,7 @@
       </c>
       <c r="J684" t="inlineStr">
         <is>
-          <t>['Georgia', 'Turkey', 'Portugal']</t>
+          <t>['Turkey', 'Georgia', 'Portugal']</t>
         </is>
       </c>
       <c r="K684" t="inlineStr">

--- a/data/out/wiki/men/fifa/eu/goals_eu_fifa_men.xlsx
+++ b/data/out/wiki/men/fifa/eu/goals_eu_fifa_men.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -727,7 +727,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -815,7 +815,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1079,7 +1079,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1431,7 +1431,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -2473,7 +2473,7 @@
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['Spain', 'West Germany']</t>
+          <t>['West Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2553,7 +2553,7 @@
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['Spain', 'West Germany']</t>
+          <t>['West Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2637,7 +2637,7 @@
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>['Spain', 'West Germany']</t>
+          <t>['West Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2711,7 +2711,7 @@
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['Spain', 'West Germany']</t>
+          <t>['West Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2791,7 +2791,7 @@
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>['Spain', 'West Germany']</t>
+          <t>['West Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2875,7 +2875,7 @@
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['Spain', 'West Germany']</t>
+          <t>['West Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -3147,7 +3147,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -3235,7 +3235,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -4505,7 +4505,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Ireland']</t>
+          <t>['Ireland', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -4585,7 +4585,7 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Ireland']</t>
+          <t>['Ireland', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -4663,7 +4663,7 @@
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Ireland']</t>
+          <t>['Ireland', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -4743,7 +4743,7 @@
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Ireland']</t>
+          <t>['Ireland', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4835,7 +4835,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Ireland']</t>
+          <t>['Ireland', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -4927,7 +4927,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Ireland']</t>
+          <t>['Ireland', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -5019,7 +5019,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Ireland']</t>
+          <t>['Ireland', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -5111,7 +5111,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Ireland']</t>
+          <t>['Ireland', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -5203,7 +5203,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Ireland']</t>
+          <t>['Ireland', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -5295,7 +5295,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Ireland']</t>
+          <t>['Ireland', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -5387,7 +5387,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Ireland']</t>
+          <t>['Ireland', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -5479,7 +5479,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Ireland']</t>
+          <t>['Ireland', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -5571,7 +5571,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Netherlands']</t>
+          <t>['Netherlands', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -5659,7 +5659,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Netherlands']</t>
+          <t>['Netherlands', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -5733,7 +5733,7 @@
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>['France', 'Sweden']</t>
+          <t>['Sweden', 'France']</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -5803,7 +5803,7 @@
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>['France', 'Sweden']</t>
+          <t>['Sweden', 'France']</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -6239,7 +6239,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -6327,7 +6327,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -6415,7 +6415,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>['France', 'Sweden']</t>
+          <t>['Sweden', 'France']</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -6503,7 +6503,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>['France', 'Sweden']</t>
+          <t>['Sweden', 'France']</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -6591,7 +6591,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -6679,7 +6679,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -6767,7 +6767,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -6855,7 +6855,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -9503,7 +9503,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>['Scotland', 'England']</t>
+          <t>['England', 'Scotland']</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -9591,7 +9591,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>['Scotland', 'England']</t>
+          <t>['England', 'Scotland']</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -9995,7 +9995,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>['Spain', 'Bulgaria']</t>
+          <t>['Bulgaria', 'Spain']</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -10083,7 +10083,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>['Spain', 'Bulgaria']</t>
+          <t>['Bulgaria', 'Spain']</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -12601,7 +12601,7 @@
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -12681,7 +12681,7 @@
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -12765,7 +12765,7 @@
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -12839,7 +12839,7 @@
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -12919,7 +12919,7 @@
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -13003,7 +13003,7 @@
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -13091,7 +13091,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -13179,7 +13179,7 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -13267,7 +13267,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -13355,7 +13355,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -13443,7 +13443,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -13531,7 +13531,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -13619,7 +13619,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -13707,7 +13707,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -13795,7 +13795,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -13883,7 +13883,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -13971,7 +13971,7 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -14059,7 +14059,7 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -14133,7 +14133,7 @@
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -14213,7 +14213,7 @@
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -14291,7 +14291,7 @@
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -14371,7 +14371,7 @@
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -14463,7 +14463,7 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>['Romania', 'Portugal']</t>
+          <t>['Portugal', 'Romania']</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -14551,7 +14551,7 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>['Romania', 'Portugal']</t>
+          <t>['Portugal', 'Romania']</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -14639,7 +14639,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>['Romania', 'Portugal']</t>
+          <t>['Portugal', 'Romania']</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -14727,7 +14727,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>['Romania', 'Portugal']</t>
+          <t>['Portugal', 'Romania']</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -14815,7 +14815,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -14907,7 +14907,7 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -14999,7 +14999,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -15087,7 +15087,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -15175,7 +15175,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -15267,7 +15267,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -15359,7 +15359,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -15451,7 +15451,7 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -15543,7 +15543,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -15635,7 +15635,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -15727,7 +15727,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>['Romania', 'Portugal']</t>
+          <t>['Portugal', 'Romania']</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -15815,7 +15815,7 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>['Romania', 'Portugal']</t>
+          <t>['Portugal', 'Romania']</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -17093,7 +17093,7 @@
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr">
         <is>
-          <t>['Spain', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Spain']</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -17173,7 +17173,7 @@
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr">
         <is>
-          <t>['Spain', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Spain']</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -17247,7 +17247,7 @@
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr">
         <is>
-          <t>['Spain', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Spain']</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -17327,7 +17327,7 @@
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr">
         <is>
-          <t>['Spain', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Spain']</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -17591,7 +17591,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>['Spain', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Spain']</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -17679,7 +17679,7 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>['Spain', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Spain']</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -17943,7 +17943,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>['Spain', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Spain']</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -18031,7 +18031,7 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>['Spain', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Spain']</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -18295,7 +18295,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>['Spain', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Spain']</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -18383,7 +18383,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>['Spain', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Spain']</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -18471,7 +18471,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>['Spain', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Spain']</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -18559,7 +18559,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>['Spain', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Spain']</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -18633,7 +18633,7 @@
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -18713,7 +18713,7 @@
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -18787,7 +18787,7 @@
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -18867,7 +18867,7 @@
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -18955,7 +18955,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -19043,7 +19043,7 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -19131,7 +19131,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -19219,7 +19219,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -19307,7 +19307,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -19395,7 +19395,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -19483,7 +19483,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -19571,7 +19571,7 @@
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -19659,7 +19659,7 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -19747,7 +19747,7 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -19835,7 +19835,7 @@
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -19923,7 +19923,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -20011,7 +20011,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -20099,7 +20099,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -20173,7 +20173,7 @@
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr">
         <is>
-          <t>['Spain', 'Greece']</t>
+          <t>['Greece', 'Spain']</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -20253,7 +20253,7 @@
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr">
         <is>
-          <t>['Spain', 'Greece']</t>
+          <t>['Greece', 'Spain']</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -20327,7 +20327,7 @@
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr">
         <is>
-          <t>['Spain', 'Greece']</t>
+          <t>['Greece', 'Spain']</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -20407,7 +20407,7 @@
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr">
         <is>
-          <t>['Spain', 'Greece']</t>
+          <t>['Greece', 'Spain']</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -20495,7 +20495,7 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -20583,7 +20583,7 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -20671,7 +20671,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -20759,7 +20759,7 @@
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -20847,7 +20847,7 @@
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -20935,7 +20935,7 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -21023,7 +21023,7 @@
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>['Greece', 'Portugal']</t>
+          <t>['Portugal', 'Greece']</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -21111,7 +21111,7 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>['Greece', 'Portugal']</t>
+          <t>['Portugal', 'Greece']</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -21185,7 +21185,7 @@
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -21255,7 +21255,7 @@
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -21339,7 +21339,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>['France', 'Croatia']</t>
+          <t>['Croatia', 'France']</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -21427,7 +21427,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>['France', 'Croatia']</t>
+          <t>['Croatia', 'France']</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -21515,7 +21515,7 @@
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>['France', 'Croatia']</t>
+          <t>['Croatia', 'France']</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -21603,7 +21603,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>['France', 'Croatia']</t>
+          <t>['Croatia', 'France']</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -21691,7 +21691,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>['France', 'Croatia']</t>
+          <t>['Croatia', 'France']</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -21779,7 +21779,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>['France', 'Croatia']</t>
+          <t>['Croatia', 'France']</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -21867,7 +21867,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -21955,7 +21955,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -22043,7 +22043,7 @@
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -22131,7 +22131,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -22219,7 +22219,7 @@
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -22307,7 +22307,7 @@
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -22395,7 +22395,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -22483,7 +22483,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -22571,7 +22571,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -22659,7 +22659,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -22747,7 +22747,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -22835,7 +22835,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -22923,7 +22923,7 @@
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -23011,7 +23011,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -23085,7 +23085,7 @@
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -23155,7 +23155,7 @@
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -23239,7 +23239,7 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -23327,7 +23327,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -23415,7 +23415,7 @@
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -23503,7 +23503,7 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -23591,7 +23591,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -23679,7 +23679,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -23767,7 +23767,7 @@
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -23855,7 +23855,7 @@
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -23943,7 +23943,7 @@
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -24031,7 +24031,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -24119,7 +24119,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -24207,7 +24207,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -24295,7 +24295,7 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -24383,7 +24383,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -25821,7 +25821,7 @@
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K296" t="inlineStr">
@@ -25901,7 +25901,7 @@
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -25975,7 +25975,7 @@
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -26055,7 +26055,7 @@
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -26143,7 +26143,7 @@
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
@@ -26231,7 +26231,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -26319,7 +26319,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -26407,7 +26407,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -26495,7 +26495,7 @@
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K304" t="inlineStr">
@@ -26583,7 +26583,7 @@
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -26671,7 +26671,7 @@
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K306" t="inlineStr">
@@ -26759,7 +26759,7 @@
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -26847,7 +26847,7 @@
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -26935,7 +26935,7 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -27023,7 +27023,7 @@
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -27111,7 +27111,7 @@
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -27199,7 +27199,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal']</t>
+          <t>['Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -27287,7 +27287,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal']</t>
+          <t>['Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -27361,7 +27361,7 @@
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -27441,7 +27441,7 @@
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -27525,7 +27525,7 @@
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="K316" t="inlineStr">
@@ -27599,7 +27599,7 @@
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
@@ -27679,7 +27679,7 @@
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -27763,7 +27763,7 @@
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="K319" t="inlineStr">
@@ -27851,7 +27851,7 @@
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="K320" t="inlineStr">
@@ -27939,7 +27939,7 @@
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="K321" t="inlineStr">
@@ -28027,7 +28027,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
@@ -28115,7 +28115,7 @@
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
@@ -28189,7 +28189,7 @@
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr">
         <is>
-          <t>['Romania', 'Netherlands']</t>
+          <t>['Netherlands', 'Romania']</t>
         </is>
       </c>
       <c r="K324" t="inlineStr">
@@ -28269,7 +28269,7 @@
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr">
         <is>
-          <t>['Romania', 'Netherlands']</t>
+          <t>['Netherlands', 'Romania']</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
@@ -28353,7 +28353,7 @@
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr">
         <is>
-          <t>['Romania', 'Netherlands']</t>
+          <t>['Netherlands', 'Romania']</t>
         </is>
       </c>
       <c r="K326" t="inlineStr">
@@ -28427,7 +28427,7 @@
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr">
         <is>
-          <t>['Romania', 'Netherlands']</t>
+          <t>['Netherlands', 'Romania']</t>
         </is>
       </c>
       <c r="K327" t="inlineStr">
@@ -28507,7 +28507,7 @@
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr">
         <is>
-          <t>['Romania', 'Netherlands']</t>
+          <t>['Netherlands', 'Romania']</t>
         </is>
       </c>
       <c r="K328" t="inlineStr">
@@ -28591,7 +28591,7 @@
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr">
         <is>
-          <t>['Romania', 'Netherlands']</t>
+          <t>['Netherlands', 'Romania']</t>
         </is>
       </c>
       <c r="K329" t="inlineStr">
@@ -28679,7 +28679,7 @@
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="K330" t="inlineStr">
@@ -28767,7 +28767,7 @@
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="K331" t="inlineStr">
@@ -28855,7 +28855,7 @@
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="K332" t="inlineStr">
@@ -28943,7 +28943,7 @@
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="K333" t="inlineStr">
@@ -29031,7 +29031,7 @@
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="K334" t="inlineStr">
@@ -29119,7 +29119,7 @@
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="K335" t="inlineStr">
@@ -29207,7 +29207,7 @@
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="K336" t="inlineStr">
@@ -29295,7 +29295,7 @@
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="K337" t="inlineStr">
@@ -29369,7 +29369,7 @@
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden']</t>
+          <t>['Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K338" t="inlineStr">
@@ -29449,7 +29449,7 @@
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden']</t>
+          <t>['Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K339" t="inlineStr">
@@ -29523,7 +29523,7 @@
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden']</t>
+          <t>['Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K340" t="inlineStr">
@@ -29603,7 +29603,7 @@
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden']</t>
+          <t>['Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K341" t="inlineStr">
@@ -29691,7 +29691,7 @@
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="K342" t="inlineStr">
@@ -29779,7 +29779,7 @@
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="K343" t="inlineStr">
@@ -29867,7 +29867,7 @@
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="K344" t="inlineStr">
@@ -29955,7 +29955,7 @@
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="K345" t="inlineStr">
@@ -30043,7 +30043,7 @@
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="K346" t="inlineStr">
@@ -30131,7 +30131,7 @@
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="K347" t="inlineStr">
@@ -30219,7 +30219,7 @@
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
@@ -30307,7 +30307,7 @@
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="K349" t="inlineStr">
@@ -30395,7 +30395,7 @@
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="K350" t="inlineStr">
@@ -30483,7 +30483,7 @@
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="K351" t="inlineStr">
@@ -30557,7 +30557,7 @@
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Russia']</t>
+          <t>['Russia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K352" t="inlineStr">
@@ -30637,7 +30637,7 @@
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Russia']</t>
+          <t>['Russia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K353" t="inlineStr">
@@ -30721,7 +30721,7 @@
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Russia']</t>
+          <t>['Russia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K354" t="inlineStr">
@@ -30795,7 +30795,7 @@
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Russia']</t>
+          <t>['Russia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K355" t="inlineStr">
@@ -30875,7 +30875,7 @@
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Russia']</t>
+          <t>['Russia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K356" t="inlineStr">
@@ -30959,7 +30959,7 @@
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Russia']</t>
+          <t>['Russia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K357" t="inlineStr">
@@ -31047,7 +31047,7 @@
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>['Greece', 'Russia']</t>
+          <t>['Russia', 'Greece']</t>
         </is>
       </c>
       <c r="K358" t="inlineStr">
@@ -31135,7 +31135,7 @@
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>['Greece', 'Russia']</t>
+          <t>['Russia', 'Greece']</t>
         </is>
       </c>
       <c r="K359" t="inlineStr">
@@ -31385,7 +31385,7 @@
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal']</t>
+          <t>['Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="K362" t="inlineStr">
@@ -31455,7 +31455,7 @@
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal']</t>
+          <t>['Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="K363" t="inlineStr">
@@ -31715,7 +31715,7 @@
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal']</t>
+          <t>['Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="K366" t="inlineStr">
@@ -31803,7 +31803,7 @@
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal']</t>
+          <t>['Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="K367" t="inlineStr">
@@ -32067,7 +32067,7 @@
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal']</t>
+          <t>['Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="K370" t="inlineStr">
@@ -32155,7 +32155,7 @@
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal']</t>
+          <t>['Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="K371" t="inlineStr">
@@ -32243,7 +32243,7 @@
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal']</t>
+          <t>['Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="K372" t="inlineStr">
@@ -32335,7 +32335,7 @@
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal']</t>
+          <t>['Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="K373" t="inlineStr">
@@ -32427,7 +32427,7 @@
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal']</t>
+          <t>['Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="K374" t="inlineStr">
@@ -32515,7 +32515,7 @@
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal']</t>
+          <t>['Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="K375" t="inlineStr">
@@ -32589,7 +32589,7 @@
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K376" t="inlineStr">
@@ -32669,7 +32669,7 @@
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K377" t="inlineStr">
@@ -32753,7 +32753,7 @@
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K378" t="inlineStr">
@@ -32827,7 +32827,7 @@
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K379" t="inlineStr">
@@ -32907,7 +32907,7 @@
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K380" t="inlineStr">
@@ -32991,7 +32991,7 @@
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K381" t="inlineStr">
@@ -33079,7 +33079,7 @@
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy']</t>
+          <t>['Italy', 'Spain']</t>
         </is>
       </c>
       <c r="K382" t="inlineStr">
@@ -33167,7 +33167,7 @@
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy']</t>
+          <t>['Italy', 'Spain']</t>
         </is>
       </c>
       <c r="K383" t="inlineStr">
@@ -33255,7 +33255,7 @@
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy']</t>
+          <t>['Italy', 'Spain']</t>
         </is>
       </c>
       <c r="K384" t="inlineStr">
@@ -33343,7 +33343,7 @@
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy']</t>
+          <t>['Italy', 'Spain']</t>
         </is>
       </c>
       <c r="K385" t="inlineStr">
@@ -33431,7 +33431,7 @@
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy']</t>
+          <t>['Italy', 'Spain']</t>
         </is>
       </c>
       <c r="K386" t="inlineStr">
@@ -33519,7 +33519,7 @@
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy']</t>
+          <t>['Italy', 'Spain']</t>
         </is>
       </c>
       <c r="K387" t="inlineStr">
@@ -33593,7 +33593,7 @@
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K388" t="inlineStr">
@@ -33673,7 +33673,7 @@
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K389" t="inlineStr">
@@ -33757,7 +33757,7 @@
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K390" t="inlineStr">
@@ -33831,7 +33831,7 @@
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K391" t="inlineStr">
@@ -33911,7 +33911,7 @@
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K392" t="inlineStr">
@@ -33995,7 +33995,7 @@
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K393" t="inlineStr">
@@ -34083,7 +34083,7 @@
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K394" t="inlineStr">
@@ -34171,7 +34171,7 @@
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K395" t="inlineStr">
@@ -34259,7 +34259,7 @@
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K396" t="inlineStr">
@@ -34347,7 +34347,7 @@
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K397" t="inlineStr">
@@ -34435,7 +34435,7 @@
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K398" t="inlineStr">
@@ -34523,7 +34523,7 @@
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K399" t="inlineStr">
@@ -34597,7 +34597,7 @@
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland', 'Romania']</t>
+          <t>['Switzerland', 'Romania', 'France']</t>
         </is>
       </c>
       <c r="K400" t="inlineStr">
@@ -34677,7 +34677,7 @@
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland', 'Romania']</t>
+          <t>['Switzerland', 'Romania', 'France']</t>
         </is>
       </c>
       <c r="K401" t="inlineStr">
@@ -34761,7 +34761,7 @@
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland', 'Romania']</t>
+          <t>['Switzerland', 'Romania', 'France']</t>
         </is>
       </c>
       <c r="K402" t="inlineStr">
@@ -34849,7 +34849,7 @@
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>['France', 'Albania', 'Switzerland']</t>
+          <t>['Switzerland', 'France', 'Albania']</t>
         </is>
       </c>
       <c r="K403" t="inlineStr">
@@ -34923,7 +34923,7 @@
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr">
         <is>
-          <t>['Wales', 'England', 'Slovakia']</t>
+          <t>['England', 'Slovakia', 'Wales']</t>
         </is>
       </c>
       <c r="K404" t="inlineStr">
@@ -35003,7 +35003,7 @@
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr">
         <is>
-          <t>['Wales', 'England', 'Slovakia']</t>
+          <t>['England', 'Slovakia', 'Wales']</t>
         </is>
       </c>
       <c r="K405" t="inlineStr">
@@ -35091,7 +35091,7 @@
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr">
         <is>
-          <t>['Wales', 'England', 'Slovakia']</t>
+          <t>['England', 'Slovakia', 'Wales']</t>
         </is>
       </c>
       <c r="K406" t="inlineStr">
@@ -35169,7 +35169,7 @@
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr">
         <is>
-          <t>['Wales', 'England', 'Slovakia']</t>
+          <t>['England', 'Slovakia', 'Wales']</t>
         </is>
       </c>
       <c r="K407" t="inlineStr">
@@ -35249,7 +35249,7 @@
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr">
         <is>
-          <t>['Wales', 'England', 'Slovakia']</t>
+          <t>['England', 'Slovakia', 'Wales']</t>
         </is>
       </c>
       <c r="K408" t="inlineStr">
@@ -35337,7 +35337,7 @@
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr">
         <is>
-          <t>['Wales', 'England', 'Slovakia']</t>
+          <t>['England', 'Slovakia', 'Wales']</t>
         </is>
       </c>
       <c r="K409" t="inlineStr">
@@ -35429,7 +35429,7 @@
       </c>
       <c r="J410" t="inlineStr">
         <is>
-          <t>['Wales', 'England', 'Slovakia']</t>
+          <t>['England', 'Slovakia', 'Wales']</t>
         </is>
       </c>
       <c r="K410" t="inlineStr">
@@ -35517,7 +35517,7 @@
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>['Wales', 'England', 'Slovakia']</t>
+          <t>['England', 'Slovakia', 'Wales']</t>
         </is>
       </c>
       <c r="K411" t="inlineStr">
@@ -35605,7 +35605,7 @@
       </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>['Wales', 'England', 'Slovakia']</t>
+          <t>['England', 'Slovakia', 'Wales']</t>
         </is>
       </c>
       <c r="K412" t="inlineStr">
@@ -35693,7 +35693,7 @@
       </c>
       <c r="J413" t="inlineStr">
         <is>
-          <t>['Wales', 'England', 'Slovakia']</t>
+          <t>['England', 'Slovakia', 'Wales']</t>
         </is>
       </c>
       <c r="K413" t="inlineStr">
@@ -35781,7 +35781,7 @@
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>['Wales', 'England', 'Slovakia']</t>
+          <t>['England', 'Slovakia', 'Wales']</t>
         </is>
       </c>
       <c r="K414" t="inlineStr">
@@ -35869,7 +35869,7 @@
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>['Wales', 'England', 'Slovakia']</t>
+          <t>['England', 'Slovakia', 'Wales']</t>
         </is>
       </c>
       <c r="K415" t="inlineStr">
@@ -35943,7 +35943,7 @@
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr">
         <is>
-          <t>['Germany', 'Poland', 'Northern Ireland']</t>
+          <t>['Poland', 'Germany', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K416" t="inlineStr">
@@ -36023,7 +36023,7 @@
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr">
         <is>
-          <t>['Germany', 'Poland', 'Northern Ireland']</t>
+          <t>['Poland', 'Germany', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K417" t="inlineStr">
@@ -36107,7 +36107,7 @@
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr">
         <is>
-          <t>['Germany', 'Poland', 'Northern Ireland']</t>
+          <t>['Poland', 'Germany', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K418" t="inlineStr">
@@ -36181,7 +36181,7 @@
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr">
         <is>
-          <t>['Germany', 'Poland', 'Northern Ireland']</t>
+          <t>['Poland', 'Germany', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K419" t="inlineStr">
@@ -36261,7 +36261,7 @@
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr">
         <is>
-          <t>['Germany', 'Poland', 'Northern Ireland']</t>
+          <t>['Poland', 'Germany', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K420" t="inlineStr">
@@ -36345,7 +36345,7 @@
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr">
         <is>
-          <t>['Germany', 'Poland', 'Northern Ireland']</t>
+          <t>['Poland', 'Germany', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K421" t="inlineStr">
@@ -36433,7 +36433,7 @@
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>['Germany', 'Poland', 'Northern Ireland']</t>
+          <t>['Poland', 'Germany', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K422" t="inlineStr">
@@ -36521,7 +36521,7 @@
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>['Germany', 'Poland', 'Northern Ireland']</t>
+          <t>['Poland', 'Germany', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K423" t="inlineStr">
@@ -36609,7 +36609,7 @@
       </c>
       <c r="J424" t="inlineStr">
         <is>
-          <t>['Germany', 'Poland', 'Northern Ireland']</t>
+          <t>['Poland', 'Germany', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K424" t="inlineStr">
@@ -36697,7 +36697,7 @@
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>['Germany', 'Poland', 'Northern Ireland']</t>
+          <t>['Poland', 'Germany', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K425" t="inlineStr">
@@ -36771,7 +36771,7 @@
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Czech Republic']</t>
+          <t>['Croatia', 'Czech Republic', 'Spain']</t>
         </is>
       </c>
       <c r="K426" t="inlineStr">
@@ -36851,7 +36851,7 @@
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Czech Republic']</t>
+          <t>['Croatia', 'Czech Republic', 'Spain']</t>
         </is>
       </c>
       <c r="K427" t="inlineStr">
@@ -36925,7 +36925,7 @@
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Czech Republic']</t>
+          <t>['Croatia', 'Czech Republic', 'Spain']</t>
         </is>
       </c>
       <c r="K428" t="inlineStr">
@@ -37005,7 +37005,7 @@
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Czech Republic']</t>
+          <t>['Croatia', 'Czech Republic', 'Spain']</t>
         </is>
       </c>
       <c r="K429" t="inlineStr">
@@ -37093,7 +37093,7 @@
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Czech Republic']</t>
+          <t>['Croatia', 'Czech Republic', 'Spain']</t>
         </is>
       </c>
       <c r="K430" t="inlineStr">
@@ -37181,7 +37181,7 @@
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Czech Republic']</t>
+          <t>['Croatia', 'Czech Republic', 'Spain']</t>
         </is>
       </c>
       <c r="K431" t="inlineStr">
@@ -37269,7 +37269,7 @@
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Turkey']</t>
+          <t>['Turkey', 'Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K432" t="inlineStr">
@@ -37357,7 +37357,7 @@
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Turkey']</t>
+          <t>['Turkey', 'Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K433" t="inlineStr">
@@ -37445,7 +37445,7 @@
       </c>
       <c r="J434" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Turkey']</t>
+          <t>['Turkey', 'Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K434" t="inlineStr">
@@ -37533,7 +37533,7 @@
       </c>
       <c r="J435" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Turkey']</t>
+          <t>['Turkey', 'Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K435" t="inlineStr">
@@ -37621,7 +37621,7 @@
       </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Turkey']</t>
+          <t>['Turkey', 'Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K436" t="inlineStr">
@@ -37709,7 +37709,7 @@
       </c>
       <c r="J437" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Turkey']</t>
+          <t>['Turkey', 'Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K437" t="inlineStr">
@@ -37797,7 +37797,7 @@
       </c>
       <c r="J438" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain', 'Turkey']</t>
+          <t>['Turkey', 'Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K438" t="inlineStr">
@@ -37885,7 +37885,7 @@
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain', 'Turkey']</t>
+          <t>['Turkey', 'Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K439" t="inlineStr">
@@ -37959,7 +37959,7 @@
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy', 'Sweden']</t>
+          <t>['Sweden', 'Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="K440" t="inlineStr">
@@ -38039,7 +38039,7 @@
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy', 'Sweden']</t>
+          <t>['Sweden', 'Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="K441" t="inlineStr">
@@ -38123,7 +38123,7 @@
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy', 'Sweden']</t>
+          <t>['Sweden', 'Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="K442" t="inlineStr">
@@ -38197,7 +38197,7 @@
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy', 'Sweden']</t>
+          <t>['Sweden', 'Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="K443" t="inlineStr">
@@ -38277,7 +38277,7 @@
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy', 'Sweden']</t>
+          <t>['Sweden', 'Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="K444" t="inlineStr">
@@ -38361,7 +38361,7 @@
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy', 'Sweden']</t>
+          <t>['Sweden', 'Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="K445" t="inlineStr">
@@ -38787,7 +38787,7 @@
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr">
         <is>
-          <t>['Iceland', 'Hungary', 'Portugal']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="K450" t="inlineStr">
@@ -38857,7 +38857,7 @@
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr">
         <is>
-          <t>['Iceland', 'Hungary', 'Portugal']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="K451" t="inlineStr">
@@ -38941,7 +38941,7 @@
       </c>
       <c r="J452" t="inlineStr">
         <is>
-          <t>['Iceland', 'Hungary', 'Portugal']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="K452" t="inlineStr">
@@ -39029,7 +39029,7 @@
       </c>
       <c r="J453" t="inlineStr">
         <is>
-          <t>['Iceland', 'Hungary', 'Portugal']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="K453" t="inlineStr">
@@ -39117,7 +39117,7 @@
       </c>
       <c r="J454" t="inlineStr">
         <is>
-          <t>['Iceland', 'Hungary', 'Portugal']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="K454" t="inlineStr">
@@ -39205,7 +39205,7 @@
       </c>
       <c r="J455" t="inlineStr">
         <is>
-          <t>['Iceland', 'Hungary', 'Portugal']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="K455" t="inlineStr">
@@ -39293,7 +39293,7 @@
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>['Iceland', 'Hungary', 'Portugal']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="K456" t="inlineStr">
@@ -39381,7 +39381,7 @@
       </c>
       <c r="J457" t="inlineStr">
         <is>
-          <t>['Iceland', 'Hungary', 'Portugal']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="K457" t="inlineStr">
@@ -39469,7 +39469,7 @@
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>['Iceland', 'Hungary', 'Portugal']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="K458" t="inlineStr">
@@ -39557,7 +39557,7 @@
       </c>
       <c r="J459" t="inlineStr">
         <is>
-          <t>['Iceland', 'Hungary', 'Portugal']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="K459" t="inlineStr">
@@ -39645,7 +39645,7 @@
       </c>
       <c r="J460" t="inlineStr">
         <is>
-          <t>['Iceland', 'Hungary', 'Portugal']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="K460" t="inlineStr">
@@ -39733,7 +39733,7 @@
       </c>
       <c r="J461" t="inlineStr">
         <is>
-          <t>['Iceland', 'Hungary', 'Portugal']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="K461" t="inlineStr">
@@ -39821,7 +39821,7 @@
       </c>
       <c r="J462" t="inlineStr">
         <is>
-          <t>['Iceland', 'Hungary', 'Portugal']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="K462" t="inlineStr">
@@ -39909,7 +39909,7 @@
       </c>
       <c r="J463" t="inlineStr">
         <is>
-          <t>['Iceland', 'Hungary', 'Portugal']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="K463" t="inlineStr">
@@ -39997,7 +39997,7 @@
       </c>
       <c r="J464" t="inlineStr">
         <is>
-          <t>['Iceland', 'Hungary', 'Portugal']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="K464" t="inlineStr">
@@ -40085,7 +40085,7 @@
       </c>
       <c r="J465" t="inlineStr">
         <is>
-          <t>['Iceland', 'Hungary', 'Portugal']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="K465" t="inlineStr">
@@ -40173,7 +40173,7 @@
       </c>
       <c r="J466" t="inlineStr">
         <is>
-          <t>['Iceland', 'Hungary', 'Portugal']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="K466" t="inlineStr">
@@ -40261,7 +40261,7 @@
       </c>
       <c r="J467" t="inlineStr">
         <is>
-          <t>['Iceland', 'Hungary', 'Portugal']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="K467" t="inlineStr">
@@ -40349,7 +40349,7 @@
       </c>
       <c r="J468" t="inlineStr">
         <is>
-          <t>['Iceland', 'Hungary', 'Portugal']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="K468" t="inlineStr">
@@ -40437,7 +40437,7 @@
       </c>
       <c r="J469" t="inlineStr">
         <is>
-          <t>['Iceland', 'Hungary', 'Portugal']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="K469" t="inlineStr">
@@ -40511,7 +40511,7 @@
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K470" t="inlineStr">
@@ -40591,7 +40591,7 @@
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K471" t="inlineStr">
@@ -40665,7 +40665,7 @@
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K472" t="inlineStr">
@@ -40745,7 +40745,7 @@
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K473" t="inlineStr">
@@ -40819,7 +40819,7 @@
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K474" t="inlineStr">
@@ -40899,7 +40899,7 @@
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K475" t="inlineStr">
@@ -40987,7 +40987,7 @@
       </c>
       <c r="J476" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K476" t="inlineStr">
@@ -41075,7 +41075,7 @@
       </c>
       <c r="J477" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K477" t="inlineStr">
@@ -41163,7 +41163,7 @@
       </c>
       <c r="J478" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K478" t="inlineStr">
@@ -41251,7 +41251,7 @@
       </c>
       <c r="J479" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K479" t="inlineStr">
@@ -41339,7 +41339,7 @@
       </c>
       <c r="J480" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K480" t="inlineStr">
@@ -41427,7 +41427,7 @@
       </c>
       <c r="J481" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K481" t="inlineStr">
@@ -41515,7 +41515,7 @@
       </c>
       <c r="J482" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K482" t="inlineStr">
@@ -41603,7 +41603,7 @@
       </c>
       <c r="J483" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K483" t="inlineStr">
@@ -41691,7 +41691,7 @@
       </c>
       <c r="J484" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K484" t="inlineStr">
@@ -41779,7 +41779,7 @@
       </c>
       <c r="J485" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K485" t="inlineStr">
@@ -41867,7 +41867,7 @@
       </c>
       <c r="J486" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K486" t="inlineStr">
@@ -41955,7 +41955,7 @@
       </c>
       <c r="J487" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K487" t="inlineStr">
@@ -42043,7 +42043,7 @@
       </c>
       <c r="J488" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K488" t="inlineStr">
@@ -42131,7 +42131,7 @@
       </c>
       <c r="J489" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K489" t="inlineStr">
@@ -42219,7 +42219,7 @@
       </c>
       <c r="J490" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K490" t="inlineStr">
@@ -42293,7 +42293,7 @@
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr">
         <is>
-          <t>['Belgium', 'Russia', 'Finland']</t>
+          <t>['Russia', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K491" t="inlineStr">
@@ -42319,11 +42319,11 @@
       </c>
       <c r="P491" t="inlineStr"/>
       <c r="Q491" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R491" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland']</t>
+          <t>['Belgium', 'Finland', 'Russia']</t>
         </is>
       </c>
       <c r="S491" t="n">
@@ -42373,7 +42373,7 @@
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr">
         <is>
-          <t>['Belgium', 'Russia', 'Finland']</t>
+          <t>['Russia', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K492" t="inlineStr">
@@ -42399,11 +42399,11 @@
       </c>
       <c r="P492" t="inlineStr"/>
       <c r="Q492" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R492" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland']</t>
+          <t>['Belgium', 'Finland', 'Russia']</t>
         </is>
       </c>
       <c r="S492" t="n">
@@ -42447,7 +42447,7 @@
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr">
         <is>
-          <t>['Belgium', 'Russia', 'Finland']</t>
+          <t>['Russia', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K493" t="inlineStr">
@@ -42473,11 +42473,11 @@
       </c>
       <c r="P493" t="inlineStr"/>
       <c r="Q493" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R493" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland']</t>
+          <t>['Belgium', 'Finland', 'Russia']</t>
         </is>
       </c>
       <c r="S493" t="n">
@@ -42527,7 +42527,7 @@
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr">
         <is>
-          <t>['Belgium', 'Russia', 'Finland']</t>
+          <t>['Russia', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K494" t="inlineStr">
@@ -42553,11 +42553,11 @@
       </c>
       <c r="P494" t="inlineStr"/>
       <c r="Q494" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R494" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland']</t>
+          <t>['Belgium', 'Finland', 'Russia']</t>
         </is>
       </c>
       <c r="S494" t="n">
@@ -42601,7 +42601,7 @@
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr">
         <is>
-          <t>['Belgium', 'Russia', 'Finland']</t>
+          <t>['Russia', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K495" t="inlineStr">
@@ -42627,11 +42627,11 @@
       </c>
       <c r="P495" t="inlineStr"/>
       <c r="Q495" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R495" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland']</t>
+          <t>['Belgium', 'Finland', 'Russia']</t>
         </is>
       </c>
       <c r="S495" t="n">
@@ -42681,7 +42681,7 @@
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr">
         <is>
-          <t>['Belgium', 'Russia', 'Finland']</t>
+          <t>['Russia', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K496" t="inlineStr">
@@ -42707,11 +42707,11 @@
       </c>
       <c r="P496" t="inlineStr"/>
       <c r="Q496" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R496" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland']</t>
+          <t>['Belgium', 'Finland', 'Russia']</t>
         </is>
       </c>
       <c r="S496" t="n">
@@ -42755,7 +42755,7 @@
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr">
         <is>
-          <t>['Belgium', 'Russia', 'Finland']</t>
+          <t>['Russia', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K497" t="inlineStr">
@@ -42781,11 +42781,11 @@
       </c>
       <c r="P497" t="inlineStr"/>
       <c r="Q497" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R497" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland']</t>
+          <t>['Belgium', 'Finland', 'Russia']</t>
         </is>
       </c>
       <c r="S497" t="n">
@@ -42835,7 +42835,7 @@
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr">
         <is>
-          <t>['Belgium', 'Russia', 'Finland']</t>
+          <t>['Russia', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K498" t="inlineStr">
@@ -42861,11 +42861,11 @@
       </c>
       <c r="P498" t="inlineStr"/>
       <c r="Q498" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R498" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland']</t>
+          <t>['Belgium', 'Finland', 'Russia']</t>
         </is>
       </c>
       <c r="S498" t="n">
@@ -42923,7 +42923,7 @@
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="K499" t="inlineStr">
@@ -42957,10 +42957,10 @@
         </is>
       </c>
       <c r="S499" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T499" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U499" t="n">
         <v>1744</v>
@@ -43011,7 +43011,7 @@
       </c>
       <c r="J500" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="K500" t="inlineStr">
@@ -43048,7 +43048,7 @@
         <v>0</v>
       </c>
       <c r="T500" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U500" t="n">
         <v>1744</v>
@@ -43099,7 +43099,7 @@
       </c>
       <c r="J501" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="K501" t="inlineStr">
@@ -43136,7 +43136,7 @@
         <v>0</v>
       </c>
       <c r="T501" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U501" t="n">
         <v>1744</v>
@@ -43187,7 +43187,7 @@
       </c>
       <c r="J502" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="K502" t="inlineStr">
@@ -43224,7 +43224,7 @@
         <v>0</v>
       </c>
       <c r="T502" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U502" t="n">
         <v>1744</v>
@@ -43275,7 +43275,7 @@
       </c>
       <c r="J503" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="K503" t="inlineStr">
@@ -43312,7 +43312,7 @@
         <v>1</v>
       </c>
       <c r="T503" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U503" t="n">
         <v>1744</v>
@@ -43363,7 +43363,7 @@
       </c>
       <c r="J504" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="K504" t="inlineStr">
@@ -43400,7 +43400,7 @@
         <v>0</v>
       </c>
       <c r="T504" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U504" t="n">
         <v>1744</v>
@@ -43451,7 +43451,7 @@
       </c>
       <c r="J505" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="K505" t="inlineStr">
@@ -43488,7 +43488,7 @@
         <v>0</v>
       </c>
       <c r="T505" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U505" t="n">
         <v>1744</v>
@@ -43539,7 +43539,7 @@
       </c>
       <c r="J506" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="K506" t="inlineStr">
@@ -43576,7 +43576,7 @@
         <v>0</v>
       </c>
       <c r="T506" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U506" t="n">
         <v>1744</v>
@@ -43627,7 +43627,7 @@
       </c>
       <c r="J507" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="K507" t="inlineStr">
@@ -43664,7 +43664,7 @@
         <v>1</v>
       </c>
       <c r="T507" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U507" t="n">
         <v>1744</v>
@@ -43715,7 +43715,7 @@
       </c>
       <c r="J508" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="K508" t="inlineStr">
@@ -43752,7 +43752,7 @@
         <v>0</v>
       </c>
       <c r="T508" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U508" t="n">
         <v>1744</v>
@@ -43803,7 +43803,7 @@
       </c>
       <c r="J509" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="K509" t="inlineStr">
@@ -43840,7 +43840,7 @@
         <v>0</v>
       </c>
       <c r="T509" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U509" t="n">
         <v>1744</v>
@@ -43891,7 +43891,7 @@
       </c>
       <c r="J510" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="K510" t="inlineStr">
@@ -43928,7 +43928,7 @@
         <v>0</v>
       </c>
       <c r="T510" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U510" t="n">
         <v>1744</v>
@@ -43979,7 +43979,7 @@
       </c>
       <c r="J511" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Russia']</t>
+          <t>['Russia', 'Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="K511" t="inlineStr">
@@ -44016,7 +44016,7 @@
         <v>1</v>
       </c>
       <c r="T511" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U511" t="n">
         <v>1684</v>
@@ -44067,7 +44067,7 @@
       </c>
       <c r="J512" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Russia']</t>
+          <t>['Russia', 'Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="K512" t="inlineStr">
@@ -44104,7 +44104,7 @@
         <v>0</v>
       </c>
       <c r="T512" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U512" t="n">
         <v>1684</v>
@@ -44155,7 +44155,7 @@
       </c>
       <c r="J513" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Russia']</t>
+          <t>['Russia', 'Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="K513" t="inlineStr">
@@ -44192,7 +44192,7 @@
         <v>0</v>
       </c>
       <c r="T513" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U513" t="n">
         <v>1684</v>
@@ -44243,7 +44243,7 @@
       </c>
       <c r="J514" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Russia']</t>
+          <t>['Russia', 'Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="K514" t="inlineStr">
@@ -44280,7 +44280,7 @@
         <v>0</v>
       </c>
       <c r="T514" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U514" t="n">
         <v>1684</v>
@@ -44368,7 +44368,7 @@
         <v>0</v>
       </c>
       <c r="T515" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U515" t="n">
         <v>1744</v>
@@ -44456,7 +44456,7 @@
         <v>0</v>
       </c>
       <c r="T516" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U516" t="n">
         <v>1744</v>
@@ -44544,7 +44544,7 @@
         <v>0</v>
       </c>
       <c r="T517" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U517" t="n">
         <v>1744</v>
@@ -44632,7 +44632,7 @@
         <v>0</v>
       </c>
       <c r="T518" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U518" t="n">
         <v>1744</v>
@@ -44720,7 +44720,7 @@
         <v>0</v>
       </c>
       <c r="T519" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U519" t="n">
         <v>1684</v>
@@ -44808,7 +44808,7 @@
         <v>0</v>
       </c>
       <c r="T520" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U520" t="n">
         <v>1684</v>
@@ -44896,7 +44896,7 @@
         <v>0</v>
       </c>
       <c r="T521" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U521" t="n">
         <v>1684</v>
@@ -44984,7 +44984,7 @@
         <v>0</v>
       </c>
       <c r="T522" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U522" t="n">
         <v>1684</v>
@@ -45072,7 +45072,7 @@
         <v>0</v>
       </c>
       <c r="T523" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U523" t="n">
         <v>1744</v>
@@ -45160,7 +45160,7 @@
         <v>0</v>
       </c>
       <c r="T524" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U524" t="n">
         <v>1744</v>
@@ -45248,7 +45248,7 @@
         <v>0</v>
       </c>
       <c r="T525" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U525" t="n">
         <v>1744</v>
@@ -45336,7 +45336,7 @@
         <v>0</v>
       </c>
       <c r="T526" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U526" t="n">
         <v>1744</v>
@@ -45373,7 +45373,7 @@
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K527" t="inlineStr">
@@ -45399,11 +45399,11 @@
       </c>
       <c r="P527" t="inlineStr"/>
       <c r="Q527" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R527" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="S527" t="n">
@@ -45453,7 +45453,7 @@
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K528" t="inlineStr">
@@ -45479,11 +45479,11 @@
       </c>
       <c r="P528" t="inlineStr"/>
       <c r="Q528" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R528" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="S528" t="n">
@@ -45527,7 +45527,7 @@
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K529" t="inlineStr">
@@ -45553,11 +45553,11 @@
       </c>
       <c r="P529" t="inlineStr"/>
       <c r="Q529" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R529" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="S529" t="n">
@@ -45607,7 +45607,7 @@
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K530" t="inlineStr">
@@ -45633,11 +45633,11 @@
       </c>
       <c r="P530" t="inlineStr"/>
       <c r="Q530" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R530" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="S530" t="n">
@@ -45681,7 +45681,7 @@
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K531" t="inlineStr">
@@ -45707,11 +45707,11 @@
       </c>
       <c r="P531" t="inlineStr"/>
       <c r="Q531" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R531" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="S531" t="n">
@@ -45761,7 +45761,7 @@
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K532" t="inlineStr">
@@ -45787,11 +45787,11 @@
       </c>
       <c r="P532" t="inlineStr"/>
       <c r="Q532" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R532" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="S532" t="n">
@@ -45845,7 +45845,7 @@
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K533" t="inlineStr">
@@ -45871,11 +45871,11 @@
       </c>
       <c r="P533" t="inlineStr"/>
       <c r="Q533" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R533" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="S533" t="n">
@@ -45929,7 +45929,7 @@
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K534" t="inlineStr">
@@ -45955,11 +45955,11 @@
       </c>
       <c r="P534" t="inlineStr"/>
       <c r="Q534" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R534" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="S534" t="n">
@@ -46013,7 +46013,7 @@
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K535" t="inlineStr">
@@ -46039,11 +46039,11 @@
       </c>
       <c r="P535" t="inlineStr"/>
       <c r="Q535" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R535" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="S535" t="n">
@@ -46101,7 +46101,7 @@
       </c>
       <c r="J536" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K536" t="inlineStr">
@@ -46189,7 +46189,7 @@
       </c>
       <c r="J537" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K537" t="inlineStr">
@@ -46277,7 +46277,7 @@
       </c>
       <c r="J538" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K538" t="inlineStr">
@@ -46365,7 +46365,7 @@
       </c>
       <c r="J539" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K539" t="inlineStr">
@@ -46453,7 +46453,7 @@
       </c>
       <c r="J540" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K540" t="inlineStr">
@@ -46541,7 +46541,7 @@
       </c>
       <c r="J541" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K541" t="inlineStr">
@@ -46629,7 +46629,7 @@
       </c>
       <c r="J542" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K542" t="inlineStr">
@@ -46717,7 +46717,7 @@
       </c>
       <c r="J543" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K543" t="inlineStr">
@@ -46805,7 +46805,7 @@
       </c>
       <c r="J544" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K544" t="inlineStr">
@@ -46893,7 +46893,7 @@
       </c>
       <c r="J545" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K545" t="inlineStr">
@@ -46981,7 +46981,7 @@
       </c>
       <c r="J546" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K546" t="inlineStr">
@@ -47069,7 +47069,7 @@
       </c>
       <c r="J547" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K547" t="inlineStr">
@@ -47143,7 +47143,7 @@
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['England', 'Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K548" t="inlineStr">
@@ -47223,7 +47223,7 @@
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['England', 'Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K549" t="inlineStr">
@@ -47297,7 +47297,7 @@
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['England', 'Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K550" t="inlineStr">
@@ -47377,7 +47377,7 @@
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['England', 'Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K551" t="inlineStr">
@@ -47465,7 +47465,7 @@
       </c>
       <c r="J552" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['England', 'Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K552" t="inlineStr">
@@ -47553,7 +47553,7 @@
       </c>
       <c r="J553" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['England', 'Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K553" t="inlineStr">
@@ -47641,7 +47641,7 @@
       </c>
       <c r="J554" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['England', 'Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K554" t="inlineStr">
@@ -47729,7 +47729,7 @@
       </c>
       <c r="J555" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['England', 'Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K555" t="inlineStr">
@@ -47817,7 +47817,7 @@
       </c>
       <c r="J556" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['England', 'Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K556" t="inlineStr">
@@ -47905,7 +47905,7 @@
       </c>
       <c r="J557" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['England', 'Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K557" t="inlineStr">
@@ -47993,7 +47993,7 @@
       </c>
       <c r="J558" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['England', 'Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K558" t="inlineStr">
@@ -48081,7 +48081,7 @@
       </c>
       <c r="J559" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['England', 'Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K559" t="inlineStr">
@@ -48169,7 +48169,7 @@
       </c>
       <c r="J560" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['England', 'Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K560" t="inlineStr">
@@ -48257,7 +48257,7 @@
       </c>
       <c r="J561" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['England', 'Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K561" t="inlineStr">
@@ -48331,7 +48331,7 @@
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K562" t="inlineStr">
@@ -48357,11 +48357,11 @@
       </c>
       <c r="P562" t="inlineStr"/>
       <c r="Q562" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R562" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="S562" t="n">
@@ -48411,7 +48411,7 @@
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K563" t="inlineStr">
@@ -48437,11 +48437,11 @@
       </c>
       <c r="P563" t="inlineStr"/>
       <c r="Q563" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R563" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="S563" t="n">
@@ -48485,7 +48485,7 @@
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K564" t="inlineStr">
@@ -48511,11 +48511,11 @@
       </c>
       <c r="P564" t="inlineStr"/>
       <c r="Q564" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R564" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="S564" t="n">
@@ -48565,7 +48565,7 @@
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K565" t="inlineStr">
@@ -48591,11 +48591,11 @@
       </c>
       <c r="P565" t="inlineStr"/>
       <c r="Q565" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R565" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="S565" t="n">
@@ -48639,7 +48639,7 @@
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K566" t="inlineStr">
@@ -48665,11 +48665,11 @@
       </c>
       <c r="P566" t="inlineStr"/>
       <c r="Q566" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R566" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="S566" t="n">
@@ -48719,7 +48719,7 @@
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K567" t="inlineStr">
@@ -48745,11 +48745,11 @@
       </c>
       <c r="P567" t="inlineStr"/>
       <c r="Q567" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R567" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="S567" t="n">
@@ -48793,7 +48793,7 @@
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K568" t="inlineStr">
@@ -48819,11 +48819,11 @@
       </c>
       <c r="P568" t="inlineStr"/>
       <c r="Q568" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R568" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="S568" t="n">
@@ -48873,7 +48873,7 @@
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K569" t="inlineStr">
@@ -48899,11 +48899,11 @@
       </c>
       <c r="P569" t="inlineStr"/>
       <c r="Q569" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R569" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="S569" t="n">
@@ -48961,7 +48961,7 @@
       </c>
       <c r="J570" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K570" t="inlineStr">
@@ -48995,10 +48995,10 @@
         </is>
       </c>
       <c r="S570" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T570" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U570" t="n">
         <v>1850</v>
@@ -49049,7 +49049,7 @@
       </c>
       <c r="J571" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K571" t="inlineStr">
@@ -49086,7 +49086,7 @@
         <v>0</v>
       </c>
       <c r="T571" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U571" t="n">
         <v>1850</v>
@@ -49137,7 +49137,7 @@
       </c>
       <c r="J572" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K572" t="inlineStr">
@@ -49174,7 +49174,7 @@
         <v>0</v>
       </c>
       <c r="T572" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U572" t="n">
         <v>1850</v>
@@ -49225,7 +49225,7 @@
       </c>
       <c r="J573" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K573" t="inlineStr">
@@ -49262,7 +49262,7 @@
         <v>0</v>
       </c>
       <c r="T573" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U573" t="n">
         <v>1850</v>
@@ -49313,7 +49313,7 @@
       </c>
       <c r="J574" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K574" t="inlineStr">
@@ -49350,7 +49350,7 @@
         <v>1</v>
       </c>
       <c r="T574" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U574" t="n">
         <v>1656</v>
@@ -49401,7 +49401,7 @@
       </c>
       <c r="J575" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K575" t="inlineStr">
@@ -49438,7 +49438,7 @@
         <v>0</v>
       </c>
       <c r="T575" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U575" t="n">
         <v>1656</v>
@@ -49489,7 +49489,7 @@
       </c>
       <c r="J576" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K576" t="inlineStr">
@@ -49526,7 +49526,7 @@
         <v>0</v>
       </c>
       <c r="T576" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U576" t="n">
         <v>1656</v>
@@ -49577,7 +49577,7 @@
       </c>
       <c r="J577" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K577" t="inlineStr">
@@ -49614,7 +49614,7 @@
         <v>0</v>
       </c>
       <c r="T577" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U577" t="n">
         <v>1656</v>
@@ -49665,7 +49665,7 @@
       </c>
       <c r="J578" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K578" t="inlineStr">
@@ -49702,7 +49702,7 @@
         <v>0</v>
       </c>
       <c r="T578" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U578" t="n">
         <v>1656</v>
@@ -49753,7 +49753,7 @@
       </c>
       <c r="J579" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K579" t="inlineStr">
@@ -49790,7 +49790,7 @@
         <v>0</v>
       </c>
       <c r="T579" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U579" t="n">
         <v>1656</v>
@@ -49841,7 +49841,7 @@
       </c>
       <c r="J580" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K580" t="inlineStr">
@@ -49878,7 +49878,7 @@
         <v>0</v>
       </c>
       <c r="T580" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U580" t="n">
         <v>1656</v>
@@ -49929,7 +49929,7 @@
       </c>
       <c r="J581" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K581" t="inlineStr">
@@ -49966,7 +49966,7 @@
         <v>0</v>
       </c>
       <c r="T581" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U581" t="n">
         <v>1656</v>
@@ -50017,7 +50017,7 @@
       </c>
       <c r="J582" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K582" t="inlineStr">
@@ -50054,7 +50054,7 @@
         <v>0</v>
       </c>
       <c r="T582" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U582" t="n">
         <v>1656</v>
@@ -50105,7 +50105,7 @@
       </c>
       <c r="J583" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K583" t="inlineStr">
@@ -50142,7 +50142,7 @@
         <v>0</v>
       </c>
       <c r="T583" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U583" t="n">
         <v>1656</v>
@@ -50193,7 +50193,7 @@
       </c>
       <c r="J584" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K584" t="inlineStr">
@@ -50230,7 +50230,7 @@
         <v>0</v>
       </c>
       <c r="T584" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U584" t="n">
         <v>1656</v>
@@ -50281,7 +50281,7 @@
       </c>
       <c r="J585" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K585" t="inlineStr">
@@ -50318,7 +50318,7 @@
         <v>0</v>
       </c>
       <c r="T585" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U585" t="n">
         <v>1656</v>
@@ -50369,7 +50369,7 @@
       </c>
       <c r="J586" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K586" t="inlineStr">
@@ -50406,7 +50406,7 @@
         <v>0</v>
       </c>
       <c r="T586" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U586" t="n">
         <v>1850</v>
@@ -50457,7 +50457,7 @@
       </c>
       <c r="J587" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K587" t="inlineStr">
@@ -50494,7 +50494,7 @@
         <v>0</v>
       </c>
       <c r="T587" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U587" t="n">
         <v>1850</v>
@@ -50545,7 +50545,7 @@
       </c>
       <c r="J588" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K588" t="inlineStr">
@@ -50582,7 +50582,7 @@
         <v>0</v>
       </c>
       <c r="T588" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U588" t="n">
         <v>1850</v>
@@ -50633,7 +50633,7 @@
       </c>
       <c r="J589" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K589" t="inlineStr">
@@ -50670,7 +50670,7 @@
         <v>0</v>
       </c>
       <c r="T589" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U589" t="n">
         <v>1850</v>
@@ -50721,7 +50721,7 @@
       </c>
       <c r="J590" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K590" t="inlineStr">
@@ -50758,7 +50758,7 @@
         <v>0</v>
       </c>
       <c r="T590" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U590" t="n">
         <v>1850</v>
@@ -50809,7 +50809,7 @@
       </c>
       <c r="J591" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K591" t="inlineStr">
@@ -50846,7 +50846,7 @@
         <v>0</v>
       </c>
       <c r="T591" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U591" t="n">
         <v>1850</v>
@@ -50897,7 +50897,7 @@
       </c>
       <c r="J592" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K592" t="inlineStr">
@@ -50934,7 +50934,7 @@
         <v>0</v>
       </c>
       <c r="T592" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U592" t="n">
         <v>1850</v>
@@ -50985,7 +50985,7 @@
       </c>
       <c r="J593" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K593" t="inlineStr">
@@ -51022,7 +51022,7 @@
         <v>0</v>
       </c>
       <c r="T593" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U593" t="n">
         <v>1850</v>
@@ -51073,7 +51073,7 @@
       </c>
       <c r="J594" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K594" t="inlineStr">
@@ -51110,7 +51110,7 @@
         <v>0</v>
       </c>
       <c r="T594" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U594" t="n">
         <v>1656</v>
@@ -51161,7 +51161,7 @@
       </c>
       <c r="J595" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K595" t="inlineStr">
@@ -51198,7 +51198,7 @@
         <v>0</v>
       </c>
       <c r="T595" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U595" t="n">
         <v>1656</v>
@@ -51249,7 +51249,7 @@
       </c>
       <c r="J596" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K596" t="inlineStr">
@@ -51286,7 +51286,7 @@
         <v>0</v>
       </c>
       <c r="T596" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U596" t="n">
         <v>1656</v>
@@ -51337,7 +51337,7 @@
       </c>
       <c r="J597" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K597" t="inlineStr">
@@ -51374,7 +51374,7 @@
         <v>0</v>
       </c>
       <c r="T597" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U597" t="n">
         <v>1656</v>
@@ -51425,7 +51425,7 @@
       </c>
       <c r="J598" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K598" t="inlineStr">
@@ -51462,7 +51462,7 @@
         <v>0</v>
       </c>
       <c r="T598" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U598" t="n">
         <v>1656</v>
@@ -51513,7 +51513,7 @@
       </c>
       <c r="J599" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K599" t="inlineStr">
@@ -51550,7 +51550,7 @@
         <v>0</v>
       </c>
       <c r="T599" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U599" t="n">
         <v>1656</v>
@@ -51601,7 +51601,7 @@
       </c>
       <c r="J600" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K600" t="inlineStr">
@@ -51638,7 +51638,7 @@
         <v>0</v>
       </c>
       <c r="T600" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U600" t="n">
         <v>1656</v>
@@ -51689,7 +51689,7 @@
       </c>
       <c r="J601" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K601" t="inlineStr">
@@ -51726,7 +51726,7 @@
         <v>0</v>
       </c>
       <c r="T601" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U601" t="n">
         <v>1656</v>
@@ -51777,7 +51777,7 @@
       </c>
       <c r="J602" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K602" t="inlineStr">
@@ -51814,7 +51814,7 @@
         <v>0</v>
       </c>
       <c r="T602" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U602" t="n">
         <v>1850</v>
@@ -51865,7 +51865,7 @@
       </c>
       <c r="J603" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K603" t="inlineStr">
@@ -51902,7 +51902,7 @@
         <v>0</v>
       </c>
       <c r="T603" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U603" t="n">
         <v>1850</v>
@@ -51953,7 +51953,7 @@
       </c>
       <c r="J604" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K604" t="inlineStr">
@@ -51990,7 +51990,7 @@
         <v>0</v>
       </c>
       <c r="T604" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U604" t="n">
         <v>1850</v>
@@ -52041,7 +52041,7 @@
       </c>
       <c r="J605" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K605" t="inlineStr">
@@ -52078,7 +52078,7 @@
         <v>0</v>
       </c>
       <c r="T605" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U605" t="n">
         <v>1850</v>
@@ -52129,7 +52129,7 @@
       </c>
       <c r="J606" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K606" t="inlineStr">
@@ -52166,7 +52166,7 @@
         <v>0</v>
       </c>
       <c r="T606" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U606" t="n">
         <v>1850</v>
@@ -52217,7 +52217,7 @@
       </c>
       <c r="J607" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K607" t="inlineStr">
@@ -52254,7 +52254,7 @@
         <v>0</v>
       </c>
       <c r="T607" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U607" t="n">
         <v>1850</v>
@@ -52305,7 +52305,7 @@
       </c>
       <c r="J608" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K608" t="inlineStr">
@@ -52342,7 +52342,7 @@
         <v>0</v>
       </c>
       <c r="T608" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U608" t="n">
         <v>1850</v>
@@ -52393,7 +52393,7 @@
       </c>
       <c r="J609" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K609" t="inlineStr">
@@ -52430,7 +52430,7 @@
         <v>0</v>
       </c>
       <c r="T609" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U609" t="n">
         <v>1850</v>
@@ -52467,7 +52467,7 @@
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr">
         <is>
-          <t>['France', 'Germany', 'Portugal']</t>
+          <t>['Portugal', 'Germany', 'France']</t>
         </is>
       </c>
       <c r="K610" t="inlineStr">
@@ -52493,11 +52493,11 @@
       </c>
       <c r="P610" t="inlineStr"/>
       <c r="Q610" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R610" t="inlineStr">
         <is>
-          <t>['France', 'Portugal']</t>
+          <t>['France', 'Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="S610" t="n">
@@ -52537,7 +52537,7 @@
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr">
         <is>
-          <t>['France', 'Germany', 'Portugal']</t>
+          <t>['Portugal', 'Germany', 'France']</t>
         </is>
       </c>
       <c r="K611" t="inlineStr">
@@ -52563,11 +52563,11 @@
       </c>
       <c r="P611" t="inlineStr"/>
       <c r="Q611" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R611" t="inlineStr">
         <is>
-          <t>['France', 'Portugal']</t>
+          <t>['France', 'Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="S611" t="n">
@@ -52621,7 +52621,7 @@
       </c>
       <c r="J612" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Portugal']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K612" t="inlineStr">
@@ -52709,7 +52709,7 @@
       </c>
       <c r="J613" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Portugal']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K613" t="inlineStr">
@@ -52797,7 +52797,7 @@
       </c>
       <c r="J614" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Portugal']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K614" t="inlineStr">
@@ -52885,7 +52885,7 @@
       </c>
       <c r="J615" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Portugal']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K615" t="inlineStr">
@@ -52973,7 +52973,7 @@
       </c>
       <c r="J616" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Portugal']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K616" t="inlineStr">
@@ -53061,7 +53061,7 @@
       </c>
       <c r="J617" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Portugal']</t>
+          <t>['Hungary', 'Portugal', 'France']</t>
         </is>
       </c>
       <c r="K617" t="inlineStr">
@@ -53149,7 +53149,7 @@
       </c>
       <c r="J618" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Portugal']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K618" t="inlineStr">
@@ -53237,7 +53237,7 @@
       </c>
       <c r="J619" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Portugal']</t>
+          <t>['Hungary', 'Portugal', 'France']</t>
         </is>
       </c>
       <c r="K619" t="inlineStr">
@@ -53325,7 +53325,7 @@
       </c>
       <c r="J620" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Portugal']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K620" t="inlineStr">
@@ -53413,7 +53413,7 @@
       </c>
       <c r="J621" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Portugal']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K621" t="inlineStr">
@@ -53501,7 +53501,7 @@
       </c>
       <c r="J622" t="inlineStr">
         <is>
-          <t>['France', 'Germany', 'Portugal']</t>
+          <t>['Portugal', 'Germany', 'France']</t>
         </is>
       </c>
       <c r="K622" t="inlineStr">
@@ -53589,7 +53589,7 @@
       </c>
       <c r="J623" t="inlineStr">
         <is>
-          <t>['France', 'Germany', 'Portugal']</t>
+          <t>['Portugal', 'Germany', 'France']</t>
         </is>
       </c>
       <c r="K623" t="inlineStr">
@@ -53677,7 +53677,7 @@
       </c>
       <c r="J624" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Portugal']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K624" t="inlineStr">
@@ -53765,7 +53765,7 @@
       </c>
       <c r="J625" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Portugal']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K625" t="inlineStr">
@@ -53853,7 +53853,7 @@
       </c>
       <c r="J626" t="inlineStr">
         <is>
-          <t>['France', 'Germany', 'Portugal']</t>
+          <t>['Portugal', 'Germany', 'France']</t>
         </is>
       </c>
       <c r="K626" t="inlineStr">
@@ -53879,18 +53879,18 @@
       </c>
       <c r="P626" t="inlineStr"/>
       <c r="Q626" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R626" t="inlineStr">
         <is>
-          <t>['France', 'Portugal']</t>
+          <t>['France', 'Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="S626" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T626" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U626" t="n">
         <v>1936</v>
@@ -53941,7 +53941,7 @@
       </c>
       <c r="J627" t="inlineStr">
         <is>
-          <t>['France', 'Germany', 'Portugal']</t>
+          <t>['Portugal', 'Germany', 'France']</t>
         </is>
       </c>
       <c r="K627" t="inlineStr">
@@ -53967,18 +53967,18 @@
       </c>
       <c r="P627" t="inlineStr"/>
       <c r="Q627" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R627" t="inlineStr">
         <is>
-          <t>['France', 'Portugal']</t>
+          <t>['France', 'Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="S627" t="n">
         <v>0</v>
       </c>
       <c r="T627" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U627" t="n">
         <v>1936</v>
@@ -54015,7 +54015,7 @@
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr">
         <is>
-          <t>['Germany', 'Scotland', 'Switzerland']</t>
+          <t>['Switzerland', 'Germany', 'Scotland']</t>
         </is>
       </c>
       <c r="K628" t="inlineStr">
@@ -54095,7 +54095,7 @@
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr">
         <is>
-          <t>['Germany', 'Scotland', 'Switzerland']</t>
+          <t>['Switzerland', 'Germany', 'Scotland']</t>
         </is>
       </c>
       <c r="K629" t="inlineStr">
@@ -54169,7 +54169,7 @@
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr">
         <is>
-          <t>['Germany', 'Scotland', 'Switzerland']</t>
+          <t>['Switzerland', 'Germany', 'Scotland']</t>
         </is>
       </c>
       <c r="K630" t="inlineStr">
@@ -54249,7 +54249,7 @@
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr">
         <is>
-          <t>['Germany', 'Scotland', 'Switzerland']</t>
+          <t>['Switzerland', 'Germany', 'Scotland']</t>
         </is>
       </c>
       <c r="K631" t="inlineStr">
@@ -54337,7 +54337,7 @@
       </c>
       <c r="J632" t="inlineStr">
         <is>
-          <t>['Germany', 'Scotland', 'Switzerland']</t>
+          <t>['Switzerland', 'Germany', 'Scotland']</t>
         </is>
       </c>
       <c r="K632" t="inlineStr">
@@ -54425,7 +54425,7 @@
       </c>
       <c r="J633" t="inlineStr">
         <is>
-          <t>['Germany', 'Scotland', 'Switzerland']</t>
+          <t>['Switzerland', 'Germany', 'Scotland']</t>
         </is>
       </c>
       <c r="K633" t="inlineStr">
@@ -54513,7 +54513,7 @@
       </c>
       <c r="J634" t="inlineStr">
         <is>
-          <t>['Germany', 'Scotland', 'Switzerland']</t>
+          <t>['Switzerland', 'Germany', 'Scotland']</t>
         </is>
       </c>
       <c r="K634" t="inlineStr">
@@ -54601,7 +54601,7 @@
       </c>
       <c r="J635" t="inlineStr">
         <is>
-          <t>['Germany', 'Scotland', 'Switzerland']</t>
+          <t>['Switzerland', 'Germany', 'Scotland']</t>
         </is>
       </c>
       <c r="K635" t="inlineStr">
@@ -54689,7 +54689,7 @@
       </c>
       <c r="J636" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland', 'Hungary']</t>
+          <t>['Switzerland', 'Germany', 'Hungary']</t>
         </is>
       </c>
       <c r="K636" t="inlineStr">
@@ -54715,18 +54715,18 @@
       </c>
       <c r="P636" t="inlineStr"/>
       <c r="Q636" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R636" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland']</t>
+          <t>['Germany', 'Switzerland', 'Hungary']</t>
         </is>
       </c>
       <c r="S636" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T636" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U636" t="n">
         <v>1770</v>
@@ -54777,7 +54777,7 @@
       </c>
       <c r="J637" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland', 'Hungary']</t>
+          <t>['Switzerland', 'Germany', 'Hungary']</t>
         </is>
       </c>
       <c r="K637" t="inlineStr">
@@ -54803,18 +54803,18 @@
       </c>
       <c r="P637" t="inlineStr"/>
       <c r="Q637" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R637" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland']</t>
+          <t>['Germany', 'Switzerland', 'Hungary']</t>
         </is>
       </c>
       <c r="S637" t="n">
         <v>0</v>
       </c>
       <c r="T637" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U637" t="n">
         <v>1770</v>
@@ -54851,7 +54851,7 @@
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr">
         <is>
-          <t>['Spain', 'Albania', 'Italy']</t>
+          <t>['Italy', 'Spain', 'Albania']</t>
         </is>
       </c>
       <c r="K638" t="inlineStr">
@@ -54877,11 +54877,11 @@
       </c>
       <c r="P638" t="inlineStr"/>
       <c r="Q638" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R638" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy']</t>
+          <t>['Spain', 'Italy', 'Albania']</t>
         </is>
       </c>
       <c r="S638" t="n">
@@ -54931,7 +54931,7 @@
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr">
         <is>
-          <t>['Spain', 'Albania', 'Italy']</t>
+          <t>['Italy', 'Spain', 'Albania']</t>
         </is>
       </c>
       <c r="K639" t="inlineStr">
@@ -54957,11 +54957,11 @@
       </c>
       <c r="P639" t="inlineStr"/>
       <c r="Q639" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R639" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy']</t>
+          <t>['Spain', 'Italy', 'Albania']</t>
         </is>
       </c>
       <c r="S639" t="n">
@@ -55005,7 +55005,7 @@
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr">
         <is>
-          <t>['Spain', 'Albania', 'Italy']</t>
+          <t>['Italy', 'Spain', 'Albania']</t>
         </is>
       </c>
       <c r="K640" t="inlineStr">
@@ -55031,11 +55031,11 @@
       </c>
       <c r="P640" t="inlineStr"/>
       <c r="Q640" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R640" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy']</t>
+          <t>['Spain', 'Italy', 'Albania']</t>
         </is>
       </c>
       <c r="S640" t="n">
@@ -55085,7 +55085,7 @@
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr">
         <is>
-          <t>['Spain', 'Albania', 'Italy']</t>
+          <t>['Italy', 'Spain', 'Albania']</t>
         </is>
       </c>
       <c r="K641" t="inlineStr">
@@ -55111,11 +55111,11 @@
       </c>
       <c r="P641" t="inlineStr"/>
       <c r="Q641" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R641" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy']</t>
+          <t>['Spain', 'Italy', 'Albania']</t>
         </is>
       </c>
       <c r="S641" t="n">
@@ -55173,7 +55173,7 @@
       </c>
       <c r="J642" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Italy']</t>
+          <t>['Italy', 'Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K642" t="inlineStr">
@@ -55207,10 +55207,10 @@
         </is>
       </c>
       <c r="S642" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T642" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U642" t="n">
         <v>1623</v>
@@ -55261,7 +55261,7 @@
       </c>
       <c r="J643" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Italy']</t>
+          <t>['Italy', 'Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K643" t="inlineStr">
@@ -55298,7 +55298,7 @@
         <v>0</v>
       </c>
       <c r="T643" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U643" t="n">
         <v>1623</v>
@@ -55349,7 +55349,7 @@
       </c>
       <c r="J644" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Italy']</t>
+          <t>['Italy', 'Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K644" t="inlineStr">
@@ -55386,7 +55386,7 @@
         <v>1</v>
       </c>
       <c r="T644" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U644" t="n">
         <v>1969</v>
@@ -55437,7 +55437,7 @@
       </c>
       <c r="J645" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Italy']</t>
+          <t>['Italy', 'Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K645" t="inlineStr">
@@ -55474,7 +55474,7 @@
         <v>0</v>
       </c>
       <c r="T645" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U645" t="n">
         <v>1969</v>
@@ -55525,7 +55525,7 @@
       </c>
       <c r="J646" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Italy']</t>
+          <t>['Italy', 'Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K646" t="inlineStr">
@@ -55562,7 +55562,7 @@
         <v>1</v>
       </c>
       <c r="T646" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U646" t="n">
         <v>1969</v>
@@ -55613,7 +55613,7 @@
       </c>
       <c r="J647" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Italy']</t>
+          <t>['Italy', 'Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K647" t="inlineStr">
@@ -55650,7 +55650,7 @@
         <v>0</v>
       </c>
       <c r="T647" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U647" t="n">
         <v>1969</v>
@@ -55687,7 +55687,7 @@
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr">
         <is>
-          <t>['Denmark', 'England', 'Slovenia']</t>
+          <t>['England', 'Denmark', 'Slovenia']</t>
         </is>
       </c>
       <c r="K648" t="inlineStr">
@@ -55767,7 +55767,7 @@
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr">
         <is>
-          <t>['Denmark', 'England', 'Slovenia']</t>
+          <t>['England', 'Denmark', 'Slovenia']</t>
         </is>
       </c>
       <c r="K649" t="inlineStr">
@@ -55851,7 +55851,7 @@
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr">
         <is>
-          <t>['Denmark', 'England', 'Slovenia']</t>
+          <t>['England', 'Denmark', 'Slovenia']</t>
         </is>
       </c>
       <c r="K650" t="inlineStr">
@@ -55925,7 +55925,7 @@
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K651" t="inlineStr">
@@ -55951,11 +55951,11 @@
       </c>
       <c r="P651" t="inlineStr"/>
       <c r="Q651" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R651" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="S651" t="n">
@@ -55995,7 +55995,7 @@
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K652" t="inlineStr">
@@ -56021,11 +56021,11 @@
       </c>
       <c r="P652" t="inlineStr"/>
       <c r="Q652" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R652" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="S652" t="n">
@@ -56079,7 +56079,7 @@
       </c>
       <c r="J653" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K653" t="inlineStr">
@@ -56113,10 +56113,10 @@
         </is>
       </c>
       <c r="S653" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T653" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U653" t="n">
         <v>1975</v>
@@ -56167,7 +56167,7 @@
       </c>
       <c r="J654" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K654" t="inlineStr">
@@ -56204,7 +56204,7 @@
         <v>0</v>
       </c>
       <c r="T654" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U654" t="n">
         <v>1975</v>
@@ -56255,7 +56255,7 @@
       </c>
       <c r="J655" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K655" t="inlineStr">
@@ -56292,7 +56292,7 @@
         <v>0</v>
       </c>
       <c r="T655" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U655" t="n">
         <v>1975</v>
@@ -56343,7 +56343,7 @@
       </c>
       <c r="J656" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K656" t="inlineStr">
@@ -56380,7 +56380,7 @@
         <v>0</v>
       </c>
       <c r="T656" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U656" t="n">
         <v>1975</v>
@@ -56431,7 +56431,7 @@
       </c>
       <c r="J657" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K657" t="inlineStr">
@@ -56468,7 +56468,7 @@
         <v>0</v>
       </c>
       <c r="T657" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U657" t="n">
         <v>2077</v>
@@ -56519,7 +56519,7 @@
       </c>
       <c r="J658" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K658" t="inlineStr">
@@ -56556,7 +56556,7 @@
         <v>0</v>
       </c>
       <c r="T658" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U658" t="n">
         <v>2077</v>
@@ -56607,7 +56607,7 @@
       </c>
       <c r="J659" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K659" t="inlineStr">
@@ -56644,7 +56644,7 @@
         <v>0</v>
       </c>
       <c r="T659" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U659" t="n">
         <v>1975</v>
@@ -56695,7 +56695,7 @@
       </c>
       <c r="J660" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K660" t="inlineStr">
@@ -56732,7 +56732,7 @@
         <v>0</v>
       </c>
       <c r="T660" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U660" t="n">
         <v>1975</v>
@@ -56783,7 +56783,7 @@
       </c>
       <c r="J661" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K661" t="inlineStr">
@@ -56820,7 +56820,7 @@
         <v>0</v>
       </c>
       <c r="T661" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U661" t="n">
         <v>1975</v>
@@ -56871,7 +56871,7 @@
       </c>
       <c r="J662" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K662" t="inlineStr">
@@ -56908,7 +56908,7 @@
         <v>0</v>
       </c>
       <c r="T662" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U662" t="n">
         <v>1975</v>
@@ -56959,7 +56959,7 @@
       </c>
       <c r="J663" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K663" t="inlineStr">
@@ -56996,7 +56996,7 @@
         <v>0</v>
       </c>
       <c r="T663" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U663" t="n">
         <v>2077</v>
@@ -57047,7 +57047,7 @@
       </c>
       <c r="J664" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K664" t="inlineStr">
@@ -57084,7 +57084,7 @@
         <v>0</v>
       </c>
       <c r="T664" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U664" t="n">
         <v>2077</v>
@@ -57135,7 +57135,7 @@
       </c>
       <c r="J665" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K665" t="inlineStr">
@@ -57172,7 +57172,7 @@
         <v>0</v>
       </c>
       <c r="T665" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U665" t="n">
         <v>1975</v>
@@ -57223,7 +57223,7 @@
       </c>
       <c r="J666" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K666" t="inlineStr">
@@ -57260,7 +57260,7 @@
         <v>0</v>
       </c>
       <c r="T666" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U666" t="n">
         <v>1975</v>
@@ -57297,7 +57297,7 @@
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr">
         <is>
-          <t>['Belgium', 'Slovakia', 'Romania']</t>
+          <t>['Slovakia', 'Romania', 'Belgium']</t>
         </is>
       </c>
       <c r="K667" t="inlineStr">
@@ -57323,11 +57323,11 @@
       </c>
       <c r="P667" t="inlineStr"/>
       <c r="Q667" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R667" t="inlineStr">
         <is>
-          <t>['Romania', 'Belgium']</t>
+          <t>['Romania', 'Belgium', 'Slovakia']</t>
         </is>
       </c>
       <c r="S667" t="n">
@@ -57377,7 +57377,7 @@
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr">
         <is>
-          <t>['Belgium', 'Slovakia', 'Romania']</t>
+          <t>['Slovakia', 'Romania', 'Belgium']</t>
         </is>
       </c>
       <c r="K668" t="inlineStr">
@@ -57403,11 +57403,11 @@
       </c>
       <c r="P668" t="inlineStr"/>
       <c r="Q668" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R668" t="inlineStr">
         <is>
-          <t>['Romania', 'Belgium']</t>
+          <t>['Romania', 'Belgium', 'Slovakia']</t>
         </is>
       </c>
       <c r="S668" t="n">
@@ -57465,7 +57465,7 @@
       </c>
       <c r="J669" t="inlineStr">
         <is>
-          <t>['Belgium', 'Slovakia', 'Ukraine']</t>
+          <t>['Slovakia', 'Belgium', 'Ukraine']</t>
         </is>
       </c>
       <c r="K669" t="inlineStr">
@@ -57553,7 +57553,7 @@
       </c>
       <c r="J670" t="inlineStr">
         <is>
-          <t>['Belgium', 'Slovakia', 'Romania']</t>
+          <t>['Slovakia', 'Romania', 'Belgium']</t>
         </is>
       </c>
       <c r="K670" t="inlineStr">
@@ -57627,7 +57627,7 @@
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Turkey', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic', 'Turkey']</t>
         </is>
       </c>
       <c r="K671" t="inlineStr">
@@ -57653,11 +57653,11 @@
       </c>
       <c r="P671" t="inlineStr"/>
       <c r="Q671" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R671" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Czech Republic']</t>
+          <t>['Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="S671" t="n">
@@ -57707,7 +57707,7 @@
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Turkey', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic', 'Turkey']</t>
         </is>
       </c>
       <c r="K672" t="inlineStr">
@@ -57733,11 +57733,11 @@
       </c>
       <c r="P672" t="inlineStr"/>
       <c r="Q672" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R672" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Czech Republic']</t>
+          <t>['Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="S672" t="n">
@@ -57781,7 +57781,7 @@
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Turkey', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic', 'Turkey']</t>
         </is>
       </c>
       <c r="K673" t="inlineStr">
@@ -57807,11 +57807,11 @@
       </c>
       <c r="P673" t="inlineStr"/>
       <c r="Q673" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R673" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Czech Republic']</t>
+          <t>['Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="S673" t="n">
@@ -57861,7 +57861,7 @@
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Turkey', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic', 'Turkey']</t>
         </is>
       </c>
       <c r="K674" t="inlineStr">
@@ -57887,11 +57887,11 @@
       </c>
       <c r="P674" t="inlineStr"/>
       <c r="Q674" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R674" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Czech Republic']</t>
+          <t>['Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="S674" t="n">
@@ -57949,7 +57949,7 @@
       </c>
       <c r="J675" t="inlineStr">
         <is>
-          <t>['Turkey', 'Georgia', 'Portugal']</t>
+          <t>['Portugal', 'Georgia', 'Turkey']</t>
         </is>
       </c>
       <c r="K675" t="inlineStr">
@@ -58041,7 +58041,7 @@
       </c>
       <c r="J676" t="inlineStr">
         <is>
-          <t>['Turkey', 'Georgia', 'Portugal']</t>
+          <t>['Portugal', 'Georgia', 'Turkey']</t>
         </is>
       </c>
       <c r="K676" t="inlineStr">
@@ -58133,7 +58133,7 @@
       </c>
       <c r="J677" t="inlineStr">
         <is>
-          <t>['Turkey', 'Georgia', 'Portugal']</t>
+          <t>['Portugal', 'Georgia', 'Turkey']</t>
         </is>
       </c>
       <c r="K677" t="inlineStr">
@@ -58221,7 +58221,7 @@
       </c>
       <c r="J678" t="inlineStr">
         <is>
-          <t>['Turkey', 'Georgia', 'Portugal']</t>
+          <t>['Portugal', 'Georgia', 'Turkey']</t>
         </is>
       </c>
       <c r="K678" t="inlineStr">
@@ -58309,7 +58309,7 @@
       </c>
       <c r="J679" t="inlineStr">
         <is>
-          <t>['Turkey', 'Georgia', 'Portugal']</t>
+          <t>['Portugal', 'Georgia', 'Turkey']</t>
         </is>
       </c>
       <c r="K679" t="inlineStr">
@@ -58397,7 +58397,7 @@
       </c>
       <c r="J680" t="inlineStr">
         <is>
-          <t>['Turkey', 'Georgia', 'Portugal']</t>
+          <t>['Portugal', 'Georgia', 'Turkey']</t>
         </is>
       </c>
       <c r="K680" t="inlineStr">
@@ -58485,7 +58485,7 @@
       </c>
       <c r="J681" t="inlineStr">
         <is>
-          <t>['Turkey', 'Georgia', 'Portugal']</t>
+          <t>['Portugal', 'Georgia', 'Turkey']</t>
         </is>
       </c>
       <c r="K681" t="inlineStr">
@@ -58577,7 +58577,7 @@
       </c>
       <c r="J682" t="inlineStr">
         <is>
-          <t>['Turkey', 'Georgia', 'Portugal']</t>
+          <t>['Portugal', 'Georgia', 'Turkey']</t>
         </is>
       </c>
       <c r="K682" t="inlineStr">
@@ -58669,7 +58669,7 @@
       </c>
       <c r="J683" t="inlineStr">
         <is>
-          <t>['Turkey', 'Georgia', 'Portugal']</t>
+          <t>['Portugal', 'Georgia', 'Turkey']</t>
         </is>
       </c>
       <c r="K683" t="inlineStr">
@@ -58757,7 +58757,7 @@
       </c>
       <c r="J684" t="inlineStr">
         <is>
-          <t>['Turkey', 'Georgia', 'Portugal']</t>
+          <t>['Portugal', 'Georgia', 'Turkey']</t>
         </is>
       </c>
       <c r="K684" t="inlineStr">

--- a/data/out/wiki/men/fifa/eu/goals_eu_fifa_men.xlsx
+++ b/data/out/wiki/men/fifa/eu/goals_eu_fifa_men.xlsx
@@ -573,7 +573,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -643,7 +643,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -1607,7 +1607,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1871,7 +1871,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1959,7 +1959,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -2047,7 +2047,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -2135,7 +2135,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2223,7 +2223,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2399,7 +2399,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2473,7 +2473,7 @@
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['West Germany', 'Spain']</t>
+          <t>['Spain', 'West Germany']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2553,7 +2553,7 @@
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['West Germany', 'Spain']</t>
+          <t>['Spain', 'West Germany']</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2637,7 +2637,7 @@
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>['West Germany', 'Spain']</t>
+          <t>['Spain', 'West Germany']</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2711,7 +2711,7 @@
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['West Germany', 'Spain']</t>
+          <t>['Spain', 'West Germany']</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2791,7 +2791,7 @@
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>['West Germany', 'Spain']</t>
+          <t>['Spain', 'West Germany']</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2875,7 +2875,7 @@
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['West Germany', 'Spain']</t>
+          <t>['Spain', 'West Germany']</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -3309,7 +3309,7 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -3389,7 +3389,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -3477,7 +3477,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3555,7 +3555,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3635,7 +3635,7 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3723,7 +3723,7 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3815,7 +3815,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3903,7 +3903,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -4079,7 +4079,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -4167,7 +4167,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -4255,7 +4255,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -4343,7 +4343,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -4431,7 +4431,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -4505,7 +4505,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -4585,7 +4585,7 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -4663,7 +4663,7 @@
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -4743,7 +4743,7 @@
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4835,7 +4835,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -4927,7 +4927,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -5019,7 +5019,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -5111,7 +5111,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -5203,7 +5203,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -5295,7 +5295,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -5387,7 +5387,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -5479,7 +5479,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -5571,7 +5571,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Netherlands']</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -5659,7 +5659,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Netherlands']</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -5733,7 +5733,7 @@
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>['Sweden', 'France']</t>
+          <t>['France', 'Sweden']</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -5803,7 +5803,7 @@
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>['Sweden', 'France']</t>
+          <t>['France', 'Sweden']</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -6239,7 +6239,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -6327,7 +6327,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -6415,7 +6415,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>['Sweden', 'France']</t>
+          <t>['France', 'Sweden']</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -6503,7 +6503,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>['Sweden', 'France']</t>
+          <t>['France', 'Sweden']</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -6591,7 +6591,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -6679,7 +6679,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -6767,7 +6767,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -6855,7 +6855,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -9841,7 +9841,7 @@
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr">
         <is>
-          <t>['France', 'Bulgaria']</t>
+          <t>['Bulgaria', 'France']</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -9911,7 +9911,7 @@
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr">
         <is>
-          <t>['France', 'Bulgaria']</t>
+          <t>['Bulgaria', 'France']</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -9995,7 +9995,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Spain']</t>
+          <t>['Spain', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -10083,7 +10083,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Spain']</t>
+          <t>['Spain', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -10171,7 +10171,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>['France', 'Spain']</t>
+          <t>['Spain', 'France']</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -10259,7 +10259,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>['France', 'Spain']</t>
+          <t>['Spain', 'France']</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -10347,7 +10347,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>['France', 'Bulgaria']</t>
+          <t>['Bulgaria', 'France']</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -10435,7 +10435,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>['France', 'Bulgaria']</t>
+          <t>['Bulgaria', 'France']</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -10523,7 +10523,7 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>['France', 'Bulgaria']</t>
+          <t>['Bulgaria', 'France']</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -10611,7 +10611,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>['France', 'Bulgaria']</t>
+          <t>['Bulgaria', 'France']</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -10699,7 +10699,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>['France', 'Bulgaria']</t>
+          <t>['Bulgaria', 'France']</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -10787,7 +10787,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>['France', 'Bulgaria']</t>
+          <t>['Bulgaria', 'France']</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -10875,7 +10875,7 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>['France', 'Spain']</t>
+          <t>['Spain', 'France']</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -10963,7 +10963,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>['France', 'Spain']</t>
+          <t>['Spain', 'France']</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -11051,7 +11051,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>['France', 'Spain']</t>
+          <t>['Spain', 'France']</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -11139,7 +11139,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>['France', 'Spain']</t>
+          <t>['Spain', 'France']</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -11535,7 +11535,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -11627,7 +11627,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -11719,7 +11719,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -11811,7 +11811,7 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -11903,7 +11903,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -11995,7 +11995,7 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -14133,7 +14133,7 @@
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -14213,7 +14213,7 @@
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -14291,7 +14291,7 @@
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -14371,7 +14371,7 @@
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -14463,7 +14463,7 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>['Portugal', 'Romania']</t>
+          <t>['Romania', 'Portugal']</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -14551,7 +14551,7 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>['Portugal', 'Romania']</t>
+          <t>['Romania', 'Portugal']</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -14639,7 +14639,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>['Portugal', 'Romania']</t>
+          <t>['Romania', 'Portugal']</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -14727,7 +14727,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>['Portugal', 'Romania']</t>
+          <t>['Romania', 'Portugal']</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -14815,7 +14815,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -14907,7 +14907,7 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -14999,7 +14999,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -15087,7 +15087,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -15175,7 +15175,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -15267,7 +15267,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -15359,7 +15359,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -15451,7 +15451,7 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -15543,7 +15543,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -15635,7 +15635,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -15727,7 +15727,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>['Portugal', 'Romania']</t>
+          <t>['Romania', 'Portugal']</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -15815,7 +15815,7 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>['Portugal', 'Romania']</t>
+          <t>['Romania', 'Portugal']</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -17093,7 +17093,7 @@
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Spain']</t>
+          <t>['Spain', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -17173,7 +17173,7 @@
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Spain']</t>
+          <t>['Spain', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -17247,7 +17247,7 @@
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Spain']</t>
+          <t>['Spain', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -17327,7 +17327,7 @@
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Spain']</t>
+          <t>['Spain', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -17591,7 +17591,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Spain']</t>
+          <t>['Spain', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -17679,7 +17679,7 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Spain']</t>
+          <t>['Spain', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -17943,7 +17943,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Spain']</t>
+          <t>['Spain', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -18031,7 +18031,7 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Spain']</t>
+          <t>['Spain', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -18295,7 +18295,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Spain']</t>
+          <t>['Spain', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -18383,7 +18383,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Spain']</t>
+          <t>['Spain', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -18471,7 +18471,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Spain']</t>
+          <t>['Spain', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -18559,7 +18559,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Spain']</t>
+          <t>['Spain', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -18633,7 +18633,7 @@
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -18713,7 +18713,7 @@
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -18787,7 +18787,7 @@
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -18867,7 +18867,7 @@
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -18955,7 +18955,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -19043,7 +19043,7 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -19131,7 +19131,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -19219,7 +19219,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -19307,7 +19307,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -19395,7 +19395,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -19483,7 +19483,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -19571,7 +19571,7 @@
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -19659,7 +19659,7 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -19747,7 +19747,7 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -19835,7 +19835,7 @@
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -19923,7 +19923,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -20011,7 +20011,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -20099,7 +20099,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -20173,7 +20173,7 @@
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr">
         <is>
-          <t>['Greece', 'Spain']</t>
+          <t>['Spain', 'Greece']</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -20253,7 +20253,7 @@
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr">
         <is>
-          <t>['Greece', 'Spain']</t>
+          <t>['Spain', 'Greece']</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -20327,7 +20327,7 @@
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr">
         <is>
-          <t>['Greece', 'Spain']</t>
+          <t>['Spain', 'Greece']</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -20407,7 +20407,7 @@
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr">
         <is>
-          <t>['Greece', 'Spain']</t>
+          <t>['Spain', 'Greece']</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -23085,7 +23085,7 @@
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -23155,7 +23155,7 @@
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -23239,7 +23239,7 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -23327,7 +23327,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -23415,7 +23415,7 @@
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -23503,7 +23503,7 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -23591,7 +23591,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -23679,7 +23679,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -23767,7 +23767,7 @@
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -23855,7 +23855,7 @@
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -23943,7 +23943,7 @@
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -24031,7 +24031,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -24119,7 +24119,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -24207,7 +24207,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -24295,7 +24295,7 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -24383,7 +24383,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -24457,7 +24457,7 @@
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
@@ -24537,7 +24537,7 @@
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -24611,7 +24611,7 @@
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -24691,7 +24691,7 @@
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -24779,7 +24779,7 @@
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
@@ -24867,7 +24867,7 @@
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -24955,7 +24955,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -25043,7 +25043,7 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -25131,7 +25131,7 @@
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
@@ -25219,7 +25219,7 @@
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
@@ -25307,7 +25307,7 @@
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
@@ -25395,7 +25395,7 @@
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
@@ -25483,7 +25483,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -25571,7 +25571,7 @@
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -25659,7 +25659,7 @@
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="K294" t="inlineStr">
@@ -25747,7 +25747,7 @@
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="K295" t="inlineStr">
@@ -25821,7 +25821,7 @@
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K296" t="inlineStr">
@@ -25901,7 +25901,7 @@
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -25975,7 +25975,7 @@
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -26055,7 +26055,7 @@
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -26143,7 +26143,7 @@
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
@@ -26231,7 +26231,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -26319,7 +26319,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -26407,7 +26407,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -26495,7 +26495,7 @@
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K304" t="inlineStr">
@@ -26583,7 +26583,7 @@
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -26671,7 +26671,7 @@
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K306" t="inlineStr">
@@ -26759,7 +26759,7 @@
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -26847,7 +26847,7 @@
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -26935,7 +26935,7 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -27023,7 +27023,7 @@
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -27111,7 +27111,7 @@
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -27361,7 +27361,7 @@
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -27441,7 +27441,7 @@
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -27525,7 +27525,7 @@
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="K316" t="inlineStr">
@@ -27599,7 +27599,7 @@
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
@@ -27679,7 +27679,7 @@
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -27763,7 +27763,7 @@
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="K319" t="inlineStr">
@@ -27851,7 +27851,7 @@
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="K320" t="inlineStr">
@@ -27939,7 +27939,7 @@
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="K321" t="inlineStr">
@@ -28027,7 +28027,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
@@ -28115,7 +28115,7 @@
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
@@ -28189,7 +28189,7 @@
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Romania']</t>
+          <t>['Romania', 'Netherlands']</t>
         </is>
       </c>
       <c r="K324" t="inlineStr">
@@ -28269,7 +28269,7 @@
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Romania']</t>
+          <t>['Romania', 'Netherlands']</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
@@ -28353,7 +28353,7 @@
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Romania']</t>
+          <t>['Romania', 'Netherlands']</t>
         </is>
       </c>
       <c r="K326" t="inlineStr">
@@ -28427,7 +28427,7 @@
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Romania']</t>
+          <t>['Romania', 'Netherlands']</t>
         </is>
       </c>
       <c r="K327" t="inlineStr">
@@ -28507,7 +28507,7 @@
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Romania']</t>
+          <t>['Romania', 'Netherlands']</t>
         </is>
       </c>
       <c r="K328" t="inlineStr">
@@ -28591,7 +28591,7 @@
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Romania']</t>
+          <t>['Romania', 'Netherlands']</t>
         </is>
       </c>
       <c r="K329" t="inlineStr">
@@ -28679,7 +28679,7 @@
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="K330" t="inlineStr">
@@ -28767,7 +28767,7 @@
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="K331" t="inlineStr">
@@ -28855,7 +28855,7 @@
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="K332" t="inlineStr">
@@ -28943,7 +28943,7 @@
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="K333" t="inlineStr">
@@ -29031,7 +29031,7 @@
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="K334" t="inlineStr">
@@ -29119,7 +29119,7 @@
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="K335" t="inlineStr">
@@ -29207,7 +29207,7 @@
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="K336" t="inlineStr">
@@ -29295,7 +29295,7 @@
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="K337" t="inlineStr">
@@ -29369,7 +29369,7 @@
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K338" t="inlineStr">
@@ -29449,7 +29449,7 @@
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K339" t="inlineStr">
@@ -29523,7 +29523,7 @@
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K340" t="inlineStr">
@@ -29603,7 +29603,7 @@
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K341" t="inlineStr">
@@ -29691,7 +29691,7 @@
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="K342" t="inlineStr">
@@ -29779,7 +29779,7 @@
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="K343" t="inlineStr">
@@ -29867,7 +29867,7 @@
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="K344" t="inlineStr">
@@ -29955,7 +29955,7 @@
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="K345" t="inlineStr">
@@ -30043,7 +30043,7 @@
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="K346" t="inlineStr">
@@ -30131,7 +30131,7 @@
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="K347" t="inlineStr">
@@ -30219,7 +30219,7 @@
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
@@ -30307,7 +30307,7 @@
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="K349" t="inlineStr">
@@ -30395,7 +30395,7 @@
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="K350" t="inlineStr">
@@ -30483,7 +30483,7 @@
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="K351" t="inlineStr">
@@ -30557,7 +30557,7 @@
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr">
         <is>
-          <t>['Russia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Russia']</t>
         </is>
       </c>
       <c r="K352" t="inlineStr">
@@ -30637,7 +30637,7 @@
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr">
         <is>
-          <t>['Russia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Russia']</t>
         </is>
       </c>
       <c r="K353" t="inlineStr">
@@ -30721,7 +30721,7 @@
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr">
         <is>
-          <t>['Russia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Russia']</t>
         </is>
       </c>
       <c r="K354" t="inlineStr">
@@ -30795,7 +30795,7 @@
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr">
         <is>
-          <t>['Russia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Russia']</t>
         </is>
       </c>
       <c r="K355" t="inlineStr">
@@ -30875,7 +30875,7 @@
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr">
         <is>
-          <t>['Russia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Russia']</t>
         </is>
       </c>
       <c r="K356" t="inlineStr">
@@ -30959,7 +30959,7 @@
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr">
         <is>
-          <t>['Russia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Russia']</t>
         </is>
       </c>
       <c r="K357" t="inlineStr">
@@ -31223,7 +31223,7 @@
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>['Russia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Russia']</t>
         </is>
       </c>
       <c r="K360" t="inlineStr">
@@ -31311,7 +31311,7 @@
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>['Russia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Russia']</t>
         </is>
       </c>
       <c r="K361" t="inlineStr">
@@ -31539,7 +31539,7 @@
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>['Germany', 'Denmark']</t>
+          <t>['Denmark', 'Germany']</t>
         </is>
       </c>
       <c r="K364" t="inlineStr">
@@ -31627,7 +31627,7 @@
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>['Germany', 'Denmark']</t>
+          <t>['Denmark', 'Germany']</t>
         </is>
       </c>
       <c r="K365" t="inlineStr">
@@ -31891,7 +31891,7 @@
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>['Germany', 'Denmark']</t>
+          <t>['Denmark', 'Germany']</t>
         </is>
       </c>
       <c r="K368" t="inlineStr">
@@ -31979,7 +31979,7 @@
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>['Germany', 'Denmark']</t>
+          <t>['Denmark', 'Germany']</t>
         </is>
       </c>
       <c r="K369" t="inlineStr">
@@ -32589,7 +32589,7 @@
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K376" t="inlineStr">
@@ -32669,7 +32669,7 @@
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K377" t="inlineStr">
@@ -32753,7 +32753,7 @@
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K378" t="inlineStr">
@@ -32827,7 +32827,7 @@
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K379" t="inlineStr">
@@ -32907,7 +32907,7 @@
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K380" t="inlineStr">
@@ -32991,7 +32991,7 @@
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K381" t="inlineStr">
@@ -33079,7 +33079,7 @@
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain']</t>
+          <t>['Spain', 'Italy']</t>
         </is>
       </c>
       <c r="K382" t="inlineStr">
@@ -33167,7 +33167,7 @@
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain']</t>
+          <t>['Spain', 'Italy']</t>
         </is>
       </c>
       <c r="K383" t="inlineStr">
@@ -33255,7 +33255,7 @@
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain']</t>
+          <t>['Spain', 'Italy']</t>
         </is>
       </c>
       <c r="K384" t="inlineStr">
@@ -33343,7 +33343,7 @@
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain']</t>
+          <t>['Spain', 'Italy']</t>
         </is>
       </c>
       <c r="K385" t="inlineStr">
@@ -33431,7 +33431,7 @@
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain']</t>
+          <t>['Spain', 'Italy']</t>
         </is>
       </c>
       <c r="K386" t="inlineStr">
@@ -33519,7 +33519,7 @@
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain']</t>
+          <t>['Spain', 'Italy']</t>
         </is>
       </c>
       <c r="K387" t="inlineStr">
@@ -34597,7 +34597,7 @@
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Romania', 'France']</t>
+          <t>['Romania', 'France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K400" t="inlineStr">
@@ -34677,7 +34677,7 @@
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Romania', 'France']</t>
+          <t>['Romania', 'France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K401" t="inlineStr">
@@ -34761,7 +34761,7 @@
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Romania', 'France']</t>
+          <t>['Romania', 'France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K402" t="inlineStr">
@@ -34849,7 +34849,7 @@
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France', 'Albania']</t>
+          <t>['Albania', 'France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K403" t="inlineStr">
@@ -36771,7 +36771,7 @@
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'Spain']</t>
+          <t>['Czech Republic', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K426" t="inlineStr">
@@ -36851,7 +36851,7 @@
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'Spain']</t>
+          <t>['Czech Republic', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K427" t="inlineStr">
@@ -36925,7 +36925,7 @@
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'Spain']</t>
+          <t>['Czech Republic', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K428" t="inlineStr">
@@ -37005,7 +37005,7 @@
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'Spain']</t>
+          <t>['Czech Republic', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K429" t="inlineStr">
@@ -37093,7 +37093,7 @@
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'Spain']</t>
+          <t>['Czech Republic', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K430" t="inlineStr">
@@ -37181,7 +37181,7 @@
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'Spain']</t>
+          <t>['Czech Republic', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K431" t="inlineStr">
@@ -37269,7 +37269,7 @@
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>['Turkey', 'Croatia', 'Spain']</t>
+          <t>['Turkey', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K432" t="inlineStr">
@@ -37357,7 +37357,7 @@
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>['Turkey', 'Croatia', 'Spain']</t>
+          <t>['Turkey', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K433" t="inlineStr">
@@ -37445,7 +37445,7 @@
       </c>
       <c r="J434" t="inlineStr">
         <is>
-          <t>['Turkey', 'Croatia', 'Spain']</t>
+          <t>['Turkey', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K434" t="inlineStr">
@@ -37533,7 +37533,7 @@
       </c>
       <c r="J435" t="inlineStr">
         <is>
-          <t>['Turkey', 'Croatia', 'Spain']</t>
+          <t>['Turkey', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K435" t="inlineStr">
@@ -37621,7 +37621,7 @@
       </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>['Turkey', 'Croatia', 'Spain']</t>
+          <t>['Turkey', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K436" t="inlineStr">
@@ -37709,7 +37709,7 @@
       </c>
       <c r="J437" t="inlineStr">
         <is>
-          <t>['Turkey', 'Croatia', 'Spain']</t>
+          <t>['Turkey', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K437" t="inlineStr">
@@ -37797,7 +37797,7 @@
       </c>
       <c r="J438" t="inlineStr">
         <is>
-          <t>['Turkey', 'Croatia', 'Spain']</t>
+          <t>['Turkey', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K438" t="inlineStr">
@@ -37885,7 +37885,7 @@
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>['Turkey', 'Croatia', 'Spain']</t>
+          <t>['Turkey', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K439" t="inlineStr">
@@ -37959,7 +37959,7 @@
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr">
         <is>
-          <t>['Sweden', 'Belgium', 'Italy']</t>
+          <t>['Belgium', 'Sweden', 'Italy']</t>
         </is>
       </c>
       <c r="K440" t="inlineStr">
@@ -38039,7 +38039,7 @@
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr">
         <is>
-          <t>['Sweden', 'Belgium', 'Italy']</t>
+          <t>['Belgium', 'Sweden', 'Italy']</t>
         </is>
       </c>
       <c r="K441" t="inlineStr">
@@ -38123,7 +38123,7 @@
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr">
         <is>
-          <t>['Sweden', 'Belgium', 'Italy']</t>
+          <t>['Belgium', 'Sweden', 'Italy']</t>
         </is>
       </c>
       <c r="K442" t="inlineStr">
@@ -38197,7 +38197,7 @@
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr">
         <is>
-          <t>['Sweden', 'Belgium', 'Italy']</t>
+          <t>['Belgium', 'Sweden', 'Italy']</t>
         </is>
       </c>
       <c r="K443" t="inlineStr">
@@ -38277,7 +38277,7 @@
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr">
         <is>
-          <t>['Sweden', 'Belgium', 'Italy']</t>
+          <t>['Belgium', 'Sweden', 'Italy']</t>
         </is>
       </c>
       <c r="K444" t="inlineStr">
@@ -38361,7 +38361,7 @@
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr">
         <is>
-          <t>['Sweden', 'Belgium', 'Italy']</t>
+          <t>['Belgium', 'Sweden', 'Italy']</t>
         </is>
       </c>
       <c r="K445" t="inlineStr">
@@ -38787,7 +38787,7 @@
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="K450" t="inlineStr">
@@ -38857,7 +38857,7 @@
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="K451" t="inlineStr">
@@ -38941,7 +38941,7 @@
       </c>
       <c r="J452" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="K452" t="inlineStr">
@@ -39029,7 +39029,7 @@
       </c>
       <c r="J453" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="K453" t="inlineStr">
@@ -39117,7 +39117,7 @@
       </c>
       <c r="J454" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="K454" t="inlineStr">
@@ -39205,7 +39205,7 @@
       </c>
       <c r="J455" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="K455" t="inlineStr">
@@ -39293,7 +39293,7 @@
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="K456" t="inlineStr">
@@ -39381,7 +39381,7 @@
       </c>
       <c r="J457" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="K457" t="inlineStr">
@@ -39469,7 +39469,7 @@
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="K458" t="inlineStr">
@@ -39557,7 +39557,7 @@
       </c>
       <c r="J459" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="K459" t="inlineStr">
@@ -39645,7 +39645,7 @@
       </c>
       <c r="J460" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="K460" t="inlineStr">
@@ -39733,7 +39733,7 @@
       </c>
       <c r="J461" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="K461" t="inlineStr">
@@ -39821,7 +39821,7 @@
       </c>
       <c r="J462" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="K462" t="inlineStr">
@@ -39909,7 +39909,7 @@
       </c>
       <c r="J463" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="K463" t="inlineStr">
@@ -39997,7 +39997,7 @@
       </c>
       <c r="J464" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="K464" t="inlineStr">
@@ -40085,7 +40085,7 @@
       </c>
       <c r="J465" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="K465" t="inlineStr">
@@ -40173,7 +40173,7 @@
       </c>
       <c r="J466" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="K466" t="inlineStr">
@@ -40261,7 +40261,7 @@
       </c>
       <c r="J467" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="K467" t="inlineStr">
@@ -40349,7 +40349,7 @@
       </c>
       <c r="J468" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="K468" t="inlineStr">
@@ -40437,7 +40437,7 @@
       </c>
       <c r="J469" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="K469" t="inlineStr">
@@ -40511,7 +40511,7 @@
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Wales', 'Switzerland', 'Italy']</t>
         </is>
       </c>
       <c r="K470" t="inlineStr">
@@ -40591,7 +40591,7 @@
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Wales', 'Switzerland', 'Italy']</t>
         </is>
       </c>
       <c r="K471" t="inlineStr">
@@ -40665,7 +40665,7 @@
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Wales', 'Switzerland', 'Italy']</t>
         </is>
       </c>
       <c r="K472" t="inlineStr">
@@ -40745,7 +40745,7 @@
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Wales', 'Switzerland', 'Italy']</t>
         </is>
       </c>
       <c r="K473" t="inlineStr">
@@ -40819,7 +40819,7 @@
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Wales', 'Switzerland', 'Italy']</t>
         </is>
       </c>
       <c r="K474" t="inlineStr">
@@ -40899,7 +40899,7 @@
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Wales', 'Switzerland', 'Italy']</t>
         </is>
       </c>
       <c r="K475" t="inlineStr">
@@ -40987,7 +40987,7 @@
       </c>
       <c r="J476" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Wales', 'Switzerland', 'Italy']</t>
         </is>
       </c>
       <c r="K476" t="inlineStr">
@@ -41075,7 +41075,7 @@
       </c>
       <c r="J477" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Wales', 'Switzerland', 'Italy']</t>
         </is>
       </c>
       <c r="K477" t="inlineStr">
@@ -41163,7 +41163,7 @@
       </c>
       <c r="J478" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Wales', 'Switzerland', 'Italy']</t>
         </is>
       </c>
       <c r="K478" t="inlineStr">
@@ -41251,7 +41251,7 @@
       </c>
       <c r="J479" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Wales', 'Switzerland', 'Italy']</t>
         </is>
       </c>
       <c r="K479" t="inlineStr">
@@ -41339,7 +41339,7 @@
       </c>
       <c r="J480" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Wales', 'Switzerland', 'Italy']</t>
         </is>
       </c>
       <c r="K480" t="inlineStr">
@@ -41427,7 +41427,7 @@
       </c>
       <c r="J481" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Wales', 'Switzerland', 'Italy']</t>
         </is>
       </c>
       <c r="K481" t="inlineStr">
@@ -41515,7 +41515,7 @@
       </c>
       <c r="J482" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Wales', 'Switzerland', 'Italy']</t>
         </is>
       </c>
       <c r="K482" t="inlineStr">
@@ -41603,7 +41603,7 @@
       </c>
       <c r="J483" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Wales', 'Switzerland', 'Italy']</t>
         </is>
       </c>
       <c r="K483" t="inlineStr">
@@ -41691,7 +41691,7 @@
       </c>
       <c r="J484" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Wales', 'Switzerland', 'Italy']</t>
         </is>
       </c>
       <c r="K484" t="inlineStr">
@@ -41779,7 +41779,7 @@
       </c>
       <c r="J485" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Wales', 'Switzerland', 'Italy']</t>
         </is>
       </c>
       <c r="K485" t="inlineStr">
@@ -41867,7 +41867,7 @@
       </c>
       <c r="J486" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Wales', 'Switzerland', 'Italy']</t>
         </is>
       </c>
       <c r="K486" t="inlineStr">
@@ -41955,7 +41955,7 @@
       </c>
       <c r="J487" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Wales', 'Switzerland', 'Italy']</t>
         </is>
       </c>
       <c r="K487" t="inlineStr">
@@ -42043,7 +42043,7 @@
       </c>
       <c r="J488" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Wales', 'Switzerland', 'Italy']</t>
         </is>
       </c>
       <c r="K488" t="inlineStr">
@@ -42131,7 +42131,7 @@
       </c>
       <c r="J489" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Wales', 'Switzerland', 'Italy']</t>
         </is>
       </c>
       <c r="K489" t="inlineStr">
@@ -42219,7 +42219,7 @@
       </c>
       <c r="J490" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Wales', 'Switzerland', 'Italy']</t>
         </is>
       </c>
       <c r="K490" t="inlineStr">
@@ -42923,7 +42923,7 @@
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Denmark']</t>
+          <t>['Denmark', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K499" t="inlineStr">
@@ -43011,7 +43011,7 @@
       </c>
       <c r="J500" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Denmark']</t>
+          <t>['Denmark', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K500" t="inlineStr">
@@ -43099,7 +43099,7 @@
       </c>
       <c r="J501" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Denmark']</t>
+          <t>['Denmark', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K501" t="inlineStr">
@@ -43187,7 +43187,7 @@
       </c>
       <c r="J502" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Denmark']</t>
+          <t>['Denmark', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K502" t="inlineStr">
@@ -43275,7 +43275,7 @@
       </c>
       <c r="J503" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Denmark']</t>
+          <t>['Denmark', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K503" t="inlineStr">
@@ -43363,7 +43363,7 @@
       </c>
       <c r="J504" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Denmark']</t>
+          <t>['Denmark', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K504" t="inlineStr">
@@ -43451,7 +43451,7 @@
       </c>
       <c r="J505" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Denmark']</t>
+          <t>['Denmark', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K505" t="inlineStr">
@@ -43539,7 +43539,7 @@
       </c>
       <c r="J506" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Denmark']</t>
+          <t>['Denmark', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K506" t="inlineStr">
@@ -43627,7 +43627,7 @@
       </c>
       <c r="J507" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Denmark']</t>
+          <t>['Denmark', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K507" t="inlineStr">
@@ -43715,7 +43715,7 @@
       </c>
       <c r="J508" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Denmark']</t>
+          <t>['Denmark', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K508" t="inlineStr">
@@ -43803,7 +43803,7 @@
       </c>
       <c r="J509" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Denmark']</t>
+          <t>['Denmark', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K509" t="inlineStr">
@@ -43891,7 +43891,7 @@
       </c>
       <c r="J510" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Denmark']</t>
+          <t>['Denmark', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K510" t="inlineStr">
@@ -43979,7 +43979,7 @@
       </c>
       <c r="J511" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium', 'Denmark']</t>
+          <t>['Denmark', 'Belgium', 'Russia']</t>
         </is>
       </c>
       <c r="K511" t="inlineStr">
@@ -44067,7 +44067,7 @@
       </c>
       <c r="J512" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium', 'Denmark']</t>
+          <t>['Denmark', 'Belgium', 'Russia']</t>
         </is>
       </c>
       <c r="K512" t="inlineStr">
@@ -44155,7 +44155,7 @@
       </c>
       <c r="J513" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium', 'Denmark']</t>
+          <t>['Denmark', 'Belgium', 'Russia']</t>
         </is>
       </c>
       <c r="K513" t="inlineStr">
@@ -44243,7 +44243,7 @@
       </c>
       <c r="J514" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium', 'Denmark']</t>
+          <t>['Denmark', 'Belgium', 'Russia']</t>
         </is>
       </c>
       <c r="K514" t="inlineStr">
@@ -44331,7 +44331,7 @@
       </c>
       <c r="J515" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Denmark', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K515" t="inlineStr">
@@ -44419,7 +44419,7 @@
       </c>
       <c r="J516" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Denmark', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K516" t="inlineStr">
@@ -44507,7 +44507,7 @@
       </c>
       <c r="J517" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Denmark', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K517" t="inlineStr">
@@ -44595,7 +44595,7 @@
       </c>
       <c r="J518" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Denmark', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K518" t="inlineStr">
@@ -44683,7 +44683,7 @@
       </c>
       <c r="J519" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Denmark', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K519" t="inlineStr">
@@ -44771,7 +44771,7 @@
       </c>
       <c r="J520" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Denmark', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K520" t="inlineStr">
@@ -44859,7 +44859,7 @@
       </c>
       <c r="J521" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Denmark', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K521" t="inlineStr">
@@ -44947,7 +44947,7 @@
       </c>
       <c r="J522" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Denmark', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K522" t="inlineStr">
@@ -45035,7 +45035,7 @@
       </c>
       <c r="J523" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Denmark', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K523" t="inlineStr">
@@ -45123,7 +45123,7 @@
       </c>
       <c r="J524" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Denmark', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K524" t="inlineStr">
@@ -45211,7 +45211,7 @@
       </c>
       <c r="J525" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Denmark', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K525" t="inlineStr">
@@ -45299,7 +45299,7 @@
       </c>
       <c r="J526" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Denmark', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K526" t="inlineStr">
@@ -45373,7 +45373,7 @@
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K527" t="inlineStr">
@@ -45453,7 +45453,7 @@
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K528" t="inlineStr">
@@ -45527,7 +45527,7 @@
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K529" t="inlineStr">
@@ -45607,7 +45607,7 @@
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K530" t="inlineStr">
@@ -45681,7 +45681,7 @@
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K531" t="inlineStr">
@@ -45761,7 +45761,7 @@
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K532" t="inlineStr">
@@ -45845,7 +45845,7 @@
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K533" t="inlineStr">
@@ -45929,7 +45929,7 @@
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K534" t="inlineStr">
@@ -46013,7 +46013,7 @@
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K535" t="inlineStr">
@@ -46101,7 +46101,7 @@
       </c>
       <c r="J536" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K536" t="inlineStr">
@@ -46189,7 +46189,7 @@
       </c>
       <c r="J537" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K537" t="inlineStr">
@@ -46277,7 +46277,7 @@
       </c>
       <c r="J538" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K538" t="inlineStr">
@@ -46365,7 +46365,7 @@
       </c>
       <c r="J539" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K539" t="inlineStr">
@@ -46453,7 +46453,7 @@
       </c>
       <c r="J540" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K540" t="inlineStr">
@@ -46541,7 +46541,7 @@
       </c>
       <c r="J541" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K541" t="inlineStr">
@@ -46629,7 +46629,7 @@
       </c>
       <c r="J542" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K542" t="inlineStr">
@@ -46717,7 +46717,7 @@
       </c>
       <c r="J543" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K543" t="inlineStr">
@@ -46805,7 +46805,7 @@
       </c>
       <c r="J544" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K544" t="inlineStr">
@@ -46893,7 +46893,7 @@
       </c>
       <c r="J545" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K545" t="inlineStr">
@@ -46981,7 +46981,7 @@
       </c>
       <c r="J546" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K546" t="inlineStr">
@@ -47069,7 +47069,7 @@
       </c>
       <c r="J547" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K547" t="inlineStr">
@@ -47143,7 +47143,7 @@
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr">
         <is>
-          <t>['England', 'Croatia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Croatia', 'England']</t>
         </is>
       </c>
       <c r="K548" t="inlineStr">
@@ -47223,7 +47223,7 @@
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr">
         <is>
-          <t>['England', 'Croatia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Croatia', 'England']</t>
         </is>
       </c>
       <c r="K549" t="inlineStr">
@@ -47297,7 +47297,7 @@
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr">
         <is>
-          <t>['England', 'Croatia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Croatia', 'England']</t>
         </is>
       </c>
       <c r="K550" t="inlineStr">
@@ -47377,7 +47377,7 @@
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr">
         <is>
-          <t>['England', 'Croatia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Croatia', 'England']</t>
         </is>
       </c>
       <c r="K551" t="inlineStr">
@@ -48331,7 +48331,7 @@
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K562" t="inlineStr">
@@ -48411,7 +48411,7 @@
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K563" t="inlineStr">
@@ -48485,7 +48485,7 @@
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K564" t="inlineStr">
@@ -48565,7 +48565,7 @@
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K565" t="inlineStr">
@@ -48639,7 +48639,7 @@
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K566" t="inlineStr">
@@ -48719,7 +48719,7 @@
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K567" t="inlineStr">
@@ -48793,7 +48793,7 @@
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K568" t="inlineStr">
@@ -48873,7 +48873,7 @@
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K569" t="inlineStr">
@@ -48961,7 +48961,7 @@
       </c>
       <c r="J570" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K570" t="inlineStr">
@@ -49049,7 +49049,7 @@
       </c>
       <c r="J571" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K571" t="inlineStr">
@@ -49137,7 +49137,7 @@
       </c>
       <c r="J572" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K572" t="inlineStr">
@@ -49225,7 +49225,7 @@
       </c>
       <c r="J573" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K573" t="inlineStr">
@@ -49313,7 +49313,7 @@
       </c>
       <c r="J574" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K574" t="inlineStr">
@@ -49401,7 +49401,7 @@
       </c>
       <c r="J575" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K575" t="inlineStr">
@@ -49489,7 +49489,7 @@
       </c>
       <c r="J576" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K576" t="inlineStr">
@@ -49577,7 +49577,7 @@
       </c>
       <c r="J577" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K577" t="inlineStr">
@@ -49665,7 +49665,7 @@
       </c>
       <c r="J578" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K578" t="inlineStr">
@@ -49753,7 +49753,7 @@
       </c>
       <c r="J579" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K579" t="inlineStr">
@@ -49841,7 +49841,7 @@
       </c>
       <c r="J580" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K580" t="inlineStr">
@@ -49929,7 +49929,7 @@
       </c>
       <c r="J581" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K581" t="inlineStr">
@@ -50017,7 +50017,7 @@
       </c>
       <c r="J582" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K582" t="inlineStr">
@@ -50105,7 +50105,7 @@
       </c>
       <c r="J583" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K583" t="inlineStr">
@@ -50193,7 +50193,7 @@
       </c>
       <c r="J584" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K584" t="inlineStr">
@@ -50281,7 +50281,7 @@
       </c>
       <c r="J585" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K585" t="inlineStr">
@@ -50369,7 +50369,7 @@
       </c>
       <c r="J586" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K586" t="inlineStr">
@@ -50457,7 +50457,7 @@
       </c>
       <c r="J587" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K587" t="inlineStr">
@@ -50545,7 +50545,7 @@
       </c>
       <c r="J588" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K588" t="inlineStr">
@@ -50633,7 +50633,7 @@
       </c>
       <c r="J589" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K589" t="inlineStr">
@@ -50721,7 +50721,7 @@
       </c>
       <c r="J590" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K590" t="inlineStr">
@@ -50809,7 +50809,7 @@
       </c>
       <c r="J591" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K591" t="inlineStr">
@@ -50897,7 +50897,7 @@
       </c>
       <c r="J592" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K592" t="inlineStr">
@@ -50985,7 +50985,7 @@
       </c>
       <c r="J593" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K593" t="inlineStr">
@@ -51073,7 +51073,7 @@
       </c>
       <c r="J594" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K594" t="inlineStr">
@@ -51161,7 +51161,7 @@
       </c>
       <c r="J595" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K595" t="inlineStr">
@@ -51249,7 +51249,7 @@
       </c>
       <c r="J596" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K596" t="inlineStr">
@@ -51337,7 +51337,7 @@
       </c>
       <c r="J597" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K597" t="inlineStr">
@@ -51425,7 +51425,7 @@
       </c>
       <c r="J598" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K598" t="inlineStr">
@@ -51513,7 +51513,7 @@
       </c>
       <c r="J599" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K599" t="inlineStr">
@@ -51601,7 +51601,7 @@
       </c>
       <c r="J600" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K600" t="inlineStr">
@@ -51689,7 +51689,7 @@
       </c>
       <c r="J601" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K601" t="inlineStr">
@@ -51777,7 +51777,7 @@
       </c>
       <c r="J602" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K602" t="inlineStr">
@@ -51865,7 +51865,7 @@
       </c>
       <c r="J603" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K603" t="inlineStr">
@@ -51953,7 +51953,7 @@
       </c>
       <c r="J604" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K604" t="inlineStr">
@@ -52041,7 +52041,7 @@
       </c>
       <c r="J605" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K605" t="inlineStr">
@@ -52129,7 +52129,7 @@
       </c>
       <c r="J606" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K606" t="inlineStr">
@@ -52217,7 +52217,7 @@
       </c>
       <c r="J607" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K607" t="inlineStr">
@@ -52305,7 +52305,7 @@
       </c>
       <c r="J608" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K608" t="inlineStr">
@@ -52393,7 +52393,7 @@
       </c>
       <c r="J609" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K609" t="inlineStr">
@@ -52467,7 +52467,7 @@
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany', 'France']</t>
+          <t>['Portugal', 'France', 'Germany']</t>
         </is>
       </c>
       <c r="K610" t="inlineStr">
@@ -52537,7 +52537,7 @@
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany', 'France']</t>
+          <t>['Portugal', 'France', 'Germany']</t>
         </is>
       </c>
       <c r="K611" t="inlineStr">
@@ -52621,7 +52621,7 @@
       </c>
       <c r="J612" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="K612" t="inlineStr">
@@ -52709,7 +52709,7 @@
       </c>
       <c r="J613" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="K613" t="inlineStr">
@@ -52797,7 +52797,7 @@
       </c>
       <c r="J614" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="K614" t="inlineStr">
@@ -52885,7 +52885,7 @@
       </c>
       <c r="J615" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="K615" t="inlineStr">
@@ -52973,7 +52973,7 @@
       </c>
       <c r="J616" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="K616" t="inlineStr">
@@ -53061,7 +53061,7 @@
       </c>
       <c r="J617" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'France']</t>
+          <t>['Portugal', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="K617" t="inlineStr">
@@ -53149,7 +53149,7 @@
       </c>
       <c r="J618" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="K618" t="inlineStr">
@@ -53237,7 +53237,7 @@
       </c>
       <c r="J619" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'France']</t>
+          <t>['Portugal', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="K619" t="inlineStr">
@@ -53325,7 +53325,7 @@
       </c>
       <c r="J620" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="K620" t="inlineStr">
@@ -53413,7 +53413,7 @@
       </c>
       <c r="J621" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="K621" t="inlineStr">
@@ -53501,7 +53501,7 @@
       </c>
       <c r="J622" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany', 'France']</t>
+          <t>['Portugal', 'France', 'Germany']</t>
         </is>
       </c>
       <c r="K622" t="inlineStr">
@@ -53589,7 +53589,7 @@
       </c>
       <c r="J623" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany', 'France']</t>
+          <t>['Portugal', 'France', 'Germany']</t>
         </is>
       </c>
       <c r="K623" t="inlineStr">
@@ -53677,7 +53677,7 @@
       </c>
       <c r="J624" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="K624" t="inlineStr">
@@ -53765,7 +53765,7 @@
       </c>
       <c r="J625" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="K625" t="inlineStr">
@@ -53853,7 +53853,7 @@
       </c>
       <c r="J626" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany', 'France']</t>
+          <t>['Portugal', 'France', 'Germany']</t>
         </is>
       </c>
       <c r="K626" t="inlineStr">
@@ -53941,7 +53941,7 @@
       </c>
       <c r="J627" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany', 'France']</t>
+          <t>['Portugal', 'France', 'Germany']</t>
         </is>
       </c>
       <c r="K627" t="inlineStr">
@@ -54015,7 +54015,7 @@
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Scotland']</t>
+          <t>['Scotland', 'Germany', 'Switzerland']</t>
         </is>
       </c>
       <c r="K628" t="inlineStr">
@@ -54095,7 +54095,7 @@
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Scotland']</t>
+          <t>['Scotland', 'Germany', 'Switzerland']</t>
         </is>
       </c>
       <c r="K629" t="inlineStr">
@@ -54169,7 +54169,7 @@
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Scotland']</t>
+          <t>['Scotland', 'Germany', 'Switzerland']</t>
         </is>
       </c>
       <c r="K630" t="inlineStr">
@@ -54249,7 +54249,7 @@
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Scotland']</t>
+          <t>['Scotland', 'Germany', 'Switzerland']</t>
         </is>
       </c>
       <c r="K631" t="inlineStr">
@@ -54337,7 +54337,7 @@
       </c>
       <c r="J632" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Scotland']</t>
+          <t>['Scotland', 'Germany', 'Switzerland']</t>
         </is>
       </c>
       <c r="K632" t="inlineStr">
@@ -54425,7 +54425,7 @@
       </c>
       <c r="J633" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Scotland']</t>
+          <t>['Scotland', 'Germany', 'Switzerland']</t>
         </is>
       </c>
       <c r="K633" t="inlineStr">
@@ -54513,7 +54513,7 @@
       </c>
       <c r="J634" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Scotland']</t>
+          <t>['Scotland', 'Germany', 'Switzerland']</t>
         </is>
       </c>
       <c r="K634" t="inlineStr">
@@ -54601,7 +54601,7 @@
       </c>
       <c r="J635" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Scotland']</t>
+          <t>['Scotland', 'Germany', 'Switzerland']</t>
         </is>
       </c>
       <c r="K635" t="inlineStr">
@@ -54689,7 +54689,7 @@
       </c>
       <c r="J636" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Hungary']</t>
+          <t>['Hungary', 'Germany', 'Switzerland']</t>
         </is>
       </c>
       <c r="K636" t="inlineStr">
@@ -54777,7 +54777,7 @@
       </c>
       <c r="J637" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Hungary']</t>
+          <t>['Hungary', 'Germany', 'Switzerland']</t>
         </is>
       </c>
       <c r="K637" t="inlineStr">
@@ -54851,7 +54851,7 @@
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain', 'Albania']</t>
+          <t>['Albania', 'Spain', 'Italy']</t>
         </is>
       </c>
       <c r="K638" t="inlineStr">
@@ -54931,7 +54931,7 @@
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain', 'Albania']</t>
+          <t>['Albania', 'Spain', 'Italy']</t>
         </is>
       </c>
       <c r="K639" t="inlineStr">
@@ -55005,7 +55005,7 @@
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain', 'Albania']</t>
+          <t>['Albania', 'Spain', 'Italy']</t>
         </is>
       </c>
       <c r="K640" t="inlineStr">
@@ -55085,7 +55085,7 @@
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain', 'Albania']</t>
+          <t>['Albania', 'Spain', 'Italy']</t>
         </is>
       </c>
       <c r="K641" t="inlineStr">
@@ -55173,7 +55173,7 @@
       </c>
       <c r="J642" t="inlineStr">
         <is>
-          <t>['Italy', 'Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia', 'Italy']</t>
         </is>
       </c>
       <c r="K642" t="inlineStr">
@@ -55261,7 +55261,7 @@
       </c>
       <c r="J643" t="inlineStr">
         <is>
-          <t>['Italy', 'Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia', 'Italy']</t>
         </is>
       </c>
       <c r="K643" t="inlineStr">
@@ -55349,7 +55349,7 @@
       </c>
       <c r="J644" t="inlineStr">
         <is>
-          <t>['Italy', 'Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia', 'Italy']</t>
         </is>
       </c>
       <c r="K644" t="inlineStr">
@@ -55437,7 +55437,7 @@
       </c>
       <c r="J645" t="inlineStr">
         <is>
-          <t>['Italy', 'Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia', 'Italy']</t>
         </is>
       </c>
       <c r="K645" t="inlineStr">
@@ -55525,7 +55525,7 @@
       </c>
       <c r="J646" t="inlineStr">
         <is>
-          <t>['Italy', 'Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia', 'Italy']</t>
         </is>
       </c>
       <c r="K646" t="inlineStr">
@@ -55613,7 +55613,7 @@
       </c>
       <c r="J647" t="inlineStr">
         <is>
-          <t>['Italy', 'Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia', 'Italy']</t>
         </is>
       </c>
       <c r="K647" t="inlineStr">
@@ -55687,7 +55687,7 @@
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr">
         <is>
-          <t>['England', 'Denmark', 'Slovenia']</t>
+          <t>['England', 'Slovenia', 'Denmark']</t>
         </is>
       </c>
       <c r="K648" t="inlineStr">
@@ -55767,7 +55767,7 @@
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr">
         <is>
-          <t>['England', 'Denmark', 'Slovenia']</t>
+          <t>['England', 'Slovenia', 'Denmark']</t>
         </is>
       </c>
       <c r="K649" t="inlineStr">
@@ -55851,7 +55851,7 @@
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr">
         <is>
-          <t>['England', 'Denmark', 'Slovenia']</t>
+          <t>['England', 'Slovenia', 'Denmark']</t>
         </is>
       </c>
       <c r="K650" t="inlineStr">
@@ -55925,7 +55925,7 @@
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France', 'Austria']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K651" t="inlineStr">
@@ -55995,7 +55995,7 @@
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France', 'Austria']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K652" t="inlineStr">
@@ -56255,7 +56255,7 @@
       </c>
       <c r="J655" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France', 'Austria']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K655" t="inlineStr">
@@ -56343,7 +56343,7 @@
       </c>
       <c r="J656" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France', 'Austria']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K656" t="inlineStr">
@@ -56431,7 +56431,7 @@
       </c>
       <c r="J657" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France', 'Austria']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K657" t="inlineStr">
@@ -56519,7 +56519,7 @@
       </c>
       <c r="J658" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France', 'Austria']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K658" t="inlineStr">
@@ -56783,7 +56783,7 @@
       </c>
       <c r="J661" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France', 'Austria']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K661" t="inlineStr">
@@ -56871,7 +56871,7 @@
       </c>
       <c r="J662" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France', 'Austria']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K662" t="inlineStr">
@@ -56959,7 +56959,7 @@
       </c>
       <c r="J663" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France', 'Austria']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K663" t="inlineStr">
@@ -57047,7 +57047,7 @@
       </c>
       <c r="J664" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France', 'Austria']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K664" t="inlineStr">
@@ -57297,7 +57297,7 @@
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Romania', 'Belgium']</t>
+          <t>['Romania', 'Slovakia', 'Belgium']</t>
         </is>
       </c>
       <c r="K667" t="inlineStr">
@@ -57377,7 +57377,7 @@
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Romania', 'Belgium']</t>
+          <t>['Romania', 'Slovakia', 'Belgium']</t>
         </is>
       </c>
       <c r="K668" t="inlineStr">
@@ -57465,7 +57465,7 @@
       </c>
       <c r="J669" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Belgium', 'Ukraine']</t>
+          <t>['Ukraine', 'Slovakia', 'Belgium']</t>
         </is>
       </c>
       <c r="K669" t="inlineStr">
@@ -57553,7 +57553,7 @@
       </c>
       <c r="J670" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Romania', 'Belgium']</t>
+          <t>['Romania', 'Slovakia', 'Belgium']</t>
         </is>
       </c>
       <c r="K670" t="inlineStr">
@@ -57627,7 +57627,7 @@
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic', 'Turkey']</t>
+          <t>['Czech Republic', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="K671" t="inlineStr">
@@ -57707,7 +57707,7 @@
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic', 'Turkey']</t>
+          <t>['Czech Republic', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="K672" t="inlineStr">
@@ -57781,7 +57781,7 @@
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic', 'Turkey']</t>
+          <t>['Czech Republic', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="K673" t="inlineStr">
@@ -57861,7 +57861,7 @@
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic', 'Turkey']</t>
+          <t>['Czech Republic', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="K674" t="inlineStr">
@@ -57949,7 +57949,7 @@
       </c>
       <c r="J675" t="inlineStr">
         <is>
-          <t>['Portugal', 'Georgia', 'Turkey']</t>
+          <t>['Georgia', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="K675" t="inlineStr">
@@ -58041,7 +58041,7 @@
       </c>
       <c r="J676" t="inlineStr">
         <is>
-          <t>['Portugal', 'Georgia', 'Turkey']</t>
+          <t>['Georgia', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="K676" t="inlineStr">
@@ -58133,7 +58133,7 @@
       </c>
       <c r="J677" t="inlineStr">
         <is>
-          <t>['Portugal', 'Georgia', 'Turkey']</t>
+          <t>['Georgia', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="K677" t="inlineStr">
@@ -58221,7 +58221,7 @@
       </c>
       <c r="J678" t="inlineStr">
         <is>
-          <t>['Portugal', 'Georgia', 'Turkey']</t>
+          <t>['Georgia', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="K678" t="inlineStr">
@@ -58309,7 +58309,7 @@
       </c>
       <c r="J679" t="inlineStr">
         <is>
-          <t>['Portugal', 'Georgia', 'Turkey']</t>
+          <t>['Georgia', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="K679" t="inlineStr">
@@ -58397,7 +58397,7 @@
       </c>
       <c r="J680" t="inlineStr">
         <is>
-          <t>['Portugal', 'Georgia', 'Turkey']</t>
+          <t>['Georgia', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="K680" t="inlineStr">
@@ -58485,7 +58485,7 @@
       </c>
       <c r="J681" t="inlineStr">
         <is>
-          <t>['Portugal', 'Georgia', 'Turkey']</t>
+          <t>['Georgia', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="K681" t="inlineStr">
@@ -58577,7 +58577,7 @@
       </c>
       <c r="J682" t="inlineStr">
         <is>
-          <t>['Portugal', 'Georgia', 'Turkey']</t>
+          <t>['Georgia', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="K682" t="inlineStr">
@@ -58669,7 +58669,7 @@
       </c>
       <c r="J683" t="inlineStr">
         <is>
-          <t>['Portugal', 'Georgia', 'Turkey']</t>
+          <t>['Georgia', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="K683" t="inlineStr">
@@ -58757,7 +58757,7 @@
       </c>
       <c r="J684" t="inlineStr">
         <is>
-          <t>['Portugal', 'Georgia', 'Turkey']</t>
+          <t>['Georgia', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="K684" t="inlineStr">

--- a/data/out/wiki/men/fifa/eu/goals_eu_fifa_men.xlsx
+++ b/data/out/wiki/men/fifa/eu/goals_eu_fifa_men.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2963,7 +2963,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>['Portugal', 'West Germany']</t>
+          <t>['West Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -3055,7 +3055,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['Portugal', 'West Germany']</t>
+          <t>['West Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -3309,7 +3309,7 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -3389,7 +3389,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -3477,7 +3477,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3555,7 +3555,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3635,7 +3635,7 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3723,7 +3723,7 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3815,7 +3815,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3903,7 +3903,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -4079,7 +4079,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -4167,7 +4167,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -4255,7 +4255,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -4343,7 +4343,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -4431,7 +4431,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -4505,7 +4505,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -4585,7 +4585,7 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -4663,7 +4663,7 @@
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -4743,7 +4743,7 @@
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4835,7 +4835,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -4927,7 +4927,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -5019,7 +5019,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -5111,7 +5111,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -5203,7 +5203,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -5295,7 +5295,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -5387,7 +5387,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -5479,7 +5479,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -5887,7 +5887,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -5975,7 +5975,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -6063,7 +6063,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -6151,7 +6151,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -6239,7 +6239,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -6327,7 +6327,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -6591,7 +6591,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -6679,7 +6679,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -6767,7 +6767,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -6855,7 +6855,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -6929,7 +6929,7 @@
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -7009,7 +7009,7 @@
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -7087,7 +7087,7 @@
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -7167,7 +7167,7 @@
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -7259,7 +7259,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -7347,7 +7347,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -7435,7 +7435,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -7523,7 +7523,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -7611,7 +7611,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -7699,7 +7699,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -7787,7 +7787,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -7875,7 +7875,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -7963,7 +7963,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -8051,7 +8051,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -8139,7 +8139,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -8227,7 +8227,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -8315,7 +8315,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -8403,7 +8403,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -8477,7 +8477,7 @@
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -8557,7 +8557,7 @@
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -8631,7 +8631,7 @@
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -8711,7 +8711,7 @@
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -8799,7 +8799,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -8887,7 +8887,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -8975,7 +8975,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -9063,7 +9063,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -9151,7 +9151,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -9239,7 +9239,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -9327,7 +9327,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -9415,7 +9415,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -9679,7 +9679,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -9767,7 +9767,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -11213,7 +11213,7 @@
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr">
         <is>
-          <t>['Germany', 'Italy']</t>
+          <t>['Italy', 'Germany']</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -11293,7 +11293,7 @@
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr">
         <is>
-          <t>['Germany', 'Italy']</t>
+          <t>['Italy', 'Germany']</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -11367,7 +11367,7 @@
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr">
         <is>
-          <t>['Germany', 'Italy']</t>
+          <t>['Italy', 'Germany']</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -11447,7 +11447,7 @@
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr">
         <is>
-          <t>['Germany', 'Italy']</t>
+          <t>['Italy', 'Germany']</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -11535,7 +11535,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -11627,7 +11627,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -11719,7 +11719,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -11811,7 +11811,7 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -11903,7 +11903,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -11995,7 +11995,7 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -12087,7 +12087,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>['Germany', 'Italy']</t>
+          <t>['Italy', 'Germany']</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -12175,7 +12175,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>['Germany', 'Italy']</t>
+          <t>['Italy', 'Germany']</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -12263,7 +12263,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>['Germany', 'Italy']</t>
+          <t>['Italy', 'Germany']</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -12351,7 +12351,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>['Germany', 'Italy']</t>
+          <t>['Italy', 'Germany']</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -12439,7 +12439,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>['Germany', 'Italy']</t>
+          <t>['Italy', 'Germany']</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -12527,7 +12527,7 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>['Germany', 'Italy']</t>
+          <t>['Italy', 'Germany']</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -13091,7 +13091,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -13179,7 +13179,7 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -13267,7 +13267,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -13355,7 +13355,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -13443,7 +13443,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -13531,7 +13531,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -13619,7 +13619,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -13707,7 +13707,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -13795,7 +13795,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -13883,7 +13883,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -13971,7 +13971,7 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -14059,7 +14059,7 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -14133,7 +14133,7 @@
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -14213,7 +14213,7 @@
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -14291,7 +14291,7 @@
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -14371,7 +14371,7 @@
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -14815,7 +14815,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -14907,7 +14907,7 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -14999,7 +14999,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -15087,7 +15087,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -15175,7 +15175,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -15267,7 +15267,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -15359,7 +15359,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -15451,7 +15451,7 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -15543,7 +15543,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -15635,7 +15635,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -15889,7 +15889,7 @@
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy']</t>
+          <t>['Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -15969,7 +15969,7 @@
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy']</t>
+          <t>['Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -16047,7 +16047,7 @@
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy']</t>
+          <t>['Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -16127,7 +16127,7 @@
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy']</t>
+          <t>['Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -16219,7 +16219,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy']</t>
+          <t>['Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -16311,7 +16311,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy']</t>
+          <t>['Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -16403,7 +16403,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -16491,7 +16491,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -16579,7 +16579,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -16667,7 +16667,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -16755,7 +16755,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -16843,7 +16843,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -16931,7 +16931,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -17019,7 +17019,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -18633,7 +18633,7 @@
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -18713,7 +18713,7 @@
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -18787,7 +18787,7 @@
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -18867,7 +18867,7 @@
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -18955,7 +18955,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -19043,7 +19043,7 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -19131,7 +19131,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -19219,7 +19219,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -19307,7 +19307,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -19395,7 +19395,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -19483,7 +19483,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -19571,7 +19571,7 @@
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -19659,7 +19659,7 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -19747,7 +19747,7 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -19835,7 +19835,7 @@
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -19923,7 +19923,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -20011,7 +20011,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -20099,7 +20099,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -21023,7 +21023,7 @@
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>['Portugal', 'Greece']</t>
+          <t>['Greece', 'Portugal']</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -21111,7 +21111,7 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>['Portugal', 'Greece']</t>
+          <t>['Greece', 'Portugal']</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -21185,7 +21185,7 @@
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -21255,7 +21255,7 @@
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -21867,7 +21867,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -21955,7 +21955,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -22043,7 +22043,7 @@
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -22131,7 +22131,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -22219,7 +22219,7 @@
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -22307,7 +22307,7 @@
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -22395,7 +22395,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -22483,7 +22483,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -22571,7 +22571,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -22659,7 +22659,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -22747,7 +22747,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -22835,7 +22835,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -22923,7 +22923,7 @@
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -23011,7 +23011,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -23085,7 +23085,7 @@
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -23155,7 +23155,7 @@
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -23239,7 +23239,7 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -23327,7 +23327,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -23415,7 +23415,7 @@
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -23503,7 +23503,7 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -23591,7 +23591,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -23679,7 +23679,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -23767,7 +23767,7 @@
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -23855,7 +23855,7 @@
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -23943,7 +23943,7 @@
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -24031,7 +24031,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -24119,7 +24119,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -24207,7 +24207,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -24295,7 +24295,7 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -24383,7 +24383,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -24457,7 +24457,7 @@
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
@@ -24537,7 +24537,7 @@
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -24611,7 +24611,7 @@
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -24691,7 +24691,7 @@
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -24779,7 +24779,7 @@
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
@@ -24867,7 +24867,7 @@
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -24955,7 +24955,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -25043,7 +25043,7 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -25131,7 +25131,7 @@
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
@@ -25219,7 +25219,7 @@
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
@@ -25307,7 +25307,7 @@
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
@@ -25395,7 +25395,7 @@
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
@@ -25483,7 +25483,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -25571,7 +25571,7 @@
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -25659,7 +25659,7 @@
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="K294" t="inlineStr">
@@ -25747,7 +25747,7 @@
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="K295" t="inlineStr">
@@ -25821,7 +25821,7 @@
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K296" t="inlineStr">
@@ -25901,7 +25901,7 @@
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -25975,7 +25975,7 @@
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -26055,7 +26055,7 @@
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -26143,7 +26143,7 @@
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
@@ -26231,7 +26231,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -26319,7 +26319,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -26407,7 +26407,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -26495,7 +26495,7 @@
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K304" t="inlineStr">
@@ -26583,7 +26583,7 @@
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -26671,7 +26671,7 @@
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K306" t="inlineStr">
@@ -26759,7 +26759,7 @@
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -26847,7 +26847,7 @@
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -26935,7 +26935,7 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -27023,7 +27023,7 @@
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -27111,7 +27111,7 @@
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -27361,7 +27361,7 @@
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -27441,7 +27441,7 @@
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -27525,7 +27525,7 @@
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="K316" t="inlineStr">
@@ -27599,7 +27599,7 @@
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
@@ -27679,7 +27679,7 @@
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -27763,7 +27763,7 @@
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="K319" t="inlineStr">
@@ -27851,7 +27851,7 @@
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="K320" t="inlineStr">
@@ -27939,7 +27939,7 @@
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="K321" t="inlineStr">
@@ -28027,7 +28027,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
@@ -28115,7 +28115,7 @@
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
@@ -30557,7 +30557,7 @@
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr">
         <is>
-          <t>['Russia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Russia']</t>
         </is>
       </c>
       <c r="K352" t="inlineStr">
@@ -30637,7 +30637,7 @@
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr">
         <is>
-          <t>['Russia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Russia']</t>
         </is>
       </c>
       <c r="K353" t="inlineStr">
@@ -30721,7 +30721,7 @@
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr">
         <is>
-          <t>['Russia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Russia']</t>
         </is>
       </c>
       <c r="K354" t="inlineStr">
@@ -30795,7 +30795,7 @@
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr">
         <is>
-          <t>['Russia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Russia']</t>
         </is>
       </c>
       <c r="K355" t="inlineStr">
@@ -30875,7 +30875,7 @@
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr">
         <is>
-          <t>['Russia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Russia']</t>
         </is>
       </c>
       <c r="K356" t="inlineStr">
@@ -30959,7 +30959,7 @@
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr">
         <is>
-          <t>['Russia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Russia']</t>
         </is>
       </c>
       <c r="K357" t="inlineStr">
@@ -31223,7 +31223,7 @@
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>['Russia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Russia']</t>
         </is>
       </c>
       <c r="K360" t="inlineStr">
@@ -31311,7 +31311,7 @@
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>['Russia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Russia']</t>
         </is>
       </c>
       <c r="K361" t="inlineStr">
@@ -33593,7 +33593,7 @@
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K388" t="inlineStr">
@@ -33673,7 +33673,7 @@
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K389" t="inlineStr">
@@ -33757,7 +33757,7 @@
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K390" t="inlineStr">
@@ -33831,7 +33831,7 @@
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K391" t="inlineStr">
@@ -33911,7 +33911,7 @@
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K392" t="inlineStr">
@@ -33995,7 +33995,7 @@
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K393" t="inlineStr">
@@ -34083,7 +34083,7 @@
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K394" t="inlineStr">
@@ -34171,7 +34171,7 @@
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K395" t="inlineStr">
@@ -34259,7 +34259,7 @@
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K396" t="inlineStr">
@@ -34347,7 +34347,7 @@
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K397" t="inlineStr">
@@ -34435,7 +34435,7 @@
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K398" t="inlineStr">
@@ -34523,7 +34523,7 @@
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K399" t="inlineStr">
@@ -34597,7 +34597,7 @@
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Romania', 'France']</t>
+          <t>['Romania', 'France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K400" t="inlineStr">
@@ -34623,11 +34623,11 @@
       </c>
       <c r="P400" t="inlineStr"/>
       <c r="Q400" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R400" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['France', 'Switzerland', 'Romania']</t>
         </is>
       </c>
       <c r="S400" t="n">
@@ -34677,7 +34677,7 @@
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Romania', 'France']</t>
+          <t>['Romania', 'France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K401" t="inlineStr">
@@ -34703,11 +34703,11 @@
       </c>
       <c r="P401" t="inlineStr"/>
       <c r="Q401" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R401" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['France', 'Switzerland', 'Romania']</t>
         </is>
       </c>
       <c r="S401" t="n">
@@ -34761,7 +34761,7 @@
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Romania', 'France']</t>
+          <t>['Romania', 'France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K402" t="inlineStr">
@@ -34787,11 +34787,11 @@
       </c>
       <c r="P402" t="inlineStr"/>
       <c r="Q402" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R402" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['France', 'Switzerland', 'Romania']</t>
         </is>
       </c>
       <c r="S402" t="n">
@@ -34849,7 +34849,7 @@
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Albania', 'France']</t>
+          <t>['France', 'Albania', 'Switzerland']</t>
         </is>
       </c>
       <c r="K403" t="inlineStr">
@@ -34875,18 +34875,18 @@
       </c>
       <c r="P403" t="inlineStr"/>
       <c r="Q403" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R403" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['France', 'Switzerland', 'Albania']</t>
         </is>
       </c>
       <c r="S403" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T403" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U403" t="n">
         <v>1759</v>
@@ -34923,7 +34923,7 @@
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr">
         <is>
-          <t>['Wales', 'England', 'Slovakia']</t>
+          <t>['Slovakia', 'Wales', 'England']</t>
         </is>
       </c>
       <c r="K404" t="inlineStr">
@@ -34949,11 +34949,11 @@
       </c>
       <c r="P404" t="inlineStr"/>
       <c r="Q404" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R404" t="inlineStr">
         <is>
-          <t>['England', 'Wales']</t>
+          <t>['England', 'Wales', 'Slovakia']</t>
         </is>
       </c>
       <c r="S404" t="n">
@@ -35003,7 +35003,7 @@
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr">
         <is>
-          <t>['Wales', 'England', 'Slovakia']</t>
+          <t>['Slovakia', 'Wales', 'England']</t>
         </is>
       </c>
       <c r="K405" t="inlineStr">
@@ -35033,11 +35033,11 @@
         </is>
       </c>
       <c r="Q405" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R405" t="inlineStr">
         <is>
-          <t>['England', 'Wales']</t>
+          <t>['England', 'Wales', 'Slovakia']</t>
         </is>
       </c>
       <c r="S405" t="n">
@@ -35091,7 +35091,7 @@
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr">
         <is>
-          <t>['Wales', 'England', 'Slovakia']</t>
+          <t>['Slovakia', 'Wales', 'England']</t>
         </is>
       </c>
       <c r="K406" t="inlineStr">
@@ -35121,11 +35121,11 @@
         </is>
       </c>
       <c r="Q406" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R406" t="inlineStr">
         <is>
-          <t>['England', 'Wales']</t>
+          <t>['England', 'Wales', 'Slovakia']</t>
         </is>
       </c>
       <c r="S406" t="n">
@@ -35169,7 +35169,7 @@
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr">
         <is>
-          <t>['Wales', 'England', 'Slovakia']</t>
+          <t>['Slovakia', 'Wales', 'England']</t>
         </is>
       </c>
       <c r="K407" t="inlineStr">
@@ -35195,11 +35195,11 @@
       </c>
       <c r="P407" t="inlineStr"/>
       <c r="Q407" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R407" t="inlineStr">
         <is>
-          <t>['England', 'Wales']</t>
+          <t>['England', 'Wales', 'Slovakia']</t>
         </is>
       </c>
       <c r="S407" t="n">
@@ -35249,7 +35249,7 @@
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr">
         <is>
-          <t>['Wales', 'England', 'Slovakia']</t>
+          <t>['Slovakia', 'Wales', 'England']</t>
         </is>
       </c>
       <c r="K408" t="inlineStr">
@@ -35279,11 +35279,11 @@
         </is>
       </c>
       <c r="Q408" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R408" t="inlineStr">
         <is>
-          <t>['England', 'Wales']</t>
+          <t>['England', 'Wales', 'Slovakia']</t>
         </is>
       </c>
       <c r="S408" t="n">
@@ -35337,7 +35337,7 @@
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr">
         <is>
-          <t>['Wales', 'England', 'Slovakia']</t>
+          <t>['Slovakia', 'Wales', 'England']</t>
         </is>
       </c>
       <c r="K409" t="inlineStr">
@@ -35367,11 +35367,11 @@
         </is>
       </c>
       <c r="Q409" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R409" t="inlineStr">
         <is>
-          <t>['England', 'Wales']</t>
+          <t>['England', 'Wales', 'Slovakia']</t>
         </is>
       </c>
       <c r="S409" t="n">
@@ -35429,7 +35429,7 @@
       </c>
       <c r="J410" t="inlineStr">
         <is>
-          <t>['Wales', 'England', 'Slovakia']</t>
+          <t>['Slovakia', 'Wales', 'England']</t>
         </is>
       </c>
       <c r="K410" t="inlineStr">
@@ -35455,11 +35455,11 @@
       </c>
       <c r="P410" t="inlineStr"/>
       <c r="Q410" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R410" t="inlineStr">
         <is>
-          <t>['Wales', 'England']</t>
+          <t>['Wales', 'England', 'Slovakia']</t>
         </is>
       </c>
       <c r="S410" t="n">
@@ -35517,7 +35517,7 @@
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>['Wales', 'England', 'Slovakia']</t>
+          <t>['Slovakia', 'Wales', 'England']</t>
         </is>
       </c>
       <c r="K411" t="inlineStr">
@@ -35543,11 +35543,11 @@
       </c>
       <c r="P411" t="inlineStr"/>
       <c r="Q411" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R411" t="inlineStr">
         <is>
-          <t>['Wales', 'England']</t>
+          <t>['Wales', 'England', 'Slovakia']</t>
         </is>
       </c>
       <c r="S411" t="n">
@@ -35605,7 +35605,7 @@
       </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>['Wales', 'England', 'Slovakia']</t>
+          <t>['Slovakia', 'Wales', 'England']</t>
         </is>
       </c>
       <c r="K412" t="inlineStr">
@@ -35631,11 +35631,11 @@
       </c>
       <c r="P412" t="inlineStr"/>
       <c r="Q412" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R412" t="inlineStr">
         <is>
-          <t>['Wales', 'England']</t>
+          <t>['Wales', 'England', 'Slovakia']</t>
         </is>
       </c>
       <c r="S412" t="n">
@@ -35693,7 +35693,7 @@
       </c>
       <c r="J413" t="inlineStr">
         <is>
-          <t>['Wales', 'England', 'Slovakia']</t>
+          <t>['Slovakia', 'Wales', 'England']</t>
         </is>
       </c>
       <c r="K413" t="inlineStr">
@@ -35719,11 +35719,11 @@
       </c>
       <c r="P413" t="inlineStr"/>
       <c r="Q413" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R413" t="inlineStr">
         <is>
-          <t>['Wales', 'England']</t>
+          <t>['Wales', 'England', 'Slovakia']</t>
         </is>
       </c>
       <c r="S413" t="n">
@@ -35781,7 +35781,7 @@
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>['Wales', 'England', 'Slovakia']</t>
+          <t>['Slovakia', 'Wales', 'England']</t>
         </is>
       </c>
       <c r="K414" t="inlineStr">
@@ -35807,11 +35807,11 @@
       </c>
       <c r="P414" t="inlineStr"/>
       <c r="Q414" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R414" t="inlineStr">
         <is>
-          <t>['Wales', 'England']</t>
+          <t>['Wales', 'England', 'Slovakia']</t>
         </is>
       </c>
       <c r="S414" t="n">
@@ -35869,7 +35869,7 @@
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>['Wales', 'England', 'Slovakia']</t>
+          <t>['Slovakia', 'Wales', 'England']</t>
         </is>
       </c>
       <c r="K415" t="inlineStr">
@@ -35895,11 +35895,11 @@
       </c>
       <c r="P415" t="inlineStr"/>
       <c r="Q415" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R415" t="inlineStr">
         <is>
-          <t>['Wales', 'England']</t>
+          <t>['Wales', 'England', 'Slovakia']</t>
         </is>
       </c>
       <c r="S415" t="n">
@@ -35969,11 +35969,11 @@
       </c>
       <c r="P416" t="inlineStr"/>
       <c r="Q416" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R416" t="inlineStr">
         <is>
-          <t>['Germany', 'Poland']</t>
+          <t>['Germany', 'Poland', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="S416" t="n">
@@ -36049,11 +36049,11 @@
       </c>
       <c r="P417" t="inlineStr"/>
       <c r="Q417" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R417" t="inlineStr">
         <is>
-          <t>['Germany', 'Poland']</t>
+          <t>['Germany', 'Poland', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="S417" t="n">
@@ -36133,11 +36133,11 @@
       </c>
       <c r="P418" t="inlineStr"/>
       <c r="Q418" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R418" t="inlineStr">
         <is>
-          <t>['Germany', 'Poland']</t>
+          <t>['Germany', 'Poland', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="S418" t="n">
@@ -36207,11 +36207,11 @@
       </c>
       <c r="P419" t="inlineStr"/>
       <c r="Q419" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R419" t="inlineStr">
         <is>
-          <t>['Germany', 'Poland']</t>
+          <t>['Germany', 'Poland', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="S419" t="n">
@@ -36287,11 +36287,11 @@
       </c>
       <c r="P420" t="inlineStr"/>
       <c r="Q420" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R420" t="inlineStr">
         <is>
-          <t>['Germany', 'Poland']</t>
+          <t>['Germany', 'Poland', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="S420" t="n">
@@ -36371,11 +36371,11 @@
       </c>
       <c r="P421" t="inlineStr"/>
       <c r="Q421" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R421" t="inlineStr">
         <is>
-          <t>['Germany', 'Poland']</t>
+          <t>['Germany', 'Poland', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="S421" t="n">
@@ -36459,11 +36459,11 @@
       </c>
       <c r="P422" t="inlineStr"/>
       <c r="Q422" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R422" t="inlineStr">
         <is>
-          <t>['Germany', 'Poland']</t>
+          <t>['Germany', 'Poland', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="S422" t="n">
@@ -36547,11 +36547,11 @@
       </c>
       <c r="P423" t="inlineStr"/>
       <c r="Q423" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R423" t="inlineStr">
         <is>
-          <t>['Germany', 'Poland']</t>
+          <t>['Germany', 'Poland', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="S423" t="n">
@@ -36635,11 +36635,11 @@
       </c>
       <c r="P424" t="inlineStr"/>
       <c r="Q424" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R424" t="inlineStr">
         <is>
-          <t>['Germany', 'Poland']</t>
+          <t>['Germany', 'Poland', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="S424" t="n">
@@ -36723,11 +36723,11 @@
       </c>
       <c r="P425" t="inlineStr"/>
       <c r="Q425" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R425" t="inlineStr">
         <is>
-          <t>['Germany', 'Poland']</t>
+          <t>['Germany', 'Poland', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="S425" t="n">
@@ -36771,7 +36771,7 @@
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Czech Republic']</t>
+          <t>['Spain', 'Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="K426" t="inlineStr">
@@ -36851,7 +36851,7 @@
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Czech Republic']</t>
+          <t>['Spain', 'Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="K427" t="inlineStr">
@@ -36925,7 +36925,7 @@
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Czech Republic']</t>
+          <t>['Spain', 'Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="K428" t="inlineStr">
@@ -37005,7 +37005,7 @@
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Czech Republic']</t>
+          <t>['Spain', 'Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="K429" t="inlineStr">
@@ -37093,7 +37093,7 @@
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Czech Republic']</t>
+          <t>['Spain', 'Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="K430" t="inlineStr">
@@ -37181,7 +37181,7 @@
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Czech Republic']</t>
+          <t>['Spain', 'Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="K431" t="inlineStr">
@@ -37269,7 +37269,7 @@
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>['Spain', 'Turkey', 'Croatia']</t>
+          <t>['Spain', 'Croatia', 'Turkey']</t>
         </is>
       </c>
       <c r="K432" t="inlineStr">
@@ -37357,7 +37357,7 @@
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>['Spain', 'Turkey', 'Croatia']</t>
+          <t>['Spain', 'Croatia', 'Turkey']</t>
         </is>
       </c>
       <c r="K433" t="inlineStr">
@@ -37445,7 +37445,7 @@
       </c>
       <c r="J434" t="inlineStr">
         <is>
-          <t>['Spain', 'Turkey', 'Croatia']</t>
+          <t>['Spain', 'Croatia', 'Turkey']</t>
         </is>
       </c>
       <c r="K434" t="inlineStr">
@@ -37533,7 +37533,7 @@
       </c>
       <c r="J435" t="inlineStr">
         <is>
-          <t>['Spain', 'Turkey', 'Croatia']</t>
+          <t>['Spain', 'Croatia', 'Turkey']</t>
         </is>
       </c>
       <c r="K435" t="inlineStr">
@@ -37621,7 +37621,7 @@
       </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>['Spain', 'Turkey', 'Croatia']</t>
+          <t>['Spain', 'Croatia', 'Turkey']</t>
         </is>
       </c>
       <c r="K436" t="inlineStr">
@@ -37647,18 +37647,18 @@
       </c>
       <c r="P436" t="inlineStr"/>
       <c r="Q436" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R436" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Spain', 'Croatia', 'Turkey']</t>
         </is>
       </c>
       <c r="S436" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T436" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U436" t="n">
         <v>1755</v>
@@ -37709,7 +37709,7 @@
       </c>
       <c r="J437" t="inlineStr">
         <is>
-          <t>['Spain', 'Turkey', 'Croatia']</t>
+          <t>['Spain', 'Croatia', 'Turkey']</t>
         </is>
       </c>
       <c r="K437" t="inlineStr">
@@ -37735,18 +37735,18 @@
       </c>
       <c r="P437" t="inlineStr"/>
       <c r="Q437" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R437" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Spain', 'Croatia', 'Turkey']</t>
         </is>
       </c>
       <c r="S437" t="n">
         <v>0</v>
       </c>
       <c r="T437" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U437" t="n">
         <v>1755</v>
@@ -37797,7 +37797,7 @@
       </c>
       <c r="J438" t="inlineStr">
         <is>
-          <t>['Spain', 'Turkey', 'Croatia']</t>
+          <t>['Croatia', 'Spain', 'Turkey']</t>
         </is>
       </c>
       <c r="K438" t="inlineStr">
@@ -37823,18 +37823,18 @@
       </c>
       <c r="P438" t="inlineStr"/>
       <c r="Q438" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R438" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain']</t>
+          <t>['Croatia', 'Spain', 'Turkey']</t>
         </is>
       </c>
       <c r="S438" t="n">
         <v>0</v>
       </c>
       <c r="T438" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U438" t="n">
         <v>1818</v>
@@ -37885,7 +37885,7 @@
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>['Spain', 'Turkey', 'Croatia']</t>
+          <t>['Croatia', 'Spain', 'Turkey']</t>
         </is>
       </c>
       <c r="K439" t="inlineStr">
@@ -37911,18 +37911,18 @@
       </c>
       <c r="P439" t="inlineStr"/>
       <c r="Q439" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R439" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain']</t>
+          <t>['Croatia', 'Spain', 'Turkey']</t>
         </is>
       </c>
       <c r="S439" t="n">
         <v>0</v>
       </c>
       <c r="T439" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U439" t="n">
         <v>1818</v>
@@ -37959,7 +37959,7 @@
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr">
         <is>
-          <t>['Belgium', 'Sweden', 'Italy']</t>
+          <t>['Sweden', 'Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K440" t="inlineStr">
@@ -38039,7 +38039,7 @@
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr">
         <is>
-          <t>['Belgium', 'Sweden', 'Italy']</t>
+          <t>['Sweden', 'Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K441" t="inlineStr">
@@ -38123,7 +38123,7 @@
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr">
         <is>
-          <t>['Belgium', 'Sweden', 'Italy']</t>
+          <t>['Sweden', 'Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K442" t="inlineStr">
@@ -38197,7 +38197,7 @@
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr">
         <is>
-          <t>['Belgium', 'Sweden', 'Italy']</t>
+          <t>['Sweden', 'Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K443" t="inlineStr">
@@ -38277,7 +38277,7 @@
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr">
         <is>
-          <t>['Belgium', 'Sweden', 'Italy']</t>
+          <t>['Sweden', 'Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K444" t="inlineStr">
@@ -38361,7 +38361,7 @@
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr">
         <is>
-          <t>['Belgium', 'Sweden', 'Italy']</t>
+          <t>['Sweden', 'Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K445" t="inlineStr">
@@ -38449,7 +38449,7 @@
       </c>
       <c r="J446" t="inlineStr">
         <is>
-          <t>['Ireland', 'Belgium', 'Italy']</t>
+          <t>['Italy', 'Belgium', 'Ireland']</t>
         </is>
       </c>
       <c r="K446" t="inlineStr">
@@ -38537,7 +38537,7 @@
       </c>
       <c r="J447" t="inlineStr">
         <is>
-          <t>['Ireland', 'Belgium', 'Italy']</t>
+          <t>['Italy', 'Belgium', 'Ireland']</t>
         </is>
       </c>
       <c r="K447" t="inlineStr">
@@ -38625,7 +38625,7 @@
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>['Ireland', 'Belgium', 'Italy']</t>
+          <t>['Italy', 'Belgium', 'Ireland']</t>
         </is>
       </c>
       <c r="K448" t="inlineStr">
@@ -38651,18 +38651,18 @@
       </c>
       <c r="P448" t="inlineStr"/>
       <c r="Q448" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R448" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy']</t>
+          <t>['Belgium', 'Italy', 'Ireland']</t>
         </is>
       </c>
       <c r="S448" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T448" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U448" t="n">
         <v>1875</v>
@@ -38713,7 +38713,7 @@
       </c>
       <c r="J449" t="inlineStr">
         <is>
-          <t>['Ireland', 'Belgium', 'Italy']</t>
+          <t>['Italy', 'Belgium', 'Ireland']</t>
         </is>
       </c>
       <c r="K449" t="inlineStr">
@@ -38739,18 +38739,18 @@
       </c>
       <c r="P449" t="inlineStr"/>
       <c r="Q449" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R449" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy']</t>
+          <t>['Belgium', 'Italy', 'Ireland']</t>
         </is>
       </c>
       <c r="S449" t="n">
         <v>0</v>
       </c>
       <c r="T449" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U449" t="n">
         <v>1875</v>
@@ -38787,7 +38787,7 @@
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K450" t="inlineStr">
@@ -38813,11 +38813,11 @@
       </c>
       <c r="P450" t="inlineStr"/>
       <c r="Q450" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R450" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="S450" t="n">
@@ -38857,7 +38857,7 @@
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K451" t="inlineStr">
@@ -38883,11 +38883,11 @@
       </c>
       <c r="P451" t="inlineStr"/>
       <c r="Q451" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R451" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="S451" t="n">
@@ -38941,7 +38941,7 @@
       </c>
       <c r="J452" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K452" t="inlineStr">
@@ -38967,11 +38967,11 @@
       </c>
       <c r="P452" t="inlineStr"/>
       <c r="Q452" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R452" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="S452" t="n">
@@ -39029,7 +39029,7 @@
       </c>
       <c r="J453" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K453" t="inlineStr">
@@ -39055,11 +39055,11 @@
       </c>
       <c r="P453" t="inlineStr"/>
       <c r="Q453" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R453" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="S453" t="n">
@@ -39117,7 +39117,7 @@
       </c>
       <c r="J454" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K454" t="inlineStr">
@@ -39151,10 +39151,10 @@
         </is>
       </c>
       <c r="S454" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T454" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U454" t="n">
         <v>1697</v>
@@ -39205,7 +39205,7 @@
       </c>
       <c r="J455" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K455" t="inlineStr">
@@ -39242,7 +39242,7 @@
         <v>0</v>
       </c>
       <c r="T455" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U455" t="n">
         <v>1697</v>
@@ -39293,7 +39293,7 @@
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K456" t="inlineStr">
@@ -39319,18 +39319,18 @@
       </c>
       <c r="P456" t="inlineStr"/>
       <c r="Q456" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R456" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="S456" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U456" t="n">
         <v>1697</v>
@@ -39381,7 +39381,7 @@
       </c>
       <c r="J457" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K457" t="inlineStr">
@@ -39407,18 +39407,18 @@
       </c>
       <c r="P457" t="inlineStr"/>
       <c r="Q457" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R457" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="S457" t="n">
         <v>0</v>
       </c>
       <c r="T457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U457" t="n">
         <v>1697</v>
@@ -39469,7 +39469,7 @@
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K458" t="inlineStr">
@@ -39503,10 +39503,10 @@
         </is>
       </c>
       <c r="S458" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T458" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U458" t="n">
         <v>1697</v>
@@ -39557,7 +39557,7 @@
       </c>
       <c r="J459" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K459" t="inlineStr">
@@ -39594,7 +39594,7 @@
         <v>0</v>
       </c>
       <c r="T459" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U459" t="n">
         <v>1697</v>
@@ -39645,7 +39645,7 @@
       </c>
       <c r="J460" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K460" t="inlineStr">
@@ -39671,18 +39671,18 @@
       </c>
       <c r="P460" t="inlineStr"/>
       <c r="Q460" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R460" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="S460" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T460" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U460" t="n">
         <v>1697</v>
@@ -39733,7 +39733,7 @@
       </c>
       <c r="J461" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K461" t="inlineStr">
@@ -39759,18 +39759,18 @@
       </c>
       <c r="P461" t="inlineStr"/>
       <c r="Q461" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R461" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="S461" t="n">
         <v>0</v>
       </c>
       <c r="T461" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U461" t="n">
         <v>1697</v>
@@ -39821,7 +39821,7 @@
       </c>
       <c r="J462" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K462" t="inlineStr">
@@ -39855,10 +39855,10 @@
         </is>
       </c>
       <c r="S462" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T462" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U462" t="n">
         <v>1697</v>
@@ -39909,7 +39909,7 @@
       </c>
       <c r="J463" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K463" t="inlineStr">
@@ -39946,7 +39946,7 @@
         <v>0</v>
       </c>
       <c r="T463" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U463" t="n">
         <v>1697</v>
@@ -39997,7 +39997,7 @@
       </c>
       <c r="J464" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K464" t="inlineStr">
@@ -40034,7 +40034,7 @@
         <v>0</v>
       </c>
       <c r="T464" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U464" t="n">
         <v>1666</v>
@@ -40085,7 +40085,7 @@
       </c>
       <c r="J465" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K465" t="inlineStr">
@@ -40122,7 +40122,7 @@
         <v>0</v>
       </c>
       <c r="T465" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U465" t="n">
         <v>1666</v>
@@ -40173,7 +40173,7 @@
       </c>
       <c r="J466" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K466" t="inlineStr">
@@ -40199,18 +40199,18 @@
       </c>
       <c r="P466" t="inlineStr"/>
       <c r="Q466" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R466" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="S466" t="n">
         <v>1</v>
       </c>
       <c r="T466" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U466" t="n">
         <v>1697</v>
@@ -40261,7 +40261,7 @@
       </c>
       <c r="J467" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K467" t="inlineStr">
@@ -40287,18 +40287,18 @@
       </c>
       <c r="P467" t="inlineStr"/>
       <c r="Q467" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R467" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="S467" t="n">
         <v>0</v>
       </c>
       <c r="T467" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U467" t="n">
         <v>1697</v>
@@ -40349,7 +40349,7 @@
       </c>
       <c r="J468" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K468" t="inlineStr">
@@ -40375,18 +40375,18 @@
       </c>
       <c r="P468" t="inlineStr"/>
       <c r="Q468" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R468" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="S468" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T468" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="U468" t="n">
         <v>1666</v>
@@ -40437,7 +40437,7 @@
       </c>
       <c r="J469" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K469" t="inlineStr">
@@ -40463,18 +40463,18 @@
       </c>
       <c r="P469" t="inlineStr"/>
       <c r="Q469" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R469" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="S469" t="n">
         <v>0</v>
       </c>
       <c r="T469" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="U469" t="n">
         <v>1666</v>
@@ -40511,7 +40511,7 @@
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Wales', 'Italy']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="K470" t="inlineStr">
@@ -40591,7 +40591,7 @@
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Wales', 'Italy']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="K471" t="inlineStr">
@@ -40665,7 +40665,7 @@
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Wales', 'Italy']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="K472" t="inlineStr">
@@ -40745,7 +40745,7 @@
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Wales', 'Italy']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="K473" t="inlineStr">
@@ -40819,7 +40819,7 @@
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Wales', 'Italy']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="K474" t="inlineStr">
@@ -40899,7 +40899,7 @@
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Wales', 'Italy']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="K475" t="inlineStr">
@@ -40987,7 +40987,7 @@
       </c>
       <c r="J476" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Wales', 'Italy']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="K476" t="inlineStr">
@@ -41013,18 +41013,18 @@
       </c>
       <c r="P476" t="inlineStr"/>
       <c r="Q476" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R476" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="S476" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T476" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U476" t="n">
         <v>1890</v>
@@ -41075,7 +41075,7 @@
       </c>
       <c r="J477" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Wales', 'Italy']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="K477" t="inlineStr">
@@ -41101,18 +41101,18 @@
       </c>
       <c r="P477" t="inlineStr"/>
       <c r="Q477" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R477" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="S477" t="n">
         <v>0</v>
       </c>
       <c r="T477" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U477" t="n">
         <v>1890</v>
@@ -41163,7 +41163,7 @@
       </c>
       <c r="J478" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Wales', 'Italy']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="K478" t="inlineStr">
@@ -41189,18 +41189,18 @@
       </c>
       <c r="P478" t="inlineStr"/>
       <c r="Q478" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R478" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="S478" t="n">
         <v>0</v>
       </c>
       <c r="T478" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U478" t="n">
         <v>1890</v>
@@ -41251,7 +41251,7 @@
       </c>
       <c r="J479" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Wales', 'Italy']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="K479" t="inlineStr">
@@ -41277,18 +41277,18 @@
       </c>
       <c r="P479" t="inlineStr"/>
       <c r="Q479" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R479" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="S479" t="n">
         <v>0</v>
       </c>
       <c r="T479" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U479" t="n">
         <v>1890</v>
@@ -41339,7 +41339,7 @@
       </c>
       <c r="J480" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Wales', 'Italy']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="K480" t="inlineStr">
@@ -41365,18 +41365,18 @@
       </c>
       <c r="P480" t="inlineStr"/>
       <c r="Q480" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R480" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="S480" t="n">
         <v>0</v>
       </c>
       <c r="T480" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U480" t="n">
         <v>1890</v>
@@ -41427,7 +41427,7 @@
       </c>
       <c r="J481" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Wales', 'Italy']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="K481" t="inlineStr">
@@ -41453,18 +41453,18 @@
       </c>
       <c r="P481" t="inlineStr"/>
       <c r="Q481" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R481" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="S481" t="n">
         <v>0</v>
       </c>
       <c r="T481" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U481" t="n">
         <v>1890</v>
@@ -41515,7 +41515,7 @@
       </c>
       <c r="J482" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Wales', 'Italy']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="K482" t="inlineStr">
@@ -41541,18 +41541,18 @@
       </c>
       <c r="P482" t="inlineStr"/>
       <c r="Q482" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R482" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="S482" t="n">
         <v>0</v>
       </c>
       <c r="T482" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U482" t="n">
         <v>2014</v>
@@ -41603,7 +41603,7 @@
       </c>
       <c r="J483" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Wales', 'Italy']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="K483" t="inlineStr">
@@ -41629,18 +41629,18 @@
       </c>
       <c r="P483" t="inlineStr"/>
       <c r="Q483" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R483" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="S483" t="n">
         <v>0</v>
       </c>
       <c r="T483" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U483" t="n">
         <v>2014</v>
@@ -41691,7 +41691,7 @@
       </c>
       <c r="J484" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Wales', 'Italy']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="K484" t="inlineStr">
@@ -41717,18 +41717,18 @@
       </c>
       <c r="P484" t="inlineStr"/>
       <c r="Q484" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R484" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="S484" t="n">
         <v>0</v>
       </c>
       <c r="T484" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U484" t="n">
         <v>2014</v>
@@ -41779,7 +41779,7 @@
       </c>
       <c r="J485" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Wales', 'Italy']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="K485" t="inlineStr">
@@ -41805,18 +41805,18 @@
       </c>
       <c r="P485" t="inlineStr"/>
       <c r="Q485" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R485" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="S485" t="n">
         <v>0</v>
       </c>
       <c r="T485" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U485" t="n">
         <v>1890</v>
@@ -41867,7 +41867,7 @@
       </c>
       <c r="J486" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Wales', 'Italy']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="K486" t="inlineStr">
@@ -41893,18 +41893,18 @@
       </c>
       <c r="P486" t="inlineStr"/>
       <c r="Q486" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R486" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="S486" t="n">
         <v>0</v>
       </c>
       <c r="T486" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U486" t="n">
         <v>1890</v>
@@ -41955,7 +41955,7 @@
       </c>
       <c r="J487" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Wales', 'Italy']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="K487" t="inlineStr">
@@ -41981,18 +41981,18 @@
       </c>
       <c r="P487" t="inlineStr"/>
       <c r="Q487" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R487" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="S487" t="n">
         <v>0</v>
       </c>
       <c r="T487" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U487" t="n">
         <v>1890</v>
@@ -42043,7 +42043,7 @@
       </c>
       <c r="J488" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Wales', 'Italy']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="K488" t="inlineStr">
@@ -42069,18 +42069,18 @@
       </c>
       <c r="P488" t="inlineStr"/>
       <c r="Q488" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R488" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="S488" t="n">
         <v>0</v>
       </c>
       <c r="T488" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U488" t="n">
         <v>1890</v>
@@ -42131,7 +42131,7 @@
       </c>
       <c r="J489" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Wales', 'Italy']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="K489" t="inlineStr">
@@ -42157,18 +42157,18 @@
       </c>
       <c r="P489" t="inlineStr"/>
       <c r="Q489" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R489" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="S489" t="n">
         <v>0</v>
       </c>
       <c r="T489" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U489" t="n">
         <v>1890</v>
@@ -42219,7 +42219,7 @@
       </c>
       <c r="J490" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Wales', 'Italy']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="K490" t="inlineStr">
@@ -42245,18 +42245,18 @@
       </c>
       <c r="P490" t="inlineStr"/>
       <c r="Q490" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R490" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="S490" t="n">
         <v>0</v>
       </c>
       <c r="T490" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U490" t="n">
         <v>1890</v>
@@ -42319,11 +42319,11 @@
       </c>
       <c r="P491" t="inlineStr"/>
       <c r="Q491" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R491" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland']</t>
+          <t>['Belgium', 'Finland', 'Russia']</t>
         </is>
       </c>
       <c r="S491" t="n">
@@ -42399,11 +42399,11 @@
       </c>
       <c r="P492" t="inlineStr"/>
       <c r="Q492" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R492" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland']</t>
+          <t>['Belgium', 'Finland', 'Russia']</t>
         </is>
       </c>
       <c r="S492" t="n">
@@ -42473,11 +42473,11 @@
       </c>
       <c r="P493" t="inlineStr"/>
       <c r="Q493" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R493" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland']</t>
+          <t>['Belgium', 'Finland', 'Russia']</t>
         </is>
       </c>
       <c r="S493" t="n">
@@ -42553,11 +42553,11 @@
       </c>
       <c r="P494" t="inlineStr"/>
       <c r="Q494" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R494" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland']</t>
+          <t>['Belgium', 'Finland', 'Russia']</t>
         </is>
       </c>
       <c r="S494" t="n">
@@ -42627,11 +42627,11 @@
       </c>
       <c r="P495" t="inlineStr"/>
       <c r="Q495" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R495" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland']</t>
+          <t>['Belgium', 'Finland', 'Russia']</t>
         </is>
       </c>
       <c r="S495" t="n">
@@ -42707,11 +42707,11 @@
       </c>
       <c r="P496" t="inlineStr"/>
       <c r="Q496" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R496" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland']</t>
+          <t>['Belgium', 'Finland', 'Russia']</t>
         </is>
       </c>
       <c r="S496" t="n">
@@ -42781,11 +42781,11 @@
       </c>
       <c r="P497" t="inlineStr"/>
       <c r="Q497" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R497" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland']</t>
+          <t>['Belgium', 'Finland', 'Russia']</t>
         </is>
       </c>
       <c r="S497" t="n">
@@ -42861,11 +42861,11 @@
       </c>
       <c r="P498" t="inlineStr"/>
       <c r="Q498" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R498" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland']</t>
+          <t>['Belgium', 'Finland', 'Russia']</t>
         </is>
       </c>
       <c r="S498" t="n">
@@ -42923,7 +42923,7 @@
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>['Denmark', 'Finland', 'Belgium']</t>
+          <t>['Finland', 'Denmark', 'Belgium']</t>
         </is>
       </c>
       <c r="K499" t="inlineStr">
@@ -42957,10 +42957,10 @@
         </is>
       </c>
       <c r="S499" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T499" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U499" t="n">
         <v>1744</v>
@@ -43011,7 +43011,7 @@
       </c>
       <c r="J500" t="inlineStr">
         <is>
-          <t>['Denmark', 'Finland', 'Belgium']</t>
+          <t>['Finland', 'Denmark', 'Belgium']</t>
         </is>
       </c>
       <c r="K500" t="inlineStr">
@@ -43048,7 +43048,7 @@
         <v>0</v>
       </c>
       <c r="T500" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U500" t="n">
         <v>1744</v>
@@ -43099,7 +43099,7 @@
       </c>
       <c r="J501" t="inlineStr">
         <is>
-          <t>['Denmark', 'Finland', 'Belgium']</t>
+          <t>['Finland', 'Denmark', 'Belgium']</t>
         </is>
       </c>
       <c r="K501" t="inlineStr">
@@ -43136,7 +43136,7 @@
         <v>0</v>
       </c>
       <c r="T501" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U501" t="n">
         <v>1744</v>
@@ -43187,7 +43187,7 @@
       </c>
       <c r="J502" t="inlineStr">
         <is>
-          <t>['Denmark', 'Finland', 'Belgium']</t>
+          <t>['Finland', 'Denmark', 'Belgium']</t>
         </is>
       </c>
       <c r="K502" t="inlineStr">
@@ -43224,7 +43224,7 @@
         <v>0</v>
       </c>
       <c r="T502" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U502" t="n">
         <v>1744</v>
@@ -43275,7 +43275,7 @@
       </c>
       <c r="J503" t="inlineStr">
         <is>
-          <t>['Denmark', 'Finland', 'Belgium']</t>
+          <t>['Finland', 'Denmark', 'Belgium']</t>
         </is>
       </c>
       <c r="K503" t="inlineStr">
@@ -43301,18 +43301,18 @@
       </c>
       <c r="P503" t="inlineStr"/>
       <c r="Q503" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R503" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="S503" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U503" t="n">
         <v>1744</v>
@@ -43363,7 +43363,7 @@
       </c>
       <c r="J504" t="inlineStr">
         <is>
-          <t>['Denmark', 'Finland', 'Belgium']</t>
+          <t>['Finland', 'Denmark', 'Belgium']</t>
         </is>
       </c>
       <c r="K504" t="inlineStr">
@@ -43389,18 +43389,18 @@
       </c>
       <c r="P504" t="inlineStr"/>
       <c r="Q504" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R504" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="S504" t="n">
         <v>0</v>
       </c>
       <c r="T504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U504" t="n">
         <v>1744</v>
@@ -43451,7 +43451,7 @@
       </c>
       <c r="J505" t="inlineStr">
         <is>
-          <t>['Denmark', 'Finland', 'Belgium']</t>
+          <t>['Finland', 'Denmark', 'Belgium']</t>
         </is>
       </c>
       <c r="K505" t="inlineStr">
@@ -43477,18 +43477,18 @@
       </c>
       <c r="P505" t="inlineStr"/>
       <c r="Q505" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R505" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="S505" t="n">
         <v>0</v>
       </c>
       <c r="T505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U505" t="n">
         <v>1744</v>
@@ -43539,7 +43539,7 @@
       </c>
       <c r="J506" t="inlineStr">
         <is>
-          <t>['Denmark', 'Finland', 'Belgium']</t>
+          <t>['Finland', 'Denmark', 'Belgium']</t>
         </is>
       </c>
       <c r="K506" t="inlineStr">
@@ -43565,18 +43565,18 @@
       </c>
       <c r="P506" t="inlineStr"/>
       <c r="Q506" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R506" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="S506" t="n">
         <v>0</v>
       </c>
       <c r="T506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U506" t="n">
         <v>1744</v>
@@ -43627,7 +43627,7 @@
       </c>
       <c r="J507" t="inlineStr">
         <is>
-          <t>['Denmark', 'Finland', 'Belgium']</t>
+          <t>['Finland', 'Denmark', 'Belgium']</t>
         </is>
       </c>
       <c r="K507" t="inlineStr">
@@ -43661,10 +43661,10 @@
         </is>
       </c>
       <c r="S507" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T507" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U507" t="n">
         <v>1744</v>
@@ -43715,7 +43715,7 @@
       </c>
       <c r="J508" t="inlineStr">
         <is>
-          <t>['Denmark', 'Finland', 'Belgium']</t>
+          <t>['Finland', 'Denmark', 'Belgium']</t>
         </is>
       </c>
       <c r="K508" t="inlineStr">
@@ -43752,7 +43752,7 @@
         <v>0</v>
       </c>
       <c r="T508" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U508" t="n">
         <v>1744</v>
@@ -43803,7 +43803,7 @@
       </c>
       <c r="J509" t="inlineStr">
         <is>
-          <t>['Denmark', 'Finland', 'Belgium']</t>
+          <t>['Finland', 'Denmark', 'Belgium']</t>
         </is>
       </c>
       <c r="K509" t="inlineStr">
@@ -43840,7 +43840,7 @@
         <v>0</v>
       </c>
       <c r="T509" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U509" t="n">
         <v>1744</v>
@@ -43891,7 +43891,7 @@
       </c>
       <c r="J510" t="inlineStr">
         <is>
-          <t>['Denmark', 'Finland', 'Belgium']</t>
+          <t>['Finland', 'Denmark', 'Belgium']</t>
         </is>
       </c>
       <c r="K510" t="inlineStr">
@@ -43928,7 +43928,7 @@
         <v>0</v>
       </c>
       <c r="T510" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U510" t="n">
         <v>1744</v>
@@ -44016,7 +44016,7 @@
         <v>1</v>
       </c>
       <c r="T511" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U511" t="n">
         <v>1684</v>
@@ -44104,7 +44104,7 @@
         <v>0</v>
       </c>
       <c r="T512" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U512" t="n">
         <v>1684</v>
@@ -44192,7 +44192,7 @@
         <v>0</v>
       </c>
       <c r="T513" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U513" t="n">
         <v>1684</v>
@@ -44280,7 +44280,7 @@
         <v>0</v>
       </c>
       <c r="T514" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U514" t="n">
         <v>1684</v>
@@ -44368,7 +44368,7 @@
         <v>0</v>
       </c>
       <c r="T515" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U515" t="n">
         <v>1744</v>
@@ -44456,7 +44456,7 @@
         <v>0</v>
       </c>
       <c r="T516" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U516" t="n">
         <v>1744</v>
@@ -44544,7 +44544,7 @@
         <v>0</v>
       </c>
       <c r="T517" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U517" t="n">
         <v>1744</v>
@@ -44632,7 +44632,7 @@
         <v>0</v>
       </c>
       <c r="T518" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U518" t="n">
         <v>1744</v>
@@ -44720,7 +44720,7 @@
         <v>0</v>
       </c>
       <c r="T519" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U519" t="n">
         <v>1684</v>
@@ -44808,7 +44808,7 @@
         <v>0</v>
       </c>
       <c r="T520" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U520" t="n">
         <v>1684</v>
@@ -44896,7 +44896,7 @@
         <v>0</v>
       </c>
       <c r="T521" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U521" t="n">
         <v>1684</v>
@@ -44984,7 +44984,7 @@
         <v>0</v>
       </c>
       <c r="T522" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U522" t="n">
         <v>1684</v>
@@ -45072,7 +45072,7 @@
         <v>0</v>
       </c>
       <c r="T523" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U523" t="n">
         <v>1744</v>
@@ -45160,7 +45160,7 @@
         <v>0</v>
       </c>
       <c r="T524" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U524" t="n">
         <v>1744</v>
@@ -45248,7 +45248,7 @@
         <v>0</v>
       </c>
       <c r="T525" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U525" t="n">
         <v>1744</v>
@@ -45336,7 +45336,7 @@
         <v>0</v>
       </c>
       <c r="T526" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U526" t="n">
         <v>1744</v>
@@ -45373,7 +45373,7 @@
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K527" t="inlineStr">
@@ -45399,11 +45399,11 @@
       </c>
       <c r="P527" t="inlineStr"/>
       <c r="Q527" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R527" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="S527" t="n">
@@ -45453,7 +45453,7 @@
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K528" t="inlineStr">
@@ -45479,11 +45479,11 @@
       </c>
       <c r="P528" t="inlineStr"/>
       <c r="Q528" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R528" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="S528" t="n">
@@ -45527,7 +45527,7 @@
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K529" t="inlineStr">
@@ -45553,11 +45553,11 @@
       </c>
       <c r="P529" t="inlineStr"/>
       <c r="Q529" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R529" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="S529" t="n">
@@ -45607,7 +45607,7 @@
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K530" t="inlineStr">
@@ -45633,11 +45633,11 @@
       </c>
       <c r="P530" t="inlineStr"/>
       <c r="Q530" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R530" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="S530" t="n">
@@ -45681,7 +45681,7 @@
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K531" t="inlineStr">
@@ -45707,11 +45707,11 @@
       </c>
       <c r="P531" t="inlineStr"/>
       <c r="Q531" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R531" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="S531" t="n">
@@ -45761,7 +45761,7 @@
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K532" t="inlineStr">
@@ -45787,11 +45787,11 @@
       </c>
       <c r="P532" t="inlineStr"/>
       <c r="Q532" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R532" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="S532" t="n">
@@ -45845,7 +45845,7 @@
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K533" t="inlineStr">
@@ -45871,11 +45871,11 @@
       </c>
       <c r="P533" t="inlineStr"/>
       <c r="Q533" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R533" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="S533" t="n">
@@ -45929,7 +45929,7 @@
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K534" t="inlineStr">
@@ -45955,11 +45955,11 @@
       </c>
       <c r="P534" t="inlineStr"/>
       <c r="Q534" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R534" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="S534" t="n">
@@ -46013,7 +46013,7 @@
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K535" t="inlineStr">
@@ -46039,11 +46039,11 @@
       </c>
       <c r="P535" t="inlineStr"/>
       <c r="Q535" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R535" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="S535" t="n">
@@ -46101,7 +46101,7 @@
       </c>
       <c r="J536" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K536" t="inlineStr">
@@ -46189,7 +46189,7 @@
       </c>
       <c r="J537" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K537" t="inlineStr">
@@ -46277,7 +46277,7 @@
       </c>
       <c r="J538" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K538" t="inlineStr">
@@ -46365,7 +46365,7 @@
       </c>
       <c r="J539" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K539" t="inlineStr">
@@ -46453,7 +46453,7 @@
       </c>
       <c r="J540" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K540" t="inlineStr">
@@ -46541,7 +46541,7 @@
       </c>
       <c r="J541" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K541" t="inlineStr">
@@ -46629,7 +46629,7 @@
       </c>
       <c r="J542" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K542" t="inlineStr">
@@ -46717,7 +46717,7 @@
       </c>
       <c r="J543" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K543" t="inlineStr">
@@ -46805,7 +46805,7 @@
       </c>
       <c r="J544" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K544" t="inlineStr">
@@ -46893,7 +46893,7 @@
       </c>
       <c r="J545" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K545" t="inlineStr">
@@ -46981,7 +46981,7 @@
       </c>
       <c r="J546" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K546" t="inlineStr">
@@ -47069,7 +47069,7 @@
       </c>
       <c r="J547" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K547" t="inlineStr">
@@ -47143,7 +47143,7 @@
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['Croatia', 'Czech Republic', 'England']</t>
         </is>
       </c>
       <c r="K548" t="inlineStr">
@@ -47223,7 +47223,7 @@
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['Croatia', 'Czech Republic', 'England']</t>
         </is>
       </c>
       <c r="K549" t="inlineStr">
@@ -47297,7 +47297,7 @@
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['Croatia', 'Czech Republic', 'England']</t>
         </is>
       </c>
       <c r="K550" t="inlineStr">
@@ -47377,7 +47377,7 @@
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['Croatia', 'Czech Republic', 'England']</t>
         </is>
       </c>
       <c r="K551" t="inlineStr">
@@ -47465,7 +47465,7 @@
       </c>
       <c r="J552" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['Croatia', 'Czech Republic', 'England']</t>
         </is>
       </c>
       <c r="K552" t="inlineStr">
@@ -47553,7 +47553,7 @@
       </c>
       <c r="J553" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['Croatia', 'Czech Republic', 'England']</t>
         </is>
       </c>
       <c r="K553" t="inlineStr">
@@ -47641,7 +47641,7 @@
       </c>
       <c r="J554" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['Croatia', 'Czech Republic', 'England']</t>
         </is>
       </c>
       <c r="K554" t="inlineStr">
@@ -47667,18 +47667,18 @@
       </c>
       <c r="P554" t="inlineStr"/>
       <c r="Q554" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R554" t="inlineStr">
         <is>
-          <t>['England', 'Czech Republic']</t>
+          <t>['England', 'Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="S554" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T554" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U554" t="n">
         <v>1825</v>
@@ -47729,7 +47729,7 @@
       </c>
       <c r="J555" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['Croatia', 'Czech Republic', 'England']</t>
         </is>
       </c>
       <c r="K555" t="inlineStr">
@@ -47755,18 +47755,18 @@
       </c>
       <c r="P555" t="inlineStr"/>
       <c r="Q555" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R555" t="inlineStr">
         <is>
-          <t>['England', 'Czech Republic']</t>
+          <t>['England', 'Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="S555" t="n">
         <v>0</v>
       </c>
       <c r="T555" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U555" t="n">
         <v>1825</v>
@@ -47817,7 +47817,7 @@
       </c>
       <c r="J556" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['Croatia', 'Czech Republic', 'England']</t>
         </is>
       </c>
       <c r="K556" t="inlineStr">
@@ -47851,10 +47851,10 @@
         </is>
       </c>
       <c r="S556" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U556" t="n">
         <v>1825</v>
@@ -47905,7 +47905,7 @@
       </c>
       <c r="J557" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['Croatia', 'Czech Republic', 'England']</t>
         </is>
       </c>
       <c r="K557" t="inlineStr">
@@ -47942,7 +47942,7 @@
         <v>0</v>
       </c>
       <c r="T557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U557" t="n">
         <v>1825</v>
@@ -47993,7 +47993,7 @@
       </c>
       <c r="J558" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['Croatia', 'Czech Republic', 'England']</t>
         </is>
       </c>
       <c r="K558" t="inlineStr">
@@ -48019,18 +48019,18 @@
       </c>
       <c r="P558" t="inlineStr"/>
       <c r="Q558" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R558" t="inlineStr">
         <is>
-          <t>['England', 'Czech Republic']</t>
+          <t>['England', 'Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="S558" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T558" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U558" t="n">
         <v>1825</v>
@@ -48081,7 +48081,7 @@
       </c>
       <c r="J559" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['Croatia', 'Czech Republic', 'England']</t>
         </is>
       </c>
       <c r="K559" t="inlineStr">
@@ -48107,18 +48107,18 @@
       </c>
       <c r="P559" t="inlineStr"/>
       <c r="Q559" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R559" t="inlineStr">
         <is>
-          <t>['England', 'Czech Republic']</t>
+          <t>['England', 'Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="S559" t="n">
         <v>0</v>
       </c>
       <c r="T559" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U559" t="n">
         <v>1825</v>
@@ -48169,7 +48169,7 @@
       </c>
       <c r="J560" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['Croatia', 'Czech Republic', 'England']</t>
         </is>
       </c>
       <c r="K560" t="inlineStr">
@@ -48195,18 +48195,18 @@
       </c>
       <c r="P560" t="inlineStr"/>
       <c r="Q560" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R560" t="inlineStr">
         <is>
-          <t>['England', 'Croatia']</t>
+          <t>['England', 'Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="S560" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T560" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U560" t="n">
         <v>1825</v>
@@ -48257,7 +48257,7 @@
       </c>
       <c r="J561" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['Croatia', 'Czech Republic', 'England']</t>
         </is>
       </c>
       <c r="K561" t="inlineStr">
@@ -48283,18 +48283,18 @@
       </c>
       <c r="P561" t="inlineStr"/>
       <c r="Q561" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R561" t="inlineStr">
         <is>
-          <t>['England', 'Croatia']</t>
+          <t>['England', 'Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="S561" t="n">
         <v>0</v>
       </c>
       <c r="T561" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U561" t="n">
         <v>1825</v>
@@ -48331,7 +48331,7 @@
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K562" t="inlineStr">
@@ -48357,11 +48357,11 @@
       </c>
       <c r="P562" t="inlineStr"/>
       <c r="Q562" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R562" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="S562" t="n">
@@ -48411,7 +48411,7 @@
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K563" t="inlineStr">
@@ -48437,11 +48437,11 @@
       </c>
       <c r="P563" t="inlineStr"/>
       <c r="Q563" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R563" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="S563" t="n">
@@ -48485,7 +48485,7 @@
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K564" t="inlineStr">
@@ -48511,11 +48511,11 @@
       </c>
       <c r="P564" t="inlineStr"/>
       <c r="Q564" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R564" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="S564" t="n">
@@ -48565,7 +48565,7 @@
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K565" t="inlineStr">
@@ -48591,11 +48591,11 @@
       </c>
       <c r="P565" t="inlineStr"/>
       <c r="Q565" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R565" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="S565" t="n">
@@ -48639,7 +48639,7 @@
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K566" t="inlineStr">
@@ -48665,11 +48665,11 @@
       </c>
       <c r="P566" t="inlineStr"/>
       <c r="Q566" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R566" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="S566" t="n">
@@ -48719,7 +48719,7 @@
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K567" t="inlineStr">
@@ -48745,11 +48745,11 @@
       </c>
       <c r="P567" t="inlineStr"/>
       <c r="Q567" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R567" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="S567" t="n">
@@ -48793,7 +48793,7 @@
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K568" t="inlineStr">
@@ -48819,11 +48819,11 @@
       </c>
       <c r="P568" t="inlineStr"/>
       <c r="Q568" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R568" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="S568" t="n">
@@ -48873,7 +48873,7 @@
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K569" t="inlineStr">
@@ -48899,11 +48899,11 @@
       </c>
       <c r="P569" t="inlineStr"/>
       <c r="Q569" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R569" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="S569" t="n">
@@ -48961,7 +48961,7 @@
       </c>
       <c r="J570" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K570" t="inlineStr">
@@ -48987,11 +48987,11 @@
       </c>
       <c r="P570" t="inlineStr"/>
       <c r="Q570" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R570" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="S570" t="n">
@@ -49049,7 +49049,7 @@
       </c>
       <c r="J571" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K571" t="inlineStr">
@@ -49075,11 +49075,11 @@
       </c>
       <c r="P571" t="inlineStr"/>
       <c r="Q571" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R571" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="S571" t="n">
@@ -49137,7 +49137,7 @@
       </c>
       <c r="J572" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K572" t="inlineStr">
@@ -49163,11 +49163,11 @@
       </c>
       <c r="P572" t="inlineStr"/>
       <c r="Q572" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R572" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="S572" t="n">
@@ -49225,7 +49225,7 @@
       </c>
       <c r="J573" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K573" t="inlineStr">
@@ -49251,11 +49251,11 @@
       </c>
       <c r="P573" t="inlineStr"/>
       <c r="Q573" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R573" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="S573" t="n">
@@ -49313,7 +49313,7 @@
       </c>
       <c r="J574" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K574" t="inlineStr">
@@ -49401,7 +49401,7 @@
       </c>
       <c r="J575" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K575" t="inlineStr">
@@ -49489,7 +49489,7 @@
       </c>
       <c r="J576" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K576" t="inlineStr">
@@ -49577,7 +49577,7 @@
       </c>
       <c r="J577" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K577" t="inlineStr">
@@ -49665,7 +49665,7 @@
       </c>
       <c r="J578" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K578" t="inlineStr">
@@ -49753,7 +49753,7 @@
       </c>
       <c r="J579" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K579" t="inlineStr">
@@ -49841,7 +49841,7 @@
       </c>
       <c r="J580" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K580" t="inlineStr">
@@ -49929,7 +49929,7 @@
       </c>
       <c r="J581" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K581" t="inlineStr">
@@ -50017,7 +50017,7 @@
       </c>
       <c r="J582" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K582" t="inlineStr">
@@ -50105,7 +50105,7 @@
       </c>
       <c r="J583" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K583" t="inlineStr">
@@ -50193,7 +50193,7 @@
       </c>
       <c r="J584" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K584" t="inlineStr">
@@ -50281,7 +50281,7 @@
       </c>
       <c r="J585" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K585" t="inlineStr">
@@ -50369,7 +50369,7 @@
       </c>
       <c r="J586" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K586" t="inlineStr">
@@ -50457,7 +50457,7 @@
       </c>
       <c r="J587" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K587" t="inlineStr">
@@ -50545,7 +50545,7 @@
       </c>
       <c r="J588" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K588" t="inlineStr">
@@ -50633,7 +50633,7 @@
       </c>
       <c r="J589" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K589" t="inlineStr">
@@ -50721,7 +50721,7 @@
       </c>
       <c r="J590" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K590" t="inlineStr">
@@ -50809,7 +50809,7 @@
       </c>
       <c r="J591" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K591" t="inlineStr">
@@ -50897,7 +50897,7 @@
       </c>
       <c r="J592" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K592" t="inlineStr">
@@ -50985,7 +50985,7 @@
       </c>
       <c r="J593" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K593" t="inlineStr">
@@ -51073,7 +51073,7 @@
       </c>
       <c r="J594" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K594" t="inlineStr">
@@ -51161,7 +51161,7 @@
       </c>
       <c r="J595" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K595" t="inlineStr">
@@ -51249,7 +51249,7 @@
       </c>
       <c r="J596" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K596" t="inlineStr">
@@ -51337,7 +51337,7 @@
       </c>
       <c r="J597" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K597" t="inlineStr">
@@ -51425,7 +51425,7 @@
       </c>
       <c r="J598" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K598" t="inlineStr">
@@ -51513,7 +51513,7 @@
       </c>
       <c r="J599" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K599" t="inlineStr">
@@ -51601,7 +51601,7 @@
       </c>
       <c r="J600" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K600" t="inlineStr">
@@ -51689,7 +51689,7 @@
       </c>
       <c r="J601" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K601" t="inlineStr">
@@ -52129,7 +52129,7 @@
       </c>
       <c r="J606" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K606" t="inlineStr">
@@ -52217,7 +52217,7 @@
       </c>
       <c r="J607" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K607" t="inlineStr">
@@ -52305,7 +52305,7 @@
       </c>
       <c r="J608" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K608" t="inlineStr">
@@ -52393,7 +52393,7 @@
       </c>
       <c r="J609" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K609" t="inlineStr">
@@ -52467,7 +52467,7 @@
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal', 'France']</t>
+          <t>['Germany', 'France', 'Portugal']</t>
         </is>
       </c>
       <c r="K610" t="inlineStr">
@@ -52493,11 +52493,11 @@
       </c>
       <c r="P610" t="inlineStr"/>
       <c r="Q610" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R610" t="inlineStr">
         <is>
-          <t>['France', 'Portugal']</t>
+          <t>['France', 'Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="S610" t="n">
@@ -52537,7 +52537,7 @@
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal', 'France']</t>
+          <t>['Germany', 'France', 'Portugal']</t>
         </is>
       </c>
       <c r="K611" t="inlineStr">
@@ -52563,11 +52563,11 @@
       </c>
       <c r="P611" t="inlineStr"/>
       <c r="Q611" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R611" t="inlineStr">
         <is>
-          <t>['France', 'Portugal']</t>
+          <t>['France', 'Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="S611" t="n">
@@ -52621,7 +52621,7 @@
       </c>
       <c r="J612" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'France']</t>
+          <t>['France', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K612" t="inlineStr">
@@ -52647,18 +52647,18 @@
       </c>
       <c r="P612" t="inlineStr"/>
       <c r="Q612" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R612" t="inlineStr">
         <is>
-          <t>['France', 'Portugal']</t>
+          <t>['France', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="S612" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T612" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U612" t="n">
         <v>1936</v>
@@ -52709,7 +52709,7 @@
       </c>
       <c r="J613" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'France']</t>
+          <t>['France', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K613" t="inlineStr">
@@ -52735,18 +52735,18 @@
       </c>
       <c r="P613" t="inlineStr"/>
       <c r="Q613" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R613" t="inlineStr">
         <is>
-          <t>['France', 'Portugal']</t>
+          <t>['France', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="S613" t="n">
         <v>0</v>
       </c>
       <c r="T613" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U613" t="n">
         <v>1936</v>
@@ -52797,7 +52797,7 @@
       </c>
       <c r="J614" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'France']</t>
+          <t>['France', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K614" t="inlineStr">
@@ -52823,18 +52823,18 @@
       </c>
       <c r="P614" t="inlineStr"/>
       <c r="Q614" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R614" t="inlineStr">
         <is>
-          <t>['Portugal', 'France']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="S614" t="n">
         <v>0</v>
       </c>
       <c r="T614" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U614" t="n">
         <v>2040</v>
@@ -52885,7 +52885,7 @@
       </c>
       <c r="J615" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'France']</t>
+          <t>['France', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K615" t="inlineStr">
@@ -52911,18 +52911,18 @@
       </c>
       <c r="P615" t="inlineStr"/>
       <c r="Q615" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R615" t="inlineStr">
         <is>
-          <t>['Portugal', 'France']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="S615" t="n">
         <v>0</v>
       </c>
       <c r="T615" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U615" t="n">
         <v>2040</v>
@@ -52973,7 +52973,7 @@
       </c>
       <c r="J616" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'France']</t>
+          <t>['France', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K616" t="inlineStr">
@@ -52999,18 +52999,18 @@
       </c>
       <c r="P616" t="inlineStr"/>
       <c r="Q616" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R616" t="inlineStr">
         <is>
-          <t>['France', 'Portugal']</t>
+          <t>['France', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="S616" t="n">
         <v>0</v>
       </c>
       <c r="T616" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U616" t="n">
         <v>2040</v>
@@ -53061,7 +53061,7 @@
       </c>
       <c r="J617" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'France']</t>
+          <t>['France', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K617" t="inlineStr">
@@ -53098,7 +53098,7 @@
         <v>1</v>
       </c>
       <c r="T617" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U617" t="n">
         <v>2040</v>
@@ -53149,7 +53149,7 @@
       </c>
       <c r="J618" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'France']</t>
+          <t>['France', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K618" t="inlineStr">
@@ -53175,18 +53175,18 @@
       </c>
       <c r="P618" t="inlineStr"/>
       <c r="Q618" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R618" t="inlineStr">
         <is>
-          <t>['France', 'Portugal']</t>
+          <t>['France', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="S618" t="n">
         <v>1</v>
       </c>
       <c r="T618" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U618" t="n">
         <v>2040</v>
@@ -53237,7 +53237,7 @@
       </c>
       <c r="J619" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'France']</t>
+          <t>['France', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K619" t="inlineStr">
@@ -53274,7 +53274,7 @@
         <v>1</v>
       </c>
       <c r="T619" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U619" t="n">
         <v>2040</v>
@@ -53325,7 +53325,7 @@
       </c>
       <c r="J620" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'France']</t>
+          <t>['France', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K620" t="inlineStr">
@@ -53351,18 +53351,18 @@
       </c>
       <c r="P620" t="inlineStr"/>
       <c r="Q620" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R620" t="inlineStr">
         <is>
-          <t>['France', 'Portugal']</t>
+          <t>['France', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="S620" t="n">
         <v>1</v>
       </c>
       <c r="T620" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U620" t="n">
         <v>2040</v>
@@ -53413,7 +53413,7 @@
       </c>
       <c r="J621" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'France']</t>
+          <t>['France', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K621" t="inlineStr">
@@ -53439,18 +53439,18 @@
       </c>
       <c r="P621" t="inlineStr"/>
       <c r="Q621" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R621" t="inlineStr">
         <is>
-          <t>['France', 'Portugal']</t>
+          <t>['France', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="S621" t="n">
         <v>0</v>
       </c>
       <c r="T621" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U621" t="n">
         <v>2040</v>
@@ -53501,7 +53501,7 @@
       </c>
       <c r="J622" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal', 'France']</t>
+          <t>['Germany', 'France', 'Portugal']</t>
         </is>
       </c>
       <c r="K622" t="inlineStr">
@@ -53527,18 +53527,18 @@
       </c>
       <c r="P622" t="inlineStr"/>
       <c r="Q622" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R622" t="inlineStr">
         <is>
-          <t>['France', 'Portugal']</t>
+          <t>['France', 'Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="S622" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T622" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U622" t="n">
         <v>1936</v>
@@ -53589,7 +53589,7 @@
       </c>
       <c r="J623" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal', 'France']</t>
+          <t>['Germany', 'France', 'Portugal']</t>
         </is>
       </c>
       <c r="K623" t="inlineStr">
@@ -53615,18 +53615,18 @@
       </c>
       <c r="P623" t="inlineStr"/>
       <c r="Q623" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R623" t="inlineStr">
         <is>
-          <t>['France', 'Portugal']</t>
+          <t>['France', 'Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="S623" t="n">
         <v>0</v>
       </c>
       <c r="T623" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U623" t="n">
         <v>1936</v>
@@ -53677,7 +53677,7 @@
       </c>
       <c r="J624" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'France']</t>
+          <t>['France', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K624" t="inlineStr">
@@ -53703,18 +53703,18 @@
       </c>
       <c r="P624" t="inlineStr"/>
       <c r="Q624" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R624" t="inlineStr">
         <is>
-          <t>['France', 'Portugal']</t>
+          <t>['France', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="S624" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T624" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="U624" t="n">
         <v>1936</v>
@@ -53765,7 +53765,7 @@
       </c>
       <c r="J625" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'France']</t>
+          <t>['France', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K625" t="inlineStr">
@@ -53791,18 +53791,18 @@
       </c>
       <c r="P625" t="inlineStr"/>
       <c r="Q625" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R625" t="inlineStr">
         <is>
-          <t>['France', 'Portugal']</t>
+          <t>['France', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="S625" t="n">
         <v>0</v>
       </c>
       <c r="T625" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="U625" t="n">
         <v>1936</v>
@@ -53853,7 +53853,7 @@
       </c>
       <c r="J626" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal', 'France']</t>
+          <t>['Germany', 'France', 'Portugal']</t>
         </is>
       </c>
       <c r="K626" t="inlineStr">
@@ -53879,18 +53879,18 @@
       </c>
       <c r="P626" t="inlineStr"/>
       <c r="Q626" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R626" t="inlineStr">
         <is>
-          <t>['France', 'Portugal']</t>
+          <t>['France', 'Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="S626" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T626" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="U626" t="n">
         <v>1936</v>
@@ -53941,7 +53941,7 @@
       </c>
       <c r="J627" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal', 'France']</t>
+          <t>['Germany', 'France', 'Portugal']</t>
         </is>
       </c>
       <c r="K627" t="inlineStr">
@@ -53967,18 +53967,18 @@
       </c>
       <c r="P627" t="inlineStr"/>
       <c r="Q627" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R627" t="inlineStr">
         <is>
-          <t>['France', 'Portugal']</t>
+          <t>['France', 'Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="S627" t="n">
         <v>0</v>
       </c>
       <c r="T627" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="U627" t="n">
         <v>1936</v>
@@ -54015,7 +54015,7 @@
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Scotland']</t>
+          <t>['Scotland', 'Germany', 'Switzerland']</t>
         </is>
       </c>
       <c r="K628" t="inlineStr">
@@ -54095,7 +54095,7 @@
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Scotland']</t>
+          <t>['Scotland', 'Germany', 'Switzerland']</t>
         </is>
       </c>
       <c r="K629" t="inlineStr">
@@ -54169,7 +54169,7 @@
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Scotland']</t>
+          <t>['Scotland', 'Germany', 'Switzerland']</t>
         </is>
       </c>
       <c r="K630" t="inlineStr">
@@ -54249,7 +54249,7 @@
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Scotland']</t>
+          <t>['Scotland', 'Germany', 'Switzerland']</t>
         </is>
       </c>
       <c r="K631" t="inlineStr">
@@ -54337,7 +54337,7 @@
       </c>
       <c r="J632" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Scotland']</t>
+          <t>['Scotland', 'Germany', 'Switzerland']</t>
         </is>
       </c>
       <c r="K632" t="inlineStr">
@@ -54425,7 +54425,7 @@
       </c>
       <c r="J633" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Scotland']</t>
+          <t>['Scotland', 'Germany', 'Switzerland']</t>
         </is>
       </c>
       <c r="K633" t="inlineStr">
@@ -54513,7 +54513,7 @@
       </c>
       <c r="J634" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Scotland']</t>
+          <t>['Scotland', 'Germany', 'Switzerland']</t>
         </is>
       </c>
       <c r="K634" t="inlineStr">
@@ -54601,7 +54601,7 @@
       </c>
       <c r="J635" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Scotland']</t>
+          <t>['Scotland', 'Germany', 'Switzerland']</t>
         </is>
       </c>
       <c r="K635" t="inlineStr">
@@ -54689,7 +54689,7 @@
       </c>
       <c r="J636" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Hungary']</t>
+          <t>['Germany', 'Hungary', 'Switzerland']</t>
         </is>
       </c>
       <c r="K636" t="inlineStr">
@@ -54715,18 +54715,18 @@
       </c>
       <c r="P636" t="inlineStr"/>
       <c r="Q636" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R636" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland']</t>
+          <t>['Germany', 'Switzerland', 'Hungary']</t>
         </is>
       </c>
       <c r="S636" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T636" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U636" t="n">
         <v>1770</v>
@@ -54777,7 +54777,7 @@
       </c>
       <c r="J637" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Hungary']</t>
+          <t>['Germany', 'Hungary', 'Switzerland']</t>
         </is>
       </c>
       <c r="K637" t="inlineStr">
@@ -54803,18 +54803,18 @@
       </c>
       <c r="P637" t="inlineStr"/>
       <c r="Q637" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R637" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland']</t>
+          <t>['Germany', 'Switzerland', 'Hungary']</t>
         </is>
       </c>
       <c r="S637" t="n">
         <v>0</v>
       </c>
       <c r="T637" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U637" t="n">
         <v>1770</v>
@@ -54851,7 +54851,7 @@
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr">
         <is>
-          <t>['Spain', 'Albania', 'Italy']</t>
+          <t>['Spain', 'Italy', 'Albania']</t>
         </is>
       </c>
       <c r="K638" t="inlineStr">
@@ -54931,7 +54931,7 @@
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr">
         <is>
-          <t>['Spain', 'Albania', 'Italy']</t>
+          <t>['Spain', 'Italy', 'Albania']</t>
         </is>
       </c>
       <c r="K639" t="inlineStr">
@@ -55005,7 +55005,7 @@
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr">
         <is>
-          <t>['Spain', 'Albania', 'Italy']</t>
+          <t>['Spain', 'Italy', 'Albania']</t>
         </is>
       </c>
       <c r="K640" t="inlineStr">
@@ -55085,7 +55085,7 @@
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr">
         <is>
-          <t>['Spain', 'Albania', 'Italy']</t>
+          <t>['Spain', 'Italy', 'Albania']</t>
         </is>
       </c>
       <c r="K641" t="inlineStr">
@@ -55173,7 +55173,7 @@
       </c>
       <c r="J642" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Italy']</t>
+          <t>['Spain', 'Italy', 'Croatia']</t>
         </is>
       </c>
       <c r="K642" t="inlineStr">
@@ -55261,7 +55261,7 @@
       </c>
       <c r="J643" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Italy']</t>
+          <t>['Spain', 'Italy', 'Croatia']</t>
         </is>
       </c>
       <c r="K643" t="inlineStr">
@@ -55349,7 +55349,7 @@
       </c>
       <c r="J644" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Italy']</t>
+          <t>['Spain', 'Italy', 'Croatia']</t>
         </is>
       </c>
       <c r="K644" t="inlineStr">
@@ -55375,11 +55375,11 @@
       </c>
       <c r="P644" t="inlineStr"/>
       <c r="Q644" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R644" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Spain', 'Croatia', 'Italy']</t>
         </is>
       </c>
       <c r="S644" t="n">
@@ -55437,7 +55437,7 @@
       </c>
       <c r="J645" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Italy']</t>
+          <t>['Spain', 'Italy', 'Croatia']</t>
         </is>
       </c>
       <c r="K645" t="inlineStr">
@@ -55463,11 +55463,11 @@
       </c>
       <c r="P645" t="inlineStr"/>
       <c r="Q645" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R645" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Spain', 'Croatia', 'Italy']</t>
         </is>
       </c>
       <c r="S645" t="n">
@@ -55525,7 +55525,7 @@
       </c>
       <c r="J646" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Italy']</t>
+          <t>['Spain', 'Italy', 'Croatia']</t>
         </is>
       </c>
       <c r="K646" t="inlineStr">
@@ -55613,7 +55613,7 @@
       </c>
       <c r="J647" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Italy']</t>
+          <t>['Spain', 'Italy', 'Croatia']</t>
         </is>
       </c>
       <c r="K647" t="inlineStr">
@@ -55687,7 +55687,7 @@
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr">
         <is>
-          <t>['Denmark', 'Slovenia', 'England']</t>
+          <t>['Slovenia', 'Denmark', 'England']</t>
         </is>
       </c>
       <c r="K648" t="inlineStr">
@@ -55767,7 +55767,7 @@
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr">
         <is>
-          <t>['Denmark', 'Slovenia', 'England']</t>
+          <t>['Slovenia', 'Denmark', 'England']</t>
         </is>
       </c>
       <c r="K649" t="inlineStr">
@@ -55851,7 +55851,7 @@
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr">
         <is>
-          <t>['Denmark', 'Slovenia', 'England']</t>
+          <t>['Slovenia', 'Denmark', 'England']</t>
         </is>
       </c>
       <c r="K650" t="inlineStr">
@@ -55925,7 +55925,7 @@
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K651" t="inlineStr">
@@ -55951,11 +55951,11 @@
       </c>
       <c r="P651" t="inlineStr"/>
       <c r="Q651" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R651" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="S651" t="n">
@@ -55995,7 +55995,7 @@
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K652" t="inlineStr">
@@ -56021,11 +56021,11 @@
       </c>
       <c r="P652" t="inlineStr"/>
       <c r="Q652" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R652" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="S652" t="n">
@@ -56079,7 +56079,7 @@
       </c>
       <c r="J653" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K653" t="inlineStr">
@@ -56105,18 +56105,18 @@
       </c>
       <c r="P653" t="inlineStr"/>
       <c r="Q653" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R653" t="inlineStr">
         <is>
-          <t>['Austria', 'France']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="S653" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T653" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U653" t="n">
         <v>1975</v>
@@ -56167,7 +56167,7 @@
       </c>
       <c r="J654" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K654" t="inlineStr">
@@ -56193,18 +56193,18 @@
       </c>
       <c r="P654" t="inlineStr"/>
       <c r="Q654" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R654" t="inlineStr">
         <is>
-          <t>['Austria', 'France']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="S654" t="n">
         <v>0</v>
       </c>
       <c r="T654" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U654" t="n">
         <v>1975</v>
@@ -56255,7 +56255,7 @@
       </c>
       <c r="J655" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K655" t="inlineStr">
@@ -56281,18 +56281,18 @@
       </c>
       <c r="P655" t="inlineStr"/>
       <c r="Q655" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R655" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="S655" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T655" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U655" t="n">
         <v>1975</v>
@@ -56343,7 +56343,7 @@
       </c>
       <c r="J656" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K656" t="inlineStr">
@@ -56369,18 +56369,18 @@
       </c>
       <c r="P656" t="inlineStr"/>
       <c r="Q656" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R656" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="S656" t="n">
         <v>0</v>
       </c>
       <c r="T656" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U656" t="n">
         <v>1975</v>
@@ -56431,7 +56431,7 @@
       </c>
       <c r="J657" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K657" t="inlineStr">
@@ -56457,18 +56457,18 @@
       </c>
       <c r="P657" t="inlineStr"/>
       <c r="Q657" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R657" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['France', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="S657" t="n">
         <v>0</v>
       </c>
       <c r="T657" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U657" t="n">
         <v>2077</v>
@@ -56519,7 +56519,7 @@
       </c>
       <c r="J658" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K658" t="inlineStr">
@@ -56545,18 +56545,18 @@
       </c>
       <c r="P658" t="inlineStr"/>
       <c r="Q658" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R658" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['France', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="S658" t="n">
         <v>0</v>
       </c>
       <c r="T658" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U658" t="n">
         <v>2077</v>
@@ -56607,7 +56607,7 @@
       </c>
       <c r="J659" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K659" t="inlineStr">
@@ -56633,18 +56633,18 @@
       </c>
       <c r="P659" t="inlineStr"/>
       <c r="Q659" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R659" t="inlineStr">
         <is>
-          <t>['France', 'Austria']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="S659" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T659" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U659" t="n">
         <v>1975</v>
@@ -56695,7 +56695,7 @@
       </c>
       <c r="J660" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K660" t="inlineStr">
@@ -56721,18 +56721,18 @@
       </c>
       <c r="P660" t="inlineStr"/>
       <c r="Q660" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R660" t="inlineStr">
         <is>
-          <t>['France', 'Austria']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="S660" t="n">
         <v>0</v>
       </c>
       <c r="T660" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U660" t="n">
         <v>1975</v>
@@ -56783,7 +56783,7 @@
       </c>
       <c r="J661" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K661" t="inlineStr">
@@ -56809,18 +56809,18 @@
       </c>
       <c r="P661" t="inlineStr"/>
       <c r="Q661" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R661" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['France', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="S661" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T661" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U661" t="n">
         <v>1975</v>
@@ -56871,7 +56871,7 @@
       </c>
       <c r="J662" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K662" t="inlineStr">
@@ -56897,18 +56897,18 @@
       </c>
       <c r="P662" t="inlineStr"/>
       <c r="Q662" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R662" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['France', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="S662" t="n">
         <v>0</v>
       </c>
       <c r="T662" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U662" t="n">
         <v>1975</v>
@@ -56959,7 +56959,7 @@
       </c>
       <c r="J663" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K663" t="inlineStr">
@@ -56985,18 +56985,18 @@
       </c>
       <c r="P663" t="inlineStr"/>
       <c r="Q663" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R663" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="S663" t="n">
         <v>0</v>
       </c>
       <c r="T663" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U663" t="n">
         <v>2077</v>
@@ -57047,7 +57047,7 @@
       </c>
       <c r="J664" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K664" t="inlineStr">
@@ -57073,18 +57073,18 @@
       </c>
       <c r="P664" t="inlineStr"/>
       <c r="Q664" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R664" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="S664" t="n">
         <v>0</v>
       </c>
       <c r="T664" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U664" t="n">
         <v>2077</v>
@@ -57135,7 +57135,7 @@
       </c>
       <c r="J665" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K665" t="inlineStr">
@@ -57161,18 +57161,18 @@
       </c>
       <c r="P665" t="inlineStr"/>
       <c r="Q665" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R665" t="inlineStr">
         <is>
-          <t>['Austria', 'France']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="S665" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T665" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U665" t="n">
         <v>1975</v>
@@ -57223,7 +57223,7 @@
       </c>
       <c r="J666" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K666" t="inlineStr">
@@ -57249,18 +57249,18 @@
       </c>
       <c r="P666" t="inlineStr"/>
       <c r="Q666" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R666" t="inlineStr">
         <is>
-          <t>['Austria', 'France']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="S666" t="n">
         <v>0</v>
       </c>
       <c r="T666" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U666" t="n">
         <v>1975</v>
@@ -57297,7 +57297,7 @@
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr">
         <is>
-          <t>['Romania', 'Slovakia', 'Belgium']</t>
+          <t>['Slovakia', 'Romania', 'Belgium']</t>
         </is>
       </c>
       <c r="K667" t="inlineStr">
@@ -57323,11 +57323,11 @@
       </c>
       <c r="P667" t="inlineStr"/>
       <c r="Q667" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R667" t="inlineStr">
         <is>
-          <t>['Romania', 'Belgium']</t>
+          <t>['Romania', 'Belgium', 'Slovakia']</t>
         </is>
       </c>
       <c r="S667" t="n">
@@ -57377,7 +57377,7 @@
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr">
         <is>
-          <t>['Romania', 'Slovakia', 'Belgium']</t>
+          <t>['Slovakia', 'Romania', 'Belgium']</t>
         </is>
       </c>
       <c r="K668" t="inlineStr">
@@ -57403,11 +57403,11 @@
       </c>
       <c r="P668" t="inlineStr"/>
       <c r="Q668" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R668" t="inlineStr">
         <is>
-          <t>['Romania', 'Belgium']</t>
+          <t>['Romania', 'Belgium', 'Slovakia']</t>
         </is>
       </c>
       <c r="S668" t="n">
@@ -57465,7 +57465,7 @@
       </c>
       <c r="J669" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Belgium', 'Ukraine']</t>
+          <t>['Slovakia', 'Ukraine', 'Belgium']</t>
         </is>
       </c>
       <c r="K669" t="inlineStr">
@@ -57491,11 +57491,11 @@
       </c>
       <c r="P669" t="inlineStr"/>
       <c r="Q669" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R669" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Belgium']</t>
+          <t>['Slovakia', 'Belgium', 'Ukraine']</t>
         </is>
       </c>
       <c r="S669" t="n">
@@ -57553,7 +57553,7 @@
       </c>
       <c r="J670" t="inlineStr">
         <is>
-          <t>['Romania', 'Slovakia', 'Belgium']</t>
+          <t>['Slovakia', 'Romania', 'Belgium']</t>
         </is>
       </c>
       <c r="K670" t="inlineStr">
@@ -57579,11 +57579,11 @@
       </c>
       <c r="P670" t="inlineStr"/>
       <c r="Q670" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R670" t="inlineStr">
         <is>
-          <t>['Romania', 'Belgium']</t>
+          <t>['Romania', 'Belgium', 'Slovakia']</t>
         </is>
       </c>
       <c r="S670" t="n">
@@ -57627,7 +57627,7 @@
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="K671" t="inlineStr">
@@ -57707,7 +57707,7 @@
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="K672" t="inlineStr">
@@ -57781,7 +57781,7 @@
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="K673" t="inlineStr">
@@ -57861,7 +57861,7 @@
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="K674" t="inlineStr">
@@ -57979,18 +57979,18 @@
         </is>
       </c>
       <c r="Q675" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R675" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey']</t>
+          <t>['Portugal', 'Turkey', 'Georgia']</t>
         </is>
       </c>
       <c r="S675" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T675" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U675" t="n">
         <v>1666</v>
@@ -58071,18 +58071,18 @@
         </is>
       </c>
       <c r="Q676" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R676" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey']</t>
+          <t>['Portugal', 'Turkey', 'Georgia']</t>
         </is>
       </c>
       <c r="S676" t="n">
         <v>0</v>
       </c>
       <c r="T676" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U676" t="n">
         <v>1666</v>
@@ -58159,18 +58159,18 @@
       </c>
       <c r="P677" t="inlineStr"/>
       <c r="Q677" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R677" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey']</t>
+          <t>['Portugal', 'Turkey', 'Georgia']</t>
         </is>
       </c>
       <c r="S677" t="n">
         <v>0</v>
       </c>
       <c r="T677" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U677" t="n">
         <v>1777</v>
@@ -58247,18 +58247,18 @@
       </c>
       <c r="P678" t="inlineStr"/>
       <c r="Q678" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R678" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey']</t>
+          <t>['Portugal', 'Turkey', 'Georgia']</t>
         </is>
       </c>
       <c r="S678" t="n">
         <v>0</v>
       </c>
       <c r="T678" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U678" t="n">
         <v>1777</v>
@@ -58335,18 +58335,18 @@
       </c>
       <c r="P679" t="inlineStr"/>
       <c r="Q679" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R679" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey']</t>
+          <t>['Portugal', 'Turkey', 'Georgia']</t>
         </is>
       </c>
       <c r="S679" t="n">
         <v>0</v>
       </c>
       <c r="T679" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U679" t="n">
         <v>1666</v>
@@ -58423,18 +58423,18 @@
       </c>
       <c r="P680" t="inlineStr"/>
       <c r="Q680" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R680" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey']</t>
+          <t>['Portugal', 'Turkey', 'Georgia']</t>
         </is>
       </c>
       <c r="S680" t="n">
         <v>0</v>
       </c>
       <c r="T680" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U680" t="n">
         <v>1666</v>
@@ -58515,15 +58515,15 @@
         </is>
       </c>
       <c r="Q681" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R681" t="inlineStr">
         <is>
-          <t>['Portugal', 'Georgia']</t>
+          <t>['Portugal', 'Georgia', 'Turkey']</t>
         </is>
       </c>
       <c r="S681" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T681" t="n">
         <v>1</v>
@@ -58607,11 +58607,11 @@
         </is>
       </c>
       <c r="Q682" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R682" t="inlineStr">
         <is>
-          <t>['Portugal', 'Georgia']</t>
+          <t>['Portugal', 'Georgia', 'Turkey']</t>
         </is>
       </c>
       <c r="S682" t="n">
@@ -58695,18 +58695,18 @@
       </c>
       <c r="P683" t="inlineStr"/>
       <c r="Q683" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R683" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey']</t>
+          <t>['Portugal', 'Turkey', 'Georgia']</t>
         </is>
       </c>
       <c r="S683" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T683" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U683" t="n">
         <v>1777</v>
@@ -58783,18 +58783,18 @@
       </c>
       <c r="P684" t="inlineStr"/>
       <c r="Q684" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R684" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey']</t>
+          <t>['Portugal', 'Turkey', 'Georgia']</t>
         </is>
       </c>
       <c r="S684" t="n">
         <v>0</v>
       </c>
       <c r="T684" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U684" t="n">
         <v>1777</v>

--- a/data/out/wiki/men/fifa/eu/goals_eu_fifa_men.xlsx
+++ b/data/out/wiki/men/fifa/eu/goals_eu_fifa_men.xlsx
@@ -633,7 +633,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -857,7 +857,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1113,7 +1113,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -2467,7 +2467,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -4155,7 +4155,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Netherlands']</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -4877,7 +4877,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -5005,7 +5005,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -5339,7 +5339,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -5467,7 +5467,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -5595,7 +5595,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -5723,7 +5723,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -5851,7 +5851,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -5979,7 +5979,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -6107,7 +6107,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -6221,7 +6221,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -6313,7 +6313,7 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -6441,7 +6441,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -6569,7 +6569,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -6825,7 +6825,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -7081,7 +7081,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -7291,7 +7291,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['Spain', 'Bulgaria']</t>
+          <t>['Bulgaria', 'Spain']</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -7419,7 +7419,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['Spain', 'France']</t>
+          <t>['France', 'Spain']</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -7931,7 +7931,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>['Spain', 'France']</t>
+          <t>['France', 'Spain']</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -8059,7 +8059,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>['Spain', 'France']</t>
+          <t>['France', 'Spain']</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -9491,7 +9491,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -9619,7 +9619,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -9747,7 +9747,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -9875,7 +9875,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -10003,7 +10003,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -10131,7 +10131,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -10465,7 +10465,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>['Romania', 'Portugal']</t>
+          <t>['Portugal', 'Romania']</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -10593,7 +10593,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>['Romania', 'Portugal']</t>
+          <t>['Portugal', 'Romania']</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -11361,7 +11361,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>['Romania', 'Portugal']</t>
+          <t>['Portugal', 'Romania']</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -11475,7 +11475,7 @@
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy']</t>
+          <t>['Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -11567,7 +11567,7 @@
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy']</t>
+          <t>['Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -11695,7 +11695,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy']</t>
+          <t>['Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -11823,7 +11823,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -11951,7 +11951,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -12079,7 +12079,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -12207,7 +12207,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -12541,7 +12541,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -12797,7 +12797,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -13053,7 +13053,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -13423,7 +13423,7 @@
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -13515,7 +13515,7 @@
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -13643,7 +13643,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -13771,7 +13771,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -13899,7 +13899,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -14027,7 +14027,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -14155,7 +14155,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -14283,7 +14283,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -14411,7 +14411,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -14525,7 +14525,7 @@
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr">
         <is>
-          <t>['Greece', 'Spain']</t>
+          <t>['Spain', 'Greece']</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -14617,7 +14617,7 @@
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr">
         <is>
-          <t>['Greece', 'Spain']</t>
+          <t>['Spain', 'Greece']</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -14745,7 +14745,7 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -14873,7 +14873,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -15001,7 +15001,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -15129,7 +15129,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>['Greece', 'Portugal']</t>
+          <t>['Portugal', 'Greece']</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -15339,7 +15339,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>['France', 'Croatia']</t>
+          <t>['Croatia', 'France']</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -15467,7 +15467,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>['France', 'Croatia']</t>
+          <t>['Croatia', 'France']</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -15595,7 +15595,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>['France', 'Croatia']</t>
+          <t>['Croatia', 'France']</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -15851,7 +15851,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -15979,7 +15979,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -16107,7 +16107,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -16605,7 +16605,7 @@
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -16701,7 +16701,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -16829,7 +16829,7 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -16957,7 +16957,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -17085,7 +17085,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -17213,7 +17213,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -17341,7 +17341,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -17469,7 +17469,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -17583,7 +17583,7 @@
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -17675,7 +17675,7 @@
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -17803,7 +17803,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -17931,7 +17931,7 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -18557,7 +18557,7 @@
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -18649,7 +18649,7 @@
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -18777,7 +18777,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -18905,7 +18905,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -19033,7 +19033,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -19161,7 +19161,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -19289,7 +19289,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -19417,7 +19417,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -19545,7 +19545,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal']</t>
+          <t>['Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -20245,7 +20245,7 @@
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Romania']</t>
+          <t>['Romania', 'Netherlands']</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -20337,7 +20337,7 @@
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Romania']</t>
+          <t>['Romania', 'Netherlands']</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -20461,7 +20461,7 @@
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Romania']</t>
+          <t>['Romania', 'Netherlands']</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -20589,7 +20589,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -20717,7 +20717,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -20845,7 +20845,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -20973,7 +20973,7 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -21087,7 +21087,7 @@
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden']</t>
+          <t>['Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -21179,7 +21179,7 @@
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden']</t>
+          <t>['Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -21307,7 +21307,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -21435,7 +21435,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -21563,7 +21563,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -21691,7 +21691,7 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -21819,7 +21819,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -22277,7 +22277,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>['Greece', 'Russia']</t>
+          <t>['Russia', 'Greece']</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -22519,7 +22519,7 @@
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal']</t>
+          <t>['Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -22743,7 +22743,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal']</t>
+          <t>['Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -22999,7 +22999,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal']</t>
+          <t>['Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -23127,7 +23127,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal']</t>
+          <t>['Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -23255,7 +23255,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal']</t>
+          <t>['Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -23369,7 +23369,7 @@
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -23461,7 +23461,7 @@
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -23585,7 +23585,7 @@
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -23713,7 +23713,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy']</t>
+          <t>['Italy', 'Spain']</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -23841,7 +23841,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy']</t>
+          <t>['Italy', 'Spain']</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -23969,7 +23969,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy']</t>
+          <t>['Italy', 'Spain']</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -24427,7 +24427,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -24555,7 +24555,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -24683,7 +24683,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -25141,7 +25141,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>['Albania', 'France', 'Switzerland']</t>
+          <t>['France', 'Switzerland', 'Albania']</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -25255,7 +25255,7 @@
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Wales', 'England']</t>
+          <t>['Slovakia', 'England', 'Wales']</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -25347,7 +25347,7 @@
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Wales', 'England']</t>
+          <t>['Slovakia', 'England', 'Wales']</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -25471,7 +25471,7 @@
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Wales', 'England']</t>
+          <t>['Slovakia', 'England', 'Wales']</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -25599,7 +25599,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Wales', 'England']</t>
+          <t>['Slovakia', 'England', 'Wales']</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -25727,7 +25727,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Wales', 'England']</t>
+          <t>['Slovakia', 'England', 'Wales']</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -25855,7 +25855,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Wales', 'England']</t>
+          <t>['Slovakia', 'England', 'Wales']</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -26555,7 +26555,7 @@
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Czech Republic']</t>
+          <t>['Croatia', 'Czech Republic', 'Spain']</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -26647,7 +26647,7 @@
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Czech Republic']</t>
+          <t>['Croatia', 'Czech Republic', 'Spain']</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -26775,7 +26775,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Czech Republic']</t>
+          <t>['Croatia', 'Czech Republic', 'Spain']</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -26903,7 +26903,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>['Spain', 'Turkey', 'Croatia']</t>
+          <t>['Croatia', 'Turkey', 'Spain']</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -27031,7 +27031,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>['Spain', 'Turkey', 'Croatia']</t>
+          <t>['Croatia', 'Turkey', 'Spain']</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -27159,7 +27159,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>['Spain', 'Turkey', 'Croatia']</t>
+          <t>['Croatia', 'Turkey', 'Spain']</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -27287,7 +27287,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>['Spain', 'Turkey', 'Croatia']</t>
+          <t>['Croatia', 'Turkey', 'Spain']</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -27401,7 +27401,7 @@
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy', 'Sweden']</t>
+          <t>['Sweden', 'Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -27493,7 +27493,7 @@
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy', 'Sweden']</t>
+          <t>['Sweden', 'Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -27617,7 +27617,7 @@
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy', 'Sweden']</t>
+          <t>['Sweden', 'Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -27745,7 +27745,7 @@
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>['Ireland', 'Belgium', 'Italy']</t>
+          <t>['Ireland', 'Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -27873,7 +27873,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>['Ireland', 'Belgium', 'Italy']</t>
+          <t>['Ireland', 'Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -29209,7 +29209,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="E238" t="n">
@@ -29291,7 +29291,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="E239" t="n">
@@ -29671,7 +29671,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="E242" t="n">
@@ -30067,7 +30067,7 @@
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Russia']</t>
+          <t>['Russia', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -30159,7 +30159,7 @@
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Russia']</t>
+          <t>['Russia', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -30261,7 +30261,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E247" t="n">
@@ -30287,7 +30287,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>['Denmark', 'Belgium', 'Finland']</t>
+          <t>['Finland', 'Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -30389,7 +30389,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E248" t="n">
@@ -30415,7 +30415,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>['Denmark', 'Belgium', 'Finland']</t>
+          <t>['Finland', 'Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -30517,7 +30517,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E249" t="n">
@@ -30543,7 +30543,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>['Denmark', 'Belgium', 'Finland']</t>
+          <t>['Finland', 'Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -30671,7 +30671,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>['Denmark', 'Belgium', 'Russia']</t>
+          <t>['Russia', 'Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -30773,7 +30773,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E251" t="n">
@@ -30799,7 +30799,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>['Denmark', 'Belgium', 'Finland']</t>
+          <t>['Finland', 'Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -30927,7 +30927,7 @@
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>['Denmark', 'Belgium', 'Finland']</t>
+          <t>['Finland', 'Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -31029,7 +31029,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E253" t="n">
@@ -31055,7 +31055,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>['Denmark', 'Belgium', 'Finland']</t>
+          <t>['Finland', 'Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -31169,7 +31169,7 @@
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -31250,18 +31250,18 @@
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>North Macedonia</t>
         </is>
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -31335,10 +31335,10 @@
         <v>0</v>
       </c>
       <c r="AE255" t="n">
-        <v>1814</v>
+        <v>1603</v>
       </c>
       <c r="AF255" t="n">
-        <v>1747</v>
+        <v>1949</v>
       </c>
       <c r="AG255" t="n">
         <v>-3</v>
@@ -31363,7 +31363,7 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E256" t="n">
@@ -31374,18 +31374,18 @@
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -31459,10 +31459,10 @@
         <v>0</v>
       </c>
       <c r="AE256" t="n">
-        <v>1603</v>
+        <v>1814</v>
       </c>
       <c r="AF256" t="n">
-        <v>1949</v>
+        <v>1747</v>
       </c>
       <c r="AG256" t="n">
         <v>-3</v>
@@ -31513,7 +31513,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -31615,7 +31615,7 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E258" t="n">
@@ -31641,7 +31641,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -31743,7 +31743,7 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E259" t="n">
@@ -31769,7 +31769,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -31871,7 +31871,7 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E260" t="n">
@@ -31897,7 +31897,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -32011,7 +32011,7 @@
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'England']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -32103,7 +32103,7 @@
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'England']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -32231,7 +32231,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'England']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -32359,7 +32359,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'England']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -32487,7 +32487,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'England']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -32615,7 +32615,7 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'England']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -32743,7 +32743,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'England']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -32845,7 +32845,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E268" t="n">
@@ -32857,7 +32857,7 @@
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -32927,7 +32927,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E269" t="n">
@@ -32949,7 +32949,7 @@
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -33077,7 +33077,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -33179,7 +33179,7 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E271" t="n">
@@ -33205,7 +33205,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -33307,7 +33307,7 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E272" t="n">
@@ -33333,7 +33333,7 @@
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -33435,7 +33435,7 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E273" t="n">
@@ -33461,7 +33461,7 @@
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -33589,7 +33589,7 @@
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -33717,7 +33717,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -33819,7 +33819,7 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E276" t="n">
@@ -33845,7 +33845,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -33947,7 +33947,7 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E277" t="n">
@@ -33973,7 +33973,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -34101,7 +34101,7 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -34229,7 +34229,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -34343,7 +34343,7 @@
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr">
         <is>
-          <t>['France', 'Germany', 'Portugal']</t>
+          <t>['Portugal', 'France', 'Germany']</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
@@ -34439,7 +34439,7 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Portugal']</t>
+          <t>['Hungary', 'Portugal', 'France']</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -34567,7 +34567,7 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Portugal']</t>
+          <t>['Hungary', 'Portugal', 'France']</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -34695,7 +34695,7 @@
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Portugal']</t>
+          <t>['Hungary', 'Portugal', 'France']</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -34951,7 +34951,7 @@
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Portugal']</t>
+          <t>['Hungary', 'Portugal', 'France']</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -35079,7 +35079,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>['France', 'Germany', 'Portugal']</t>
+          <t>['Portugal', 'France', 'Germany']</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -35207,7 +35207,7 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Portugal']</t>
+          <t>['Hungary', 'Portugal', 'France']</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -35335,7 +35335,7 @@
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>['France', 'Germany', 'Portugal']</t>
+          <t>['Portugal', 'France', 'Germany']</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
@@ -35669,7 +35669,7 @@
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>['Scotland', 'Germany', 'Switzerland']</t>
+          <t>['Scotland', 'Switzerland', 'Germany']</t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
@@ -36039,7 +36039,7 @@
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy', 'Albania']</t>
+          <t>['Italy', 'Albania', 'Spain']</t>
         </is>
       </c>
       <c r="K294" t="inlineStr">
@@ -36131,7 +36131,7 @@
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy', 'Albania']</t>
+          <t>['Italy', 'Albania', 'Spain']</t>
         </is>
       </c>
       <c r="K295" t="inlineStr">
@@ -36259,7 +36259,7 @@
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy', 'Croatia']</t>
+          <t>['Croatia', 'Italy', 'Spain']</t>
         </is>
       </c>
       <c r="K296" t="inlineStr">
@@ -36387,7 +36387,7 @@
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy', 'Croatia']</t>
+          <t>['Croatia', 'Italy', 'Spain']</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -36515,7 +36515,7 @@
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy', 'Croatia']</t>
+          <t>['Croatia', 'Italy', 'Spain']</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -36629,7 +36629,7 @@
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr">
         <is>
-          <t>['Denmark', 'Slovenia', 'England']</t>
+          <t>['Slovenia', 'England', 'Denmark']</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -36721,7 +36721,7 @@
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr">
         <is>
-          <t>['Denmark', 'Slovenia', 'England']</t>
+          <t>['Slovenia', 'England', 'Denmark']</t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
@@ -36845,7 +36845,7 @@
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr">
         <is>
-          <t>['Denmark', 'Slovenia', 'England']</t>
+          <t>['Slovenia', 'England', 'Denmark']</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -36959,7 +36959,7 @@
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France', 'Austria']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -37183,7 +37183,7 @@
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France', 'Austria']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K304" t="inlineStr">
@@ -37311,7 +37311,7 @@
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France', 'Austria']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -37567,7 +37567,7 @@
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France', 'Austria']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -37695,7 +37695,7 @@
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France', 'Austria']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -37937,7 +37937,7 @@
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Belgium', 'Romania']</t>
+          <t>['Slovakia', 'Romania', 'Belgium']</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -38029,7 +38029,7 @@
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Belgium', 'Romania']</t>
+          <t>['Slovakia', 'Romania', 'Belgium']</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -38285,7 +38285,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Belgium', 'Romania']</t>
+          <t>['Slovakia', 'Romania', 'Belgium']</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -38399,7 +38399,7 @@
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr">
         <is>
-          <t>['Turkey', 'Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Turkey', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -38491,7 +38491,7 @@
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr">
         <is>
-          <t>['Turkey', 'Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Turkey', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -38619,7 +38619,7 @@
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>['Georgia', 'Turkey', 'Portugal']</t>
+          <t>['Portugal', 'Georgia', 'Turkey']</t>
         </is>
       </c>
       <c r="K316" t="inlineStr">
@@ -38747,7 +38747,7 @@
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>['Georgia', 'Turkey', 'Portugal']</t>
+          <t>['Portugal', 'Georgia', 'Turkey']</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
@@ -38875,7 +38875,7 @@
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>['Georgia', 'Turkey', 'Portugal']</t>
+          <t>['Portugal', 'Georgia', 'Turkey']</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -39003,7 +39003,7 @@
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>['Georgia', 'Turkey', 'Portugal']</t>
+          <t>['Portugal', 'Georgia', 'Turkey']</t>
         </is>
       </c>
       <c r="K319" t="inlineStr">
@@ -39131,7 +39131,7 @@
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>['Georgia', 'Turkey', 'Portugal']</t>
+          <t>['Portugal', 'Georgia', 'Turkey']</t>
         </is>
       </c>
       <c r="K320" t="inlineStr">

--- a/data/out/wiki/men/fifa/eu/goals_eu_fifa_men.xlsx
+++ b/data/out/wiki/men/fifa/eu/goals_eu_fifa_men.xlsx
@@ -2091,7 +2091,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['West Germany', 'Portugal']</t>
+          <t>['Portugal', 'West Germany']</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -2219,7 +2219,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -2927,7 +2927,7 @@
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -3023,7 +3023,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -3151,7 +3151,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -3279,7 +3279,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -3407,7 +3407,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -3535,7 +3535,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Netherlands']</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -3649,7 +3649,7 @@
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['Sweden', 'France']</t>
+          <t>['France', 'Sweden']</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -4129,7 +4129,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['Sweden', 'France']</t>
+          <t>['France', 'Sweden']</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -4257,7 +4257,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -4385,7 +4385,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -4499,7 +4499,7 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -5573,7 +5573,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Spain']</t>
+          <t>['Spain', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -7305,7 +7305,7 @@
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -7401,7 +7401,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -7529,7 +7529,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -7657,7 +7657,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -7785,7 +7785,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -7913,7 +7913,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -8041,7 +8041,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -8155,7 +8155,7 @@
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
-          <t>['Italy', 'Germany']</t>
+          <t>['Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -8635,7 +8635,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>['Italy', 'Germany']</t>
+          <t>['Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -8763,7 +8763,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>['Italy', 'Germany']</t>
+          <t>['Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -8891,7 +8891,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>['Italy', 'Germany']</t>
+          <t>['Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -9005,7 +9005,7 @@
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium']</t>
+          <t>['Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -9101,7 +9101,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium']</t>
+          <t>['Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -9823,7 +9823,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>['Romania', 'Portugal']</t>
+          <t>['Portugal', 'Romania']</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -9951,7 +9951,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>['Romania', 'Portugal']</t>
+          <t>['Portugal', 'Romania']</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -10719,7 +10719,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>['Romania', 'Portugal']</t>
+          <t>['Portugal', 'Romania']</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -10833,7 +10833,7 @@
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr">
         <is>
-          <t>['Spain', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Spain']</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -10929,7 +10929,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>['Norway', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -11057,7 +11057,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>['Spain', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Spain']</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -11185,7 +11185,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>['Norway', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -11313,7 +11313,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>['Spain', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Spain']</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -11441,7 +11441,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>['Norway', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -11569,7 +11569,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>['Spain', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Spain']</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -12789,7 +12789,7 @@
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr">
         <is>
-          <t>['Greece', 'Spain']</t>
+          <t>['Spain', 'Greece']</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -12885,7 +12885,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -13013,7 +13013,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -13141,7 +13141,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -13269,7 +13269,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>['Greece', 'Portugal']</t>
+          <t>['Portugal', 'Greece']</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -14745,7 +14745,7 @@
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -14841,7 +14841,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -14969,7 +14969,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -15097,7 +15097,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -15225,7 +15225,7 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -15353,7 +15353,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -15481,7 +15481,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -15609,7 +15609,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -17437,7 +17437,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal']</t>
+          <t>['Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -17551,7 +17551,7 @@
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -17647,7 +17647,7 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -17775,7 +17775,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -17889,7 +17889,7 @@
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr">
         <is>
-          <t>['Romania', 'Netherlands']</t>
+          <t>['Netherlands', 'Romania']</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -17985,7 +17985,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -18113,7 +18113,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -18241,7 +18241,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -18369,7 +18369,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -18483,7 +18483,7 @@
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -18579,7 +18579,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -18707,7 +18707,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -18835,7 +18835,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -18963,7 +18963,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -19091,7 +19091,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -19205,7 +19205,7 @@
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr">
         <is>
-          <t>['Russia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Russia']</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -19301,7 +19301,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>['Russia', 'Greece']</t>
+          <t>['Greece', 'Russia']</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -19429,7 +19429,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>['Russia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Russia']</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -19543,7 +19543,7 @@
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal']</t>
+          <t>['Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -19767,7 +19767,7 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal']</t>
+          <t>['Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -20023,7 +20023,7 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal']</t>
+          <t>['Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -20151,7 +20151,7 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal']</t>
+          <t>['Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -20279,7 +20279,7 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal']</t>
+          <t>['Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -20393,7 +20393,7 @@
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -20489,7 +20489,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain']</t>
+          <t>['Spain', 'Italy']</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -20617,7 +20617,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain']</t>
+          <t>['Spain', 'Italy']</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -20745,7 +20745,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain']</t>
+          <t>['Spain', 'Italy']</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -21325,7 +21325,7 @@
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr">
         <is>
-          <t>['Romania', 'France', 'Switzerland']</t>
+          <t>['France', 'Switzerland', 'Romania']</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -21361,11 +21361,11 @@
       <c r="Y173" t="inlineStr"/>
       <c r="Z173" t="inlineStr"/>
       <c r="AA173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB173" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['France', 'Switzerland', 'Romania']</t>
         </is>
       </c>
       <c r="AC173" t="n">
@@ -21421,7 +21421,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland', 'Albania']</t>
+          <t>['France', 'Albania', 'Switzerland']</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -21492,7 +21492,7 @@
         <v>1</v>
       </c>
       <c r="AD174" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE174" t="n">
         <v>-2</v>
@@ -21535,7 +21535,7 @@
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr">
         <is>
-          <t>['England', 'Slovakia', 'Wales']</t>
+          <t>['England', 'Wales', 'Slovakia']</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -21571,11 +21571,11 @@
       <c r="Y175" t="inlineStr"/>
       <c r="Z175" t="inlineStr"/>
       <c r="AA175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB175" t="inlineStr">
         <is>
-          <t>['England', 'Wales']</t>
+          <t>['England', 'Wales', 'Slovakia']</t>
         </is>
       </c>
       <c r="AC175" t="n">
@@ -21631,7 +21631,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>['England', 'Slovakia', 'Wales']</t>
+          <t>['England', 'Wales', 'Slovakia']</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -21702,7 +21702,7 @@
         <v>0</v>
       </c>
       <c r="AD176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE176" t="n">
         <v>-3</v>
@@ -21759,7 +21759,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>['England', 'Slovakia', 'Wales']</t>
+          <t>['England', 'Wales', 'Slovakia']</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -21830,7 +21830,7 @@
         <v>0</v>
       </c>
       <c r="AD177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE177" t="n">
         <v>-3</v>
@@ -21887,7 +21887,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>['England', 'Slovakia', 'Wales']</t>
+          <t>['England', 'Wales', 'Slovakia']</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -21958,7 +21958,7 @@
         <v>0</v>
       </c>
       <c r="AD178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE178" t="n">
         <v>-3</v>
@@ -22001,7 +22001,7 @@
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Germany', 'Poland']</t>
+          <t>['Poland', 'Germany', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -22037,11 +22037,11 @@
       <c r="Y179" t="inlineStr"/>
       <c r="Z179" t="inlineStr"/>
       <c r="AA179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB179" t="inlineStr">
         <is>
-          <t>['Germany', 'Poland']</t>
+          <t>['Germany', 'Poland', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="AC179" t="n">
@@ -22097,7 +22097,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Germany', 'Poland']</t>
+          <t>['Poland', 'Germany', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -22168,7 +22168,7 @@
         <v>0</v>
       </c>
       <c r="AD180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE180" t="n">
         <v>-2</v>
@@ -22225,7 +22225,7 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Germany', 'Poland']</t>
+          <t>['Poland', 'Germany', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -22296,7 +22296,7 @@
         <v>0</v>
       </c>
       <c r="AD181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE181" t="n">
         <v>-3</v>
@@ -22339,7 +22339,7 @@
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'Spain']</t>
+          <t>['Czech Republic', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -22435,7 +22435,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'Spain']</t>
+          <t>['Czech Republic', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -22563,7 +22563,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>['Turkey', 'Croatia', 'Spain']</t>
+          <t>['Spain', 'Turkey', 'Croatia']</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -22623,24 +22623,24 @@
         <v>0</v>
       </c>
       <c r="AA184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB184" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Spain', 'Croatia', 'Turkey']</t>
         </is>
       </c>
       <c r="AC184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE184" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AF184" t="n">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="AG184" t="n">
         <v>1755</v>
@@ -22691,7 +22691,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>['Turkey', 'Croatia', 'Spain']</t>
+          <t>['Spain', 'Turkey', 'Croatia']</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -22751,24 +22751,24 @@
         <v>0</v>
       </c>
       <c r="AA185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB185" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Spain', 'Croatia', 'Turkey']</t>
         </is>
       </c>
       <c r="AC185" t="n">
         <v>0</v>
       </c>
       <c r="AD185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE185" t="n">
         <v>-2</v>
       </c>
       <c r="AF185" t="n">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="AG185" t="n">
         <v>1818</v>
@@ -22819,7 +22819,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>['Turkey', 'Croatia', 'Spain']</t>
+          <t>['Spain', 'Turkey', 'Croatia']</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -22887,7 +22887,7 @@
         </is>
       </c>
       <c r="AC186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD186" t="n">
         <v>1</v>
@@ -22947,7 +22947,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>['Turkey', 'Croatia', 'Spain']</t>
+          <t>['Spain', 'Turkey', 'Croatia']</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -23061,7 +23061,7 @@
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -23157,7 +23157,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -23285,7 +23285,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -23413,7 +23413,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -23541,7 +23541,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -23669,7 +23669,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -23797,7 +23797,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -23925,7 +23925,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -24053,7 +24053,7 @@
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -24181,7 +24181,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -24295,7 +24295,7 @@
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium', 'Sweden']</t>
+          <t>['Sweden', 'Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -24391,7 +24391,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>['Italy', 'Ireland', 'Belgium']</t>
+          <t>['Belgium', 'Ireland', 'Italy']</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -24519,7 +24519,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>['Italy', 'Ireland', 'Belgium']</t>
+          <t>['Belgium', 'Ireland', 'Italy']</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -24633,7 +24633,7 @@
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr">
         <is>
-          <t>['Italy', 'Switzerland', 'Wales']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -24729,7 +24729,7 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>['Italy', 'Switzerland', 'Wales']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -24857,7 +24857,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>['Italy', 'Switzerland', 'Wales']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -24985,7 +24985,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>['Italy', 'Switzerland', 'Wales']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -25113,7 +25113,7 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>['Italy', 'Switzerland', 'Wales']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -25241,7 +25241,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>['Italy', 'Switzerland', 'Wales']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -25355,7 +25355,7 @@
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands', 'Austria']</t>
+          <t>['Austria', 'Netherlands', 'Ukraine']</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -25391,11 +25391,11 @@
       <c r="Y207" t="inlineStr"/>
       <c r="Z207" t="inlineStr"/>
       <c r="AA207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB207" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="AC207" t="n">
@@ -25451,7 +25451,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands', 'Austria']</t>
+          <t>['Austria', 'Netherlands', 'Ukraine']</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -25511,21 +25511,21 @@
         <v>1</v>
       </c>
       <c r="AA208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB208" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="AC208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE208" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AF208" t="n">
         <v>-2</v>
@@ -25579,7 +25579,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands', 'Austria']</t>
+          <t>['Austria', 'Netherlands', 'Ukraine']</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -25639,24 +25639,24 @@
         <v>0</v>
       </c>
       <c r="AA209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB209" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="AC209" t="n">
         <v>0</v>
       </c>
       <c r="AD209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE209" t="n">
         <v>-3</v>
       </c>
       <c r="AF209" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AG209" t="n">
         <v>1603</v>
@@ -25707,7 +25707,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands', 'Austria']</t>
+          <t>['Austria', 'Netherlands', 'Ukraine']</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -25767,24 +25767,24 @@
         <v>0</v>
       </c>
       <c r="AA210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB210" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="AC210" t="n">
         <v>0</v>
       </c>
       <c r="AD210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE210" t="n">
         <v>-3</v>
       </c>
       <c r="AF210" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="AG210" t="n">
         <v>1603</v>
@@ -25835,7 +25835,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands', 'Austria']</t>
+          <t>['Austria', 'Netherlands', 'Ukraine']</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -25895,24 +25895,24 @@
         <v>0</v>
       </c>
       <c r="AA211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB211" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="AC211" t="n">
         <v>0</v>
       </c>
       <c r="AD211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE211" t="n">
         <v>-3</v>
       </c>
       <c r="AF211" t="n">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="AG211" t="n">
         <v>1603</v>
@@ -25949,7 +25949,7 @@
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr">
         <is>
-          <t>['Finland', 'Russia', 'Belgium']</t>
+          <t>['Belgium', 'Finland', 'Russia']</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -25985,11 +25985,11 @@
       <c r="Y212" t="inlineStr"/>
       <c r="Z212" t="inlineStr"/>
       <c r="AA212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB212" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland']</t>
+          <t>['Belgium', 'Finland', 'Russia']</t>
         </is>
       </c>
       <c r="AC212" t="n">
@@ -26045,7 +26045,7 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>['Finland', 'Denmark', 'Belgium']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -26105,24 +26105,24 @@
         <v>0</v>
       </c>
       <c r="AA213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB213" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="AC213" t="n">
         <v>1</v>
       </c>
       <c r="AD213" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE213" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AF213" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AG213" t="n">
         <v>1744</v>
@@ -26173,7 +26173,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>['Finland', 'Denmark', 'Belgium']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -26241,10 +26241,10 @@
         </is>
       </c>
       <c r="AC214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD214" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE214" t="n">
         <v>0</v>
@@ -26301,7 +26301,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>['Finland', 'Denmark', 'Belgium']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -26361,24 +26361,24 @@
         <v>0</v>
       </c>
       <c r="AA215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB215" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="AC215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD215" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE215" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AF215" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AG215" t="n">
         <v>1744</v>
@@ -26429,7 +26429,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>['Russia', 'Denmark', 'Belgium']</t>
+          <t>['Belgium', 'Russia', 'Denmark']</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -26489,24 +26489,24 @@
         <v>0</v>
       </c>
       <c r="AA216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB216" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark']</t>
+          <t>['Belgium', 'Denmark', 'Russia']</t>
         </is>
       </c>
       <c r="AC216" t="n">
         <v>1</v>
       </c>
       <c r="AD216" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE216" t="n">
         <v>0</v>
       </c>
       <c r="AF216" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AG216" t="n">
         <v>1684</v>
@@ -26557,7 +26557,7 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>['Finland', 'Denmark', 'Belgium']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -26617,24 +26617,24 @@
         <v>0</v>
       </c>
       <c r="AA217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB217" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="AC217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD217" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE217" t="n">
         <v>0</v>
       </c>
       <c r="AF217" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AG217" t="n">
         <v>1744</v>
@@ -26685,7 +26685,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>['Finland', 'Denmark', 'Belgium']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -26745,18 +26745,18 @@
         <v>0</v>
       </c>
       <c r="AA218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB218" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="AC218" t="n">
         <v>0</v>
       </c>
       <c r="AD218" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE218" t="n">
         <v>0</v>
@@ -26813,7 +26813,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>['Finland', 'Denmark', 'Belgium']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -26873,18 +26873,18 @@
         <v>0</v>
       </c>
       <c r="AA219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB219" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="AC219" t="n">
         <v>0</v>
       </c>
       <c r="AD219" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE219" t="n">
         <v>0</v>
@@ -26927,7 +26927,7 @@
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr">
         <is>
-          <t>['England', 'Croatia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'England', 'Croatia']</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -27535,7 +27535,7 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>['England', 'Croatia', 'Czech Republic']</t>
+          <t>['England', 'Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -27649,7 +27649,7 @@
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -27685,11 +27685,11 @@
       <c r="Y226" t="inlineStr"/>
       <c r="Z226" t="inlineStr"/>
       <c r="AA226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB226" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="AC226" t="n">
@@ -27745,7 +27745,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="AD227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE227" t="n">
         <v>-2</v>
@@ -27873,7 +27873,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -27944,7 +27944,7 @@
         <v>1</v>
       </c>
       <c r="AD228" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE228" t="n">
         <v>-2</v>
@@ -28001,7 +28001,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -28072,7 +28072,7 @@
         <v>0</v>
       </c>
       <c r="AD229" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE229" t="n">
         <v>-2</v>
@@ -28129,7 +28129,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -28200,7 +28200,7 @@
         <v>0</v>
       </c>
       <c r="AD230" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE230" t="n">
         <v>-2</v>
@@ -28257,7 +28257,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -28328,7 +28328,7 @@
         <v>0</v>
       </c>
       <c r="AD231" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE231" t="n">
         <v>-2</v>
@@ -28385,7 +28385,7 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -28456,7 +28456,7 @@
         <v>0</v>
       </c>
       <c r="AD232" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE232" t="n">
         <v>-2</v>
@@ -28513,7 +28513,7 @@
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -28584,7 +28584,7 @@
         <v>0</v>
       </c>
       <c r="AD233" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE233" t="n">
         <v>-2</v>
@@ -28641,7 +28641,7 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -28712,7 +28712,7 @@
         <v>0</v>
       </c>
       <c r="AD234" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE234" t="n">
         <v>-2</v>
@@ -28769,7 +28769,7 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -28840,7 +28840,7 @@
         <v>0</v>
       </c>
       <c r="AD235" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE235" t="n">
         <v>-2</v>
@@ -28897,7 +28897,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -28968,7 +28968,7 @@
         <v>0</v>
       </c>
       <c r="AD236" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE236" t="n">
         <v>-2</v>
@@ -29011,7 +29011,7 @@
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr">
         <is>
-          <t>['France', 'Germany', 'Portugal']</t>
+          <t>['Portugal', 'France', 'Germany']</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -29047,11 +29047,11 @@
       <c r="Y237" t="inlineStr"/>
       <c r="Z237" t="inlineStr"/>
       <c r="AA237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB237" t="inlineStr">
         <is>
-          <t>['France', 'Portugal']</t>
+          <t>['France', 'Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="AC237" t="n">
@@ -29107,7 +29107,7 @@
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Portugal']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -29235,7 +29235,7 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Portugal']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -29363,7 +29363,7 @@
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Portugal']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -29491,7 +29491,7 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Portugal']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -29619,7 +29619,7 @@
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Portugal']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -29747,7 +29747,7 @@
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>['France', 'Germany', 'Portugal']</t>
+          <t>['Portugal', 'France', 'Germany']</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -29875,7 +29875,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Portugal']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -30003,7 +30003,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>['France', 'Germany', 'Portugal']</t>
+          <t>['Portugal', 'France', 'Germany']</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -30153,11 +30153,11 @@
       <c r="Y246" t="inlineStr"/>
       <c r="Z246" t="inlineStr"/>
       <c r="AA246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB246" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland']</t>
+          <t>['Germany', 'Switzerland', 'Scotland']</t>
         </is>
       </c>
       <c r="AC246" t="n">
@@ -30213,7 +30213,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland', 'Scotland']</t>
+          <t>['Scotland', 'Germany', 'Switzerland']</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -30273,11 +30273,11 @@
         <v>1</v>
       </c>
       <c r="AA247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB247" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany']</t>
+          <t>['Switzerland', 'Germany', 'Scotland']</t>
         </is>
       </c>
       <c r="AC247" t="n">
@@ -30287,10 +30287,10 @@
         <v>0</v>
       </c>
       <c r="AE247" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="AF247" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="AG247" t="n">
         <v>1805</v>
@@ -30401,11 +30401,11 @@
         <v>1</v>
       </c>
       <c r="AA248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB248" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland']</t>
+          <t>['Germany', 'Switzerland', 'Scotland']</t>
         </is>
       </c>
       <c r="AC248" t="n">
@@ -30415,10 +30415,10 @@
         <v>0</v>
       </c>
       <c r="AE248" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AF248" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="AG248" t="n">
         <v>1805</v>
@@ -30469,7 +30469,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>['Hungary', 'Germany', 'Switzerland']</t>
+          <t>['Germany', 'Switzerland', 'Hungary']</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -30583,7 +30583,7 @@
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr">
         <is>
-          <t>['Italy', 'Albania', 'Spain']</t>
+          <t>['Spain', 'Italy', 'Albania']</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -30679,7 +30679,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>['Italy', 'Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia', 'Italy']</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -30807,7 +30807,7 @@
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>['Croatia', 'Italy', 'Spain']</t>
+          <t>['Spain', 'Croatia', 'Italy']</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -30935,7 +30935,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>['Italy', 'Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia', 'Italy']</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -31049,7 +31049,7 @@
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -31085,11 +31085,11 @@
       <c r="Y254" t="inlineStr"/>
       <c r="Z254" t="inlineStr"/>
       <c r="AA254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB254" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="AC254" t="n">
@@ -31145,7 +31145,7 @@
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -31213,10 +31213,10 @@
         </is>
       </c>
       <c r="AC255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE255" t="n">
         <v>-3</v>
@@ -31273,7 +31273,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -31344,7 +31344,7 @@
         <v>0</v>
       </c>
       <c r="AD256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE256" t="n">
         <v>-3</v>
@@ -31401,7 +31401,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -31472,7 +31472,7 @@
         <v>0</v>
       </c>
       <c r="AD257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE257" t="n">
         <v>-4</v>
@@ -31529,7 +31529,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -31600,7 +31600,7 @@
         <v>0</v>
       </c>
       <c r="AD258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE258" t="n">
         <v>-4</v>
@@ -31657,7 +31657,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -31728,7 +31728,7 @@
         <v>0</v>
       </c>
       <c r="AD259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE259" t="n">
         <v>-4</v>
@@ -31785,7 +31785,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -31856,7 +31856,7 @@
         <v>0</v>
       </c>
       <c r="AD260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE260" t="n">
         <v>-3</v>
@@ -31913,7 +31913,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -31984,7 +31984,7 @@
         <v>0</v>
       </c>
       <c r="AD261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE261" t="n">
         <v>-3</v>
@@ -32109,7 +32109,7 @@
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Romania', 'Belgium']</t>
+          <t>['Belgium', 'Slovakia', 'Romania']</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -32145,11 +32145,11 @@
       <c r="Y263" t="inlineStr"/>
       <c r="Z263" t="inlineStr"/>
       <c r="AA263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB263" t="inlineStr">
         <is>
-          <t>['Romania', 'Belgium']</t>
+          <t>['Romania', 'Belgium', 'Slovakia']</t>
         </is>
       </c>
       <c r="AC263" t="n">
@@ -32205,7 +32205,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Slovakia', 'Belgium']</t>
+          <t>['Belgium', 'Ukraine', 'Slovakia']</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -32276,7 +32276,7 @@
         <v>1</v>
       </c>
       <c r="AD264" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE264" t="n">
         <v>-1</v>
@@ -32333,7 +32333,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Romania', 'Belgium']</t>
+          <t>['Belgium', 'Slovakia', 'Romania']</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -32404,7 +32404,7 @@
         <v>1</v>
       </c>
       <c r="AD265" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE265" t="n">
         <v>0</v>
@@ -32447,7 +32447,7 @@
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr">
         <is>
-          <t>['Turkey', 'Czech Republic', 'Portugal']</t>
+          <t>['Czech Republic', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -32543,7 +32543,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>['Turkey', 'Georgia', 'Portugal']</t>
+          <t>['Portugal', 'Turkey', 'Georgia']</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -32671,7 +32671,7 @@
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>['Turkey', 'Georgia', 'Portugal']</t>
+          <t>['Portugal', 'Turkey', 'Georgia']</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -32799,7 +32799,7 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>['Turkey', 'Georgia', 'Portugal']</t>
+          <t>['Portugal', 'Turkey', 'Georgia']</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -32927,7 +32927,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>['Turkey', 'Georgia', 'Portugal']</t>
+          <t>['Portugal', 'Turkey', 'Georgia']</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -33055,7 +33055,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>['Turkey', 'Georgia', 'Portugal']</t>
+          <t>['Portugal', 'Turkey', 'Georgia']</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">

--- a/data/out/wiki/men/fifa/eu/goals_eu_fifa_men.xlsx
+++ b/data/out/wiki/men/fifa/eu/goals_eu_fifa_men.xlsx
@@ -1995,7 +1995,7 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['West Germany', 'Spain']</t>
+          <t>['Spain', 'West Germany']</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['Portugal', 'West Germany']</t>
+          <t>['West Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -2219,7 +2219,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -3535,7 +3535,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Netherlands']</t>
+          <t>['Netherlands', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -4499,7 +4499,7 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -4595,7 +4595,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -4723,7 +4723,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -4851,7 +4851,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -4979,7 +4979,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -5107,7 +5107,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -5235,7 +5235,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -5363,7 +5363,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -6455,7 +6455,7 @@
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -6551,7 +6551,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -6679,7 +6679,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -6807,7 +6807,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -6935,7 +6935,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -7063,7 +7063,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>['England', 'Scotland']</t>
+          <t>['Scotland', 'England']</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -7191,7 +7191,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -7305,7 +7305,7 @@
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -7401,7 +7401,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -7529,7 +7529,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -7657,7 +7657,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -7785,7 +7785,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -7913,7 +7913,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -8041,7 +8041,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -8251,7 +8251,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -8379,7 +8379,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -8507,7 +8507,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -9823,7 +9823,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>['Portugal', 'Romania']</t>
+          <t>['Romania', 'Portugal']</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -9951,7 +9951,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>['Portugal', 'Romania']</t>
+          <t>['Romania', 'Portugal']</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -10719,7 +10719,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>['Portugal', 'Romania']</t>
+          <t>['Romania', 'Portugal']</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -10833,7 +10833,7 @@
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Spain']</t>
+          <t>['Spain', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -10929,7 +10929,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -11057,7 +11057,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Spain']</t>
+          <t>['Spain', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -11185,7 +11185,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -11313,7 +11313,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Spain']</t>
+          <t>['Spain', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -11441,7 +11441,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -11569,7 +11569,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Spain']</t>
+          <t>['Spain', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -11697,7 +11697,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Spain']</t>
+          <t>['Spain', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -12419,7 +12419,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -12547,7 +12547,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -12675,7 +12675,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -12885,7 +12885,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -13013,7 +13013,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -13141,7 +13141,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -13269,7 +13269,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>['Portugal', 'Greece']</t>
+          <t>['Greece', 'Portugal']</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -13383,7 +13383,7 @@
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -13863,7 +13863,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -13991,7 +13991,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -14119,7 +14119,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -14247,7 +14247,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -14375,7 +14375,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -14503,7 +14503,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -14631,7 +14631,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -15723,7 +15723,7 @@
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -15819,7 +15819,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -15947,7 +15947,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -16075,7 +16075,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Netherlands']</t>
+          <t>['Netherlands', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -16203,7 +16203,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Netherlands']</t>
+          <t>['Netherlands', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -16331,7 +16331,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Netherlands']</t>
+          <t>['Netherlands', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -16459,7 +16459,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Netherlands']</t>
+          <t>['Netherlands', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -17437,7 +17437,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey']</t>
+          <t>['Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -18579,7 +18579,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -18707,7 +18707,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -18835,7 +18835,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -18963,7 +18963,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -19091,7 +19091,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -19205,7 +19205,7 @@
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Russia']</t>
+          <t>['Russia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -19301,7 +19301,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>['Greece', 'Russia']</t>
+          <t>['Russia', 'Greece']</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -19429,7 +19429,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Russia']</t>
+          <t>['Russia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -19543,7 +19543,7 @@
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany']</t>
+          <t>['Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -19639,7 +19639,7 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>['Denmark', 'Germany']</t>
+          <t>['Germany', 'Denmark']</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -19767,7 +19767,7 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany']</t>
+          <t>['Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -19895,7 +19895,7 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>['Denmark', 'Germany']</t>
+          <t>['Germany', 'Denmark']</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -20023,7 +20023,7 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany']</t>
+          <t>['Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -20151,7 +20151,7 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany']</t>
+          <t>['Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -20279,7 +20279,7 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany']</t>
+          <t>['Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -20859,7 +20859,7 @@
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -20955,7 +20955,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -21083,7 +21083,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -21211,7 +21211,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -21325,7 +21325,7 @@
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland', 'Romania']</t>
+          <t>['France', 'Romania', 'Switzerland']</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -21535,7 +21535,7 @@
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr">
         <is>
-          <t>['England', 'Wales', 'Slovakia']</t>
+          <t>['Slovakia', 'Wales', 'England']</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -21631,7 +21631,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>['England', 'Wales', 'Slovakia']</t>
+          <t>['Slovakia', 'England', 'Wales']</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -21759,7 +21759,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>['England', 'Wales', 'Slovakia']</t>
+          <t>['Slovakia', 'England', 'Wales']</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -21887,7 +21887,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>['England', 'Wales', 'Slovakia']</t>
+          <t>['Slovakia', 'England', 'Wales']</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -22001,7 +22001,7 @@
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr">
         <is>
-          <t>['Poland', 'Germany', 'Northern Ireland']</t>
+          <t>['Germany', 'Northern Ireland', 'Poland']</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -22097,7 +22097,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>['Poland', 'Germany', 'Northern Ireland']</t>
+          <t>['Germany', 'Northern Ireland', 'Poland']</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -22225,7 +22225,7 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>['Poland', 'Germany', 'Northern Ireland']</t>
+          <t>['Germany', 'Northern Ireland', 'Poland']</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -22375,11 +22375,11 @@
       <c r="Y182" t="inlineStr"/>
       <c r="Z182" t="inlineStr"/>
       <c r="AA182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB182" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Spain', 'Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="AC182" t="n">
@@ -22503,10 +22503,10 @@
         </is>
       </c>
       <c r="AC183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE183" t="n">
         <v>-2</v>
@@ -22563,7 +22563,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>['Spain', 'Turkey', 'Croatia']</t>
+          <t>['Turkey', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -22634,7 +22634,7 @@
         <v>1</v>
       </c>
       <c r="AD184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE184" t="n">
         <v>-2</v>
@@ -22691,7 +22691,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>['Spain', 'Turkey', 'Croatia']</t>
+          <t>['Turkey', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -22762,7 +22762,7 @@
         <v>0</v>
       </c>
       <c r="AD185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE185" t="n">
         <v>-2</v>
@@ -22819,7 +22819,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>['Spain', 'Turkey', 'Croatia']</t>
+          <t>['Turkey', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -22890,7 +22890,7 @@
         <v>0</v>
       </c>
       <c r="AD186" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE186" t="n">
         <v>-2</v>
@@ -22947,7 +22947,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>['Spain', 'Turkey', 'Croatia']</t>
+          <t>['Turkey', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -23018,7 +23018,7 @@
         <v>0</v>
       </c>
       <c r="AD187" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE187" t="n">
         <v>-2</v>
@@ -23061,7 +23061,7 @@
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -23097,11 +23097,11 @@
       <c r="Y188" t="inlineStr"/>
       <c r="Z188" t="inlineStr"/>
       <c r="AA188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB188" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="AC188" t="n">
@@ -23157,7 +23157,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -23225,10 +23225,10 @@
         </is>
       </c>
       <c r="AC189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE189" t="n">
         <v>-2</v>
@@ -23285,7 +23285,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -23356,7 +23356,7 @@
         <v>1</v>
       </c>
       <c r="AD190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE190" t="n">
         <v>-3</v>
@@ -23413,7 +23413,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -23484,7 +23484,7 @@
         <v>1</v>
       </c>
       <c r="AD191" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE191" t="n">
         <v>-2</v>
@@ -23541,7 +23541,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -23612,7 +23612,7 @@
         <v>1</v>
       </c>
       <c r="AD192" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE192" t="n">
         <v>-3</v>
@@ -23669,7 +23669,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -23740,7 +23740,7 @@
         <v>1</v>
       </c>
       <c r="AD193" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE193" t="n">
         <v>-2</v>
@@ -23797,7 +23797,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -23868,7 +23868,7 @@
         <v>1</v>
       </c>
       <c r="AD194" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE194" t="n">
         <v>-3</v>
@@ -23925,7 +23925,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -23996,7 +23996,7 @@
         <v>0</v>
       </c>
       <c r="AD195" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE195" t="n">
         <v>-1</v>
@@ -24053,7 +24053,7 @@
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -24124,7 +24124,7 @@
         <v>1</v>
       </c>
       <c r="AD196" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE196" t="n">
         <v>-1</v>
@@ -24181,7 +24181,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -24252,7 +24252,7 @@
         <v>0</v>
       </c>
       <c r="AD197" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE197" t="n">
         <v>-2</v>
@@ -24295,7 +24295,7 @@
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr">
         <is>
-          <t>['Sweden', 'Belgium', 'Italy']</t>
+          <t>['Belgium', 'Italy', 'Sweden']</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -24331,11 +24331,11 @@
       <c r="Y198" t="inlineStr"/>
       <c r="Z198" t="inlineStr"/>
       <c r="AA198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB198" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium']</t>
+          <t>['Italy', 'Belgium', 'Sweden']</t>
         </is>
       </c>
       <c r="AC198" t="n">
@@ -24391,7 +24391,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>['Belgium', 'Ireland', 'Italy']</t>
+          <t>['Belgium', 'Italy', 'Ireland']</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -24459,10 +24459,10 @@
         </is>
       </c>
       <c r="AC199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE199" t="n">
         <v>-4</v>
@@ -24519,7 +24519,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>['Belgium', 'Ireland', 'Italy']</t>
+          <t>['Belgium', 'Italy', 'Ireland']</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -24590,7 +24590,7 @@
         <v>1</v>
       </c>
       <c r="AD200" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE200" t="n">
         <v>-3</v>
@@ -24633,7 +24633,7 @@
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -24669,11 +24669,11 @@
       <c r="Y201" t="inlineStr"/>
       <c r="Z201" t="inlineStr"/>
       <c r="AA201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB201" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="AC201" t="n">
@@ -24729,7 +24729,7 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -24797,10 +24797,10 @@
         </is>
       </c>
       <c r="AC202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE202" t="n">
         <v>-4</v>
@@ -24857,7 +24857,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -24928,7 +24928,7 @@
         <v>0</v>
       </c>
       <c r="AD203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE203" t="n">
         <v>-4</v>
@@ -24985,7 +24985,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -25056,7 +25056,7 @@
         <v>0</v>
       </c>
       <c r="AD204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE204" t="n">
         <v>-4</v>
@@ -25113,7 +25113,7 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -25184,7 +25184,7 @@
         <v>0</v>
       </c>
       <c r="AD205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE205" t="n">
         <v>-4</v>
@@ -25241,7 +25241,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="AD206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE206" t="n">
         <v>-4</v>
@@ -25355,7 +25355,7 @@
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands', 'Ukraine']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -25451,7 +25451,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands', 'Ukraine']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -25579,7 +25579,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands', 'Ukraine']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -25707,7 +25707,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands', 'Ukraine']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -25835,7 +25835,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands', 'Ukraine']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -25949,7 +25949,7 @@
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Russia']</t>
+          <t>['Russia', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -26045,7 +26045,7 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Denmark']</t>
+          <t>['Denmark', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -26173,7 +26173,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Denmark']</t>
+          <t>['Denmark', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -26301,7 +26301,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Denmark']</t>
+          <t>['Denmark', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -26429,7 +26429,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>['Belgium', 'Russia', 'Denmark']</t>
+          <t>['Denmark', 'Russia', 'Belgium']</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -26557,7 +26557,7 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Denmark']</t>
+          <t>['Denmark', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -26685,7 +26685,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Denmark']</t>
+          <t>['Denmark', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -26813,7 +26813,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Denmark']</t>
+          <t>['Denmark', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -26927,7 +26927,7 @@
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'England', 'Croatia']</t>
+          <t>['Czech Republic', 'Croatia', 'England']</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -26963,11 +26963,11 @@
       <c r="Y220" t="inlineStr"/>
       <c r="Z220" t="inlineStr"/>
       <c r="AA220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB220" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'England']</t>
+          <t>['Czech Republic', 'England', 'Croatia']</t>
         </is>
       </c>
       <c r="AC220" t="n">
@@ -27023,7 +27023,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>['England', 'Croatia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Croatia', 'England']</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -27091,10 +27091,10 @@
         </is>
       </c>
       <c r="AC221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE221" t="n">
         <v>-2</v>
@@ -27151,7 +27151,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>['England', 'Croatia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Croatia', 'England']</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -27222,7 +27222,7 @@
         <v>1</v>
       </c>
       <c r="AD222" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE222" t="n">
         <v>-3</v>
@@ -27279,7 +27279,7 @@
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>['England', 'Croatia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Croatia', 'England']</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -27350,7 +27350,7 @@
         <v>1</v>
       </c>
       <c r="AD223" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE223" t="n">
         <v>-2</v>
@@ -27407,7 +27407,7 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>['England', 'Croatia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Croatia', 'England']</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -27478,7 +27478,7 @@
         <v>1</v>
       </c>
       <c r="AD224" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE224" t="n">
         <v>-3</v>
@@ -27535,7 +27535,7 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>['England', 'Czech Republic', 'Croatia']</t>
+          <t>['Czech Republic', 'Croatia', 'England']</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -27606,7 +27606,7 @@
         <v>0</v>
       </c>
       <c r="AD225" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE225" t="n">
         <v>-3</v>
@@ -27649,7 +27649,7 @@
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -27745,7 +27745,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -27873,7 +27873,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -28001,7 +28001,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -28129,7 +28129,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -28257,7 +28257,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -28385,7 +28385,7 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -28513,7 +28513,7 @@
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -28641,7 +28641,7 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -28769,7 +28769,7 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -28897,7 +28897,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -29011,7 +29011,7 @@
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Germany']</t>
+          <t>['France', 'Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -29107,7 +29107,7 @@
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['France', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -29235,7 +29235,7 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['France', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -29363,7 +29363,7 @@
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['France', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -29491,7 +29491,7 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['France', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -29619,7 +29619,7 @@
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['France', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -29747,7 +29747,7 @@
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Germany']</t>
+          <t>['France', 'Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -29875,7 +29875,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['France', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -30003,7 +30003,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Germany']</t>
+          <t>['France', 'Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -30117,7 +30117,7 @@
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr">
         <is>
-          <t>['Scotland', 'Germany', 'Switzerland']</t>
+          <t>['Germany', 'Scotland', 'Switzerland']</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -30213,7 +30213,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>['Scotland', 'Germany', 'Switzerland']</t>
+          <t>['Germany', 'Scotland', 'Switzerland']</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -30341,7 +30341,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>['Scotland', 'Germany', 'Switzerland']</t>
+          <t>['Germany', 'Scotland', 'Switzerland']</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -30583,7 +30583,7 @@
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy', 'Albania']</t>
+          <t>['Albania', 'Spain', 'Italy']</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -30619,11 +30619,11 @@
       <c r="Y250" t="inlineStr"/>
       <c r="Z250" t="inlineStr"/>
       <c r="AA250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB250" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy']</t>
+          <t>['Spain', 'Italy', 'Albania']</t>
         </is>
       </c>
       <c r="AC250" t="n">
@@ -30679,7 +30679,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Italy']</t>
+          <t>['Spain', 'Italy', 'Croatia']</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -30747,10 +30747,10 @@
         </is>
       </c>
       <c r="AC251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE251" t="n">
         <v>-2</v>
@@ -30878,7 +30878,7 @@
         <v>1</v>
       </c>
       <c r="AD252" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE252" t="n">
         <v>-2</v>
@@ -30935,7 +30935,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Italy']</t>
+          <t>['Spain', 'Italy', 'Croatia']</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -31006,7 +31006,7 @@
         <v>1</v>
       </c>
       <c r="AD253" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE253" t="n">
         <v>-2</v>
@@ -31049,7 +31049,7 @@
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -31273,7 +31273,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -31401,7 +31401,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['France', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -31657,7 +31657,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['France', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -31785,7 +31785,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -32027,7 +32027,7 @@
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr">
         <is>
-          <t>['England', 'Slovenia', 'Denmark']</t>
+          <t>['Slovenia', 'Denmark', 'England']</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -32109,7 +32109,7 @@
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr">
         <is>
-          <t>['Belgium', 'Slovakia', 'Romania']</t>
+          <t>['Slovakia', 'Romania', 'Belgium']</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -32205,7 +32205,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>['Belgium', 'Ukraine', 'Slovakia']</t>
+          <t>['Slovakia', 'Ukraine', 'Belgium']</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -32333,7 +32333,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>['Belgium', 'Slovakia', 'Romania']</t>
+          <t>['Slovakia', 'Romania', 'Belgium']</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -32447,7 +32447,7 @@
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal', 'Turkey']</t>
+          <t>['Turkey', 'Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -32483,11 +32483,11 @@
       <c r="Y266" t="inlineStr"/>
       <c r="Z266" t="inlineStr"/>
       <c r="AA266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB266" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey']</t>
+          <t>['Portugal', 'Turkey', 'Czech Republic']</t>
         </is>
       </c>
       <c r="AC266" t="n">
@@ -32543,7 +32543,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Turkey', 'Georgia', 'Portugal']</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -32671,7 +32671,7 @@
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Turkey', 'Georgia', 'Portugal']</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -32799,7 +32799,7 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Turkey', 'Georgia', 'Portugal']</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -32927,7 +32927,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Turkey', 'Georgia', 'Portugal']</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -33055,7 +33055,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Turkey', 'Georgia', 'Portugal']</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">

--- a/data/out/wiki/men/fifa/eu/goals_eu_fifa_men.xlsx
+++ b/data/out/wiki/men/fifa/eu/goals_eu_fifa_men.xlsx
@@ -633,7 +633,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['West Germany', 'Portugal']</t>
+          <t>['Portugal', 'West Germany']</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -2219,7 +2219,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -3535,7 +3535,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Netherlands']</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -3649,7 +3649,7 @@
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['France', 'Sweden']</t>
+          <t>['Sweden', 'France']</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -4129,7 +4129,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['France', 'Sweden']</t>
+          <t>['Sweden', 'France']</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -4595,7 +4595,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -4723,7 +4723,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -4851,7 +4851,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -4979,7 +4979,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -5107,7 +5107,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -5235,7 +5235,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -5363,7 +5363,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -5477,7 +5477,7 @@
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>['France', 'Bulgaria']</t>
+          <t>['Bulgaria', 'France']</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -5573,7 +5573,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>['Spain', 'Bulgaria']</t>
+          <t>['Bulgaria', 'Spain']</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -5701,7 +5701,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>['France', 'Spain']</t>
+          <t>['Spain', 'France']</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -5829,7 +5829,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>['France', 'Bulgaria']</t>
+          <t>['Bulgaria', 'France']</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -5957,7 +5957,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>['France', 'Bulgaria']</t>
+          <t>['Bulgaria', 'France']</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -6085,7 +6085,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>['France', 'Bulgaria']</t>
+          <t>['Bulgaria', 'France']</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -6213,7 +6213,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>['France', 'Spain']</t>
+          <t>['Spain', 'France']</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -6341,7 +6341,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>['France', 'Spain']</t>
+          <t>['Spain', 'France']</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -6455,7 +6455,7 @@
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -6551,7 +6551,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -6679,7 +6679,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -6807,7 +6807,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -6935,7 +6935,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -7191,7 +7191,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -7305,7 +7305,7 @@
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -7401,7 +7401,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -7529,7 +7529,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -7657,7 +7657,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -7785,7 +7785,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -7913,7 +7913,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -8041,7 +8041,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -9727,7 +9727,7 @@
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -9823,7 +9823,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>['Romania', 'Portugal']</t>
+          <t>['Portugal', 'Romania']</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -9951,7 +9951,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>['Romania', 'Portugal']</t>
+          <t>['Portugal', 'Romania']</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -10079,7 +10079,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -10207,7 +10207,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -10335,7 +10335,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -10463,7 +10463,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -10591,7 +10591,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -10719,7 +10719,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>['Romania', 'Portugal']</t>
+          <t>['Portugal', 'Romania']</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -10833,7 +10833,7 @@
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr">
         <is>
-          <t>['Spain', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Spain']</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -11057,7 +11057,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>['Spain', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Spain']</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -11313,7 +11313,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>['Spain', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Spain']</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -11569,7 +11569,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>['Spain', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Spain']</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -11697,7 +11697,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>['Spain', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Spain']</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -11811,7 +11811,7 @@
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -11907,7 +11907,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -12035,7 +12035,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -12163,7 +12163,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -12291,7 +12291,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -12789,7 +12789,7 @@
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr">
         <is>
-          <t>['Spain', 'Greece']</t>
+          <t>['Greece', 'Spain']</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -12885,7 +12885,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -13013,7 +13013,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -13141,7 +13141,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -13269,7 +13269,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>['Greece', 'Portugal']</t>
+          <t>['Portugal', 'Greece']</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -13383,7 +13383,7 @@
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -13479,7 +13479,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>['France', 'Croatia']</t>
+          <t>['Croatia', 'France']</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -13607,7 +13607,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>['France', 'Croatia']</t>
+          <t>['Croatia', 'France']</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -13735,7 +13735,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>['France', 'Croatia']</t>
+          <t>['Croatia', 'France']</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -13863,7 +13863,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -13991,7 +13991,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -14119,7 +14119,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -14247,7 +14247,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -14375,7 +14375,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -14503,7 +14503,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -14631,7 +14631,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -16075,7 +16075,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -16203,7 +16203,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -16331,7 +16331,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -16459,7 +16459,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -16573,7 +16573,7 @@
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -16669,7 +16669,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -16797,7 +16797,7 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -16925,7 +16925,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -17053,7 +17053,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -17181,7 +17181,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -17309,7 +17309,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -17437,7 +17437,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal']</t>
+          <t>['Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -18483,7 +18483,7 @@
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden']</t>
+          <t>['Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -18579,7 +18579,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -18707,7 +18707,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -18835,7 +18835,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -18963,7 +18963,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -19091,7 +19091,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -19205,7 +19205,7 @@
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr">
         <is>
-          <t>['Russia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Russia']</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -19301,7 +19301,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>['Russia', 'Greece']</t>
+          <t>['Greece', 'Russia']</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -19429,7 +19429,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>['Russia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Russia']</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -20393,7 +20393,7 @@
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -20859,7 +20859,7 @@
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -20955,7 +20955,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -21083,7 +21083,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -21211,7 +21211,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -21325,7 +21325,7 @@
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr">
         <is>
-          <t>['France', 'Romania', 'Switzerland']</t>
+          <t>['Switzerland', 'France', 'Romania']</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -21421,7 +21421,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>['France', 'Albania', 'Switzerland']</t>
+          <t>['Albania', 'Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -21535,7 +21535,7 @@
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Wales', 'England']</t>
+          <t>['England', 'Wales', 'Slovakia']</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -21631,7 +21631,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>['Slovakia', 'England', 'Wales']</t>
+          <t>['Wales', 'Slovakia', 'England']</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -21759,7 +21759,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>['Slovakia', 'England', 'Wales']</t>
+          <t>['Wales', 'Slovakia', 'England']</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -21887,7 +21887,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>['Slovakia', 'England', 'Wales']</t>
+          <t>['Wales', 'Slovakia', 'England']</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -22001,7 +22001,7 @@
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr">
         <is>
-          <t>['Germany', 'Northern Ireland', 'Poland']</t>
+          <t>['Germany', 'Poland', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -22097,7 +22097,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>['Germany', 'Northern Ireland', 'Poland']</t>
+          <t>['Germany', 'Poland', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -22225,7 +22225,7 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>['Germany', 'Northern Ireland', 'Poland']</t>
+          <t>['Germany', 'Poland', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -22339,7 +22339,7 @@
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Spain', 'Croatia']</t>
+          <t>['Croatia', 'Czech Republic', 'Spain']</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -22435,7 +22435,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Spain', 'Croatia']</t>
+          <t>['Croatia', 'Czech Republic', 'Spain']</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -22563,7 +22563,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>['Turkey', 'Spain', 'Croatia']</t>
+          <t>['Croatia', 'Turkey', 'Spain']</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -22691,7 +22691,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>['Turkey', 'Spain', 'Croatia']</t>
+          <t>['Croatia', 'Turkey', 'Spain']</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -22819,7 +22819,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>['Turkey', 'Spain', 'Croatia']</t>
+          <t>['Croatia', 'Turkey', 'Spain']</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -22947,7 +22947,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>['Turkey', 'Spain', 'Croatia']</t>
+          <t>['Croatia', 'Turkey', 'Spain']</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -23061,7 +23061,7 @@
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -23157,7 +23157,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -23285,7 +23285,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -23413,7 +23413,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -23541,7 +23541,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -23669,7 +23669,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -23797,7 +23797,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -23925,7 +23925,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -24053,7 +24053,7 @@
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -24181,7 +24181,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -24295,7 +24295,7 @@
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy', 'Sweden']</t>
+          <t>['Belgium', 'Sweden', 'Italy']</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -24391,7 +24391,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy', 'Ireland']</t>
+          <t>['Ireland', 'Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -24519,7 +24519,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy', 'Ireland']</t>
+          <t>['Italy', 'Ireland', 'Belgium']</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -24633,7 +24633,7 @@
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Wales', 'Switzerland', 'Italy']</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -24729,7 +24729,7 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Wales', 'Switzerland', 'Italy']</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -24857,7 +24857,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Wales', 'Switzerland', 'Italy']</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -24985,7 +24985,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Wales', 'Switzerland', 'Italy']</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -25113,7 +25113,7 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Wales', 'Switzerland', 'Italy']</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -25241,7 +25241,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Wales', 'Switzerland', 'Italy']</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -25355,7 +25355,7 @@
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Austria', 'Netherlands', 'Ukraine']</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -25451,7 +25451,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -25579,7 +25579,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -25707,7 +25707,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -25835,7 +25835,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -25949,7 +25949,7 @@
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium', 'Finland']</t>
+          <t>['Finland', 'Russia', 'Belgium']</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -26045,7 +26045,7 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>['Denmark', 'Belgium', 'Finland']</t>
+          <t>['Denmark', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -26173,7 +26173,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>['Denmark', 'Belgium', 'Finland']</t>
+          <t>['Denmark', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -26301,7 +26301,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>['Denmark', 'Belgium', 'Finland']</t>
+          <t>['Denmark', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -26557,7 +26557,7 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>['Denmark', 'Belgium', 'Finland']</t>
+          <t>['Denmark', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -26685,7 +26685,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>['Denmark', 'Belgium', 'Finland']</t>
+          <t>['Denmark', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -26813,7 +26813,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>['Denmark', 'Belgium', 'Finland']</t>
+          <t>['Denmark', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -26927,7 +26927,7 @@
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'England']</t>
+          <t>['Czech Republic', 'England', 'Croatia']</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -27023,7 +27023,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'England']</t>
+          <t>['Czech Republic', 'England', 'Croatia']</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -27151,7 +27151,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'England']</t>
+          <t>['Czech Republic', 'England', 'Croatia']</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -27279,7 +27279,7 @@
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'England']</t>
+          <t>['Czech Republic', 'England', 'Croatia']</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -27407,7 +27407,7 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'England']</t>
+          <t>['Czech Republic', 'England', 'Croatia']</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -27535,7 +27535,7 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'England']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -27649,7 +27649,7 @@
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -27745,7 +27745,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -27873,7 +27873,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -28001,7 +28001,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -28129,7 +28129,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -28257,7 +28257,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -28385,7 +28385,7 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -28513,7 +28513,7 @@
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -28641,7 +28641,7 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -28769,7 +28769,7 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -28897,7 +28897,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -29011,7 +29011,7 @@
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr">
         <is>
-          <t>['France', 'Germany', 'Portugal']</t>
+          <t>['Portugal', 'Germany', 'France']</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -29107,7 +29107,7 @@
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Portugal']</t>
+          <t>['Portugal', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -29235,7 +29235,7 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Portugal']</t>
+          <t>['Portugal', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -29363,7 +29363,7 @@
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Portugal']</t>
+          <t>['Portugal', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -29491,7 +29491,7 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Portugal']</t>
+          <t>['Portugal', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -29619,7 +29619,7 @@
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Portugal']</t>
+          <t>['Portugal', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -29747,7 +29747,7 @@
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>['France', 'Germany', 'Portugal']</t>
+          <t>['Portugal', 'Germany', 'France']</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -29875,7 +29875,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Portugal']</t>
+          <t>['Portugal', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -30003,7 +30003,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>['France', 'Germany', 'Portugal']</t>
+          <t>['Portugal', 'Germany', 'France']</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -30469,7 +30469,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland', 'Hungary']</t>
+          <t>['Germany', 'Hungary', 'Switzerland']</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -30583,7 +30583,7 @@
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr">
         <is>
-          <t>['Albania', 'Spain', 'Italy']</t>
+          <t>['Spain', 'Albania', 'Italy']</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -30679,7 +30679,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy', 'Croatia']</t>
+          <t>['Croatia', 'Spain', 'Italy']</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -30807,7 +30807,7 @@
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Italy']</t>
+          <t>['Croatia', 'Spain', 'Italy']</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -30935,7 +30935,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy', 'Croatia']</t>
+          <t>['Croatia', 'Spain', 'Italy']</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -31049,7 +31049,7 @@
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France', 'Austria']</t>
+          <t>['Netherlands', 'Austria', 'France']</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -31145,7 +31145,7 @@
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'France']</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -31273,7 +31273,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France', 'Austria']</t>
+          <t>['Netherlands', 'Austria', 'France']</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -31401,7 +31401,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Austria', 'France']</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -31529,7 +31529,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'France']</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -31657,7 +31657,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Austria', 'France']</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -31785,7 +31785,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France', 'Austria']</t>
+          <t>['Netherlands', 'Austria', 'France']</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -31913,7 +31913,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'France']</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -32027,7 +32027,7 @@
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr">
         <is>
-          <t>['Slovenia', 'Denmark', 'England']</t>
+          <t>['Denmark', 'England', 'Slovenia']</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -32063,11 +32063,11 @@
       <c r="Y262" t="inlineStr"/>
       <c r="Z262" t="inlineStr"/>
       <c r="AA262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB262" t="inlineStr">
         <is>
-          <t>['England', 'Denmark']</t>
+          <t>['England', 'Denmark', 'Slovenia']</t>
         </is>
       </c>
       <c r="AC262" t="n">
@@ -32109,7 +32109,7 @@
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Romania', 'Belgium']</t>
+          <t>['Romania', 'Slovakia', 'Belgium']</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -32205,7 +32205,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Ukraine', 'Belgium']</t>
+          <t>['Ukraine', 'Slovakia', 'Belgium']</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -32333,7 +32333,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Romania', 'Belgium']</t>
+          <t>['Romania', 'Slovakia', 'Belgium']</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -32447,7 +32447,7 @@
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr">
         <is>
-          <t>['Turkey', 'Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Turkey', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -32543,7 +32543,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>['Turkey', 'Georgia', 'Portugal']</t>
+          <t>['Portugal', 'Turkey', 'Georgia']</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -32671,7 +32671,7 @@
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>['Turkey', 'Georgia', 'Portugal']</t>
+          <t>['Portugal', 'Turkey', 'Georgia']</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -32799,7 +32799,7 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>['Turkey', 'Georgia', 'Portugal']</t>
+          <t>['Portugal', 'Turkey', 'Georgia']</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -32927,7 +32927,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>['Turkey', 'Georgia', 'Portugal']</t>
+          <t>['Portugal', 'Turkey', 'Georgia']</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -33055,7 +33055,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>['Turkey', 'Georgia', 'Portugal']</t>
+          <t>['Portugal', 'Turkey', 'Georgia']</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">

--- a/data/out/wiki/men/fifa/eu/goals_eu_fifa_men.xlsx
+++ b/data/out/wiki/men/fifa/eu/goals_eu_fifa_men.xlsx
@@ -633,7 +633,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -857,7 +857,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1113,7 +1113,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1995,7 +1995,7 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['West Germany', 'Spain']</t>
+          <t>['Spain', 'West Germany']</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -2219,7 +2219,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -2927,7 +2927,7 @@
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -3023,7 +3023,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -3151,7 +3151,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -3279,7 +3279,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -3407,7 +3407,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -3649,7 +3649,7 @@
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['France', 'Sweden']</t>
+          <t>['Sweden', 'France']</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -4129,7 +4129,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['France', 'Sweden']</t>
+          <t>['Sweden', 'France']</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -6327,7 +6327,7 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>['France', 'Bulgaria']</t>
+          <t>['Bulgaria', 'France']</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -6423,7 +6423,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Spain']</t>
+          <t>['Spain', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -6551,7 +6551,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>['France', 'Spain']</t>
+          <t>['Spain', 'France']</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -6679,7 +6679,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>['France', 'Bulgaria']</t>
+          <t>['Bulgaria', 'France']</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -6807,7 +6807,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>['France', 'Bulgaria']</t>
+          <t>['Bulgaria', 'France']</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -6935,7 +6935,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>['France', 'Bulgaria']</t>
+          <t>['Bulgaria', 'France']</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -7063,7 +7063,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>['France', 'Spain']</t>
+          <t>['Spain', 'France']</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -7191,7 +7191,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>['France', 'Spain']</t>
+          <t>['Spain', 'France']</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -7305,7 +7305,7 @@
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['Germany', 'Italy']</t>
+          <t>['Italy', 'Germany']</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -7401,7 +7401,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -7529,7 +7529,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -7657,7 +7657,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -7785,7 +7785,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['Germany', 'Italy']</t>
+          <t>['Italy', 'Germany']</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -7913,7 +7913,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>['Germany', 'Italy']</t>
+          <t>['Italy', 'Germany']</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -8041,7 +8041,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>['Germany', 'Italy']</t>
+          <t>['Italy', 'Germany']</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -8155,7 +8155,7 @@
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -8251,7 +8251,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -8379,7 +8379,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -8507,7 +8507,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -8635,7 +8635,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -8763,7 +8763,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -8891,7 +8891,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -10335,7 +10335,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -10463,7 +10463,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -10591,7 +10591,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -10719,7 +10719,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -11811,7 +11811,7 @@
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -11907,7 +11907,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -12035,7 +12035,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -12163,7 +12163,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -12291,7 +12291,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -12789,7 +12789,7 @@
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr">
         <is>
-          <t>['Greece', 'Spain']</t>
+          <t>['Spain', 'Greece']</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -12885,7 +12885,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -13013,7 +13013,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -13141,7 +13141,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -13383,7 +13383,7 @@
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -13479,7 +13479,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>['France', 'Croatia']</t>
+          <t>['Croatia', 'France']</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -13607,7 +13607,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>['France', 'Croatia']</t>
+          <t>['Croatia', 'France']</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -13735,7 +13735,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>['France', 'Croatia']</t>
+          <t>['Croatia', 'France']</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -13863,7 +13863,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -14375,7 +14375,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -14503,7 +14503,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -14631,7 +14631,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -15723,7 +15723,7 @@
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -15819,7 +15819,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -15947,7 +15947,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -16573,7 +16573,7 @@
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -16669,7 +16669,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -16797,7 +16797,7 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -16925,7 +16925,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -17053,7 +17053,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -17181,7 +17181,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -17309,7 +17309,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -17437,7 +17437,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal']</t>
+          <t>['Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -17551,7 +17551,7 @@
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -17647,7 +17647,7 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -17775,7 +17775,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -18483,7 +18483,7 @@
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -18579,7 +18579,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -18707,7 +18707,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -18835,7 +18835,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -18963,7 +18963,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -19091,7 +19091,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -19205,7 +19205,7 @@
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr">
         <is>
-          <t>['Russia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Russia']</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -19301,7 +19301,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>['Russia', 'Greece']</t>
+          <t>['Czech Republic', 'Russia']</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -19320,31 +19320,31 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="P156" t="n">
         <v>4</v>
       </c>
       <c r="Q156" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R156" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S156" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="T156" t="n">
         <v>4</v>
       </c>
       <c r="U156" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="V156" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W156" t="inlineStr">
         <is>
@@ -19365,20 +19365,20 @@
       </c>
       <c r="AB156" t="inlineStr">
         <is>
-          <t>['Russia', 'Greece']</t>
+          <t>['Russia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="AC156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE156" t="n">
         <v>0</v>
       </c>
       <c r="AF156" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AG156" t="n">
         <v>1780</v>
@@ -19497,10 +19497,10 @@
         </is>
       </c>
       <c r="AC157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE157" t="n">
         <v>0</v>
@@ -19543,7 +19543,7 @@
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal']</t>
+          <t>['Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -19767,7 +19767,7 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal']</t>
+          <t>['Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -20023,7 +20023,7 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal']</t>
+          <t>['Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -20151,7 +20151,7 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal']</t>
+          <t>['Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -20279,7 +20279,7 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal']</t>
+          <t>['Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -20393,7 +20393,7 @@
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -20859,7 +20859,7 @@
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -21325,7 +21325,7 @@
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France', 'Romania']</t>
+          <t>['Romania', 'Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -21421,7 +21421,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France', 'Albania']</t>
+          <t>['Albania', 'Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -21535,7 +21535,7 @@
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Wales', 'England']</t>
+          <t>['Wales', 'England', 'Slovakia']</t>
         </is>
       </c>
      